--- a/output/Total_time_range_data/宁夏回族自治区/中卫市_学习考察.xlsx
+++ b/output/Total_time_range_data/宁夏回族自治区/中卫市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F192"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6142 +436,6720 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>293</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>今年职称申报继续教育审验工作全面启动</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2017-03-24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201703/t20170324_598110.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['按照自治区人社厅专业技术人员继续教育工作要求，专业技术人员在报送申报晋升职称材料时，须填报《继续教育考核表》和继续教育审验材料，同时，申报2017年高、中级专业技术任职资格评审的专业技术人员，须完成以下规定的继续教育。', '申报副高级及以上专业技术职务任职资格的，审验近5年（2012-2016年）继续教育学时，总学时累计不少于360学时，其中须完成《专业技术人员创新案例》《心理健康与心理调适》《学术道德与学术规范》和《专业技术人员团队建设与创新》（或《专业技术人员能力建设读本》《当代科学技术新知识》）4门公需课的学习；申报中级专业技术职务任职资格的，审验近4年（2013-2016年）继续教育学时，总学时累计不少于288学时，其中须完成《学术道德与学术规范》和《专业技术人员团队建设与创新》（或《专业技术人员能力建设读本》《当代科学技术新知识》）2门公需课的学习；在审验年限期间取得高一级学历或第二学历的教育，可视为接受继续教育，其中，在审验期内入学并毕业的，视同完成审验期继续教育任务，只提交学历证明；跨在审验期内入学并毕业的，具体学时由院校提供学时证明，并完成审验期内的公需课目学习。参加国内外考察和专业技术交流活动的，依据考察或培训的有关文件，按实际考察培训时间（路程时间除外），每天以6学时折合计算专业课程培训学时。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>293</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>庆阳市考察组来我市考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/xwzx/zwkx/zwyw/202405/t20240527_4551220.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['5月23日，庆阳市委书记黄泽元率队来卫考察数据中心集群建设经验做法。市委副书记、市长马洪海与考察组一行座谈交流。', '座谈交流中，黄泽元对中卫给予庆阳发展的关心支持表示感谢。他说，近年来，庆阳抢抓国家“东数西算”战略机遇，将“东数西算”作为“一号工程”，全力打造“东数西算”标杆城市，加快建设“一个园区、四个中心”，历史性取得“十大成果”。此次到中卫考察数据中心集群建设感受深切，中卫发展云计算和大数据产业起步早、规模大，庆阳将学习中卫在发展云计算和大数据产业过程中的创新思路、创新做法、创新经验。在推进数据中心集群建设中，希望双方进一步加强交流合作，携手在云计算和大数据产业发展中探索新经验，加快培育和发展新质生产力，在推动高质量发展上同频共振。', '马洪海对庆阳市考察组来卫考察表示欢迎，对庆阳给予中卫发展的关心支持表示感谢。马洪海说，中卫与庆阳山水相连、人缘相亲、文化相通，既是新时代西部大开发、黄河流域生态保护和高质量发展两大区域战略“双覆盖”的地区，又是全国一体化算力网络国家枢纽重要节点城市。中卫希望同庆阳一道认真贯彻落实习近平总书记在新时代推动西部大开发座谈会上的重要讲话精神，聚焦大保护、大开放、高质量发展，在推动高质量发展、培育高能级产业、打造高颜值生态、构建高水平开放、创造高品质生活上协同发力，共同书写新时代黄河“几字弯”经济圈合作新典范、新标杆。', '考察期间，庆阳市考察组深入中国联通中卫云数据中心、美利云中卫数据中心、中国移动中卫数据中心等地，实地考察我市数据中心集群建设发展情况。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>293</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>市科学技术局关于开展机关开放日活动的通知</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2017-09-20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/skxjsj/fdzdgknr_49279/bmwj_49309/201801/t20180124_677954.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['为深入推进“两学一做”学习教育常态化制度化，按照市委关于开展“忠诚干净、担当干事”作风建设专项活动和开展“制度落实监督年”活动以及市直机关工委《关于开展“让机关干部走出去，把人民群众请进来”机关开放日活动的通知》（卫直党发〔2017〕23号）要求，为使广大群众和社会各界切实了解全市科技工作发展情况，经研究，决定开展“机关开放日”活动。现就有关事宜通知如下。', '开展以“让机关干部走出去，把人民群众请进来；转变服务方式，推动科技工作创新发展”为主题内容的“机关开放日”活动。通过组织“两代表一委员”和相关人员实地考察科技型企业，与科技工作人员沟通，了解中卫科技工作发展情况，积极为中卫经济社会创新发展建言献策。', '1、现场观摩。实地观摩考察宁夏瑞翼天成自动化科技有限公司、宁夏中卫国家农业科技园区、宁夏天瑞产业集团有限公司，了解中卫科技型企业和现代农业发展情况。', '实地观摩考察宁夏瑞翼天成自动化科技有限公司、宁夏中卫国家农业科技园区、宁夏天瑞产业集团有限公司，了解中卫科技型企业和现代农业发展情况。', '2、召开座谈会。由市科技局负责人汇报中卫科技工作情况，与会人员对市科技局工作提出意见建议，对市科技局工作进行测评。', '由市科技局负责人汇报中卫科技工作情况，与会人员对市科技局工作提出意见建议，对市科技局工作进行测评。', '（一）加强组织领导。成立以局长为组长，副局长为副组长，各科室负责人为成员的“市科技局‘机关开放日’工作领导小组”，负责落实整体活动的组织、协调工作，确保活动顺利开展。', '成立以局长为组长，副局长为副组长，各科室负责人为成员的“市科技局‘机关开放日’工作领导小组”，负责落实整体活动的组织、协调工作，确保活动顺利开展。', '（二）务求取得实效。此次活动要严格落实中央八项规定和区、市党委有关实施办法要求，坚持热情、简朴、务实、安全原则，确保活动取得成效。各科室要按照责任分工，明确职责，狠抓落实，对参加活动的群众代表和“两代表一委员”提出的问题要制定问题整改清单，限期进行整改。', '此次活动要严格落实中央八项规定和区、市党委有关实施办法要求，坚持热情、简朴、务实、安全原则，确保活动取得成效。各科室要按照责任分工，明确职责，狠抓落实，对参加活动的群众代表和“两代表一委员”提出的问题要制定问题整改清单，限期进行整改。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>293</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>马洪海调研镇罗镇乡村产业发展情况并作七一专题党课宣讲</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-07-03</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/xwzx/zwkx/zwyw/202407/t20240703_4584335.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['7月1日，市委副书记、市长马洪海调研沙坡头区镇罗镇乡村产业发展情况并作“七一”专题党课宣讲，强调要深入学习贯彻习近平总书记考察宁夏重要讲话精神，坚定不移沿着习近平总书记指引的方向奋勇前进，担当新使命、展现新作为，在推动中卫各项事业发展中再立新功、再创佳绩。', '调研中，马洪海到宁夏普天瑞农农业有限公司，详细了解种苗价格、育苗量和市场销售等情况，强调要在品种选优、品质提升上下功夫，壮大村集体经济，促进群众持续稳定增收。', '纪律专题党课宣讲中，马洪海指出，习近平总书记始终情系塞上江南、心系宁夏人民，党的十八大以来三次亲临宁夏考察指导并发表重要讲话，充满着对宁夏人民的如山厚爱和似海深情。各级党组织和广大党员干部要深入学习贯彻习近平总书记考察宁夏重要讲话精神，深刻领悟“三个着力”“三个务必”，不断增强“四个意识”、坚定“四个自信”。要学习好《中国共产党纪律处分条例》、贯彻好党的“六大纪律”，牢记初心使命，坚决落实“四项重点任务”，推动全市经济社会高质量发展，向党和人民交出满意答卷。', '马洪海强调，要大力推进产业振兴，因地制宜发展特色优势产业，走可持续发展之路。要大力推进人才振兴，育强“两个带头人”队伍，念好“引育用”三字诀。要大力推进文化振兴，常态化开展移风易俗工作，推动铸牢中华民族共同体意识走深走实。要大力推进生态振兴，大力倡导爱护环境、节约资源，实现人与自然和谐共生。要大力推进组织振兴，发挥政治功能、组织功能，实现法治、德治、自治“三治”融合，不断缩小城乡居民收入差距，奋力绘就宜居宜业和美乡村新画卷。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>293</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>连云港市考察团来卫参观考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2015-08-06</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201508/t20150806_596165.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['8月3日至4日，江苏省连云港市委常委、宣传部部长滕雯带领考察团到我市参观考察。市委常委、宣传部部长陶雨芳陪同考察。', '考察团一行先后来到黄河宫、香山公园、五馆一中心、亚马逊AWS数据中心项目和云创数据中心项目等地，通过实地参观考察，对我市城市建设、旅游优先发展战略、云计算产业的理念和定位进行了详细了解。黄河宫生动的景观，让考察团了解体验了黄河文化；香山公园清澈的湖水、碧绿的草坪、香气四溢的花朵，让代表团感到赞叹和惊讶。对于地处大西北的一个年轻的地级市，能在短时间内拉大城市框架，提升城市品位，完善基础设施，连云港市代表团非常赞赏。在亚马逊AWS数据中心项目和云创数据中心项目基地，考察团在听取了西部云基地数据中心项目的整体情况、规划建设、配套基础设施、运营模式等方面的介绍后，对我市大力发展云计算产业的决心给予了高度评价。', '连云港报业传媒集团策划总监、《苍梧晚报》副总编陈刚说：“我是第一次到宁夏中卫，应该说对中卫起初的印象是塞上江南，但我们对塞上江南的概念并不是太清楚，在脑海里面总感觉到是沙漠，然后是黄河。通过这次考察使我真正了解了黄河文化，同时也感受到了塞上江南的特色。中卫的城市建设很大气，城市管理很精细，这一点很值得我们连云港人学习。还有腾格里沙漠湿地·金沙岛旅游区，像这种花园、绿洲在我们沿海地区可能都做不到这么好，规模也做不到这么大，然而在沙漠当中能够崛起这么一个绿洲，这么一个花海，我们非常之感动，非常之震惊，不愧为沙漠水城、花儿杞乡、休闲中卫。”']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>293</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>江西省考察团来卫考察</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2016-06-29</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201606/t20160629_596934.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['在宁夏中关村科技产业园中卫云中心，殷美根一行详细了解我市云计算产业及军民融合产业发展情况。目前，我市西部云基地已在国内率先建成采用全自然风冷技术、模块化定制、超大规模部署的两个超大型新一代云计算数据中心，国内外云计算龙头企业亚马逊AWS、奇虎360等知名企业已纷纷入驻中卫，一批云数据、云制造、云应用、云服务项目也正在积极推进。殷美根一行认为，中卫市领导干部思路清晰，目标明确，云计算产业正在阔步前行，快速发展，它将在推动中卫发展中发挥重要作用。', '“以克论净 深度清洁”保洁机制是我市的一项创新性工作，殷美根对中卫这一做法和经验深为赞许，并对体制机制、作业模式等方面进行了详细了解。他希望江西省能借鉴学习中卫的环卫保洁模式，提升自身环卫保洁水平。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>293</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>开展大调研送政策办实事促发展活动</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2021-03-24</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sgyhxxhj/fdzdgknr_49315/bmxx_49348/202104/t20210402_2688541.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['近日，结合党史学习教育，市工业和信息化局党组决定开展“大调研、送政策、办实事、促发展”活动，以切实将“学党史、悟思想、办实事、开新局”落到实处，有效促进我市工业经济高质量发展。', '一是深入进行大调研。局党组将组成专门考察调研组，到区内进行考察学习，借鉴学习兄弟市推进“四大改造”、促进工业经济高质量发展，推动工业结构调整、增长动力转换，强化节能降耗等方面的经验和做法，形成调研报告，报市委、市政府。各分管领导、各科室也将结合分管业务，深入各县区、工业园区、重点企业进行调研，了解分管业务发展情况，提出针对性措施和建议。', '管领导、各科室也将结合分管业务，深入各县区、工业园区、重点企业进行调研，了解分管业务发展情况，提出针对性措施和建议。', '二是广泛精准送政策。深入企业诊断服务，了解企业发展现状和政策需求，采取召开培训班、印发政策宣传册等形式，全面广泛宣传中央、自治区和我市各类惠企政策，提高企业政策知晓度。', '三是扶企惠企办实事。坚持把办实事、解难题贯穿党史学习教育全过程，积极开展“我为群众办实事”实践活动，着力解决工业企业面临的难事、难题、难点。实行领导干部包抓重点企业制度，要聚焦重点企业发展中的项目审批、融资等具体困难和问题，积极帮助企业解决。同时，要深入分析工业经济发展和企业存在的普遍性问题，深入研究提出相应的扶持政策，从体制机制方面解决问题。', '四是力促工业高质量发展。在大调研、送政策、办实事的基础上，着力推进“四大改造”，加大招商引资力度，促进园区优化整合，推动我市工业结构调整、增长动力转换，促进工业经济高质量发展，圆满完成全年工业经济发展目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>293</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>马洪海主持召开市人民政府第次常务会议</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-07-12</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/cwhy/202407/t20240712_4594384.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['7月8日，市委副书记、市长马洪海主持召开市政府第86次常务会议，学习贯彻习近平总书记考察宁夏重要讲话精神、6月27日中共中央政治局会议上的重要讲话精神和对湖南岳阳市华容县团洲垸洞庭湖一线堤防发生决口作出的重要指示精神，传达学习自治区党委理论学习中心组（扩大）学习会精神等，听取相关工作推进情况汇报，安排部署有关工作。', '会议指出，水是事关国计民生的基础性自然资源和战略性经济资源。各县（区）、各部门要深入学习领会习近平总书记考察宁夏重要讲话精神和关于治水的重要论述，站位全局、服务大局，准确把握全方位贯彻“四水四定”重大要求。要加大水资源改革攻坚、强化水资源刚性约束、优化水资源配置效率，扎实推进“四水四定”目标任务落实。要狠抓责任落实、严格督查考核、强化社会参与，加快形成推进“四水四定”强大合力，高效统筹“人、城、水”和谐共生。', '会议强调，要贯彻落实习近平总书记关于全面深化改革的重要论述，提高政治站位、把准价值取向、注重落实落地，科学谋划全面深化改革具体举措，推动全面深化改革提质增效。要全面贯彻习近平生态文明思想，统筹推进高质量发展和高水平保护，在发展特色优势产业、积极扩大有效投资、筑牢绿色生态屏障、统筹兼顾系统谋划上取得新突破。要立足防大汛、抗大险、救大灾，坚决扛起防灾救灾责任，落实落细各项应急措施，筑牢防汛救灾责任防线，扎扎实实、从严从实从细做好防汛抗旱各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>293</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>贵阳市考察团来卫考察</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/xwzx/zwkx/zwyw/202406/t20240628_4579792.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['6月27日，贵州省委常委、贵阳市委书记、贵安新区党工委书记胡忠雄带领贵阳市考察团来卫考察。市委书记、市人大常委会党组书记张利陪同。', '中卫市科技馆（云展馆）位于中卫工业园区，一层展厅概述了国家战略背景、中卫优势、气候环境、产业政策、发展历程、引进企业等内容。考察团一行深入了解中卫云计算和大数据产业发展等情况，认为中卫区位优势明显，能源富足、气候冷凉，是全国一体化算力网络国家枢纽节点和国家新型互联网交换中心，算力产业基础完备、发展前景十分广阔，表示双方应进一步加强交流、互学互鉴，深化数字经济合作，实现优势互补、互利共赢。', '中国联通中卫云数据中心项目定位为中国联通集团公司西部数据运营中心和云计算中心，建设6栋独立机房，计划部署机架2.4万个，可安装服务器30万台以上。同时，中国联通集团公司将该数据中心提升为省际互联网节点，将进一步优化中卫至北京、上海、西安等骨干互联网节点城市网络质量。在中国联通中卫云数据中心，考察团详细了解并实地察看国家（中卫）新型互联网交换中心规划建设情况，表示通过这次实地考察，对新型互联网交换中心建设运营有了更加深入的了解，希望进一步加强与中卫沟通联系，谋求合作发展，共同推进两地数字经济发展再上新台阶。', '中国移动中卫云数据中心项目定位为中国移动集团公司西部数据运营中心、云计算中心、智算中心、骨干网络节点，是西北五省（区）唯一一个获得工信部双认证的数据中心，目前已建成集算力、存储、管理为一体的智算平台，可提供资源管理、底层硬件虚拟化、AI计算框架及模型供给等服务。考察团详细了解数据中心规划建设及前沿技术研发应用等情况，认为中卫在数字经济发展上有很多好思路、好经验、好做法值得学习借鉴，同时也真切感受到了中卫集聚的产业优势和迸发的创新活力。', '考察团一行还实地考察了中卫文化旅游产业发展情况，表示通过此次考察受到了启发、开拓了思路，下一步将认真总结此次考察成果，学习借鉴先进经验，推动文旅产业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>293</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>加强学习交流力推医保改革</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2024-06-25</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/bmxxgkml/sylbzj/fdzdgknr_50128/bmxx_50162/202406/t20240625_4575674.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['为学习先进经验做法，加强医保工作交流，提升管理和服务水平。6月20日至6月21日，市医保局组织分管领导及相关科室业务人员，赴银川市、吴忠市、石嘴山市医保局开展考察交流学习。', '日，市医保局组织分管领导及相关科室业务人员，赴银川市、吴忠市、石嘴山市医保局开展考察交流学习。', '市医保局调研组一行考察学习了DIP支付方式改革、病种赋值、定点医药机构结算清算模式及医疗服务价格调整等方面的工作经验和做法，现场查看了业务系统模块、功能。召开座谈会，针对医保工作中遇到的“难点、堵点、痛点”问题进行了深入探讨交流，现场氛围友好、讨论热烈，双方互学互鉴、共商共研，为彼此提供了许多可以借鉴、行之有效的医保工作思路和措施。', '支付方式改革、病种赋值、定点医药机构结算清算模式及医疗服务价格调整等方面的工作经验和做法，现场查看了业务系统模块、功能。召开座谈会，针对医保工作中遇到的', '问题进行了深入探讨交流，现场氛围友好、讨论热烈，双方互学互鉴、共商共研，为彼此提供了许多可以借鉴、行之有效的医保工作思路和措施。', '通过此次考察学习，大家纷纷表示，将结合工作实际认真吸收先进做法和宝贵经验，切实把考察学习成果转化为谋划工作的思路举措，取长补短、真抓实干，不断推进医保支付方式改革、医保结算清算精细化管理，提升医疗保障便民服务水平，促进医保事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>293</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>酒泉市考察组考察我市云计算产业发展等工作</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2016-08-31</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zjzw/xbyjd/201712/t20171213_636443.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['8月12日，甘肃省酒泉市市长都伟率考察组对我市云计算产业发展、工业发展、城市建设与管理等工作进行了实地考察。考察组认为，中卫发展后劲足，发展前景广阔，在云计算产业、城市管理等方面具有模范带头作用。副市长祝增坤一同考察。', '考察组一行深入我市云创数据中心、宁夏协鑫晶体科技发展有限公司、宁夏紫光天化蛋氨酸有限责任公司、中卫云中心、香山公园、五馆一中心实地考察，对我市云计算产业发展现状、“以克论净”深度保洁模式等进行了深入了解。', '目前，中卫西部云基地已在国内率先建成采用全自然风冷技术、模块化定制、超大规模部署的两个超大型新一代云计算数据中心，世界云计算龙头企业亚马逊AWS、奇虎360等知名企业已纷纷入驻中卫，一批云数据、云制造、云应用、云服务项目也正在积极推进，云计算产业链正在不断延伸扩大。', '考察组表示，中卫环境优美，宜居宜业，是一座年轻而具有活力的城市。考察组对中卫发展云计算产业的信心和决心表示赞许，认为中卫市领导干部思路清晰，目标明确，云计算产业正在快速发展，将在推动中卫信息产业发展和产业转型升级中发挥重要作用。同时，中卫“以克论净”深度保洁模式是一项创新性工作，值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>293</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>钦州考察团考察中卫媒体融合工作</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2016-11-10</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201611/t20161110_597478.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['11月4日，广西钦州市媒体融合考察团考察我市媒体融合发展情况。考察团认为，中卫市在推动传统媒体与新兴媒体融合发展上走在了前列，值得学习借鉴。', '座谈会上，中卫新闻传媒中心负责人介绍了我市媒体融合发展的经验做法。2014年8月4日，中卫日报社、中卫广播电视台、中卫新闻网三家单位融合，组建成立了中卫新闻传媒中心。中卫新闻传媒中心自挂牌运行以来，着力在新媒体建设和提高传播能力上、创新新闻媒体体制机制和提升适应市场能力上、创新技术手段及呈现手法上实现新突破，全方位增强了新闻媒体的整体实力和竞争力，开创了推动中卫传统媒体与新兴媒体融合发展的新局面。', '“此次到中卫考察，让我感触很大，中卫市领导对媒体融合发展高度重视，改革力度很大，值得学习借鉴。”考察团成员宋雁说。', '考察团一行还参观了宁夏中关村科技产业园云天产业园、沙坡头水镇海原刺绣剪纸馆、高庙历史文化街区改造项目。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>293</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>海原县推进基层整合审批服务执法力量改革工作</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2021-01-15</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/qxdt/202101/t20210115_2571370.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['近日，海原县组织领导干部，各乡镇（街道办）、县直有关部门（单位）党政主要负责人共计78人赴中宁县、青铜峡市考察学习推进基层整合审批服务执法力量改革工作。', '考察团一行先后深入中宁县喊叫水乡民生服务中心和石空镇人民政府、青铜峡市大坝镇人民政府和裕民街道民生社会治理服务中心，通过听取推进基层整合审批服务执法力量改革总体情况的介绍，详细了解关于顶层设计、体制改革、基层编制等难题的破解策略。观摩综合执法、民生服务、农业综合服务、党建工作流程和网格化管理工作，学习借鉴中宁县和青铜峡市在推进基层整合审批服务执法力量改革工作的好做法、好经验。', '推进基层整合审批服务执法力量改革是构建简约高效基层管理体制，完善基层治理体系、提升基层治理能力的重要举措，是对基层机构职能体系的一次重构性变革。目前，改革试点全面完成，取得了阶段性成效。考察团成员一致表示，通过此次考察学习，进一步认清了改革的方向，坚定了工作信心。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>293</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>上海宁夏商会考察团来卫考察</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2017-04-11</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201704/t20170411_598129.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['4月9日，宁夏驻上海办事处主任、上海宁夏商会党建指导员谢彦平，宁夏驻上海办事处副主任许锐，上海宁夏商会副会长丁凯带领考察团来卫考察。市领导马世军、王伟、朱凼凼一同考察。', '考察团一行先后前往宁夏中关村科技产业园云天产业园、宁夏万齐农业发展集团、宁夏协鑫晶体科技公司、宁夏中关村科技产业园西部云基地、宁夏誉成云创公司数据中心等地，详细了解了我市以云计算、云制造、云应用为代表的新经济产业及现代农业发展情况。', '在云天产业园，考察团成员详细了解了我市云计算产业和军民融合产业发展情况。近年来，我市云计算和大数据产业发展迅猛。国内外云计算龙头企业亚马逊AWS、奇虎360等知名企业入驻中卫，一批云计算、云制造、云应用项目积极推进，我市云计算产业正稳步前行。考察团一致认为，我市依托云计算与大数据资源优势，围绕“航天+互联网”模式，创新军民融合产业，云计算创新研发和技术成果转化效果显著，中卫以云计算、云制造、云应用为代表的新经济正阔步前行，值得学习。', '马世军对考察团的到来表示欢迎。他说，今年，我市在产业发展上继续改革创新，大力推进新材料产业向高端化发展、新能源产业向集成化发展、新经济向规模化发展。在发展现代农业上加强科技支撑，坚持建设绿色产业基地、打通流通环节、走向高端市场发展模式。他希望各企业加强沟通，互相学习，促进合作，共同推动经济发展。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>293</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>湖南省岳阳市考察团来卫考察张柱加强沟通交流互学互帮互助共建美好家园</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2017-06-19</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201706/t20170619_598706.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['湖南省岳阳市考察团来卫考察 张柱：加强沟通交流，互学互帮互助，共建美好家园_中卫市人民政府', '6月16日，湖南省岳阳市委书记胡忠雄带领考察团来卫考察。自治区党委常委、市委书记、市人大常委会主任张柱在一同考察时表示，希望中卫、岳阳两市今后能进一步加强沟通交流，建立友好关系，相互宣传，互帮互助，共同推动两市经济社会发展，携手共建美好家园。市委常委、组织部部长刘成孝一同考察。', '当日，胡忠雄一行来到我市高庙历史文化街区改造项目现场，实地考察了我市城市规划建设情况。', '飞檐挑角、额枋红柱，古建风格浓郁，别有一番韵味。夏日的高庙历史文化街区古韵俱显，人来人往、热闹非凡。高庙历史文化街区改造是我市近年来城市建设的亮点之一，该项目按照明清古建筑风格，秉持集旅游业态、商服功能为一体的理念，对市区北至长城路、南至中央大道、东至文昌街、西至应理街范围内重要建筑进行改造提升，规划建设以高庙古建筑群为核心的旅游区，在建筑沿街及侧面、檐口打造明清古建筑风格，并适度建设古建廊道，形成集文化展示、古城居民特色为一体的传统文化区，再现中卫古城风貌，这对我市加快开发高庙旅游资源、挖掘中卫文化街区特色、实现城市景区化、凸显特色城市功能具有重要意义。随着我市不断加快推进全域旅游建设的步伐，中卫以水为源、以绿为美、以净为荣、以人为本，打造宜居宜业宜游特色城市的目标即将实现。目前，我市城市绿地率和绿化覆盖率分别达到32.7%和38.5%，市区水域面积达到3300亩，呈现出了中卫独特的生态美。', '在高庙历史文化街区改造项目现场，胡忠雄详细了解了我市城市规划建设和“以克论净”城市保洁机制，对我市城市建设的各项举措十分赞赏。胡忠雄说，中卫市发展让人意想不到，特别是中卫市的创新发展理念值的我们学习借鉴。他嘱咐考察团人员，要把中卫市好的经验和做法带回岳阳市，学习借鉴到实际工作中，推动岳阳市经济社会发展。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>293</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>银川市考察组来卫考察</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2015-05-04</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201505/t20150504_595872.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['4月29日，由银川市人大常委会党组书记、主任孙荣山带领的考察组来卫，就我市旅游业发展、公共文化服务体系、交通运输、农产品加工出口等工作进行考察，同时，就两市进一步加强合作进行沟通交流。市人大常委会副主任刘金柱陪同考察，副市长王君兰参加座谈会。', '座谈会上，王君兰向考察组介绍了我市近年来经济社会发展情况。近年来，我市大力实施“旅游优先发展”战略，从规划引领、创新机制、项目带动、强化管理、推介营销等5个方面，全力推进旅游产业由随意开发向规划引领转变、资源战略向品牌战略转变、景区时代向目的地时代转变、特色产业向支柱产业转变，全市旅游产业得到了迅猛发展。在交通运输方面，截至2014年年底，全市公路通车里程7478.09公里；经过中卫市城区境内的铁路有4条；沙坡头机场目前开通北京—中卫—西宁航线。', '座谈中，市工信局、市交通运输局等部门相关负责人分别就两市在信息化产业、交通协作等方面提出了建议意见。', '考察组认为，中卫市在发展旅游产业方面大视野谋划、高起点规划、大空间运作，值得银川学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>293</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>杨树春同志带领市工信局及重点工业企业负责人赴宁夏宝丰能源集团公司考察交流</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sgyhxxhj/fdzdgknr_49315/bmxx_49348/202307/t20230725_4192663.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['杨树春同志带领市工信局及重点工业企业负责人赴宁夏宝丰能源集团公司考察交流_中卫市人民政府', '市政协副主席、财政局局长杨树春同志带领市工业和信息化局等市直部门和重点工业企业负责人', '宁夏宝丰能源集团循环经济坚持走精细化、现代化发展之路，不断推进煤炭资源多元化、清洁化、低碳化开发利用，走出了一条独具特色的循环经济发展之路。宝丰农光一体化项目', '，发展农光互补等特色产业，基地采用立体化创新模式，建设光伏自备电厂项目，并在光伏板下种植适生性、经济性林草，实现生态可持续治理。为', '实地参观学习结束后，考察组与宝丰集团相关负责人进行了座谈交流，双方就新能源项目开发，电池材料项目产业链合作，企业间产品供需等方面进行了深入洽谈，为后续合作发展奠定了坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>293</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>吴忠市政府和中宁县审批服务管理局来卫考察学习</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2019-02-25</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sspfwglj/fdzdgknr_50167/bmxx_50197/201908/t20190801_1641760.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['考察学习组一行首先参观了市政务服务中心大厅窗口运行情况，然后在市政务中心三楼会议室召开了有市政府肖博副秘书长、市编办、司法局、审批服务管理局领导参加的座谈会。', '座谈会上，双方坚持以问题导向、目标导向、效果导向为指引，围绕“放管服”改革、优化营商服务环境及审批服务管理局“三定”方案、机制运行情况等重点工作开展了深入细致的探讨。', '通过交流，互相学习、交流经验，对行政审批服务改革具体职能、任务有了更全面详细的认识了解，对工作业务流程再造有了深层次的理解，深切感受到了与其他市县（区）行政审批服务工作之间的差距，进一步拓宽了工作思路，明确了方向目标，为今后我局深化行政审批改革、健全完善各项制度、打造便民利企的政务服务环境提供了借鉴经验。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>293</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>中卫工业园区迅速传达学习习近平总书记考察宁夏重要讲话和重要指示精神</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2020-06-15</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/ztzl/xjpzsjscnxzyjhjs/202009/t20200927_2244921.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['中卫工业园区迅速传达学习习近平总书记考察宁夏重要讲话和重要指示精神_中卫市人民政府', '6月15日上午，中卫工业园区管委会机关组织全体干部职工召开了学习习近平总书记考察宁夏的重要讲话和重要指示精神专题会。会议集中传达学习了习近平总书记亲临宁夏考察的重要讲话和重要指示精神和自治区党委常委会（扩大）会议有关精神。', '会议指出，学习好、宣传好、贯彻好会习近平总书记视察宁夏的重要讲话精神，是园区当前和今后一个时期的首要政治任务。要拔高政治站位，深化总书记重要讲话精神对园区各方面工作的领导和指引；要营造浓厚氛围，以管委会机关带头，发动园区各界，尤其是在各企业中，迅速推动宣传和学习落实；要深刻领会精神实质，坚持领导带头学、把握重点学、深入思考学，把学习贯彻工作做实、做全、做细。', '会议强调，园区上下要认真学习，准确掌握习近平总书记重要讲话精神的深刻内涵，切实将各项工作向精神实质靠拢。将总书记的指示精神，转化为园区在坚定持续深化改革、推动园区高质量发展等重大创新工作上的强大动力和必胜决心，保持激情创业、热情干事的精神风貌，为我市脱贫攻坚收官之年、全面小康决胜之年交上一份群众可心、成长可观、成绩可靠的满意答卷。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>293</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>中卫代表团到福建考察学习</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2018-11-21</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201811/t20181121_1175877.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['11月18日至19日，市委副书记、代市长李晓波带领中卫代表团到福建省漳州市考察学习，对接东西部闽宁扶贫协作工作，进一步贯彻落实习近平总书记在东西部扶贫协作座谈会上的重要讲话精神，与漳州市就深化扶贫协作、促进两地共同发展进行了深入交流。', '在漳州期间，中卫代表团受邀参加了第十届海峡两岸现代农业展览会·第二十届海峡两岸花卉展览会开幕式，先后来到青蛙王子（漳州）日化有限公司、大闽食品（漳州）、闽南水乡、天福茶产业园、海峡两岸（漳州）现代农业硅谷、海峡花卉集散中心等地，参观学习漳州市产业转型、创新发展、脱贫攻坚的好经验好做法，并调研了宁夏中卫农产品外埠窗口开展情况。', '据了解，自1996年闽宁两省区对口协作确立以来，福建省厦门市湖里区、同安区、集美区，漳州市漳浦县先后与海原县建立对口帮扶关系。今年以来，海原县争取闽宁帮扶资金4036万元，实施扶贫项目13个。其中，建成千亩以上小杂粮示范园区5个，新建连栋智能温室2500平方米；扶持企业在海原县红羊乡术川村打造七彩梯田2000亩；扶持30个村级光伏扶贫电站；引导13家企业落户海原，带动贫困人口脱贫6700人；建成运营西安镇薛套村、园河村等10个村级扶贫车间；福建支教团派遣2名教师到海原县支教（累计派遣44名），厦门大学研究生支教团派遣12名研究生来海原县开展支教（累计派遣192名）。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>293</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>湖南常德考察团来卫考察学习我市国家农业科技园区</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/skxjsj/fdzdgknr_49279/bmxx_49310/201907/t20190731_1639010.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['7月29日，由湖南常德国家农业科技园区管委会等相关单位组成的考察团在常德市人民政府副厅级干部赵星同志的带领下来到中卫，对中卫国家农业科技园区进行了深入的考察。此次考察活动通过深入企业观摩，与园区管理人员、企业负责人、企业技术人员交流等方式进行。', '考察团一行先后考察了中卫国家农业科技园区综合展厅、天瑞果蔬研发加工科技示范基地、南山阳光精品苹果科技示范基地、香岩生态草畜循环科技示范基地等5个考察点，详细了解了园区总体规划、建设情况、运行机制以及示范引领作用发挥等情况，并与园区企业进行了充分交流和探讨。', '考察团一行对中卫国家农业科技园区建设取得的成效表示高度赞扬，特别是对园区的特色产业布局、龙头企业为主体示范带动作用等方面给予充分肯定。同时，表示要以此次考察为契机，加强联系，相互学习，相互促进，实现园区更好更快的发展。（农社科 孟清荣）']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>293</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>中卫市人力资源和社会保障局关于开展青年拔尖人才培养工程人员选拔工作的通知</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2020-03-31</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/srlzyhshbzj/fdzdgknr_49501/bmwj_49533/202011/t20201109_2331895.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['中卫市人力资源和社会保障局关于开展青年拔尖人才培养工程人员选拔工作的通知_中卫市人民政府', '沙坡头区委组织部，中宁、海原县人力资源和社会保障局，市直各有关部门、直属事业单位，中央驻宁单位，各大中型企业：', '根据《中共宁夏区委组织部 自治区人力资源和社会保障厅关于开展青年拔尖人才培养工程人员选拔工作的通知》（宁人社函〔2020〕29号），现就开展自治区青年拔尖人才培养工程人员选拔工作有关事项通知如下。', '（一）选拔名额。全市20名。其中，国家级学术技术带头人后备人选原则上不超过分配名额的30%，自治区级学术技术带头人后备人选原则上不超过分配名额的70%。', '（二）选拔对象。全市各类企事业单位中从事自然科学、哲学社会科学研究或技术开发、推广、应用的青年人才。侧重选拔在高新技术产业、战略性新兴产业、金融产业中从事应用研究、技术开发的创新型人才和掌握现代经营理念、熟悉资本运作、市场营销和企业管理的经营型人才；在非公领域从事产品开发、技术应用、工艺革新等工作的专业技术人才和高技能人才（已入选自治区领军人才、青年拔尖人才及青年托举人才培养工程未满3年的人员不再申报）。', '拥护中国共产党的领导，深入学习习近平新时代中国特色社会主义思想，热爱祖国、遵纪守法、学风正派；坚持科学精神，恪守职业道德。专业基础扎实，自主创新能力强；突出高端引领，具有一定的培养潜质，着眼于全区人才梯队建设，着眼于争取和承接国家重大工程和项目对高层次人才的需求。', '申报国家级学术技术带头人后备人选，一般应具有全日制博士研究生学历学位或正高级专业技术职称，特别优秀的可放宽至硕士研究生学历学位或副高级专业技术职称；申报自治区级学术技术带头人后备人选，一般应具有全日制硕士研究生学历学位或副高级专业技术职称。申报人选年龄在45岁（1975年1月1日及以后出生）以内。', '（1）学术技术水平处于区内领先地位，具有创新思维，能够提出前瞻性、创造性的研究构想，引领重大理论与实践问题的研究和关键领域攻关；', '（3）主持省部级及以上重大科研任务或重大工程项目，具有良好的沟通协调能力和组织管理能力，有效组织并领导创新团队攻克学术技术难关；', '（4）自治区战略性新兴产业、高新技术企业的关键研发人员，拥有核心技术或自主知识产权，能有效组织并引领创新团队，组织开展技术含量高、支撑引领作用强的产业创新项目，在推进产业关键技术创新和科技成果转化中做出积极贡献，取得良好经济和社会效益。', '（2）在工业与农业研究、技术开发、管理或新产品、新工艺、新技术、新材料的开发和推广应用等方面有突出业绩，成果经省（部）级主管部门验收通过，达到区内先进水平，并有一定的社会和经济效益；', '（4）长期从事教育教学一线工作，在教育理论研究或教学实践探索方面做出突出成绩，主持完成自治区教改任务，获自治区教学成果奖或在基础教育教学改革中取得创新性成果；', '（5）长期从事疾病诊治和预防控制工作，技术水平较高，治疗疑难、危重病症成绩比较突出，或疾病预防、控制效果比较明显，得到同行公认；', '（6）在哲学社会科学、文化艺术和体育竞技等领域，获得省部级及以上奖项，得到同行公认；', '（7）在现代服务业领域，具有现代经营理念和先进管理经验，熟悉资本运作，积极培育发展新兴业态，取得较好经济和社会效益，为促进区域经济发展做出重要贡献；', '1.定向培养。突出业绩和贡献导向，对获得省部级科技进步奖、哲学社会科学奖、文学艺术奖一等奖排名前三和二等奖排名第一的人员，年龄可放宽至48岁（1972年1月1日及以后出生），经自愿申报（单位初审后连同佐证材料直接报自治区人社厅）、组织考察无异议后，直接纳入国家级学术技术带头人后备人选进行培养。', '2.优先申报。对获得省部级科技进步奖、哲学社会科学奖、文学艺术奖一等奖排名前三以后和二等奖排名第一以后人员，不受学历、学位、职称（职业资格）等限制，可优先推荐申报国家级和自治区级学术技术带头人后备人选。', '按照党的十九届四中全会“完善人才发现、培养、激励机制”的要求，进一步拓展人才推荐选拔渠道，选拔采取自下而上、多头并推的方式进行。', '（一）申报推荐。通过用人单位推荐、行业协（学）会推荐、同行专家推荐三种渠道推荐申报（申报人员只能选择其中一种推荐方式进行申报）。', '1.用人单位推荐。各县（区）和市直各有关部门及其所属企事业单位制订并公布推荐选拔工作方案,通过各种方式积极推荐本单位、本部门符合条件的人员。推荐人选经单位党组（党委）研究后，按照隶属关系和归口管理的原则报送。其中：隶属县（区）管理的企事业单位（除中央驻宁单位和党组织关系隶属自治区国资委的企业），报所属地人力资源社会保障局；沙坡头区企事业单位报送沙坡头区委组织部；隶属市直部门管理的企事业单位，分别报送市委宣传部、教育局、工业和信息化局、农业农村局、卫生健康委员会等行业主管部门。', '2.行业协会推荐。各类行业协（学）会要充分发挥联系、协调、服务人才的作用，广泛推荐本行业、本领域符合条件的人员，每个协（学）会推荐人选原则上不超过5人，填写行业协（学）会推荐意见并盖章，从事专业属于社会科学的报送市社科联，属于自然科学的报送市科协。', '3.同行专家推荐。获得“宁夏杰出人才奖”“塞上英才奖”专家、享受国务院特殊津贴专家、自治区政府特殊津贴专家，每名专家原则上可推荐1名本专业领域青年拔尖人才培养工程人选。同行专家填写《同行专家推荐表》并亲笔签名确认，直接报送市人力资源社会保障局。', '4.申报方式。2020年自治区青年拔尖人才推荐选拔通过线上线下并行申报，申报人员线上线下填写信息须保持一致，审核人员在经过相关推荐程序和单位（协会）研究通过后予以审核确认，线上线下审核结果须保持一致。', '（二）初审初评。县（区）、市直部门、协会对所属企事业、所属行业协（学）会上报的材料进行审核把关，经县（区）、部门党组（党委）会议研究审定后，将符合条件人员按专业分类汇总，按归口领域分别报送市委宣传部、教育局、工业和信息化局、农业农村局、卫生健康委员会等行业主管部门。市人力资源社会保障局会同市委组织部、市直各行业主管部门对审核确定的推荐人选组织专家进行评审，签署专家评审意见，确定拟推荐自治区的考察建议人选。', '（三）组织考察。市人力资源和社会保障局对拟入选的建议名单按照人才来源，分别反馈至县（区）、部门，由县（区）委组织部、人力资源社会保障局会同行业主管部门组成考察组分别对建议人选进行组织考察，综合考察人选品德、能力、业绩、贡献、廉洁自律以及业内认可度等情况，将考察报告、考察结果等汇总报送自治区人力资源社会保障厅。', '（四）审定上报。对建议名单提请市人才工作领导小组会议研究审定后报送自治区人力资源和社会保障厅。', '（一）提高认识、精心组织。开展青年拔尖人才选拔，是实施青年拔尖人才培养工程的基础性工作，各县（区）、各部门（协会）要高度重视、精心组织，统筹协调、密切配合，按规定程序认真做好各个环节的工作。要结合全市人才盘点工作，深入了解掌握一批有培养前途和发展潜力的优秀青年人才，为自治区及我市青年拔尖人才选拔培养储备充足的人选。', '（二）突出重点、严把关口。各县（区）、各部门（协会）各同行专家要对照选拔条件和程序严格把关，坚持重品行、重业绩、重贡献、重影响力。要突出重点行业、重点领域、重点产业、重点学科人才，注重向高层次人才密集单位、科研和产业一线、艰苦边远地区、非公企业和特殊人才倾斜，注重人选的广泛性、代表性和典型性。', '自治区建立申报人员、推荐单位（协会）、推荐专家信用承诺制度和失信惩戒制度。申报人员对所填报内容真实性负责，推荐单位（协会）和推荐专家对被推荐人业绩和品德负审核把关责任。对弄虚作假的申报人员一经查实五年内不得申报自治区所有人才选拔工程项目；对弄虚作假的推荐专家将记入诚信档案，取消相关荣誉资格；对把关不严格的推荐单位（协会）五年内停止人才项目工程、资金申报，在人才工作年度效能目标考核时视情节给予单位扣分，对行业协（学）会同时通报注册登记部门予以处理。对情节严重的推荐单位（协会）、推荐专家、申报人员将在一定范围通报批评，并依法依纪追究相关人员责任。', '（三）发扬民主、强化监督。各县（区）各部门（协会）要充分发扬民主，坚持依规推荐、按程序选拔，广泛听取各方意见，自觉接受社会监督，确保推荐选拔过程客观公正、公开透明。', '1.推荐人选书面报告。县（区）和市直行业主管部门报送的推荐人选书面报告，除具体阐明推荐人选基本情况、推荐工作程序、推荐人选建议名单（国家级学术技术带头人后备人选推荐名单、自治区级学术技术带头人后备人选推荐名单）外，还需附专家评审推荐排序表、研究人选会议纪要等材料。', '2.佐证材料。与《申报表》《基本情况信息表》《业绩成果一览表》内容对应的证明材料1套。证明材料只需提供复印件。复印件须经推荐单位审核、核实人签名、加盖单位印章。有行业协（学）会推荐的须在申报表上填写推荐理由，经协（学）会负责人签字并加盖公章；选择同行专家实名推荐的申报人员需推荐专家在《专家推荐表》上亲笔签名确认。证明材料以图书样式统一装订（著作另附）。', '3.报送时间。各县（区）、市直各有关单位（协会）务必于2020年4月15日前将推荐人选报告、申报表格、佐证材料一并报送市人力资源社会保障局人力资源市场二楼8号高层次人才一站式服务窗口，逾期不再受理。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>293</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>中卫市气象局关于印发年普法责任制考核办法的通知</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2021-08-09</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/zfxxgkml/zfgzbg_22599/202108/t20210809_2959379.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['为深入开展“八五”普法工作，推进普法责任制落实，切实做好中卫市气象部门2021年度普法宣传教育，提高依法治理能力，加强“谁执法谁普法”普法责任制落实，按照《自治区党委全面依法治区委员会守法普法协调小组关于印发&lt;2021年全区普法依法治理工作要点&gt;的通知》（宁法普组〔2021〕1号）及《政策法规司关于印发&lt;2021年气象部门普法工作要点&gt;的通知》（气法函〔2021〕7号）精神，现结合中卫气象工作实际，增强我局干部职工法治意识，提高科技工作法治化水平，更好发挥普法依法治理工作在科技创新发展中的重要作用，结合工作实际，特制定本考核办法。', '坚持以习近平新时代中国特色社会主义思想为指导，深入学习宣传贯彻习近平法治思想，全面贯彻党的十九大和十九届二中、三中、四中、五中全会以及中央全面依法治国工作会议精神，持续落实习近平总书记关于气象工作重要指示和视察宁夏重要讲话精神，切实增强“四个意识”、坚定“四个自信”、做到“两个维护”，主动适应我国进入新发展阶段、贯彻新发展理念、构建新发展格局的需要，按照中卫市党委和人民政府、宁夏气象局普法工作部署，坚持稳中求进、守正创新，编制和实施全市气象部门“八五”普法规划，加大气象普法工作力度，在提高普法的针对性、实效性上下功夫，推动全市气象普法工作高质量发展，以优异成绩迎接建党一百周年。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>293</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>以铁的纪律确保换届风清气正</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2016-09-27</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201609/t20160927_597332.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['风清则气正，气正则心齐，心齐则事成。从严抓好市县乡领导班子集中换届，这是今年我市党建工作的重中之重，事关全局，事关长远。', '换届风气如何，直接关系换届工作的成败，关乎党的形象和威信。全市上下要按照中央、自治区党委和市委的要求，用铁规铁律维护换届工作的严肃性，把正风肃纪牢牢抓在手上，以最坚决的态度和最有力的措施狠刹歪风邪气，确保换届风清气正。', '确保换届风清气正，必须把纪律和规矩挺在前面。我们要把中央明确提出的“九严禁”换届纪律要求作为“红线”，坚决执行。严格按照换届流程，依法依规抓好县级领导班子换届选举工作。严格按照精准识别身份、精准考察工作业绩、精准研判政治表现的“三精准”原则，做好市县“两代表一委员”提名推荐、资格审查、组织考察、会议选举、民主协商等工作。要全力配合自治区党委组织部做好市级领导班子换届考察工作；及早谋划，精心筹备，做好市级党代会、人代会、政协会的各项准备工作。', '确保换届风清气正，必须要坚持正确的用人选人导向。换届工作风气好不好，关键看用人导向正不正，要在严把干部选任条件的同时，尽量把政治素养高、党性观念强，熟悉党务工作，有一定组织协调能力的干部选拔进来，进一步充实基层党建工作力量，真正把用人的正气树起来，把用人的标杆立起来。', '确保换届风清气正，还要靠严肃的教育学习和严厉的监督查处。“教育在先，警示在先，预防在先”，目的就是在思想上正本清源，教育引导党员干部筑牢思想防线，增强党性意识，树立全局观念。要始终把严肃换届纪律摆在突出位置，换届纪律学习教育不松懈，换届风气监督检查不间断，确保我市换届工作“零违纪”“零举报”。', '风气影响导向，影响一个地方的从政环境。我们要把换届风气抓严、抓实、抓细，以铁的担当、铁的纪律圆满完成换届工作，确保换出清风正气，换出发展活力，为中卫决战脱贫攻坚、实现跨越发展提供坚强的组织保证。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>293</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>全国余名企业家走进中卫共话发展</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2016-07-26</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201607/t20160726_597082.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['7月25日，来自全国各地的400余名企业家走进中卫，考察学习我市建设成果、发展模式，并实地走访我市多家企业。市政协副主席茹小侠陪同考察。', '本次“民营企业中卫行”活动，是今年我市确定重点工作之一，主要内容是发挥我市独特的产业优势，积聚全国优强企业力量，投资促进我市经济发展。活动中，我市多个重点招商引资项目得到推介，涉及现代农业、工业、现代服务业等领域，活动还就企业家们关心的问题进行了现场沟通交流。不少与会民营企业家对我市投资前景颇为看好，愿意达成一批合作意向。', '来到我市五馆一中心，企业家们纷纷对城市的整洁和美丽赞叹不已。上海康德养老有限公司负责人张军把这份整洁看作一项宝贵的资源。“中卫这个地方确实好，空气好，环境好。”张军告诉记者，他最看好的还是养老产业，他觉得中卫的人文、自然环境很适合搞连锁养老，不仅可以吸收本地的老人，还可以把外地的会员引进来，是个颐养天年的好地方。', '在宁夏中关村科技产业园·中卫云中心，天津市南开区工商联调研员王鑫详细了解了我市中小企业发展环境，他认为天津市南开区的发展环境和中卫发展环境非常相似，都非常重视绿色发展，但是中卫的经营成本低、人文环境好，发展大环境不亚于天津市。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>293</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>马洪海主持召开市人民政府第次常务会议</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022-07-22</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/cwhy/202207/t20220722_3627822.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['7月20日，市委副书记、市长马洪海主持召开市政府第23次常务会议，传达学习习近平总书记关于气象工作的重要指示精神及全国气象高质量发展工作电视电话会议、《气象高质量发展纲要（2022—2035年）》精神，传达学习全国全区安全生产电视电话会议精神，听取城市防涝、防汛抗旱、防震减灾、气象工作汇报，安排部署有关工作。', '会议强调，各县（区）、各部门（单位）要进一步提高政治站位、强化工作措施、落实工作责任，坚决扛起维护安全稳定的政治责任，全力以赴做好防灾减灾各项工作，织密防灾减灾救灾工作网，聚焦关键重点落实落细各项举措，精准防范化解重大安全风险，以防风险、保安全、护稳定的实际成效促进经济社会高质量发展。', '会议强调，各县（区）、各部门（单位）要以本次自治区党政代表团赴粤闽学习考察为契机，认真学习借鉴两省推动改革发展的先进经验和创新做法，持续推动思想观念解放，务实抓好签约项目落地，不断加大改革创新力度，发扬勇于实干担当精神，在破解难题、化解矛盾、开拓创新等方面出实招、求实效，在实干中体现担当、展示能力、推动发展，推动自治区第十三次党代会精神落地落实。', '会议传达学习了自治区党委常委会会议、全区上半年经济形势分析会及自治区政府第126次常务会议精神，听取2022年上半年全市经济运行情况汇报，安排部署有关工作。', '会议指出，各县（区）、各部门（单位）要全面落实党中央稳住宏观经济大盘的决策部署，按照全区经济形势分析会议要求，坚决扛起稳定经济的重大政治责任，坚决打好政策落地速度战，始终坚持问题导向，补短板、锻长板，抓住重点、突破难点，增强经济发展的动力和活力，始终把“三驾马车”作为经济发展的主旋律，千方百计保障和改善民生，统筹发展和安全，以更强措施、更大力度、更高效率，抓好第三季度这个关键窗口期，大抓发展、抓大发展、抓高质量发展，全力确保经济稳、疫情稳、大局稳，以新的成效、新的气象完成全年经济发展目标，为全区经济发展作出更大贡献。', '会议还传达学习了《关于深入贯彻落实习近平总书记重要讲话精神推动黄河流域生态保护和高质量发展先行区建设取得新突破的意见》的通知精神，审议了《中卫市建设黄河流域生态保护和高质量发展先行市2022年工作要点》。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>293</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市人防办党组传达学习贯彻习近平总书记视察宁夏时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2020-06-16</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/ztzl/xjpzsjscnxzyjhjs/202007/t20200721_2168942.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['6月15日，市人防办召开党组（扩大）会议，传达学习了习近平总书记视察宁夏时的重要讲话和重要指示精神、自治区党委常委会（扩大）会议精神和市委常委会（扩大）会议精神、市政府党组2020年第13次（扩大）会议精神。', '会议指出，时隔四年，习近平总书记又来到宁夏考察调研，这是2020年全国两会结束后，总书记的首次地方考察。总书记深入农村、社区、防洪工程、农业产业园区等，就统筹推进常态化疫情防控和经济社会发展工作、巩固脱贫攻坚成果、加强生态环境保护、推动民族团结进步进行了调研。总书记在视察期间作出了许多重要指示，提出了许多具体要求，听取工作汇报，作出重要指示，充分肯定宁夏发展取得的成绩，明确提出宁夏改革发展的总体要求，清晰指出宁夏今后发展的重要任务。', '会议指出，学习好、宣传好、贯彻好习近平总书记视察宁夏时的重要讲话精神，是当前首要的政治任务和政治责任。要结合实际集中精力，主动学、反复学，准确领会总书记重要讲话精神实质和思想内涵，进一步推动学习贯彻总书记的深刻用意、目标指向、殷切期望往深里走、往实里走、往心里走，增强“四个意识”，坚定“四个自信”，做到“两个维护”。', '会议要求，全体干部职工要按照市委的统一部署，在认真学习习近平总书记重要讲话精神的基础上，立足工作职能，找准切入点、结合点，推动习近平总书记关于宁夏各方面工作的部署要求在人防系统落地落实。要不断提升依法行政水平，突出制度建设，构建制度体系，增加执法工作透明度，继续推进“放管服”改革，整合优化审批服务内容，简化办事流程。要以最坚决的态度最过硬的措施，持续抓好人防系统腐败问题专项治理和市委第七轮巡察反馈问题整改，进一步梳理重点和难点，找准要害和关键，着力解决影响和制约加快发展、科学发展的突出问题，在下半年重点做好人防警报升级改造、人防“五进”活动、全区人防实战化演练等关系人防高质量发展的大事、实事，用实实在在的工作成绩贯彻好习近平总书记重要讲话精神。', '会上，党组班子成员围绕学习贯彻落实习近平总书记视察宁夏时的重要讲话精神分别作了交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>293</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>市商务局不忘初心牢记使命主题教育读书班正式开班</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2019-09-26</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sswj_49783/fdzdgknr_49787/bmxx_49818/201910/t20191030_1818710.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['按照市委“不忘初心、牢记使命”主题教育工作部署及局党组主题教育工作安排，9月17日上午8:30，市商务局为期5天的“不忘初心、牢记使命”主题教育读书班正式开班，局主要领导作了开班讲话，并对学习纪律作了强调。领导班子及党员干部职工21人参加读书班学习，并为一名行动不便的党员进行了送课上门学习。学习期间，局领导班子及党员干部职工利用每天早上2个小时和晚上2个小时的时间集中学，有效解决了工作和学习的矛盾。重点学习了《习近平新时代中国特色社会主义思想学习纲要》、《习近平关于“不忘初心、牢记使命”重要论述摘编》、党章等重点书目；学习习近平总书记在视察宁夏、内蒙古考察时重要讲话、重要指示批示精神等内容。同时，读书班围绕“党的政治建设方面”深入开展专题研讨，2名班子成员进行了认真研讨，校准思想偏差，准确实践笃行。', '此次读书班学习，局党组紧紧围绕深入学习贯彻习近平新时代中国特色社会主义思想主线，采取读书班集中学习、个人自学、观看党史题材视频和专题研讨的等多种方式相结合进行学习。推动党员领导干部理论学习往深里走、往心里走、往实里走,使党员领导干部的政治理论水平和思想认识水平有所提升,为主题教育打牢思想根基。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>293</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>中卫市开展谁执法谁普法履职报告评议活动实地考察</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022-12-08</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/ssfj/fdzdgknr_49428/bmxx_49458/202212/t20221208_3879672.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为深入学习宣传贯彻落实党的二十大精神，夯实国家机关“谁执法谁普法”普法责任制，按照中卫市第二届国家机关“谁执法谁普法”履职报告评议活动安排，12月2日，市委全面依法治市委员会守法普法协调小组组织开展“谁执法谁普法”履职报告评议活动实地考察,由市人大代表、市政协委员、律师代表、媒体代表、机关干部代表等组成的评议团到市中级人民法院、市委统战部、市教育局、市公安局、市总工会、中卫市消防救援支队6个被评议单位进行实地察看。', '评议团主要通过听取普法工作情况介绍、查阅普法工作资料、现场测试等形式，充分了解被评议单位普法责任制机制建设、内部学法用法工作、开展社会普法宣传、创新普法形式等工作情况，并在此基础上对被评议单位进行评议打分。', '此次评议团实地考察，有助于各部门检视自身普法工作情况，促进各部门切实履行“谁执法谁普法”的普法责任，推动我市形成分工负责、各司其职、齐抓共管的全民普法大格局，以高质量普法为加快建设先行市和美丽新中卫营造良好的法治环境。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>293</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>阿尔及利亚新闻代表团来卫考察采访</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2015-07-07</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201507/t20150707_596082.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['应中华全国新闻工作者协会邀请，7月5日，阿尔及利亚新闻代表团一行11人来卫考察采访。', '代表团一行先后到沙坡头自然保护区、中国科学院沙坡头沙漠研究试验站、沙坡头区柔远镇冯庄现代农业示范园实地考察采访。在沙坡头自然保护区，代表团成员听取了我市沙漠治理、环境保护及沙漠旅游产业发展情况。在中国科学院沙坡头沙漠研究试验站，工作人员介绍了试验站“以固为主、固阻结合”的流沙固定与铁路防护体系、麦草方格技术。在冯庄现代农业示范园，工作人员介绍了我市特色农业发展情况及科学技术在我市农业种植项目中的应用情况。', '阿尔及利亚《观点报》总编辑布拉希姆·塔赫鲁卜说：“中卫是个美丽的地方，具有厚重的文化底蕴，沙坡头治沙在世界是个奇迹，尤其在旅游方面的应用和开发最为突出。沙漠研究试验站有很大的国际影响力，其治沙研究成果享誉海内外，印象深刻，我们国家应该多学习。中卫市的特色农业发展很有成效，科技在农业产业方面的应用更加值得借鉴。”']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>293</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>万新恒在贯彻落实规定电视电话会议上要求厘清责任边界加强履职考核</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2018-06-01</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201806/t20180601_781544.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['万新恒在贯彻落实《规定》电视电话会议上要求 厘清责任边界 加强履职考核_中卫市人民政府', '5月31日，国务院安委会召开贯彻落实《地方党政领导干部安全生产责任制规定》（以下简称《规定》）电视电话会议。会后，我市第一时间召开贯彻落实《规定》电视电话会议，传达学习国务院安委会电视电话会议精神，安排部署全市安全生产工作。市长、市安委会主任万新恒出席会议并讲话。', '会议指出，《规定》是我国安全生产领域第一个党内法规，也是习近平总书记关于安全生产重要思想的制度性举措。全市各级领导干部一定要绷紧安全生产这根弦，严格按照《规定》要求，全面落实好党政领导干部安全生产责任。', '会议要求，要切实厘清属地监管、行业监管和综合监管的责任边界，防止出现交叉执法、重复执法、监管空白等问题。要加强对安全生产履职情况的考核考察，建立巡查、考核、公开三项制度，将地方党委、政府及各部门安全生产履职情况纳入督察督办内容及政府效能目标管理、党建、精神文明、综合治理等相关考核内容，将各级干部安全生产履职情况纳入干部考察内容，严格落实问责制度。要进一步完善安全生产责任体系，努力预防和减少安全生产事故，有效防范和遏制重特大安全生产事故，用实际行动回应人民群众对美好生活的新期盼。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>293</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>全区渔业转方式调结构促增收现场推进会首站来卫</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2016-08-23</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201608/t20160823_597203.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['8月22日，全区渔业转方式调结构促增收现场推进会首站来到中卫，对我市天阔渔业农民专业合作社名优新水产品湖泊生态养殖基地和晟跃生态渔业专业合作社低碳循环水养殖技术示范基地进行了观摩考察。副市长刘学智参加中卫点观摩。', '在中卫市天阔渔业农民专业合作社名优新水产品湖泊生态养殖基地和晟跃生态渔业专业合作社低碳循环水养殖技术示范基地，观摩团仔细了解基地养殖情况，并对基地的特色鱼类进行了观摩考察。观摩团表示，中卫养鱼业在转方式调结构促增收方面变化显著，渔业生产与水环境修复保护方面做了有益的探索并取得了一定成绩，渔业多元化经营也初具雏形。希望中卫在取得成绩的同时继续加强渔业生产规范化、标准化管理体系等建设，进一步提高湖泊水域资源利用率、真正形成“资源节约、环境友好、产品生态、效益明显”的可持续发展长效机制。', '刘学智说，感谢一直以来支持中卫农业发展的自治区部门领导以及各市县的部门朋友们。近几年来，中卫利用区位地理优势大力发展养鱼业，虽然养鱼业的版块小，但是通过中卫人民的努力，养鱼业发展明显，取得了可喜的成绩。中卫也会以此现场会为契机，认真学习、借鉴区内外湖泊生态净水渔业和休闲渔业发展取得的好经验、好做法，不断提高湖泊水域生态休闲高效渔业技术集成应用示范能力水平。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>293</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>中卫市扶贫干部精准扶贫能力提升高级研修班在河南大学举办</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2018-10-16</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/bmdt/201810/t20181016_1128711.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['为切实提高我市扶贫干部精准扶贫能力，学习先进省区好经验、好做法，加快推进我市脱贫攻坚工作。10月14—10月20日，中卫市扶贫干部精准扶贫能力提升高级研修班在河南大学举办，市脱贫攻坚领导小组成员单位分管领导、相关部门负责人及沙坡头区、中宁县党委政府分管扶贫工作的负责同志和各贫困镇乡55名学员参加此次培训。', '本次培训班旨在进一步提升干部政治理论水平和脱贫攻坚的实战能力，切实增强合力攻坚的政治定力，凝聚干事创业的强大动力。', '学员们将在河南大学学习河南省扶贫工作经验、案例。学习习近平总书记扶贫开发战略思想解读，产业扶贫、环境扶贫和资本扶贫的协同和过程优化，脱贫攻坚需要把握的关键环节，扶贫开发过程中的农户行为及其引导，区域性贫困与政府治理，兰考县脱贫的经验与启示，脱贫攻坚工作考核评估流程、内容及对策，创新扶贫工作的新理念等课程。同时还将实地考察观摩兰考县贫困户信息精准识别、大数据平台管理、种养殖产业等脱贫工作成效，台前县扶贫车间引导农民工返乡、支持能人创业等举措和取得的成效。通过学习借鉴兰考县、台前县的先进经验，推动中卫市产业扶贫工作取得新成效。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>293</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>李顺桃率中华见义勇为基金会考察团来卫</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2016-10-10</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201610/t20161010_597375.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['10月9日，中华见义勇为基金会常务副理事长李顺桃一行来卫，实地考察我市见义勇为人员权益保护工作开展情况，并看望慰问了部分见义勇为英雄和家属。市委常委、政法委书记、公安局局长陈加先一同考察。', '在中宁县新堡镇宋营村见义勇为英雄田学军家中，李顺桃详细了解了他的家庭生活和子女学习状况，并为他送上慰问金。李顺桃说，见义勇为英雄的事迹感人至深，党和政府不会忘记英雄和他们的家人，并叮嘱有关负责人切实解决好见义勇为人员的后顾之忧，让见义勇为人员和家人感受到来自党和政府的温暖，在全社会弘扬正义行为，传递正能量。', '近年来，我市高度重视见义勇为先进人物的奖励和保护工作，表彰奖励、权益保护、关爱帮扶的机制进一步完善，基层组织建设进一步加强，见义勇为先进人物不断涌现。全市先后涌现出20名见义勇为先进个人，并荣获了2004至2008年度全国社会治安综合治理优秀城市、2015年全国见义勇为城市奖等殊荣。', '李顺桃对我市见义勇为工作给予充分肯定。他表示，中卫见义勇为权益保护机制较为完善，各项工作健康有序推进，取得了明显的社会效果，下一步要继续加大宣传力度，努力开创见义勇为工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>293</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>区六五普法检查验收组来卫验收</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2015-10-15</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201510/t20151015_596222.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['10月12日，自治区“六五”普法第五检查验收组在我市召开自治区“六五”普法检查验收汇报座谈会，正式拉开了我市“六五”普法检查验收工作的序幕。第五检查验收组组长、自治区高级人民法院院长李彦凯出席会议并讲话，市领导陈加先、蔡波、祝增坤、施润云，市中级人民法院院长，各县（区）党委、政府分管领导，市依法治市领导小组成员单位负责人参加会议。', '2011年以来，按照中央和自治区的统一部署，我市精心组织实施了“六五”普法规划。今年是“六五”普法的收官之年，按照检查验收的安排部署，10月12日至15日，检查验收组深入我市各机关、单位、农村、社区、学校等基层单位进行实地考察。', '要求，检查验收组和被检查部门（单位）要提高认识，组织好“六五”普法检查验收工作，密切配合，认真做好检查工作，力求严格标准、严格程序、严格方法，力求客观真实全面地反映中卫市各部门“六五”普法规划实施情况。要通过检查验收，总结“六五”普法工作成效，发现和解决工作中存在的问题。', '陈加先要求，全市领导干部要深入学习依法治国理念，自觉贯彻运用于日常工作中。对检查发现的问题要令行禁止，制定时间表路线图深入研究整改，为推进法治中卫建设及科学谋划“七五”规划奠定坚实的基础。', '会后，检查验收组一行先后到市应理城乡市政产业（集团）公司、市第三中学等地考察走访企业、学校依法经营等情况。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>293</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>中卫市云计算和大数据发展局关于年上半年落实依法治市工作开展情况的报告</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2021-07-30</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/bmxxgkml/syjshdsjfzj/fdzdgknr_50309/bmwj_50338/202107/t20210730_2948966.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['中卫市云计算和大数据发展局关于2021年上半年落实依法治市工作开展情况的报告_中卫市人民政府', '按照《关于报送上半年依法治市工作推进落实情况的通知》要求，现将我局落实依法治市工作开展情况报告如下：', '（一）习近平法治思想、中央全面依法治国工作会议精神、自治区党委全面依法治区工作会议精神和市委全面依法治市工作会议精神的落实情况。一是制定了《中卫市云计算和大数据发展局关于习近平法治思想等内容学习计划》，将习近平法治思想同学习贯彻党的十九届五中全会精神结合起来，利用党组理论学习中心组、干部理论学习等多种方式，带领全体领导干部深刻认识习近平法治思想的基本精神、核心要义和重大意义。截至目前，累计学习相关内容8次。二是紧盯中央、自治区和市委相关法治会议安排，第一时间组织全体领导干部认真贯彻领会相关会议精神，进一步提高法治认识，提升法治素养。截至目前，累计学习相关会议5次。', '（一）习近平法治思想、中央全面依法治国工作会议精神、自治区党委全面依法治区工作会议精神和市委全面依法治市工作会议精神的落实情况。', '（二）《党政主要负责人履行推进法治建设第一责任人职责规定》落实情况。一是坚持以习近平新时代中国特色社会主义思想为指导，认真贯彻落实党中央全面依法治国、建设法治政府决策部署和区市党委、政府工作要求，局党组切实履行领导责任，及时研究落实法治建设重要工作。上半年局党组安排部署依法治市工作1次。二是局主要领导认真履行法治建设第一责任人职责，将法治建设纳入全局年度工作计划，与业务工作同安排、同部署。同时，将法治建设工作开展情况列入年度述职内容，及时向市委全面依法治市委员会述职述法，主动接受监督检查。三是制定了局党组理论中心组集体学法制度、党组理论学习中心组2021年学习计划，加强领导干部学法用法。同时，将学法情况列入领导干部年度实绩考核工作和干部晋升考察的重要内容。四是按要求向市委、市政府报告上一年度落实法治建设工作情况，及时抄送市委全面依法治市委员会办公室和市司法局，并通过市人民政府网站向社会公开，接受社会监督。五是认真落实政府规章和规范性文件备案审查制度，积极配合做好行政规范性文件的备案审查工作。上半年，本单位未制发行政规范性文件。', '（四）法治宣传教育工作落实情况。结合“法律五进”活动，认真组织开展法治宣传教育。一是“进单位”方面，在局机关电子屏滚动播放法律法规宣传标语等，大力营造全局上下积极参与学法知法用法的浓厚氛围。二是“进乡村”方面，结合乡村振兴工作，通过发放宣传材料、实地宣讲等方式，组织干部赴海原县红羊乡前进村开展扫黑除恶及相关法律法规宣传工作，引导村民学法用法。三是“进社区”方面，结合创建全国文明城市工作，以老年群体为重点，组织干部职工深入网格责任区域开展普法活动，增强社区居民防骗、防欺诈意识。四是“进企业”方面，深入云计算和军民融合企业开展《网络安全法》《劳动法》等法律法规宣传工作，增强企业员工法治意识。五是“进家庭”方面，动员全体干部职工对家人进行法律法规知识宣传，提高家属尤其是老年人和子女防骗、防欺诈意识。上半年累计发放习近平法治思想读本、《关于办理黑恶势力犯罪案件若干问题的指导意见》《中华人民共和国民法典》漫画、《中卫市文明行为促进条例》读本等宣传材料400余份、法律案例小故事宣传册260余份、宣传彩页500余份。', '（五）市域社会治理现代化工作落实情况。依托自治区电子政务公共云平台，建成了市、县（区）一体化共享交换公共云平台，可为全市各部门、各行业应用提供云资源及数据服务能力。数据中台、业务中台、区块链、GIS等平台已开发部署完成，实现了向全社会、全行业共享数据资源的能力，并保证了数据共享全过程的安全规范、公开透明、防篡改及可追溯；提供了标准的HTML规范（超文本标记语言）、XML规范（可扩展标记语言），以及灵活便捷的API应用接口和丰富的SDK开发工具包，且能同时提供城市三维建模、流数据实时感知及数据共享、交换、开发、分析等多项服务。建成了中卫市政务数据共享交换平台，正在纵向与自治区数据共享交换平台对接，获取充实人口、法人、地理空间等基础数据资源，为全市智慧应用提供数据支撑；横向对接市直各部门，通过接口、文件等方式汇聚了部分行业数据，总量约500GB、600万条。', '总之，在市委和政府的坚强领导下，在市委全面依法治市委员会办公室的精心指导下，我局落实法治建设工作取得了一些成效，但也还存在一些问题和不足，主要表现在：一是依法行政工作机制有待进一步完善，行政行为的制约监督有待进一步强化。二是学习形式单一，学法主要通过集中学习等传统方式开展，存在实用主义倾向，与自己有关的多学，与自己无关的少学或者不学。三是宣传载体较少，局内仅利用电子屏滚动播放宣传法律法规。', '（一）切实推进干部职工学法用法。全面落实国家工作人员学法用法制度，组织使用《无纸化学法用法及考试系统》网络版平台学法考法，不断提高全局干部职工运用法治思维和法治方式解决问题的能力，促进全局干部学法用法、依法履职。', '（二）进一步丰富律法规学法形式。充分运用好年轻干部这一活力点，丰富学习内容，以讲法律故事、讨论交流等多种方式开展学习，督促干部职工全方位学法用法，引导干部职工逐步成为“法律明白人”。', '（三）完善依法行政工作机制。健全完善依法行政工作制度，进一步强化对行政行为的制约监督。把握行政机关应诉工作职责，明确行政应诉工作要求，熟悉行政应诉工作程序，认真贯彻执行相关规定，切实提高行政应诉工作能力。严格规范性文件合法性审查和定期清理，积极配合做好行政规范性文件的备案审查工作。', '（四）深入开展法治宣传教育。结合重要时间节点和专项宣传活动，利用新媒体平台广泛开展法治宣传教育，加大服务对象宣传指导力度，推动行业企业员工、网格责任区域和帮扶群众提高法治意识，助力云计算和军民融合产业高质量发展。', '（五）加快推进市域社会治理现代化。加强与自治区各厅局对接，进一步沉淀充实我市数据资源；编制数据资源共享交换目录，督促各部门及时、准确、完整地做好数据录入、核验、归集等工作，推进各行业数据向公共云平台汇聚共享；通过社区网格综合信息管理平台、城市建成区三维建模等方式，加速聚集数据资源，进一步充实城市综合信息库，形成数据共享交换体系。扩容升级云天大脑，为市域社会治理现代化提供算力支撑。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>293</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>中卫市云计算和大数据发展局年度依法治市工作报告</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2021-12-08</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/bmxxgkml/syjshdsjfzj/fdzdgknr_50309/bmwj_50338/202112/t20211213_3219695.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['2021年，市云计算和大数据发展局在市委和政府的坚强领导下，在市委全面依法治市委员会办公室的精心指导下，以习近平新时代中国特色社会主义思想为指导，认真落实中央和区市党委安排部署，紧扣依法治市目标任务，主动作为，各项工作取得了一定成绩，现将工作情况报告如下：', '（一）习近平法治思想、中央全面依法治国工作会议精神、自治区党委全面依法治区工作会议精神和市委全面依法治市工作会议精神的落实情况。一是制定了《中卫市云计算和大数据发展局关于习近平法治思想等内容学习计划》，将习近平法治思想同学习贯彻党的十九届五中全会精神结合起来，利用党组理论学习中心组、干部理论学习等多种方式，带领全体领导干部职工深刻学习领会习近平法治思想的基本精神、核心要义和重大意义。截至目前，累计学习相关内容10次。二是紧盯中央、自治区和市委相关法治会议安排，第一时间组织全体领导干部认真贯彻领会相关会议精神，进一步提高法治认识，提升法治素养。截至目前，累计学习相关会议8次。', '（一）习近平法治思想、中央全面依法治国工作会议精神、自治区党委全面依法治区工作会议精神和市委全面依法治市工作会议精神的落实情况。', '（二）《党政主要负责人履行推进法治建设第一责任人职责规定》落实情况。一是坚持以习近平新时代中国特色社会主义思想为指导，认真贯彻落实党中央全面依法治国、建设法治政府决策部署和区市党委、政府工作要求，局党组切实履行领导责任，及时研究部署法治建设重要工作。截至目前，局党组安排部署依法治市工作1次。二是局主要领导认真履行法治建设第一责任人职责，将法治建设纳入全局年度工作计划，与业务工作同安排、同部署。同时，将法治建设工作开展情况列入年度述职内容，及时向市委全面依法治市委员会述职述法，主动接受监督检查。三是制定了局党组理论中心组集体学法制度、党组理论学习中心组2021年学习计划，加强领导干部学法用法。同时，将学法情况列入领导干部年度实绩考核工作和干部晋升考察的重要内容。四是按要求向市委、市政府报告上一年度落实法治建设工作情况，及时抄送市委全面依法治市委员会办公室和市司法局，并通过市人民政府网站向社会公开，接受社会监督。五是认真落实政府规章和规范性文件备案审查制度，积极配合做好行政规范性文件的备案审查工作。截至目前，本单位未制发行政规范性文件。', '（四）法治宣传教育工作落实情况。结合“法律五进”活动，认真组织开展法治宣传教育。一是“进单位”方面，在局机关电子屏滚动播放法律法规宣传标语等，大力营造全局上下积极参与学法知法用法的浓厚氛围。二是“进乡村”方面，结合乡村振兴工作，通过发放宣传材料、实地宣讲等方式，组织干部赴海原县红羊乡前进村开展扫黑除恶、民法典及相关法律法规宣传工作，引导村民学法用法。三是“进社区”方面，结合创建全国文明城市工作，以老年群体为重点，组织干部职工深入网格责任区域开展普法活动，增强社区居民防骗、防欺诈意识。四是“进企业”方面，深入云计算和航天航空企业开展《网络安全法》《劳动法》等法律法规宣传工作，增强企业员工法治意识。五是“进家庭”方面，动员全体干部职工对家人进行法律法规知识宣传，提高家属尤其是老年人和子女防骗、防欺诈意识。截至目前，累计发放习近平法治思想读本、《关于办理黑恶势力犯罪案件若干问题的指导意见》《中华人民共和国民法典》漫画、《中卫市文明行为促进条例》读本等宣传材料600余份、宪法宣传材料和法律案例小故事宣传册480余份、疫情防控法治宣传资料800余份、其他宣传彩页1000余份，制作展板横幅20余条，电子屏滚动播放300余次。', '（五）市域社会治理现代化工作落实情况。一是建成了中卫市政务数据共享交换平台，纵向与自治区数据共享交换平台完成有效对接，横向对接工业园区管委会、审批服务局、住房公积金中心等市直各部门，将全市数据逐步汇集到一体化大数据中心，数据共享交换体系基本建成，实现了数据整合和互联互通。二是会同“云天中卫”基础设施建设项目组及专业公司技术人员，组建了工作专班，多次召开培训会，并安排3个专业技术团队经常性赴全市各部门进行对接，指导数据梳理汇聚相关工作，通过接口、文件等方式汇聚了31个部门（单位）部分行业数据，总量约1000余万条。三是依托中卫市政务数据共享交换平台与自治区共享交换平台的联通能力，以应用为导向，沉淀我市鲜活数据资源，提升“云天中卫”自我“数据回血”能力，形成以应用为导向的数据汇聚共享机制。四是以“大数据+网格化”为手段，建成了由党组织统一领导、政府依法履责、各类组织积极协同、群众广泛参与的沙坡头区社会治理网格化信息平台，实现了社会治理精细化和民生服务便捷化。截至目前，已采集沙坡头区基础数据38万条，约占应采集数据的96%。', '我局落实法治建设工作虽然取得了一些成效，但也还存在一些问题和不足，主要表现在：一是依法行政工作机制有待进一步完善，行政行为的制约监督有待进一步强化。二是学习形式单一，学法主要通过集中学习等传统方式开展，存在实用主义倾向，与自己有关的多学，与自己无关的少学或者不学。三是宣传载体较少，局内仅利用电子屏滚动播放宣传法律法规。', '2022年，我局坚持以党的十九届六中全会和习近平法治思想为指导，贯彻落实《关于印发&lt;法治中卫建设实施纲要（2020-2025）&gt;的通知》精神，紧紧围绕局党组明确的依法治市工作目标，提升政治站位，加强能力建设，普及法治文化，持续推进全市云计算和大数据产业工作法治化进程，重点做好以下几项工作：', '一是认真研究部署，制定年度工作安排。根据市委和政府具体要求，结合云计算和大数据产业的工作实际，研究制定《市云计算和大数据发展局2022年依法治市工作安排》《市云计算和大数据发展局2022年普法依法治理工作安排》。', '二是加强法治教育培训，提升干部法治素养。将依法行政知识纳入局干部教育培训计划，在积极参加市级部门组织的各类培训的基础上，拟邀请市司法行政机关领导、法律顾问等举办法治工作培训；依托利用新媒体平台广泛开展法治宣传教育，加大线上法治教育培训力度。', '三是增强法治宣传实效，做好“八五”普法工作。充分发挥法治宣传教育活动在依法行政工作中的基础性、先导性作用，以习近平总书记全面依法治国新理念新思想新战略为指导，紧紧围绕局党组中心工作，以创新精神，科学谋划好我局“八五”普法工作。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>293</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>市科技局召开专题会议传达学习习近平总书记视察宁夏时重要讲话和重要指示精神</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2020-06-17</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/ztzl/xjpzsjscnxzyjhjs/202007/t20200709_2158734.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['市科技局召开专题会议传达学习习近平总书记视察宁夏时重要讲话和重要指示精神_中卫市人民政府', '6月14日，市科学技术局召开专题会议，传达学习了习近平总书记视察宁夏时的重要讲话重要指示精神，以及区、市有关传达学习习近平总书记考察宁夏时重要讲话重要指示精神的会议精神，研究贯彻落实工作。', '会议指出，时隔四年，习近平总书记再次来到宁夏视察指导工作，充分体现了总书记对宁夏工作的高度重视和对宁夏人民的关心厚爱。总书记先后来到吴忠、银川等地，深入农村、社区、防洪工程、农业产业园区等，就统筹推进常态化疫情防控和经济社会发展工作、巩固脱贫攻坚成果、加强生态环境保护、推动民族团结进步提出了指导意见，为全区各项事业的发展指明了前进方向。', '会议要求，全体干部职工要把学习好、宣传好、贯彻好、落实好习近平总书记来宁重要讲话重要指示精神作为当前首要政治任务和重大政治责任，切实把思想行动统一到总书记的重要讲话重要指示精神上来，进一步贯彻落实好中央和区、市创新驱动战略部署，不断强化企业创新主体地位，着力推动产业转型升级，重点抓实科技创新投入提高、科技企业培育等工作，为继续建设经济繁荣、民族团结、环境优美、人民富裕的美丽新宁夏贡献科技力量。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>293</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>上海瑞金医院与我市建立帮扶合作关系</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2016-03-16</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201603/t20160316_596550.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['3月14日，在上海交通大学医学院附属瑞金医院举行的帮扶签约仪式上，瑞金医院与中卫市人民医院建立帮扶合作关系，双方将在医疗培训、远程教育、合作交流等方面进行帮扶合作，此次合作将进一步加强双方沟通交流，提高我市医疗水平。市委书记张柱致辞，市政协主席罗成虎，市领导霍健明、茹小侠，市直相关部门负责人等参加签约仪式。', '签约仪式上，张柱介绍了中卫市市情、全市卫生工作和市人民医院的发展情况。张柱说，我们缺的是新理念、新思路，此次合作框架协议的签署，为我市搭建了学习瑞金医院先进管理经验和先进理念，加强进修培训，提高技术水平，培训指导的平台。', '张柱对此次合作充满期待，他说，能够得到全国最高水平医疗团队的帮助指导，必将为中卫医疗卫生水平和能力的提升开辟新通道、搭建新平台，必将为中卫经济社会事业改革创新带来新契机、注入新动力。', '张柱真诚邀请上海瑞金医院相关人员到我市参观考察，他说，虽然上海和中卫远隔万里，但我们相信上海与宁夏、中卫的缘分会越来越深，帮扶协作的路子会越走越宽。真诚期待大家多到中卫走走看看，亲身感受大漠、黄河之粗犷与雄浑，感受中国最美沙漠花园之悠然自得，感受大西北人民的豪迈与热情，深入考察了解中卫经济社会各方面情况，共同推动两地合作再添新成果、再上新台阶。', '瑞金医院院长瞿介明表示，为加强东西部合作，支持中卫市人民医院发展，该院将进一步加强培训，从最需学科发展入手，强化人员互派，发挥造血功能；加强教育教学，对远程教育、教学全部开放；加强双方思想文化方面的交流互动，促进更深层次的合作。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>293</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>中卫市自然资源局事业单位年自主公开招聘急需紧缺高层次人才公告</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2021-09-15</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202109/t20210915_3031476.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['中卫市自然资源局事业单位2021年自主公开招聘急需紧缺高层次人才公告_中卫市人民政府', '为进一步推进人才强市战略，积极引进急需紧缺高层次人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁党办〔2006〕35号)、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等规定，现就中卫市自然资源局事业单位2021年自主公开招聘急需紧缺高层次人才有关事项公告如下。', '采取公开报名方式，面向全区自主公开招聘具有硕士、博士研究生学历学位的普通高等院校毕业生。', '5.符合《中卫市自然资源局事业单位2021年自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件1）中各招聘岗位要求的相关资格条件；', '在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的', '本次共招聘2人，招聘岗位、资格条件及有关事项详见《中卫市自然资源局事业单位2021年自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件1）', '中卫市自然资源局事业单位2021年自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件1）', '本次招聘采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。对应聘人数与设置岗位数之比超过10：1的，可通过增加笔试的方式，按照拟招聘人数1:3的比例，确定面试人选。笔试成绩不计入总成绩。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市自然资源局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市自然资源局在中卫市人民政府网进行公示，公示时间为5个工作日。', '1.面试工作在中卫市委组织部、中卫市人力资源和社会保障局监督指导下，由中卫市自然资源局依法依规自主组织面试。', '2.面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。', '3.面试成绩即为考试总成绩，当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩确定进入体检、考察人员名单。', '4.面试时间、地点、人员名单在中卫市人民政府网进行公布，并采取打电话、发信息等方式通知应聘者。', '1.根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作在中卫市委组织部、中卫市人力资源和社会保障局的监督指导下，由中卫市自然资源局按照公开招聘要求自主组织实施，并邀请中卫市纪委监委对体检工作进行全程监督。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》(人社部发〔2016〕140号)和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市自然资源局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市自然资源局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治记录的;不具备招聘岗位所需资格条件的;存在本公告中所列不得报考相关情形的;以及存在其他不宜进入事业单位工作的情形，经招聘工作领导小组研究确定后，可取消招聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经招聘工作领导小组研究批准，可以延长30日。', '1.根据考试、体检、考察结果，由中卫市自然资源局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用;不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且面试成绩均达到最低分数线以上应聘者中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（一）凡涉及本次招聘工作的重大事项或本公告未尽事宜，由市招聘工作领导小组研究决定。', '（二）在招聘组织实施过程中，将按照新冠肺炎疫情防控有关要求，落实防疫措施，必要时将对有关工作安排进行适当调整，并及时在中卫市人民政府网发布补充公告或通知，请广大应聘者予以关注、理解、支持和配合。', '有关要求，落实防疫措施，必要时将对有关工作安排进行适当调整，并及时在中卫市人民政府网发布补充公告或通知，请广大应聘者予以关注、理解、支持和配合。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '（五）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '附件：1.中卫市自然资源局事业单位2021年自主公开招聘急需紧缺高层次人才岗位计划一览表', '1.中卫市自然资源局事业单位2021年自主公开招聘急需紧缺高层次人才岗位计划一览表']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>293</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>中卫市新闻传媒中心年自主公开招聘工作人员公告</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2024-07-06</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/xwzx/tzgg/202407/t20240706_4588542.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁政办规发〔2023〕9号)等有关规定,现就中卫市新闻传媒中心2024年自主公开招聘工作人员有关事项公告如下。', '〕9号)等有关规定,现就中卫市新闻传媒中心2024年自主公开招聘工作人员有关事项公告如下。', '本次共面向全国公开招聘事业编制人员2名,具体招聘岗位及资格条件等详见《中卫市新闻传媒中心2024年自主公开招聘工作人员岗位计划一览表》(附件1)。', '名,具体招聘岗位及资格条件等详见《中卫市新闻传媒中心2024年自主公开招聘工作人员岗位计划一览表》(附件1)。', '5.在机关事业单位招(录)聘中被认定有违纪违规行为且被记入诚信档案库仍在记录期的;', '每位应聘者报名与面试时使用的身份证件必须一致。应聘者要对填报信息的真实性、准确性负责。对伪造、涂改报名材料,或报名材料、信息不实影响报名审核结果的将取消本次应聘资格。', '3.资格初审:资格初审单位应在应聘者提交报名申请1个工作日内审核完毕(特殊情况,经领导小组研究后于3个工作日内予以反馈)。应聘者应在提交完整报名信息1个工作日后,电话查询资格初审结果(报名日最后一天报名的应在当日及时查询)。', '资格初审:资格初审单位应在应聘者提交报名申请1个工作日内审核完毕(特殊情况,经领导小组研究后于3个工作日内予以反馈)。应聘者应在提交完整报名信息1个工作日后,电话查询资格初审结果(报名日最后一天报名的应在当日及时查询)。', '资格初审合格的人员名单在报名结束5个工作日内,在中卫市人民政府网站进行公示,公示时间为3个工作日。', '(1)面试由中卫市新闻传媒中心在中卫市人力资源和社会保障局指导下组织实施,面试形式为半结构化面试,包含电视出镜、现场主持;重点测评应聘人员与岗位相适应的专业知识、工作技能、业务能力等方面内容。面试总分为100分,面试成绩达不到60分的,取消应聘资格。', ')面试由中卫市新闻传媒中心在中卫市人力资源和社会保障局指导下组织实施,面试形式为半结构化面试,包含电视出镜、现场主持;重点测评应聘人员与岗位相适应的专业知识、工作技能、业务能力等方面内容。面试总分为', '(2)面试开考比例(岗位通过资格初审人数与招聘人数之比)一般为3:1。达不到3:1比例的,经中卫市新闻传媒中心自主公开招聘工作领导小组研究后,降低面试开考比例、减少招聘名额或取消招聘计划的在中卫市人民政府网站公告。', '。达不到3:1比例的,经中卫市新闻传媒中心自主公开招聘工作领导小组研究后,降低面试开考比例、减少招聘名额或取消招聘计划的在中卫市人民政府网站公告。', '(3)面试的具体时间、地点等事项将提前5个工作日在中卫市人民政府网、中卫新闻网、“中卫发布”公众号发布公告,并以电话等方式告知应聘者。', '(5)面试成绩于面试结束后当天在中卫市人民政府网、中卫新闻网、“中卫发布”公众号公示。', '(1)笔试由中卫市新闻传媒中心在中卫市人力资源和社会保障局指导下组织实施,笔试内容为公共科目(行测+申论),总分为100分,考试时间为120分钟。根据考试情况划定笔试最低分数控制线,笔试成绩低于笔试最低分数控制线的取消应聘资格。', ')笔试由中卫市新闻传媒中心在中卫市人力资源和社会保障局指导下组织实施,笔试内容为公共科目(行测', '分,考试时间为120分钟。根据考试情况划定笔试最低分数控制线,笔试成绩低于笔试最低分数控制线的取消应聘资格。', '(2)笔试开考比例按照笔试人数与岗位招聘人数3:1的比例从面试成绩60分以上(含60分)的考生中由高分到低分确定各岗位参加笔试人员。达不到3:1比例的,降低面试开考比例事项,经中卫市新闻传媒中心自主公开招聘工作领导小组研究后在中卫市人民政府网站公告。', '比例的,降低面试开考比例事项,经中卫市新闻传媒中心自主公开招聘工作领导小组研究后在中卫市人民政府网站公告。', '(3)笔试的具体时间、地点等注意事项将提前5个工作日在中卫市人民政府网站、中卫新闻网发布公告,并以电话等方式告知应聘者。', ')笔试的具体时间、地点等注意事项将提前5个工作日在中卫市人民政府网站、中卫新闻网发布公告,并以电话等方式告知应聘者。', '考试总成绩=面试成绩×60%+笔试成绩×40%(考试总成绩按照四舍五入原则,保留小数点后两位数)。', '根据考试总成绩,按拟招聘人数1:1的比例确定体检人选。同一岗位出现考试总成绩相同时,按照面试成绩由高分到低分确定体检人选,如面试成绩相同,可采取面试确定体检对象。', '的比例确定体检人选。同一岗位出现考试总成绩相同时,按照面试成绩由高分到低分确定体检人选,如面试成绩相同,可采取面试确定体检对象。', '根据考试总成绩从高分到低分排名,按拟招聘人数1:1的比例确定体检和考察(含资格复审)人选。体检由市人力资源社会保障部门具体负责。考察(含资格复审)工作由市新闻传媒中心具体负责。体检与考察具体时间及要求等将通过打电话、发信息等形式通知拟体检和考察(含资格复审)人员,未按规定时间、地点参加的,视为弃权。', ':1的比例确定体检和考察(含资格复审)人选。体检由市人力资源社会保障部门具体负责。考察(含资格复审)工作由市新闻传媒中心具体负责。体检与考察具体时间及要求等将通过打电话、发信息等形式通知拟体检和考察(含资格复审)人员,未按规定时间、地点参加的,视为弃权。', '1.体检。体检须在县级以上综合公立医院进行。体检标准和项目参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)执行,事业单位特殊行业对从业人员身体有特殊规定的从其规定。应聘者应在规定时间内完成全部体检项目,体检费用由应聘人员承担。应聘者对体检项目结果有疑问的,经各级人力资源社会保障部门同意,可以申请1次复检,复检应安排在不低于原体检医疗机构级别的其他医疗机构进行,体检结果以复检结论为准。体检合格的应聘人员确定为考察人选。未按要求完成体检的,视为自动放弃应聘资格。', '体检。体检须在县级以上综合公立医院进行。体检标准和项目参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)执行,事业单位特殊行业对从业人员身体有特殊规定的从其规定。应聘者应在规定时间内完成全部体检项目,体检费用由应聘人员承担。应聘者对体检项目结果有疑问的,经各级人力资源社会保障部门同意,可以申请', '次复检,复检应安排在不低于原体检医疗机构级别的其他医疗机构进行,体检结果以复检结论为准。体检合格的应聘人员确定为考察人选。未按要求完成体检的,视为自动放弃应聘资格。', '2.考察(含资格复审)。考察工作按照德才兼备、以德为先的用人标准,采取个别谈话、实地走访、审核档案、查询社会信用记录、与考察人选面谈等方式,广泛了解考察人选的思想政治、道德品质、能力素质、遵纪守法、工作学习表现、个人诚信及是否需要回避等方面的情况,并对应聘者的应聘资格进行复审。资格复审工作重点核查应聘人员有效居民身份证、毕业证、学位证、教育部证书电子注册备案表、国外学历学位认证书(留学人员提供)及相关资格证书及岗位资格复审表等。资格审查贯穿引才工作全过程,凡发现应聘者不符合应聘条件的,随时取消应聘资格。', '考察(含资格复审)。考察工作按照德才兼备、以德为先的用人标准,采取个别谈话、实地走访、审核档案、查询社会信用记录、与考察人选面谈等方式,广泛了解考察人选的思想政治、道德品质、能力素质、遵纪守法、工作学习表现、个人诚信及是否需要回避等方面的情况,并对应聘者的应聘资格进行复审。资格复审工作重点核查应聘人员有效居民身份证、毕业证、学位证、教育部证书电子注册备案表、国外学历学位认证书(留学人员提供)及相关资格证书及岗位资格复审表等。资格审查贯穿引才工作全过程,凡发现应聘者不符合应聘条件的,随时取消应聘资格。', '1.根据考试、体检、考察结果确定,由市新闻传媒中心研究确定拟聘用人员名单,并在中卫市人民政府网站公示5个工作日。公示期满无异议的,确定为聘用人员,将聘用人员材料送市人力资源社会保障局审核备案,办理各项手续。', '根据考试、体检、考察结果确定,由市新闻传媒中心研究确定拟聘用人员名单,并在中卫市人民政府网站公示5个工作日。公示期满无异议的,确定为聘用人员,将聘用人员材料送市人力资源社会保障局审核备案,办理各项手续。', '对反映有影响聘用的问题经查证属实的,不予聘用;对反映涉嫌违规违纪的问题一时难以查实的,暂缓聘用,待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知20个工作日内)不报到的,取消聘用资格。', '对反映有影响聘用的问题经查证属实的,不予聘用;对反映涉嫌违规违纪的问题一时难以查实的,暂缓聘用,待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知', '2.招聘单位与受聘人员签订聘用合同(期限一般不低于3年),确立人事关系,并按规定办理相关手续。聘用合同可按规定约定最低服务期限,并明确违约责任和相关要求。', '招聘单位与受聘人员签订聘用合同(期限一般不低于3年),确立人事关系,并按规定办理相关手续。聘用合同可按规定约定最低服务期限,并明确违约责任和相关要求。', '3.聘用人员按规定实行试用期制度,试用期包括在聘用合同期限内。试用期满考核合格的,正式聘用;不合格的,取消聘用资格。', '聘用人员按规定实行试用期制度,试用期包括在聘用合同期限内。试用期满考核合格的,正式聘用;不合格的,取消聘用资格。', '1.递补情形。在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位,以及因反映有影响聘用问题或不符合聘用条件出现的空缺岗位,可从报考同一岗位且笔试、面试成绩均到合格线以上的应聘者中,按考试总成绩从高分到低分的顺序依次递补。', '递补情形。在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位,以及因反映有影响聘用问题或不符合聘用条件出现的空缺岗位,可从报考同一岗位且笔试、面试成绩均到合格线以上的应聘者中,按考试总成绩从高分到低分的顺序依次递补。', '2.不予递补情形。通过笔试确定面试人员名单公示公告发布后至面试结束,出现的空缺岗位不再递补;人社部门聘用批复文件印发之日起,出现的空缺岗位不再递补。', '不予递补情形。通过笔试确定面试人员名单公示公告发布后至面试结束,出现的空缺岗位不再递补;人社部门聘用批复文件印发之日起,出现的空缺岗位不再递补。', '(一)《公告》由中卫市新闻传媒中心负责解释。凡涉及本次招聘工作的重大事项或本公告未尽事宜,由市新闻传媒中心研究决定。', '(三)招聘工作的具体政策、注意事项及根据需要如对工作安排作出调整的,均在指定网站进行详述,请应聘人员及时关注并认真阅读。', '(四)招聘工作违纪违规行为的认定和处理,按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行,构成犯罪的,依法追究刑事责任。', '(四)招聘工作违纪违规行为的认定和处理,按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第', '(五)招聘单位相关人员、应聘人员在办理公开招聘相关事项时需要回避的,应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '(五)招聘单位相关人员、应聘人员在办理公开招聘相关事项时需要回避的,应按照《事业单位人事管理回避规定》(人社部规〔', '(六)应聘人员报名时所留电话应保持畅通,因电话不畅通导致招聘单位无法通知相关事宜的,责任由应聘者承担。', '(七)本次招聘工作不指定考试辅导用书,不举办也不委托任何机构举办考试辅导班。请广大应聘者提高警惕,谨防上当受骗。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>293</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>李晓波主持召开市人民政府第次常务会议</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2020-09-18</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/cwhy/202009/t20200918_2236131.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['建设黄河流域生态保护和高质量发展先行市 确保习近平总书记重要讲话精神在中卫落地见效', '9月17日，市长李晓波主持召开市政府第81次常务会。会议传达习近平总书记在经济社会领域专家座谈会上的重要讲话和对“十四五”规划编制工作的重要指示精神以及自治区党委常委会会议精神、闽宁互学互助对口扶贫协作第24次联席会议精神、全区建设黄河流域生态保护和高质量发展先行区第二次推进会精神，学习《法治政府建设实施纲要（2015－2020年）》《中卫市法治政府建设实施方案（2016—2020年）》等，安排部署近期重点工作。', '会议要求，各县（区）、各部门（单位）要以习近平总书记视察宁夏重要讲话精神为遵循，深刻认识编制“十四五”规划的重大意义，深入研究思考，结合中卫实际，高标准高起点做好全市“十四五”规划编制工作，更好地统筹推进常态化疫情防控和经济社会发展。要积极主动融入全国、全区发展大局，紧紧围绕中卫“一带两廊”发展规划、建设黄河流域生态保护和高质量发展先行市等重大战略，着眼补齐全市当前及今后发展的短板弱项。要按照市委、市政府安排部署，组建工作专班，深入开展调查研究，畅通渠道、广开言路、科学论证，充分吸收专家、企业家和广大人民群众的意见建议，汇聚各方智慧力量，确保习近平总书记重要讲话精神在中卫落地见效。', '会议指出，近年来，中卫、漳州共同深入学习贯彻习近平总书记关于东西部扶贫协作和对口支援的重大决策部署，抢抓“一带一路”重要战略机遇，秉承习近平总书记开创闽宁对口协作事业的重要理念和重大实践，合作交流日益密切。9月3日，漳州市考察团一行来卫考察观摩，共叙闽宁深厚情谊、共商扶贫协作大计、共谋两地合作发展，进一步推动两地深层次、全方位的合作格局。各县（区）、各部门（单位）要认真落实联席会议部署，深化闽宁协作，携手并肩决战决胜脱贫攻坚，全面建成小康社会。', '会议指出，自治区党委书记陈润儿在全区建设黄河流域生态保护和高质量发展先行区第二次推进会上的讲话，深入分析了全区生态环境保护工作现状，对保护和改善生态环境工作提出了新要求、作出了新部署，具有很强的针对性、指导性和可操作性。各县（区）、各部门（单位）要按照推进会要求，认真落实自治区党委、政府和市委决策部署，坚决守住守好改善生态环境生命线，为建设黄河流域生态保护和高质量发展先行市贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>293</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>喜报中卫市行政复议体制改革被命名为全区法治政府建设示范项目</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/bmxxgkml/ssfj/fdzdgknr_49428/bmxx_49458/202404/t20240409_4508497.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['近日，自治区党委全面依法治区委员会发布《关于第三批全区法治政府建设示范地区（单位）和项目命名的决定》，中卫市《“小试点”撬动“大改革” 行政复议体制改革蹚出新路子》，被命名为第三批全区法治政府建设示范项目。', '近日，自治区党委全面依法治区委员会发布《关于第三批全区法治政府建设示范地区（单位）和项目命名的决定》，中卫市《', '近年来，中卫市深入学习贯彻习近平法治思想，聚焦法治政府建设，秉承复议为民理念，率先在全国、全区开展行政复议体制改革，多层面推动、多角度把关、多维度发力，以“小试点”撬动“大改革”，创建行政复议体制改革“中卫经验”，成果入选全市“', '近年来，中卫市深入学习贯彻习近平法治思想，聚焦法治政府建设，秉承复议为民理念，率先在全国、全区开展行政复议体制改革，多层面推动、多角度把关、多维度发力，以', '下一步，中卫市将全面贯彻落实新修订的行政复议法，深入实施法治政府建设提升工程，紧紧围绕行政复议工作新形势新要求，不断提升行政复议质效，彰显行政复议公信力，充分发挥行政复议化解行政争议主渠道作用，擦亮法治政府建设“金字招牌”，增强人民群众法治建设的获得感、幸福感，持续推动法治政府建设。', '下一步，中卫市将全面贯彻落实新修订的行政复议法，深入实施法治政府建设提升工程，紧紧围绕行政复议工作新形势新要求，不断提升行政复议质效，彰显行政复议公信力，充分发挥行政复议化解行政争议主渠道作用，擦亮法治政府建设']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>293</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>民营企业家盛赞我市投资发展环境好</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2016-07-26</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201607/t20160726_597094.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['7月25日，“民营企业中卫行”活动当天，来自区内外四百多名民营企业家代表来卫参观考察。考察团先后到沙坡头水镇、市区五馆一中心、宁夏中关村科技产业园等地进行参观。', '“城市道路每平方米浮沉含量不超过5克，地面垃圾滞留时间不超过5分钟。”这是中卫“以克论净，深度清洁”的城市保洁模式。在市区五馆一中心，环卫工人现场为嘉宾们展示“以克论净”的检测方法。', '宜人的自然气候、和谐的人文环境，1平方米0.3克的浮沉，让来自上海康德养老有限公司的张军赞叹不已。', '张军说：“对中卫的第一感觉就是环境好，环卫理念、垃圾处理方式都很新颖，值得其他城市学习、借鉴。中卫作为一个休闲、宜居，拥有独特旅游资源的城市，我很看好中卫在养老方面的市场，通过联合养老能够吸引更多的外地人来中卫，同时也会推动中卫经济的发展。”', '宁夏中关村科技产业园西部云基地，是北京、宁夏两市区着眼产业结构转型升级，依托北京中关村品牌、科技、人才和宁夏电力、土地等优势，以“前店后厂”创新模式共同建设的云计算产业基地。', '“中卫中关村科技园西部云基地在未来会成为中卫的一张特色名片。”内蒙古乌海市信誉装潢有限公司的李洪仁说：“第一次来中卫，感觉中卫城市建设、管理理念很科学。明确、超前的思维，表现在积极推动高科技产业的发展上，引进高新技术产业，云基地就是一大亮点。政策、领导的重视，体现在招商引资政策方面的倾斜、招商环境的营造以及坚持打造环境友好型城市的做法，未来在中卫投资的话我会倾向于科技方面，希望能搭乘中卫高新技术列车，推动我们公司科技产业的发展。”']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>293</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>中卫市林草集团股份有限公司招聘公告</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2021-10-08</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202110/t20211008_3073982.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['中卫市林草集团股份有限公司（以下简称市林草集团），是中卫市人民政府直属的国有控股混合所有制企业。公司主要负责土壤污染治理与修复服务、水污染治理、园林绿化工程施工、规划设计管理、树木种植经营、生物质成型燃料销售、林业产品销售、森林经营和管护等与林草相关经营业务。', '5.符合《中卫市林草集团股份有限公司2021年公开聘用工作人员岗位计划一览表》（附件1）中岗位要求的相关资格条件；', '6.中卫市林场、中卫市香山林场、中卫市蒿川林场、中卫市治沙林场、中卫市西郊林场（森林防火队）、中卫市林业技术推广服务中心现有3年及以上工作经历的临聘人员报考岗位可放宽专业和年龄（40岁以下）。', '共计划公开招聘工作人员14名，具体岗位、范围、条件等详见《中卫市林草集团股份有限公司2021年公开聘用工作人员岗位计划一览表》（附件1）。所需专业根据宁夏回族自治区事业单位公开招聘工作人员专业参考目录设置。', '应聘人员严格按照招聘岗位的条件报名，且对报名提交材料的真实性、准确性负责。市林草集团根据实际情况，在报名结束后汇总报名人员信息，会同市人力资源社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由市林草集团在中卫市人民政府网进行公示，公示时间为3天。', '1.报名人数超过10人的岗位，考试采取笔试和面试相结合的方式进行。笔试和面试由市林草集团会同市人力资源社会保障局组织。笔试、面试时间和地点另行通知。', '面试根据笔试成绩，按照笔试人数与招聘岗位招聘人数5:1的比例从高分到低分确定面试人员。面试重点测评应聘人员与岗位相适应的公共综合素质、业务能力等，分值100分，占总成绩50%。面试成绩达不到60分的取消应聘资格。', '2.报名资格审查合格人数不超过10人（含10人）的岗位。考试直接采取面试方法进行。面试由市林草集团会同市人力资源社会保障局组织。面试成绩即为总成绩，面试成绩达不到60分的取消应聘资格。当面试成绩并列时，当场组织成绩并列人员再次面试，按照再次面试成绩确定进入体检、考察人员名单。', '体检由市林草集团组织。体检人员按考试成绩从高分到低分按招聘岗位招聘人数等额确定。体检标准参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)执行，体检不合格的人员取消应聘资格，同时按考试总成绩依次递补短缺名额参加体检。体检时间另行通知，体检费用自理。', '由市林草集团组织考察。考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法和廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '考察中发现因个人品德差、有不良政治或诚信记录、弄虚作假等行为且被有关部门依法依规予以处理的；不具备报考资格条件的；曾有违法违规行为的；以及其他不宜聘用为工作人员情形的，经研究确定后，可取消招聘资格。', '因放弃考察资格或考察不合格被取消资格等情况出现岗位空缺的，从报考同一岗位考试总成绩中从高分到低分依次递补。', '2.公示期满无异议的，或有反映问题但经核实不影响聘用的，按程序与市林草集团签订《劳动合同》，期限为1年，试用期1个月，按照国家规定缴纳五险一金，试用期工资为3200元，试用期考核结果合格且符合岗位录用条件的，薪资待遇按照市林草集团薪酬体系规定按岗定薪原则和标准执行。合同期满可根据用工单位需求及本人意愿双方协商决定是否续签。', '（二）公开招聘违纪违规行为的认定和处理，参照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行。', '（三）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者自负。', '（四）本次招聘不举办、不委托任何机构举办考试辅导培训班，也不指定任何参考用书和资料。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>293</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>中卫市科技创新促进中心自主公开招聘公告</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202302/t20230221_3967662.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['为进一步加强中卫市科技创新促进中心人才队伍建设，引进急需紧缺的高层次人才，根据《事业单位人事管理条例》（国务院令第652号）《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）《自治区党委组织部人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等有关规定，现就中卫市科技创新促进中心自主公开招聘有关事项公告如下。', '为进一步加强中卫市科技创新促进中心人才队伍建设，引进急需紧缺的高层次人才，根据《事业单位人事管理条例》（国务院令第', '号）《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）《自治区党委组织部人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等有关规定，现就中卫市科技创新促进中心自主公开招聘有关事项公告如下。', '12.应聘者不得报考与《事业单位公开招聘人员暂行规定》第二十七条所列回避情形的岗位。', '本次共招聘工作人员1人，招聘岗位、资格条件及有关事项详见《中卫市科技创新促进中心自主公开招聘岗位一览表》（附件1），专业名称表述参照《宁夏事业单位公开招聘工作人员专业（学科）指导参考目录》。', '人，招聘岗位、资格条件及有关事项详见《中卫市科技创新促进中心自主公开招聘岗位一览表》（附件', '本次招聘原则上采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。如岗位招聘人数与资格审查合格人数之比超过1:25以上（含25），则增加笔试环节确定面试人员，笔试成绩不计入总成绩。', '分为合格分数线，面试成绩达不到60分的取消招聘资格。如岗位招聘人数与资格审查合格人数之比超过', '版和pdf版）、电子照片、毕业证书、学位证书（包括本科、研究生阶段）、学信网上的学历认证报告、户口本、身份证等报名所需材料扫描件等发送至单位电子邮箱', '年应届毕业生暂不能提供毕业证书、学位证书的，可先提供学籍在线验证报告、具有学校签章的就业推荐表等相关证明。取得国（境）外学历学位证书的应当提供国家教育部门出具的学历认证报告。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市科学技术局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，如有伪造相关证件、材料骗取考试资格的，一经查实立即取消报考资格。资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。', '资格审查合格的面试人员名单由中卫市科学技术局在中卫市人民政府网站进行公示，公示时间为5个工作日。', '资格审查合格的面试人员名单由中卫市科学技术局在中卫市人民政府网站进行公示，公示时间为', '如资格审查合格人数超过25人（含25人）的，增加笔试。笔试工作由中卫市科学技术局依法依规自主组织实施，笔试具体事项另行通知。面试人员按照岗位招聘人数与笔试人数1:3的比例依次从高分到低分确定，面试人员名单在中卫市人民政府网站公示5个工作日。', '人（含25人）的，增加笔试。笔试工作由中卫市科学技术局依法依规自主组织实施，笔试具体事项另行通知。面试人员按照岗位招聘人数与笔试人数', '面试成绩即为考试总成绩。当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩确定进入体检、考察人员名单。面试具体事项另行通知。', '1.根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作由中卫市科学技术局按照公开招聘要求自主组织实施，并邀请中卫市纪委监委对体检工作进行全程监督。', '根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作由中卫市科学技术局按照公开招聘要求自主组织实施，并邀请中卫市纪委监委对体检工作进行全程监督。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市科学技术局同意，可以复检，体检结果以复检结论为准。', '应聘者对体检结果有疑问的，经中卫市科学技术局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市科学技术局负责组织实施，具体考察方式和内容按照相关规定执行。', '考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市科学技术局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治记录的；不具备招聘岗位所需资格条件的；存在本公告中所列不得报考相关情形的；以及存在其他不宜进入事业单位工作的情形，经中卫市科学技术局研究确定后，可取消招聘资格。', '考察中发现因个人品德差、有不良政治记录的；不具备招聘岗位所需资格条件的；存在本公告中所列不得报考相关情形的；以及存在其他不宜进入事业单位工作的情形，经中卫市科学技术局研究确定后，可取消招聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时经中卫市科学技术局研究批准，可以延长30日。', '因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时经中卫市科学技术局研究批准，可以延长', '1.根据考试、体检、考察结果，由中卫市科学技术局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格，取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '根据考试、体检、考察结果，由中卫市科学技术局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于', '个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格，取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '2.招聘单位与受聘人员签订聘用合同（期限一般不低于3年），确立人事关系，并按规定办理相关手续。', '招聘单位与受聘人员签订聘用合同（期限一般不低于3年），确立人事关系，并按规定办理相关手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。', '聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。', '1.当岗位招聘人数与资格审查合格人数超过1:25（含25）组织笔试环节的，如在按照岗位招聘人数与笔试人数1:3比例确定的面试人员名单公示前，自愿放弃的取消应聘资格，出现的空缺名额按照笔试成绩由高分到低分依次递补。', '（含25）组织笔试环节的，如在按照岗位招聘人数与笔试人数1:3比例确定的面试人员名单公示前，自愿放弃的取消应聘资格，出现的空缺名额按照笔试成绩由高分到低分依次递补。', '2.体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位面试成绩达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位面试成绩达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '（一）报名登记表要如实、详尽的填写，注明应聘岗位，粘贴照片，报名登记表应亲笔签名。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格，已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理 ，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '（五）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市科学技术局和中卫市人力资源和社会保障局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。', '（七）报告人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>293</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>中卫市个临时党支部筑牢一线堡垒</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020-02-05</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202002/t20200205_1942030.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['中卫黄河桥高速路口是外来车辆进入市区的重要通道。1月29日，中卫黄河桥高速疫情防控检查站率先成立临时党支部， 23名党员干部分班24小时坚守岗位。为更好地发挥基层党组织战斗堡垒和党员先锋模范作用，保护人民群众生命安全，我市在防疫一线已组建91个临时党支部，把“堡垒”筑在防控战“役”最前沿，使党旗始终高高飘扬在疫情防控第一线。', '针对集中建立的隔离点和设立在高速公路口、火车站等疫情防控站（点），根据由多部门分别抽调人员、联合开展工作的要求，市委组织部指导各牵头部门或责任单位组建临时党支部，由包点的党员负责人担任党支部书记，建立“一线堡垒”，加强对疫情防控站（点）工作的统一领导、统一指挥、统一调度。目前，全市共成立临时党支部91个，管理党员660余名。', '明确临时党支部的职责，是确保防控措施落地落实的重要举措。市委组织部下发通知，明确了临时党支部五项工作职责，要求临时党支部认真及时学习贯彻中央和区市党委、政府有关精神，强化党员干部的政治责任，坚决执行上级党委（党组）决定部署；要充分发挥领导核心作用，全面领导防控站（点）的疫情防控工作，统领协调不同部门（单位）抽调党员干部形成合力；要组织党员干部严格执行工作标准程序，积极完成党组织分配任务；加强党员管理，监督党员严格遵守工作纪律；把疫情防控工作作为培养、教育和考察党员干部的主要内容，及时发现和掌握表现优秀的党员干部，提醒督促表现不好和不担当、不作为的干部，激励引导党员干部发挥先锋模范和示范带头作用。', '临时党支部成立以来，充分发挥基层战斗“堡垒”作用，凝聚合力，全体党员干部把疫情防控一线作为践行初心使命、体现责任担当、锤炼检验党性的主阵地，做到人员排查走在前、人员管控抓在前、设卡检查挡在前、应急处置冲在前、文明示范做在前。海原县东城小区临时党支部14名党员主动做好小区外来人员排查、出入车辆登记、生活垃圾清运、公共场所消毒等服务，减少了群众感染疾病的风险。', '同时，市、县（区）党委纪检、组织部门、各派出部门（单位）党委（党组）把党员干部在防控第一线工作情况作为考察考验领导班子、领导干部和基层党组织的重要依据，成立了15个联合督查组奔赴一线，督查疫情防控责任落实情况，加强对临时党支部的管理，对党员干部在疫情防控工作中的表现进行跟踪了解考察，对表现突出的优秀干部大胆提拔使用，对不胜任现职的及时调整，对不敢担当、作风漂浮、落实不力，甚至弄虚作假、失职渎职的严肃问责。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>293</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>中卫市粮食和物资储备局年自主公开招聘事业单位工作人员公告</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-02-24</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202302/t20230224_3973583.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['中卫市粮食和物资储备局 2023年自主公开招聘事业单位工作人员公告_中卫市人民政府', '为进一步加强中卫市粮油质量检验和应急物资储备中心人才队伍建设，根据《事业单位人事管理条例》（国务院令第652号）《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）《自治区党委组织部人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等有关规定，现就中卫市粮食和物资储备局2023年自主公开招聘事业单位工作人员有关事项公告如下。', '5.符合《中卫市粮食和物资储备局2023年自主公开招聘事业单位工作人员岗位计划一览表》（附件1）中招聘岗位要求的资格条件。', '本次共招聘硕士研究生及以上学历1人，招聘岗位、资格条件及有关事项详见附件《中卫市粮食和物资储备局2023年自主公开招聘事业单位工作人员岗位计划一览表》，专业名称表述参照《宁夏事业单位公开招聘工作人员专业（学科）指导参考目录》。', '本次招聘原则上采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。如岗位招聘人数与资格审查合格人数之比超过1:25以上（不含25），则增加笔试环节确定面试人员，笔试成绩不计入总成绩。', '应聘人员严格按照招聘岗位的条件报名，对网络报名提交材料的真实性、准确性负责。市粮食和物资储备局将在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市粮食和物资储备局在中卫市人民政府网进行公示，公示时间为5个工作日。', '如资格审查合格人数超过25人（不含25人），增加笔试。笔试工作由中卫市粮食和物资储备局依法依规自主组织实施，笔试具体事项另行通知。面试人员按照岗位招聘人数与笔试人数1:3的比例依次从高分到低分确定，面试人员名单在中卫市人民政府网站公示5个工作日。如资格复审合格人数不超过25人的，直接组织面试。', '面试成绩即为考试总成绩。当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩确定进入体检、考察人员名单。面试具体事项另行通知。', '1.根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作在中卫市人力资源和社会保障局的监督指导下，由中卫市粮食和物资储备局依法依规自主组织实施。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市粮食和物资储备局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市粮食和物资储备局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治或诚信记录的；不具备招聘岗位所需资格条件的；存在本公告中所列不得报考相关情形的；以及存在其他不宜进入事业单位工作情形的，经中卫市粮食和物资储备局研究确定后，可取消应聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。', '1.根据考试、体检、考察结果，由中卫市粮食和物资储备局研究确定拟招聘人员公示名单后，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的取消招聘资格，空缺岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理聘用手续。', '1.根据考试、体检、考察结果，由中卫市粮食和物资储备局研究确定拟招聘人员公示名单后，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。', '2.用人单位与受聘人员签订聘用合同（期限一般不低于3年），确立人事关系，并按规定办理相关手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。', '1.当岗位招聘人数与资格审查合格人数超过1:25（不含25）组织笔试环节的，在按照岗位招聘人数与笔试人数1:3比例确定的面试人员名单公示前，自愿放弃的取消应聘资格，出现的空缺名额按照笔试成绩由高分到低分依次递补。', '2.体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位面试成绩达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '（二）凡涉及招聘工作的重大事项或本办法未尽事宜，由中卫市粮食和物资储备局研究决定。', '（一）报名登记表要如实、详尽的填写，注明应聘岗位，粘贴照片，报名登记表应亲笔签名。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格，已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '（五）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市粮食和物资储备局会同中卫市人力资源和社会保障局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。', '（七）报告人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。', '附件：1.中卫市粮食和物资储备局2023年自主公开招聘事业单位工作人员岗位计划一览表']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>293</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>中卫市自然资源局事业单位年自主公开招聘急需紧缺高层次人才公告</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2022-06-20</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202206/t20220620_3578852.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['中卫市自然资源局事业单位2022年自主公开招聘急需紧缺高层次人才公告_中卫市人民政府', '为进一步推进人才强市战略，积极引进急需紧缺高层次人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁党办〔2006〕35号)、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等规定，现就中卫市自然资源局事业单位2022年自主公开招聘急需紧缺高层次人才有关事项公告如下。', '采取公开报名方式，面向全区自主公开招聘具有硕士、博士研究生学历学位的普通高等院校毕业生。', '5.符合《中卫市自然资源局事业单位2022年自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件）中招聘岗位要求的相关资格条件；', '符合《中卫市自然资源局事业单位2022年自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件）中招聘岗位要求的相关资格条件；', '5.在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '9.新招聘（录）机关事业单位工作人员未满最低服务期限（含试用期）的；已招聘的特岗教师；', '12.应聘者不得报考《事业单位公开招聘人员暂行规定》第二十七条所列回避情形的岗位。', '本次共招聘1人，招聘岗位、资格条件及有关事项详见《中卫市自然资源局事业单位2022年自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件）。', '本次招聘采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。对资格审查合格人数与设置岗位数之比超过25:1的，可通过增加笔试的方式，按照拟招聘人数1:3的比例，确定面试人选。笔试成绩不计入总成绩。', '分为合格分数线，面试成绩达不到60分的取消招聘资格。对资格审查合格人数与设置岗位数之比超过25:', '的，可通过增加笔试的方式，按照拟招聘人数1:3的比例，确定面试人选。笔试成绩不计入总成绩。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市自然资源局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市自然资源局在中卫市人民政府网进行公示，公示时间为5个工作日。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市自然资源局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市自然资源局在中卫市人民政府网进行公示，公示时间为', '1.面试工作在中卫市委组织部、中卫市人力资源和社会保障局监督指导下，由中卫市自然资源局依法依规自主组织面试。', '面试工作在中卫市委组织部、中卫市人力资源和社会保障局监督指导下，由中卫市自然资源局依法依规自主组织面试。', '2.面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。', '4.面试时间、地点、人员名单在中卫市人民政府网进行公布，并采取打电话、发信息等方式通知应聘者。', '面试时间、地点、人员名单在中卫市人民政府网进行公布，并采取打电话、发信息等方式通知应聘者。', '1.根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作在中卫市委组织部、中卫市人力资源和社会保障局的监督指导下，由中卫市自然资源局按照公开招聘要求自主组织实施，并邀请中卫市纪委监委对体检工作进行全程监督。', '根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作在中卫市委组织部、中卫市人力资源和社会保障局的监督指导下，由中卫市自然资源局按照公开招聘要求自主组织实施，并邀请中卫市纪委监委对体检工作进行全程监督。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》(人社部发〔2016〕140号)和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市自然资源局同意，可以复检，体检结果以复检结论为准。', '应聘者对体检结果有疑问的，经中卫市自然资源局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市自然资源局负责组织实施，具体考察方式和内容按照相关规定执行。', '考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市自然资源局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪', '考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪', '守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治记录的；不具备招聘岗位所需资格条件的；存在本公告中所列不得报考相关情形的；以及存在其他不宜进入事业单位工作的情形，经招聘工作领导小组研究确定后，可取消招聘资格。', '考察中发现因个人品德差、有不良政治记录的；不具备招聘岗位所需资格条件的；存在本公告中所列不得报考相关情形的；以及存在其他不宜进入事业单位工作的情形，经招聘工作领导小组研究确定后，可取消招聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经招聘工作领导小组研究批准，可以延长30日。', '因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起', '日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经招聘工作领导小组研究批准，可以延长30日。', '1.根据考试、体检、考察结果，由中卫市自然资源局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '根据考试、体检、考察结果，由中卫市自然资源局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于', '个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知', '日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用;不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用;不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从面试成绩达到最低分数线以上应聘者中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（一）凡涉及本次招聘工作的重大事项或本公告未尽事宜，由市招聘工作领导小组研究决定。', '有关要求，落实防疫措施，必要时将对有关工作安排进行适当调整，并及时在中卫市人民政府网发布补充公告或通知，请广大应聘者予以关注、理解、支持和配合。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行，构成犯罪的，依法追究刑事责任。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》', '（四）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '（四）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》', '（五）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>293</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>中共中卫市委党校年自主公开招聘事业单位工作人员公告</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2022-07-15</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202207/t20220715_3610895.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['为满足市委党校补充工作人员的需要，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等规定，现就市委党校自主公开招聘事业单位工作人员公告如下。', '2022年中卫市委党校面向全国范围自主公开招聘硕士研究生及以上学历人员2名，具体岗位要求、简介等详见《中共中卫市委党校2022年自主公开招聘事业单位工作人员岗位一览表》（附件1）。专业和学科详见《宁夏回族自治区事业单位公开招聘工作人员专业参考目录（附件3）。', '5.符合《中共中卫市委党校2022年自主公开招聘事业单位工作人员岗位一览表》（附件）中招聘岗位要求的资格条件;', '本次招聘原则上采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。每个岗位资格审查合格的报名人数达到1：15（含15人）以上的岗位则增加笔试环节，笔试的测评范围、测评形式提前公告并通知应聘人员，笔试成绩不计入总成绩。', '采取网络报名的方式进行。应聘人员在规定的报名时间内将本人报名表（附件2）、电子照片、毕业证、学位证（包括本科、研究生阶段）、教育部学籍在线验证报告和教育部学历证书电子注册备案表、党员证明等报名所需材料打包发送至电子邮箱zwswdx@163.com（以“姓名+手机号”命名发送）。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市委党校在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市委党校在中卫市人民政府网进行公示，公示时间为5个工作日。', '（1）资格审查合格人数达到1：15（含15人）以上的岗位，增加笔试环节，笔试工作在中卫市委组织部和中卫市人力资源和社会保障局监督指导下，由中卫市委党校依法依规自主组织实施。', '（1）面试工作在中卫市委组织部和中卫市人力资源和社会保障局监督指导下，由中卫市委党校依法依规自主组织实施面试。', '（2）面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。', '（3）面试成绩即为考试总成绩，当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩由高分到低分确定进入体检、考察人员名单。', '（4）面试时间、地点、人员名单在中卫市人民政府网进行公布，并采取打电话、发信息等方式通知应聘者。', '1.体检工作由中卫市委组织部、中卫市人力资源和社会保障局的监督指导下，由中卫市委党校会按照公开招聘要求自主组织实施。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市委党校同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市委党校负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治或诚信记录的；不具备招聘岗位所需资格条件的；存在本公告中所列不得报考相关情形的；以及存在其他不宜进入事业单位工作情形的，经中卫市委党校研究确定后，可取消应聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。', '1.根据考试、体检、考察结果，由中卫市委党校研究确定拟招聘人员公示名单后，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理聘用手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位面试成绩达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '2.公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '3.人力资源社会保障部门聘用批复文件印发之日起，拟聘用人员自愿放弃聘用、被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，导致拟聘岗位空缺的，不再递补。', '（二）凡涉及招聘工作的重大事项或本办法未尽事宜，由中卫市自主公开招聘事业单位工作人员领导小组研究决定。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格;已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘人员要提供正确联系方式，保持通讯畅通，因通讯不畅导致应聘单位无法通知相关事宜的，责任有应聘者承担。', '（七）因疫情防控等特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中共中卫市委党校综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。', '（八）报考人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>293</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>中卫市农业农村局事业单位自主公开招聘急需紧缺高层次人才公告</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2021-12-31</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202112/t20211231_3267955.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['为进一步加强畜牧农检人才队伍建设，加快引进急需紧缺的高层次人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等规定，现就中卫市农业农村局事业单位自主公开招聘急需紧缺高层次人才有关事项公告如下：', '采取公开报名方式，面向全区自主公开招聘具有硕士、博士研究生学历学位的普通高等院校毕业生。', '5.符合《中卫市农业农村局事业单位自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件1）中各招聘岗位要求的相关资格条件；', '4.在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '本次共招聘2人，招聘岗位、资格条件及有关事项详见《中卫市农业农村局事业单位自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件1）。', '本次招聘采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。对资格审核合格人数与设置岗位数之比超过20：1的，可通过增加笔试的方式，按照拟招聘人数1:5的比例，确定面试人选。笔试成绩不计入总成绩。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市农业农村局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市农业农村局在中卫市人民政府网进行公示，公示时间为5个工作日。', '1.面试工作在中卫市委组织部、中卫市人力资源和社会保障局监督指导下，由中卫市农业农村局依法依规自主组织面试。', '2.面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。', '3.面试成绩即为考试总成绩，当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩确定进入体检、考察人员名单。', '4.面试时间、地点、人员名单在中卫市人民政府网进行公布，并采取打电话、发信息等方式通知应聘者。', '1.根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作在中卫市委组织部、中卫市人力资源和社会保障局的监督指导下，由中卫市农业农村局按照公开招聘要求自主组织实施，并邀请中卫市纪委监委对体检工作进行全程监督。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》(人社部发〔2016〕140号)和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市农业农村局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市农业农村局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治记录的;不具备招聘岗位所需资格条件的;存在本公告中所列不得报考相关情形的;以及存在其他不宜进入事业单位工作的情形，经招聘工作领导小组研究确定后，可取消招聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时经招聘工作领导小组研究批准，可以延长30日。', '1.根据考试、体检、考察结果，由中卫市农业农村局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格，取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用;不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且笔试、面试成绩均达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '2.凡涉及招聘工作的重大事项或本办法未尽事宜，由中卫市自主公开招聘事业单位工作人员领导小组研究决定。', '2.应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格，已聘用的，取消聘用资格。', '3.公开招聘违纪违规行为的认定和处理 ，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '4.应聘人员要提供正确的联系方式，保持通讯畅通，因通讯不畅通造成的一切后果由本人承担。', '5.因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市农业农村局和中卫市人力资源和社会保障局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>293</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>庆中秋赠长凳解难题促和谐</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2021-09-15</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/srmfkbgs/fdzdgknr_50238/bmxx_50269/202109/t20210923_3044212.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['为深入学习贯彻习近平总书记“七一”重要讲话和在中央民族工作会议上的重要讲话精神，市人防办结合“我为群众办实事”实践活动，在东花园社区金河三期BⅡ区开展社区邻里节“我们的节日”活动。', '党史学习教育开展以来，结合“我为群众办实事”实践活动，市人防办全体党员干部深入金河三期BⅡ区，通过走访入户的方式了解到：许多居民反映老年人买菜、健身回来，觉得比较累，不想直接上楼，想在楼下歇会儿，但苦于没有休息地方；还有许多邻里居民在楼下唠唠家常、纳纳凉连个歇脚的地方都没有。针对此项问题，市人防办经过实地考察，利用“我们的节日·中秋节”活动，花3500元在金河三期BⅡ区绿化带处、居民纳凉的地方设置休闲长凳4个，解决了小区居民健身、娱乐、休息场所缺失的难题，增进了居民的邻里和谐团结。', '座椅安装好以后，很快就有居民们坐在上面，他们高兴地说：“座椅真是不错啊，给我们提供了休憩的场所，再也不担心走累了没地方休息，市人防办真是为我们办了件好事啊。”', '通过此次活动，进一步弘扬了中华优秀传统文化，促进了中卫市全国文明城市的创建工作，营造了各族群众、广大居民群众共居共学共事共乐的社会氛围，引导各族人民、广大居民在交往交流中加深了解、增进感情。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>293</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>关于印发中卫市民政局公务员职业道德建设工程实施方案的通知</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2018-09-04</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/smzj/fdzdgknr_49389/bmwj_49422/201809/t20180921_1071999.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['现将《中卫市民政局公务员职业道德建设工程实施方案》印发，请结合实际，认真贯彻执行。', '按照《中共中卫市委组织部 中卫市人力资源和社会保障局 关于印发&lt;中卫市公务员职业道德建设工程实施方案&gt;的通知》文件，结合我局实际，制定本实施方案。', '（一）指导思想。推动公务员职业道德建设，要高举中国特色社会主义伟大旗帜，以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观和习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大精神，坚持把职业道德培育贯穿公务员队伍建设全过程，把知与行、自律与他律、示范与引领有机结合起来，全面提升公务员职业道德水平。', '——坚持职业道德建设与集中性和经常性学习教育相结合。根据不同阶段、不同行业的实际，针对突出问题，开展形式多样的公务员职业道德建设活动。', '——坚持教育引导、行为规范、实践养成相统一。把教育引导作为塑造公务员道德习惯和提升公务员职业道德素养的重要环节，发挥行为规范对公务员的约束作用，推动公务员职业道德实践养成，使公务员职业道德内化于心、外化于行，贯穿到日常工作和言行中，成为广大公务员的自觉自愿行动。', '——坚持整体推进与分类指导相衔接。在整体推进公务员职业道德建设的同时，根据不同类别、不同层级、不同行业公务员的特点，加强分类指导，进一步提高公务员职业道德建设的针对性、有效性。', '——坚持推进工作与完善制度相配套。认真贯彻落实中央、自治区、市关于从严管理干部的要求，把公务员职业道德建设与完善公务员制度结合起来，建立健全公务员职业道德建设的长效机制。', '（三）主要目标。坚持把职业道德建设贯穿于公务员管理的全过程，通过持续努力，建立健全公务员职业道德行为规范，完善职业道德建设体制机制，使全市公务员理想信念更加坚定，精神状态更加饱满，履职行为更加规范，工作作风更加务实，真正成为社会主义道德的示范者、专业化服务的提供者、诚信风尚的引领者和公平正义的维护者。', '公务员职业道德建设突出政治性、示范性、约束性、可操作性，以“坚定信念、忠于国家、服务人民、恪尽职守、依法办事、公正廉洁”为主要内容。', '“坚定信念”要求公务员坚定对马克思主义的信仰，坚定对社会主义和共产主义的信念，不断增强道路自信、理论自信、制度自信、文化自信；坚持中国共产党的领导，坚持党的基本理论、基本路线、基本纲领、基本经验、基本要求不动摇；把牢政治方向，坚定政治立场，严守政治纪律和政治规矩，增强党性修养，做到对党和人民绝对忠诚。', '“忠于国家”要求公务员弘扬爱国主义精神，坚决维护国家安全、荣誉和利益，维护党和政府形象、权威，维护国家统一和民族团结；保守国家秘密和工作秘密，同一切危害国家利益的言行作斗争。', '“服务人民”要求公务员坚持以人为本、执政为民，全心全意为人民服务，永做人民公仆；坚持党的群众路线，密切联系群众，以人民忧乐为忧乐，以人民甘苦为甘苦；坚持人民利益至上，把实现好、维护好、发展好最广大人民根本利益作为工作的出发点和落脚点，切实维护群众切身利益。', '“恪尽职守”要求公务员服务大局、奋发有为、甘于奉献，为党和人民的事业不懈奋斗；坚持原则、敢于担当、认真负责，面对矛盾敢于迎难而上，面对危机敢于挺身而出，面对失误敢于承担责任，面对歪风邪气敢于坚决斗争；精通业务知识，勤勉敬业、求真务实，兢兢业业做好本职工作。', '“依法办事”要求公务员牢固树立社会主义法治理念，努力提高法治素养，模范遵守宪法和法律；严格依法履职，做到权由法定、权依法使，法定职责必须为、法无授权不可为；坚持依法决策，严格按照法定的权限、程序和方式执行公务。', '“公正廉洁”要求公务员坚持秉公用权、公私分明，努力维护和促进社会公平正义；严于律己、廉洁从政，坚守道德法纪防线；为人正派、诚实守信，尚俭戒奢、勤俭节约。', '（一）建立公务员诚信档案。2018年底前，建立统一的公务员诚信档案，把公务员档案填写登记情况、个人事项报告查核情况、廉政记录情况、遵守规定和承诺践诺情况等，列入诚信记录范围。将诚信记录情况作为干部考核、使用、奖惩的重要依据。', '（二）建立公务员职业道德行为规范。按照《国家公务员行为规范》和《中卫市公务员守则》，结合工作实际，制定内容具体、易于操作的《市民政局公务员守则》，从严规范公务员履职行为。同时，要充分发挥行为规范对公务员的约束作用，组织广大公务员认真学习、严格遵守。', '（三）加大理想信念教育力度。组织我局公务员深入学习党的十九大精神，深入学习习近平新时代中国特色社会主义思想，坚持用马克思主义中国化最新成果武装头脑。深入开展公务员理想信念教育、宗旨教育、法制教育、党规党纪和廉政教育，引导公务员树立正确的世界观、人生观、价值观和权力观、地位观、利益观，增强政治意识、大局意识、核心意识、看齐意识。把中国特色社会主义核心价值体系作为根本价值取向，牢固树立中国特色社会主义共同理想，推动公务员职业道德建设。', '（四）实施职业道德培训计划。组织公务员积极参加职业道德教育培训，同时，组织局系统公务员进行职业道德建设专题培训，发挥重要节庆日、纪念日蕴藏的丰富教育资源，利用道德讲堂及革命历史、党风廉政、中华传统美德、宁夏特色党性教育实践基地等现场教学基地，开展公务员职业道德教育。', '（五）强化警示教育。利用违反政治纪律和政治规矩、贪污受贿、失职渎职、滥用职权、参与或者支持迷信等反面典型，开展典型案例剖析、接受警示教育。每人每年接受警示教育不少于2次。', '（六）加强公务员忠诚建设。设立公务员职业道德主题实践日，结合实际定期开展主题实践活动。认真落实宪法宣誓制度，开展新录用、新任职公务员忠于宪法宣誓活动。严格落实“支部主题党日”制度，定期开展党员干部重温入党誓词活动，进一步增强公务员忠于宪法、忠于党、忠于以习近平同志为核心的党中央的意识。', '（七）选树公务员职业道德先进典型。深入推进争做人民满意公务员活动，每半年开展一次公务员“职业道德标兵”“为民服务示范岗”创建活动，大力营造身边有先进、单位有榜样、行业有标兵、全市有模范的良好氛围。要开展“向楷模看齐”活动，组织公务员向人民满意的公务员、职业道德标兵等先进人物看齐，不断提升职业道德修养。倡导公务员结合本职工作特点，积极开展“为民志愿服务”进企业、进社区、进农村活动。重视发挥机关中党支部、工会、共青团、妇联等基层组织作用，推动公务员职业道德建设经常化。', '（八）推进公务员职业道德文化养成。结合实际，组织开展主题征文、演讲比赛、大讨论、诵读文化经典等活动，充分挖掘中华优秀传统文化中道德的精华，大力弘扬井冈山精神、延安精神、焦裕禄精神等党的优良传统，形成促进公务员职业道德建设的良好文化氛围。', '（九）加强公务员职业道德考核评价。在开展公务员平时考核、年度考核、任职考察等工作时，注重了解公务员职业道德表现情况。个人述职要述德，民主测评要测德，考察谈话要问德，综合分析研判要分析评价公务员的职业道德素养和表现情况。要将公务员遵守职业道德情况列入民主生活会、组织生活会等重要内容，深入查找不足，切实加强整改。', '（十）健全公务员职业道德监督机制。深入开展机关作风和行风评议监督工作，结合政风行风建设，开展公务员职业道德监督。建立健全窗口单位、服务部门服务对象评价机制和投诉举报处理及问责制度。要加强社会监督，推进党务、政务公开，畅通群众反映意见建议的渠道，密切关注网情舆情，主动回应群众关切。', '（十一）加大奖惩力度。强化公务员职业道德考核结果的运用，将职业道德考核情况作为公务员选拔任用、培养教育、管理监督的重要依据。对恪守职业道德、履职尽责、表现优秀的公务员，给予适当奖励。贯彻落实《中国共产党廉洁自律准则》、《中国共产党纪律处分条例》、《中国共产党问责条例》等党纪党规，对发现违反职业道德、工作作风懈怠、工作态度恶劣、有严重失信行为等情况，按照有关规定进行严肃问责。', '制定切实可行的实施方案。开会动员部署，及时传达市委、市人社局和本市实施方案，统一思想，提高认识，明确要求，部署本部门方案。', '根据实施方案，逐项落实各项工作要求。要坚持统筹兼顾，将职业道德建设和党的建设、精神文明创建、效能建设和业务工作紧密结合起来，创新内容、创新形式、创新制度、细化要求，注重实效，营造人人争当人民满意公务员。要及时总结实施成果，推动职业道德建设深入持久开展。', '(一)提高认识，确保落实。要充分认识推进公务员职业道德建设工程的重要意义，切实把这项工作摆上重要位置，确保各项目标任务落实到位。要落实工作责任，完善措施，狠抓落实，务求取得实效。', '(二) 抓住重点，分类推进。局领导干部同志要率先垂范，带头践行公务员职业道德，把坚定理想信念、遵守政治纪律和政治规矩、廉洁自律、敢担当、作风正作为重点；有执法权的公务员要把增强法治观念、严格规范公正文明执法作为重点，全面推进公务员队伍的职业道德建设。', '（三）积极宣传，加强引导。加强对公务员职业道德建设的理论宣传。充分发挥报刊、广播、电视、网络等媒体作用，大力宣传公务员职业道德建设的新气象、新变化、新成就，大力宣传革命英烈等先进人物事迹，模范践行公务员职业道德的先进典型，提炼先进典型的核心价值，加大宣传力度，扩大正面影响，发挥示范作用。引导社会理性关注公务员职业道德问题，明辨是非，弘扬正气，营造良好的社会氛围。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>293</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>中卫市医疗卫生单位自主公开招聘工作人员公告</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2021-09-23</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202109/t20210923_3044108.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）《自治区党委组织部人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等精神，现就中卫市医疗卫生单位自主公开招聘工作人员有关事项公告如下：', '3.在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '本次共计划招聘31人，每名应聘人员限报1个岗位，具体招聘岗位、资格条件及有关事项详见附件《2021年中卫市医疗卫生单位自主公开招聘工作人员岗位计划一览表》。', '报名需提供以下材料:本人报名表、电子照片、报名所需各类材料扫描件建立压缩包（以“姓名+应聘岗位”命名）发送至市卫生健康委报名指定邮箱zwswjwzzb@163.com〔各类材料包括：附件2报名表、个人电子简历、本人有效居民身份证、学历（学位）证书和招聘岗位相应专业技术资格证书（证件）电子版或扫描件等〕。应聘人员网上报名须按照要求填报相应的报名信息，确保信息真实、准确。', '2.资格初审。由市卫生健康委按照招聘要求及岗位条件，对应聘人员报名资料进行资格初审，并通过打电话、发送短信等方式向考生进行初审结果确认。', '3.打印准考证。参加应聘人员须携带准考证和本人身份证原件或有效临时身份证，证件不全者不得参加考试。准考证由市卫生健康委发至应试人员邮箱。', '1.笔试。应聘本科及以上学历岗位，资格初审合格应聘人员参加笔试。笔试以闭卷方式进行，内容包括：公共知识试题，占笔试成绩30%；专业知识试题，占笔试成绩70%。笔试时间为90分钟，分值为100分，占总成绩的50%。笔试时间、地点等具体事宜将在中卫市人民政府网站公布。', '2.资格复审。应聘本科及以上学历和研究生以上学历的人员都需要参加资格复审。资格复审由市卫生健康委、市人力资源和社会保障局负责。时间、地点、合格人员名单在市人民政府网站公布。应聘人员参加资格复审须提交以下资料：', '资格审核表一式两份，承诺书、报名表、身份证、毕业证、学位证、从事专业资格证、职称证等岗位要求的相关证明材料原件及复印件1份；学信网出具的学历(学籍)证明；取得国(境)外学历学位证书的应当提供国家教育部门出具的学历认证报告。', '采取集中面试，面试形式为半结构化面试，重点测评考生与岗位相适应的专业知识和综合素质。面试成绩须达60分，否则不能进入下一招聘环节。', '1.体检。体检标准参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)和行业有关规定执行。进入体检的应聘人员须在规定时间内完成全部体检项目，未按要求完成体检的视为自动放弃体检资格。体检费用由应聘人员承担。', '2.考察。考察工作由各用人单位负责，主要通过查阅应聘人员个人档案、实地考察等方式开展。按照德才兼备、以德为先的用人标准，重点考察应聘人员的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律等方面的情况，并对应聘人员的应聘资格再次进行复审。', '1.公示。根据面试、体检、考察结果，由市人力资源和社会保障局、市卫生健康委确定拟招聘人员公示名单，在市人民政府网站进行公示，公示不少于5个工作日。对公示期间反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。', '2.聘用。公示期满无异议的拟聘用人员，由市人力资源和社会保障局按规定办理招聘手续。', '1.应聘本科及以上学历的岗位，在资格复审阶段，经审核不符合资格条件或自愿放弃的取消应聘资格，出现的空缺名额从报考统一岗位应聘者中由笔试成绩高分到低分依次递补。', '2.在体检、考察、公示及聘用阶段因应聘人员自愿放弃出现的空缺岗位，从报考同一岗位且面试成绩达到最低分数线以上应聘人员中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（一）招聘条件、方式、时间等若有变动和调整，以报名网站公开发布的招聘补充公告为准。', '（二）应聘人员自报名至拟聘用人员公示(资格审查、笔试、复审、面试、体检、考察)期间，应确保报名时所填报的通讯工具畅通，以便联络；因所留通讯方式不畅所致后果，由应聘人员自负。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行，构成犯罪的，依法追究刑事责任。', '（五）应聘人员在参加考试期间，应当自觉服从疫情防控工作要求，配合出示个人健康码、行程码，48小时内核酸检测阴性报告等，接受测温，主动佩戴口罩，遵守安全距离等工作。两码为“绿码”且体温检测正常者方可入场。报考人员必须遵守现场防疫要求，不服从防疫工作安排的，取消其应聘资格。违反《中华人民共和国传染病防治法》等法律法规的，依法追究相关责任。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>293</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>马洪海主持召开市人民政府第次常务会议</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2024-07-01</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/cwhy/202407/t20240701_4581616.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['6月27日，市委副书记、市长马洪海主持召开市政府第85次常务会议，学习贯彻习近平总书记考察宁夏重要讲话精神、习近平总书记关于加强和改进人民信访工作的重要思想、习近平总书记关于优化营商环境的重要论述精神，传达学习中办、国办印发的《关于着力推进信访工作法治化的意见》，听取2024年上半年信访工作情况汇报，安排部署有关工作。', '会议指出，各县（区）、各部门要全面对标、坚决落实习近平总书记大力发展特色优势产业的重要要求，立足资源优势、攻坚重大项目、强化科技创新。要全面对标、坚决落实习近平总书记积极谋划和推进新一轮全面深化改革的重要要求，在经济体制改革、生态保护治理、扩大开放上做文章。要全面对标、坚决落实习近平总书记扎实推进各族人民共同富裕的重要要求，切实兜住、兜准、兜牢民生底线。要全面对标、坚决落实习近平总书记推动铸牢中华民族共同体意识走深走实的重要要求，注重文化融汇、交流融入、发展融合。要全面对标、坚决落实习近平总书记关于党纪学习教育的重要要求，讲究方法认真学、担当作为抓落实，把习近平总书记的嘱托重托播撒到中卫大地的每个角落、播进各族群众的心田里。', '会议强调，要深入学习贯彻习近平总书记关于加强和改进人民信访工作的重要思想，充分认识信访工作的极端重要性，严守红线，把党的领导贯穿始终、落到实处，把为民造福贯穿始终、办好实事，把压实责任贯穿始终、多出实招。要强化政策供给、提升服务质效、强化综合治理、提高执法水平，全力打造更具吸引力、竞争力、创造力的营商环境，为中卫高质量发展提供有力保障。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>293</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>中共中卫市纪律检查委员会年自主公开招聘事业单位工作人员公告</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2022-02-18</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202202/t20220218_3328813.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['中共中卫市纪律检查委员会2022年自主公开招聘事业单位工作人员公告_中卫市人民政府', '为满足下属事业单位补充工作人员的需要，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等规定，现就自主公开招聘事业单位工作人员有关事项公告如下。', '5.符合《中共中卫市纪律检查委员会2022年自主公开招聘事业单位工作人员岗位一览表》（附件1）中招聘岗位要求的资格条件;', '本次共招聘硕士研究生及以上学历4人，招聘岗位、资格条件及有关事项详见附件《中共中卫市纪律检查委员会2022年自主公开招聘事业单位工作人员岗位一览表》。', '本次招聘原则上采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。资格审查合格的报名人数达到1：25以上的岗位则增加笔试环节，笔试的测评范围、测评形式提前公告并通知应聘人员，笔试成绩不计入总成绩。', '采取网络报名的方式进行。应聘人员在规定的报名时间内将本人报名表（附件2）、电子照片、毕业证、学位证（包括本科、研究生阶段）、教育部学籍在线验证报告和教育部学历证书电子注册备案表等报名所需材料打包发送至电子邮箱1336846500@qq.com（以“姓名+手机号”命名发送）。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市纪律检查委员会在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市纪律检查委员会在中卫市人民政府网进行公示，公示时间为5个工作日。', '考试分笔试和面试两部分。资格审查合格人数超过1：25，则增加笔试环节；资格审查合格人数不超过1：25，直接进行面试。', '（1）资格审查合格人数达到1：25以上的岗位，增加笔试环节，笔试工作在中卫市委组织部和中卫市人力资源和社会保障局监督指导下，由中卫市纪律检查委员会依法依规自主组织实施。', '（1）面试工作在中卫市委组织部和中卫市人力资源和社会保障局监督指导下，由中卫市纪律检查委员会依法依规自主组织实施面试。', '（2）面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。', '（3）面试成绩即为考试总成绩，当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩由高分到低分确定进入体检、考察人员名单。', '（4）面试时间、地点、人员名单在中卫市人民政府网进行公布，并采取打电话、发信息等方式通知应聘者。', '1.体检工作由中卫市委组织部、中卫市人力资源和社会保障局的监督指导下，由中卫市纪律检查委员会按照公开招聘要求自主组织实施。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市纪律检查委员会同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市纪律检查委员会负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治或诚信记录的；不具备招聘岗位所需资格条件的；存在本公告中所列不得报考相关情形的；以及存在其他不宜进入事业单位工作情形的，经中卫市纪律检查委员会研究确定后，可取消应聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。', '1.根据考试、体检、考察结果，由中卫市纪律检查委员会研究确定拟招聘人员公示名单后，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理聘用手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且笔试、面试成绩均达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '2.公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '3.人力资源社会保障部门聘用批复文件印发之日起，拟聘用人员自愿放弃聘用、被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，导致拟聘岗位空缺的，不再递补。', '（二）凡涉及招聘工作的重大事项或本办法未尽事宜，由中卫市自主公开招聘事业单位工作人员领导小组研究决定。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格;已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘人员要提供正确联系方式，保持通讯畅通，因通讯不畅造成的一些后果由本人承担。', '（七）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市纪律检查委员会综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。', '（八）报考人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>293</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>中卫市人民政府与青岛市口岸办座谈会及签订框架合作协议仪式在青岛举行</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2019-09-10</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/skahtzcjbgs/fdzdgknr_50380/bmxx_50410/201909/t20190910_1732972.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['中卫市人民政府与青岛市口岸办座谈会及签订框架合作协议仪式在青岛举行_中卫市人民政府', '为积极融入“一带一路”建设，推动中卫内陆城市与青岛沿海发达城市“飞地经济”跨越式发展。8月27日，市长李晓波带领副市长赵建新，市口岸和投资促进办，市商务局负责人，赴青岛港考察，与青岛市口岸办，青岛港等座谈，签订了《中卫市人民政府与青岛市口岸办框架合作协议》，为我市打造全面开放、区域互通和低成本的陆港型物流枢纽城市，有效提升中卫经济合作发展水平夯实了基础，标志着我市对外开放再添新活力，也是市委，政府贯彻落实自治区党委常委调研精神的具体行动。', '青岛口岸是我国沿海重要的对外开放口岸，拥有青岛港、董家口港、空港三个国家一类口岸。青岛港口拥有码头26座，对外开放泊位 97 个。拥有航线161条，其中国际航线147条，通达世界180多个国家和地区的700多个港口。2019年青岛港港口货物吞吐量、港口集装箱吞吐量均为山东省第一，全国第五，较去年同期增长9.8%。目前，中卫市天元锰业、宁钢集团等企业与青岛港合作紧密。天元物流集团通过青岛港标准化的作业模式及规范化的管理标准，2018年节省港杂费约5000万元，真正实现了降低物流成本，提高货物联运效率，实现货物转运时间和空间的无缝对接。宁钢集团每年进口200万吨。2020年将达到300万吨产能，需求量旺盛，且随着市场的变化，进口矿石的使用比例还会有所增加。', '该战略合作框架协议约定，双方将通过资源共享、互惠互利、优势互补，加强两地业务往来合作，推进“属地报关、口岸验放、直通放行”等通关模式，努力实现两地口岸信息互换、监管互认、执法互助，为进出口货物在申报、查验、放行等方面提供通关便利。并协调两地相关企业进行合作，推进两地公铁联运业务发展。同时，建立两地口岸办会晤与联络制度，定期召开会议，对口岸、港口合作项目、通关业务开展过程中出现的问题，及时进行沟通，研究解决措施，为两市外贸企业提供通关便利条件，降低物流成本。', '签约前，双方进行了友好交流座谈。李晓波表示，此次与青岛港口岸办开展战略合作令人振奋，我市愿意与青岛港加强合作，发展“飞地经济”，利用青岛海港、空港、多式联运海关监管中心资源、港口物流等优势，中卫交通枢纽及新型工业、特色农业等产业优势，在中卫布局内陆订舱网络，把码头搬到内地，共建中卫迎水桥保税物流中心。青岛口岸办吴海川主任表示，希望以此为切入点，两地进一步加强沟通交流，营造良好口岸通关环境，帮助企业降本增效，共创合作发展新局面。今后将充分发挥两地口岸办管理协调服务职能，不断提升综合协调管理服务水平，及时协商解决涉及口岸建设和货运班列开通等重大问题。', '考察期间，青岛市副市长朱培吉会见了李晓波市长一行，双方对贯彻国家“一带一路”，扩大对外开放，加强两地口岸交流合作交换了意见。现场考察了青岛港前湾港自动化码头、青岛港物流海铁中心黄岛港站，学习多式联运运营的经验。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>293</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>关于印发市国土资源局公务员职业道德建设工作方案的通知</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2018-09-03</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/szrzyj/fdzdgknr_49539/bmwj_49578/201809/t20180904_1031827.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['为深入学习贯彻党的十九大精神，全面推进公务员职业道德建设工程，现将《市国土资源局公务员职业道德建设工作方案》印发给你们，请认真贯彻执行。', '根据市委组织部、市人社局《关于印发&lt;中卫市公务员职业道德建设工程实施方案&gt;的通知》（卫人社发〔2018〕299号）精神，结合我局工作实际，特制定本方案。', '公务员职业道德是公务员职业活动的行为准则和规范，是公务员政治信仰、工作宗旨、职业理念和道德品质的具体体现，对引导和规范其正确履职尽责具有重要作用。推动公务员职业道德建设，要高举中国特色社会主义伟大旗帜，以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观和习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大精神，坚持把职业道德培育贯穿公务员队伍建设全过程，把知与行、自律与他律、示范与引领有机结合起来，全面提升公务员职业道德水平。', '——坚持职业道德建设与集中性和经常性学习教育相结合。根据不同阶段、不同行业的实际，针对突出问题，开展形式多样的公务员职业道德建设活动。', '——坚持教育引导、行为规范、实践养成相统一。把教育引导作为塑造公务员道德习惯和提升公务员职业道德素养的重要环节，发挥行为规范对公务员的约束作用，推动公务员职业道德实践养成，使公务员职业道德内化于心、外化于行，贯穿到日常工作和言行中，成为广大公务员的自觉自愿行动。', '——坚持整体推进与分类指导相衔接。在整体推进公务员职业道德建设的同时，根据不同类别、不同层级、不同行业公务员的特点，加强分类指导，进一步提高公务员职业道德建设的针对性、有效性。', '——坚持推进工作与完善制度相配套。认真贯彻落实中央、自治区、市关于从严管理干部的要求，把公务员职业道德建设与完善公务员制度结合起来，建立健全公务员职业道德建设的长效机制。', '坚持把职业道德建设贯穿于公务员管理的全过程，通过持续努力，建立健全公务员职业道德行为规范，完善职业道德建设体制机制，使全市公务员理想信念更加坚定，精神状态更加饱满，履职行为更加规范，工作作风更加务实，真正成为社会主义道德的示范者、专业化服务的提供者、诚信风尚的引领者和公平正义的维护者。', '公务员职业道德建设突出政治性、示范性、约束性、可操作性，以“坚定信念、忠于国家、服务人民、恪尽职守、依法办事、公正廉洁”为主要内容。', '“坚定信念”要求公务员坚定对马克思主义的信仰，坚定对社会主义和共产主义的信念，不断增强道路自信、理论自信、制度自信、文化自信；坚持中国共产党的领导，坚持党的基本理论、基本路线、基本纲领、基本经验、基本要求不动摇；把牢政治方向，坚定政治立场，严守政治纪律和政治规矩，增强党性修养，做到对党和人民绝对忠诚。', '“忠于国家”要求公务员弘扬爱国主义精神，坚决维护国家安全、荣誉和利益，维护党和政府形象、权威，维护国家统一和民族团结；保守国家秘密和工作秘密，同一切危害国家利益的言行作斗争。', '“服务人民”要求公务员坚持以人为本、执政为民，全心全意为人民服务，永做人民公仆；坚持党的群众路线，密切联系群众，以人民忧乐为忧乐，以人民甘苦为甘苦；坚持人民利益至上，把实现好、维护好、发展好最广大人民根本利益作为工作的出发点和落脚点，切实维护群众切身利益。', '“恪尽职守”要求公务员服务大局、奋发有为、甘于奉献，为党和人民的事业不懈奋斗；坚持原则、敢于担当、认真负责，面对矛盾敢于迎难而上，面对危机敢于挺身而出，面对失误敢于承担责任，面对歪风邪气敢于坚决斗争；精通业务知识，勤勉敬业、求真务实，兢兢业业做好本职工作。', '“依法办事”要求公务员牢固树立社会主义法治理念，努力提高法治素养，模范遵守宪法和法律；严格依法履职，做到权由法定、权依法使，法定职责必须为、法无授权不可为；坚持依法决策，严格按照法定的权限、程序和方式执行公务。', '“公正廉洁”要求公务员坚持秉公用权、公私分明，努力维护和促进社会公平正义；严于律己、廉洁从政，坚守道德法纪防线；为人正派、诚实守信，尚俭戒奢、勤俭节约。', '（一）建立公务员职业准入道德标准。落实报考诚信约束制度，严把公务员入口“诚信关”。凡是在考录、调任等工作的各个环节中，发现有违反政治纪律和政治规矩、违法乱纪、不遵守社会公德行为的，或者弄虚作假等不诚信记录的，不得进入公务员队伍。', '（二）加强公务员诚信建设。2018年底前，要建立统一的公务员诚信档案，把公务员档案填写登记情况、个人事项报告查核情况、廉政记录情况、遵守规定和承诺践诺情况等，列入诚信记录范围。将诚信记录情况作为干部考核、使用、奖惩的重要依据。', '（三）加强公务员职业道德行为规范建设。要充分发挥行为规范对公务员的约束作用，组织广大公务员认真学习、严格遵守《中卫市公务员守则》。', '（四）加大理想信念教育力度。要组织广大公务员深入学习党的十九大精神，深入学习习近平新时代中国特色社会主义思想，坚持用马克思主义中国化最新成果武装头脑。深入开展公务员理想信念教育、宗旨教育、法制教育、党规党纪和廉政教育，引导公务员树立正确的世界观、人生观、价值观和权力观、地位观、利益观，增强政治意识、大局意识、核心意识、看齐意识。把中国特色社会主义核心价值体系作为根本价值取向，牢固树立中国特色社会主义共同理想，推动公务员职业道德建设。', '（五）加强职业道德培训。将职业道德教育纳入干部教育规划和年度计划，作为公务员初任、任职、在职培训的必修内容，采取多种形式，对公务员开展全员培训。创新培训方式，重视和发挥重要节庆日、纪念日蕴藏的丰富教育资源，利用道德讲堂及革命历史、党风廉政、中华传统美德、宁夏特色党性教育实践基地等现场教学基地，开展公务员职业道德教育。全局公务员每人每年接受职业道德培训或者参与职业道德主题实践活动时间总计不少于8学时。', '（六）强化警示教育。利用违反政治纪律和政治规矩、贪污受贿、失职渎职、滥用职权、参与或者支持迷信等反面典型，开展典型案例剖析、接受警示教育。全局公务员每人每年接受警示教育不少于2次。', '（七）加强公务员忠诚建设。要设立公务员职业道德主题实践日，结合实际定期开展主题实践活动。认真落实宪法宣誓制度，开展新录用、新任职公务员忠于宪法宣誓活动。严格落实“支部主题党日”制度，定期开展党员干部重温入党誓词活动，进一步增强公务员忠于宪法、忠于党、忠于以习近平同志为核心的党中央的意识。', '（八）选树公务员职业道德先进典型。深入推进争做人民满意公务员活动，每半年开展一次公务员“职业道德标兵”“为民服务示范岗”创建活动，大力营造身边有先进、单位有榜样、行业有标兵、全市有模范的良好氛围。要开展“向楷模看齐”活动，组织广大公务员向人民满意的公务员、职业道德标兵等先进人物看齐，不断提升职业道德修养。倡导公务员结合本职工作特点，积极开展“为民志愿服务”进企业、进社区、进农村活动。重视发挥机关中党支部、工会、共青团、妇联等基层组织作用，推动公务员职业道德建设经常化。', '（九）推进公务员职业道德文化养成。要结合实际，组织主题征文、演讲比赛、大讨论、诵读文化经典等活动，充分挖掘中华优秀传统文化中道德的精华，大力弘扬井冈山精神、延安精神、焦裕禄精神等党的优良传统，形成促进公务员职业道德建设的良好文化氛围。', '（十）加强公务员职业道德考核评价。在开展公务员平时考核、年度考核、任职考察等工作时，注重了解公务员职业道德表现情况。个人述职要述德，民主测评要测德，考察谈话要问德，综合分析研判要分析评价公务员的职业道德素养和表现情况。要将公务员遵守职业道德情况列入民主生活会、组织生活会等重要内容，深入查找不足，切实加强整改。', '（十一）加强公务员职业道德考核监督。要深入开展机关作风和行风评议监督工作，结合政风行风建设，开展公务员职业道德监督。建立从党代会代表、人大代表、政协委员和群众代表中选聘职业道德社会监督员制度。建立健全窗口单位、服务部门服务对象评价机制和投诉举报处理及问责制度。要加强社会监督，推进党务、政务公开，畅通群众反映意见建议的渠道，密切关注网情舆情，主动回应群众关切。', '（十二）加大奖惩力度。强化公务员职业道德考核结果的运用，将职业道德考核情况作为公务员选拔任用、培养教育、管理监督的重要依据。对恪守职业道德、履职尽责、表现优秀的公务员，给予适当奖励。贯彻落实《中国共产党廉洁自律准则》《中国共产党纪律处分条例》《中国共产党问责条例》等党纪党规，对存在违反职业道德、工作作风懈怠、工作态度恶劣、有严重失信行为等情况的公务员，按照有关规定进行严肃问责。', '（一）部署阶段（2018年8月-2018年9月）。结合实际，制定切实可行的实施方案，于9月5日前报送市级公务员管理部门备案。做好动员部署，及时传达中央精神和自治区、市实施方案，统一思想，提高认识，明确要求，全面部署。', '（二）实施阶段（2018年9月-2019年12月）。根据实施方案，逐项落实各项工作要求。要加强宣传发动，努力营造争做先进、争创一流的浓厚氛围。要坚持统筹兼顾，将职业道德建设和党的建设、精神文明创建、效能建设和业务工作紧密结合起来，创新内容、创新形式、创新制度、细化要求，注重实效。要加强督促和检查，及时发现和研究解决职业道德建设工程实施过程中的问题，促进公务员职业道德建设工作扎实推进。要及时总结实施成果，注意发现典型、宣传典型，发挥先进模范人物的示范作用，推动职业道德建设深入持久开展。', '（三）总结阶段（2019年12月-2020年8月）。总结职业道德建设工程的经验、做法、成果。结合人民满意的公务员评选，通报、表彰、奖励职业道德模范公务员，深化宣传先进典型人物。建立健全公务员职业道德建设的长效机制，做到常抓常新、久久为功。', '（一）加强组织领导。成立由局长任组长、分管副局长任副组长，办公室、工会为成员的公务员职业道德建设领导小组，具体组织推进公务员职业道德建设工程的各项工作。职能科室要认真履行好组织指导、协调推进的职责，重视与有关业务科室的沟通协调，形成密切配合、各司其职的工作格局，确保各项目标落实到位，推动我局公务员职业道德建设水平不断提升。', '（二）加强分类推进。领导干部要率先垂范，带头践行公务员职业道德，把坚定理想信念、遵守政治纪律和政治规矩、廉洁自律、敢担当、作风正作为重点；基层公务员要把树立宗旨意识、群众观念，办事公道作为重点；服务性科室公务员要把强化服务意识，改进服务态度，打造服务品牌作为重点；执法一线公务人员要把增强法治观念，严格规范公正文明执法作为重点，全面推进公务员队伍的职业道德建设。', '（三）加强宣传引导。加强对公务员职业道德建设的理论研讨。充分发挥报刊、微博、微信、网络等载体作用，宣传公务员职业道德建设的新气象、新变化、新成果，营造比、学、赶、帮的内部环境，培树良好的职业精神，弘扬正气。要加强信息报送，交流经验做法，宣传先进典型事迹，扩大正面影响，发挥示范作用。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>293</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>市审批服务局赴白银固原参观学习推进全市行政审批制度改革工作</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2019-08-29</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sspfwglj/fdzdgknr_50167/bmxx_50197/201908/t20190830_1713720.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['为进一步推进我市行政审批制度改革工作，8月27至28日，市审批服务局相关负责人带领科室负责人前往白银市、固原市考察学习行政审批制度改革工作经验。', '参观人员首先深入白银市行政审批服务中心政务大厅，参观了“一窗办理”、窗口服务、帮办代办等工作，在座谈中，就行政审批服务改革、机构设置、职能划转、权力事项下放、业务运行、系统保障等内容进行了深入的交流与探讨。', '在固原市“163”政务服务中心，观摩了固原特色“163”政务服务模式，对其硬件建设、前厅后台便民设施布局等进行了详细的了解，在座谈中，对“一门、一窗、一网”通办、“六多合一”审批机制、三项服务保障体系等内容进行了深入的交流与探讨。', '通过参观学习，我们看到了两市在行政审批制度改革工作中，以创新机制、再造流程、压缩时限、优化服务为抓手，下大力气解决企业办事创业“痛点”“堵点”“难点”问题，努力实现“审批更少、流程更优、服务更好、监管更严”目标。', '参观人员普遍认为白银市帮办代办方法多，措施好，大厅管理从严从紧，做细做实，强化了大厅作风建设，推动了大厅工作作风持续向好，服务环境改善。固原市“163”政务服务模式，创新了行政审批方式，提高了审批效率，推进了审批服务便民化，为行政审批制度改革提供了坚实的保障。我们要积极学习借鉴先进经验，充分利用和整合现有政务服务资源，按照“审批更少、流程更优、服务更好、监管更严”的目标，加快推进审批服务制度，确保完成行政审批制度改革目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>293</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>中卫市科学技术局年自主公开招聘急需紧缺高层次人才公告</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2021-09-24</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202109/t20210924_3046491.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['为进一步加强中卫市人才队伍建设，引进急需紧缺的高层次人才，按照《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等文件有关规定，现就中卫市科学技术局科技创新促进中心2021年自主公开招聘急需紧缺高层次人才有关事项公告如下。', '5.符合《中卫市科学技术局2021年自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件1）中招聘岗位要求的相关资格条件；', '5.在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '12.应聘者不得报考《事业单位公开招聘人员暂行规定》第二十七条所列回避情形的岗位。', '本次共招聘1人，招聘岗位、资格条件及有关事项详见附件《中卫市科学技术局2021年自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件1）。', '本次招聘采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。报名人数达到1：25（含）以上的岗位则增加笔试环节，笔试的测评范围、测评形式提前公告并通知应聘人员，按照1：5的比例依据笔试成绩排名确定面试人员，笔试成绩不计入总成绩。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市科学技术局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市科学技术局在中卫市人民政府网进行公示，公示时间为5个工作日。', '1.面试工作在中卫市委组织部和中卫市人力资源和社会保障局监督指导下，由中卫市科学技术局依法依规自主组织实施面试。', '2.面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。', '3.面试成绩即为考试总成绩，当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩由高分到低分确定进入体检、考察人员名单。', '4.面试时间、地点、人员名单在中卫市人民政府网进行公布，并采取打电话、发信息等方式通知应聘者。', '1.体检工作由中卫市委组织部、中卫市人力资源和社会保障局的监督指导下，由中卫市科学技术局按照公开招聘要求自主组织实施。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市科学技术局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市科学技术局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治或诚信记录的；不具备招聘岗位所需资格条件的；存在本公告中所列不得报考相关情形的；以及存在其他不宜进入事业单位工作情形的，经中卫市科学技术局研究确定后，可取消应聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。', '1.根据考试、体检、考察结果，由中卫市科学技术局确定拟招聘人员公示名单后，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且笔试、面试成绩均达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '2.公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '3.人力资源社会保障部门聘用批复文件印发之日起，拟聘用人员自愿放弃聘用、被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，导致拟聘岗位空缺的，不再递补 。', '（二）凡涉及招聘工作的重大事项或本办法未尽事宜，由中卫市自主公开招聘事业单位工作人员领导小组研究决定。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格;已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘人员要提供正确联系方式，保持通讯畅通，因通讯不畅造成的一些后果由本人承担。', '（七）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市科学技术局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。', '（八）报考人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>293</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>中卫市云计算和大数据发展局事业单位年自主公开招聘高层次青年人才公告</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202307/t20230731_4200692.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['中卫市云计算和大数据发展局事业单位2023年自主公开招聘高层次青年人才公告_中卫市人民政府', '为进一步推进人才强市战略，积极引进高层次人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等规定，现就中卫市云计算和大数据发展局事业单位2023年自主公开招聘高层次青年人才有关事项公告如下。', '采取公开招聘方式，面向全国自主公开招聘具有硕士研究生及以上学历学位的人员。硕士研究生要求35周岁及以下（1987年7月31日及以后出生），博士研究生年龄可放宽至40周岁（1982年7月31日及以后出生）。', '5.符合《中卫市云计算和大数据发展局事业单位2023年自主公开招聘高层次青年人才岗位计划一览表》（附件1）中招聘岗位要求的资格条件；', '应聘者不得报考与《事业单位公开招聘人员暂行规定》第二十七条所列有回避情形相关的岗位。', '本次共招聘具有硕士研究生及以上学历学位的人员3名，招聘岗位、资格条件及有关事项详见附件《中卫市云计算和大数据发展局事业单位2023年自主公开招聘高层次青年人才岗位计划一览表》。', '本次招聘原则上采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。若招聘岗位数与资格初审合格人数之比超过1:15，可通过增加笔试的方式，按照拟招聘人数1:3的比例，确定面试人选。笔试成绩不计入总成绩。', '3.资格审查：应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市云计算和大数据发展局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市云计算和大数据发展局在中卫市人民政府网进行公示，公示时间为5个工作日。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市云计算和大数据发展局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市云计算和大数据发展局在中卫市人民政府网进行公示，公示时间为5个工作日。', '如资格审查合格人数超过45人（不含45人），增加笔试。笔试工作由中卫市云计算和大数据发展局依法依规自主组织实施，笔试具体事项另行通知。面试人员按照岗位招聘人数与笔试人数1:3的比例依次从高分到低分确定，面试人员名单在中卫市人民政府网站公示5个工作日。如资格复审合格人数不超过45人（含45人）的，直接组织面试。', '面试成绩即为考试总成绩。当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩确定进入体检、考察人员名单。面试具体事项另行通知。', '1.根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作在中卫市人力资源和社会保障局的监督指导下，由中卫市云计算和大数据发展局依法依规自主组织实施。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市云计算和大数据发展局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市云计算和大数据发展局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治记录的;不具备招聘岗位所需资格条件的;存在本公告中所列不得报考相关情形的;以及存在其他不宜进入事业单位工作的情形，经招聘工作领导小组研究确定后，可取消招聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经招聘工作领导小组研究批准，可以延长30日。', '1.根据考试、体检、考察结果，由中卫市云计算和大数据发展局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '1.当岗位招聘人数与资格审查合格人数超过1:15（不含15）组织笔试环节的，在按照岗位招聘人数与笔试人数1:3比例确定的面试人员名单公示前，自愿放弃的取消应聘资格，出现的空缺名额按照笔试成绩由高分到低分依次递补。', '2.体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位面试成绩达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（二）凡涉及招聘工作的重大事项或本办法未尽事宜，由中卫市云计算和大数据发展局研究决定。', '（三）报名登记表要如实、详尽地填写，注明应聘岗位，粘贴照片，报名登记表应亲笔签名。', '（四）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格，已聘用的，取消聘用资格。', '（五）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（六）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '（七）因受特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市云计算和大数据发展局会同中卫市人力资源和社会保障局综合考虑各种因素作出合理安排，并在公告发布网站发布补充公告或通知。', '（九）报名人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。', '附件：1.中卫市云计算和大数据发展局2023年事业单位自主公开招聘高层次青年人才岗位计划一览表', '中卫市云计算和大数据发展局2023年事业单位自主公开招聘高层次青年人才岗位计划一览表']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>293</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>李克强在宁夏考察时强调让互联网更多惠及重点民生领域</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2018-06-05</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201806/t20180605_793216.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['6月4日，中共中央政治局常委、国务院总理李克强在宁夏回族自治区银川市考察。这是李克强在银川市第一人民医院了解“互联网+医疗健康”发展情况。 新华社记者 王晔 摄', '新华社银川6月4日电 6月4日，中共中央政治局常委、国务院总理李克强在宁夏回族自治区党委书记石泰峰、自治区主席咸辉陪同下在银川市考察。', '在银川市第一人民医院，李克强听取了宁夏开展“互联网+医疗健康”工作汇报，银川智慧互联网医院覆盖了全区所有社区乡镇，实现了远程诊断。李克强与联合诊疗患者的社区医生和北京专家在线交流，勉励他们当好群众健康守护者。李克强说，运用“互联网+”促进重点民生领域改善潜力巨大。要以习近平新时代中国特色社会主义思想为指导，坚持以人民为中心的发展思想，按照党中央、国务院部署，深入推动“互联网+”行动，让那些目前难以直接配置更多优质资源的基层和贫困地区的群众，也能更方便获得好的公共服务，这有利于促进公平。他希望宁夏在创建“互联网+医疗健康”示范区上走在前列，惠及各族群众及周边地区，国家会积极支持。', '李克强来到闽宁中学，了解开展“互联网+教育”情况。“智慧教室”里学生们人手一个平板电脑，向总理展示上面集成的教育课件和彼此分享的学习心得。李克强说，教育是获取知识、促进起点公平的关键，“互联网+教育”可以让贫困地区孩子也能听到好老师的讲课，开拓他们的眼界，点燃改变人生的火把。目前农村信息基础设施落后，要加大政府投入，解决网速慢、资金不足等卡脖子问题。他还关切询问教师收入，叮嘱地方同志要做到义务教育教师平均工资不低于当地公务员平均工资水平。', '李克强来到iBi育成中心，这里聚集了近500家创业企业。智能矿山实验室负责人向总理介绍了他们运用互联网和自主研发的智能识别技术实现矿山远程安全开采，有效降低能耗和排放。李克强与在这里创业的归国留学人员、沿海返乡创客、自主择业的军转干部等交流，勉励他们通过智慧和劳动创造精彩人生。一家公司CEO告诉总理，六年前总理在走访贫困户时到过他父母家，当时他大学刚毕业待业在家，正是总理的鼓励和大众创业、万众创新政策使他走上了创业创富之路，现在他家已告别了低保。李克强高兴地说，我们要营造更好的创业创新环境，让更多有为青年充分发挥他们的聪明才智。', '几年前李克强曾去过的固原市上青石村在易地扶贫中已整体搬迁到银川，七百多贫困户全部脱贫销号。李克强专程来到这里，村民们告诉总理，过去行路难、吃水难、脱贫难，现在房屋宽敞、自来水通畅、打工使收入翻了几番。李克强鼓励乡亲们勤劳致富，创造更加美好的日子。', '李克强充分肯定近年来宁夏经济社会发展取得的成绩，要求在以习近平同志为核心的党中央坚强领导下，全面贯彻党的十九大精神，在全面建成小康社会进程中谱写经济发展、民族团结、民生改善新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>293</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>中卫市云计算和大数据发展局年政府开放周活动公告</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2023-09-07</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/syjshdsjfzj/fdzdgknr_50309/zfkfr_50327/hdgg/202309/t20230907_4255129.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['为切实推进阳光、透明、开放、服务型机关建设，让更多社会公众知晓和了解、认同支持云计算和大数据产业工作，着力打造共建共治共享新格局，市云计算和大数据发展局拟于近期开展2023年“政府开放周”活动，欢迎广大市民积极报名参与，为推动中卫市云计算和大数据产业高质量发展建言献策。', '在中卫市工作、生活、学习，关心云计算和大数据产业且年满18周岁具有完全民事行为能力的公民，包括行业企业代表、专家学者、社区工作者、基层群众代表、媒体代表等25人。', '（一）实地观摩体验（半天）。9月15日下午，邀请开放对象参观考察中卫市科技馆、中国联通中卫云数据中心、中卫数据中心集群及新型互联网交换中心，实地观摩考察我市云计算和大数据产业发展情况。', '（二）邀请参加“2023云天大会”（全天）。9月16日，邀请开放对象参加“2023云天大会”主论坛、分论坛及五个专题活动，深入了解我市云计算和大数据产业发展成果。', '（三）深入座谈交流（半天）。9月19日，邀请开放对象参观单位办公区。一是查看办文流程、办事流程和会议组织；二是现场解读云计算和大数据产业相关优惠政策；三是答疑解惑，了解企业诉求，倾听群众心声，耐心解答公众普遍关注的热点问题以及产业相关事项办理情况。', '（四）满意度测评。请受邀代表对本次“政府开放周”活动进行满意度测评，对现场收集的意见建议及时梳理反馈。', '有意愿参加此次“政府开放周”活动的市民，请在工作日内通过电话或邮箱报名，提供姓名、联系方式、工作单位等个人信息，我局将根据报名人数实际情况选取市民代表参加活动并通过电话告知。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>293</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>中卫市自然资源局事业单位年自主公开招聘高层次青年人才公告</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2023-06-26</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202306/t20230626_4158831.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['为进一步推进人才强市战略，积极引进高层次青年人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁党办〔2006〕35号)、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等规定，现就中卫市自然资源局事业单位2023年自主公开招聘高层次青年人才有关事项公告如下。', '人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》', '宁党办〔2006〕35号)、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等规定，现就中卫市', '5.符合《中卫市自然资源局事业单位2023年自主公开招聘高层次青年人才岗位计划一览表》（附件1）中招聘岗位要求的资格条件。', '本次共招聘硕士研究生及以上学历7名，招聘岗位、资格条件及有关事项详见附件《中卫市自然资源局事业单位2023年自主公开招聘高层次青年人才岗位计划一览表》，专业名称表述参照《宁夏事业单位公开招聘工作人员专业（学科）指导参考目录》。', '本次招聘原则上采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。对资格审查合格人数与设置岗位数之比超过5:1的，可通过增加笔试的方式，按照拟招聘人数1:3的比例，确定面试人选。笔试成绩不计入总成绩。', '分为合格分数线，面试成绩达不到60分的取消招聘资格。对资格审查合格人数与设置岗位数之比超过5', '的，可通过增加笔试的方式，按照拟招聘人数1:3的比例，确定面试人选。笔试成绩不计入总成绩。', '户口本、毕业证书、学位证书（包括本科、研究生阶段）、教育部学信网下载学历证书电子注册备案表（学籍注册备案表）等报名所需材料扫描件建立压缩包（以', '姓名+应聘岗位”命名发送）发送至中卫市自然资源局电子邮箱，并打电话确认招聘方是否收到报名材料。对2023年应届毕业生暂不能提供毕业证书、学位证书的，可先提供学籍在线验证报告、具有学校签章的就业推荐表等相关证明。取得国（境）外学历学位证书的应当提供国家教育部门出具的学历认证报告。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市自然资源局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市自然资源局在中卫市人民政府网进行公示，公示时间为5个工作日。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市自然资源局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市自然资源局在中卫市人民政府网进行公示，公示时间为', '如资格审查合格人数超过5人（不含5人），增加笔试。笔试工作由中卫市自然资源局依法依规自主组织实施，笔试具体事项另行通知。面试人员按照岗位招聘人数与笔试人数1:3的比例依次从高分到低分确定，面试人员名单在中卫市人民政府网站公示5个工作日。如资格复审合格人数不超过5人的，直接组织面试。', '的比例依次从高分到低分确定，面试人员名单在中卫市人民政府网站公示5个工作日。如资格复审合格人数不超过5人的，直接组织面试。', '面试成绩即为考试总成绩。当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩确定进入体检、考察人员名单。面试具体事项另行通知。', '1.根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作在中卫市人力资源和社会保障局的监督指导下，由中卫市自然资源局依法依规自主组织实施。', '根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作在中卫市人力资源和社会保障局的监督指导下，由中卫市', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市自然资源局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市自然资源局负责组织实施，具体考察方式和内容按照相关规定执行。', '考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市自然资源局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治记录的;不具备招聘岗位所需资格条件的;存在本公告中所列不得报考相关情形的;以及存在其他不宜进入事业单位工作的情形，经招聘工作领导小组研究确定后，可取消招聘资格。', '不具备招聘岗位所需资格条件的;存在本公告中所列不得报考相关情形的;以及存在其他不宜进入事业单位工作的情形，经招聘工作领导小组研究确定后，可取消招聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经招聘工作领导小组研究批准，可以延长30日。', '因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起', '日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经招聘工作领导小组研究批准，可以延长30日。', '1.根据考试、体检、考察结果，由中卫市自然资源局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '根据考试、体检、考察结果，由中卫市自然资源局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用', '不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '1.当岗位招聘人数与资格审查合格人数超过1:5（不含5）组织笔试环节的，在按照岗位招聘人数与笔试人数1:3比例确定的面试人员名单公示前，自愿放弃的取消应聘资格，出现的空缺名额按照笔试成绩由高分到低分依次递补。', '比例确定的面试人员名单公示前，自愿放弃的取消应聘资格，出现的空缺名额按照笔试成绩由高分到低分依次递补。', '2.体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位面试成绩达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位面试成绩达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（三）报名登记表要如实、详尽地填写，注明应聘岗位，粘贴照片，报名登记表应亲笔签名。', '（四）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格，已聘用的，取消聘用资格。', '）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格，已聘用的，取消聘用资格。', '（五）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第', '（六）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '（七）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市自然资源局会同中卫市人力资源和社会保障局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。', '局会同中卫市人力资源和社会保障局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。', '（九）报告人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。', '附件1.中卫市自然资源局事业单位2023年自主公开招聘高层次青年人才岗位计划一览表']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>293</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>我市累计发放农村妇女贷款十二亿余元</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2016-08-30</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201608/t20160830_597231.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['8月25日，记者从市妇女联合会2016年下半年重点工作安排部署会议上了解到，今年1月份至7月份，全市发放农村妇女创业小额担保贴息贷款2.8亿元，扶持农村创业妇女5785名。发放扶贫销号村妇女贷款1654.5万元，扶持贫困妇女610人。自该项目启动实施以来，全市累计发放农村妇女创业小额担保贴息贷款12.2亿元，发放进度位居全区第一。', '今年以来，市妇联以实施“巾帼脱贫行动”为重点，助力贫困妇女脱贫；以妇女小额担保贷款为中心，助力城乡妇女创业发展；以家庭文明建设为核心，努力推动家庭幸福社会和谐；以帮扶引导为载体，倾情关爱妇女儿童身心健康；以妇女组织建设为基础，扎实推进强基固本工程。其中，组织7批次42名妇女干部、妇女创业者外出学习考察；帮助单亲母亲在商场、超市等处就业52人（次）、申请廉租房96户、落实低保117户……这些举措，为广大妇女群众提供了有力支持。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>293</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>中卫市年上半年卫生系统所属事业单位自主公开招聘工作人员公告</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2024-05-29</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/xwzx/tzgg/202405/t20240529_4553888.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['中卫市2024年上半年卫生系统所属事业单位自主公开招聘工作人员公告_中卫市人民政府', '根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁政办规发〔2023〕9号)等有关规定,现就中卫市2024年上半年卫生系统事业单位自主公开招聘工作人员有关事项公告如下。', '本次共面向全国公开招聘事业编制卫生系统人员59名,具体招聘单位、招聘岗位及资格条件等详见《中卫市2024年上半年卫生系统所属事业单位自主公开招聘工作人员岗位计划一览表》(附件1)。', '5.在机关事业单位招(录)聘中被认定有违纪违规行为且被记入诚信档案库仍在记录期的;', '版和pdf版)、本人有效居民身份证、毕业证、学位证、《教育部学历证书电子注册备案表》、《中国高等教育学位在线验证报告》、国外学历学位认证书(留学人员提供)及相关资格证书电子扫描件发送至单位电子邮箱(以', '+应聘岗位”命名发送),并打电话确认招聘单位是否收到报名材料。其中,应聘人员提供毕业证、学位证及岗位要求其他证书的截止时间为', '年7月31日,否则取消录用资格。属宁夏回族自治区区外机关、事业单位在编正式工作人员,须按干部人事管理权限提供单位和主管部门同意报考证明。', '每位应聘者只能报考一个岗位,报名与面试时使用的身份证件必须一致。应聘者要对填报信息的真实性、准确性负责。对伪造、涂改报名材料,或报名材料、信息不实影响报名审核结果的将取消本次应聘资格。', '3.资格初审:资格初审单位应在应聘者提交报名申请1个工作日内审核完毕(特殊情况,经领导小组研究后于3个工作日内予以反馈)。应聘者应在提交完整报名信息1个工作日后,电话查询资格初审结果(报名日最后一天报名的应在当日及时查询)。应聘者未通过资格初审的,可在报名截止前改报其他岗位;未通过资格初审且未在报名截止前改报其他岗位的视为放弃。如应聘者在报名日最后一天提交报名信息,因不符合该岗位报考的资格条件,资格初审单位做审核“未通过”处理的,在报名结束后,应聘者将不得再申请改报其他岗位。资格初审工作按隶属关系由各招聘单位的主管部门负责。', '资格初审:资格初审单位应在应聘者提交报名申请1个工作日内审核完毕(特殊情况,经领导小组研究后于3个工作日内予以反馈)。应聘者应在提交完整报名信息1个工作日后,电话查询资格初审结果(报名日最后一天报名的应在当日及时查询)。应聘者未通过资格初审的,可在报名截止前改报其他岗位;未通过资格初审且未在报名截止前改报其他岗位的视为放弃。如应聘者在报名日最后一天提交报名信息,因不符合该岗位报考的资格条件,资格初审单位做审核', '未通过”处理的,在报名结束后,应聘者将不得再申请改报其他岗位。资格初审工作按隶属关系由各招聘单位的主管部门负责。', '资格初审合格的人员名单由市直各招聘单位主管部门或县(区)人力资源社会保障部门在报名结束5个工作日内,报市人力资源社会保障部门在中卫市人民政府网站进行公示,公示时间为3个工作日。', '资格初审合格的人员名单由市直各招聘单位主管部门或县(区)人力资源社会保障部门在报名结束', '个工作日内,报市人力资源社会保障部门在中卫市人民政府网站进行公示,公示时间为3个工作日。', '(1)笔试开考比例。笔试开考比例一般为3:1。专业性强、生源较少的岗位可适当降低开考比例、减少招聘名额或取消招聘岗位。降低开考比例、减少招聘名额或取消招聘岗位的,市直事业单位由主管部门提出意见,县(区)事业单位由县(区)事业单位公开招聘工作领导小组提出意见,报市事业单位公开招聘工作领导小组办公室审核后,在中卫市人民政府网站进行公告。报考岗位被取消的,应及时通知应聘者,应聘者可在规定时间内改报其他符合条件的岗位,没有改报的,视为自行放弃。', ')笔试开考比例。笔试开考比例一般为3:1。专业性强、生源较少的岗位可适当降低开考比例、减少招聘名额或取消招聘岗位。降低开考比例、减少招聘名额或取消招聘岗位的,市直事业单位由主管部门提出意见,县(区)事业单位由县(区)事业单位公开招聘工作领导小组提出意见,报市事业单位公开招聘工作领导小组办公室审核后,在中卫市人民政府网站进行公告。报考岗位被取消的,应及时通知应聘者,应聘者可在规定时间内改报其他符合条件的岗位,没有改报的,视为自行放弃。', '(2)笔试科目。笔试包括公共科目和专业科目,总分150分。其中,公共科目50分(行政职业能力测验),专业科目100分。医疗卫生岗位专业科目划分为西医临床、中医临床、基础医学、药剂、公共卫生管理、医学技术6个小类,各岗位具体专业科目详见《中卫市2024年上半年卫生系统所属事业单位自主公开招聘工作人员岗位计划一览表》(附件1)。', ')笔试科目。笔试包括公共科目和专业科目,总分150分。其中,公共科目50分(行政职业能力测验),专业科目100分。医疗卫生岗位专业科目划分为西医临床、中医临床、基础医学、药剂、公共卫生管理、医学技术6个小类,各岗位具体专业科目详见《中卫市', '笔试地点以准考证为准,准考证在笔试前一周由招聘单位通过邮箱发放。应聘者须携带自行打印好的笔试准考证和有效居民身份证(过期身份证、户籍证明等不作为有效证件)参加考试。逾期不领取准考证或丢失准考证影响参加考试的,责任由应聘者承担。', '(4)成绩公示。笔试后3个工作日内,笔试最低分数线和成绩由市人力资源社会保障局在中卫市人民政府网站进行公告(公示),并根据考试情况划定笔试最低分数控制线。', ')成绩公示。笔试后3个工作日内,笔试最低分数线和成绩由市人力资源社会保障局在中卫市人民政府网站进行公告(公示),并根据考试情况划定笔试最低分数控制线。', '(1)面试开考比例。按照面试人数与岗位招聘人数3:1的比例从高分到低分确定各岗位面试人员,笔试成绩低于最低分数控制线的不得参加面试。专业性强、生源较少的岗位可适当降低开考比例。降低开考比例事项,市直事业单位由主管部门提出意见,县(区)事业单位由县(区)事业单位公开招聘工作领导小组提出意见,报市事业单位公开招聘工作领导小组办公室审核后,在中卫市人民政府网站进行公告。', ')面试开考比例。按照面试人数与岗位招聘人数3:1的比例从高分到低分确定各岗位面试人员,笔试成绩低于最低分数控制线的不得参加面试。专业性强、生源较少的岗位可适当降低开考比例。降低开考比例事项,市直事业单位由主管部门提出意见,县(区)事业单位由县(区)事业单位公开招聘工作领导小组提出意见,报市事业单位公开招聘工作领导小组办公室审核后,在中卫市人民政府网站进行公告。', '(2)面试采取半结构化方式进行。半结构化面试除测评综合素质外,主要测试与岗位有关专业能力和技能、技术水平,测评方式可结合岗位需求实际采取专业能力笔试、技能测试、实际操作等方式。', ')面试采取半结构化方式进行。半结构化面试除测评综合素质外,主要测试与岗位有关专业能力和技能、技术水平,测评方式可结合岗位需求实际采取专业能力笔试、技能测试、实际操作等方式。', '面试方式至少提前五日通过指定网站发布面试公告,主要明确面试时间、地点、形式和各种面试方式在整个面试中所占的分值比例等内容,并通过打电话或发信息等方式通知应聘者。', '(3)面试成绩采用百分制,最低合格分数线为60分,低于最低合格分数线的视为不合格,不予进行体检和考察。面试成绩于面试结束后当天在指定网站上公示。', '分,低于最低合格分数线的视为不合格,不予进行体检和考察。面试成绩于面试结束后当天在指定网站上公示。', '考试总成绩=笔试成绩×50%+面试成绩×50%。当同一岗位出现应聘者考试总成绩相同时,按照笔试成绩从高分到低分确定体检人选;如笔试成绩也相同,则按《专业科目》成绩由高分到低分确定体检人选;如《专业科目》成绩也相同,由市人力资源社会保障局通过一定方式组织加试。', '。当同一岗位出现应聘者考试总成绩相同时,按照笔试成绩从高分到低分确定体检人选;如笔试成绩也相同,则按《专业科目》成绩由高分到低分确定体检人选;如《专业科目》成绩也相同,由市人力资源社会保障局通过一定方式组织加试。', '根据考试总成绩从高分到低分排名,按拟招聘人数1:1的比例确定体检和考察(含资格复审)人选。体检由各级人力资源社会保障部门具体负责。考察(含资格复审)工作由市直各招聘单位的主管部门或县(区)人力资源和社会保障部门具体负责。体检与考察具体时间及要求等将通过打电话、发信息等形式通知拟体检和考察(含资格复审)人员,未按规定时间、地点参加的,视为弃权。', '的比例确定体检和考察(含资格复审)人选。体检由各级人力资源社会保障部门具体负责。考察(含资格复审)工作由市直各招聘单位的主管部门或县(区)人力资源和社会保障部门具体负责。体检与考察具体时间及要求等将通过打电话、发信息等形式通知拟体检和考察(含资格复审)人员,未按规定时间、地点参加的,视为弃权。', '体检须在县级以上综合公立医院进行。体检标准和项目参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)执行,事业单位特殊行业对从业人员身体有特殊规定的从其规定。应聘者应在规定时间内完成全部体检项目,体检费用由应聘人员承担。应聘者对体检项目结果有疑问的,经各级人力资源社会保障部门同意,可以申请1次复检,复检应安排在不低于原体检医疗机构级别的其他医疗机构进行,体检结果以复检结论为准。体检合格的应聘人员确定为考察人选。未按要求完成体检的,视为自动放弃应聘资格。', '体检须在县级以上综合公立医院进行。体检标准和项目参照《公务员录用体检通用标准(试行)》(人社部发〔', '〕140号)执行,事业单位特殊行业对从业人员身体有特殊规定的从其规定。应聘者应在规定时间内完成全部体检项目,体检费用由应聘人员承担。应聘者对体检项目结果有疑问的,经各级人力资源社会保障部门同意,可以申请', '次复检,复检应安排在不低于原体检医疗机构级别的其他医疗机构进行,体检结果以复检结论为准。体检合格的应聘人员确定为考察人选。未按要求完成体检的,视为自动放弃应聘资格。', '考察工作按照德才兼备、以德为先的用人标准,采取个别谈话、实地走访、审核档案、查询社会信用记录、与考察人选面谈等方式,广泛了解考察人选的思想政治、道德品质、能力素质、遵纪守法、工作学习表现、个人诚信及是否需要回避等方面的情况,并对应聘者的应聘资格进行复审。资格复审工作重点核查应聘人员有效居民身份证、毕业证、学位证、教育部证书电子注册备案表、国外学历学位认证书(留学人员提供)及相关资格证书及岗位资格复审表等。资格审查贯穿引才工作全过程,凡发现应聘者不符合应聘条件的,随时取消应聘资格。', '1.根据考试、体检、考察结果确定,由市直各招聘单位主管部门或县(区)事业单位公开招聘工作领导小组研究确定拟聘用人员名单,并在中卫市人民政府网站公示5个工作日。公示期满无异议的,确定为聘用人员,市直各招聘单位主管部门或县(区)人力资源社会保障部门将聘用人员材料送市人力资源和社会保障部门审核备案,办理各项手续。', '根据考试、体检、考察结果确定,由市直各招聘单位主管部门或县(区)事业单位公开招聘工作领导小组研究确定拟聘用人员名单,并在中卫市人民政府网站公示', '个工作日。公示期满无异议的,确定为聘用人员,市直各招聘单位主管部门或县(区)人力资源社会保障部门将聘用人员材料送市人力资源和社会保障部门审核备案,办理各项手续。', '对反映有影响聘用的问题经查证属实的,不予聘用;对反映涉嫌违规违纪的问题一时难以查实的,暂缓聘用,待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知20个工作日内)不报到的,取消聘用资格。', '对反映有影响聘用的问题经查证属实的,不予聘用;对反映涉嫌违规违纪的问题一时难以查实的,暂缓聘用,待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知', '2.招聘单位与受聘人员签订聘用合同(期限一般不低于3年),确立人事关系,并按规定办理相关手续。聘用合同可按规定约定最低服务期限,并明确违约责任和相关要求。', '年),确立人事关系,并按规定办理相关手续。聘用合同可按规定约定最低服务期限,并明确违约责任和相关要求。', '3.聘用人员按规定实行试用期制度,试用期包括在聘用合同期限内。试用期满考核合格的,正式聘用;不合格的,取消聘用资格。', '聘用人员按规定实行试用期制度,试用期包括在聘用合同期限内。试用期满考核合格的,正式聘用;不合格的,取消聘用资格。', '(1)笔试成绩公示后至面试人员名单公示前,出现的自愿放弃的空缺岗位,可从报考同一岗位且笔试成绩达到最低分数控制线以上的应聘者中由高分到低分依次递补。(2)在体检、考察、公示阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位,以及因反映有影响聘用问题或不符合聘用条件出现的空缺岗位,可从报考同一岗位且笔试、面试成绩均到合格线以上的应聘者中,按考试总成绩从高分到低分的顺序依次递补。', ')笔试成绩公示后至面试人员名单公示前,出现的自愿放弃的空缺岗位,可从报考同一岗位且笔试成绩达到最低分数控制线以上的应聘者中由高分到低分依次递补。(', ')在体检、考察、公示阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位,以及因反映有影响聘用问题或不符合聘用条件出现的空缺岗位,可从报考同一岗位且笔试、面试成绩均到合格线以上的应聘者中,按考试总成绩从高分到低分的顺序依次递补。', '(1)通过笔试确定面试人员名单公示公告发布后至面试结束,出现的空缺岗位不再递补。(2)人社部门聘用批复文件印发之日起,出现的空缺岗位不再递补。', '按照《国家卫生健康委员会办公厅 公安部办公厅 人力资源和社会保障部办公厅 国家中医药管理局办公室关于贯彻落实住院医师规范化培训“两个同等对待”政策的通知》(国卫办科教发〔2021〕18号)《自治区卫生健康委 公安厅 人力资源和社会保障厅关于贯彻落实住院医师规范化培训“两个同等对待”政策的通知》(宁卫发〔2022〕112号)有关规定,招聘临床医学、口腔医学、中医学硕士研究生的岗位,住培合格、培训专业符合招聘岗位所需专业、且符合其他报名资格条件的本科学历医师,均可报名参加,须在考察(资格复审)时提供住培合格证书,考察(资格复审)前无法提供的,取消聘用资格。', '两个同等对待”政策的通知》(国卫办科教发〔2021〕18号)《自治区卫生健康委 公安厅 人力资源和社会保障厅关于贯彻落实住院医师规范化培训“两个同等对待”政策的通知》(宁卫发〔2022〕112号)有关规定,招聘临床医学、口腔医学、中医学硕士研究生的岗位,住培合格、培训专业符合招聘岗位所需专业、且符合其他报名资格条件的本科学历医师,均可报名参加,须在考察(资格复审)时提供住培合格证书,考察(资格复审)前无法提供的,取消聘用资格。', '(一)《公告》由中卫市事业单位自主公开招聘工作领导小组办公室负责解释。凡涉及本次招聘工作的重大事项或本公告未尽事宜,由领导小组或领导小组办公室研究决定。', '(三)招聘工作的具体政策、注意事项及根据需要如对工作安排作出调整的,均在指定网站进行详述,请应聘人员及时关注并认真阅读。', '(四)招聘工作违纪违规行为的认定和处理,按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行,构成犯罪的,依法追究刑事责任。', '(四)招聘工作违纪违规行为的认定和处理,按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第', '(五)招聘单位相关人员、应聘人员在办理公开招聘相关事项时需要回避的,应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '(五)招聘单位相关人员、应聘人员在办理公开招聘相关事项时需要回避的,应按照《事业单位人事管理回避规定》(人社部规〔', '(六)应聘人员报名时所留电话应保持畅通,因电话不畅通导致招聘单位无法通知相关事宜的,责任由应聘者承担。', '(七)本次招聘工作不指定考试辅导用书,不举办也不委托任何机构举办考试辅导班。请广大应聘者提高警惕,谨防上当受骗。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>293</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>中卫市财政局所属事业单位自主公开招聘急需紧缺高层次人才工作人员公告</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2023-01-17</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202301/t20230117_3922201.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['中卫市财政局所属事业单位自主公开招聘急需紧缺高层次人才工作人员公告_中卫市人民政府', '为进一步加强财政人才队伍建设，加快引进急需紧缺的高层次人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等规定，现就中卫市财政局所属事业单位自主公开招聘急需紧缺高层次人才工作人员有关事项公告如下。', '5.符合《中卫市财政局所属事业单位自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件1）中各招聘岗位要求的相关资格条件；', '4.在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '本次共招聘4人，招聘岗位、资格条件及有关事项详见《中卫市财政局所属事业单位自主公开招聘急需紧缺高层次人才岗位计划一览表》（附件1），专业名称表述参照《宁夏事业单位公开招聘工作人员专业（学科）指导参考目录》。', '本次招聘原则上采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。对设置岗位数与资格审核合格人数之比超过1:25以上的岗位增加笔试环节，笔试的测评范围、测评形式提前公告并通知应聘人员，笔试成绩不计入总成绩。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市财政局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。', '资格复审合格的面试人员名单由中卫市财政局在中卫市人民政府网站进行公示，公示时间为5个工作日，公示结束后不再递补。', '考试分笔试和面试两部分。对设置岗位数与资格审核合格人数之比超过1:25以上时，增加笔试环节，按照岗位招聘计划1：3的比例依据笔试成绩排名确定进入面试范围人选，笔试成绩不计入总成绩。对设置岗位数与资格审核合格人数之比不超过1：25时，直接进行面试。', '对设置岗位数与资格审核合格人数之比超过1:25以上时，增加笔试环节，由中卫市财政局依法依规自主组织实施，笔试具体事项另行公告。', '（1）面试成绩即为考试总成绩，当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩确定进入体检、考察人员名单。', '（2）面试时间、地点、人员名单在中卫市人民政府网进行公布，并采取打电话、发信息等方式通知应聘者。', '1.根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作由中卫市财政局按照公开招聘要求自主组织实施，并邀请中卫市纪委监委对体检工作进行全程监督。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市财政局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市财政局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治记录的；不具备招聘岗位所需资格条件的；存在本公告中所列不得报考相关情形的；以及存在其他不宜进入事业单位工作的情形，经招聘工作领导小组研究确定后，可取消招聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时经招聘工作领导小组研究批准，可以延长30日。', '1.根据考试、体检、考察结果，由中卫市财政局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格，取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '2.招聘单位与受聘人员签订聘用合同（期限一般不低于3年），确立人事关系，并按规定办理相关手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。', '1.在资格复审阶段经审查不符合资格条件或自愿放弃的取消应聘资格，出现的空缺名额从报考同一岗位且考试成绩达到60分以上的应聘者中由高分到低分依次递补。', '2.体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位面试成绩达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '（二）凡涉及招聘工作的重大事项或本公告未尽事宜，由中卫市财政局自主公开招聘事业单位工作人员领导小组研究决定。', '（一）报名登记表要如实、详尽的填写，注明应聘岗位，粘贴照片，报名登记表应亲笔签名。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格，已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理 ，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '（五）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市财政局和中卫市人力资源和社会保障局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。', '（七）报告人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>293</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>中卫市直属医疗卫生单位年自主公开招聘工作人员公告</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2022-11-09</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202211/t20221109_3836697.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['为满足市直医疗卫生机构补充工作人员的需要，按照自治区党委组织部、人力资源和社会保障厅《关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等文件有关规定，现就中卫市直属医疗卫生单位2022年自主公开招聘工作人员有关事项公告如下。', '本次计划面向社会公开招聘工作人员21名，其中：市人民医院计划招聘11名，市中医医院计划招聘4名，市疾病预防控制中心计划招聘2名，市妇幼保健院计划招聘4名。具体范围、条件等详见《中卫市直属医疗卫生单位2022年自主公开招聘工作人员岗位计划一览表》（附件1）。', '6.符合《中卫市市直医疗卫生单位2022年自主公开招聘工作人员岗位计划一览表》（附件1）中招聘岗位要求的资格条件，年龄35周岁以下指1987年11月9日以后出生。', '应聘人员将本人报名表、电子照片、户口簿、身份证、学历证书、学位证书、学籍注册备案表及资格证等所需各类材料扫描件建立压缩包（以“姓名+应聘岗位”命名）发送至招聘单位指定邮箱，并打电话确认招聘方是否收到报名材料。没有服务期限或已满最低服务期限（最低服务期限计算截止时间为公告发布之日）的机关事业单位正式在编人员，须提供所在单位及其主管部门同意报考证明。', '留学归国人员符合岗位资格条件报考的，还须提供教育部中国留学服务中心出具的境外学历、学位认证书。', '（三）资格审查。应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。招聘单位在报名结束后汇总报名人员信息，在组织面试前再次复核应聘人员资格。资格审查严格按照公布的招聘条件进行，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件的，随时取消应聘资格。', '资格复审合格的面试人员名单由中卫市卫生健康委员会在中卫市人民政府网站进行公示，公示时间为5个工作日，公示结束后不再递补。', '面试形式、时间、地点、人员名单于面试前一周在中卫市人民政府网站进行公布，并通过打电话、发信息等方式，通知取得面试资格的应聘者参加面试的具体时间、地点、面试形式等。', '面试成绩即为考试总成绩。面试总分为100分，面试成绩达不到60分的，取消应聘资格。所有成绩均保留小数点后面两位数字。考试总成绩出现并列时，当场组织面试人员进行加试，最后按岗位招聘人数1:1的比例，由高分到低分确定体检、考察对象。', '1.体检工作由招聘单位负责组织实施，邀请并接受纪检监察部门对体检工作进行全程监督。', '4.招聘单位或应聘者对体检结论有疑问的，经招聘单位的主管部门同意，可以申请1次复检，复检应安排在不低于原体检医疗机构级别的其他医疗机构进行，体检结果以复检结论为准。应聘者申请复检的，复检费用由应聘者承担。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、一贯表现、遵纪守法以及是否需要回避等方面的情况，并对应聘者的应聘资格进行复审。', '3.考察中发现应聘者存在本公告中所列不得应聘相关情形的，不具备招聘岗位所需资格条件的，以及其他不宜进入事业单位工作情形的，经招聘单位研究确定后，取消应聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经各岗位招聘单位的主管部门研究批准，可以延长30日。', '1.根据考试、体检、考察结果，由招聘单位的主管部门研究确定拟聘用人员名单，在中卫市人民政府网站上公示5个工作日。公示期满无异议的拟聘用人员，主管部门报市人力资源和社会保障局办理招聘手续。对反映有影响聘用的问题经查证属实的，不予聘用；对反映涉嫌违规违纪的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20个工作日内）不报到的，取消聘用资格。', '2.招聘单位与受聘人员签订聘用合同（期限一般不低于3年），确立人事关系，并按规定办理相关手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且面试成绩达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '3.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（一）招聘工作在市人力资源和社会保障局监督指导下进行，由招聘单位及主管部门依法依规自主组织实施。考试方案提前两周报市人力资源和社会保障局备案后实施。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格；已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）招聘工作将按照自治区、市新冠肺炎疫情防控要求，严格落实各项防疫措施，根据需要如对工作安排做出调整的，将及时在中卫市人民政府网发布补充公告或通知，请广大应聘者予以关注、理解、支持和配合。', '（五）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '（六）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '（八）报考人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>293</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>中卫市退役军人事务局事业单位年自主公开招聘高层次青年人才公告</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2023-07-03</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202307/t20230703_4165423.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['中卫市退役军人事务局事业单位2023年自主公开招聘高层次青年人才公告_中卫市人民政府', '为进一步推进人才强市战略，积极引进高层次人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》', '宁党办〔2006〕35号)、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等规定，现就中卫市退役军人事务局事业单位', '5.符合《中卫市退役军人事务局事业单位2023年自主公开招聘高层次青年人才岗位计划一览表》（附件1）中招聘岗位要求的资格条件。', '本次共招聘硕士研究生及以上学历1名，招聘岗位、资格条件及有关事项详见附件《中卫市退役军人事务局事业单位2023年自主公开招聘高层次青年人才岗位计划一览表》。', '本次招聘原则上采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。若招聘岗位数与资格初审合格人数之比超过1:25，可通过增加笔试的方式，按照拟招聘人数1:3的比例，确定面试人选。笔试成绩不计入总成绩。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市退役军人事务局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市退役军人事务局在中卫市人民政府网进行公示，公示时间为5个工作日。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市退役军人事务局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市退役军人事务局在中卫市人民政府网进行公示，公示时间为', '如资格审查合格人数超过25人（不含25人），增加笔试。笔试工作由中卫市退役军人事务局依法依规自主组织实施，笔试具体事项另行通知。面试人员按照岗位招聘人数与笔试人数1:3的比例依次从高分到低分确定，面试人员名单在中卫市人民政府网站公示5个工作日。如资格复审合格人数不超过25人（含25人）的，直接组织面试。', '，增加笔试。笔试工作由中卫市退役军人事务局依法依规自主组织实施，笔试具体事项另行通知。面试人员按照岗位招聘人数与笔试人数', '面试成绩即为考试总成绩。当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩确定进入体检、考察人员名单。面试具体事项另行通知。', '1.根据总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作在中卫市人力资源和社会保障局的监督指导下，由中卫市退役军人事务局依法依规自主组织实施。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市退役军人事务局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市退役军人事务局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治记录的;不具备招聘岗位所需资格条件的;存在本公告中所列不得报考相关情形的;以及存在其他不宜进入事业单位工作的情形，经招聘工作领导小组研究确定后，可取消招聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经招聘工作领导小组研究批准，可以延长30日。', '1.根据考试、体检、考察结果，由中卫市退役军人事务局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '1.当岗位招聘人数与资格审查合格人数超过1:25（不含25）组织笔试环节的，在按照岗位招聘人数与笔试人数1:3比例确定的面试人员名单公示前，自愿放弃的取消应聘资格，出现的空缺名额按照笔试成绩由高分到低分依次递补。', '2.体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位面试成绩达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（三）报名登记表要如实、详尽地填写，注明应聘岗位，粘贴照片，报名登记表应亲笔签名。', '（四）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格，已聘用的，取消聘用资格。', '（五）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（五）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第', '（六）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '（七）因受特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市退役军人事务局会同中卫市人力资源和社会保障局综合考虑各种因素作出合理安排，并在公告发布网站发布补充公告或通知。', '（九）报名人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。', '1.中卫市退役军人事务局2023年事业单位自主公开招聘高层次青年人才岗位计划一览表']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>293</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>中卫市工业和信息化局年自主公开招聘事业单位工作人员公告</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202203/t20220301_3340738.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['为进一步满足下属事业单位补充工作人员的需要，根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》《自治区党委组织部人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等规定，现就自主公开招聘事业单位工作人员有关事项公告如下。', '5.符合《中卫市工业和信息化局2022年自主公开招聘事业单位工作人员岗位一览表》（附件1）中招聘岗位要求的资格条件;', '6.在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '13.应聘者不得报考《事业单位公开招聘人员暂行规定》第二十七条所列回避情形的岗位。', '本次共招聘2人，招聘岗位、资格条件及有关事项详见附件《中卫市工业和信息化局2022年自主公开招聘事业单位工作人员岗位一览表》（附件1）。', '本次招聘采取面试的方式进行。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。资格复审合格人数达到1：25（含）以上的岗位则增加笔试环节，笔试的测评范围、测评形式提前公告并通知应聘人员，按照1：3的比例依据笔试成绩排名确定面试人员，笔试成绩不计入总成绩。', '采取网络报名的方式进行。应聘人员在规定的报名时间内将本人报名表（附件2）、电子照片、毕业证、学位证（包括本科、研究生阶段）、教育部学籍在线验证报告和教育部学历证书电子注册备案表等报名所需材料打包发送至电子邮箱nxzwsjw@163.com（以“姓名+手机号”命名发送）。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市工业和信息化局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市工业和信息化局在中卫市人民政府网进行公示，公示时间为5个工作日。', '考试分笔试和面试两部分。资格审查合格人数超过1：25（含25）以上的岗位，则增加笔试环节；资格审查合格人数不超过1：25（含25）的岗位，直接进行面试。', '（1）资格审查合格人数达到1：25（含25）以上的岗位，增加笔试环节，笔试工作在中卫市委组织部和中卫市人力资源和社会保障局监督指导下，由中卫市工业和信息化局依法依规自主组织实施。', '（1）面试工作在中卫市委组织部和中卫市人力资源和社会保障局监督指导下，由中卫市工业和信息化局依法依规自主组织实施面试。', '（2）面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。', '（3）面试成绩即为考试总成绩，当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩由高分到低分确定进入体检、考察人员名单。', '（4）面试时间、地点、人员名单在中卫市人民政府网进行公布，并采取打电话、发信息等方式通知应聘者。', '1.体检工作在中卫市委组织部、中卫市人力资源和社会保障局的监督指导下，由中卫市工业和信息化局按照公开招聘要求自主组织实施。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '3.应聘者对体检结果有疑问的，经中卫市工业和信息化局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由中卫市工业和信息化局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治或诚信记录的；不具备招聘岗位所需资格条件的；存在本公告中所列不得报考相关情形的；以及存在其他不宜进入事业单位工作情形的，经中卫市工业和信息化局研究确定后，可取消应聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。', '1.根据考试、体检、考察结果，由中卫市工业和信息化局确定拟招聘人员公示名单后，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理聘用手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且笔试、面试成绩均达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '2.公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '3.人力资源社会保障部门聘用批复文件印发之日起，拟聘用人员自愿放弃聘用、被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，导致拟聘岗位空缺的，不再递补 。', '（二）凡涉及招聘工作的重大事项或本办法未尽事宜，由中卫市自主公开招聘事业单位工作人员领导小组研究决定。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格;已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘人员要提供正确联系方式，保持通讯畅通，因通讯不畅造成的一些后果由本人承担。', '（七）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市工业和信息化局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。', '（八）报考人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>293</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>市财政局开展机关开放日活动中卫市财政局年第期</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2019-11-30</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sczj/fdzdgknr_49463/bmxx_49496/201912/t20191211_1880299.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['市财政局开展“机关开放日”活动（中卫市财政局2019年第125期）_中卫市人民政府', '11月29日，市财政局结合干部入户帮扶工作，由机关三支部牵头，联合海原县关桥乡冯湾村党支部开展了2019年度“机关开放日”活动。', '活动由市财政局派驻冯湾村驻村第一书记主持，局机关帮扶干部及邀请的部分冯湾村党员、建档立卡户群众共17人参加。活动传达学习了习近平总书记在河南考察时指出“四个注重”重要指示精神、党的民族宗教理论政策（口袋书）、先进人物先进事迹和《海原县扶贫政策汇编》等内容，机关党员干部就今年开展的“党政机关作风建设年、干部队伍素质提升年”指出的问题、脱贫攻坚排查出的问题整改情况作了自查交流。会后，局机关帮扶干部进村入户，进一步完善扶贫日志手册填写、宣传扶贫相关政策。', '此次“机关开放日”活动是市财政局组织让机关干部走出去、落实“四个一”活动之开好一次组织生活会的重要补充。前期，已组织开展了讲一次党课、开展“党员志愿者服务”活动和走访慰问困难党员。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>293</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>中卫市年下半年事业单位自主公开招聘工作人员公告</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202309/t20230925_4284621.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['为深入实施新时代“人才强市”战略,根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁政办规发〔2023〕9号)等有关规定,现就中卫市2023年下半年事业单位自主公开招聘工作人员有关事项公告如下。', '人才强市”战略,根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁政办规发〔', '本次共面向全国公开招聘事业编制人才67名,其中,卫生系统招聘63名、其他行业招聘4名,具体招聘单位、招聘岗位及资格条件等详见《中卫市2023年下半年卫生系统所属事业单位自主公开招聘工作人员岗位计划一览表》(附件1)、《中卫市2023年下半年其他事业单位自主公开招聘工作人员岗位计划一览表》(附件2)。', '5.在机关事业单位招(录)聘中被认定有违纪违规行为且被记入诚信档案库仍在记录期的;', '招聘博士研究生的岗位采取面试的方式招聘;招聘硕士研究生及以上学历层次人员的岗位采取笔试加面试的方式招聘。', '版和pdf版)、本人有效居民身份证、毕业证、学位证、《教育部学历证书电子注册备案表》《中国高等教育学位在线验证报告》、国外学历学位认证书(留学人员提供)及相关资格证书电子扫描件发送至单位电子邮箱(以', '+应聘岗位”命名发送),并打电话确认招聘单位是否收到报名材料。其中,应聘人员提供毕业证、学位证及岗位要求其他证书的截止时间为', '年12月31日,否则取消录用资格。属宁夏回族自治区区外机关、事业单位在编正式工作人员,须按干部人事管理权限提供单位和主管部门同意报考证明。', '每位应聘者只能报考一个岗位,报名与面试时使用的身份证件必须一致。应聘者要对填报信息的真实性、准确性负责。对伪造、涂改报名材料,或报名材料、信息不实影响报名审核结果的将取消本次应聘资格。', '3.资格初审:资格初审单位应在应聘者提交报名申请1个工作日内审核完毕(特殊情况,经领导小组研究后于3个工作日内予以反馈)。应聘者应在提交完整报名信息1个工作日后,电话查询资格初审结果(报名日最后一天报名的应在当日及时查询)。应聘者未通过资格初审的,可在报名截止前改报其他岗位;未通过资格初审且未在报名截止前改报其他岗位的视为放弃。如应聘者在报名日最后一天提交报名信息,因不符合该岗位报考的资格条件,资格初审单位做审核“未通过”处理的,在报名结束后,应聘者将不得再申请改报其他岗位。资格初审工作按隶属关系由各招聘单位的主管部门负责。', '资格初审:资格初审单位应在应聘者提交报名申请1个工作日内审核完毕(特殊情况,经领导小组研究后于3个工作日内予以反馈)。应聘者应在提交完整报名信息1个工作日后,电话查询资格初审结果(报名日最后一天报名的应在当日及时查询)。应聘者未通过资格初审的,可在报名截止前改报其他岗位;未通过资格初审且未在报名截止前改报其他岗位的视为放弃。如应聘者在报名日最后一天提交报名信息,因不符合该岗位报考的资格条件,资格初审单位做审核', '未通过”处理的,在报名结束后,应聘者将不得再申请改报其他岗位。资格初审工作按隶属关系由各招聘单位的主管部门负责。', '资格初审合格的人员名单由市直各招聘单位主管部门或县(区)人力资源社会保障部门在报名结束5个工作日内,报市人力资源社会保障部门在中卫市人民政府网站进行公示,公示时间为3个工作日。', '资格初审合格的人员名单由市直各招聘单位主管部门或县(区)人力资源社会保障部门在报名结束', '个工作日内,报市人力资源社会保障部门在中卫市人民政府网站进行公示,公示时间为3个工作日。', '(1)笔试开考比例。笔试开考比例一般为3:1。专业性强、生源较少的岗位可适当降低开考比例减少招聘名额或取消招聘岗位。降低开考比例、减少招聘名额或者取消招聘岗位的,市直事业单位由主管部门提出意见,县(区)事业单位由县(区)事业单位公开招聘工作领导小组提出意见,报市事业单位公开招聘工作领导小组办公室审核后,在中卫市人民政府网站进行公告。报考岗位被取消的,应及时通知应聘者,应聘者可在规定时间内改报其他符合条件的岗位,没有改报的,视为自行放弃。', ')笔试开考比例。笔试开考比例一般为3:1。专业性强、生源较少的岗位可适当降低开考比例减少招聘名额或取消招聘岗位。降低开考比例、减少招聘名额或者取消招聘岗位的,市直事业单位由主管部门提出意见,县(区)事业单位由县(区)事业单位公开招聘工作领导小组提出意见,报市事业单位公开招聘工作领导小组办公室审核后,在中卫市人民政府网站进行公告。报考岗位被取消的,应及时通知应聘者,应聘者可在规定时间内改报其他符合条件的岗位,没有改报的,视为自行放弃。', '(2)笔试科目。笔试包括公共科目和专业科目,总分150分。其中,公共科目50分(行政职业能力测验),专业科目100分。医疗卫生岗位按专业科目划分为西医临床、中医临床、基础医学、护理、检验技术五个小类,各岗位具体专业科目详见《中卫市2023年下半年卫生系统所属事业单位自主公开招聘工作人员岗位计划一览表》(附件1)。中卫市新闻传媒中心招聘岗位专业科目为新闻专业知识与应用。', ')笔试科目。笔试包括公共科目和专业科目,总分150分。其中,公共科目50分(行政职业能力测验),专业科目100分。医疗卫生岗位按专业科目划分为西医临床、中医临床、基础医学、护理、检验技术五个小类,各岗位具体专业科目详见《中卫市', '笔试地点以准考证为准,准考证在笔试前一周由招聘单位通过邮箱发放。应聘者须携带自行打印好的笔试准考证和有效居民身份证(过期身份证、户籍证明等不作为有效证件)参加考试。逾期不领取准考证或丢失准考证影响参加考试的,责任由应聘者承担。', '(4)成绩公示。笔试后5个工作日内,笔试最低分数线和成绩由市人力资源社会保障局在中卫市人民政府网站进行公告(公示)。', ')成绩公示。笔试后5个工作日内,笔试最低分数线和成绩由市人力资源社会保障局在中卫市人民政府网站进行公告(公示)。', '(1)面试开考比例。按照面试人数与岗位招聘人数3:1的比例从高分到低分确定各岗位面试人员,笔试成绩低于最低分数控制线的不得参加面试。专业性强、生源较少的岗位可适当降低开考比例。降低开考比例事项,市直事业单位由主管部门提出意见,县(区)事业单位由县(区)事业单位公开招聘工作领导小组提出意见,报市事业单位公开招聘工作领导小组办公室审核后,在中卫市人民政府网站进行公告。', ')面试开考比例。按照面试人数与岗位招聘人数3:1的比例从高分到低分确定各岗位面试人员,笔试成绩低于最低分数控制线的不得参加面试。专业性强、生源较少的岗位可适当降低开考比例。降低开考比例事项,市直事业单位由主管部门提出意见,县(区)事业单位由县(区)事业单位公开招聘工作领导小组提出意见,报市事业单位公开招聘工作领导小组办公室审核后,在中卫市人民政府网站进行公告。', '(2)面试可采取结构化或半结构化方式进行。结构化面试主要测评综合素质,包括综合分析能力、计划组织协调能力、处理人际关系能力、应变能力、逻辑思维、言语表达能力、举止仪表等要素。半结构化面试除测评综合素质外,主要测试与岗位有关专业能力和技能、技术水平,测评方式可结合岗位需求实际采取专业能力笔试、技能测试、实际操作等方式。', ')面试可采取结构化或半结构化方式进行。结构化面试主要测评综合素质,包括综合分析能力、计划组织协调能力、处理人际关系能力、应变能力、逻辑思维、言语表达能力、举止仪表等要素。半结构化面试除测评综合素质外,主要测试与岗位有关专业能力和技能、技术水平,测评方式可结合岗位需求实际采取专业能力笔试、技能测试、实际操作等方式。', '面试方式由市直各招聘单位的主管部门或县(区)人力资源和社会保障部门根据实际和岗位需要确定,至少提前五日通过指定网站发布面试公告,主要明确面试时间、地点、形式和各种面试方式在整个面试中所占的分值比例等内容,并通过打电话或发信息等方式通知应聘者。', '(3)面试成绩采用百分制,最低合格分数线为60分,低于最低合格分数线的视为不合格,不予进行体检和考察。面试成绩于面试结束后当天在指定网站上公示。', '分,低于最低合格分数线的视为不合格,不予进行体检和考察。面试成绩于面试结束后当天在指定网站上公示。', '考试总成绩=笔试成绩×50%+面试成绩×50%。当同一岗位出现应聘者考试总成绩相同时,按照笔试成绩从高分到低分确定体检人选;如笔试成绩也相同,则按《专业科目》成绩由高分到低分确定体检人选;如《专业科目》成绩也相同,由市人力资源社会保障局通过一定方式组织加试。', '。当同一岗位出现应聘者考试总成绩相同时,按照笔试成绩从高分到低分确定体检人选;如笔试成绩也相同,则按《专业科目》成绩由高分到低分确定体检人选;如《专业科目》成绩也相同,由市人力资源社会保障局通过一定方式组织加试。', '根据考试总成绩从高分到低分排名,按拟招聘人数1:1的比例确定体检和考察(含资格复审)人选。体检由各级人力资源社会保障部门具体负责。考察(含资格复审)工作由市直各招聘单位的主管部门或县(区)人力资源和社会保障部门具体负责。体检与考察具体时间及要求等将通过打电话、发信息等形式通知拟体检和考察(含资格复审)人员,未按规定时间、地点参加的,视为弃权。', '的比例确定体检和考察(含资格复审)人选。体检由各级人力资源社会保障部门具体负责。考察(含资格复审)工作由市直各招聘单位的主管部门或县(区)人力资源和社会保障部门具体负责。体检与考察具体时间及要求等将通过打电话、发信息等形式通知拟体检和考察(含资格复审)人员,未按规定时间、地点参加的,视为弃权。', '1.体检。体检须在县级以上综合公立医院进行。体检标准和项目参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)执行,事业单位特殊行业对从业人员身体有特殊规定的从其规定。应聘者应在规定时间内完成全部体检项目,体检费用由应聘人员承担。应聘者对体检项目结果有疑问的,经各级人力资源社会保障部门同意,可以申请1次复检,复检应安排在不低于原体检医疗机构级别的其他医疗机构进行,体检结果以复检结论为准。体检合格的应聘人员确定为考察人选。未按要求完成体检的,视为自动放弃应聘资格。', '体检。体检须在县级以上综合公立医院进行。体检标准和项目参照《公务员录用体检通用标准(试行)》(人社部发〔', '〕140号)执行,事业单位特殊行业对从业人员身体有特殊规定的从其规定。应聘者应在规定时间内完成全部体检项目,体检费用由应聘人员承担。应聘者对体检项目结果有疑问的,经各级人力资源社会保障部门同意,可以申请', '次复检,复检应安排在不低于原体检医疗机构级别的其他医疗机构进行,体检结果以复检结论为准。体检合格的应聘人员确定为考察人选。未按要求完成体检的,视为自动放弃应聘资格。', '2.考察(含资格复审)。考察工作按照德才兼备、以德为先的用人标准,采取个别谈话、实地走访、审核档案、查询社会信用记录、与考察人选面谈等方式,广泛了解考察人选的思想政治、道德品质、能力素质、遵纪守法、工作学习表现、个人诚信及是否需要回避等方面的情况,并对应聘者的应聘资格进行复审。资格复审工作重点核查应聘人员有效居民身份证、毕业证、学位证、教育部证书电子注册备案表、国外学历学位认证书(留学人员提供)及相关资格证书及岗位资格复审表等。资格审查贯穿引才工作全过程,凡发现应聘者不符合应聘条件的,随时取消应聘资格。', '考察(含资格复审)。考察工作按照德才兼备、以德为先的用人标准,采取个别谈话、实地走访、审核档案、查询社会信用记录、与考察人选面谈等方式,广泛了解考察人选的思想政治、道德品质、能力素质、遵纪守法、工作学习表现、个人诚信及是否需要回避等方面的情况,并对应聘者的应聘资格进行复审。资格复审工作重点核查应聘人员有效居民身份证、毕业证、学位证、教育部证书电子注册备案表、国外学历学位认证书(留学人员提供)及相关资格证书及岗位资格复审表等。资格审查贯穿引才工作全过程,凡发现应聘者不符合应聘条件的,随时取消应聘资格。', '1.根据考试、体检、考察结果确定,由市直各招聘单位主管部门或县(区)事业单位公开招聘工作领导小组研究确定拟聘用人员名单,并在中卫市人民政府网站公示5个工作日。公示期满无异议的,确定为聘用人员,市直各招聘单位主管部门或县(区)人力资源社会保障部门将聘用人员材料送市人力资源和社会保障部门审核备案,办理各项手续。', '根据考试、体检、考察结果确定,由市直各招聘单位主管部门或县(区)事业单位公开招聘工作领导小组研究确定拟聘用人员名单,并在中卫市人民政府网站公示', '个工作日。公示期满无异议的,确定为聘用人员,市直各招聘单位主管部门或县(区)人力资源社会保障部门将聘用人员材料送市人力资源和社会保障部门审核备案,办理各项手续。', '对反映有影响聘用的问题经查证属实的,不予聘用;对反映涉嫌违规违纪的问题一时难以查实的,暂缓聘用,待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知20个工作日内)不报到的,取消聘用资格。', '对反映有影响聘用的问题经查证属实的,不予聘用;对反映涉嫌违规违纪的问题一时难以查实的,暂缓聘用,待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知', '2.招聘单位与受聘人员签订聘用合同(期限一般不低于3年),确立人事关系,并按规定办理相关手续。聘用合同可按规定约定最低服务期限,并明确违约责任和相关要求。', '年),确立人事关系,并按规定办理相关手续。聘用合同可按规定约定最低服务期限,并明确违约责任和相关要求。', '3.聘用人员按规定实行试用期制度,试用期包括在聘用合同期限内。试用期满考核合格的,正式聘用;不合格的,取消聘用资格。', '聘用人员按规定实行试用期制度,试用期包括在聘用合同期限内。试用期满考核合格的,正式聘用;不合格的,取消聘用资格。', '1.递补情形。在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位,以及因反映有影响聘用问题或不符合聘用条件出现的空缺岗位,可从报考同一岗位且笔试、面试成绩均到合格线以上的应聘者中,按考试总成绩从高分到低分的顺序依次递补。', '递补情形。在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位,以及因反映有影响聘用问题或不符合聘用条件出现的空缺岗位,可从报考同一岗位且笔试、面试成绩均到合格线以上的应聘者中,按考试总成绩从高分到低分的顺序依次递补。', '2.不予递补情形。通过笔试确定面试人员名单公示公告发布后至面试结束,出现的空缺岗位不再递补;人社部门聘用批复文件印发之日起,出现的空缺岗位不再递补。', '不予递补情形。通过笔试确定面试人员名单公示公告发布后至面试结束,出现的空缺岗位不再递补;人社部门聘用批复文件印发之日起,出现的空缺岗位不再递补。', '按照《国家卫生健康委员会办公厅 公安部办公厅 人力资源和社会保障部办公厅 国家中医药管理局办公室关于贯彻落实住院医师规范化培训“两个同等对待”政策的通知》(国卫办科教发〔2021〕18号)《自治区卫生健康委 公安厅 人力资源和社会保障厅关于贯彻落实住院医师规范化培训“两个同等对待”政策的通知》(宁卫发〔2022〕112号)有关规定,招聘临床医学、口腔医学、中医学硕士研究生的岗位,住培合格、培训专业符合招聘岗位所需专业、且符合其他报名资格条件的本科学历医师,均可报名参加,须在考察(资格复审)时提供住培合格证书,考察(资格复审)前无法提供的,取消聘用资格。', '两个同等对待”政策的通知》(国卫办科教发〔2021〕18号)《自治区卫生健康委 公安厅 人力资源和社会保障厅关于贯彻落实住院医师规范化培训“两个同等对待”政策的通知》(宁卫发〔2022〕112号)有关规定,招聘临床医学、口腔医学、中医学硕士研究生的岗位,住培合格、培训专业符合招聘岗位所需专业、且符合其他报名资格条件的本科学历医师,均可报名参加,须在考察(资格复审)时提供住培合格证书,考察(资格复审)前无法提供的,取消聘用资格。', '(一)《公告》由中卫市2023年事业单位自主公开招聘高层次青年人才工作领导小组办公室负责解释。凡涉及本次招聘工作的重大事项或本公告未尽事宜,由领导小组或领导小组办公室研究决定。', '年事业单位自主公开招聘高层次青年人才工作领导小组办公室负责解释。凡涉及本次招聘工作的重大事项或本公告未尽事宜,由领导小组或领导小组办公室研究决定。', '(三)招聘工作的具体政策、注意事项及根据需要如对工作安排作出调整的,均在指定网站进行详述,请应聘人员及时关注并认真阅读。', '(四)招聘工作违纪违规行为的认定和处理,按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行,构成犯罪的,依法追究刑事责任。', '(四)招聘工作违纪违规行为的认定和处理,按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第', '(五)招聘单位相关人员、应聘人员在办理公开招聘相关事项时需要回避的,应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '(五)招聘单位相关人员、应聘人员在办理公开招聘相关事项时需要回避的,应按照《事业单位人事管理回避规定》(人社部规〔', '(六)应聘人员报名时所留电话应保持畅通,因电话不畅通导致招聘单位无法通知相关事宜的,责任由应聘者承担。', '(七)本次招聘工作不指定考试辅导用书,不举办也不委托任何机构举办考试辅导班。请广大应聘者提高警惕,谨防上当受骗。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>293</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>习近平在广西考察时强调</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2021-04-28</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202104/t20210428_2802881.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。 新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司察看产品展示。 新华社记者 鞠鹏 摄', '中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，要坚决贯彻党中央决策部署，完整、准确、全面贯彻新发展理念，坚持稳中求进工作总基调，解放思想、深化改革、凝心聚力、担当实干，统筹疫情防控和经济社会发展，统筹发展和安全，在推动边疆民族地区高质量发展上闯出新路子，在服务和融入新发展格局上展现新作为，在推动绿色发展上迈出新步伐，在巩固发展民族团结、社会稳定、边疆安宁上彰显新担当，建设新时代中国特色社会主义壮美广西。', '4月25日至27日，习近平在广西壮族自治区党委书记鹿心社和自治区政府主席蓝天立陪同下，先后来到桂林、柳州、南宁等地，深入革命纪念馆、农村、企业、民族博物馆等，就贯彻党的十九届五中全会精神、开展党史学习教育、推动“十四五”开好局起好步等进行调研。', '25日上午，习近平来到位于桂林市全州县才湾镇的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮并三鞠躬，瞻仰“红军魂”雕塑，参观纪念馆。1934年底，为确保中共中央和中央红军主力渡过湘江，粉碎敌人围歼红军于湘江以东的企图，几万名红军将士血染湘江两岸，这一战成为事关中国革命生死存亡的重要历史事件。习近平表示，我到广西考察的第一站就来到这里，目的是在全党开展党史学习教育之际，缅怀革命先烈，赓续共产党人精神血脉，坚定理想信念，砥砺革命意志。革命理想高于天，理想信念之火一经点燃就会产生巨大的精神力量。红军将士视死如归、向死而生、一往无前、敢于压倒一切困难而不被任何困难所压倒的崇高精神，永远值得我们铭记和发扬。在实现第二个百年奋斗目标的新长征路上，我们要抱定必胜信念，勇于战胜来自国内外的各种重大风险挑战，朝着实现中华民族伟大复兴的目标奋勇前进。', '随后，习近平来到才湾镇毛竹山村。该村近年来积极发展葡萄种植业，有力促进了农民增收。习近平走进葡萄种植园，察看葡萄长势。农技人员正在指导村民为葡萄绑蔓、定梢，看到总书记来了，乡亲们纷纷围拢过来。习近平详细询问葡萄产量、品质、销路、价格等情况。他强调，全面推进乡村振兴，要立足特色资源，坚持科技兴农，因地制宜发展乡村旅游、休闲农业等新产业新业态，贯通产加销，融合农文旅，推动乡村产业发展壮大，让农民更多分享产业增值收益。', '习近平步行察看村容村貌，并到村民王德利家中看望，同一家人围坐在一起聊家常。王德利告诉总书记，他们家种了12亩葡萄，农闲时外出务工，去年家庭收入超过14万元。习近平听了十分高兴。他指出，经过全党全国各族人民共同努力，在迎来中国共产党成立一百周年的重要时刻，我国脱贫攻坚战取得全面胜利。好日子都是奋斗出来的。希望你们依靠勤劳智慧把日子过得更有甜头、更有奔头。要注重学习科学技术，用知识托起乡村振兴。离开村子时，乡亲们高声向总书记问好。习近平向大家挥手致意。他深情地说，让人民生活幸福是“国之大者”。全面推进乡村振兴的深度、广度、难度都不亚于脱贫攻坚，决不能有任何喘口气、歇歇脚的想法，要在新起点上接续奋斗，推动全体人民共同富裕取得更为明显的实质性进展。', '近年来，桂林市大力推进漓江“治乱、治水、治山、治本”，改善了漓江生态环境。25日下午，习近平来到桂林市阳朔县漓江杨堤码头，听取漓江流域综合治理、生态保护等情况汇报，并乘船考察漓江阳朔段。他强调，要坚持山水林田湖草沙系统治理，坚持正确的生态观、发展观，敬畏自然、顺应自然、保护自然，上下同心、齐抓共管，把保持山水生态的原真性和完整性作为一项重要工作，深入推进生态修复和环境污染治理，杜绝滥采乱挖，推动流域生态环境持续改善、生态系统持续优化、整体功能持续提升。', '26日，习近平来到桂林市象鼻山公园，远眺山水风貌，沿步道察看商业、邮政等服务设施。游客们高声欢呼：“总书记好！”习近平同大家亲切交流。他指出，桂林是一座山水甲天下的旅游名城。这是大自然赐予中华民族的一块宝地，一定要呵护好。要坚持以人民为中心，以文塑旅、以旅彰文，提升格调品位，努力创造宜业、宜居、宜乐、宜游的良好环境，打造世界级旅游城市。', '当天下午，习近平来到柳州市考察调研。在广西柳工集团有限公司，习近平先后走进公司展厅、研发实验中心、挖掘机装配厂等，听取企业发展情况介绍，察看主要产品展示，同企业职工和技术研发人员亲切交谈。习近平强调，制造业高质量发展是我国经济高质量发展的重中之重，建设社会主义现代化强国、发展壮大实体经济，都离不开制造业，要在推动产业优化升级上继续下功夫。只有创新才能自强、才能争先，要坚定不移走自主创新道路，把创新发展主动权牢牢掌握在自己手中。要坚持党对国有企业的全面领导，坚持加强党的领导和完善公司治理相统一，在深化企业改革中搞好党的建设，充分发挥党组织在企业改革发展中的领导核心作用。', '随后，习近平来到柳州螺蛳粉生产集聚区，详细了解螺蛳粉特色产业促进就业、带动农民增收等情况。习近平指出，发展特色产业是地方做实做强做优实体经济的一大实招，要结合自身条件和优势，推动高质量发展。要把住质量安全关，推进标准化、品牌化。要帮助民营企业解决实际困难，鼓励、支持、引导民营企业发展壮大。', '广西是我国少数民族人口最多的自治区。27日上午，习近平来到位于南宁市邕江之畔的广西民族博物馆，参观壮族文化展。博物馆外，三月三“歌圩节”壮族对歌等民族文化活动正在这里集中展示。习近平强调，广西是全国民族团结进步示范区，要继续发挥好示范带动作用。各民族共同团结进步、共同繁荣发展是中华民族的生命所在、力量所在、希望所在，在全面建设社会主义现代化国家的新征程上，一个民族都不能少，各族人民要心手相牵、团结奋进，共创中华民族的美好未来，共享民族复兴的伟大荣光。', '当天上午，习近平听取了广西壮族自治区党委和政府工作汇报，对广西各项工作取得的成绩给予肯定，希望广西各族干部群众奋力谱写全面建设社会主义现代化国家的广西篇章，以优异成绩庆祝建党一百周年。', '习近平指出，推动经济高质量发展，既要深刻认识贯彻新发展理念、构建新发展格局对推动地方高质量发展的原则要求，又要准确把握本地区在服务和融入新发展格局中的比较优势，走出一条符合本地实际的高质量发展之路。要推动传统产业高端化、智能化、绿色化，推动全产业链优化升级，积极培育新兴产业，加快数字产业化和产业数字化。要继续深化改革，坚持“两个毫不动摇”，优化营商环境。要加大创新支持力度，优化创新生态环境，推动各类创新要素向企业集聚，激发创新活力，推动科技成果转化。要主动对接长江经济带发展、粤港澳大湾区建设等国家重大战略，融入共建“一带一路”，高水平共建西部陆海新通道，大力发展向海经济，促进中国－东盟开放合作，办好自由贸易试验区，把独特区位优势更好转化为开放发展优势。', '习近平强调，要弘扬伟大脱贫攻坚精神，加快推进乡村振兴，健全农村低收入人口常态化帮扶机制，继续支持脱贫地区特色产业发展，强化易地搬迁后续扶持。要立足广西林果蔬畜糖等特色资源，打造一批特色农业产业集群。要严格实行粮食安全党政同责，压实各级党委和政府保护耕地的责任，稳步提高粮食综合生产能力。要继续打好污染防治攻坚战，把碳达峰、碳中和纳入经济社会发展和生态文明建设整体布局，建立健全绿色低碳循环发展的经济体系，推动经济社会发展全面绿色转型。', '习近平指出，要提高人民生活品质，落实就业优先战略和积极就业政策，做好高校毕业生、退役军人、农民工和城镇困难人员等重点群体就业工作。要完善多渠道灵活就业的社会保障制度，维护好卡车司机、快递小哥、外卖配送员等的合法权益。要全面贯彻党的教育方针，落实立德树人根本任务，加强对线上线下校外培训机构的规范管理。要深化疾病预防控制体系改革，强化基层公共卫生体系，创新医防协同机制，提升基层预防、治疗、护理、康复服务水平，毫不放松抓好常态化疫情防控。要严密防范各种风险挑战，有效遏制重特大安全生产事故，常态化开展扫黑除恶斗争。', '习近平强调，要搞好民族团结进步宣传教育，引导各族群众牢固树立正确的国家观、历史观、民族观、文化观、宗教观，增进各族群众对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同，促进各民族像石榴籽一样紧紧抱在一起。', '习近平指出，广西红色资源丰富，在党史学习教育中要用好这些红色资源，做到学史增信。学史增信，就是要增强信仰、信念、信心，这是我们战胜一切强敌、克服一切困难、夺取一切胜利的强大精神力量。要增强对马克思主义、共产主义的信仰，教育引导广大党员、干部从党百年奋斗中感悟信仰的力量，始终保持顽强意志，勇敢战胜各种重大困难和严峻挑战。要增强对中国特色社会主义的信念，教育引导广大党员、干部深刻认识到，中国特色社会主义是历史发展的必然结果，是发展中国的必由之路，是经过实践检验的科学真理，始终坚定道路自信、理论自信、制度自信、文化自信。要增强对实现中华民族伟大复兴的信心，教育引导广大党员、干部牢记初心使命、增强必胜信心，坚信我们党一定能够团结带领人民在中国特色社会主义道路上实现中华民族伟大复兴，努力创造属于我们这一代人、无愧新时代的历史功绩。信仰、信念、信心是最好的防腐剂。要始终抓好党风廉政建设，使不敢腐、不能腐、不想腐一体化推进有更多的制度性成果和更大的治理成效。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>293</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>中卫市审计局开展社会主义是干出来的典型宣传教育</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2019-09-20</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/ssjj/fdzdgknr_49974/bmxx_50007/201911/t20191111_1844621.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['9月20日，市审计局按照“不忘初心、牢记使命”主题教育读书班学习计划，开展“社会主义是干出来的”典型宣传教育，组织全体党员干部集体观看纪录片《坚守初心，不改本色的优秀共产党员张富清》，深入学习老英雄张富清先进典型事迹，激励广大党员干部新时代新担当新作为。', '时代楷模报告厅从战争年代赫赫战功、和平年代深藏功名、建设时期坚守初心等不同角度讲述了张富清老人传奇的一生，生动再现了张富清同志一心为民的质朴情怀。大家感慨地说，老英雄张富清同志60多年深藏功名，一辈子坚守初心、不改本色，深受教育启迪，不愧是新时代中国共产党人不忘初心、牢记使命、永远奋斗的楷模。每一名党员干部都要紧紧结合“不忘初心、牢记使命”主题教育，将学习张富清同志先进事迹与当前重点难点工作相结合，提高政治站位，坚定理想信念，坚守初心，积极发扬共产党人先锋楷模作用。', '习近平总书记在宁夏考察时强调：“社会主义是干出来的，就是靠着我们工人阶级的拼搏精神，埋头苦干、真抓实干，我们才能够实现一个又一个的伟大目标，取得一个又一个的丰硕成果”。', '党员干部纷纷表示，要以张富清为榜样，坚守初心、对党忠诚，淡泊名利、甘于奉献，恪尽职守、担当使命，清廉自守、克己奉公，始终保持共产党人的政治本色。立足岗位，做新时代的奋斗者，以认真负责的态度、求真务实的作风，扎扎实实把主题教育组织好、开展好，用心用情用力做好审计工作，更好发挥审计在党和国家监督体系中的重要作用。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>293</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>我市持续加强和改进师德师风建设</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2021-10-13</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/bmdt/202110/t20211013_3089000.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['为进一步加强和改进师德师风建设，巩固师德师风专项整治成果，提高教师职业道德素养。近期，市教育局印发了《关于持续开展师德师风专项整治的通知》，引导教师树立道德高线、严守纪律底线、不碰法律红线，规范教师从教行为。', '今年，我市以《关于进一步加强和改进新时代师德师风建设的实施方案》《关于印发全市教育系统开展“作风建设年、素质提升年”的意见》等为重点内容，将师德师风教育纳入教师培训必修课，组织教师通过师德违规典型案例进行警示教育，引导教师坚守师德底线，带头以德立身、以德立学、以德施教、以德育德，做新时代公民的道德模范。在事业编教师招聘、特岗教师招录、公费师范生入职、高层次人才引进等资格准入和行业入口，我市严格思想政治和师德考察，加强新入职教师试用期考察，全面评价聘用人员的思想政治和师德表现；按照《中卫市教育局信用信息分级分类监管制度》要求，加强教师信用信息记录和管理，每学期末在学校范围内对教师个人信用信息进行公示；探索建立师德档案，与教师人事档案同步管理；考核过程中及时将发现的问题向教师反馈，发挥师德考核对教师行为的约束和提醒作用，帮助教师提高认识、落实整改。将师德师风纳入学校评价的重要内容，对失德失范者在职称评聘、岗位晋级、年度考核、评优评先等方面实行“一票否决”。季度考核、年度考核师德师风分值考核不低于总分的20%，职称评定严格执行《关于市直属中小学（幼儿园）职称评审考核的指导意见》规定。', '“我们畅通师德师风监督举报渠道，学校将监督举报电话、邮箱等信息在其网站或校园显著位置进行公示，及时回应家长意见和建议，加强与学生、家长的沟通，将师德师风问题消除在萌芽状态。依据《中小学教育惩戒办法（试行）》，有序组织，依法依规实施教育惩戒。”市教育局副局长张红介绍，各学校组织开展“学习新思想、争做‘四有’好老师”推选展示活动，深入挖掘身边的“师德标兵”“教书育人楷模”等先进典型，引导广大教师学先进、比奉献，做“四有”好教师，在全社会营造尊师重教的良好氛围，确保“双减”各项工作有序有效开展。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>293</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>中卫市水务局年事业单位自主公开招聘工作人员公告</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2021-06-15</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202106/t20210609_2879881.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['为进一步加强水利人才队伍建设，按照《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等文件有关规定，现就中卫市水务局2021年自主公开招聘事业单位工作人员有关事项公告如下。', '2021年中卫市水务局所属事业单位黄河管理所计划采取公开报名方式，面向全国招聘具有硕士、博士研究生学历学位的普通高等院校毕业生1名。具体招聘岗位、资格条件及有关事项详见《2021年中卫市水务局事业单位自主公开招聘工作人员岗位计划一览表》（附件1）。', '5.符合《2021年中卫市水务局事业单位自主公开招聘工作人员岗位计划一览表》（附件1）中招聘岗位要求的相关资格条件；', '5.在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '9.新招聘（录）机关事业单位工作人员未满最低服务期限（含试用期）的；已招聘的特岗教师；', '12.应聘者不得报考《事业单位公开招聘人员暂行规定》第二十七条所列回避情形的岗位。', '1.现场报名。应聘者携带本人有效身份证及岗位所需的学历学位证、资格证、工作经历证明材料原件和复印件、2张近期同底(6个月内)正面1寸免冠照片交市水务局办公室审核，并填写《2021年中卫市事业单位自主公开招聘工作人员报名表》（附件2）。根据当前疫情防控工作需要，请现场报名人员佩戴口罩，经体温检测正常后进入现场进行报名。报名人员14天内有宁夏区外旅居史或发烧等不适症状的，必须如实报告情况并核酸检测合格后方可现场报名，对因需要留观、隔离或核酸检测结果尚未出具的，可以委托其他人员现场报名或者采取网上报名的方式。', '2.网络报名。不能前往招聘现场的应聘人员可以根据自身实际在规定报名时间内网络报名。应聘人员将本人报名表、电子照片、报名所需各类材料扫描件建立压缩包（以“姓名+应聘岗位”命名）发送至中卫市水务局指定邮箱。', '应聘人员严格按照招聘岗位的条件报名，要对现场报名或网络报名提交材料的真实性、准确性负责。中卫市水务局根据实际情况，在报名结束后汇总报名人员信息，在组织面试(考核)前再次复核应聘人员资格，并进行公示。资格审查严格按照公布的招聘条件进行，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格复审合格的面试人员名单由中卫市水务局在中卫市政府网站上公示，公示时间为5个工作日，公示结束后不再递补。', '1.在中卫市纪监部门、组织部和人社部门监督指导下，由中卫市水务局依法依规自主组织面试。', '2.面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。对应聘人数少于或等于设置岗位数的，直接通过面谈，确定体检和考察人选。对应聘人数与设置岗位数之比超过25：1的，可通过增加笔试的方式，按照拟招聘人数与应聘人数1:3的比例，确定面试人选。', '3.考试成绩计算方式。对应聘人数较多的岗位，增加笔试是为了进一步确定面试人选，笔试成绩不计入总成绩。面试成绩即考试成绩。', '1.根据考试成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作在中卫市纪监部门、组织部和人社部门监督指导下由市水务局自主负责组织实施。', '2.体检须在市级以上综合医院进行。体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '3.用人单位或受检人对体检结果有疑问的，经市水务局或市人力资源和社会保障局同意，可以复检，体检结果以复检结论为准。', '4.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作在中卫市纪监部门、组织部和人社部门监督指导下由市水务局自主负责组织实施。按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '2.考察中发现因个人品德差、有不良政治或诚信记录(涉金融、统计、房地产、保险等领域严重失信人员;失信被执行人等)、弄虚作假等行为且被有关部门依法依规予以处理的（在公告发布之日前解除处分或超过处分期的除外）；不具备报考资格条件的；曾有违法违纪违规行为的；以及其他不宜进入事业单位工作的情形的，经中卫市水务局自主公开招聘领导小组研究确定后，可取消招聘资格。', '3.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经中卫市水务局自主公开招聘领导小组研究批准，可以延长30日。', '1.根据面试、考察、体检结果，由中卫市水务局确定拟公示、拟聘用人员名单，在中卫市人民政府网站上公示5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。公示期满无异议的拟聘用人员，中卫市水务局报中卫市人力资源和社会保障局办理招聘手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且笔试、面试成绩均达到最低分数线以上应聘者中，根据考试总成绩按规定依次递补。', '3.公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '4.人力资源社会保障部门聘用批复文件印发之日起，拟聘用人员自愿放弃聘用、被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，导致拟聘岗位空缺的，不再递补。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格;已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘人员要提供正确联系方式，保持通讯畅通，因通讯不畅造成的一些后果由本人承担。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>293</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>中卫市应急管理局年自主公开招聘事业单位工作人员公告</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2023-02-10</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202302/t20230210_3953052.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['为进一步加强应急管理人才队伍建设，加快引进急需紧缺的高层次人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等规定，现就市应急管理局自主公开招聘事业单位工作人员公告如下。', '2023年中卫市应急管理局自主公开招聘事业单位工作人员1名，具体岗位要求、简介等详见《中卫市应急管理局事业单位2023年自主公开招聘工作人员岗位计划一览表》（附件1）。专业和学科详见《宁夏回族自治区事业单位公开招聘工作人员专业参考目录》（附件2）。', '3.遵纪守法、品行端正，具有良好职业道德，作风正派、爱岗敬业、服从领导、团结同志、廉洁奉公；', '6.符合《中卫市应急管理局事业单位2023年自主公开招聘工作人员岗位计划一览表》（附件1）中各招聘岗位要求及相关条件；', '8.机关事业单位在编人员；已招聘的特岗教师；公告发布之日后辞职、辞退、解除或终止聘用合同的区内机关事业单位正式在编工作人员；', '本次招聘原则上采取面试的方式进行。如资格初审合格人数超过30人（含30人），则增加笔试环节。面试人员名单按照招聘人数1：3的比例从笔试成绩由高分到低分确定。笔试成绩不计入总成绩。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市应急管理局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市应急管理局在中卫市人民政府网进行公示，公示时间为5个工作日。', '考试分笔试和面试两部分。资格审查合格人数超过30人（含30人），增加笔试环节，按照岗位招聘计划1：3的比例依据笔试成绩排名确定进入面试范围人选，并进行资格复审。笔试成绩不计入总成绩。资格审查合格人数不足30人，直接进行面试。', '资格审查合格人数超过30人（含30人），增加笔试环节，由中卫市应急管理局依法依规自主组织实施，笔试具体事项另行公告。', '（2）面试成绩即为考试总成绩，当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩确定进入体检、考察人员名单。', '（3）面试时间、地点、人员名单在中卫市人民政府网站进行公布，并采取打电话、发信息等方式通知应聘者。', '面试结束后，根据考试总成绩排名，按拟招聘人数1:1的比例确定体检和考察人选。体检由中卫市应急管理局组织，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）执行。体检费用由应聘人员本人承担，体检不合格者，取消招聘资格，体检合格者确定为拟考察人员。', '1.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况。', '2.考察中发现因个人品德差、有不良政治记录的以及存在其他不宜进入事业单位工作的情形，经研究确定后可取消应聘资格。', '3.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。', '根据考试、体检、考察结果，确定拟公示、拟聘用人员名单，并在中卫市人民政府官网进行公示，公示时间5个工作日。公示结束后，对公示无异议的拟聘用人员，办理招聘手续，签订聘用合同，确立人事关系，并按规定办理相关手续。对反映有影响聘用的问题经查证属实的，不予聘用。拟聘用人员无正当理由逾期（自接到聘用通知15日内）不报到的，取消应聘资格。', '1.资格初审合格人数超过30人，增加笔试环节的，在资格复审阶段，经复审不符合资格条件或自愿放弃的取消应聘资格，出现的空缺名额从报考同一岗位按笔试成绩由高分到低分依次递补。', '2.在体检、考察不合格或自愿放弃以及公示和聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位应聘者中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '（二）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行，构成犯罪的，依法追究刑事责任。', '（三）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '（四）应聘者要提供正确联系方式，保持通讯畅通，因通讯不畅因电话不畅通导致无法通知相关事宜的，责任由应聘者承担。', '（五）招聘不指定考试辅导用书，不举办也不委托任何机构举办考试辅导班。请广大应聘者提高警惕，谨防上当受骗。', '（六）应聘者请密切关注中卫市人民政府官网招聘笔试、资格审核、面试、聘用等相关通知。', '根据疫情防控工作有关要求，此次自主公开招聘工作各环节将全面落实依法防控、科学防治、精准施策要求，保证各考场开窗通风、清洁消毒，保持空气流通。所有考官、工作人员及考生进入考试区域需正确佩戴口罩，并保持1米安全距离，避免因人员聚集带来交叉感染的风险。', '（一）报名登记表要如实、详尽的填写，注明应聘岗位，粘贴照片，报名登记表应亲笔签名。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格，已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘人员要提供正确的联系方式，保持通讯畅通，因通讯不畅通造成的一切后果由本人承担。', '（五）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市应急管理局和中卫市人力资源和社会保障局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>293</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>中卫市直属中小学年自主公开招聘事业编制教师公告</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2022-06-06</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202206/t20220606_3548131.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['为切实解决市直属中小学校教师紧缺问题，按照《事业单位公开招聘人员暂行规定》、《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁党办〔2006〕35号)和《关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等文件有关规定，现就中卫市直属中小学2022年自主公开招聘事业编制教师有关事项公告如下。', '本次招聘计划面向全国自主公开招聘硕士、博士研究生82人，其中市直属普通高中55人，初中16人，小学6人，市职业技术学校5人，招聘岗位、资格条件及有关事项详见《中卫市直属中小学2022年自主公开招聘事业编制教师岗位计划一览表》（附件1）。', '6.符合《中卫市直属中小学2022年自主公开招聘事业编制教师岗位计划一览表》（附件1）中各招聘岗位要求的相关资格条件。硕士研究生年龄35周岁以下（1986年6月6日以后出生），博士研究生可放宽到40周岁以下（1981年6月6日以后出生）。', '每位应聘者只能报考一个岗位，报名与面试时使用的身份证必须一致，提交的照片须为2022年1月1日以后拍摄的正面、免冠证件照片。应聘人员将本人报名表、电子照片、身份证、学历证、学位证、学籍注册备案表、教师资格证等所需各类材料扫描件建立压缩包（以“姓名+应聘岗位”命名）发送至邮箱zwsjszp8650@163.com，并打电话确认招聘方是否收到报名材料。留学归国人员符合岗位资格条件报考的，还须提供教育部中国留学服务中心出具的境外学历、学位认证书。', '（三）资格审查。应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市教育局根据实际情况，会同中卫市人力资源和社会保障局在组织面试前再次复核应聘人员资格。准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审复查时，提供岗位要求的学历及学位证书截止时间为2022年7月31日。资格审查合格人员名单由中卫市教育局在中卫市人民政府网进行公示，公示时间为5个工作日，公示结束后不再递补。', '本次招聘采取面试的方式进行，资格审查合格人员全部进入面试。面试成绩以百分制计算，设60分为合格分数线，面试成绩达不到60分的取消招聘资格。报考体育、音乐、美术、旅游服务与管理专业教师岗位的，面试采取试讲+实操的方式；报考其他岗位的，面试采取试讲方式。面试成绩均保留小数点后面两位数字。面试成绩出现并列时，当场组织面试人员进行加试，最后按岗位招聘人数1:1的比例，由高分到低分确定体检、考察对象。', '面试时间、地点、人员名单于面试前一周在中卫市人民政府网进行公布，并采取打电话、发信息等方式通知应聘者。', '1.体检工作在市人力资源和社会保障局的监督指导下，由市教育局按照公开招聘要求自主组织实施。', '2.体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)和行业有关规定执行。', '3.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。体检费用由应聘者承担。', '4.应聘者对体检结果有疑问的，经市教育局同意，可以申请1次复检，体检结果以复检结论为准。', '1.考察工作在中卫市人力资源和社会保障局的监督指导下，由市教育局负责组织实施，具体考察方式和内容按照相关规定执行。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '3.考察中发现因个人品德差、有不良政治记录的;不具备招聘岗位所需资格条件的;存在本公告中所列不得报考相关情形的;以及存在其他不宜进入事业单位工作的情形，经招聘工作领导小组研究确定后，可取消招聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经招聘工作领导小组研究批准，可以延长30日。', '1.根据考试、体检、考察结果，由市教育局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知20日内)不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '3.用人单位与受聘人员签订聘用合同，确立人事关系，并按规定办理相关手续，享受中卫市高层次引进相关政策。', '4.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用;不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '（一）招聘工作在市纪委监委、组织、人社部门监督指导下进行，由中卫市教育局依法依规自主组织实施。考试方案提前两周报市人力资源和社会保障局备案后实施。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格；已聘用的，取消聘用资格。', '（三）严格纪律。在本次招聘工作中要严格执行有关纪律要求，如发现有违纪违规行为，将严格按照有关规定进行处理。要做到信息公开、过程公开、结果公开，接受社会及有关部门的监督。', '（四）招聘工作将按照宁夏回族自治区、中卫市新冠肺炎疫情防控要求，严格落实各项防疫措施，根据需要如对工作安排作出调整的，将及时在中卫市人民政府网发布补充公告或通知，请广大应聘者予以关注、理解、支持和配合。对疫情中高风险地区所在县（区）入宁人员实行“14+7”管控措施，因个人疫情防控等原因不能按时参加面试的，视为自动放弃。', '（五）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>293</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>东南大学绿海行动实践团回乡种树植心</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2019-09-03</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tpxw/201909/t20190903_1717055.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['自7月初以来，来自东南大学的7名宁夏籍大学生组成绿海行动实践团，从宁夏东部的毛乌素沙漠边缘一路向西，向盐池县治沙英雄白春兰学习防沙治沙的经验办法，了解盐池县的防沙治沙成效，并前往腾格里沙漠锁边实践基地和沙坡头旅游景区进行实地考察，并参与植树绿化实践活动。', '实践团队负责人王思雯说，从家乡走出，再走回家乡，为的是弘扬和传承父辈们不畏艰苦，敢于战天斗地的拼搏精神，为的是让全社会更多的人看到宁夏为防沙治沙所作出的贡献，以及新中国成立70年来，宁夏所取得的显著变化。实践团成员刘宇涵说，经过几代人的辛劳实践、无私奉献，宁夏成为了全国首个实现沙漠化逆转的省份。这个暑假，与6位同样来自宁夏的校友回到家乡，展开一系列实践活动，为的就是加深对家乡生态建设的了解，让更多人投入到保护地球的公益事业中。图为实践团成员在腾格里沙漠植树。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>293</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>市审计局以更好发挥审计在污染防治攻坚战中的重要作用践行习近平总书记在宁夏视察时重要讲话精神</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2020-06-22</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/ssjj/fdzdgknr_49974/bmxx_50007/202007/t20200720_2166988.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['市审计局以更好发挥审计在污染防治攻坚战中的重要作用践行习近平总书记在宁夏视察时重要讲话精神_中卫市人民政府', '市审计局以更好发挥审计在污染防治攻坚战中的重要作用践行习近平总书记在宁夏视察时重要讲话精神', '近日，市审计局组织全体干部职工，深入学习贯彻习近平总书记来宁夏视察时的重要讲话精神。通过学习，使全体干部职工深切地感受到了习近平总书记对宁夏的殷切期盼和“人民至上”的深厚情怀。更加坚定了全局干部职工的理想信念和干事创业的斗志。', '市审计局干部职工认为，习近平总书记在宁夏考察时强调“要牢固树立绿水青山就是金山银山的理念，统筹山水林田湖草系统治理，继续打好蓝天、碧水、净土保卫战，抓好生态环境保护。要把保障黄河长治久安作为重中之重，统筹推进生态保护修复和环境治理”，立意高远、思想深刻、内涵丰富，为今后审计工作进一步明确了工作重点、指明了方向。', '市审计局干部职工表示，在今后审计工作中要主动作为，勇于担当，着力推动打好污染防治攻坚战，切实把习近平总书记重要讲话精神在审计工作中落到实处、落到细处。一是要加强学习，在切实提高政治站位上下功夫。审计机关首先是政治机关，必须旗帜鲜明讲政治，深刻领会打好蓝天碧水净土保卫战的重要意义，正确把握保护黄河义不容辞，治理黄河责无旁贷的严格要求，及时将污染防治热点、生态建设难点纳入到审计重点工作中。运用审计“利剑”，筑牢绿水青山就是金山银山的理念，保护好生态环境、守护好生命线。审计人员要用实际行动践行习近平总书记视察宁夏时的讲话精神。二是要加强能力素质锻炼，在强化责任担当上下功夫。要加强业务学习，掌握新技术、新方法，不断提升能力素质，着力提高在发现生态环境保护等方面的突出问题和风险隐患的能力，善于提出加强和改进相关工作的建议。三是要保持为民服务的清廉本色，在牢固树立廉洁从审上下功夫。作为审计机关一定要成为遵规守纪的模范机关，作为审计干部一定要成为秉公用权的先锋标兵，学习贯彻习近平总书记视察宁夏时的讲话精神必须以更加务实的工作作风，在工作中坚持原则，敢于担当，善于斗争，讲求工作成果，坚决打好污染防治攻坚战，为推动黄河流域生态保护和高质量发展先行区建设作出审计人应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>293</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>市公共资源交易中心多项措施促进公共资源交易服务高质量发展</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sggzyjyzx/fdzdgknr_50521/bmxx_50552/202111/t20211109_3121140.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['今年以来，中卫市公共资源交易服务中心紧扣工作实际，多举措提升工作能力，推动交易服务流程更加科学高效、交易活动更加规范有序、交易服务效率进一步提升，推动公共资源交易服务高质量发展。', '拓宽学习渠道，提升学习能力。坚持“政治统学”“业务领学”“成果分享”，采取个人自学、轮流讲学、以案促学、组织培训、考察交流等方式，积极引导干部职工学习法律、学习政策、学习周边、学习他人，着力打造一支专业高效的交易服务队伍，保障公共资源交易的各项工作依法合规开展，不断提升公共资源交易工作水平。', '聚焦市场关切，提升沟通能力。聚焦市场主体关切，增强主动沟通、协调四方、主动补位的意识和能力，充分发挥纽带作用，针对推进工作过程中发生的疑难问题，积极与业主单位、代理机构等加强沟通交流，密切配合，形成合力，统筹各类交易活动进程，精心服务各类市场主体，切实提升市场主体对公共资源交易工作的满意度。', '强化工作落实，提升执行能力。倡导“立即办、马上办”的工作理念，注重办事效率与工作质量的统一，强化“只为办成想办法、不为不办找借口”工作意识，树立实干作风，每项工作都立足一个“早”字、讲究一个“快”字、注重一个“优”字，推进各项工作一件一件抓落实、一项一项见实效，着力提升公共资源交易服务效率。', '争创一流业绩，提升争先能力。倡导凡事争先进、工作创一流工作导向，开展党员先锋模范岗创建活动，积极营造立足岗位学先进、争先创优当标兵的浓厚氛围，充分调动广大党员干部职工“争先进、促赶超、创一流”的积极性和主动性，提升党员干部职工主动干事能力，不断推进公共资源交易服务工作提质增效。', '优化平台功能，提升创新能力。坚持用新思路、新理念、新方法解决新问题，不断更新思维理念，创新工作方式，以“互联网+公共资源交易”为统领，打造“一体化”交易平台，实施“不见面”交易，推行“一次办”受理模式，着力打造统一规范、服务高效的公共资源交易平台，不断提高公共资源交易主体便捷化交易体验。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>293</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>黑导游专项整治工作推进会参会人员考察我市旅游市场专项整治工作</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2018-07-24</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201807/t20180724_925360.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['“黑导游” 专项整治工作推进会参会人员考察我市旅游市场专项整治工作_中卫市人民政府', '7月23日，全国“黑导游”专项整治工作推进会在我市召开。当日下午，国家文化和旅游部监管司司长刘克智带领与会人员考察我市旅游市场专项整治工作。', '刘克智一行先后到沙坡头旅游新镇游客集散中心综合服务区专项整治行动指挥部、旅游警察分局、旅游市场监督管理分局、定武高速公路出口综合服务区、迎闫公路治安检查站等处，详细了解我市开展旅游市场环境专项整治、“1+4+N”联动机制综合运行、旅游市场监管等工作情况。', '与会人员边走边看边问，了解到我市为创建全域旅游城市、打造秩序井然的旅游市场，先后建立了旅游市场综合监管联席会议制度、周协调督办工作制度和联合执法长效监管机制，成立了旅游警察分局、旅游速裁庭和旅游法律服务中心等机构，加大联合执法监管力度，采取“1+4+N”工作协同监管机制，对涉旅相关案件等问题进行及时转办，进一步维护了我市健康文明的旅游市场秩序。大家纷纷表示，中卫多举措强化旅游市场监管和联合执法工作，工作机制衔接紧密、运行顺畅，中卫的好经验好做法值得借鉴和学习。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>293</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>习近平在内蒙古考察并指导开展不忘初心牢记使命主题教育时强调牢记初心使命贯彻以人民为中心发展思想把祖国北部边疆风景线打造得更加亮丽</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2019-07-17</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201907/t20190717_1608607.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['习近平在内蒙古考察并指导开展“不忘初心、牢记使命”主题教育时强调 牢记初心使命贯彻以人民为中心发展思想 把祖国北部边疆风景线打造得更加亮丽_中卫市人民政府', '习近平在内蒙古考察并指导开展“不忘初心、牢记使命”主题教育时强调 牢记初心使命贯彻以人民为中心发展思想 把祖国北部边疆风景线打造得更加亮丽', '新华社呼和浩特7月16日电 中共中央总书记、国家主席、中央军委主席习近平近日在内蒙古考察并指导开展“不忘初心、牢记使命”主题教育时强调，要牢记初心和使命，贯彻以人民为中心的发展思想，落实新发展理念，做好稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作，不断增强各族群众的获得感、幸福感、安全感，把祖国北部边疆这道风景线打造得更加亮丽。', '盛夏时节的内蒙古，蓝天白云，水草丰茂。7月15日至16日，习近平在内蒙古自治区党委书记李纪恒、自治区人民政府主席布小林陪同下，深入社区、林场、农村、高校、机关单位，看望慰问各族干部群众，就经济社会发展、生态文明建设进行考察调研，实地指导开展“不忘初心、牢记使命”主题教育。', '15日上午，习近平从北京飞抵内蒙古赤峰市，首先来到松山区兴安街道临潢家园社区考察调研。临潢家园社区是一个多民族群众聚居的社区，近年来率先打造“少数民族之家”特色服务综合体。习近平走进社区党群服务中心，询问社区基层党建、民族团结融合等情况，察看少数民族服饰、用品展示，同孩子们和社区居民亲切交流。习近平强调，社区是各族群众共同的家，民族团结一家亲。要深入推进民族团结进步创建进社区，把社区打造成为各族群众守望相助的大家庭，积极创造各族群众安居乐业的良好社区环境。', '乌兰牧骑排演大厅内欢声笑语、琴声悠扬，社区群众在乌兰牧骑队员指导下载歌载舞。看到总书记来了，大家高兴地围拢过来，敬献哈达。社区群众表演了精彩的民族歌舞，表达各族群众对党和祖国的热爱、对幸福生活的赞美。习近平指出，乌兰牧骑很接地气，群众喜闻乐见，永远不会过时。新时代加强精神文明建设，要坚持文艺为人民服务、为社会主义服务的方向，积极支持和推广直接为基层老百姓服务的文艺活动。', '赤峰历史悠久，文化底蕴深厚。临近中午，习近平来到赤峰博物馆，了解红山文化等史前文化发掘保护情况和契丹辽文化、蒙元文化等历史沿革。在博物馆二层，习近平观看了古典民族史诗《格萨（斯）尔》说唱展示，并同《格萨（斯）尔》非物质文化遗产传承人亲切交谈。习近平指出，我国是统一的多民族国家，中华民族是多民族不断交流交往交融而形成的。中华文明植根于和而不同的多民族文化沃土，历史悠久，是世界上唯一没有中断、发展至今的文明。要重视少数民族文化保护和传承，支持和扶持《格萨（斯）尔》等非物质文化遗产，培养好传承人，一代一代接下来、传下去。要引导人们树立正确的历史观、国家观、民族观、文化观，不断巩固各族人民对伟大祖国的认同、对中华民族的认同、对中国特色社会主义道路的认同。', '习近平对内蒙古生态环境保护十分关心。15日下午，他来到赤峰市喀喇沁旗马鞍山林场，听取当地生态文明建设和马鞍山林场造林护林工作情况汇报。顶着烈日，沿着崎岖的护林小道，习近平走进林区，察看林木长势，同正在劳作的护林员们交流，了解他们的工作、生活、家庭情况。大家告诉总书记，近年来林场森林面积逐年增加，野生动物多了，生态环境好了，收益也多了，更加深刻地认识到绿水青山就是金山银山。习近平听了很高兴。他强调，中国是世界上最大的人工林贡献国。这么大范围地持续不断建设人工林，只有在我国社会主义制度下才能做到。筑牢祖国北方重要的生态安全屏障，守好这方碧绿、这片蔚蓝、这份纯净，要坚定不移走生态优先、绿色发展之路，世世代代干下去，努力打造青山常在、绿水长流、空气常新的美丽中国。', '随后，习近平乘车前往河南街道马鞍山村。该村坚持生态立村、产业富村、旅游强村，运用“菜单式”扶贫和扶强带贫模式，实现了产业扶贫全覆盖。在马鞍山村党群服务中心，习近平听取全村情况介绍。在驻村干部之家、爱心超市，总书记看到村庄管理有序、村民生活幸福，十分欣慰。习近平指出，产业是发展的根基，产业兴旺，乡亲们收入才能稳定增长。要坚持因地制宜、因村施策，宜种则种、宜养则养、宜林则林，把产业发展落到促进农民增收上来。要建强农村基层党支部，提升乡镇和村为农民和农业服务能力。', '马鞍山村有汉族、蒙古族、满族等多民族群众聚居。习近平走进四世同堂的“多民族之家”村民张国利家。小院鸟语花香，瓦房干净敞亮。张国利的母亲今年86岁，精神矍铄。总书记拉着她的手，亲切向她问好。习近平察看了院落、客厅、卧室、厨房、厕所等情况。习近平指出，乡村振兴了，环境变好了，乡村生活也越来越好了。要继续完善农村公共基础设施，改善农村人居环境，重点做好垃圾污水治理、厕所革命、村容村貌提升，把乡村建设得更加美丽。', '来自赤峰市的10位干部群众代表也来到农家院，总书记同他们座谈交流。松山区大庙镇小庙子村党支部书记赵会杰去年全国两会期间邀请总书记到她所在的村里看一看，这次总书记专门请她到马鞍山村来见面。习近平高兴地对她说，你的邀请我一直记在心上，今天我履约而来，就是要实地看看乡亲们的生产生活情况。大家踊跃发言，争相向总书记汇报自己村里发生的新变化。习近平指出，新中国成立70年来，我国城乡面貌发生了翻天覆地的变化，老百姓生活芝麻开花节节高，充分证明我们走中国特色社会主义这条道路是对的。中国共产党之所以赢得人民群众拥护和支持，就因为我们党始终坚守为中国人民谋幸福、为中华民族谋复兴的初心和使命。我们党有9000多万党员和400多万个基层党组织，只要始终守初心、担使命，那就无坚不摧。开展“不忘初心、牢记使命”主题教育，归根结底就是中国共产党必须始终为中国人民谋幸福、为中华民族谋复兴。只有这样，我们党才能长期执政，国家才能长治久安，老百姓才能生活更加幸福。全面建成小康社会，一个民族不能少；实现中华民族伟大复兴，一个民族也不能少。共产党说到就要做到，也一定能够做到。民族区域自治制度是我国的基本政治制度，要认真总结民族区域自治的理论和实践经验，坚持和完善这一制度，促进民族团结融合，促进各民族像石榴籽一样紧紧抱在一起。', '16日上午，习近平在呼和浩特市考察，首先来到内蒙古大学。作为我们党在民族地区创办的第一所综合性大学，为民族地区人才培养和经济社会发展作出了贡献。在图书馆，习近平听取学校建设发展、教学科研、人才培养、思想政治建设等工作情况介绍，察看蒙古语言文学历史成果图书展示。蒙古文古籍展阅室收藏了众多历史文化典籍，记载了蒙古族文化与其他民族文化融合发展的历史。习近平认真听讲解，不时驻足端详。习近平强调，要加强对蒙古文古籍的搜集、整理、保护，挖掘弘扬蕴含其中的民族团结进步思想内涵，激励各族人民共同团结奋斗、共同繁荣发展。', '正值暑假，图书馆阅览室还有不少学生在学习。看到总书记走进来，大家顿时沸腾起来，聚拢到总书记身边。习近平亲切地同他们打招呼，询问学习生活情况。他指出，少年强则中国强。未来的竞争是年青人的竞争，今天的年青人是实现第二个百年奋斗目标的骨干和栋梁。同学们要志存高远、脚踏实地，学好知识，打好基础，增长才干，将来为中华民族伟大复兴贡献自己的智慧和力量。', '随后，习近平前往内蒙古自治区自然资源厅，调研指导自然资源厅开展“不忘初心、牢记使命”主题教育。他强调，各地区各部门在开展主题教育中要注意抓“四个到位”：一是抓思想认识到位，把学习贯穿始终，不断深化对主题教育重大意义的认识，深化对党的初心和使命的认识，深化对党面临的风险考验的认识。学习不能搞形式主义，不能急于求成，每次都要有新进步、新体会，日积月累。要结合实际加强学习，加深对生态文明建设重要性的领悟，加深对党中央对内蒙古战略定位的领悟，加深对自身职责的领悟。二是抓检视问题到位，深入调查研究，把问题找到找准，把根源挖深，明确努力方向和改进措施。三是抓整改落实到位，对症下药，该完善的体制机制要完善起来，该堵塞的漏洞要堵塞好，该批评的要认真批评，该处理的要严肃处理。要以解决实际问题的成效为衡量标准，发现问题立行立改，不能拖延，不能虚与应付。四是抓组织领导到位，主要领导同志要带头学习、带头调查研究、带头检视问题、带头整改落实，发挥表率作用。要同党中央安排部署对表对标，同时要结合实际，丰富方式方法。党内法规不少，主要问题在于执行不力，有的是缺乏执行能力，有的是缺乏执行底气。要强化法规制度执行，不能打折扣。', '习近平又来到自然资源政务大厅，同工作人员和办事群众交谈，了解开展主题教育和落实便捷高效政务服务等情况。习近平指出，要把群众观点和群众路线落实到各个工作环节和具体行动中，让群众办事更方便、更踏实。在推进高效便民服务的同时，要考虑周全，越是放开、推向市场，越要加强监管，依法依规严格管理和监督，严防腐败。', '16日下午，习近平听取了内蒙古自治区党委和政府工作与开展“不忘初心、牢记使命”主题教育情况汇报，对内蒙古各项工作取得的成绩给予肯定，希望内蒙古的同志认真贯彻党中央要求，弘扬蒙古马精神，努力把各项工作做得更好。', '习近平强调，国际格局加速演变，国际形势中不稳定不确定因素持续上升，我国发展外部环境中的挑战因素明显增多。同时，国内转变经济发展方式、优化经济结构、推动高质量发展已经进入攻坚克难的关键阶段，打好三大攻坚战尤需付出艰巨努力。我们要保持经济持续健康发展和社会大局稳定，必须把思想和行动统一到党中央对形势的判断和决策部署上来，坚定不移把自己的事情办好。', '习近平指出，内蒙古地处祖国北疆，自然和生态资源十分丰富，民族文化多姿多彩，发展潜力巨大，战略地位重要。要推动经济高质量发展，把供给侧结构性改革聚焦到补短板上来，巩固“三去一降一补”成果，坚定不移深化改革开放，增强微观主体活力，提升产业链水平，畅通经济循环，推动农牧业高质量发展，促进城乡区域协调发展。要坚持生态优先、绿色发展，在集中集聚集约上找出路，加强草原保护，强化土地沙化荒漠化防治工作，保护好生态环境，筑牢我国北方重要生态安全屏障。要切实保障和改善民生，着力解决教育、就业、社保、医疗、住房等各方面存在的突出问题、紧迫问题，坚决打赢三大攻坚战，把脱贫攻坚重心向深度贫困地区聚焦，重点攻克“三保障”面临的难题，确保如期全面建成小康社会。', '习近平强调，在主题教育中要全面把握守初心、担使命，找差距、抓落实这个总要求，把学习教育、调查研究、检视问题、整改落实贯通起来，努力取得实实在在成效。要加强督促指导，做得好的要及时表扬，开展不力的要及时批评提醒，出现偏差的要及时纠正。', '习近平指出，内蒙古是我国民族区域自治制度的发源地，具有民族团结的光荣传统。要高举各民族大团结旗帜，全面贯彻党的民族政策，深化民族团结进步教育，践行守望相助理念，铸牢中华民族共同体意识，把各族人民紧紧团结在党的周围，共同守卫祖国边疆，共同创造美好生活，在新时代继续保持模范自治区的崇高荣誉。', '考察期间，习近平在呼和浩特亲切接见驻内蒙古部队副师职以上领导干部和团级单位主官，代表党中央和中央军委向驻内蒙古部队全体官兵致以诚挚问候。许其亮陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>293</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>习近平春节前夕赴贵州看望慰问各族干部群众</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2021-02-07</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202102/t20210207_2595014.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['2月3日至5日，中共中央总书记、国家主席、中央军委主席习近平来到贵州考察调研，看望慰问各族干部群众，向全国各族人民致以美好的新春祝福。这是4日下午，习近平在贵阳市观山湖区金阳街道金元社区同社区群众亲切交流。 新华社记者 丁海涛 摄', '中华民族传统节日农历牛年春节即将到来之际，中共中央总书记、国家主席、中央军委主席习近平来到贵州，看望慰问各族干部群众，向全国各族人民、向港澳台同胞和海外侨胞致以美好的新春祝福，祝福大家身体健康、家庭幸福、事业顺利、牛年吉祥！祝愿伟大祖国山川锦绣、欣欣向荣、繁荣富强！', '2月3日至5日，中共中央总书记、国家主席、中央军委主席习近平来到贵州考察调研，看望慰问各族干部群众，向全国各族人民致以美好的新春祝福。这是3日下午，习近平在毕节市黔西县新仁苗族乡化屋村文化广场上，向全国各族人民、港澳台同胞和海外侨胞拜年。 新华社记者 李学仁 摄', '2月3日至5日，习近平在贵州省委书记谌贻琴和省长李炳军陪同下，先后来到毕节、贵阳等地，深入农村、社区、超市等考察调研，给各族干部群众送去党中央的关怀和慰问。', '3日下午，习近平首先来到毕节市考察。毕节曾是西部贫困地区的典型。上世纪80年代，在党中央亲切关怀下，国务院批准建立了毕节“开发扶贫、生态建设”试验区。习近平十分牵挂毕节的发展，党的十八大后3次就毕节试验区工作作出重要指示批示，对推动实施好《深入推进毕节试验区改革发展规划（2013－2020年）》提出了明确要求。30多年来，毕节坚持一张蓝图绘到底，试验区建设取得显著成效，2020年完成了脱贫攻坚任务。', '乌江是贵州省第一大河，也是长江上游右岸最大支流。在毕节市黔西县新仁苗族乡的乌江六冲河段，习近平远眺乌江山水，听取乌江流域水污染防治、生态修复保护、实施禁渔禁捕等情况汇报。', '习近平来到化屋码头，沿江岸步行察看乌江生态环境和水质情况，对当地加强入河排污口管理和水质监测体系建设的做法表示肯定。他强调，要牢固树立绿水青山就是金山银山的理念，守住发展和生态两条底线，努力走出一条生态优先、绿色发展的新路子。', '接着，习近平来到化屋村考察调研。化屋村曾经是深度贫困村，近年来通过发展特色种植养殖和旅游业，实现了贫困人口清零。习近平听取了化屋村巩固拓展脱贫攻坚成果、接续推进乡村振兴、加强基层党建等情况介绍。', '在苗族村民赵玉学家，习近平仔细察看生活居住环境，同赵玉学一家制作当地传统节日食品黄粑，并聊起家常。赵玉学告诉总书记，原来住在不通水、不通电、不通路的麻窝寨，现在住上了二层小楼，水电路都通到了家。习近平听了十分高兴。他指出，就业是巩固脱贫攻坚成果的基本措施。要积极发展乡村产业，方便群众在家门口就业，让群众既有收入，又能兼顾家庭，把孩子教育培养好。他祝福赵玉学一家日子越过越幸福甜美。', '化屋村以苗族为主，是中国民间文化艺术之乡。习近平走进扶贫车间，了解发展特色苗绣产业、传承民族传统文化等情况。他指出，民族的就是世界的。特色苗绣既传统又时尚，既是文化又是产业，不仅能够弘扬传统文化，而且能够推动乡村振兴，要把包括苗绣在内的民族传统文化传承好、发展好。', '村文化广场上，乡亲们正在开展春节民俗活动，打起鼓、吹芦笙，载歌载舞，唱起了欢快的苗家迎客歌。看到总书记来了，大家齐声欢呼“总书记好”。习近平亲切地对乡亲们说，今年我们将迎来全面建成小康社会、实现第一个百年奋斗目标的伟大胜利。中华民族是个大家庭，五十六个民族五十六朵花。全面建成小康社会，一个民族不能落下；全面建设社会主义现代化，一个民族也不能落下。脱贫之后，要接续推进乡村振兴，加快推进农业农村现代化。希望乡亲们继续努力奋斗，把乡村产业发展得更好，把乡村建设得更美。临别时，乡亲们依依不舍簇拥着总书记，齐唱苗家留客歌，深情的歌声在乌江上空久久回荡。', '习近平4日在贵阳市考察调研。他首先来到观山湖区合力惠民生鲜超市，察看春节前市场供应、年货供销、物价运行等情况。惠民生鲜连锁超市由贵阳市政府和农产品流通企业合作建设，打造具有公益性的商品平价零售终端，解决老百姓“买菜难、买菜贵”问题。习近平仔细察看商品价格，了解当地“菜篮子”、“米袋子”、“果盘子”等供应保障情况。他指出，合力惠民生鲜超市的运营模式很有特色，以政府为主导，政府和企业联合，一头连着田间地头的农民，一头连着千家万户的市民，坚持保本微利经营，让农民和市民两头都得实惠，体现了合力惠民，这种模式和经营理念值得推广。', '前来置办年货的群众热情向总书记问好。习近平亲切询问大家年货备齐没有。习近平强调，各级党委、政府和领导干部要把事关百姓切身利益的事情抓实抓好，尤其要落实防疫措施，加强食品安全监管，确保百姓过年安心、放心、舒心。', '观山湖区金阳街道金元社区以党建为引领，积极推行党建网、平安网、民生网“三网融合”，提升了基层治理能力和水平。习近平来到金元社区，了解开展便民服务、加强基层党建等情况。习近平指出，基层强则国家强，基层安则天下安，必须抓好基层治理现代化这项基础性工作。要坚持为民服务宗旨，把城乡社区组织和便民服务中心建设好，强化社区为民、便民、安民功能，做到居民有需求、社区有服务，让社区成为居民最放心、最安心的港湾。', '习近平强调，当前外防输入、内防反弹任务仍然艰巨。为减少疫情传播风险，提倡就地过年。各地区各部门要做好就地过年的服务保障工作，让群众过一个特别而又温馨的春节。', '在社区广场，居民们高声向总书记问好。习近平频频向大家挥手致意，祝福大家新的一年一切都好、好上加好。他强调，过去一年极不平凡，有惊涛骇浪，有奋力拼搏，更有成功和胜利，每个人都感同身受，每个人都了不起。今年我们将开始实施“十四五”规划，开启全面建设社会主义现代化国家新征程，向第二个百年奋斗目标迈进，我们要继续齐心协力干、加油好好干，努力干成一番新事业，干出一片新天地。', '位于贵州省的500米口径球面射电望远镜，是目前世界上最大的单口径射电望远镜，有“中国天眼”之称。5日上午，习近平亲切会见了“中国天眼”项目负责人和科研骨干，听取“中国天眼”建设历程、技术创新、国际合作等情况介绍。习近平指出，“中国天眼”是国家重大科技基础设施，是观天巨目、国之重器，实现了我国在前沿科学领域的一项重大原创突破，以南仁东为代表的一大批科技工作者为此默默工作，无私奉献，令人感动。', '习近平通过视频察看“中国天眼”现场，并同总控室的科技工作者代表连线，向他们并向全国广大科技工作者拜年。习近平强调，全面建设社会主义现代化国家，必须坚持科技为先，发挥科技创新的关键和中坚作用。他勉励广大科技工作者以南仁东等杰出科学家为榜样，大力弘扬科学家精神，勇攀世界科技高峰，在一些领域实现并跑领跑，为加快建设科技强国、实现科技自立自强作出新的更大贡献。', '5日上午，习近平听取了贵州省委和省政府工作汇报，对贵州各项工作取得的成绩给予肯定，希望贵州坚持稳中求进工作总基调，立足新发展阶段、贯彻新发展理念、构建新发展格局，坚持以高质量发展统揽全局，守好发展和生态两条底线，统筹发展和安全工作，在新时代西部大开发上闯新路，在乡村振兴上开新局，在实施数字经济战略上抢新机，在生态文明建设上出新绩，努力开创百姓富、生态美的多彩贵州新未来。', '习近平强调，创新发展是构建新发展格局的必然选择。要着眼于形成新发展格局，推动大数据和实体经济深度融合，培育壮大战略性新兴产业，加快发展现代产业体系。要积极释放消费需求，拓展消费新模式，把消费潜力充分释放出来。要发挥好改革的先导和突破作用，更多解决深层次体制机制问题，多做创新性探索，多出制度性成果。要积极参与西部陆海新通道建设，主动融入粤港澳大湾区发展，加快沿着“一带一路”走出去，以开放促改革、促发展。', '习近平指出，要做好巩固拓展脱贫攻坚成果同乡村振兴有效衔接，加强动态监测帮扶，落实“四个不摘”要求，跟踪收入变化和“两不愁三保障”巩固情况，定期核查，动态清零。要发展壮大扶贫产业，拓展销售渠道，加强对易地搬迁群众的后续扶持。要推动城乡融合发展，推动乡村产业、人才、文化、生态、组织等全面振兴。要继续选派驻村第一书记和农村工作队。', '习近平强调，优良生态环境是贵州最大的发展优势和竞争优势。要牢固树立生态优先、绿色发展的导向，统筹山水林田湖草系统治理，加大生态系统保护力度，科学推进石漠化、水土流失综合治理，不断做好绿水青山就是金山银山这篇大文章。', '习近平指出，共同富裕本身就是社会主义现代化的一个重要目标，要坚持以人民为中心的发展思想，尽力而为、量力而行，主动解决地区差距、城乡差距、收入差距等问题，让群众看到变化、得到实惠。要落实就业优先战略和积极的就业政策，突出解决好教育、养老、医疗、住房等问题，加强疾病预防控制体系建设，推进民法典实施，加强预防和化解社会矛盾机制建设，深化扫黑除恶专项斗争，加强安全生产工作。要支持少数民族和民族地区发展特色优势产业，繁荣发展少数民族文化。', '习近平强调，当年长征时，红军在贵州活动时间最长、活动范围最广，为我们留下宝贵精神财富。遵义会议是我们党历史上一次具有伟大转折意义的重要会议。这次会议在红军第五次反“围剿”失败和长征初期严重受挫的历史关头召开，确立了毛泽东同志在党中央和红军的领导地位，开始确立了以毛泽东同志为主要代表的马克思主义正确路线在党中央的领导地位，开始形成以毛泽东同志为核心的党的第一代中央领导集体，开启了我们党独立自主解决中国革命实际问题的新阶段，在最危急关头挽救了党、挽救了红军、挽救了中国革命。遵义会议的鲜明特点是坚持真理、修正错误，确立党中央的正确领导，创造性地制定和实施符合中国革命特点的战略策略。这在今天仍然具有十分重要的意义。要结合即将开展的党史学习教育，从长征精神和遵义会议精神中深刻感悟共产党人的初心和使命，落实新时代党的建设总要求，实事求是、坚持真理，科学应变、主动求变，咬定目标、勇往直前，走好新时代的长征路。要深入学习党的创新理论，加强党史学习教育，同时学习新中国史、改革开放史、社会主义发展史，不断提高政治判断力、政治领悟力、政治执行力。要把造福人民作为最重要的政绩，坚决反对和克服形式主义、官僚主义。要一体推进不敢腐、不能腐、不想腐，不断净化政治生态，营造风清气正的发展环境。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>293</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>中卫市司法局多项举措推进公共法律服务体系建设</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2018-04-27</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/ssfj/fdzdgknr_49428/bmxx_49458/201811/t20181120_1175073.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['今年以来，中卫市司法局多项举措大力推进公共法律服务体系建设，补短板、强弱项，以公共法律服务为抓手，进一步整合司法行政业务职能和法律服务资源，切实满足基层群众的法律服务需求。', '开展全市公共法律服务体系建设调研督导现场会，确定观摩示范点，增点扩面高质量做好公共法律服务体系建设工作。组织县（区）司法局主要领导和业务骨干观摩学习', '县（区）、镇乡、村居三级公共法律服务体系实体平台建设、职能作用发挥、日常运行管理、一村（居）', '，在所到县（区）召开座谈会，进行再部署，制定任务完成进度表，层层压实领导责任，确保全市公共法律服务体系建设有序推进。', '，听取了相关公共法律服务的经验介绍，并与部分领导和工作人员就公共法律服务进行座谈交流，拓展了视野，开拓了思路，']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>293</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>中卫市直部分事业单位年自主公开招聘工作人员公告</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022-04-29</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202204/t20220429_3485160.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['为满足中卫市直部分事业单位补充工作人员的需要，按照自治区党委组织部、人力资源和社会保障厅《关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等文件有关规定，现就中卫市直部分事业单位2022年自主公开招聘工作人员有关事项公告如下。', '本次招聘计划面向社会公开招聘工作人员11名，其中：中卫市财政局所属事业单位计划招聘5名，市人力资源社会保障局所属事业单位招聘4名，市科协所属事业单位招聘1名，市粮食和物资储备局所属事业单位招聘1名。具体范围、条件等详见《中卫市直部分事业单位2022年自主公开招聘工作人员岗位计划一览表》（附件1）。', '6.符合《中卫市直部分事业单位2022年自主公开招聘工作人员岗位计划一览表》（附件1）中招聘岗位要求的其他资格条件，年龄30周岁以下指1991年4月29日（公告发布之日）以后出生，年龄35周岁以下指1986年4月29日以后出生。', '10.与招聘事业单位负责人有夫妻关系、直系血亲关系、三代以内旁系血亲或者近姻亲关系的应聘者，不得应聘该单位审计、财务岗位，以及有直接上下级领导关系的岗位；', '应聘人员将本人报名表、电子照片、户口本、身份证、学历证、学位证、学籍注册备案表等所需各类材料扫描件建立压缩包（以“姓名+应聘岗位”命名）发送至招聘单位指定邮箱，并打电话确认招聘方是否收到报名材料。留学归国人员符合岗位资格条件报考的，还须提供教育部中国留学服务中心出具的境外学历、学位认证书。本人无宁夏户籍，父母或配偶于公告发布之日前（含当日）取得宁夏户籍的人员（父母含岳父母、公婆，本人与配偶须在公告发布之日前进行婚姻登记），还须提供父母户口本或配偶户口本及结婚证。', '（三）资格审查。应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。招聘单位及主管部门在报名结束后汇总报名人员信息，在组织面试前再次复核应聘人员资格。资格审查严格按照公布的招聘条件进行，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查时，应聘市预算绩效评价服务中心专技岗、市项目预算定额管理中心专技岗、市国有资产监督管理服务中心专技岗、市财政国库支付中心管理岗1和管理岗2的考生，提供岗位要求的学历及学位证书截止时间为报名截止时间，即2022年5月13日，其他岗位提供岗位要求的学历及学位证书截止时间为2022年7月31日。', '资格复审合格的面试人员名单由招聘单位主管部门在中卫市人民政府网站进行公示，公示时间为5个工作日，公示结束后不再递补。', '1.资格复审合格人数达到10人（含10人）以上则增加笔试环节，笔试的考试范围、形式提前在中卫市人民政府网站公告并通知应聘人员。最终按照招聘人数1：3的比例依据笔试成绩排名确定面试人员，笔试成绩不计入总成绩。', '面试形式、时间、地点、人员名单在面试前一周在中卫市人民政府网站进行公布，并要求招聘单位通过打电话、发信息等方式，通知取得面试资格的应聘者参加面试的具体时间、地点、面试形式等。', '面试成绩即为考试总成绩。面试总分为100分，面试成绩达不到60分的，取消应聘资格。所有成绩均保留小数点后面两个数字。考试总成绩出现并列时，当场组织面试人员进行加试，最后按岗位招聘人数1:1的比例，由高分到低分确定体检、考察对象。', '1.体检工作由招聘单位主管部门负责组织实施，邀请并接受同级纪检监察部门对体检工作进行全程监督。', '4.招聘单位或应聘者对体检结论有疑问的，经招聘单位的主管部门同意，可以申请1次复检，复检应安排在不低于原体检医疗机构级别的其他医疗机构进行，体检结果以复检结论为准。应聘者申请复检的，复检费用由应聘者承担。', '2.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、一贯表现、遵纪守法以及是否需要回避等方面的情况，并对应聘者的应聘资格进行复审。', '3.考察中发现应聘者存在本公告中所列不得应聘相关情形的，不具备招聘岗位所需资格条件的，以及其他不宜进入事业单位工作情形的，经招聘单位的主管部门研究确定后，取消应聘资格。', '4.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经各岗位招聘单位的主管部门研究批准，可以延长30日。', '1.根据考试、体检、考察结果，由招聘单位的主管部门研究确定拟聘用人员名单，在中卫市人民政府网站上公示5个工作日。公示期满无异议的拟聘用人员，主管部门报市人力资源和社会保障局办理招聘手续。对反映有影响聘用的问题经查证属实的，不予聘用；对反映涉嫌违规违纪的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20个工作日内）不报到的，取消聘用资格。', '2.招聘单位与受聘人员签订聘用合同（期限一般不低于3年），确立人事关系，并按规定办理相关手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且面试成绩达到60分以上应聘者中，根据考试总成绩按规定依次递补。', '3.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（一）招聘工作在市纪委监委、组织、人社部门监督指导下进行，由招聘单位及主管部门依法依规自主组织实施。考试方案提前两周报市人力资源和社会保障局备案后实施。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格；已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）招聘工作将按照自治区、市新冠肺炎疫情防控要求，严格落实各项防疫措施，根据需要如对工作安排作出调整的，将及时在中卫市人民政府网发布补充公告或通知，请广大应聘者予以关注、理解、支持和配合。', '（五）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '（六）应聘人员要提供正确联系方式，保持通讯畅通，因通讯不畅造成的一些后果由本人承担。', '（八）报考人员请密切关注中卫市人民政府网站有关招聘考试、资格审核、录用等相关通知。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>293</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>增强国防观念强化人防意识</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2021-09-30</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/srmfkbgs/fdzdgknr_50238/zfkfr_50257/ssqk_50259/202109/t20210930_3071155.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['教育和“党政机关作风建设年、干部队伍素质提升年”工作效果，更好地接受社会各界监督，市人防办党组', '推进为民服务的有效尝试，作为实现与群众“零距离”接触和打通服务群众“最后一公里”的重要举措。', '活动中，代表们先后到香山秀府人防工程、文昌镇和润社区人防工作站、文化广场人防疏散场所进行观摩。随后召开了座谈会，就人防办工作进行了汇报，对人防部门的基本情况和主要职能进行了详细讲解。发放人防应急与避险自救常识、人民防空基本常识、爱护人防工程人防办设施、人民防空群众组织等手册。各位代表在认真观看并听取汇报后，对人防工作给予了充分肯定，并提出了“抓好人防宣传教育工作、抓好人防应急演练、抓好人防业务知识培训、经常性组织服务对象、群众开展观摩学习活动”四个方面的意见和建议，会后针对与会代表的意见建议，认真分析研究，制定整改落实清单，并将其作为日后工作的重点方向。', '进行观摩。随后召开了座谈会，就人防办工作进行了汇报，对人防部门的基本情况和主要职能进行了详细讲解。发放人防应急与避险自救常识、人民防空基本常识、爱护人防工程人防办设施、人民防空群众组织等手册。各位代表在认真观看并听取汇报后，对人防工作给予了充分肯定，并提出了“抓好人防宣传教育工作、抓好人防', '进行观摩。随后召开了座谈会，就人防办工作进行了汇报，对人防部门的基本情况和主要职能进行了详细讲解。发放人防应急与避险自救常识、人民防空基本常识、爱护人防工程人防办设施、人民防空群众组织等手册。各位代表在认真观看并听取汇报后，对人防工作给予了充分肯定，并提出了', '个方面的意见和建议，会后针对与会代表的意见建议，认真分析研究，制定整改落实清单，并将其作为日后工作的重点方向。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>293</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>中卫市年自主公开招聘事业编制教师公告</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2021-09-07</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202109/t20210907_3009089.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['为切实解决市直属高中学校教师紧缺问题，根据自治区党委编办、教育厅、人力资源和社会保障厅相关通知要求，按照《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁党办〔2006〕35号)《关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等文件规定，经市委编办、市教育局、市人力资源和社会保障局（以下简称中卫市招聘工作领导小组）研究，决定公开招聘高中教师70名，现将有关事项公告如下：', '2021年计划面向社会自主公开招聘事业编制教师70名。具体范围、条件等详见《中卫市2021年自主公开招聘事业编制教师岗位计划一览表》（附件）。', '5.符合《中卫市2021年自主公开招聘事业编制教师岗位计划一览表》（附件）中招聘岗位要求的资格条件；', '3.填写报名信息。应聘者请务必按照要求填写本人报名信息，每位应聘者只能报考一个岗位，报名与考试时使用的身份证件必须一致。', '应聘者要对填报信息的真实性、准确性负责。对伪造、涂改报名材料，或报名材料、信息不实影响报名审核结果的取消本次应聘资格。', '笔试开考比例（岗位报考人数与招聘人数之比）为3:1，对于比例达不到3∶1的岗位，降低笔试开考比例、减少招聘名额或者取消招聘岗位的，由招聘工作领导小组研究确定，在中卫市人民政府网进行公告。报考岗位被取消的，应聘者需改报其他符合条件的岗位，没有改报的，视为自行放弃。', '中卫中学（含分校）、中卫市第一中学各岗位笔试科目为《教育综合基础理论和学科专业知识》，分值为100分。中卫市职业技术学校各岗位笔试科目为《学科专业知识》，分值为100分。', '中卫市招聘工作领导小组根据笔试情况划定笔试最低分数控制线。按照面试人数与岗位招聘人数3:1的比例从高分到低分确定面试人员名单，笔试成绩低于笔试最低分数控制线者不得参加面试。', '专业性较强、生源较少的岗位可适当降低比例。降低面试开考比例事项，由招聘工作领导小组研究确定后在中卫市人民政府网公告。', '（一）对应聘者的资格审查贯穿招聘工作全过程。凡发现应聘者不符合应聘条件的，随时取消应聘资格。', '（二）面试前复审。市教育局统一收取拟进入面试人员的相关资格证件和材料进行资格复审，复审合格的取得面试资格。', '（三）资格复审合格的面试人员名单由市教育局在中卫市人民政府网公示，公示时间为3个工作日。', '（四）资格复审后市教育局应填写《2021年事业单位公开招聘工作人员面试应聘者资格复审表》一式两份，应聘者与市教育局各留存一份。', '（一）中卫市教育局在纪委监委、人社部门的指导下组织实施市本级事业编制教师招聘面试。', '（二）面试组织提前一周通过中卫市人民政府网发布面试公告，明确面试的具体时间、地点、面试形式等内容，并采取打电话、发信息等方式通知应聘者。', '（三）面试采取试讲（加实操）形式。面试满分为100分，面试成绩达不到60分的，取消应聘资格。', '根据考试总成绩，按岗位招聘计划1：1的比例，从高分到低分确定体检人选。同一岗位出现应聘者考试总成绩相同时，按照笔试成绩从高分到低分确定体检人选；如笔试成绩也相同，通过一定方式组织加试。', '（一）根据考试总成绩排名，按拟招聘人数1:1的比例确定体检和考察对象。体检工作在市人力资源和社会保障局的监督指导下，由市教育局按照公开招聘要求自主组织实施。', '（二）体检在县级以上综合医院进行，体检标准参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)和行业有关规定执行。体检费用由应聘者承担。', '（三）应聘者对体检结果有疑问的，经市教育局同意，可以复检，体检结果以复检结论为准。', '（四）应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '（一）考察工作在中卫市人力资源和社会保障局的监督指导下，由市教育局负责组织实施，具体考察方式和内容按照相关规定执行。', '（二）考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '（三）考察中发现因个人品德差、有不良政治记录的;不具备招聘岗位所需资格条件的;存在本公告中所列不得报考相关情形的;以及存在其他不宜进入事业单位工作的情形，经招聘工作领导小组研究确定后，可取消招聘资格。', '（四）因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。必要时，经招聘工作领导小组研究批准，可以延长30日。', '（一）根据考试、体检、考察结果，由市教育局确定拟招聘人员公示名单，经中卫市人力资源和社会保障局审核后，在中卫市人民政府网进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知20日内)不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '（三）聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用;不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '1.在资格复审阶段，经复审不符合资格条件或自愿放弃的取消应聘资格，出现的空缺名额从报考同一岗位且笔试成绩达到最低分数控制线以上的应聘者中由高分到低分依次递补。', '2.在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且笔试、面试成绩均达到最低分数线以上应聘者中，根据考试总成绩按规定依次递补。', '3.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位不再递补。', '（一）凡涉及本次招聘工作的重大事项或本公告未尽事宜，由中卫市招聘工作领导小组研究决定。', '（二）在招聘组织实施过程中，将按照新冠肺炎疫情防控有关要求，落实防疫措施，必要时将对有关工作安排进行适当调整，并及时在中卫市人民政府网发布补充公告或通知，请广大应聘者予以关注、理解、支持和配合。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '（五）应聘者报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>293</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>我市组织家科技型企业参加年宁夏技术经纪人培训班</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2019-07-17</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/skxjsj/fdzdgknr_49279/bmxx_49310/201907/t20190731_1637347.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['为培育和壮大宁夏技术经理人队伍，促进科技成果转移转化，近日，我市组织11家科技型企业负责人赴南京市参加了“2019年宁夏技术经纪人培训班”。', '技术经纪人是指在技术市场中以促进科技成果转化为目的、为促成他人技术交易而从事居间或代理等经纪业务并取得合理佣金的公民、法人和其他经济组织，是促进科技成果转化的重要桥梁和纽带,也是技术市场的重要组成部分，在推动科技进步、促进技术转化方面起着非常重要的作用。', '本次培训邀请到北京技术市场协会、超凡技术转移转化研究院以及科易创新研究院相关专家给学员授课，课程紧密结合技术经纪实务、技术合同与科技成果转化政策、技术转移的理论体系与技术需求的获取三项内容开展了针对性培训，考察了南大科技园和南京市栖霞区技术转移市场，了解发达省区科技成果转移转化的实践经验和具体做法。', '通过学习，使参训人员充分意识到科技成果转移转化的重要性，对技术合同认定登记政策、技术经纪人开展技术转移服务、科技成果标准化评价等内容有了深入理解，进一步提升了我市技术经纪人从业经验和水平，也为更好地开展我市技术成果转移转化工作奠定了良好的基础。 （工业科技科 刘 丽）']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>293</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>我市与厦门大学签订合作协议</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2018-04-17</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201804/t20180417_737940.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['4月13日，市委常委、副市长王伟带领相关部门负责人赴厦门大学考察学习。随后，中卫创新发展研究院、万齐农业集团、厦门大学三方签订合作协议，将共同组建宁夏食用菌产业技术协同创新中心，在食用菌协同创新研发平台建设、新技术适应性研究及推广应用、技术人员交流培养等领域展开合作。', '座谈会上，王伟介绍了我市的产业发展情况及自治区、中卫市人才引进新政策，希望我市与厦门大学建立交流合作机制，加强人才交流，广泛开展政产学研用具体项目合作。', '宁夏食用菌产业技术协同创新中心的组建，标志着我市以中卫创新发展研究院为依托，在搭建政产学研用“五位一体”协同创新合作平台建设上取得初步成果。下一步，我市将围绕中卫现有产业延链、强链，根据企业实际需求，共同建设实验室和科技创新研发中心，以项目为依托和厦门大学进行全面合作。此外，我市将不断深入实施创新驱动发展战略，围绕精细化工、新能源、新材料、全域旅游、大数据与云计算等优势产业，积极与国内知名高校、科研院所对接，不断扩大政校企合作范围，助推我市产业转型升级、高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>293</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>中卫市年第一批事业单位自主公开招聘高层次青年人才公告</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2023-03-24</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202303/t20230324_4009137.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['为深入实施新时代“人才强市”战略,根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁党办〔2006〕35号)《关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等有关规定,现就中卫市2023年(第一批)事业单位自主公开招聘高层次青年人才有关事项公告如下。', '本次共面向全国公开招聘事业编制人才78名,其中,卫生系统招聘62名、其他单位招聘16名,具体招聘单位、招聘岗位及资格条件等详见《中卫市2023年(第一批)卫生系统所属事业单位自主公开招聘高层次青年人才岗位计划一览表》(附件1)、《中卫市2023年(第一批)其他事业单位自主公开招聘高层次青年人才岗位计划一览表》(附件2)。', '1.年龄35周岁以下具有研究生学历、硕士及以上学位人员。博士研究生年龄可放宽至40周岁。', '2.国(境)外高校研究生学历、硕士及以上学位人员,以教育部出具的学历、学位认证报告为准。', '5.在机关事业单位招(录)聘中被认定有违纪违规行为且被记入诚信档案库仍在记录期的;', '12.与招聘事业单位负责人有夫妻关系、直系血亲关系、三代以内旁系血亲或者近姻亲关系的应聘者,不得应聘该单位负责人员的秘书或者组织(人事)、纪检监察、审计、财务岗位,以及有直接上下级领导关系的岗位;', '对博士研究生采取直接考核考察方式招聘。对硕士研究生采取面试方式招聘,对资格初审合格人数与招聘岗位数之比超过25:1的岗位,将通过增加笔试方式以3:1比例依据笔试成绩从高分到低分的顺序确定面试人选(笔试成绩不计入总成绩)。', '每位应聘者只能报考一个岗位,报名与面试时使用的身份证件必须一致。应聘者要对填报信息的真实性、准确性负责。对伪造、涂改报名材料,或报名材料、信息不实影响报名审核结果的将取消本次应聘资格。', '每位应聘者只能报考一个岗位,报名与面试时使用的身份证件必须一致。应聘者要对填报信息的真实性、准确性负责。', '3.资格初审:资格初审单位应在应聘者提交报名申请1个工作日内审核完毕(特殊情况,经领导小组研究后于3个工作日内予以反馈)。应聘者应在提交完整报名信息1个工作日后,电话查询资格初审结果(报名日最后一天报名的应在当日及时查询)。应聘者未通过资格初审的,可在报名截止前改报其他岗位;未通过资格初审且未在报名截止前改报其他岗位的视为放弃。如应聘者在报名日最后一天提交报名信息,因不符合该岗位报考的资格条件,资格初审单位做审核“未通过”处理的,在报名结束后,应聘者将不得再申请改报其他岗位。资格初审工作按隶属关系由各招聘单位的主管部门负责。', '资格初审合格的人员名单由市直各招聘单位主管部门或县(区)人力资源和社会保障部门在报名结束5个工作日内,报市人力资源和社会保障部门在中卫市人民网站上公示,公示时间为3个工作日。', '2.面试内容根据实际和岗位需要,采取结构化、半结构化面试方式进行。结构化面试主要测评综合素质,包括综合分析能力、计划组织协调能力、处理人际关系能力、应变能力、逻辑思维、言语表达能力、举止仪表等要素。半结构化面试除测评综合素质外,主要测试与岗位有关专业能力和技能、技术水平,测评方式可结合岗位需求实际采取专业能力笔试、技能测试、实际操作等方式。', '面试方式由市直各招聘单位的主管部门或县(区)人力资源和社会保障部门根据实际和岗位需要确定,至少提前一周通过指定网站发布面试公告,主要明确面试时间、地点、形式和各种面试方式在整个面试中所占的分值比例等内容,并通过打电话或发信息等方式通知应聘者。', '3.面试成绩采用百分制,最低合格分数线为60分,低于最低合格分数线的视为不合格,不予进行体检和考察。面试成绩即为总成绩。同一岗位出现应聘者面试成绩相同时,当场组织加试。', '4.面试开考比例为1:3。未达到开考比例,但确属我市重点产业、急需紧缺专业的岗位可适当降低面试开考比例。降低面试开考比例、减少招聘名额或者取消招聘岗位的,市直各招聘单位由主管部门提出意见,县(区)事业单位由县(区)招聘工作领导小组提出意见,报请市领导小组办公室审核研究后,在指定网站发布公告。对应聘人数与招聘岗位数之比超过25:1的岗位,将通过增加笔试方式以3:1比例依据笔试成绩从高分到低分的顺序确定面试人选(笔试成绩不计入总成绩)。笔试成绩相同,同时进入面试环节。面试具体时间、地点等相关事宜以指定网站发布的面试公告为准。', '根据面试成绩从高分到低分排名,按拟招聘人数1:1的比例确定体检和考察(含资格复审)人选。体检与考察(含资格复审)工作由市直各招聘单位的主管部门或县(区)人力资源和社会保障部门具体负责。体检与考察具体时间及要求等将通过打电话、发信息的形式通知拟体检和考察(含资格复审)人员,未按规定时间、地点参加的,视为弃权。', '1.体检。体检标准和项目参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)执行,事业单位特殊行业对从业人员身体有特殊规定的从其规定。体检费用由应聘人员承担。对心率、视力、听力、血压等项目达不到体检合格标准的,应当日复检;对边缘性心脏杂音、病理性心电图、病理性杂音、频发早搏(心电图证实)等项目达不到体检合格标准的,应当场复检。应聘者对非当日、非当场复检的体检项目结果有疑问时,可以在接到体检结论通知之日起7日内,向体检实施机关提交复检申请,体检实施机关应按照规定程序尽快安排应聘者复检。体检实施机关对体检结论有疑问的,在接到体检结论通知之日起7日内决定是否进行复检。复检只能进行1次,体检结果以复检结论为准。体检合格的应聘人员确定为考察人选。未按要求完成体检的,视为自动放弃应聘资格。', '2.考察(含资格复审)。考察工作按照德才兼备、以德为先的用人标准,重点考察应聘者的政治思想、道德品质、能力素质、一贯表现、遵纪守法以及是否需要回避等方面的情况,并对应聘者的应聘资格进行复审。资格复审工作重点核查应聘人员有效居民身份证、毕业证书、学位证书、教育部证书电子注册备案表、国外学历学位认证书(留学人员提供)及相关资格证书及岗位资格复审表等。2023年应届毕业生须在7月31日前提供证件资料原件进行资格复审,因非不可抗力原因无法提供的,取消拟招聘资格。资格审查贯穿引才工作全过程,凡发现应聘者不符合应聘条件的,随时取消应聘资格。', '1.根据面试、体检、考察结果确定拟聘用人员名单,并在指定网站公示5个工作日。公示期满无异议的,确定为聘用人员,市直各招聘单位主管部门或县(区)人力资源和社会保障部门将聘用人员材料送市人力资源和社会保障部门审核备案,办理各项手续。', '对反映有影响聘用的问题经查证属实的,不予聘用;对反映涉嫌违规违纪的问题一时难以查实的,暂缓聘用,待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知20个工作日内)不报到的,取消聘用资格。', '2.招聘单位与受聘人员签订聘用合同(期限一般不低于3年),确立人事关系,并按规定办理相关手续。', '3.聘用人员按规定实行试用期制度,试用期包括在聘用合同期限内。试用期满考核合格的,正式聘用;不合格的,取消聘用资格。', '4.新聘用人员属2023年应届毕业生的,在规定时限内正式取得岗位所要求的学历、学位、资格证后再进行公示,公示期满无异议的按规定办理聘用手续。', '(1)在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位,可从应聘同一岗位且面试成绩均到合格线以上的应聘者中,按面试成绩从高分到低分的顺序依次递补。', '(2)体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件,核实后取消应聘资格,出现的空缺岗位,可从应聘同一岗位且面试成绩达到合格线以上的应聘者中,按面试成绩从高分到低分的顺序依次递补。', '按照《国家卫生健康委员会办公厅 公安部办公厅 人力资源和社会保障部办公厅 国家中医药管理局办公室关于贯彻落实住院医师规范化培训“两个同等对待”政策的通知》(国卫办科教发〔2021〕18号)《自治区卫生健康委 公安厅 人力资源和社会保障厅关于贯彻落实住院医师规范化培训“两个同等对待”政策的通知》(宁卫发〔2022〕112号)有关规定,招聘临床医学、口腔医学、中医学硕士研究生的岗位,住培合格、培训专业符合招聘岗位所需专业、且符合其他报名资格条件的本科学历医师,均可报名参加,须在考察(资格复审)时提供住培合格证书,考察(资格复审)前无法提供的,取消聘用资格。', '(一)《公告》由中卫市2023年事业单位自主公开招聘高层次青年人才工作领导小组办公室负责解释。凡涉及本次招聘工作的重大事项或本公告未尽事宜,由领导小组或领导小组办公室研究决定。', '(三)招聘工作的具体政策、注意事项及根据需要如对工作安排作出调整的,均在指定网站进行详述,请应聘人员及时关注并认真阅读。', '(四)招聘工作违纪违规行为的认定和处理,按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行,构成犯罪的,依法追究刑事责任。', '(五)招聘单位相关人员、应聘人员在办理公开招聘相关事项时需要回避的,应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '(六)应聘人员报名时所留电话应保持畅通,因电话不畅通导致招聘单位无法通知相关事宜的,责任由应聘者承担。', '(七)本次招聘工作不指定考试辅导用书,不举办也不委托任何机构举办考试辅导班。请广大应聘者提高警惕,谨防上当受骗。', '中卫市2023年（第一批）卫生系统所属事业单位自主公开招聘高层次青年人才岗位计划一览表']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>293</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>中卫市教育局年事业单位自主公开招聘高层次青年人才公告</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202306/t20230616_4148538.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['为深入实施新时代“人才强市”战略，根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号)《关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等有关规定，现就中卫市教育局2023年事业单位自主公开招聘高层次青年人才有关事项公告如下。', '本次共面向全国公开招聘事业编制人才26名。具体招聘单位、招聘岗位及资格条件等详见《中卫市教育局2023年事业单位自主公开招聘高层次青年人才岗位计划一览表》（附件1）。', '1.年龄35周岁以下具有研究生学历、硕士及以上学位人员。博士研究生年龄可放宽至40周岁。', '2.国（境）外高校研究生学历、硕士及以上学位人员，以教育部出具的学历、学位认证报告为准。', '5.在机关事业单位招（录）聘中被认定有违纪违规行为且被记入诚信档案库仍在记录期的；', '对博士研究生采取直接考核考察方式招聘。对硕士研究生采取面试方式招聘，对资格初审合格人数与招聘岗位数之比超过25:1的岗位，将通过增加笔试方式以3:1比例依据笔试成绩从高分到低分的顺序确定面试人选（笔试成绩不计入总成绩）。', '3.资格初审：资格初审应在应聘者提交报名申请1个工作日内审核完毕（特殊情况，经领导小组研究后于3个工作日内予以反馈）。应聘者应在提交完整报名信息1个工作日后，电话查询资格初审结果（报名日最后一天报名的应在当日及时查询）。应聘者未通过资格初审的，可在报名截止前改报其他岗位；未通过资格初审且未在报名截止前改报其他岗位的视为放弃。如应聘者在报名日最后一天提交报名信息，因不符合该岗位报考的资格条件，资格初审单位做审核“未通过”处理的，在报名结束后，应聘者将不得再申请改报其他岗位。资格初审合格的人员名单在报名结束5个工作日内，在中卫市人民政府网站上公示，公示时间为3个工作日。', '1.招聘面试工作由中卫市教育局2023年事业单位自主公开招聘高层次青年人才工作领导小组集中组织实施。', '2.面试内容根据实际和岗位需要，采取半结构化面试方式进行。主要测评综合素质，包括综合分析能力、计划组织协调能力、处理人际关系能力、应变能力、逻辑思维、言语表达能力、举止仪表等要素。除测评综合素质外，测试与岗位有关专业能力和技能、技术水平，测评方式可结合岗位需求实际采取技能测试、实际操作等方式。面试方式由中卫市教育局2023年事业单位自主公开招聘高层次青年人才工作领导小组根据实际和岗位需要，至少提前一周通过指定网站发布面试公告，主要明确面试时间、地点、形式和各种面试方式在整个面试中所占的分值比例等内容，并通过打电话或发信息等方式通知应聘者。', '3.面试成绩采用百分制，最低合格分数线为60分，低于最低合格分数线的视为不合格，不予进行体检和考察。面试成绩即为总成绩。同一岗位出现应聘者面试成绩相同时，当场组织加试。', '4.面试开考比例为1:3。未达到开考比例，但确属急需紧缺专业的岗位可适当降低面试开考比例。降低面试开考比例、减少招聘名额或者取消招聘岗位的，由中卫市教育局招聘高层次青年人才工作领导小组审定后，在指定网站发布公告。对应聘人数与招聘岗位数之比超过25:1的岗位，将通过增加笔试方式，按3:1比例依据笔试成绩从高分到低分的顺序确定面试人选（笔试成绩不计入总成绩）。笔试成绩相同，同时进入面试环节。面试具体时间、地点等相关事宜以指定网站发布的面试公告为准。', '根据面试成绩从高分到低分排名，按拟招聘人数1:1的比例确定体检和考察(含资格复审)人选。体检与考察具体时间及要求等将通过打电话、发信息的形式通知拟体检和考察(含资格复审)人员，未按规定时间、地点参加的，视为弃权。', '1.体检。体检标准和项目参照《公务员录用体检通用标准(试行)》（人社部发〔2016〕140号）执行，事业单位特殊行业对从业人员身体有特殊规定的从其规定。体检费用由应聘人员承担。对心率、视力、听力、血压等项目达不到体检合格标准的，应当日复检；对边缘性心脏杂音、病理性心电图、病理性杂音、频发早搏（心电图证实）等项目达不到体检合格标准的，应当场复检。应聘者对非当日、非当场复检的体检项目结果有疑问时，可以在接到体检结论通知之日起7日内，向体检实施机关提交复检申请，体检实施机关应按照规定程序尽快安排应聘者复检。体检实施机关对体检结论有疑问的，在接到体检结论通知之日起7日内决定是否进行复检。复检只能进行1次，体检结果以复检结论为准。体检合格的应聘人员确定为考察人选。未按要求完成体检的，视为自动放弃应聘资格。', '2.考察（含资格复审）。考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、一贯表现、遵纪守法以及是否需要回避等方面的情况，并对应聘者的应聘资格进行复审。资格复审工作重点核查应聘人员有效居民身份证、毕业证书、学位证书、教育部证书电子注册备案表、国外学历学位认证书（留学人员提供）及相关资格证书及岗位资格复审表等。2023年应届毕业生须在7月31日前提供证件资料原件进行资格复审，因非不可抗力原因无法提供的，取消拟招聘资格。资格审查贯穿引才工作全过程，凡发现应聘者不符合应聘条件的，随时取消应聘资格。', '1.根据面试、体检、考察结果确定拟聘用人员名单，并在指定网站公示5个工作日。公示期满无异议的，确定为聘用人员，并将聘用人员材料送市人力资源和社会保障部门审核备案，办理各项手续。对反映有影响聘用的问题经查证属实的，不予聘用；对反映涉嫌违规违纪的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20个工作日内）不报到的，取消聘用资格。', '2.招聘单位与受聘人员签订聘用合同期限一般不低于3年，确立人事关系，并按规定办理相关手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。', '4.新聘用人员属2023年应届毕业生的，在规定时限内正式取得岗位所要求的学历、学位、资格证后再进行公示，公示期满无异议的按规定办理聘用手续。', '（1）在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位，可从应聘同一岗位且面试成绩达到合格线以上的应聘者中，按面试成绩从高分到低分的顺序依次递补。', '（2）体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位，可从应聘同一岗位且面试成绩达到合格线以上的应聘者中，按面试成绩从高分到低分的顺序依次递补。', '（一）《公告》由中卫市教育局2023年事业单位自主公开招聘高层次青年人才工作领导小组办公室负责解释。凡涉及本次招聘工作的重大事项或本公告未尽事宜，由领导小组或领导小组办公室研究决定。', '（三）招聘工作的具体政策、注意事项及根据需要如对工作安排作出调整的，均在指定网站进行详述，请应聘人员及时关注并认真阅读。', '（四）招聘工作违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（五）招聘单位相关人员、应聘人员在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》（人社部规〔2019〕1号）相关要求提出回避。', '（六）应聘人员报名时所留电话应保持畅通，因电话不畅通导致招聘单位无法通知相关事宜的，责任由应聘者承担。', '（七）本次招聘工作不指定考试辅导用书，不举办也不委托任何机构举办考试辅导班。请广大应聘者提高警惕，谨防上当受骗。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>293</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>我市加强监督严肃换届纪律</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2016-09-27</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201609/t20160927_597336.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['今年，我市高度重视换届风气监督工作，在严肃“九个严禁、九个一律”纪律要求的同时，充分发挥群众在换届中的监督作用，确保换届工作风清气正。', '我市在充分利用媒体平台，广泛宣传“九个严禁”“九个一律”等换届纪律和相关政策的同时，帮助换届工作人员、监督人员加深对干部选拔任用工作的理解和认识，换届工作人员和监督人员再向群众解释清楚选举环节和选举程序。组织领导干部和换届工作机构人员、“两代表一委员”学习“一片一书”，思想上筑牢防线，不踩“红线”。两县一区组织观看廉政教育片《镜鉴》、学习《严肃换届纪律文件选编》3456人次；印制并发放换届相关资料37000余份；发送换届政策、纪律宣传短信24680条，广泛宣传换届纪律，增强社会监督力。', '建立县（区）、乡领导班子换届风气监督员队伍，从党政机关、企事业单位和乡镇干部及“两代表一委员”中选聘换届工作监督员，变“单打独斗”为“人人参与”。在换届考察中，两县一区共选聘81名监督员。要求领导干部家属吹好“廉政风”、当好“贤内助”，做好8小时以外监督。健全了举报信息受理工作机制，畅通群众举报监督渠道。市县（区）对纪检机关“12388”举报电话和组织部门“12380”举报电话、举报网站、举报短信安排专人24小时值守，随时受理群众举报。', '结合“两学一做”学习教育，督促各党组织、党员干部学习换届选举政策、法律、法规，增强纪律观念自觉接受群众监督。各县（区）党委书记作“三带头、五决不”公开承诺，带头匡正选人用人风气。各级组织部门就严格遵守换届纪律，严肃换届纪律工作向社会作出公开承诺，自觉接受党员和群众的监督。各县区都建立了换届工作舆情突发事件应急处置机制，加强对换届舆情的实时监控，营造良好的舆论监督环境。目前，全市39个乡镇党代会已全部召开，选举产生了新一届党委班子和出席上级党代会党代表，没有收到群众对违反换届纪律问题的反映。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>293</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>中卫市年第三批事业单位自主公开招聘高层次青年人才公告</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202305/t20230509_4058309.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['为深入实施新时代“人才强市”战略,根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁党办〔2006〕35号)《关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等有关规定,现就中卫市2023年(第三批)事业单位自主公开招聘高层次青年人才有关事项公告如下。', '本次共面向全国公开招聘事业编制人才65名,其中,卫生系统50名、教育系统招聘7名、其他单位招聘8名,具体招聘单位、招聘岗位及资格条件等详见《中卫市2023年(第三批)卫生系统所属事业单位自主公开招聘高层次青年人才岗位计划一览表》(附件1)《中卫市2023年(第三批)教育系统所属事业单位自主公开招聘高层次青年人才岗位计划一览表》(附件2)、《中卫市2023年(第三批)其他事业单位自主公开招聘高层次青年人才岗位计划一览表》(附件3)。', '1.年龄35周岁以下具有研究生学历、硕士及以上学位人员。博士研究生年龄可放宽至40周岁。', '2.国(境)外高校研究生学历、硕士及以上学位人员,以教育部出具的学历、学位认证报告为准。', '5.在机关事业单位招(录)聘中被认定有违纪违规行为且被记入诚信档案库仍在记录期的;', '12.与招聘事业单位负责人有夫妻关系、直系血亲关系、三代以内旁系血亲或者近姻亲关系的应聘者,不得应聘该单位负责人员的秘书或者组织(人事)、纪检监察、审计、财务岗位,以及有直接上下级领导关系的岗位;', '对博士研究生采取直接考核考察方式招聘。对硕士研究生采取面试方式招聘,对资格初审合格人数与招聘岗位数之比超过25:1的岗位,将通过增加笔试方式以3:1比例依据笔试成绩从高分到低分的顺序确定面试人选(笔试成绩不计入总成绩)。', '每位应聘者只能报考一个岗位,报名时与面试时使用的身份证件必须一致。应聘者要对填报信息的真实性、准确性负责。对伪造、涂改报名材料,或报名材料、信息不实影响报名审核结果的将取消本次应聘资格。', '3.资格初审:资格初审单位应在应聘者提交报名申请1个工作日内审核完毕(特殊情况,经领导小组研究后于3个工作日内予以反馈)。应聘者应在提交完整报名信息1个工作日后,电话查询资格初审结果(报名日最后一天报名的应在当日及时查询)。应聘者未通过资格初审的,可在报名截止前改报其他岗位;未通过资格初审且未在报名截止前改报其他岗位的视为放弃。如应聘者在报名日最后一天提交报名信息,因不符合该岗位报考的资格条件,资格初审单位做审核“未通过”处理的,在报名结束后,应聘者将不得再申请改报其他岗位。资格初审工作按隶属关系由各招聘单位的主管部门负责。', '资格初审合格的人员名单由市直各招聘单位主管部门或县(区)人力资源和社会保障部门在报名结束后5个工作日内,报市人力资源和社会保障部门在中卫市人民网站上公示,公示时间为3个工作日。', '2.面试内容根据实际和岗位需要,采取结构化、半结构化面试方式进行。结构化面试主要测评综合素质,包括综合分析能力、计划组织协调能力、处理人际关系能力、应变能力、逻辑思维、言语表达能力、举止仪表等要素。半结构化面试除测评综合素质外,主要测试与岗位有关的专业能力和技能、技术水平,测评方式可结合岗位需求实际采取专业能力笔试、技能测试、实际操作等方式。', '面试方式由市直各招聘单位的主管部门或县(区)人力资源和社会保障部门根据实际和岗位需要确定,至少提前一周通过指定网站发布面试公告,主要明确面试时间、地点、形式和各种面试方式在整个面试中所占的分值比例等内容,并通过打电话或发信息等方式通知应聘者。', '3.面试成绩采用百分制,最低合格分数线为60分,低于最低合格分数线的视为不合格,不予进行体检和考察。面试成绩即为总成绩。同一岗位出现应聘者面试成绩相同时,当场组织加试。', '4.面试开考比例为1:3。未达到开考比例,但确属我市重点产业、急需紧缺专业的岗位可适当降低面试开考比例。降低面试开考比例、减少招聘名额或者取消招聘岗位的,市直各招聘单位由主管部门提出意见,县(区)事业单位由县(区)招聘工作领导小组提出意见,报请市领导小组办公室审核研究后,在指定网站发布公告。对应聘人数与招聘岗位数之比超过25:1的岗位,将通过增加笔试方式以3:1比例依据笔试成绩从高分到低分的顺序确定面试人选(笔试成绩不计入总成绩)。笔试成绩相同的,同时进入面试环节。面试具体时间、地点等相关事宜以指定网站发布的面试公告为准。', '根据面试成绩从高分到低分排名,按拟招聘人数1:1的比例确定体检和考察(含资格复审)人选。体检与考察(含资格复审)工作由市直各招聘单位的主管部门或县(区)人力资源和社会保障部门具体负责。体检与考察具体时间及要求等将通过打电话、发信息的形式通知拟体检和考察(含资格复审)人员,未按规定时间、地点参加的,视为弃权。', '1.体检。体检标准和项目参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)执行,事业单位特殊行业对从业人员身体有特殊规定的从其规定。体检费用由应聘人员承担。对心率、视力、听力、血压等项目达不到体检合格标准的,应当日复检;对边缘性心脏杂音、病理性心电图、病理性杂音、频发早搏(心电图证实)等项目达不到体检合格标准的,应当场复检。应聘者对非当日、非当场复检的体检项目结果有疑问时,可以在接到体检结论通知之日起7日内,向体检实施机关提交复检申请,体检实施机关应按照规定程序尽快安排应聘者复检。体检实施机关对体检结论有疑问的,在接到体检结论通知之日起7日内决定是否进行复检。复检只能进行1次,体检结果以复检结论为准。体检合格的应聘人员确定为考察人选。未按要求完成体检的,视为自动放弃应聘资格。', '2.考察(含资格复审)。考察工作按照德才兼备、以德为先的用人标准,重点考察应聘者的政治思想、道德品质、能力素质、一贯表现、遵纪守法以及是否需要回避等方面的情况,并对应聘者的应聘资格进行复审。资格复审工作重点核查应聘人员有效居民身份证、毕业证书、学位证书、教育部证书电子注册备案表、国外学历学位认证书(留学人员提供)及相关资格证书及岗位资格复审表等。2023年应届毕业生须在7月31日前提供证件资料原件进行资格复审,因非不可抗力原因无法提供的,取消拟招聘资格。资格审查贯穿引才工作全过程,凡发现应聘者不符合应聘条件的,随时取消应聘资格。', '1.根据面试、体检、考察结果确定拟聘用人员名单,并在指定网站公示5个工作日。公示期满无异议的,确定为聘用人员,市直各招聘单位主管部门或县(区)人力资源和社会保障部门将聘用人员材料送市人力资源和社会保障部门审核备案,办理各项手续。', '对反映有影响聘用的问题经查证属实的,不予聘用;对反映涉嫌违规违纪的问题一时难以查实的,暂缓聘用,待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知20个工作日内)不报到的,取消聘用资格。', '2.招聘单位与受聘人员签订聘用合同(期限一般不低于3年),确立人事关系,并按规定办理相关手续。', '3.聘用人员按规定实行试用期制度,试用期包括在聘用合同期限内。试用期满考核合格的,正式聘用;不合格的,取消聘用资格。', '4.新聘用人员属2023年应届毕业生的,在规定时限内正式取得岗位所要求的学历、学位、资格证后再进行公示,公示期满无异议的按规定办理聘用手续。', '(1)在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位,可从应聘同一岗位且面试成绩均到合格线以上的应聘者中,按面试成绩从高分到低分的顺序依次递补。', '(2)体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件,核实后取消应聘资格,出现的空缺岗位,可从应聘同一岗位且面试成绩达到合格线以上的应聘者中,按面试成绩从高分到低分的顺序依次递补。', '按照《国家卫生健康委员会办公厅 公安部办公厅 人力资源和社会保障部办公厅 国家中医药管理局办公室关于贯彻落实住院医师规范化培训“两个同等对待”政策的通知》(国卫办科教发〔2021〕18号)《自治区卫生健康委 公安厅 人力资源和社会保障厅关于贯彻落实住院医师规范化培训“两个同等对待”政策的通知》(宁卫发〔2022〕112号)有关规定,招聘临床医学、口腔医学、中医学硕士研究生的岗位,住培合格、培训专业符合招聘岗位所需专业、符合其他报名资格条件的本科学历医师,均可报名参加,须在考察(资格复审)时提供住培合格证书,考察(资格复审)前无法提供的,取消聘用资格。', '(一)《公告》由中卫市2023年事业单位自主公开招聘高层次青年人才工作领导小组办公室负责解释。凡涉及本次招聘工作的重大事项或本公告未尽事宜,由领导小组或领导小组办公室研究决定。', '(三)招聘工作的具体政策、注意事项及根据需要如对工作安排作出调整的,均在指定网站进行详述,请应聘人员及时关注并认真阅读。', '(四)招聘工作违纪违规行为的认定和处理,按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行,构成犯罪的,依法追究刑事责任。', '(五)招聘单位相关人员、应聘人员在办理公开招聘相关事项时需要回避的,应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '(六)应聘人员报名时所留电话应保持畅通,因电话不畅通导致招聘单位无法通知相关事宜的,责任由应聘者承担。', '(七)本次招聘工作不指定考试辅导用书,不举办也不委托任何机构举办考试辅导班。请广大应聘者提高警惕,谨防上当受骗。', '附件:1.中卫市2023年（第三批）卫生系统所属事业单位自主公开招聘高层次青年人才岗位计划一览表', '中卫市2023年（第三批）卫生系统所属事业单位自主公开招聘高层次青年人才岗位计划一览表', '中卫市2023年（第三批）教育系统所属事业单位自主公开招聘高层次青年人才岗位计划一览表']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>293</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>关于印发市教育系统年普法依法治理工作要点的通知</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2021-06-25</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sjyj/fdzdgknr_49236/bmwj_49273/202107/t20210706_2914172.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['根据自治区教育厅《全区教育系统普法依法治理工作要点》和市委全面依法治市委员会普法协调小组《中卫市2021年普法依法治理工作安排》精神，结合工作实际，制定了《2021年全市教育系统普法依法治理工作要点》，现印发给你们，请认真抓好落实。', '2021年全市教育系统普法依法治理工作的总体要求是：以习近平新时代中国特色社会主义思想为指导，深入贯彻落实习近平法治思想和中央全面依法治国工作会议精神，全面落实习近平总书记视察宁夏重要讲话精神，以全面提升市教育事业法治化水平为总目标，以弘扬法治精神、培育法治信仰、推动法治实践为主要任务，深入开展宪法宣传教育，全面落实普法责任制，以法治思维和法治方式推动教育改革发展，加快构建政府依法行政、学校依法办学、教师依法执教、社会依法支持和参与教育治理的新格局。自觉运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定，全面推进市教育治理体系和治理能力现代化，为努力建设黄河流域生态保护和高质量发展先行市，继续建设经济繁荣民族团结环境优美人民富裕的美丽新宁夏营造良好的法治环境。', '1.加强学习宣传，推动习近平法治思想入脑入心。将深入学习宣传贯彻习近平法治思想作为普法依法治理工作的首要任务，牢牢把握正确的政治方向、舆论导向和价值取向。制定2021年局党组理论学习中心组及局机关干部法治理论学习方案，学习习近平总书记全面依法治国新理念、新思想、新战略；学习中国特色社会主义法治基本理论、全面依法治国基本观点。将习近平法治思想列入机关干部教育培训，列入学校思政课骨干教师培训的必修课程，作为学校思想政治教育的重要内容。', '2.把习近平法治思想贯彻落实到普法全过程、各环节。推动习近平法治思想进机关、进校园，推动各学校（幼儿园）建立学习宣传习近平法治思想专区、专栏，引导全体师生坚定不移走中国特色社会主义法治道路。各县（区）教育（体育）局、学校结合实际，建设各类法治宣传阵地，保障法治教育效果。各学校要以重要时间节点为抓手，充分利用校报校刊、校园广播站、法治宣传栏、黑板报、 图书角、学校网络空间、电子屏等载体广泛宣传与青少年学生学习、生活密切相关的法律法规，加强普法宣传教育。', '2.把习近平法治思想贯彻落实到普法全过程、各环节。推动习近平法治思想进机关、进校园，推动各学校（幼儿园）建立学习宣传习近平法治思想专区、专栏，引导全体师生坚定不移走中国特色社会主义法治道路。各县（区）教育（体育）局、学校结合实际，建设各类法治宣', '3.制定市教育系统“八五”普法实施方案。依据教育厅、中卫市“八五”普法规划，结合市教育系统工作实际，科学把握新时代法治宣传教育工作的形势任务，广泛征集教职员工对“八五”普法规划的意见建议，科学编制市教育系统“八五”普法实施方案。各县（区）教育（体育）局、学校要结合本单位、学校普法工作实际，认真做好“八五”普法《规划》的制定和实施。', '4.及时启动市教育系统“八五”普法工作。指导全市教育行政部门落实“八五”规划、制定实施方案、全面动员部署。利用各种宣传阵地和平台载体，全方位、多渠道集中宣传“八五”普法规划的新内容、新要求、新举措，营造教育系统贯彻落实区、市“八五”普法规划的浓厚氛围，进一步掀起法治宣传教育新高潮，确保“八五”普法开好局、起好步。各县（区）教育（体育）局、学校要及时召开“八五”普法启动会，认真总结宣传“七五”普法以来学校普法工作取得的经验和成绩，对“八五”普法工作进行动员部署。', '4.及时启动市教育系统“八五”普法工作。指导全市教育行政部门落实“八五”规划、制定实施方案、全面动员部署。利用各种宣传阵地和平台载体，全方位、多渠道集中宣传“八五”普法规划的新内容、新要求、新举措，营造教育系统贯彻落实区、市“八五”普法规划的浓厚氛围，进一步掀起法治宣传教育新高潮，确保“八五”普法开好局、起好步。各县（区）教育（', '5.着力培育领导干部法治思维。认真落实《关于加强国家工作人员学法用法工作的意见》《党政主要负责人履行推进法治建设第一责任人职责规定》，严格党组（委）中心组学法、重大决策前专题学法、职务晋升学法考试等制度，健全完善领导干部学法清单制度，按分管业务领域分别明确应知应会法律目录，做为领导干部学法基本任务、法治素养评估基本依据和年度述法基本内容。积极组织参与庭审旁听，不断强化工作人员运用法治思维和法治方式开展工作、解决问题、推动发展的能力，杜绝领导班子成员及工作人员违法违纪行为发生。各县（区）教育（体育）局、学校要把教师学法、用法纳入学校工作总体布局，细化各项制度措施，与教学工作同部署、同检查、同落实。要健全完善党委（党组）中心组学法、日常学法、法治培训、定期法律考试和依法决策、依法履职等制度，开展领导班子和领导干部述法工作。加强对在职干部学法用法工作的考核评估, 把能不能遵守法律、依法办事作为考察干部的重要依据。', '6.大力强化行政执法人员依法办事意识。加强教育行政执法人员队伍建设，建立行政执法人员常态化培训机制，落实行政执法队伍准入、培训、考试制度，坚持集中学与各自学相结合、统一培训与专家辅导相结合，通过座谈会、专题讲座、网络法律知识竞赛等多种形式开展学法工作，不断提升规矩、规范和边界意识。开展和参与执法人员技能大赛，通过模拟听证、执法记录仪使用、案卷制作评比等比武竞赛活动，全面提升行政执法队伍专业化正规化水平。开展行政执法“三项制度”标准化规范化建设，广泛宣传行政处罚法，将新行政处罚法纳入教育行政执法人员及教育行政执法监督人员培训重点内容，指导教育行政执法人员正确理解、正确适用行政处罚法，当好行政处罚法的宣传者、实践者、推动者。', '7.加强青少年法治教育。全面落实《青少年法治教育大纲》，开齐开足《思想道德》《道德与法治》课程，坚持课堂教学与课外活动相结合，在入学仪式、入队仪式、毕业仪式、成人仪式等活动中设置法治教育环节。充分运用信息化手段，构建多元法治宣传教育途径，全面开展青春期教育、安全自护教育、社会交往教育、网络安全教育，提升学生的自护意识和自救意识。举办模拟法庭、青少年成人礼等活动，丰富青少年法治实践体验。发挥法治副校长和学校法律顾问作用，与公、检、法、司等部门联合开展学生法治教育活动，采用情景模拟、角色扮演、案例研讨等多种教学方法，培养学生法治思维能力。组织参加“学宪法讲宪法”和民法典联动宣传教育进学校等活动。', '8.常态化开展宪法学习宣传教育活动。根据教育厅和中卫市的统一部署，在全市教育系统广泛开展“尊崇宪法、学习宪法、遵守宪法、维护宪法、运用宪法”宣传教育活动，推动宪法精神深入人心。组织开展2021年“12·4”国家宪法日和“宪法宣传周”集中宣传活动，不断强化全体师生对宪法和中国特色社会主义制度的政治认同、思想认同、法治认同、情感认同和事实认同。各学校要充分利用团队活动、课外实践、国旗下讲话、主题班会、专题讲座、法治报告会等形式，积极开展法治教育“八个一”活动；通过手抄报、黑板报、法治 绘画、法律知识竞赛、学宪法演讲、法治故事、学法守法签名与宣誓、中高年级学生晨读宪法等活动，广泛开展法治教育实践，不断扩大学生的法律知识面，增强学生用法水平。', '9.深入开展党内法规主题宣传教育活动。以建党100周年为契机，深入学习宣传习近平总书记关于党史学习教育的重要讲话及全面从严治党的重要论述，突出学习宣传党章，教育广大党员以党章为根本遵循，学习党章、贯彻党章、维护党章，深入学习宣传准则、条例等党内法规。各县（区）教育（体育）局、学校以党章、准则、条例为重点，将党内法规学习宣传融入党史学习教育、党支部“三会一课”等党建活动中，推动党内法规学习宣传常态化、制度化。', '10.广泛开展民法典主题教育活动实践活动。按照市委全面依法治市委员会守法普法协调小组的安排，组织开展“美好生活·民法典相伴”主题教育实践活动，各县（区）教育（体育）局、学校通过普法宣传海报、法律知识竞赛、微动漫、微视频等方式，大力弘扬平等自愿、诚实信用、权利义务一致等法治精神，持续推动民法典融入师生日常生活。', '11.围绕市委、市政府中心工作开展教育系统法治宣传教育活动。着眼黄河流域生态保护和高质量发展先行市建设、创新驱动发展战略、乡村振兴、平安中卫建设等工作。各县（区）教育（体育）局、学校围绕“4·15”全民国家安全教育日、环境教育宣传周、食品安全宣传周、防范非法集资宣传月、道路安全宣传周等时间节点，加强国家安全、知识产权保护、黄河流域生态保护、突发事件应对、野生动物保护、公共卫生安全、安全生产、非法集资、消防安全、常态化扫黑除恶等方面法律法规和新修订的《中华人民共和国未成年人保护法》《中华人民共和国预防未成年人犯罪法》的宣传教育。', '12.推进学校章程的学习宣传和贯彻实施。健全学校章程的解释和修订程序。加强对中小学章程的监督检查。推动形成以章程为核心，规范统一、分类科学、层次清晰、运行高效的学校规章制度体系。各县（区）教育（体育）局、学校要充分认识开展普法依法治理工作的重要意义，将普法依法治理工作纳本单位、学校工作的重要议事日程，成立普法依法治理工作领导小组，并根据人员变动及时调整，明确分工，责任到人。制定本单位、本学校年度普法依法治理工作计划，定期召开专题会议，研究新情况，解决新问题，确保工作有序推进。', '13.健全学校安全事故处理机制。落实《教育部等五部门关于完善安全事故处理机制维护学校教育教学秩序的意见》《宁夏回族自治区学校安全事故处理办法》，继续开展“4·15”全民国家安全教育日、安全生产专项宣传教育活动，引导全系统牢固树立安全发展理念，推动党政领导责任、部门监管责任和学校主体责任的落实，防范消除安全生产隐患，杜绝重大安全生产事故；根据“谁执法、谁普法”工作要求，持续深化融合式普法，全面开展反恐怖、反邪教、禁毒、扫黑除恶、扫黄打非、反诈防骗、防暴力欺凌、防性侵等法治宣传，积极实施与国家安全、人身安全、道路交通安全、意外伤害预防处理等相关的法治知识教育，全面建设法治校园和平安校园。各县（区）教育（体育）局、学校通过法治征文、法治副校长讲座等活动，加大宣传力度，让广大师生和家长知晓“预防为先、不闹也赔、闹也不赔、坚决打击、联合治理”等规范。以依法治校示范校的创建为抓手，进一步完善我市学校安全事故处理机制，保障学生、学校合法权益，用法治手段坚决维护学校正常教育教学秩序。', '14.准确把握、科学阐释教育惩戒权，依法保障教师、学生的合法权利。加强对《中小学教育惩戒规则（试行）》宣传工作，深入组织学习，利用师德教育、教师培训、教职工大会、专家辅导、交流研讨等方式，通过案例分析等形式掌握教育惩戒具体要领，正确领会实施教育惩戒的原则、方法，提升依法执教意识，提高教育惩戒执行能力。各县（区）教育（体育）局、学校通过新生入学教育、致家长一封信、在校园张贴、官网发布等形式，面向学生和家长宣传。对实施教育惩戒权加强监督。开设监督电话和邮箱，接受社会各界的监督。逐步成立由一线教师、学生家长和法治副校长等人员组成的校规校纪执行委员会，监督教育惩戒有效实施，确保教育惩戒行为合法化、透明化。', '15.加强依法治校示范校建设。通过开展创建“依法治校示范校”活动，增强学校师生员工的法治观念和依法办事的能力，提高学校依法决策、民主管理和监督的水平, 形成符合法治精神的育人环境，维护学生、教师和学校的合法权益，保证国家教育方针的贯彻落实。各县（区）教育（体育）局、学校要充分发挥宣传、培训、组织法治教育活动的作用。深化依法治校示范校建设创建工作，加大已建成的阵地资源的整合，通过充实内容、丰富内涵、扩大规模，进一步强化其育人功能。强化校园环境育人功能，把法治文化作为校园文化建设的重要组成部分，在校园文化设施设备中融入法治元素，在宣传栏、校报校刊、校园网、微信公众号等载体宣传法律知识和法治精神，将学法守法意识、权利义务观念等渗透到学生行为规则和日常教学中。', '16.从严落实责任。修订《中卫市教育局普法责任制内容、责任、措施和标准“四个清单”和普法责任制考核办法》，完善考核评估机制，把法治素养和依法履职情况纳入考核评价干部的重要内容。不断增强国家工作人员特别是领导干部依法办事的意识和能力。', '17.加强督导检查。组织开展教育系统普法宣传情况专项检查，督促指导学校落实学习宣传任务。加快推进依法治教、依法办学、依法治校，提升全市教育系统治理体系和治理能力现代化水平。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>293</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>习近平在甘肃考察时强调坚定信心开拓创新真抓实干团结一心开创富民兴陇新局面</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2019-08-23</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201908/t20190823_1687414.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['习近平在甘肃考察时强调 坚定信心开拓创新真抓实干 团结一心开创富民兴陇新局面_中卫市人民政府', '新华社兰州8月22日电 中共中央总书记、国家主席、中央军委主席习近平近日在甘肃考察时强调，要贯彻新时代中国特色社会主义思想和党的十九大精神，坚持稳中求进工作总基调，贯彻新发展理念，坚定信心，开拓创新，真抓实干，团结一心，全面做好稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作，深化脱贫攻坚，加快高质量发展，加强生态环境保护，保障和改善民生，努力谱写加快建设幸福美好新甘肃、不断开创富民兴陇新局面的时代篇章。', '初秋的河西走廊，金风送爽，瓜果飘香，祁连雪山和沙漠绿洲相映成辉。8月19日至22日，习近平在甘肃省委书记林铎、省长唐仁健陪同下，先后来到酒泉、嘉峪关、张掖、武威、兰州等地，深入文物保护单位、农村、学校、草场林场、革命纪念馆、防洪工程、文化企业等，就经济社会发展和“不忘初心、牢记使命”主题教育情况进行考察调研。', '19日上午，习近平从北京乘机抵达酒泉市所辖敦煌市，即前往莫高窟考察了解莫高窟历史沿革和文物保护研究情况，并走进洞窟察看历史悠久的彩塑、壁画。他强调，要十分珍惜祖先留给我们的这份珍贵文化遗产，坚持保护优先的理念，加强石窟建筑、彩绘、壁画的保护，运用先进科学技术提高保护水平，将这一世界文化遗产代代相传。', '正在参观的游客看到总书记来了，激动地围拢上来，高声欢呼“总书记好！”“习主席好！”习近平向大家亲切招手致意，并不时走上前同大家握手问好，叮嘱大家在游览时注意爱护文物。', '习近平接着来到敦煌研究院，察看珍藏文物和学术成果展示，听取文物保护和研究、弘扬优秀历史文化情况介绍，并同有关专家、学者和文化单位代表座谈。在认真听取敦煌研究院名誉院长樊锦诗、甘肃省文联原副主席苏孝林、兰州大学历史文化学院教授郑炳林发言后，习近平发表了重要讲话。他对敦煌文化保护研究工作表示肯定，强调敦煌文化是中华文明同各种文明长期交流融汇的结果。我们要铸就中华文化新辉煌，就要以更加博大的胸怀，更加广泛地开展同各国的文化交流，更加积极主动地学习借鉴世界一切优秀文明成果。研究和弘扬敦煌文化，既要深入挖掘敦煌文化和历史遗存蕴含的哲学思想、人文精神、价值理念、道德规范等，更要揭示蕴含其中的中华民族的文化精神、文化胸怀，不断坚定文化自信。要加强对国粹传承和非物质文化遗产保护的支持和扶持，加强对少数民族历史文化的研究，筑牢中华民族共同体意识。要推动敦煌文化研究服务共建“一带一路”，加强同沿线国家的文化交流，增进民心相通。要加强敦煌学研究，广泛开展国际交流合作，充分展示我国敦煌文物保护和敦煌学研究的成果。要关心爱护科研工作者，完善人才激励机制，为科研工作者开展研究、学习深造、研修交流搭建更好平台，提高科研队伍专业化水平。', '20日上午，习近平来到嘉峪关，察看关城并听取长城保护情况介绍。嘉峪关是全国重点文物保护单位和世界文化遗产，是我国明代万里长城的西端起点。习近平强调，长城凝聚了中华民族自强不息的奋斗精神和众志成城、坚韧不屈的爱国情怀，已经成为中华民族的代表性符号和中华文明的重要象征。要做好长城文化价值发掘和文物遗产传承保护工作，弘扬民族精神，为实现中华民族伟大复兴的中国梦凝聚起磅礴力量。', '离开嘉峪关，习近平来到张掖市高台县，瞻仰中国工农红军西路军纪念碑和阵亡烈士公墓，参观中国工农红军西路军纪念馆，向革命先烈敬献花篮。80多年前，西路军转战河西、奋勇作战，创造了可歌可泣的不朽功绩。在纪念馆内，习近平详细了解当年战斗历史和感人事迹。他强调，新中国是无数革命先烈用鲜血和生命铸就的。要深刻认识红色政权来之不易，新中国来之不易，中国特色社会主义来之不易。西路军不畏艰险、浴血奋战的英雄主义气概，为党为人民英勇献身的精神，同长征精神一脉相承，是中国共产党人红色基因和中华民族宝贵精神财富的重要组成部分。我们要讲好党的故事，讲好红军的故事，讲好西路军的故事，把红色基因传承好。', '20日下午，习近平来到张掖市山丹县，考察山丹培黎学校。山丹培黎学校由伟大的国际主义战士、新西兰著名社会活动家路易·艾黎于1942年创办，突出职业教育特色和终身教育理念，培养了大批实用技术人才。习近平听取了学校情况介绍，参观了路易·艾黎故居，随后来到实训教学楼，走进现代制造技术实训室和智能家居实训室，观看职业技能实训，并同师生亲切交流。他指出，实体经济是我国经济的重要支撑，做强实体经济需要大量技能型人才，需要大力弘扬工匠精神，发展职业教育前景广阔、大有可为。山丹培黎学校是一所具有光荣历史和国际主义精神的职业学校。路易·艾黎先生提出“手脑并用，创造分析”的办学宗旨，对今天我们发展职业教育依然有借鉴意义。要继承优良传统，创新办学理念，为新时代推进西部大开发培养更多应用型、技能型人才。他希望同学们专心学习，掌握更多实用技能，努力成为对国家有用、为国家所需的人才。', '离开培黎学校，习近平来到中农发山丹马场有限责任公司一场，参观场史馆，了解马场历史沿革和改革发展情况。8月的山丹马场，水草丰茂，骏马奔腾。习近平步入草场，察看草场和马群放养情况，听取祁连山生态环境修复和保护情况汇报。习近平指出，保护好祁连山的生态环境，对保护国家生态安全、对推动甘肃和河西走廊可持续发展都具有十分重要的战略意义。我国进入高质量发展阶段，生态环境的支撑作用越来越明显。只要贯彻新发展理念，绿水青山就可以成为金山银山。要正确处理生产生活和生态环境的关系，积极发展生态环保、可持续的产业，保护好宝贵的草场资源，让祁连山绿水青山常在，永远造福草原各族群众。', '21日上午，习近平前往武威市古浪县黄花滩生态移民区富民新村考察调研。当地针对古浪南部山区“一方水土养不起一方人”的实际，走出了一条高深山区贫困群众易地搬迁脱贫致富和祁连山生态环境保护双赢的扶贫开发新路子，6万多地处山区的贫困群众搬进了新房，通过发展牛羊养殖和蔬菜种植正逐步摆脱贫困。习近平对乡亲们生活发生的巨大变化感到十分欣慰。在村党群服务中心便民大厅，习近平向工作人员询问各项惠民政策落实情况和搬迁后的便民服务措施。随后，他步行前往附近的富民小学，参加暑期兴趣班的孩子们有的正学习电子琴弹奏，有的正在进行体育锻炼。习近平走进音乐教室，认真观看正在进行的音乐课教学。操场上，正在练习足球的孩子们看到习爷爷来了，欢快地围拢过来。习近平同他们亲切交谈，询问他们的暑期学习生活情况，鼓励他们好好学习，德智体美劳全面发展。离开学校时，习近平主动邀请孩子们一起合影留念，孩子们兴高采烈，脸上幸福得像花儿一样。', '接着，习近平沿村道步行察看村容村貌。崭新的房屋、宽敞的道路、整洁的院落，一片祥和安乐。村民李应川一家热情邀请总书记到家里做客。习近平走进院子，屋里屋外仔细察看，了解住房改善和改水改厕情况。习近平同李应川一家拉起家常，详细询问家庭就业、收入、看病、社保、医疗保险、孩子上学等方面还有什么难题。李应川兴奋地向总书记汇报，孙子孙女就在家门口上学，家里还向村里报名新建1座日光温室大棚和4座养殖暖棚，日子越过越有奔头。习近平强调，党的一切工作都是为老百姓利益着想，让老百姓幸福就是党的事业。贫困乡亲脱贫是第一步，接下来要确保乡亲们稳定脱贫，扶贫政策和扶贫队伍要保留一段时间，从发展产业、壮大集体经济等方面想办法、找出路，让易地搬迁的群众留得住、能就业、有收入，日子越过越好。', '随后，习近平乘车前往八步沙林场。林场地处河西走廊东端、腾格里沙漠南缘。上世纪80年代初，这里寸草不生、狂沙肆虐，侵蚀村庄农田。一代代林场人扎根沙漠、治沙造林，从沙逼人退到人进沙退，昔日漫漫黄沙变成如今郁郁葱葱。习近平举目远眺，察看林场整体风貌，听取武威市防沙治沙整体情况汇报和八步沙林场“六老汉”三代人治沙造林的感人事迹。几位林场职工正在进行“草方格压沙”作业，习近平走过去，向他们询问作业方法，并拿起一把开沟犁，同他们一起干起来。习近平对他们说，八步沙林场“六老汉”的英雄事迹早已家喻户晓，新时代需要更多像“六老汉”这样的当代愚公、时代楷模。要弘扬“六老汉”困难面前不低头、敢把沙漠变绿洲的奋斗精神，激励人们投身生态文明建设，持续用力，久久为功，为建设美丽中国而奋斗。任何事业都离不开共产党员的先锋模范作用。只要共产党员首先站出来、敢于冲上去，就能把群众带动起来、凝聚起来、组织起来，打开一片天地，干出一番事业。', '21日下午，习近平来到兰州，前往黄河治理兰铁泵站项目点，听取甘肃省和兰州市开展黄河治理和保护情况介绍。习近平登上观景平台，俯瞰堤坝加固防洪工程，沿步道察看黄河两岸生态修复和景观建设情况。习近平指出，黄河、长江都是中华民族的母亲河。保护母亲河是事关中华民族伟大复兴和永续发展的千秋大计。甘肃是黄河流域重要的水源涵养区和补给区，要首先担负起黄河上游生态修复、水土保持和污染防治的重任，兰州要在保持黄河水体健康方面先发力、带好头。正在休闲的群众看到总书记来了，纷纷涌上前，总书记同他们亲切交谈。习近平强调，城市是人民的，城市建设要贯彻以人民为中心的发展思想，让人民群众生活更幸福。金杯银杯不如群众口碑，群众说好才是真的好。', '随后，习近平前往读者出版集团有限公司。在《读者》编辑部，习近平同工作人员交流，询问选稿、编辑、审校、排版等工作流程和发行情况。在创意中心，习近平详细了解公司适应市场形势、主动优化升级的做法。习近平指出，要提倡多读书，建设书香社会，不断提升人民思想境界、增强人民精神力量，中华民族的精神世界就能更加厚重深邃。为人民提供更多优秀精神文化产品，善莫大焉。要牢牢把握正确导向，在坚守主业基础上推动经营多元化，努力实现社会效益和经济效益双丰收。', '22日下午，习近平听取甘肃省委和省政府工作汇报，对甘肃各项工作取得的成绩给予肯定，希望甘肃各族干部群众认真贯彻党中央决策部署，扎扎实实把各项工作做好。', '习近平强调，要深化脱贫攻坚，坚持靶心不偏、焦点不散、标准不变，在普遍实现“两不愁”的基础上，重点攻克“三保障”方面的突出问题，把脱贫攻坚重心向深度贫困地区聚焦，以“两州一县”和18个省定深度贫困县为重点，逐村逐户、逐人逐项去解决问题，坚决攻克最后的贫困堡垒。', '习近平指出，要聚焦补齐全面建成小康社会短板，推进供给侧结构性改革，加快构建覆盖城乡、功能完备、支撑有力的基础设施体系，加快改造传统产业，培育新兴产业，加大改革攻坚力度，加快构建开放新格局，积极发展高附加值特色农业，统筹旅游资源保护和开发，不断夯实高质量发展基础。', '习近平强调，要加强生态环境保护，正确处理开发和保护的关系，加快发展生态产业，构筑国家西部生态安全屏障。治理黄河，重在保护，要在治理。要坚持山水林田湖草综合治理、系统治理、源头治理，统筹推进各项工作，加强协同配合，共同抓好大保护，协同推进大治理，推动黄河流域高质量发展，让黄河成为造福人民的幸福河。', '习近平强调，要保障和改善民生，坚持公共服务项目优先安排，解决好人民群众反映强烈的上学难、看病难、行路难等问题，关心关爱受灾群众和城乡困难群众，深入推进民族团结进步创建工作，深入推进矛盾纠纷排查化解工作，维护社会和谐稳定。', '习近平强调，甘肃是一片红色土地，在中国革命历史进程中发挥了不可替代的重要作用。甘肃要运用红色资源，认真抓好“不忘初心、牢记使命”主题教育，组织广大党员、干部学习党史、新中国史，教育引导广大党员、干部准确把握“守初心、担使命，找差距、抓落实”这个总要求，增强“四个意识”、坚定“四个自信”、做到“两个维护”。要开好专题民主生活会，勇于解剖自己，敢于揭短亮丑，立查立改、即知即改。要加强领导班子建设和干部队伍建设，深入推进党风廉政建设和反腐败斗争，持之以恒加强和改进作风，做好为基层减负的工作，坚决克服形式主义、官僚主义。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>293</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>中卫市年第二批事业单位自主公开招聘高层次青年人才公告</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202304/t20230406_4021866.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['为深入实施新时代“人才强市”战略,根据《宁夏回族自治区事业单位公开招聘工作人员实施办法》(宁党办〔2006〕35号)《关于进一步做好全区事业单位自主公开招聘工作的通知》(宁人社函〔2020〕65号)等有关规定,现就中卫市2023年(第一批)事业单位自主公开招聘高层次青年人才有关事项公告如下。', '本次共面向全国公开招聘事业编制人才73名,其中,教育系统招聘55名、其他单位招聘18名,具体招聘单位、招聘岗位及资格条件等详见《中卫市2023年(第二批)教育系统所属事业单位自主公开招聘高层次青年人才岗位计划一览表》(附件1)、《中卫市2023年(第二批)其他事业单位自主公开招聘高层次青年人才岗位计划一览表》(附件2)。', '1.年龄35周岁以下具有研究生学历、硕士及以上学位人员。博士研究生年龄可放宽至40周岁。', '2.国(境)外高校研究生学历、硕士及以上学位人员,以教育部出具的学历、学位认证报告为准。', '5.在机关事业单位招(录)聘中被认定有违纪违规行为且被记入诚信档案库仍在记录期的;', '12.与招聘事业单位负责人有夫妻关系、直系血亲关系、三代以内旁系血亲或者近姻亲关系的应聘者,不得应聘该单位负责人员的秘书或者组织(人事)、纪检监察、审计、财务岗位,以及有直接上下级领导关系的岗位;', '对博士研究生采取直接考核考察方式招聘。对硕士研究生采取面试方式招聘,对资格初审合格人数与招聘岗位数之比超过25:1的岗位,将通过增加笔试方式以3:1比例依据笔试成绩从高分到低分的顺序确定面试人选(笔试成绩不计入总成绩)。', '每位应聘者只能报考一个岗位,报名与面试时使用的身份证件必须一致。应聘者要对填报信息的真实性、准确性负责。对伪造、涂改报名材料,或报名材料、信息不实影响报名审核结果的将取消本次应聘资格。', '3.资格初审:资格初审单位应在应聘者提交报名申请1个工作日内审核完毕(特殊情况,经领导小组研究后于3个工作日内予以反馈)。应聘者应在提交完整报名信息1个工作日后,电话查询资格初审结果(报名日最后一天报名的应在当日及时查询)。应聘者未通过资格初审的,可在报名截止前改报其他岗位;未通过资格初审且未在报名截止前改报其他岗位的视为放弃。如应聘者在报名日最后一天提交报名信息,因不符合该岗位报考的资格条件,资格初审单位做审核“未通过”处理的,在报名结束后,应聘者将不得再申请改报其他岗位。资格初审工作按隶属关系由各招聘单位的主管部门负责。', '资格初审合格的人员名单由市直各招聘单位主管部门或县(区)人力资源和社会保障部门在报名结束5个工作日内,报市人力资源和社会保障部门在中卫市人民网站上公示,公示时间为3个工作日。', '2.面试内容根据实际和岗位需要,采取结构化、半结构化面试方式进行。结构化面试主要测评综合素质,包括综合分析能力、计划组织协调能力、处理人际关系能力、应变能力、逻辑思维、言语表达能力、举止仪表等要素。半结构化面试除测评综合素质外,主要测试与岗位有关专业能力和技能、技术水平,测评方式可结合岗位需求实际采取专业能力笔试、技能测试、实际操作等方式。', '面试方式由市直各招聘单位的主管部门或县(区)人力资源和社会保障部门根据实际和岗位需要确定,至少提前一周通过指定网站发布面试公告,主要明确面试时间、地点、形式和各种面试方式在整个面试中所占的分值比例等内容,并通过打电话或发信息等方式通知应聘者。', '3.面试成绩采用百分制,最低合格分数线为60分,低于最低合格分数线的视为不合格,不予进行体检和考察。面试成绩即为总成绩。同一岗位出现应聘者面试成绩相同时,当场组织加试。', '4.面试开考比例为1:3。未达到开考比例,但确属我市重点产业、急需紧缺专业的岗位可适当降低面试开考比例。降低面试开考比例、减少招聘名额或者取消招聘岗位的,市直各招聘单位由主管部门提出意见,县(区)事业单位由县(区)招聘工作领导小组提出意见,报请市领导小组办公室审核研究后,在指定网站发布公告。对应聘人数与招聘岗位数之比超过25:1的岗位,将通过增加笔试方式以3:1比例依据笔试成绩从高分到低分的顺序确定面试人选(笔试成绩不计入总成绩)。笔试成绩相同,同时进入面试环节。面试具体时间、地点等相关事宜以指定网站发布的面试公告为准。', '根据面试成绩从高分到低分排名,按拟招聘人数1:1的比例确定体检和考察(含资格复审)人选。体检与考察(含资格复审)工作由市直各招聘单位的主管部门或县(区)人力资源和社会保障部门具体负责。体检与考察具体时间及要求等将通过打电话、发信息的形式通知拟体检和考察(含资格复审)人员,未按规定时间、地点参加的,视为弃权。', '1.体检。体检标准和项目参照《公务员录用体检通用标准(试行)》(人社部发〔2016〕140号)执行,事业单位特殊行业对从业人员身体有特殊规定的从其规定。体检费用由应聘人员承担。对心率、视力、听力、血压等项目达不到体检合格标准的,应当日复检;对边缘性心脏杂音、病理性心电图、病理性杂音、频发早搏(心电图证实)等项目达不到体检合格标准的,应当场复检。应聘者对非当日、非当场复检的体检项目结果有疑问时,可以在接到体检结论通知之日起7日内,向体检实施机关提交复检申请,体检实施机关应按照规定程序尽快安排应聘者复检。体检实施机关对体检结论有疑问的,在接到体检结论通知之日起7日内决定是否进行复检。复检只能进行1次,体检结果以复检结论为准。体检合格的应聘人员确定为考察人选。未按要求完成体检的,视为自动放弃应聘资格。', '2.考察(含资格复审)。考察工作按照德才兼备、以德为先的用人标准,重点考察应聘者的政治思想、道德品质、能力素质、一贯表现、遵纪守法以及是否需要回避等方面的情况,并对应聘者的应聘资格进行复审。资格复审工作重点核查应聘人员有效居民身份证、毕业证书、学位证书、教育部证书电子注册备案表、国外学历学位认证书(留学人员提供)及相关资格证书及岗位资格复审表等。2023年应届毕业生须在7月31日前提供证件资料原件进行资格复审,因非不可抗力原因无法提供的,取消拟招聘资格。资格审查贯穿引才工作全过程,凡发现应聘者不符合应聘条件的,随时取消应聘资格。', '1.根据面试、体检、考察结果确定拟聘用人员名单,并在指定网站公示5个工作日。公示期满无异议的,确定为聘用人员,市直各招聘单位主管部门或县(区)人力资源和社会保障部门将聘用人员材料送市人力资源和社会保障部门审核备案,办理各项手续。', '对反映有影响聘用的问题经查证属实的,不予聘用;对反映涉嫌违规违纪的问题一时难以查实的,暂缓聘用,待查清后再决定是否聘用。被聘用人员无正当理由逾期(自接到聘用通知20个工作日内)不报到的,取消聘用资格。', '2.招聘单位与受聘人员签订聘用合同(期限一般不低于3年),确立人事关系,并按规定办理相关手续。', '3.聘用人员按规定实行试用期制度,试用期包括在聘用合同期限内。试用期满考核合格的,正式聘用;不合格的,取消聘用资格。', '4.新聘用人员属2023年应届毕业生的,在规定时限内正式取得岗位所要求的学历、学位、资格证后再进行公示,公示期满无异议的按规定办理聘用手续。', '(1)在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位,可从应聘同一岗位且面试成绩均到合格线以上的应聘者中,按面试成绩从高分到低分的顺序依次递补。', '(2)体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件,核实后取消应聘资格,出现的空缺岗位,可从应聘同一岗位且面试成绩达到合格线以上的应聘者中,按面试成绩从高分到低分的顺序依次递补。', '(一)《公告》由中卫市2023年事业单位自主公开招聘高层次青年人才工作领导小组办公室负责解释。凡涉及本次招聘工作的重大事项或本公告未尽事宜,由领导小组或领导小组办公室研究决定。', '(三)招聘工作的具体政策、注意事项及根据需要如对工作安排作出调整的,均在指定网站进行详述,请应聘人员及时关注并认真阅读。', '(四)招聘工作违纪违规行为的认定和处理,按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行,构成犯罪的,依法追究刑事责任。', '(五)招聘单位相关人员、应聘人员在办理公开招聘相关事项时需要回避的,应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '(六)应聘人员报名时所留电话应保持畅通,因电话不畅通导致招聘单位无法通知相关事宜的,责任由应聘者承担。', '(七)本次招聘工作不指定考试辅导用书,不举办也不委托任何机构举办考试辅导班。请广大应聘者提高警惕,谨防上当受骗。', '附件:1.中卫市2023年（第二批）教育系统所属事业单位自主公开招聘高层次青年人才岗位计划一览表', '中卫市2023年（第二批）教育系统所属事业单位自主公开招聘高层次青年人才岗位计划一览表']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>293</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>海原县上半年转移就业万人</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2023-07-18</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/qxdt/202307/t20230718_4183252.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['今年以来，海原县深入学习贯彻落实党的二十大精神，实施就业优先战略，全面落实区、市安排部署，大力开展“就业创业促进年”活动，聚焦劳务转移就业一批、就近就地就业一批、创业就业带动一批、社会保障兜底一批“四个一批”，多措并举做好就业创业工作。', '据了解，今年上半年，海原县先后与福建省厦门市、江西省南昌市、广东省深圳市、浙江省义乌市、青海都兰县及新疆米东区等地考察对接12次、访企拓岗10次，挖掘岗位25000余个。通过举办16次线下招聘会，提供岗位14267个，初步达成就业意向1162余人；开展线上招聘活动156场次，提供16000余个岗位，达成就业意向3500余人，“点对点”输送务工人员25批1001人。按照就近就地原则，全县吸纳就业16947人。通过强化“创业指导+创业培训+创业担保贷款”服务模式，共培育创业实体432个，创造新岗位873个，全民创业带动就业1902人，发放创业担保贷款6534万元，创建海原县剪纸刺绣创业孵化园区等6个创业孵化基地，累计入孵创业实体数801个，带动就业人数2002人。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>293</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>市工信局切实抓好脱贫攻坚巡察整改工作</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2019-04-30</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sgyhxxhj/fdzdgknr_49315/bmxx_49348/201904/t20190430_1450804.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['近日，针对市委巡察组脱贫攻坚专项巡察反馈问题，市工信局认真开展整改落实，对全局帮扶干部进行了一次脱贫攻坚专题培训和知识测试。全体帮扶干部共同学习了习近平在重庆考察并主持召开解决“两不愁三保障”突出问题座谈会上的讲话，局脱贫攻坚联络人围绕三河镇辽坡村基本情况、脱贫攻坚基本知识、海原县脱贫摘帽思路和“离土”扶贫、金融扶贫、教育扶贫、健康扶贫、社会保障等政策进行了详细讲解，重点以扶贫中的真实案例讲解了健康扶贫政策。通过专题培训，提高了帮扶干部脱贫攻坚政策掌握程度，明白了脱贫攻坚群众满意度测评的具体要求和标准，进一步明白了政策宣传的重要性。培训结束后，全体帮扶干部进行了一次脱贫攻坚专题测试，强化培训效果。', '最后，局分管领导指出，实现海原县今年脱贫摘帽任务艰巨，全体帮扶干部要尽职尽责，把政策学懂弄懂，确保扶贫各项政策宣传落实精准到位；要进一步把情况搞清，认真开展结对帮扶，落实帮扶措施；结合工信部门职责，扎实开展网络扶贫、项目扶贫、行业扶贫，要有“钉钉子”精神，下足“绣花”功夫，确保帮扶工作见成效，全力以赴促海原县年内脱贫摘帽。（通讯员，徐志鹏）']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>293</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>中卫市年事业单位自主公开招聘工作人员公告</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2021-03-15</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202103/t20210315_2627608.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['为进一步加强中卫市人才队伍建设，引进急需紧缺的高层次人才，按照《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等文件有关规定，现就中卫市2021年自主公开招聘事业单位工作人员有关事项公告如下。', '5.符合《2021年中卫市事业单位自主公开招聘工作人员岗位计划一览表》（附件1）中各招聘岗位要求的相关资格条件；', '5.在公务员招录、事业单位招聘中被认定有违纪违规行为且被记入诚信档案库目前仍在惩戒期的；', '9.新招聘（录）机关事业单位工作人员未满最低服务期限（含试用期）的；已招聘的特岗教师；', '12.应聘者不得报考《事业单位公开招聘人员暂行规定》第二十七条所列回避情形的岗位。', '2021年中卫市事业单位计划面向社会自主公开招聘工作人员95名，其中市直部门39名、县（区）以下56名。具体范围、条件等及有关专业等事项详见《2021年中卫市事业单位自主公开招聘工作人员岗位计划一览表》（附件1）、《宁夏回族自治区事业单位公开招聘工作人员专业（学科）参考目录》（附件3）。', '，其中市直部门39名、县（区）以下56名。具体范围、条件等及有关专业等事项详见《2021年中卫市事业单位自主公开招聘工作人员岗位计划一览表》（附件1）、《宁夏回族自治区事业单位公开招聘工作人员专业（学科）参考目录》（附件3）。', '本次招聘对硕士及以上学历层次人员采取免笔试，直接面试的方式招聘，每名应聘人员限报1个岗位。报名人数达到1：25（含）以上的岗位则增加笔试环节，笔试的测评范围、测评形式提前公告并通知应聘人员，按照1：3的比例依据笔试成绩排名确定面试人员，笔试成绩不计入总成绩。', '（二）报名方式。本次招聘采取现场或网络报名进行，现场报名和网络报名均须在限定时间内完成。', '应聘者携带本人有效身份证及岗位所需的学历学位证书、资格证、工作经历证明材料原件和复印件、2张近期同底(6个月内)正面1寸免冠照片交招聘主管部门审核，并填写《2021年中卫市事业单位自主公开招聘工作人员报名表》（附件2）。根据当前疫情防控工作需要，请现场报名人员佩戴口罩，经体温检测正常后进入现场进行报名。报名人员14天内有宁夏区外旅居史或发烧等不适症状的，必须如实报告情况并核酸检测合格后方可现场报名，对因需要留观、隔离或核酸检测结果尚未出具的，可以委托其他人员现场报名或者采取网上报名的方式。', '不能前往招聘现场的应聘人员可以根据自身实际在规定报名时间内网络报名。应聘人员将本人报名表、电子照片、报名所需各类材料扫描件建立压缩包（以“姓名+应聘岗位”命名）发送至招聘单位指定邮箱。', '1.在市、县（区）纪委监委和市、县（区）组织人社部门监督指导下，由招聘单位依法依规自主组织实施面试。面试方案须提前两周报市人力资源和社会保障局备案后实施。', '3.参加面试的人员顺序采取抽签的办法确定。面试重点测评应聘人员与岗位相适应的公共综合素质、专业知识、业务能力、工作技能、现场反应及沟通协调能力等方面内容。面试满分为100分，各岗位面试成绩达不到到60分（百分制）的，取消其应聘资格。', '4.面试成绩即为考试总成绩，所有成绩均保留小数点后面两个数字，考试总成绩出现并列时，通过加试题的方式解决，最后按岗位招聘计划1:1的比例，由高分到低分确定体检、考察对象。', '1.体检工作由市、县（区）同级事业单位人事管理部门按照公开招聘要求自主组织实施，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）和行业有关规定执行。', '2.应聘者对体检结果有疑问的，经招聘单位主管部门或县（区）组织人社部门同意，可以复检，体检结果以复检结论为准。', '3.应聘者要认真完成全部体检项目，如在规定时间不按要求完成体检项目的，视同自动放弃体检资格。', '1.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况，考察中还要对应聘者的报考资格进行复审。', '2.考察中发现因个人品德差、有不良政治或诚信记录的；不具备招聘岗位所需资格条件的；存在本公告中所列不得报考相关情形的；以及存在其他不宜进入事业单位工作情形的，经招聘事业单位的市直主管部门或县（区）组织人社部门研究确定后，可取消应聘资格。', '3.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。', '1.根据考试、体检、考察结果，由招聘单位确定拟招聘人员公示名单后，由招聘单位主管部门或县（区）公共网站、招聘部门微信公众号进行公示，公示不少于5个工作日。对反映的问题经查实影响聘用的，取消招聘资格。对反映的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，取消招聘资格。取消招聘资格后空缺的岗位不再递补。公示期满无异议的拟聘用人员，由中卫市人力资源和社会保障局按规定办理招聘手续。', '2.用人单位与受聘人员签订聘用合同（期限一般不低于3年），确立人事关系，并按规定办理相关手续。', '3.聘用人员按规定实行试用期制度，试用期包括在聘用合同期限内。试用期满考核合格的，正式聘用；不合格的，取消聘用资格。招聘岗位条件中有最低服务期限的，用人单位应在签订的聘用合同中约定最低服务期限，并明确违约责任和相关要求。', '在体检、考察、公示及聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位且笔试、面试成绩均达到最低分数线以上应聘者中，根据考试总成绩按规定依次递补。', '3.公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '4.人力资源社会保障部门聘用批复文件印发之日起，拟聘用人员自愿放弃聘用、被聘用人员无正当理由逾期（自接到聘用通知20日内）不报到的，导致拟聘岗位空缺的，不', '（二）凡涉及招聘工作的重大事项或本办法未尽事宜，由中卫市自主公开招聘事业单位工作人员领导小组研究决定。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格;已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘人员要提供正确联系方式，保持通讯畅通，因通讯不畅造成的一些后果由本人承担。', '（七）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市、县（区）组织人社部门综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。', '中卫市、县（区）组织人社部门综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>293</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>中卫市应急管理局年自主公开招聘事业单位工作人员公告第二批</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202305/t20230523_4118975.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['中卫市应急管理局2023年自主公开招聘事业单位工作人员公告（第二批）_中卫市人民政府', '为进一步加强应急管理人才队伍建设，加快引进急需紧缺的高层次人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等规定，现就市应急管理局自主公开招聘事业单位工作人员公告如下。', '2023年中卫市应急管理局自主公开招聘事业单位工作人员1名，具体岗位要求、简介等详见《中卫市应急管理局事业单位2023年自主公开招聘工作人员岗位计划一览表》（附件1）。专业和学科详见《宁夏回族自治区事业单位公开招聘工作人员专业参考目录》。', '1.年龄35周岁以下具有研究生学历、硕士及以上学位人员。博士研究生年龄可放宽至40周岁。', '2.国（境）外高校研究生学历、硕士及以上学位人员，以教育部出具的学历、学位认证报告为准。', '5.在机关事业单位招（录）聘中被认定有违纪违规行为且被记入诚信档案库仍在记录期的；', '12.与招聘事业单位负责人有夫妻关系、直系血亲关系、三代以内旁系血亲或者近姻亲关系的应聘者，不得应聘该单位负责人员的秘书或者组织（人事）、纪检监察、审计、财务岗位，以及有直接上下级领导关系的岗位；', '本次招聘原则上采取面试的方式进行。如资格初审合格人数超过30人（含30人），则增加笔试环节。面试人员名单按照招聘人数1：3的比例从笔试成绩由高分到低分确定。笔试成绩不计入总成绩。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市应急管理局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市应急管理局在中卫市人民政府网进行公示，公示时间为5个工作日。', '考试分笔试和面试两部分。资格审查合格人数超过30人（含30人），增加笔试环节，按照岗位招聘计划1：3的比例依据笔试成绩排名确定进入面试范围人选（成绩并列的同时进入面试），并进行资格复审。笔试成绩不计入总成绩。资格审查合格人数不足30人，直接进行面试。', '资格审查合格人数超过30人（含30人），增加笔试环节，由中卫市应急管理局依法依规自主组织实施，笔试具体事项另行公告。', '（2）面试成绩即为考试总成绩，当总成绩出现并列时，当场组织成绩并列人员再次面试，按照再次面试成绩确定进入体检、考察人员名单。', '（3）面试时间、地点、人员名单在中卫市人民政府网站进行公布，并采取打电话、发信息等方式通知应聘者。', '面试结束后，根据考试总成绩排名，按拟招聘人数1:1的比例确定体检和考察人选。体检由中卫市应急管理局组织，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）执行，事业单位特殊行业对从业人员身体有特殊规定的从其规定。体检费用由应聘人员承担，对心率、视力、听力、血压等项目达不到体检合格标准的，应当日复检；对边缘性心脏杂音、病理性心电图、病理性杂音、频发早搏（心电图证实）等项目达不到体检合格标准的，应当场复检。应聘者对非当日、非当场复检的体检项目结果有疑问时，可以在接到体检结论通知之日起7日内，向体检实施机关提交复检申请，体检实施机关应按照规定程序尽快安排应聘者复检。体检实施机关对体检结论有疑问的，在接到体检结论通知之日起7日内决定是否进行复检。复检只能进行1次，体检结果以复检结论为准。体检合格的应聘人员确定为考察人选。未按要求完成体检的，视为自动放弃应聘资格。', '考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、一贯表现、遵纪守法以及是否需要回避等方面的情况，并对应聘者的应聘资格进行复审。资格复审工作重点核查应聘人员有效居民身份证、毕业证书、学位证书、教育部证书电子注册备案表、国外学历学位认证书（留学人员提供）及相关资格证书及岗位资格复审表等。2023年应届毕业生须在7月31日前提供证件资料原件进行资格复审，因非不可抗力原因无法提供的，取消拟招聘资格。资格审查贯穿招聘工作全过程，凡发现应聘者不符合应聘条件的，随时取消应聘资格。', '根据考试、体检、考察结果，确定拟聘用人员名单，并在指定网站公示5个工作日。公示期满无异议的，确定为聘用人员，办理招聘手续，签订聘用合同，确立人事关系，并按规定办理相关手续。对反映有影响聘用的问题经查证属实的，不予聘用；对反映涉嫌违规违纪的问题一时难以查实的，暂缓聘用，待查清后再决定是否聘用。被聘用人员无正当理由逾期（自接到聘用通知20个工作日内）不报到的，取消聘用资格。', '（1）在体检、考察、公示及聘用阶段因应聘者自愿放弃或因体检、考察不合格出现的空缺岗位，可从面试成绩达到合格线以上的应聘者中，按面试成绩从高分到低分的顺序依次递补。', '（2）体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消应聘资格，出现的空缺岗位，可从面试成绩达到合格线以上的应聘者中，按面试成绩从高分到低分的顺序依次递补。', '（二）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（三）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》（人社部规〔2019〕1号）相关要求提出回避。', '（四）应聘者要提供正确联系方式，保持通讯畅通，因通讯不畅或因电话不畅通导致无法通知相关事宜的，责任由应聘者承担。', '（五）招聘不指定考试辅导用书，不举办也不委托任何机构举办考试辅导班。请广大应聘者提高警惕，谨防上当受骗。', '（六）应聘者请密切关注中卫市人民政府官网招聘笔试、资格审核、面试、聘用等相关通知。', '（一）报名登记表要如实、详尽地填写，注明应聘岗位，粘贴照片，报名登记表应亲笔签名。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格，已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘人员要提供正确的联系方式，保持通讯畅通，因通讯不畅通造成的一切后果由本人承担。', '（五）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市应急管理局和中卫市人力资源和社会保障局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>293</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>中卫市医疗保障局关于印发关于做好自治区督察我市法治政府建设反馈问题整改工作责任分工的方案的通知</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2021-09-07</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sylbzj/fdzdgknr_50128/bmwj_50161/202109/t20210913_3016759.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['中卫市医疗保障局关于印发《关于做好自治区督察我市法治政府建设反馈问题整改工作责任分工的方案》的通知_中卫市人民政府', '中卫市医疗保障局关于印发《关于做好自治区督察我市法治政府建设反馈问题整改工作责任分工的方案》的通知', '现将《关于做好自治区督察我市法治政府建设反馈问题整改工作责任分工的方案》印发给你们，请按照分工要求，认真抓好整改落实。', '为确保优质高效落实整改要求，推动我市法治政府建设，按照市委全面依法治市委员会《关于印发〈关于自治区督察我市法治政府建设反馈问题整改工作实施方案〉的通知》（卫法发〔2021〕5号）的要求，制定本方案。', '坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实习近平总书记全面依法治国新理念新思想新战略及中央、自治区和市委有关会议精神，认真学习贯彻习近平总书记视察宁夏重要讲话精神，践行“建设法治政府是全面推进依法治国的重点任务和主体工程”新使命，全面落实《法治政府建设实施纲要（2021-2025年）》，加快构建职责明确、依法行政的政府治理体系，全面建设职能科学、权责法定、执法严明、公开公正、智能高效、廉洁诚信、人民满意的法治政府。', '整改措施：一是全面贯彻落实习近平法治思想和中央全面依法治国工作会议精神，认真落实《法治政府建设实施纲要（2021-2025年）》《市委全面依法治市委员会2021年工作要点》《法治中卫建设实施方案（2021-2025年）》《关于认真学习宣传习近平法治思想和中央全面依法治国工作会议精神的实施方案》，坚持以习近平法治思想为工作指引，创新方式方法，线上线下结合，推动学习教育全覆盖。二是将学习贯彻习近平法治思想和中央全面依法治国工作会议精神作为当前和今后一个时期的一项重大政治任务，推动用习近平法治思想指导实践，把习近平法治思想的深刻领悟转化为推动我局各项工作的强大动力和务实举措。三是把学习贯彻习近平法治思想和中央全面依法治国工作会议精神作为党组理论学习中心组必学内容和干部理论学习的重要任务，组织开展学习研讨交流等活动。四是把深入学习习近平法治思想与普法工作和正在开展的党史学习教育紧密结合起来，运用各类媒体平台和宣传渠道开展理论宣讲。', '整改措施：严格落实《党政主要负责人履行推进法治建设第一责任人职责规定》，认真贯彻落实《关于组织开展党政负责人履行推进法治建设第一责任人职责述法评议工作的通知》《党政主要负责人履行推进法治建设第一责任人职责情况列入年终述职内容工作实施方案》。', '3.关于“各地各部门重视法治素养和法治能力的用人导向尚未有效建立，从事法治工作的人员力量严重不足”的问题', '整改措施：一是坚持完善党组理论学习中心组集体学法制度，推动本单位建立健全办公会议学法制度。二是坚持重视法治素质和法治能力的用人导向，把遵守法律、依法办事情况作为考察干部的重要内容，相同条件下优先提拔使用法治素养好、依法办事能力强的干部。', '整改措施：一是严格落实《中华人民共和国行政诉讼法》《中卫市人民政府行政应诉工作办法》，行政机关负责人要依法履行行政负责人出庭应诉职责，对涉及重大公共利益、社会高度关注或者可能引发群体性事件等案件以及人民法院书面建议行政机关负责人出庭的案件，行政机关负责人应当出庭。二是建立行政应诉培训制度，每年开展1-2次集中培训、旁听庭审和案例研讨等活动，提高行政机关负责人、行政执法人员等相关人员的行政应诉能力。', '整改措施：一是更新、完善年度重大行政决策目录，明确承办部门和整改时限，并向社会公布。二是对一些直接涉及公民、法人和其他组织切身利益的事项纳入重大行政决策事项范围。三是建立重大决策归档制度，对重大行政决策目录或其他重大行政决策进行立卷归档，并长期保存。', '整改措施：一是对可能涉及重大民生决策事项的，提高行政决策透明度和公众参与度，不断推进重大行政决策行为的科学化、民主化、规范化。二是增强公众参与重大决策实效，对事关经济社会发展全局、社会关注度高及涉及群众切身利益的决策事项，应当及时公开信息，采取召开座谈会、听证会、实地走访、书面征求意见、向社会公开征求意见、问卷调查、民意调查等多种便于社会公众参与的方式充分听取意见建议，并注重听取人大代表、政协委员和人民团体、基层组织、社会组织的意见。', '整改措施：一是严格落实国务院《重大行政决策程序暂行条例》和《中卫市重大决策社会稳定风险评估暂行办法》，严格按照决策启动、公众参与、专家论证、风险评估、合法性审查、集体讨论决定、决策执行七个环节进行，未经合法性审查不得提交讨论。对可能对社会稳定、公民、法人、其他组织切身利益、公共安全等方面造成不利影响的重大行政决策，要提升公众参与度，严格做到风险评估应评尽评。二是加强重大行政决策合法性审查。严格落实合法性审查制度，不得以征求意见等方式代替合法性审查，未经合法性审查不得提交决策机关讨论审议。', '整改措施：严格落实行政执法“三项制度”，加强对执法人员换的学习培训，不断提高行政人员的执法水平。', '整改措施：一是要明确审核机构、审核范围、审核内容、审核责任，加强法制审核队伍的正规化、专业化、职业化建设，把政治素质高、业务能力强、具有法律专业背景的人员调整充实到法制审核岗位，配强工作力量，使法制审核人员的配置与工作任务相适应。二是建立健全行政执法人员和法制审核人员岗前培训和岗位培训制度，组织开展“三项制度”专题学习培训，加强业务交流。三是全面落实行政执法责任制，健全行政执法人员管理制度，要重视执法人员能力素质建设，加强思想道德和素质教育，着力提升执法人员业务能力和执法素养。', '整改措施：一是严格落实《中卫市行政执法三项制度规定》持续推行行政执法公示制度，对行政执法主体、权限、依据、程序、救济渠道和随机抽查事项清单等信息全面准确及时主动公开。二是认真落实《中卫市行政执法音像记录设备配备使用管理办法》，全面推行行政执法全过程记录制度，完善文字记录，规范音像记录，严格记录归档，发挥记录作用。三是规范行政执法文书格式，确保行政执法活动文字记录合法规范、客观全面、及时准确，执法案卷和执法文书要素备齐、填写规范、归档完整。四是加大行政执法监督工作，积极开展行政执法案卷评查，加强行政系统内部层级监督。', '整改措施：在履行行政职能和涉法性事务办理过程中，要转变“重实体、轻程序”的意识，在执法过程中严格依照法律规定履行执法人员证件出示、明示身份等程序性规定，做好执法记录等，降低因做出的具体行政行为存在程序瑕疵而导致败诉的风险，切实提高法律顾问在依法行政过程中的参与度，避免一些不必要的行政争议案件。', '整改措施：严格落实行政规范性文件制发程序，对公民、法人和其他组织权利义务有重大影响、涉及人民群众切身利益的行政规范性文件，主动向社会公开征求意见，征求意见达到法定时限。', '整改措施：一是严格落实合法性审查制度，进一步明确行政规范性文件合法性审核的范围、主体、程序、职责和责任，建立健全程序完备、权责一致、相互衔接、运行高效的合法性审核机制，落实审核工作要求，加大组织保障力度，确保所有规范性文件均经过合法性审核，保证规范性文件合法有效。二是对影响面广、情况复杂、社会关注度高的规范性文件，可采取召开座谈会、论证会等方式听取有关方面意见。三是严格落实《自治区人民政府办公厅关于实施行政规范性文件“三统一”和有效期制度的通知》，属于行政规范性文件的，使用专用发文字号，统一登记，统一印发。四是加强行政规范性文件监督和管理，从源头上预防违法行政和不当行政，保障公民、法人和其他组织的知情权和监督权，提高行政效率，维护法治统一和政令畅通。', '整改措施：完善“有件必备、有备必审、有错必纠”的备案审查机制，把所有规范性文件纳入备案审查范围，健全公民、法人和其他组织对规范性文件的建议审查制度，做到有件必备、有备必审、有错必纠。', '（一）切实提高认识，从严落实整改工作。要切实提高政治站位，强化责任担当，把法治政府建设作为一项重大的政治任务抓实抓好。主要领导要坚决落实《党政主要负责人履行推进法治建设第一责任人职责规定》的要求，把解决反馈问题摆在重要位置，对难点问题要亲自部署、亲自过问、亲自协调、亲自督办，确保法治政府建设各项决策部署落地见效。', '（二）制定整改方案，从细抓好整改工作。要对标共性、个性问题分解任务、明确整改时限和责任单位，形成切实可行的整改任务书、时间表、路线图，采取以点带面的工作方式，强力推进整改。', '（三）建立长效机制，杜绝问题反弹。要抓好此次督察反馈问题的整改，也要对本单位存在的其他问题进行自查，是个性问题的就个别整改，属于系统性、普遍性的问题，要主动开展全面清理或专项治理，确保督察发现的各项问题整改到位。要标本兼治、防患于未然，在解决好存在问题的同时，建立健全长效机制，杜绝类似问题再次发生。整改工作要切实做到“三个必须、三个绝不能”：所有问题整改必须坚决彻底，决不能有遗留；必须全面到位，决不能打折扣；必须严格监管，决不能出现反弹。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>293</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>我市对家驾校考核评级</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2017-03-17</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201703/t20170317_598085.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['近日，中卫市道路运输管理局对全市8家驾校开展了质量信誉考核工作，按考核标准进行了评分，达到3A级的驾校5所，2A级3所。针对检查中存在的问题，当场向相关驾校反馈，责令限期整改到位，确保驾培服务质量提升。', '考核按照新国标的要求，对驾校资格条件逐项考察考核，督促驾校落实实际培训最低不得少于300公里的规定，提高培训质量；严格规范驾校的培训教学行为，坚决杜绝驾校擅自设立培训点、挂靠培训等行为，对驾校安装和使用即时培训系统、IC卡计时、学员档案管理、先培训后付费推广及安全管理等方面情况进行了全面检查和规范；抽取各驾校已结业学员进行电话回访，听取学员对驾校在服务收费、教练员素质等方面的建议。', '针对教练员和教练车，该局按照《机动车驾驶员培训管理规定》，对全市540名教练员的3年安全驾驶信用情况进行了摸底审查，对全市508辆教练车进行了认真检查，确保教练车达到规定的二级车以上技术条件。', '市道路运输管理局维培科科长张富莹告诉记者：“通过对驾校主体资格、教学管理、场地设施、安全管理、诚信服务等工作进行全面考核，来促进我市驾校整体培训质量的提高，为全市学习驾驶人员提供优越的学车环境。”']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>293</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>市工业和信息化局组织创建全国文明城市责任单位开展创建工作互查互评力促创建工作落实到位</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2020-08-11</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sgyhxxhj/fdzdgknr_49315/bmxx_49348/202009/t20200902_2215541.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['市工业和信息化局组织创建全国文明城市责任单位开展创建工作互查互评，力促创建工作落实到位_中卫市人民政府', '市工业和信息化局组织创建全国文明城市责任单位开展创建工作互查互评，力促创建工作落实到位', '8月10日，市工业和信息化局组织电信、移动、联通、铁塔四家通信运营商，采用交叉检查和互相查评的方式，督促各责任单位创建全国文明城市各项工作落实到位。', '8月7日，市创建文明城市指挥部办公室组织全市服务行业召开了创建全国文明城市迎检推进会，通报了各通信运营商在创建文明城市实地考察点中存在的问题，提出了整改要求。会后，市工业和信息化局立即组织通信运营商召开了任务分解落实会，对照《中卫市创建全国文明城市实地测评指导手册》和市创城办通报的问题，逐项逐句进行任务分解，明确了整改工作的具体标准和要求。为确保整改事项整改到位，8月10日，市工业和信息化局再次组织各电信运营商分管领导和具体工作人员对全市7个实地测评点位和沿街光变箱公益广告的覆盖整改落实情况逐个进行了交叉检查，现场点评整改工作落实情况。通过交叉检查和点评，各电信运营商互学互促，找准了各自存在的问题，相互借鉴学习，取长补短，取得很好的整改效果。接下来，市工业和信息化局将严格按照创建文明城市各项任务要求，建立长效机制，督促各电信运营商严格按照服务行业服务规范，做好氛围营造、志愿服务、文明服务等各项工作的常态化落实。', '位，8月10日，市工业和信息化局再次组织各电信运营商分管领导和具体工作人员对全市7个实地测评点位和沿街光变箱公益广告的覆盖整改落实情况逐个进行了交叉检查，现场点评整改工作落实情况。通过交叉检查和点评，各电信运营商互学互促，找准了各自存在的问题，相互借鉴学习，取长补短，取得很好的整改效果。接下来，市工业和信息化局将严格按照创建文明城市各项任务要求，建立长效机制，督促各电信运营商严格按照服务行业服务规范，做好氛围营造、志愿服务、文明服务等各项工作的常态化落实。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>293</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>张雨浦到中卫市调研强调坚定不移落实四水四定全力以赴推进乡村振兴</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2023-05-24</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/202305/t20230524_4120162.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['张雨浦到中卫市调研强调 坚定不移落实“四水四定” 全力以赴推进乡村振兴_中卫市人民政府', '5月22日，自治区党委副书记、自治区主席张雨浦到中卫市调研强调，要全面贯彻习近平生态文明思想，结合学习贯彻习近平新时代中国特色社会主义思想主题教育，深刻领会习近平总书记关于“千万工程”重要批示精神，全力以赴推进乡村振兴，坚定不移落实“四水四定”，加快先行区建设步伐。', '黄河自黑山峡进入宁夏。张雨浦来到黄河岸边沙坡头区迎水桥镇北长滩村，并乘船沿黑山峡河段考察河道治理、开发保护等。他强调，要深入学习贯彻习近平总书记关于黄河流域生态保护和高质量发展的重要指示精神，坚持节水优先、空间均衡、系统治理、两手发力，上下游、干支流、左右岸统筹谋划，共同抓好大保护，协同推进大治理，扎实推进重大水利工程，切实做好防汛抗旱工作，让黄河成为造福人民的幸福河。', '宁夏中部干旱带海原西安供水水源工程建成后，将惠及6万多人。张雨浦来到供水主干工程第三泵站，听取中卫市“四水四定”工作汇报，并走进关桥乡冯湾村的温室大棚，与当地干部一起算现代高效节水农业的投入账与百姓收入账。张雨浦强调，水资源是宁夏生存和发展的第一资源，中部干旱带要把坚决落实“四水四定”放在更加突出位置，认清产业发展和水资源之间的关系，用好市场和政府“两只手”，持续在创新节水模式、提升节水效能上下功夫，真正走出一条水安全有效保障、水资源高效利用、水生态明显改善的发展之路。', '调研中，张雨浦强调，要紧紧围绕“建设乡村全面振兴样板区”目标，全面落实乡村振兴责任制，全力推动乡村产业、人才、文化、生态、组织“五大振兴”，持续增加农民收入，不断提高“三农”工作水平，写好脱贫攻坚、乡村振兴、共同富裕“三部曲”，为农业农村现代化打下良好基础。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>293</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>中卫市医疗保障局中卫市卫生健康委员会中卫市财政局关于印发中卫市开展基本医疗保险按区域点数法总额预算和按病种分值付费省级试点工作实施方案的通知</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2022-03-04</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/bmxxgkml/sylbzj/fdzdgknr_50128/bmwj_50161/202203/t20220321_3387159.html</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['中卫市医疗保障局 中卫市卫生健康委员会 中卫市财政局关于印发《中卫市开展基本医疗保险按区域点数法总额预算和按病种分值付费省级试点工作实施方案》的通知_中卫市人民政府', '中卫市医疗保障局 中卫市卫生健康委员会 中卫市财政局关于印发《中卫市开展基本医疗保险按区域点数法总额预算和按病种分值付费省级试点工作实施方案》的通知', '现将根据《中卫市开展基本医疗保险按区域点数法总额预算和按病种分值付费省级试点工作实施方案》印发给你们，请认真贯彻执行。', '为落实《中共中央 国务院关于深化医疗保障制度改革的意见》（国发〔2020〕5号），持续推进医保支付方式改革，提高医疗服务透明度，提升医保基金使用效率，根据国家医疗保障局《关于印发DRG/DIP支付方式改革三年行动计划的通知》（医保发〔2021〕48号），自治区人民政府办公厅《关于印发宁夏回族自治区全面医疗保障“十四五”规划的通知》（宁政办发〔2021〕77号）和自治区医改领导小组秘书处、自治区医保局关于医保支付方式改革的部署要求，现就在全市范围内开展基本医疗保险按区域点数法总额预算和按病种分值（简称DIP)付费省级试点工作，特制定本方案。', '（一）指导思想。以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的十九大精神和十九届历次全会及习近平总书记视察宁夏时的重要讲话精神，按照自治区第十二次党代会、十二届十四次全会及市第五次党代会精神，以人民健康为中心，发挥医保基金战略性购买作用，更好地依托定点医疗机构为参保人员提供医疗服务，提高医保基金使用绩效，提升医保精细化管理服务水平。', '（二）基本原则。坚持以人民为中心，坚持尽力而为，量力而行，实事求是确定保障范围和标准。坚持系统集成、协同高效，增强医保、医疗、医药联动改革的系统性、整体性、协调性，保障群众获得高质量、有效率、能负担的医药服务。坚持透明高效，以大数据为基础，以客观数据为支撑，真实还原病种的医疗行为与疾病特征，围绕国家DIP目录库标准建立我市的实际路径。利用大数据精确拟合成本，科学测算分值点值，确定与之匹配的调节机制。坚持动态维护，多方协商，完善病种组合目录、病种分值等动态维护机制，与现行医保支付方式衔接，做好现行支付方式的总结及平稳过渡。坚持整合资源，互通共享，结合实际情况，引入第三方机构共同参与，积极稳妥推进改革。', '（三）目标任务。用1-2年时间，将中卫市医保总额预算与点数法相结合，实现住院医疗费用以DIP付费为主的多元复合支付方式。建立起现代化的数据治理机制，形成数据采集、存储、使用的规范和标准，增进管理的透明度和公平性，逐步建立以病种为基本单元，以结果为导向的医疗服务付费体系。完善医保与医疗机构的沟通谈判机制，加强基于病种的量化评估，形成基于资源消耗及结构合理的支付标准，使医疗行为可量化、可比较。发挥疾病分组的基础作用、支付标准的核心作用、过程控制的关键作用，形成可借鉴、可复制、可推广的经验，促进医保、医疗、医药协调联动。', '（三）确定病种分值。各级医保经办机构要将疾病的严重程度、治疗方式的复杂程度与疑难程度做为确定病种分值的重要依据，实现每个病例医疗服务产出的评价与比较，为费用支付奠定基础。优化病种分值结构，通过全样本数据病例平均药品费用和平均耗材费用的测算，精确核算DIP药品分值和DIP耗材分值，建立病种分值校正机制，理顺医疗服务价格。分析比较费用明细类别占比，精准划分监控调整病种和稳定病种类别。发挥专家评议和医保医院协商沟通机制作用，合理确定离散度高的监控病种分值，推动学科发展，推动新技术应用或传统医学发展。精心编制年度医保可支付基金额，明确医保支付比例，按照DIP病例总分值总分计算分值点值，依每个病种组合的分值形成支付标准，结合辅助目录调节分值点值。实施严谨的月度预付和年度考核清算，实现依分值对医保基金的支付。加强对个体、特异变化、费用异常病例及极端异常病例的筛查评定，形成基于校正的支付工作机制。', '（四）建立DIP付费监管考核评价体系。各级医保经办机构要要进一步优化完善考核指标，在关注医疗机构年住院总费用增长率、医疗机构年出院总人次增长率、医疗机构重复住院率增长率、医疗机构疾病和手术编码准确率、编制床位数与医护人员比的同时，建立DIP考核制度，强化对医疗机构行为、过程和结果的评价，强化对治疗方法合理性、二次入院、低指征住院、超长住院、死亡风险的客观评估，将评估结果与支付水平挂钩，发挥医保基金的导向作用，推动医疗机构能级提升。做实组别高套的发现机制，避免发生选择轻症病人、推诿重症患者、组别高套和良性竞争不足，推动DIP付费有效运行。建立医疗机构有效分值认定办法，建立日常监管结果与病种分值年度清算挂钩机制，将日常查处医疗机构违规费用情况纳入有效分值认定范围，放大认定结果。建立医疗服务质量考核评价办法，引入参保人员满意度调查、同行评议等评价方式，倒逼医疗机构提升服务质量。', '（五）利用信息化加强智能监管。各级医保经办机构要依据医疗保障基金使用监督管理方面法律法规，利用医保费用信息化系统，依托信息技术、创新数据监管。建立基于信息技术应用的医保基金监管体系，实现全程化、实时化、智能化、精细化的数据分析系统，借助大数据分析以及第三方监管服务机构的作用，对医疗服务的相关行为和费用进行监控分析，开展医疗数据智能审核。建立覆盖医疗服务全要素、全流程的风险管理监管平台，端口前移，实现智能监管、智能审核、智能稽查，实现线上、线下全面监管。形成网上实时监控、就诊和费用情况审核、举报调查、常规和专项检查相结合的全方位监管模式。通过人脸识别技术强化住院身份认证，严厉打击虚假骗套医保基金行为。', '（六）实行基层病种医保基金同标准支付。在采取医疗机构等级系数法确定医疗机构系数的基础上，通过综合考虑各定点医疗机构级别、类型、病种次均基本医疗费用的客观差异以及医保部门对医疗机构进行绩效考核情况等综合因素优化不同医疗机构系数。将三级医疗机构系数设为参照物，根据实际运行结果，综合评价指标，进一步完善医疗机构系数。通过DIP付费将基层医疗机构能够诊治、符合基层医疗机构功能定位和服务能力的常见病、多发病、慢性病的疾病病种实行基层医疗机构与高层级医疗机构医保基金同标准支付，即同病种同分值，引导患者分级诊疗，减少高等级医疗机构“虹吸现象”，引导医疗机构强化功能定位，发展特色，发挥高层级医疗机构在诊治危急重症患者的作用。具体病种经专家评定统一确定并对外公布，并纳入医保按病种分值软件系统管理。', '（七）实行医疗机构结余留用最高限额管理。防范基础数据不规范、不完整和相关指标确定不精准导致的DIP付费工作的不公平性和不合理性，对结余留用费用实行最高限额管理。对医疗机构按病种分值核算的应结算基金超出其与参保人员实际结算基金额度的，在对费用合规性审核的基础上可结余留用，额度不得超出本医疗机构按病种分值核算应结算基金总额的5%。医疗机构结算的基金总额一般情况下不得超过本县（区）基金总收入的50%。指标根据运行情况可适时调整。', '（八）以DIP付费促进公立医院综合改革。适应公立医院综合改革要求，发挥县（区）在付费改革中的监管职能作用。市级医保经办机构统一组织各县（区）核算全市纳入DIP付费的各医疗机构分值及所得基金总额。建立基金按季预拨、按月预结、按年清算工作机制，各县（区）基金总额由市级经办机构拨付、清算到各县（区）经办机构，由各县（区）医疗保障部门再结合有效分值认定、违规费用扣除、日常监管等工作结算支付到实施医联体医共体的总医院，由牵头医院根据集团（医联体/医共体）内部考核等分配各医疗机构。', '（九）确定中医特色病种。支持中医发展，通过国家和区市专家组认定确定一批“中医特色病种”，在确定该病种分值时，可适当上调该病种分值，发挥DIP付费政策对中医的支持作用。', '（十）加强医保信息化建设和依法管理水平。加大医保信息化建设投入，全面使用全国统一的相关医保信息业务编码。充分利用“互联网+”，将远程诊疗、“互联网服务项目”等纳入医保报销范围。建立和完善举报奖励制度，畅通投诉举报渠道，及时兑现奖励资金，促进群众和社会各方积极参与监督。将各种违规行为和骗套医保基金行为人纳入全社会诚信体系建设中，加大对失信行为惩处力度。鼓励行业协会开展行业规范和自律建设，制定并落实自律公约，促进行业规范和自我约束。建立和完善部门间相互配合、协同监管的综合监管制度，推行网络化管理。强化医疗机构党组织在基金监管方面的政治责任，主要负责人的领导责任，分管领导和医保负责人的直接责任。争取支持组建专门的医疗保障执法队伍，解决日常执法不专业、不权威等问题，推动DIP付费措施落实落地。', '（十一）提升医保服务能力。深入落实医保领域“放管服”改革，推进医疗保险标准化建设。优化完善医疗保障“一站式”结算平台，进一步优化完善服务功能。推进医疗保险公共服务标准化规范化，推进医保电子凭证广泛应用，实现医疗保障一站式服务、一窗口办理、一单制结算。适应人口流动需要，做好各类人群参保和医保关系跨地区转移接续。抓好异地就医备案试点，进一步完善异地就医住院和门诊大病费用直接结算服务。统一医疗保障业务标准和技术标准，实现医疗保障信息互联互通。加强经办队伍建设，加强人员培训和能力提升，打造与新时代医疗保障公共服务要求相适应的专业队伍。加强医疗保障系统作风建设，加快推进服务事项网上办理，提高运行效率和服务质量，确保全市DIP付费管理工作更加精准、更加科学、更加细致。', '（一）制定方案，成立工作专班（2022年1月中旬前）。成立工作专班，按照国家和自治区对区域点数法总额预算和按病种分值付费工作相关要求，拟定工作方案，跟进实施。', '（二）组织培训，学习交流经验（2022年3月20日前）。组织市、县（区）医疗保障人员赴试点先进市实地考察学习经验。邀请国家和自治区专家组专家分期分批对全市医疗保障系统和医疗机构相关人员进行全面培训。', '（四）提取数据，制定本地目录库（2022年5月15日前）。提取历史数据并报送上级部门，并制定本地版DIP目录库等。完成医疗保障系统人员培训，实现病种分组本地化。制定结算办法、经办流程、基金管理办法等配套政策。', '（五）系统改造，调整病种目录库（2022年6月20日前）。完成系统接口改造上线，模拟运行，完成模拟运行、汇总并进行完善。调整病种目录库、分值等。并上报上级部门备案，7月1日正式启动实际付费，正式上线运行。', '（六）完善政策，总结经验推广（2022年9月底前）。落实有关标准制度，跟踪监管评估，完善服务协议机制，总结推广。', '（一）组织领导机制。由市医保局联合市卫生健康委、财政局和各县（区）医保、卫生健康、财政、医疗机构及科研院所成立中卫市区域点数法总额预算和按病种分值付费省级试点工作领导小组，具体负责组织实施工作。制定配套政策，提出软件需求，做好运行保障及宣传动员。积极参加国家医保局和自治区医保局组织的相关培训，争取国家医保局和自治区医保局技术指导组、科研院所给予技术指导和支持，协助我市制定按病种分值付费技术规范、分组方案和管理办法。充分调动医疗机构积极性，建立与医疗机构的沟通协商机制，确保试点顺利进行。', '（二）定期报告机制。定期总结工作进展及成效，形成阶段性报告（包括地方病种组合目录动态维护和分值付费标准测算等基础准备工作进展及具体组织实施情况、开展效果等），按要求上报自治区医保局。', '（三）经费保障机制。为确保DIP付费省级试点工作顺利推进，将医保服务能力提升资金列为此项目保障经费。主要用于宣传材料印制、学习（专家）培训、基线调查、病种分值库维护、软件系统接口改造等。', '（四）监测评估机制。接受专家开展跟踪评价，主要对我市按病种分值付费工作进展、医保基金运行情况监测，对医保精细化管理能力和服务水平提升、医疗机构运行机制转变、参保人受益等付费实施效果进行阶段评估。', '（五）学习总结机制。组织外出学习考察，加强与其他试点地区间交流学习，及时总结试点经验做法，形成典型案例，广泛宣传主要做法、阶段性成果和可借鉴的经验等。', '一是抓好人员培训。实施DIP付费是医疗保险管理的一项重要工作，对进一步提高医疗保障科学化、精细化、信息化管理水平有重要促进作用。各县（区）要统一思想认识，在统一培训的基础上，开展多层次培训工作，使各级医疗机构和广大医护人员知晓区域点数法总额预算和按病种分值付费的相关政策。', '三是抓好协调配合。加强部门协调，明确部门职责，形成工作合力。市医保部门发挥牵头组织作用，统筹协调，研究解决试点推进中的各种问题。卫生健康部门要及时组织做好医疗机构HIS系统改造和绩效评价系统建设工作，加强对医疗机构和医务人员行为的监管，以DIP付费改革为契机，进一步加强医疗服务精细化管理，采取多种措施控制医疗成本，引导医务人员增强成本控制意识，规范诊疗服务行为。市财政部门会同市县（区）医保部门做好区域点数法总额预算工作，加强对医疗保险经办机构执行预算、费用结算的监督，保障相应工作经费。市县（区）医保经办机构加强政策落实，抓实抓好具体实施工作，并做好日常医疗机构监管和费用结算工作等。', '四是抓好政策宣传。高度重视宣传舆论的引导作用，切实做好政策宣传和解读，使广大医务人员和参保人员全面了解开展DIP付费的重要意义，理解配合支持改革。各县（区）在推进中遇到重大事项和问题，要及时报告市医保、卫生健康、财政部门。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>293</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>加强产学研合作促进农业科技创新</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2019-07-15</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/skxjsj/fdzdgknr_49279/bmxx_49310/201907/t20190731_1637378.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['近年来，中卫市科技局积极借助区内外高校、科研院所的科技资源优势，组织开展了人才培养、成果转化、联合开发、技术服务等多种形式产学研科技合作，有效推进了企业科技创新，促进了全市科技进步。截止目前，宁夏阜康生物科技股份有限公司、宁夏全通枸杞供应链管理股份有限公司、宁夏神聚农业科技开发有限公司等涉农企业与浙江大学、中国科学院、天津科技大学等高校院所达成院企合作10多项。', '一是征集企业需求。通过发放需求表的方式，征集涉农企业技术难题和项目需求，并及时与高校院所对接。二是引导院（校）企合作。根据企业技术需求，市科技局积极引导有关企业负责人到高校院所对接学习，同时组织涉农企业积极参加各大高校院所来宁举办的成果专场对接会和产学研座谈会，通过现场考察、交流等方式帮助企业解决技术困难。三是鼓励企业建立创新载体。积极推进实施各类科技项目及创新平台的建设，将产学研合作作为申报创新载体的重要条件。已培育建成“枸杞产品加工技术创新中心”“果蔬加工技术创新中心”等科技创新载体52个，夯实了产学研合作的基础。', '下一步，市科技局将继续围绕实施创新驱动发展战略，汇聚众智众力，加快推动建立以企业为主体、产学研深度融合的技术创新体系，有力促进科技难题攻坚和成果转化，助推我市农业科技创新更上一层楼。（农社科 蔡敏）']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>293</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>市司法局认真学习宣传贯彻习近平总书记视察宁夏重要讲话精神</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2020-06-24</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/bmxxgkml/ssfj/fdzdgknr_49428/bmxx_49458/202006/t20200624_2146500.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['6月8日至10日，习近平总书记在自治区党委书记陈润儿、自治区政府主席咸辉陪同下，先后来到吴忠、银川等地，深入农村、社区、防洪工程、农业产业园区等，就统筹推进常态化疫情防控和经济社会发展工作、巩固脱贫攻坚成果、加强生态环境保护、推动民族团结进步进行了调研。', '为认真做好学习宣传贯彻习近平总书记视察宁夏时的重要讲话精神，确保讲话精神落地落实。6月16日上午，我局组织召开第7次党组中心组（扩大）学习，传达学习了习近平总书记视察宁夏时的重要讲话和重要指示精神、自治区党委常委会（扩大）会议传达学习习近平总书记视察宁夏时的重要讲话和重要指示精神时陈润儿同志的讲话精神。6月19日下午，召开第8次党组中心组（扩大）学习，传达学习了传达学习自治区党委办公厅《关于认真学习宣传贯彻习近平总书记视察宁夏重要讲话精神的通知》精神，习近平总书记在宁夏回族自治区考察工作结束时的讲话精神等，提出了贯彻意见。6月24日上午，局党支部开展了学习宣传贯彻习近平总书记视察宁夏时的重要讲话精神主题党日活动，再次研读总书记重要讲话精神，并组织4名党员同志结合本职工作，进行了交流研讨。', '会议指出，习近平总书记视察宁夏并发表重要讲话，饱含了对宁夏人民的深切关怀、对宁夏发展的深厚期望、对宁夏干部的深情嘱托，为宁夏各项事业发展指明了前进方向、提供了基本遵循、注入了强大动力。要深刻认识习近平总书记视察宁夏重要讲话的重大意义，准确把握习近平总书记对宁夏提出的目标要求、赋予的时代重任、明确的工作重点，进一步统一思想、统一意志、统一行动，切实用以武装头脑、指导实践、推动工作。', '会议要求，一是全体干部职工、尤其是党员干部要从政治高度，充分认识学习宣传贯彻习近平总书记重要讲话精神的重要性，把学习宣传贯彻习近平总书记重要讲话精神作为当前一项重要政治任务，带着感情学、带着信仰学、带着觉悟学、带着责任学，把学习内容与工作实践融会贯通，切实增强“四个意识”、坚定“四个自信”、做到“两个维护”。二是要以总书记重要讲话精神为指引，提高工作水平，提高自身素质。要把总书记对宁夏的亲切关怀转化为促进工作、奋发进取的强大动力，以“功成不必在我”的精神境界和“功成必定有我”的历史担当，以昂扬的精神状态和奋斗姿态，久久为功，为决胜全面建成小康社会、决战脱贫攻坚，继续建设经济繁荣、民族团结、环境优美、人民富裕的美丽新宁夏作出新的更大贡献。三是要切实抓好当前各项工作，以实实在在的工作落实习近平总书记的重要讲话精神。一要全面统筹依法治市（县）工作，推进法治政府建设；二要大力推进“人民调解+仲裁+信访”模式，打造中卫版“枫桥经验”不断提升社会治理能力；三要深入推进扫黑除恶专项斗争、公共法律服务体系建设、七五”普法考核验收、脱贫攻坚、创建文明城市、民族团结示范市等重点工作；四要扎实推动民法典的学习宣传实施工作。五要抓好疫情防控工作不松劲，扎实做好“六稳”工作，全面落实“六保”任务。六要加强法治审核工作，为建设黄河流域生态保护和高质量发展先行区提供法治保障。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>293</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>增强国防观念强化人防意识</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/srmfkbgs/fdzdgknr_50238/zfkfr_50257/ssqk_50259/202212/t20221214_3888210.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['为切实推进阳光、透明、开放、服务型政府建设，保障人民群众的知情权、表达权、参与权和监督权，切实增强群众对人防工作的认同感、满意度，提升人防公信力、执行力。11月18日市人防办举办以“增强国防观念，强化人防意识”为主题的“政府开放日”活动。以政民互动的形式，听取公众意见，接受公众监督，打通政府联系服务群众的“最后一公里”。', '本次活动共邀请了人防专业队组成部门、人防工程建设代表等21人。在活动中，代表们先后到观河大院已投入使用人防工程、滨河首府人防工程、人防办办公场所进行了观摩。', '随后召开了座谈会，就人防办工作进行了汇报，对人防部门的基本情况和主要职能进行了详细讲解。发放人防应急与避险自救常识、人民防空基本常识、爱护人防工程人防办设施、人民防空群众组织等手册。各位代表在认真观看并听取汇报后，对人防工作给予了充分肯定，并提出了“抓好人防宣传教育工作、抓好人防应急演练、抓好人防业务知识培训、经常性组织服务对象、群众开展观摩学习活动”四个方面的意见和建议，会后针对与会代表的意见建议，认真分析研究，制定整改落实清单，并将其作为日后工作的重点方向。', '此次“政府开放日”活动，通过参观考察、座谈交流，群众代表和服务对象对人防办工作有了更直观的了解，拉近了与群众的距离，提升了我办政务公开工作水平，为做好人防工作打下了基础。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>293</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>自治区科技厅领导来卫开展春季大调研</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2019-03-07</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/skxjsj/fdzdgknr_49279/bmxx_49310/201903/t20190314_1313144.html</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['3月5日，自治区科技厅副巡视员芮建华带领相关处室负责人来中卫市调研指导工作。调研组就我市全区科技工作会议精神学习贯彻落实情况、自治区重大、重点科技项目实施情况、2019年科技工作思路及工作中存在的困难等进行实地调研。', '调研组一行先后在海原西部高端肉牛研究院、紫光天化蛋氨酸、利安隆（中卫）新材料、大河精工、金硅信息、达天飞艇、科豪陶瓷、全通枸杞等公司地进行实地调研考察，听取了各单位负责人对2017、2018两个年度自治区重大、重点科技项目实施情况的汇报，查看了产品研发、生产过程，询问了需要协调解决的问题以及2019年科技需求和科技项目情况，并结合企业实际情况进行现场指导。', '随后，调研组与中卫市、沙坡头区科技分管领导、市直部门和相关企业负责人进行了座谈。会上，孙文德副市长代表中卫市对芮建华副巡视员一行表示欢迎，并希望科技厅一如继往的支持中卫市科技创新工作。市科技局负责人对中卫市贯彻落实全区科技工作会议精神、2019年科技工作思路及项目实施情况作了汇报，职能部门及企业负责人就企业在推进科技创新工作中存在的困难和问题提出了意见和建议。芮建华副巡视员对中卫市近年来在科技创新工作中取得的成绩给予充分肯定，并对代表们提出的意见和建议表示感谢，他希望中卫市继续发挥主导产业优势，加大创新投入，引导企业多研发生产适销对路的新产品，依靠科技创新提高企业的核心竞争力，为中卫市经济社会高质量发展做出新的贡献。（工业科 何媛媛）']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>293</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>李晓波主持召开市人民政府第次常务会议</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2020-05-09</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/cwhy/202005/t20200509_2074599.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['5月8日，市长李晓波主持召开第73次政府常务会。会议要求，要进一步提高思想认识、厘清发展思路、明确工作重点、强化工作措施、压实责任，努力克服疫情影响，以冲刺的状态奋进的姿态统筹推进各项工作。', '会议传达学习了习近平总书记在4月17日中央政治局会议、5月6日中共中央政治局常务委员会会议和陕西省考察时的重要讲话，5月7日李克强总理在中央应对新冠肺炎疫情工作领导小组会议和部分省市经济形势视频座谈会上的讲话精神；传达学习了自治区党委常委会扩大会议暨应对新冠肺炎疫情工作领导小组第11次会议、自治区政府第64次常务会议精神等；听取全市脱贫攻坚有关情况汇报，安排部署下一步工作。', '会议指出，当前，新冠肺炎疫情还有很大不确定性。各县（区）、部门（单位）要深入贯彻落实中央、自治区和市委各项决策部署，抓紧抓实抓细常态化疫情防控，精准落实“六稳”“六保”措施，奋力夺取疫情防控和经济社会发展“双胜利”。', '会议要求，要持续抓好常态化疫情防控，切实做到思想不麻痹、工作不松劲、疫情不反弹。要着力解决人流、物流、资金流等方面的困难问题，全力支持实体经济发展；要完善援企稳岗等稳定就业各项措施，多渠道促进就业创业；要加快推进重点项目建设，持续扩大精准有效投资；要全面落实好10项民生实事，全力保障群众基本生活。要牢固树立绿水青山就是金山银山的理念，坚持不懈抓好生态环境整治。', '会议要求，各县（区）、部门(单位)要整合资源、强化措施，倒排工期、强化督导，因户、因人精准施策，瞄准突出问题和薄弱环节狠抓政策落实，确保稳定脱贫；要坚持问题、目标、结果导向，全面查漏补缺，加快补齐短板弱项；要在巩固成果上再加把劲，确保脱贫攻坚取得实效，经得起检验。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>293</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>市财政局多举措落实六稳六保工作中卫市财政局第期</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2020-11-12</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sczj/fdzdgknr_49463/bmxx_49496/202011/t20201119_2342586.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['今年以来，面对新冠疫情冲击及减税降费双重压力，市财政局积极应对严峻的财政收支形势，从严从紧加强预算管理，坚持有保有压、统收结合，积极统筹资金，努力弥补收支缺口，牢固树立“过紧日子”的思想，确保我市经济平稳支行，全力落实“六稳”、“六保”。', '一、压缩一般性支出、兜牢“三保”底线。在编制2021年部门预算时，市财政局按照10%标准压减各预算单位经费支出，压减不必要培训、学习交流、考察等活动，将“三保”资金按政策全额列入预算，足额保证，严格执行国家和自治区“三保”政策标准和范围，不留缺口也不扩大范围。', '二、盘活存量资金，统筹各类财政资金。清理了市直各部门（单位）账户资金余额，并梳理收回财政存量、结余资金3915万元进行统筹使用。清理上缴部门（单位）近年来账户资金产生利息收入近1500余万元，统筹两年以上结转的专项资金和市本级预算资金，统筹历年结余结转资金8782万元，主动消化收支缺口。', '三、用活财政资金，提高使用效率。严格预算执行，强化预算约束，在落实减税降费政策的同时，坚持把民生作为财政保障的头等大事，不断调整优化支出结构，加大对民生事业的投入力度，千方百计保障刚性支出，优先保障脱贫攻坚、就业创业、优抚安置、教育、医疗等领域普惠性、基础性、兜底性民生支出，着重解决重点领域和重点人群的基本民生保障问题，增强人民群众获得感、幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>293</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>习近平在福建考察时强调</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2021-03-26</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202103/t20210326_2639805.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是22日下午，习近平在南平武夷山市星村镇燕子窠生态茶园，察看春茶长势，了解当地茶产业发展情况。 新华社记者 鞠鹏 摄', '3月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在福建考察。这是24日下午，习近平在福州福山郊野公园考察时，同市民们亲切交流。 新华社记者 王晔 摄', '中共中央总书记、国家主席、中央军委主席习近平近日在福建考察时强调，要落实党中央决策部署，坚持稳中求进工作总基调，立足新发展阶段、贯彻新发展理念、构建新发展格局，深化供给侧结构性改革，扩大改革开放，推动科技创新，统筹疫情防控和经济社会发展，统筹发展和安全，在加快建设现代化经济体系上取得更大进步，在服务和融入新发展格局上展现更大作为，在探索海峡两岸融合发展新路上迈出更大步伐，在创造高品质生活上实现更大突破，奋力谱写全面建设社会主义现代化国家福建篇章。', '仲春时节，八闽大地一派勃勃生机。3月22日至25日，习近平在福建省委书记尹力、省长王宁陪同下，先后来到南平、三明、福州等地，深入国家公园、生态茶园、文物保护单位、医院、农村、企业、学校等，就贯彻党的十九届五中全会精神、推动“十四五”开好局起好步、统筹推进常态化疫情防控和经济社会发展等进行调研。', '武夷山国家公园是首批国家公园体制试点之一。22日下午，习近平来到公园智慧管理中心，察看智慧管理平台运行情况。该中心综合运用智能化技术，实现了对公园“天地空”全方位、全天候监测管理，提升了生态保护能力。习近平对生态文明建设高度重视，在福建工作期间就推动了长汀水土流失治理、木兰溪防洪工程等重大生态保护工程，并于2000年推动福建率先在全国探索生态省建设。经过长期努力，福建生态文明建设取得了积极成效。习近平指出，建立以国家公园为主体的自然保护地体系，目的就是按照山水林田湖草是一个生命共同体的理念，保持自然生态系统的原真性和完整性，保护生物多样性。要坚持生态保护第一，统筹保护和发展，有序推进生态移民，适度发展生态旅游，实现生态保护、绿色发展、民生改善相统一。', '武夷山是乌龙茶、红茶的发源地。习近平来到星村镇燕子窠生态茶园，察看春茶长势，了解当地茶产业发展情况。习近平强调，要统筹做好茶文化、茶产业、茶科技这篇大文章，坚持绿色发展方向，强化品牌意识，优化营销流通环境，打牢乡村振兴的产业基础。要深入推进科技特派员制度，让广大科技特派员把论文写在田野大地上。', '离开茶园，习近平乘竹筏沿九曲溪察看生态环境保护情况和自然景观。在九曲溪畔的朱熹园，习近平详细了解朱熹生平及理学研究等情况。他指出，要推动中华优秀传统文化创造性转化、创新性发展，以时代精神激活中华优秀传统文化的生命力。要把坚持马克思主义同弘扬中华优秀传统文化有机结合起来，坚定不移走中国特色社会主义道路。', '近年来，三明医改以药品耗材治理改革为突破口，坚持医药、医保、医疗改革联动，为全国医改探索了宝贵经验。2016年2月，习近平主持中央全面深化改革领导小组会议，听取了三明医改情况汇报，要求总结推广改革经验。23日上午，习近平来到三明市沙县总医院，在住院楼一层大厅听取医改情况介绍，向医护人员、患者了解医改惠民情况。习近平强调，人民健康是社会主义现代化的重要标志。三明医改体现了人民至上、敢为人先，其经验值得各地因地制宜借鉴。要继续深化医药卫生体制改革，均衡布局优质医疗资源，改善基层基础设施条件，为人民健康提供可靠保障。', '福建发扬习近平在宁德工作时提出的弱鸟先飞、滴水穿石精神，下大气力抓摆脱贫困。经过30多年努力，福建全省同全国一道，彻底消除了绝对贫困。23日下午，习近平来到革命老区村——沙县夏茂镇俞邦村，在小吃摊边、特产店里、村民家门前，同乡亲们亲切交谈，详细了解沙县小吃发展现状和前景。习近平指出，沙县人走南闯北，把沙县小吃打造成了富民特色产业。乡村要振兴，因地制宜选择富民产业是关键。要抓住机遇、开阔眼界，适应市场需求，继续探索创新，在创造美好生活新征程上再领风骚。', '习近平在福建工作时推动开展了集体林权制度改革，试行“分山到户、均林到人”，实现“山定权、树定根、人定心”。在沙县农村产权交易中心，习近平听取集体林权制度改革介绍，向办事群众和工作人员了解集体林地经营权流转交易、不动产登记等情况。习近平指出，三明集体林权制度改革探索很有意义，要坚持正确改革方向，尊重群众首创精神，积极稳妥推进集体林权制度创新，探索完善生态产品价值实现机制，力争实现新的突破。', '习近平24日在福州考察调研。在福州工作期间习近平领导实施了福州市“3820”工程，勾画跨世纪福州现代化建设宏伟蓝图。在福山郊野公园，习近平乘坐电瓶车实地了解郊野福道风貌，他登上观景平台，远眺福州新貌，听取城市生态公园规划建设、城市水系综合治理情况汇报。市民们看到总书记来了，争相围拢过来。习近平指出，建设好管理好一座城市，要把菜篮子、人居环境、城市空间等工作放到重要位置切实抓好。福州是有福之州，生态条件得天独厚，希望继续把这座海滨城市、山水城市建设得更加美好，更好造福人民群众。', '福州三坊七巷历史文化街区保留了唐宋遗留下来的坊巷格局和大量明清古建筑。早在1991年，习近平在福州工作期间就召开文物工作现场办公会，推动制定福州历史文化名城保护管理条例和保护规划，有力促进了城市历史文化传承保护工作。习近平听取福州古厝和三坊七巷保护修复等情况介绍，步行察看南后街、郎官巷，参观严复故居，向游客和市民频频招手致意。习近平强调，保护好传统街区，保护好古建筑，保护好文物，就是保存了城市的历史和文脉。对待古建筑、老宅子、老街区要有珍爱之心、尊崇之心。', '福建福光股份有限公司是光学镜头重要制造商。习近平步入公司展厅，察看产品展示，询问企业技术创新和生产销售情况。超精密车间内，企业员工向总书记展示了产品生产工艺。习近平强调，我们国家进入科技发展第一方阵要靠创新，一味跟跑是行不通的，必须加快科技自立自强步伐。要坚持创新在现代化建设全局中的核心地位，把创新作为一项国策，积极鼓励支持创新。创新不问“出身”，只要谁能为国家作贡献就支持谁。', '25日上午，习近平来到闽江学院考察调研。闽江学院前身是福州师范高等专科学校和闽江职业大学。在福州工作期间，习近平曾兼任闽江职业大学校长6年时间，提出的“不求最大、但求最优、但求适应社会需要”的办学理念影响深远。2018年10月，习近平曾就闽江学院成立60周年致贺信。在闽江学院校史和应用型办学成果展示厅，习近平肯定学院在坚持应用型办学、深化产教融合等方面取得的成绩。习近平指出，要把立德树人作为根本任务，坚持应用技术型办学方向，适应社会需要设置专业、打好基础，培养德智体美劳全面发展的社会主义建设者和接班人。', '校园广场上师生们高喊“总书记好”、“习校长好”，习近平向大家挥手致意。习近平强调，实现第二个百年奋斗目标，实现中华民族伟大复兴，青年一代责任在肩。希望同学们树立远大理想、热爱伟大祖国、担当时代责任、勇于砥砺奋斗、练就过硬本领、锤炼品德修为，努力成为对社会有用的人、道德高尚的人，积极投身全面建设社会主义现代化国家的伟大事业。', '当天上午，习近平听取了福建省委和省政府工作汇报，对福建各项工作取得的成绩给予肯定，希望福建在全方位推动高质量发展上取得新成效。', '习近平强调，推动高质量发展，首先要完整、准确、全面贯彻新发展理念。新发展理念和高质量发展是内在统一的，高质量发展就是体现新发展理念的发展。要坚持系统观念，找准在服务和融入构建新发展格局中的定位，优化提升产业结构，加快推动数字产业化、产业数字化。要加大创新支持力度，优化创新生态环境，激发创新创造活力。要深度融入共建“一带一路”，办好自由贸易试验区，建设更高水平开放型经济新体制。要突出以通促融、以惠促融、以情促融，勇于探索海峡两岸融合发展新路。', '习近平指出，要加快推进乡村振兴，立足农业资源多样性和气候适宜优势，培育特色优势产业。要以实施乡村建设行动为抓手，改善农村人居环境，建设宜居宜业美丽乡村。要推进老区苏区全面振兴，倾力支持老区苏区特色产业提升、基础设施建设和公共服务保障等。要把碳达峰、碳中和纳入生态省建设布局，科学制定时间表、路线图，建设人与自然和谐共生的现代化。', '习近平强调，要着力提高人民生活品质，拓展居民收入增长的渠道，统筹做好高校毕业生、农民工、退役军人等重点群体就业。要全面贯彻党的教育方针，落实立德树人根本任务，坚持教育公益性原则，深化教育改革，办好人民满意的教育。要把保障人民健康放在优先发展的战略位置，织牢公共卫生防护网，推动公立医院高质量发展。要慎终如始做好“外防输入、内防反弹”的工作。要有效遏制重特大安全生产事故，推动扫黑除恶常态化。', '习近平指出，福建是革命老区，党史事件多、红色资源多、革命先辈多，开展党史学习教育具有独特优势。要在党史学习教育中做到学史明理，明理是增信、崇德、力行的前提。要从党的辉煌成就、艰辛历程、历史经验、优良传统中深刻领悟中国共产党为什么能、马克思主义为什么行、中国特色社会主义为什么好等道理，弄清楚其中的历史逻辑、理论逻辑、实践逻辑。要深刻领悟坚持中国共产党领导的历史必然性，坚定对党的领导的自信。要深刻领悟马克思主义及其中国化创新理论的真理性，增强自觉贯彻落实党的创新理论的坚定性。要深刻领悟中国特色社会主义道路的正确性，坚定不移走中国特色社会主义这条唯一正确的道路。要把各领域基层党组织建设成为坚强战斗堡垒。要不断提高不敢腐、不能腐、不想腐的综合功效，持续巩固发展良好的政治生态。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>293</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>中宁县助推红枣产业发展</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2018-07-05</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/qxdt/201807/t20180705_858108.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['红枣产业是中宁县特色支柱产业之一，近年来，随着枣树品种老化、管理经验落后，中宁红枣在市场竞争中逐渐乏力，价格一路下滑。为让红枣产业振兴发展，助力枣农增收，中宁县轿子山林场采取多种措施，通过技术推广+示范点建设模式，助推中宁红枣向高品质方向发展。', '走进轿子山林场红枣示范园，记者看到，这里的枣树栽植模式和以往有所不同，行距大、树型枝条层次分明，树木主干枝健壮有力，细枝条上已挂满果实。采访中记者了解到，为尽早从枣树品种老化、管理经验落后的困境中走出来，从2013年开始，林场就开始着手打造红枣示范园，力争通过标准、专业化管理，提升中宁红枣品质。', '“针对过去粗放单一的管理模式，目前轿子山林场通过对大树进行降高、落头等技术改良，培养新的枝组，然后恢复树势，降低工人的劳动强度”。轿子山林场副场长王金成说，对于幼龄园的管理，主要是充分利用枣树顶端优势的特性，先培养第一层主枝，第一层主枝培养好以后再培养第二层主枝 。', '实现好的种植理念还需要有过硬的技术进行支撑才行，为了提升枣园田间管理水平，林场先后组织职工赴甘肃、山西考察学习，借鉴外地先进经验，并制定出适合自己的栽植、管理模式。', '目前，林场红枣种植面积已发展到2200多亩，其中成龄枣树面积1000多亩、幼龄枣树1200多亩，依托项目实施，通过嫁接改良，将劣质品种全部更换为产量高、价值大的骏枣、灰枣、团枣，良种率达到95%。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>293</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>中卫市应急管理局年自主公开招聘事业单位工作人员公告</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2022-08-16</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202208/t20220816_3673453.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['为进一步加强应急管理人才队伍建设，加快引进急需紧缺的高层次人才，根据《事业单位公开招聘人员暂行规定》《宁夏回族自治区事业单位公开招聘工作人员实施办法》（宁党办〔2006〕35号）、《自治区党委组织部 人力资源和社会保障厅关于进一步做好全区事业单位自主公开招聘工作的通知》（宁人社函〔2020〕65号）等规定，现就市应急管理局自主公开招聘事业单位工作人员公告如下。', '2022年中卫市应急管理局自主公开招聘事业单位工作人员2名，具体岗位要求、简介等详见《中卫市应急管理局事业单位2022年自主公开招聘工作人员岗位计划一览表》（附件1）。专业和学科详见《宁夏回族自治区事业单位公开招聘工作人员专业参考目录》（附件2）。', '3.遵纪守法、品行端正，具有良好职业道德，作风正派、爱岗敬业、服从领导、团结同志、廉洁奉公；', '6.符合《中卫市应急管理局事业单位2022年自主公开招聘工作人员岗位计划一览表》（附件1）中各招聘岗位要求及相关条件；', '8.机关事业单位在编人员；已招聘的特岗教师；公告发布之日后辞职、辞退、解除或终止聘用合同的区内机关事业单位正式在编工作人员；', '本次招聘采取面试的方式进行，如同一岗位报名人数超过30人，则增加笔试环节，按照招聘人数1：3的比例进入面试，笔试成绩不计入总成绩。', '应聘人员严格按照招聘岗位的条件报名，要对网络报名提交材料的真实性、准确性负责。中卫市应急管理局根据实际情况，在报名结束后汇总报名人员信息，会同中卫市人力资源和社会保障局对应聘人员资格条件进行审查，准确把握审查标准，统一审查尺度，资格审查贯穿招聘工作全过程，如发现弄虚作假、不符合报考条件者，随时取消招聘资格。资格审查合格人员名单由中卫市应急管理局在中卫市人民政府网进行公示，公示时间为5个工作日。', '1.参加笔试范围。本次招聘原则上直接面试，如同一岗位报名人数超过30人，则增加笔试环节，按照招聘人数1：3的比例进入面试。', '3.笔试时间、地点。拟定于2022年9月7日（星期五）上午9：00—11：00进行。最终以中卫市人民政府网站公布时间为准。具体考试地点由考试单位通知应聘人员。报名人员须携带有效身份证（过期身份证、户籍证明等不作为有效证件）参加考试。', '面试人员确定后，由中卫市应急管理局、中卫市人力资源和社会保障局、纪检监察部门的监督下组织开展资格复审工作。应聘者资格复审时应提供以下材料:', '1.统一查验相关资格证件的原件并收取复印件：准考证、身份证、户口簿、毕业证书、学位证书、《教育部学历证书电子注册备案表》等岗位所需要的其它证明材料。具有境外学历学位者应提供教育部留学服务中心出具的境外学历学位认证书。', '2.在规定时间内未进行资格复审者，视为自动放弃，后果由应聘人员自负。复审不符合资格条件者取消面试资格。未能通过资格复审或放弃资格复审的，按照笔试成绩从高分到低分的顺序依次递补面试人选，递补面试人选的资格审查同上。放弃面试资格的应提供书面材料。', '3.应届毕业生在资格复审结束前尚未取得毕业证书的，应出具所在院校签章的毕业生就业推荐表及相关证明。证明包括被证明人姓名、性别、身份证号、拟毕业时间、所学专业名称和专业代码等内容。就业推荐表、相关证明与毕业证书、学位证书不一致的，以毕业证书、学位证书为准。2022年应届毕业生须在2022年7月31日前取得毕业证书、学位证书（具有境外学历学位者应提供教育部留学服务中心出具的境外学历学位认证书）。', '5.对应聘者的资格审查贯穿招聘工作全过程。凡发现应聘者不符合应聘条件的，随时取消应聘资格。', '1.面试前一周，在中卫市人民政府网发布面试公告，明确取得面试资格的应聘者以及参加面试的具体时间、地点、面试形式等。', '2.若同一岗位报名人数不足30人，则直接进行面试，从高分到低分确定录用人选；若同一岗位报名人数超过30人，则根据笔试成绩，按招聘岗位人数与进入面试人数1:3比例，从高分到低分确定面试人选。', '面试结束后，根据考试总成绩排名，按拟招聘人数1:1的比例确定体检和考察人选。体检由中卫市应急管理局组织，体检标准参照《公务员录用体检通用标准（试行）》（人社部发〔2016〕140号）执行。体检费用由应聘人员本人承担，体检不合格者，取消招聘资格，体检合格者确定为拟考察人员。', '1.考察工作按照德才兼备、以德为先的用人标准，重点考察应聘者的政治思想、道德品质、能力素质、工作表现、遵纪守法、廉洁自律以及是否需要回避等方面的情况。', '2.考察中发现因个人品德差、有不良政治记录的以及存在其他不宜进入事业单位工作的情形，经研究确定后可取消应聘资格。', '3.因涉嫌违法违纪正在接受调查，或者涉嫌违法犯罪且司法程序尚未终结的，可暂缓作出考察结论。自暂缓作出考察结论之日起90日内，上述调查或司法程序仍未终结的，一般应终止招聘程序。', '根据考试、体检、考察结果，确定拟公示、拟聘用人员名单，并在中卫市人民政府官网进行公示，公示时间5个工作日。公示结束后，对公示无异议的拟聘用人员，办理招聘手续，签订聘用合同，确立人事关系，并按规定办理相关手续。对反映有影响聘用的问题经查证属实的，不予聘用。拟聘用人员无正当理由逾期（自接到聘用通知15日内）不报到的，取消应聘资格。', '1.在资格复审阶段，举行了笔试的岗位，经复审不符合资格条件或自愿放弃的取消应聘资格，出现的空缺名额从报考同一岗位按笔试成绩由高分到低分依次递补，未举行笔试的岗位，复审符合资格条件人员全部进入面试。', '2.在体检、考察不合格或自愿放弃以及公示和聘用阶段因应聘者自愿放弃出现的空缺岗位，从报考同一岗位应聘者中，根据考试总成绩按规定依次递补。', '2.体检、考察、公示及聘用阶段因反映有影响聘用问题或不符合聘用条件，核实后取消聘用资格，出现的空缺岗位不再递补。', '（二）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》(人社部令第35号)及相关规定执行，构成犯罪的，依法追究刑事责任。', '（三）招聘单位相关人员、应聘者在办理公开招聘相关事项时需要回避的，应按照《事业单位人事管理回避规定》(人社部规〔2019〕1号)相关要求提出回避。', '（四）应聘者要提供正确联系方式，保持通讯畅通，因通讯不畅因电话不畅通导致无法通知相关事宜的，责任由应聘者承担。', '（五）招聘不指定考试辅导用书，不举办也不委托任何机构举办考试辅导班。请广大应聘者提高警惕，谨防上当受骗。', '（六）应聘者请密切关注中卫市人民政府官网招聘笔试、资格审核、面试、聘用等相关通知。', '（一）根据疫情防控工作有关要求，此次自主公开招聘工作各环节将全面落实依法防控、科学防治、精准施策要求，保证各考场开窗通风、清洁消毒，保持空气流通。所有考官、工作人员及考生进入考试区域需出示防疫健康码，接受体温监测，正确佩戴口罩，并保持1米安全距离，避免因人员聚集带来交叉感染的风险。', '（二）参加考试的考生应自备一次性医用外科口罩，做好个人防护。宁夏区外考生需全部测量体温，查验行程码、健康码，详细询问7日内旅居史，根据《新型冠状病毒肺炎防控方案（第九版）》等属地疫情防控政策要求，做好疫情防控工作。', '（三）在招聘工作组织实施过程中，将根据新冠肺炎疫情防控有关要求，严格执行属地疫情防控政策，必要时将对有关工作安排进行适当调整，并及时在中卫市人民政府官网发布补充公告或通知，请广大应聘者予以关注、理解、支持和配合。因疫情原因，考试时间有变动的，另行通知。', '（一）报名登记表要如实、详尽地填写，注明应聘岗位，粘贴照片，报名登记表应亲笔签名。', '（二）应聘者对应聘资料和个人情况的真实性负责，如与事实不符，一经发现，取消应聘资格，已聘用的，取消聘用资格。', '（三）公开招聘违纪违规行为的认定和处理，按照《事业单位公开招聘违纪违规行为处理规定》（人社部令第35号）及相关规定执行，构成犯罪的，依法追究刑事责任。', '（四）应聘人员要提供正确的联系方式，保持通讯畅通，因通讯不畅通造成的一切后果由本人承担。', '（五）因特殊原因影响，导致本次招聘条件、方式、时间等事项调整的，由中卫市应急管理局和中卫市人力资源和社会保障局综合考虑各种因素做出合理安排，并在公告发布网站发布补充公告或通知。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>293</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>习近平在湖南考察时强调</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2020-09-21</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202009/t20200921_2238541.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['中共中央总书记、国家主席、中央军委主席习近平近日在湖南考察时强调，要落实党中央决策部署，坚持稳中求进工作总基调，贯彻新发展理念，坚持以供给侧结构性改革为主线，决胜全面建成小康社会、决战脱贫攻坚，扎实做好“六稳”工作，全面落实“六保”任务，着力打造国家重要先进制造业、具有核心竞争力的科技创新、内陆地区改革开放的高地，在推动高质量发展上闯出新路子，在构建新发展格局中展现新作为，在推动中部地区崛起和长江经济带发展中彰显新担当，奋力谱写新时代坚持和发展中国特色社会主义的湖南新篇章。', '九月的三湘大地，洋溢着丰收的喜悦。16日至18日，习近平在湖南省委书记杜家毫、省长许达哲陪同下，先后来到郴州、长沙等地，深入农村、企业、产业园、学校等，就统筹推进常态化疫情防控和经济社会发展工作、谋划“十四五”时期经济社会发展进行调研。', '16日下午，习近平首先来到郴州市汝城县文明瑶族乡沙洲瑶族村考察调研。1934年，红军长征路过这里，留下了“半条被子”的感人故事。习近平走进“半条被子的温暖”专题陈列馆，了解当地加强基层党的建设、开展红色旅游和红色教育情况。习近平指出，“半条被子”的故事充分体现了中国共产党的人民情怀和为民本质。长征途中，毛泽东同志指出，中国工人、农民、兵士以及一切劳苦民众的出路在共产党主张的苏维埃红军，我们一定会胜利。今天，我们更要坚定道路自信，兑现党的誓言和诺言，同人民群众风雨同舟、血肉相连、命运与共，继续走好新时代的长征路。', '随后，习近平来到村服务中心、卫生室，了解基层公共服务工作和基本医疗保障情况。他强调，要把村为民服务中心作为基层治理体系的重要阵地建设好，完善充实服务事项，提高为民服务水平，增强为民服务的精准性和实效性。在接续推进乡村振兴中，要继续选派驻村第一书记，加强基层党组织建设，提高基层党组织的政治素质和战斗力。', '近年来，沙洲瑶族村大力发展乡村旅游和特优水果种植，建起了1500亩的沙洲现代农旅示范基地。习近平乘车来到基地了解扶贫产业发展和增收情况。他指出，要鼓励发展农民合作社，推动农业适度规模经营，加强对农民的科技服务，提高农产品质量，提高参与市场竞争和应对灾害能力。', '习近平接着来到文明瑶族乡第一片小学，走进厨房、储藏间，察看学生餐营养搭配和食品安全。四年级的同学们正在上思政课，看到总书记走进来，齐声向习爷爷问好。习近平对同学们说，你们今天是小树苗，将来要长成参天大树，中华民族伟大复兴的中国梦将在你们身上实现。希望同学们把红色基因传承好，好好学习知识和本领，努力成长为德智体美劳全面发展的社会主义建设者和接班人。各级党委和政府要关心关爱广大基层教师，落实好工资、社保、医疗、继续培训等各项政策。', '今年52岁的村民朱小红，是“半条被子”故事主人公徐解秀的孙子。习近平来到他家看望慰问。朱小红告诉总书记，这些年他和妻子参加了村里组织的蔬菜种植、厨师技能等培训，凭着一技之长实现了脱贫，又依托景区办起了民宿。习近平指出，中国共产党的奋斗目标就是为了让人民翻身得解放、过上好生活。要始终坚持全心全意为人民服务的根本宗旨，继续为实现人民对美好生活的向往而奋斗。他希望朱小红一家在讲好红色故事、传承红色基因方面发挥积极作用。', '离开朱小红家，习近平步行察看村容村貌。雨后的沙洲村青山滴翠，彩霞满天。闻讯赶来的村民和游客们高声欢呼“总书记好！”习近平频频向大家挥手致意，对乡亲们说，“半条被子”的故事让人民群众认识了共产党，把党当成自己人。正因为有人民群众支持和拥护，我们党才能走过辉煌历程，取得伟大成就。沙洲村是“半条被子”故事的发生地，今天我专门来这里看望乡亲们。作为一名中国共产党党员，我要不断接受教育、接受洗礼。我们党坚持为人民服务，不仅仅是一句口号，而是坚持不懈的实际行动。我们即将全面建成小康社会，接下来要为全面建成社会主义现代化强国而奋斗，让老百姓生活更加富裕、更加幸福。', '17日下午，习近平在长沙市考察调研。山河智能装备股份有限公司是一家装备制造领域的龙头企业，产品行销全球。习近平来到公司生产车间，察看装备制造流程，了解技术研发、生产制造情况，对他们的创新精神表示赞赏。习近平强调，自主创新是企业的生命，是企业爬坡过坎、发展壮大的根本。关键核心技术必须牢牢掌握在自己手里。要坚定不移把制造业和实体经济做强做优做大。我们强调构建新发展格局，不是关起门来搞建设，而是要继续扩大开放。', '马栏山视频文创产业园以数字视频创意为龙头，汇集了各类文创企业3000多家。习近平来到产业园，考察园区开展企业党建和内容生产、技术研发、人才培养等。习近平指出，文化和科技融合，既催生了新的文化业态、延伸了文化产业链，又集聚了大量创新人才，是朝阳产业，大有前途。谋划“十四五”时期发展，要高度重视发展文化产业。要坚持把社会效益放在首位，牢牢把握正确导向，守正创新，大力弘扬和培育社会主义核心价值观，努力实现社会效益和经济效益有机统一，确保文化产业持续健康发展。', '岳麓书院位于长沙岳麓山脚下、湖南大学校园内，是一所创建于北宋年间的千年学府。习近平来到这里考察调研，了解人才培养、文化传承等情况。书院里，习近平同正在开展思政课现场教学的师生们亲切交流。他强调，要把课堂教学和实践教学有机结合起来，充分运用丰富的历史文化资源，紧密联系中国共产党和中国人民的奋斗历程，深刻领悟马克思主义中国化的内在道理，深刻领悟为什么历史和人民选择了中国共产党和社会主义，进一步坚定“四个自信”。', '走出书院，广场上挤满了学生，大家齐声欢呼。习近平微笑地向大家挥手致意，对同学们说，在全面建设社会主义现代化国家新征程上，同学们将是接过历史接力棒的主力军。希望大家不负时代重托，不负青春韶华，勤奋学习，树立正确的世界观、人生观、价值观，走好人生道路，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦奉献自己的智慧和力量！', '18日上午，习近平听取了湖南省委和省政府工作汇报，对湖南各项工作取得的成绩给予肯定，希望湖南在建设富饶美丽幸福新湖南的征程上取得新成就。', '习近平强调，当前和今后一个时期，我国发展仍然处于重要战略机遇期，但机遇和挑战都有新的发展变化。要准确识变、科学应变、主动求变，更加重视激活高质量发展的动力活力，更加重视催生高质量发展的新动能新优势。', '要有序推进产业结构优化升级，加快发展优势产业，着力筑牢产业基础，推动产业链现代化。要注重扩大有效投资、繁荣居民消费。要围绕产业链部署创新链、围绕创新链布局产业链，强化企业技术创新主体地位，完善成果转化和激励机制，提升自主创新能力。要坚持目标引领和问题导向，拿出更大的勇气、更实的举措破除深层次体制机制障碍。要主动服务国家开放战略，深度融入共建“一带一路”，推动对外贸易创新发展。', '习近平指出，要坚持农业农村优先发展，推动实施乡村振兴战略。要扛稳粮食安全的重任，稳步提升粮食产能，全面压实耕地保护责任，推进高标准农田建设，坚决遏制各类违法乱占耕地行为。要深入推进农业供给侧结构性改革，因地制宜培育壮大优势特色产业，推动农村一二三产业融合发展。要深化农业农村改革，激活乡村振兴内生动力。要落实“四个不摘”，建立健全防止返贫长效机制，深入研究接续推进全面脱贫与乡村振兴有效衔接。', '习近平强调，要牢固树立绿水青山就是金山银山的理念，在生态文明建设上展现新作为。要坚持共抓大保护、不搞大开发，做好洞庭湖生态保护修复，统筹推进长江干支流沿线治污治岸治渔，做好渔民转产安置和民生保障工作。要持续改善生态环境质量，落实生态环境保护责任制，坚决打好蓝天、碧水、净土保卫战。要统筹推进山水林田湖草系统治理，推动生态系统功能整体性提升。要加强农业面源污染治理，推进农村人居环境整治。', '习近平指出，要坚持以人民为中心的发展思想，着力办好群众各项“急难愁盼”问题。要落实就业优先政策，突出做好高校毕业生、退役军人、农民工、城镇困难人员等重点群体就业工作。要全面贯彻党的教育方针，落实立德树人根本任务，深化教育改革，把社会主义核心价值观教育融入各级各类学校课程。要聚焦解决“看病难、看病贵”问题，深化公立医院改革，加强县级医院综合能力建设，加强标准化村卫生室和城市社区卫生机构建设，健全公共卫生和疾病预防控制体系。要搞好民族团结进步宣传教育，引导各族群众树立正确的祖国观、民族观、文化观、历史观，巩固和发展平等团结互助和谐的社会主义民族关系。', '习近平强调，湖南是一方红色热土，大批共产党人在这片热土谱写了感天动地的英雄壮歌。要教育引导广大党员、干部发扬革命传统，传承红色基因。各级党组织要把党的政治建设放在首位，教育引导广大党员、干部筑牢信仰之基、补足精神之钙、把稳思想之舵。要密切联系群众，经常深入基层、深入实际，把工作抓到群众心坎上，力戒形式主义、官僚主义。要坚持“老虎”、“苍蝇”一起打，一体推进不敢腐、不能腐、不想腐体制机制建设。要发扬斗争精神，增强斗争本领，敢打硬仗、善打胜仗，不断打开事业新局面。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>293</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>做好应急应战准备提升平战转换能力中卫市国动办开展铸盾宁防人防工程平战转换演练</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/srmfkbgs/fdzdgknr_50238/bmxx_50269/202310/t20231025_4324638.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['做好应急应战准备，提升平战转换能力——中卫市国动办开展“铸盾宁防-2023”人防工程平战转换演练_中卫市人民政府', '做好应急应战准备，提升平战转换能力——中卫市国动办开展“铸盾宁防-2023”人防工程平战转换演练', '为全面贯彻落实习近平总书记关于国防建设的重要讲话精神，高质量推进新时代人民防空战备建设，全力提升人民防空核心能力，10月23日上午，中卫市国动办在恒祥·东麓小区组织开展“铸盾宁防-2023”人防工程平战转换演练，自治区15个国动委成员单位负责人、五市22个市县（区）国动办主任、中卫市37个国动委成员单位负责人共100余人莅临现场观摩指导。演练以“做好应急应战准备，提升平战转换能力”为主题，开展居民区防空地下室由平时功能向战时功能的转换，主要目的是探索战时人防工程平战转换的程序和方法，锤炼我市人防指挥部在战时或突发情况下开展人防工程转换及防空袭应急处置能力。', '本次人防工程平战转换工作自8月启动以来，中卫市国动办主动作为，精心组织，组织领导干部多次外出考察学习，邀请陆军工程大学专家教授现场指导，严格按照早期转换30天、临战转换15天、紧急转换3天阶段规定要求开展，在转换内容上大胆尝新，运用了大量新技术新材料，其中构筑的水体抗爆挡墙应用了最新科研成果，在全国平战转换中首次使用。', '空袭天上至，人防地下行。通过此次人防工程平战转换演练，为全自治区树立了示范样板，实现了人防工程由战争潜力向战争实力的转化，进一步提高了群众的国防观念、防空意识和应急疏散能力，让人民群众感受到人防就在身边，人防可以依靠。市国动办将以此次演练为契机，紧盯人民防空工作的职能使命，认真总结演练活动中的经验做法，全面提升人民防空工作建设质量，铸就坚不可摧的护民之盾。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>293</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>自治区司法厅冯自保厅长考察调研中卫市司法行政工作</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2020-05-22</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/ssfj/fdzdgknr_49428/bmxx_49458/202005/t20200522_2096930.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['5月20日下午至21日上午，自治区司法厅党委书记、厅长冯自保、副厅长张任带领相关处室领导一行考察调研中卫市司法行政工作。先后到海原县司法局、中卫仲裁委、沙坡头区司法局、城市综合执法局、市法律服务中心、中卫市廉政法治教育基地进行调研，并在中卫市司法局召开座谈会。市委常委苏发坤、市政府副市长董立军先后陪同调研并参加座谈。', '座谈会上，市司法局党组书记、局长李斌汇报了司法行政工作，并提出了9个方面的问题和建议，各县（区）司法局各自汇报了工作，调研组对提出的问题建议分别予以答复。', '听取工作汇报后，冯自保同志对中卫市司法行政系统在人员编制少，队伍力量薄弱的情况下，锐意进取，开创出一批亮点和特色工作予以充分肯定。他指出：海原县司法局信息化建设能够将司法行政工作进行深度融合，互联互通，信息共享，此项工作走在全区前列；中卫仲裁委推出的“人民调解+仲裁+信访”矛盾纠纷治理模式是“枫桥经验”在中卫的有力探索实践；沙坡头区司法局规划建设社区矫正综合基地设想很好；市公共法律服务中心开展', '对市领导法律顾问“一对一”法律服务模式，对进一步提高市领导依法决策水平具有重要的促进作用。廉政法治教育基地作用发挥的很好，要不断创新内容和形式。下一步，中卫市司法行政系统要进一步推进这些特色亮点工作，及时总结提炼，努力打造成可供全区推广学习的先进经验。同时提出四点要求，一是牢牢树立党对司法行政工作的绝对领导。司法行政机关是政法机关，首先是政治机关，必须坚持党的领导不动摇，突出党的政治建设，强化思想教育洗礼，努力打造一支忠诚干净担当的司法行政队伍。二是积极发挥全面依法治市（县、区）办的职能作用。全面依法治市（县、区）办是党委政府交给司法行政机关的重要职责，各级司法行政机关要切实扛起责任，积极履职尽责，主动担当作为，统筹全面依法治市（县、区）各项工作，认真履行好全面依法治市（县、区）办职责。三是要切实抓好“两会”精神和自治区党委十二届十次全会精神的学习贯彻。特别是自治区出台的基层社会治理“1+6”方案，要认真组织学习，研究吃透文件精神，充分发挥法治在基层社会治理工作中的作用，不断完善基层治理体系提高基层治理能力。四是加强“两会”期间和开斋节假期值班值守工作。要把信访维稳和矛盾纠纷排查化解放在重要位置，统筹疫情防控常态化期间的安全稳定工作，强化特殊人群监管和矛盾纠纷排查化解，促进社会和谐稳定。', '十次全会精神的学习贯彻。特别是自治区出台的基层社会治理“1+6”方案，要认真组织学习，研究吃透文件精神，充分发挥法治在基层社会治理工作中的作用，不断完善基层治理体系提高基层治理能力。四是加强“两会”期间和开斋节假期值班值守工作。要把信访维稳和矛盾纠纷排查化解放在重要位置，统筹疫情防控常态化期间的安全稳定工作，强化特殊人群监管和矛盾纠纷排查化解，促进社会和谐稳定。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>293</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>我市分级分类指导推动主题教育抓实见效</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2019-11-15</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201911/t20191115_1849973.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['我市认真贯彻习近平总书记在河南考察时提出的主题教育“四个注重”要求，在突出抓好县处级以上领导班子和领导干部这一“关键少数”的基础上，制定 “1+5”指导措施，进一步推动主题教育具体化、精准化、差异化落实，切实推动主题教育抓实见效。', '注重分类指导，确保全覆盖落细落实。我市紧密结合工作实际，突出实践特色，制订1个总体方案和农村、社区、中小学（幼儿园）、卫生健康系统、非公有制经济组织和社会组织5个行业领域分项方案，做到分类施策。市委主题教育总体实施方案，以任务清单的方式为全市1741个基层党组织开展主题教育提供操作细则，明确每个基层党组织、每名党员需要做什么、标准是什么、成效体现在哪里。5个行业领域方案分级分类指导党员开展好个人自学、研讨交流、集中轮训、专题党课、对照检查、专项整改等方面工作，切实做到全覆盖、不遗漏。市委组建10个巡回指导组和教育、医疗卫生、非公企业和社会组织3个行业系统指导组，全覆盖全过程督导把关。市、县两级指导组通过审核工作方案、与联系单位领导谈话、深入现场指导等，强化督促指导把关。市委主题教育领导小组办公室通过召开指导组周例会、加强日常联系等方式，充分发挥指导组在一线督促、指导、把关等作用，确保主题教育精准对标不偏向、聚焦重点不走样。', '注重分类推进，自选动作有创新。我市针对年老体弱、行动不便的党员采取送学上门、走访谈心等方式组织参加学习教育；流动党员由流入地党组织纳入学习教育，流出地党组织采取定期送学、结对帮学、定期汇报学习情况等措施，把党员联系起来开展学习教育。非公企业和社会组织中的党员，通过班前学习会、夜读班、微党课等形式，确保主题教育参与对象不遗漏、全覆盖。在确保中央、自治区党委主题教育“规定动作”全面落实到位的基础上，结合实际创新设计了一系列自选动作。为增强学习教育效果，增加了以“专题报告学” “典型引领学” “以案明纪学”等形式，在全市范围内就近就便开展革命传统教育、形势政策教育、先进典型教育和警示教育“四项教育”。市委组织部、政法委联合组织开展“以案说法基层行”活动，以我市典型案例为素材，组织法律专家和部门工作人员，深入重点乡村宣讲110余场，弘扬了正气，强化了基层治理。市委举办了“党的好战士——张富清先进事迹情景报告会”，印发向黄文秀、王有德、李进祯、裘志新、屈孝智等先进榜样学习的通知，引领各级党员干部以先进典型为标杆，把学习先进典型激发出来的工作热情和奋斗精神转化为干事创业的实际行动。同时，组织广大基层党组织深入开展一次主题党日活动、组织一次学习交流研讨、阅读一本党史国史书籍、观看一部红色影片、参观一次红色档案文献展览“五个一”活动，加强爱国主义教育，切实增强主题教育的针对性和指导性。', '注重分类检视，查找问题有深度。在5个分项方案中针对不同行业领域实际，我市明确广大党员围绕党员意识、担当作为、服务群众、遵守纪律、作用发挥等方面，注重从不同的检视对照方向和重点，从主观上、思想上检视剖析。机关事业单位党员围绕担当作为方面，重点检视庸政懒政怠政、层层推责不担当等问题；农村党员围绕党员意识方面，重点检视理想信念模糊动摇、党员发挥作用不够、服务村民意识淡薄等问题；社区党员围绕服务群众方面，重点检视宗旨意识淡薄、思想觉悟不高、对社区发展建设不关注、居民反映问题推诿扯皮等问题；中小学校党员围绕遵守纪律方面，重点检视师德不良、师风不正，对推动中卫教育高质量发展存在的短板和不足等；卫生健康系统党员着重对照“三好一满意”，检视就医流程不够优化，医疗设备落后，基层医疗机构人才匮乏、基础设施差，老百姓看病难看病贵等问题，逐一列出问题清单，切实把问题找准查实，把根源剖深析透，为整改落实提供精准靶向，确保主题教育不虚不空不偏。市委、市政府为市中医医院投入资金1.01亿元，购置64排CT、电子胃肠镜、四维彩超等医疗设备1305台（件）。支持市人民医院投资6972万元购置了3.0T核磁、双源螺旋CT、血管造影机、乳腺成像机等大型高精尖医疗设备，弥补了我市在血管疾病、肝胆、泌尿系统等腹部疾病、妇女乳腺等疾病影像检查的不足。截至目前，市四套班子及各县（区）、各部门（单位）共上报检视问题2批共227个，已整改104个，123个问题正在整改中。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>293</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>沙坡头区多举措打造民营企业智力引擎</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2018-12-04</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/qxdt/201812/t20181204_1190046.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['今年以来，沙坡头区始终坚持把民营企业人才队伍建设放在人才强区的突出位置，采取三项举措，狠抓民营企业人才资源开发，努力培养锻造一支会技术、善经营、能管理的高素质民营企业人才队伍。', '沙坡头区积极推进“校企协作”人才创新发展模式，搭建产业技术创新科研平台，在万齐集团建立大学生创业孵化园、国家农业科技园区等基地，培养创业骨干135人，培养小微企业管理人才150人。邀请东北大学丁桦博士团队到沙坡头区实地考察，将宁钢集团作为东北大学技术转移中心的实践基地，为沙坡头区钢铁冶金产业转型升级提供智力保障。', '鼓励和引导企业适应发展需求，开展名企育英才、名师带高徒等活动，力求高端人才本土化、本土人才高端化，遴选科研成果好、成长潜力大的年轻人才进行重点培养，为企业培养人岗相适的产业人才，并评选表彰优秀非公企业经营管理人才10名。同时，自主开展财务管理、企业文化等培训，累计开展各类培训270场次，参训1000余人次。依托宁夏事业单位继续教育平台，将继续教育学时纳入职称评审的必备条件，使民营企业人才结合本职工作不断学习新理论、新知识、新技术、新信息，并为85名民营企业人才评定了职称资格。目前，培育民营企业高技能及专业技术人才1419名。', '开展人才政策“八进”宣传落实活动，有效推动人才政策“进企业”，为民营企业提供更多引才用才政策支持。大力开展“双培双推”活动，积极壮大民营企业党员队伍，从生产一线班组长、业务骨干、技术能手中发展党员9名。从乡镇、社区等基层一线抽调政治素质高、业务能力强、工作作风实的128名干部担任民营企业党建工作指导员，有效解决了民营企业党务人才匮乏、党建工作薄弱等问题，实现了党的工作全覆盖。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>293</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>习近平在河南考察时强调坚定信心埋头苦干奋勇争先谱写新时代中原更加出彩的绚丽篇章</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2019-09-19</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201909/t20190919_1745707.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['习近平在河南考察时强调 坚定信心埋头苦干奋勇争先 谱写新时代中原更加出彩的绚丽篇章_中卫市人民政府', '习近平在河南考察时强调 坚定信心埋头苦干奋勇争先 谱写新时代中原更加出彩的绚丽篇章', '新华社郑州9月18日电 中共中央总书记、国家主席、中央军委主席习近平近日在河南考察时强调，要认真贯彻落实党中央决策部署，坚持稳中求进工作总基调，坚持新发展理念，统筹做好稳增长、促改革、调结构、惠民生、防风险、保稳定各项工作，打好三大攻坚战，促进经济持续健康发展和社会和谐稳定，不断增强人民群众获得感、幸福感、安全感，在中部地区崛起中奋勇争先，谱写新时代中原更加出彩的绚丽篇章。', '金秋时节，中原大地洋溢着丰收的喜悦，到处生机盎然。9月16日至18日，习近平在河南省委书记王国生、省长陈润儿陪同下，先后来到信阳、郑州等地，深入革命老区、农村、企业等，就经济社会发展和“不忘初心、牢记使命”主题教育情况进行考察调研。', '大别山区的信阳市新县，是鄂豫皖苏区首府所在地。16日下午，习近平首先来到鄂豫皖苏区首府烈士陵园，瞻仰革命烈士纪念碑、纪念堂，远眺英雄山上“红旗飘飘”主题雕塑。在纪念碑前，习近平向革命先烈敬献花篮并三鞠躬，深情缅怀为革命胜利献出宝贵生命的英雄儿女。在纪念堂内，习近平听取革命烈士事迹介绍，高度评价他们的贡献。他强调，这次考察第一站就是鄂豫皖苏区首府烈士陵园，目的是在庆祝新中国成立70周年之际，缅怀革命先烈，告慰革命英灵。我每次到革命老区考察调研，都去瞻仰革命历史纪念场所，就是要告诫全党同志不能忘记红色政权是怎么来的、新中国是怎么来的、今天的幸福生活是怎么来的，就是要宣示中国共产党将始终高举红色的旗帜，坚定走中国特色社会主义道路，把先辈们开创的事业不断推向前进。', '接着，习近平来到鄂豫皖苏区首府革命博物馆，了解鄂豫皖苏区的革命历史。鄂豫皖苏区是中国共产党在土地革命战争时期领导创建的根据地之一，是仅次于中央苏区的第二大革命根据地，诞生了多支红军主力，创造了“28年红旗不倒”的奇迹。解放战争时期，这里是刘邓大军千里挺进大别山的落脚地。博物馆展陈了许多珍贵的革命文物，习近平驻足察看，不时同大家交流，追忆峥嵘岁月。习近平强调，开展“不忘初心、牢记使命”主题教育，党员、干部要多学党史、新中国史，自觉接受红色传统教育，常学常新，不断感悟，巩固和升华理想信念。革命博物馆、纪念馆、党史馆、烈士陵园等是党和国家红色基因库。要讲好党的故事、革命的故事、根据地的故事、英雄和烈士的故事，加强革命传统教育、爱国主义教育、青少年思想道德教育，把红色基因传承好，确保红色江山永不变色。', '参观结束后，习近平来到博物馆内院，会见了当地红军后代、革命烈士家属代表，同大家一一握手问候。习近平动情地说，今天我特地来看望大家，向大家和所有苏区红军后代、革命烈士家属表示亲切慰问。吃水不忘掘井人。我们绝不能忘记革命先烈，绝不能忘记老区人民，要把革命老区建设得更好，让老区人民过上更好生活。要做好革命老区、贫困地区的工作，保障好老区群众生活，让革命烈士含笑九泉。红军后代、革命烈士家属传承革命精神有说服力和感染力，要把先辈们的英雄故事讲给大家听，讲给年青一代听，激励人们坚定不移跟党走，为实现美好生活而奋斗。', '新中国成立70年了，老区人民生活怎么样？带着这份牵挂，习近平乘车来到新县田铺乡田铺大塆考察调研。这是一个别具特色的传统村落，依山傍水，风景秀丽，中原文化、楚文化、徽派文化在此交相辉映。近年来，村里依托红色旅游资源，发展起20多家创客小店，带动了村民脱贫致富。习近平沿着村间小路，走进一家家创客小店，询问手工艺品销路、民宿入住率、小卖部经营等状况。他强调，发展乡村旅游不要搞大拆大建，要因地制宜、因势利导，把传统村落改造好、保护好。', '在“老家寒舍”民宿店，习近平仔细察看服务设施，同店主韩光莹一家围坐在一起交谈。韩光莹告诉总书记，他是红军后代、革命烈士家属，近年来靠乡村旅游实现了增收，还带动乡亲们发展民宿走上致富路。习近平听了十分高兴。他指出，依托丰富的红色文化资源和绿色生态资源发展乡村旅游，搞活了农村经济，是振兴乡村的好做法。', '离开村庄时，乡亲们和游客们聚拢在村口，高声欢呼“总书记好！”“习主席好！”习近平微笑着向大家挥手致意。看到人群中的小学生们，总书记高兴地走上前握握他们的小手、拍拍他们的脸颊，勉励他们好好学习、全面发展。', '信阳市光山县位于大别山集中连片特困地区，是中央办公厅定点扶贫县。17日上午，习近平来到光山县槐店乡司马光油茶园考察调研。在油茶园展厅，习近平仔细了解光山县发展油茶产业、推动脱贫整体情况。', '天空飘着毛毛细雨，油茶园绿意更浓。习近平同正在劳作的村民和管理人员交流，实地察看油茶树种植和挂果情况，询问乡亲们家庭、务工和收入情况。大家告诉总书记，近年来，通过发展油茶种植加工产业，贫困户摆脱了贫困，村民过上了好日子。习近平强调，利用荒山推广油茶种植，既促进了群众就近就业，带动了群众脱贫致富，又改善了生态环境，一举多得。要把农民组织起来，面向市场，推广“公司+农户”模式，建立利益联动机制，让各方共同受益。要坚持走绿色发展的路子，推广新技术，发展深加工，把油茶业做优做大，努力实现经济发展、农民增收、生态良好。', '随后，习近平乘车前往光山县西南部的文殊乡东岳村。该村原有建档立卡贫困户145户585人，脱贫攻坚战打响以来，在各方共同努力下，2018年全村实现整体脱贫。习近平来到村文化接待中心，了解光山县脱贫工作和中办在光山县扶贫工作情况。这些年，东岳村大力推进“多彩田园”产业扶贫，成立了村电商服务中心，把村里的农副产品销往全国各地。习近平察看了糍粑、月饼、咸麻鸭蛋、黑猪腊肉、红薯粉条、甜米酒等“光山十宝”和光山羽绒服等特色产品，详细询问产品的市场销路和带动村民脱贫的作用。他强调，要积极发展农村电子商务和快递业务，拓宽农产品销售渠道，增加农民收入。要注意节约环保，杜绝过度包装，避免浪费和污染环境。光山花鼓戏列入了国家级非物质文化遗产代表性项目名录。两名花鼓戏演员给总书记现场表演了一段新编花鼓戏，赢得热烈掌声。', '习近平接见了中办派驻光山县挂职扶贫的同志，并同当地脱贫致富带头人亲切交流。习近平表示，光山县今年退出了贫困县序列，贫困帽子摘了，攻坚精神不能放松。追求美好生活，是永恒的主题，是永远的进行时。脱贫攻坚既要扶智也要扶志，既要输血更要造血，建立造血机制，增强致富内生动力，防止返贫。要发扬自力更生、自强不息的精神，不仅要脱贫，而且要致富，继续在致富路上奔跑，走向更加富裕的美好生活。脱贫攻坚是一项深得人民拥护的民心工程。党的政策再好，也靠大家去落实。要把基层党组织建设成为坚强战斗堡垒，把党中央提出的重大任务转化为基层的具体工作，抓牢、抓实、抓出成效。', '17日下午，习近平来到郑州煤矿机械集团股份有限公司。这是一家国家级高新技术企业，经过60多年发展，已经成为全球重要的煤矿综采技术和装备供应商、国际领先的汽车零部件制造企业。在企业展厅，习近平听取了企业开展科技创新、进行海外并购、推动产品转型升级情况介绍。总装车间内，煤矿液压支架产品整齐排列，习近平仔细观看了液压支架操作演示。他强调，制造业是实体经济的基础，实体经济是我国发展的本钱，是构筑未来发展战略优势的重要支撑。要坚定推进产业转型升级，加强自主创新，发展高端制造、智能制造，把我国制造业和实体经济搞上去，推动我国经济由量大转向质强，扎扎实实实现“两个一百年”奋斗目标。', '黄河是中华民族的母亲河、中华文明的摇篮。党的十八大以来，习近平总书记多次实地考察黄河流域生态保护和发展情况，多次就三江源、祁连山、秦岭等重点区域生态保护建设提出要求。17日下午，习近平来到黄河博物馆，走进展厅参观展览，了解黄河流域文明发展、水患治理、生态保护等的历史变迁。习近平不时驻足端详陈列的文物标本、历史文献和图片图表，就有关问题同大家探讨交流，充分肯定中华民族在同黄河水患的斗争中展现的不屈不挠、顽强拼搏的奋斗精神。', '习近平随后乘车来到黄河国家地质公园临河广场，沿黄河岸边步行察看周边环境，听取沿黄地区生态保护、水资源利用、堤防建设和防洪形势等情况。在临河广场观景平台，习近平眺望黄河郑州段。天高水阔，林草丰茂，一片勃勃生机。习近平指出，新中国成立之初，毛泽东同志就发出了“要把黄河的事情办好”的伟大号召。70年来，党领导人民开创了治黄事业新篇章，创造了黄河岁岁安澜的历史奇迹。实践证明，只有在中国共产党领导下，发挥社会主义制度优势，才能真正实现黄河治理从被动到主动的历史性转变，从根本上改变黄河三年两决口的惨痛状况。', '18日下午，习近平听取了河南省委和省政府工作汇报，对河南各项工作取得的成绩给予肯定。习近平强调，当前，我国发展形势是好的，但国际形势仍然错综复杂，我国发展面临新的风险挑战，我们必须办好自己的事情。希望河南广大干部群众在省委和省政府领导下，坚定信心，埋头苦干，以优异成绩迎接新中国成立70周年，努力创造出无愧历史、无愧时代、无愧人民新的更大的业绩。', '习近平指出，要推动经济高质量发展，抓住促进中部地区崛起战略机遇，立足省情实际、扬长避短，把制造业高质量发展作为主攻方向，把创新摆在发展全局的突出位置，加强重大基础设施建设，坚持以人为核心推进新型城镇化，善于用改革的办法解决经济社会发展中的突出问题，积极融入共建“一带一路”，加快打造内陆开放高地，加快建设现代化经济体系。', '习近平强调，要扎实实施乡村振兴战略，积极推进农业供给侧结构性改革，牢牢抓住粮食这个核心竞争力，不断调整优化农业结构，深入推进优质粮食工程，突出抓好耕地保护和地力提升，加快推进高标准农田建设，做好粮食市场和流通的文章，积极稳妥推进土地制度改革，加强同脱贫攻坚战略的有效对接，在乡村振兴中实现农业强省目标。', '习近平指出，要高度重视生态保护工作，牢固树立绿水青山就是金山银山的理念，从源头上解决生态环境问题，持续推进产业结构和能源结构升级优化，努力打造绿色低碳循环发展的经济体系，坚决打赢蓝天、碧水、净土保卫战，统筹推进山水林田湖草系统治理，把沿黄生态保护好，提升自然生态系统质量和稳定性。', '习近平强调，要切实保障和改善民生，坚持尽力而为、量力而行，办好群众所急、所需、所盼的民生实事。要聚焦“三山一滩”特别是大别山革命老区等深度贫困地区和特殊贫困群体实施攻坚，着力解决“两不愁三保障”突出问题。要出台更多鼓励就业创业的措施，重点解决好高校毕业生、退役军人、下岗职工、农民工、返乡人员等重点人群的就业问题。要加强社会治安综合治理，提高基层社会治理能力，为人民群众创造安居乐业的社会环境。', '习近平指出，要推动文化繁荣兴盛，传承、创新、发展优秀传统文化，严格落实意识形态工作责任制，推进媒体融合向纵深发展、建设全媒体，更加注重网络内容建设，让网络空间正气充盈。', '习近平强调，“不忘初心、牢记使命”主题教育，第一批已经结束，第二批刚刚启动。各级党委要总结运用好第一批主题教育成果，抓好第二批主题教育。第二批主题教育层级下移，线长面广。要注重分类指导，力戒形式主义、官僚主义，注重减轻基层负担，注重开门抓教育，注重解决群众最急最忧最盼的紧迫问题，切实把党中央关于主题教育的各项要求落到实处。', '习近平指出，鄂豫皖苏区根据地是我们党的重要建党基地，焦裕禄精神、红旗渠精神、大别山精神等都是我们党的宝贵精神财富。开展主题教育，要让广大党员、干部在接受红色教育中守初心、担使命，把革命先烈为之奋斗、为之牺牲的伟大事业奋力推向前进。', '考察期间，习近平在郑州亲切接见驻河南部队副师职以上领导干部和团级单位主官，代表党中央和中央军委向驻河南部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>293</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>闽宁协作谱写发展新篇章</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2022-07-28</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/ztzl/xczx/gzdt/202208/t20220816_3673895.html</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['2022年，中卫市深入贯彻落实习近平总书记关于深化东西部协作和定点帮扶工作重要指示精神，与漳州市、漳浦县紧密对接、强力协作，持续推进项目帮扶、劳务协作、产业合作、人才交流、消费帮扶等重点工作，切实把闽宁协作抓实、抓细、抓出成效。', '资金支持方面，积极争取闽宁协作资金7100万元，指导海原县研究制定《海原县2022年闽宁协作工作方案》，实施产业发展、就业项目、乡村建设行动、巩固三保障成果等闽宁项目5类27个，已全部开工建设。领导互访方面，中卫市、海原县主动赴漳州市、漳浦县对接新一轮东西部协作3次，漳州市、漳浦县来卫考察3次，推动两地发挥各自资源优势，创新协作模式，拓宽协作领域。人才交流方面，漳浦海原两县分别选派2名干部到两地挂职，选派110名专业技术人才开展交流学习，通过挂职锻炼和进修研学，不断拓宽干部视野，提升整体素质。产业发展方面，今年新增引进3家企业在海原县落地投产，投入资金额3.99亿元，实施产业项目3个；福建采购、帮助销售中卫农畜牧产品和特色手工艺产品金额3500万元。劳务协作方面，在福建·宁夏经贸合作暨企业家恳谈会上，中卫市推动宁夏鼎泰合人力资源有限公司与厦门天马微电子有限公司签订《闽宁协作劳务人员推荐服务协议》，计划至2025年为厦门天马微电子有限公司提供宁夏籍务工人员2000名，月工资约5000元，人均年收入60000元，总收入1.2亿元。大力开展闽宁专项招聘活动，通过“点对点”输送到福建农村劳动力569人，其中脱贫劳动力104人，推动农村劳动力有组织向福建输出。教育医疗互促方面，全市已选派29名教师赴福建省参加“国培计划”项目相关培训，福建组织19名研究生支教队员赴海原县开展支教活动，福建各结对医院共选派8名专家驻我市各帮扶医院开展对口帮扶指导交流工作，我市共派出10名医务人员赴闽进修学习，推动我市医疗和教育领域在组织管理、知识更新、学科建设、服务提升、人才培养等方面向更高水平发展。文化旅游互融方面，邀请福建漳州文化旅游主管部门领导和相关旅行社负责人参加2022第十一届中国宁夏（沙坡头）·丝绸之路大漠黄河国际文化旅游节开幕式，落实好《中卫市 漳州市文化旅游合作框架协议》和《福建旅游市场“引客入卫”奖励办法》，深化打造“夏游中卫·冬游漳州”旅游品牌，通过资源互换、互推互送等形式强化文化和旅游协作。', '下一步，我市将准确把握最新要求，不折不扣贯彻好习近平总书记关于东西部协作的重要论述精神，落实好党中央和闽宁两省区工作要求，聚焦巩固拓展脱贫攻坚成果、全面推进乡村振兴，创新合作思路和方式，拓展合作广度和深度，推动中卫-漳州、海原-漳浦两地全面发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>293</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>习近平在北京河北考察并主持召开北京年冬奥会和冬残奥会筹办工作汇报会时强调</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2021-01-21</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202101/t20210121_2575951.html</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['习近平在北京河北考察并主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会时强调_中卫市人民政府', '中共中央总书记、国家主席、中央军委主席习近平近日在北京、河北考察，主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会并发表重要讲话。他强调，办好北京冬奥会、冬残奥会是党和国家的一件大事，是我们对国际社会的庄严承诺，做好北京冬奥会、冬残奥会筹办工作使命光荣、意义重大。要坚定信心、奋发有为、精益求精、战胜困难，认真贯彻新发展理念，把绿色办奥、共享办奥、开放办奥、廉洁办奥贯穿筹办工作全过程，全力做好各项筹办工作，努力为世界奉献一届精彩、非凡、卓越的奥运盛会。', '习近平向所有运动员、教练员，向所有参与北京冬奥会、冬残奥会筹办的建设者、管理者和工作人员致以崇高的敬意和衷心的感谢，向大家致以新春的美好祝福。', '隆冬时节，华北大地碧空如洗，山区银装素裹。1月18日至19日，习近平分别在中共中央政治局委员、北京市委书记蔡奇和市长陈吉宁，河北省委书记王东峰陪同下，冒着严寒先后来到海淀、延庆、张家口等地，深入体育场馆、训练基地、交通枢纽等，实地了解北京2022年冬奥会、冬残奥会筹办情况。', '18日上午，习近平首先来到位于北京市海淀区的首都体育馆，听取北京冬奥会、冬残奥会筹办工作整体情况、参赛备战和群众性冰雪运动开展情况介绍，对各项筹办工作取得的进展表示肯定。', '首都体育馆是国内第一座人工室内冰场，经过改扩建已具备冬奥会短道速滑和花样滑冰比赛训练条件。习近平走到训练场边，察看场馆改造情况，同国家花样滑冰队和短道速滑队运动员、教练员代表亲切交流。习近平指出，建设体育强国，是全面建设社会主义现代化国家的一个重要目标。体育强国的基础在于群众体育。要通过举办北京冬奥会、冬残奥会，推动我国冰雪运动跨越式发展，补缺项、强弱项，逐步解决竞技体育强、群众体育弱和“夏强冬弱”、“冰强雪弱”的问题，推动新时代体育事业高质量发展。提高现代竞技体育水平，既要靠气力，也要靠技力。运动员要有为国争光、勇创佳绩的志气，夏练三伏、冬练三九，加强技术创新，学习借鉴国外先进理念和技术，不断提高训练和比赛水平。', '18日下午，习近平来到位于北京市延庆区的国家高山滑雪中心考察调研。国家高山滑雪中心规划建设了7条雪道，赛时将承办北京冬奥会、冬残奥会高山滑雪项目全部比赛。习近平乘坐缆车到达雪道中间平台，了解国家高山滑雪中心建设情况。习近平强调，要突出绿色办奥理念，把发展体育事业同促进生态文明建设结合起来，让体育设施同自然景观和谐相融，确保人们既能尽享冰雪运动的无穷魅力，又能尽览大自然的生态之美。', '在竞技结束区，习近平观看了中心防护网安装、雪道巡查、运动员救援等赛场保障工作演示和高山滑雪竞技比赛训练情况。习近平指出，安全是重大体育赛事必须坚守的底线。高山滑雪是“勇敢者的运动”，要强化各方面安全保障，抓好管理团队、救护力量和设施维护队伍建设，完善防疫、防火、防事故等风险防范措施，加强应急演练，确保万无一失。希望大家科学训练，注意安全，保重身体，提高水平，发挥在“家门口”参赛优势，争取在高山滑雪项目上实现奖牌零的突破。', '随后，习近平前往国家雪车雪橇中心，先后来到赛道出发区、结束区，察看了雪车、雪橇运动员从出发到冲刺的完整训练过程。国家雪车、雪橇队的运动员、中外教练员和延庆赛区运行保障团队、建设者代表，向总书记高声问好。习近平向大家表示慰问，勉励大家刻苦训练，劳逸结合。习近平强调，推动我国冰雪运动跨越式发展是实现第二个百年奋斗目标的重要组成部分，也为广大冰雪运动员创造了难得的人生机遇。当前，我国疫情外防输入、内防反弹压力还很大，要始终绷紧疫情防控这根弦，严格执行各项疫情防控措施，优化全过程闭环管理流程，确保安全。', '京张高铁太子城站位于张家口赛区核心区内，是世界上首个直通奥运赛场的高铁站，已于一年前正式运营。19日，习近平乘火车沿京张高铁抵达太子城站，走进车站运动员服务大厅，结合沙盘了解京张高铁及太子城站建设精品工程、服务保障北京冬奥会、冬残奥会有关情况。习近平强调，京张高铁承担着联通三大赛区的重任，要抓紧开展运营服务、技术保障、安全保障等测试，及时发现不足、堵塞漏洞，提高精准化、精细化管理和服务水平，为冬奥会期间安全高效运行积累经验、做好充分准备。', '离开太子城站，习近平来到国家跳台滑雪中心考察调研。国家跳台滑雪中心是我国第一个以跳台滑雪为主要用途的体育场馆，主体建筑设计灵感来自中国传统饰物“如意”。习近平登上国家跳台滑雪中心顶层回廊，听取张家口赛区整体建设情况介绍，俯瞰张家口赛区古杨树场馆群全貌，随后前往跳台滑雪结束区看台，察看跳台滑雪运动员训练演示情况。习近平指出，北京冬奥会、冬残奥会场馆改造建设融入了很多中国元素，体现了我们的文化自信。我们不仅要办好一届冬奥盛会，而且要办出特色、办出精彩、办出独一无二来。', '在国家冬季两项中心看台，习近平观看了冬季两项越野滑雪和射击运动员接力训练情况，并看望慰问国家冬季两项、跳台滑雪队运动员、教练员和张家口赛区运行保障团队、建设者代表。习近平亲切地对大家说，我这次来考察北京冬奥会、冬残奥会筹办情况，也是在牛年春节前来看望大家。大家都在为办好一届成功的冬奥盛会而努力，运动员在刻苦训练，建设单位和建设者、保障团队兢兢业业，成功打造了一批世界一流的精品工程，大家的奋斗精神、奉献精神令人感奋。习近平强调，北京冬奥会、冬残奥会所有场馆建设提前一年完成，我国很多冰雪项目在两年多时间里实现从无到有，有的项目达到了世界先进水平，充分体现了党的领导和举国体制、集中力量办大事的制度优势。', '20日上午，习近平在人民大会堂主持召开北京2022年冬奥会和冬残奥会筹办工作汇报会。北京市委书记蔡奇、河北省委书记王东峰、体育总局局长苟仲文、中国残联主席张海迪先后发言，汇报了筹办情况，并就下一步工作提出意见建议。', '听取大家发言后，习近平发表了重要讲话。他强调，北京冬奥会、冬残奥会是我国“十四五”初期举办的重大标志性活动。要充分认识举办北京冬奥会、冬残奥会的重大意义，增强做好筹办工作的责任感、使命感、紧迫感。', '习近平指出，5年来，在冬奥会工作领导小组统筹指挥下，冬奥组委具体组织，各方面通力合作，同国际体育组织密切配合，做好各项筹办工作，取得了令人满意的成绩。同时，必须未雨绸缪、科学研判、做好预案、加强工作。要精益求精做好各项筹办工作，结合新形势，对各项工作重新进行规划调整，切实把筹办工作的重点放在统筹抓好疫情防控和组织好赛事上来。要突出“简约、安全、精彩”的办赛要求，全面防范化解各种风险，精心做好赛事组织、赛会服务、科技应用、文化活动等各项筹办工作，最大限度降低疫情风险。', '习近平指出，冬奥会工作领导小组要加强统筹调度，及时研究解决筹办工作中遇到的重大问题。各成员单位要履行职责，高质量完成各项工作任务。各专项协调小组要主动担责、加强协调，统筹解决好跨地区、跨部门、跨层级的重点难点问题。北京市、河北省要落实主办城市责任，按时优质完成各项任务。北京冬奥组委要更好履行职责，严格执行各项规章制度，严格预算管理，控制办奥成本，勤俭节约、杜绝腐败，让北京冬奥会、冬残奥会像冰雪一样纯洁干净。', '韩正表示，要认真学习领会习近平总书记重要指示精神，坚定信心、保持定力，贯彻落实好“简约、安全、精彩”的办赛要求，向着如期办赛的目标稳步前进。 要毫不放松抓好各项筹办工作，扎实有序推进场馆建设、赛时运行、赛会服务保障、冬奥备战等重点任务。要坚决守住安全底线，把疫情防控放在首位，针对各种风险挑战，完善工作方案和预案，采取有效应对措施，确保万无一失。要做好简化办赛工作，从实际出发，精简非必要环节、活动和人员数量，细化完善有关措施。要灵活安排好各项测试活动，对筹办工作进行全面检验和优化完善。要加强协调配合，主动落实责任，形成工作合力，共同完成好各项筹办任务。', '丁薛祥陪同考察并出席汇报会，孙春兰、何立峰出席汇报会，中央和国家机关有关部门负责同志、有关省市负责同志参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>293</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>我是中卫市事业单位的一名工作人员想申请成为一名科技特派员请问都要具备哪些条件具体程序是什么考核标准又是什么</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/ztzl/zcwd/bm/zwskxjsj_71602/202310/t20231020_4318693.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['我是中卫市事业单位的一名工作人员，想申请成为一名科技特派员，请问都要具备哪些条件？具体程序是什么？考核标准又是什么？_中卫市人民政府', '我是中卫市事业单位的一名工作人员，想申请成为一名科技特派员，请问都要具备哪些条件？具体程序是什么？考核标准又是什么？', '1.具备一定政治素质，热爱农村，热爱农民，有良好的职业操守，工作扎实，吃苦耐劳，乐于奉献；', '2.具备一定的专业素质、农业生产经营管理能力或其他创新创业特长，熟悉“三农”工作，自愿到农村生产一线开展服务；', '3.具备一定的创业能力，具有较强的创新创业意识和学习能力，拥有创新创业的物质条件和抗风险能力，且有明确的创业方向和计划；', '4.兼职服务型和离岗创业型科技特派员应获得工作单位同意，并按规定与工作单位签订相关协议；', '（一）申请。申请人向拟开展创新创业服务所在地的县（市、区）科技局提交申请、个人身份证明和个人工作经历、法人营业执照和单位情况简介等相关材料；', '（二）审核。县（市、区）科技局对申请人提交材料的真实性进行审核和考察，符合条件和要求的，经研究以正式文件形式做出选派决定，并在一定范围内进行公示。对不予选派人员，应向申请人说明理由；', '（三）签约。县（市、区）科技局与科技特派员签订创新创业服务协议，明确创新创业服务地点、服务和考核内容等；', '（四）备案。每年年底前，县（市、区）科技局将本年度科技特派员选派决定报市科技局、自治区科技厅备案，并配发由自治区科技厅统一印制的科技特派员证书、法人科技特派员牌匾。', '（一）县（市、区）科技局每年年底对科技特派员履职情况进行考核，考核分为优秀、合格、不合格三个等次。优秀比例不超过总人数的15%。科技特派员被确定为优秀等次的，原单位应予认可，不占原单位考核优秀比例。考核结果作为推荐科技特派员申报自治区科技特派员创业服务项目和实行以奖代补的参考。', '（二）县（市、区）科技局根据本地实际情况，制定细化考核指标和权重，创新考核方式。考核可邀请相关部门人员和科技特派员服务对象参加，鼓励聘请第三方中介机构参与考核评价工作。考核内容包括协议服务任务完成情况、承担相关项目执行情况、科技特派员的服务质量以及带动农业增效、农民增收的成效。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>293</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>宁夏中卫工业园区管委会关于中卫市做好营造法治化营商环境保护民营企业发展专项督察回头看和法治政府建设实地督察问题整改方案</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2020-09-04</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/nxzwgyyqgwh/fdzdgknr_50415/bmwj_50444/202010/t20201023_2265775.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['宁夏中卫工业园区管委会关于中卫市做好营造法治化营商环境、保护民 营企业发展专项督察“回头看”和法治政府建设实地督察问题整改方案_中卫市人民政府', '宁夏中卫工业园区管委会关于中卫市做好营造法治化营商环境、保护民 营企业发展专项督察“回头看”和法治政府建设实地督察问题整改方案', '按照《中共中卫市委员会办公室 中卫市人民政府办公室关于印发&lt;中卫市做好营造法治化营商环境、保护民营企业发展专项督察“回头看”和法治政府建设实地督察问题整改工作的实施方案&gt;的通知》（卫党办综〔2020〕31号）的要求，为确保优质高效落实整改要求，扎实做好工业园区整改工作，推动全市营造法治化营商环境和法治政府建设，制定本方案。', '坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实习近平总书记全面依法治国新理念新思想新战略及中央、区、市有关会议精神，认真学习贯彻习近平总书记视察宁夏重要讲话精神，践行“建设法治政府是全面推进依法治国的重点任务和主体工程”新使命，全面落实《法治政府建设实施纲要（2015-2020年）》，健全依法决策机制，规范公正文明执法，着力整治法治政府建设领域存在的问题，全面提高园区管委会干部职工运用法治思维和法治方式推进依法行政的能力，着力构建职能科学、权责法定、执法严明、公开公正、廉洁高效、守法诚信的法治政府。', '1．对法治工作建设重视程度、推进力度还不平衡，对法治工作建设总体部署不熟悉、不重视，未开展相关督察，推进法治工作建设的积极主动性不强。', '整改措施：认真学习贯彻落实习近平总书记全面依法治国新理念新思想新战略和关于法治政府建设的重要思想，将《法治政府建设实施纲要（2015—2020年）》《中卫市法治政府建设实施方案（2016—2020年）》等相关重要文件列入党工委中心组学习内容及干部集中学习会议，把法治政府建设摆在重中之重的位置，着力推动法治政府建设重点工作取得新突破。同时，按照法治政府建设要求，促进法治政府建设。', '2．重视法治素养和法治能力的用人导向尚未有效建立，缺少对工作人员的法治教育培训，未开展法治能力考查测试，从事法治工作的人员力量严重不足。', '整改措施：一是坚持完善党工委理论学习中心组集体学法制度，建立健全干部学法制度，培养提高干部运用法治思维、法治方式推动发展、化解矛盾、维护稳定的能力。二是坚持重视法治素质和法治能力的用人导向，把遵守法律、依法办事情况作为干部评先评优、推荐使用干部的重要内容，推荐提拔使用法治素养好、依法办事能力强的干部。三是加强对领导干部任职前法律知识的考察，把依法决策、依法管理、依法办事等考核结果作为干部综合考核评价的重要内容。', '3．行政机关负责人出庭应诉制度落实不到位，有的行政机关负责人从未出庭应诉，有的仅委托律师出庭应诉，有的缺乏出庭应诉能力，“只出庭不出声”问题比较普遍。', '整改措施：建立健全管委会领导轮值出庭制度，管委会作为被告参加应诉的案件，统筹协调领导轮值出庭应诉，适时安排主要负责人出庭应诉。', '4.依法决策存在形式主义，“领导拍板定调，再找法律论证”的情况依然存在，或者先预设通过的结果，其他环节只是“走形式”，没有发挥合法性审查、风险评估等的实质作用，导致决策违法。重大行政决策公众参与落实不到位，未公开征求公众意见，或征求公众意见“合则用、不合则弃”，甚至把召开听证会当成“作秀”，参与人员提前“内定”、意见提前“定调”。沙坡头区重大行政决策事项均没有合法性审查意见。', '整改措施：一是强化法治思维。党工委、管委会领导干部带头遵守法律、执行法律，营造办事依法、遇事找法、解决问题用法、化解矛盾靠法的法治环境，不断提升依法行政的水平和能力。二是增强重大决策公众参与度。对重大决策、重点工程建设、规范性文件制定、社会关注度高及涉及群众切身利益的决策事项，应当及时公开信息，便于社会公众参与听取意见建议，并听取人大代表、政协委员和人民团体、基层组织、社会组织的意见。三是严格落实国务院《重大行政决策程序暂行条例》，重大决策严格按照决策启动、公众参与、专家论证、风险评估、合法性审查、集体讨论决定、决策执行七个环节进行。四是落实合法性审查制度，不得以征求意见等方式代替合法性审查，未经合法性审查的事项不得审议。', '整改措施：一是牢固树立依法行政理念，以推动民法典实施为抓手，坚持“法定职责必须为、法无授权不可为”原则，不违背法律法规行使职权。二是健全并严格落实重大决策全过程记录保存制度、终身责任追究制度及责任倒查机制。', '6.重大行政决策范围、标准不明确，没有建立重大行政决策目录、标准，并未向社会公布。一些直接涉及公民、法人和其他组织切身利益的事项普遍没有纳入重大行政决策事项范围。未依法建立重大决策归档制度，未按要求对重大行政决策事项立卷归档。', '整改措施：一是制定管委会年度重大行政决策目录，明确承办部门和完成时限，并向社会公布。二是建立重大决策归档制度，对重大行政决策目录或其他重大行政决策进行立卷归档，并长期保存。', '7.重大行政决策报告制度落实不到位，依法应当向人大报告的重大决策事项没有主动报告、接受人大监督。', '整改措施：严格落实重大行政决策出台前应当按照规定向市委政府请示报告，接受纪委监督，并征求人大代表及群众代表的意见，同时，征求市人大常委会意见，接受各级部门和人大代表的监督。', '整改措施：按照“谁执法谁公示”的原则，明确公示内容，规范公示标准，及时通过政府网站、“三项制度公示平台”及政务新媒体、办事大厅公示栏、服务窗口等线上线下平台公开行政处罚、行政检查、行政确认等行政执法基本信息、结果信息。强化事前公开，规范事中公示，加强事后公开，切实保障行政相对人和社会公众知情权、参与权、表达权、监督权。', '9.执法全过程记录制度落实不到位，执法音像记录设备配备不到位，管理使用不规范，执法记录仪内容没有及时转换到存储设备上，甚至对查封扣押财产、强制拆除等直接涉及人身自由、生命健康、重大财产权益的现场执法活动未进行全程音像记录。', '整改措施：一是根据行政执法行为的不同类别、阶段、环节，采用相应音像记录形式，充分发挥音像记录直观有力的证据作用、规范执法的监督作用、依法履职的保障作用。二是做好音像记录与文字记录的衔接工作，充分考虑音像记录方式的必要性、适当性和实效性，对涉及重大财产权益的现场执法活动和执法办案场所，要推行全程音像记录；对现场执法、调查取证、举行听证、留置送达和公告送达等容易引发争议的行政执法过程，要根据实际情况进行音像记录。三是建立健全执法音像记录管理制度，明确执法音像记录的设备配备、使用规范、记录要素、存储应用、监督管理等要求。', '10.重大行政执法决定法制审核制度落实不到位，法制审核人员普遍没有达到行政执法人员5%的要求，法律顾问参与法制审核制度不健全，参与度不高，合法性审核不严格不充分。', '整改措施：加强法制审核队伍的正规化、专业化、职业化建设，把政治素质高、业务能力强、具有法律专业的人员调整充实到法制审核岗位，配强工作力量，使法制审核人员的配置与形势任务相适应。', '11.执法规范化水平不高，执法尺度不统一，依赖经验和习惯执法的问题在基层比较普遍。', '整改措施：加强和完善行政执法案卷管理和评查、行政执法投诉举报以及行政执法考核监督等制度建设，做好规范行政裁量权工作，制定修改完善管委会系统行政裁量基准制度，细化量化行政裁量标准，规范裁量范围、种类和幅度', '整改措施：一是全面落实行政执法责任制，健全行政执法人员管理制度，重视执法人员能力素质建设，加强思想道德和素质教育，着力提升执法人员业务能力和执法素养。二是加强行政执法人员资格管理，严格审查行政执法人员资格，将具备执法资格的人员调整到执法岗位上。', '13.行政规范性文件制定的程序意识不强，制定行政规范性文件未经公开征求意见、相关会议审议、公开发布等程序，出台的行政规范性文件超越权限、增设行政许可条件、设定行政处罚等现象时有发生。', '整改措施：一是严格按照《宁夏回族自治区行政规范性文件制定和备案办法》进行规范性文件制定，制定的规范性文件不得超越法定职权范围，不得设定行政许可、行政处罚、行政强制和政府基金、行政事业性收费、集资等事项，不得减损公民、法人和其他组织合法权益或者增加其义务，不得与法律、法规、规章相抵触，不得与上级机关的规范性文件相违背。二是加强规范性文件合法性审查，未经合法性审查的不得提交审议，不得签发公布。', '整改措施：严格落实合法性审查制度，落实审核工作要求，确保所有规范性文件均经过合法性审核，保证规范性文件合法有效，未经合法性审查的不得签发。', '15.行政规范性文件备案审查制度落实不到位，备案审查工作力量不足，“有件不备、有备不审、有错不纠”问题比较严重，备案审查纠错不彻底，存在 “走过场”现象。', '整改措施：一是配齐配强备案审查工作力量，确保与工作任务相适应。二是完善“有件必备、有备必审、有错必纠”的备案审查机制，把所有规范性文件纳入备案审查范围，健全公民、法人和其他组织对规范性文件的建议审查制度，做到有件必备、有备必审、有错必纠。', '16.备案审查工作人员缺乏行政规范性文件制定和备案工作的专业认识、工作经验，制约了行政规范性文件制定和备案工作的开展。', '加强备案审查人员正规化、专业化、职业化建设，组织开展行政规范性文件合法性审查培训，全面提升合法性审核人员的政治素质和业务能力。', '17.对习近平总书记关于保护民营企业的重要讲话精神和中央决策部署学习不够，结合实际学懂弄通做实存在差距，服务民营企业健康发展、营造法治化营商环境的责任感、紧迫感不强。', '整改措施：深入学习领会习近平总书记关于优化营商环境和保护民营企业发展的系列重要指示精神，切实增强全力营造一流法治化营商环境、保护民营企业发展的责任感、紧迫感。', '18.对2019年营造法治化营商环境、保护民营企业发展专项督察反馈的个性问题整改进程缓慢，部分企业反映的政府拖欠工程款等问题，至今未能有效解决，败诉率较高。', '整改措施：对民营企业反映较为突出的拖欠工程款等问题，采取座谈会、听证会、实地走访、书面征求意见、便于民营企业参与的方式充分听取意见建议，针对存在的问题及时提请相关领导召开专题会议，通过台账推进、挂账销号等方式，明确责任单位和整改时限，确保条条都整改、件件有着落。', '19.“事随主官走”“新官不理旧账”“换主要领导就换政府建设项目主体”的现象时有发生。', '整改措施：一是扎实推进政务诚信建设。健全完善政策落实兑现制度，加强政府合同管理，认真落实合同履行情况报告制度。二是对由政府主导管委会实施的项目进行梳理，对存在此类问题的列出督查任务台账，督促依法依规整改。', '（一）加强组织领导。管委会各局室要切实提高政治站位，强化责任担当，充分认识营造法治化营商环境，构建法治政府的重要意义，要夯实主体责任，切实做到组织到位、措施到位、整改到位。', '（二）强化责任落实。管委会各局室要牢固树立谁主管谁负责的意识，严格按照任务分工，明确责任主体，倒排工期，合理安排任务进度，争取工作主动权，确保整改工作落实到位。同时也要举一反三，全面查找具体工作中存在的其他问题，制定有效措施，尽快补齐短板，切实堵塞漏洞。', '（三）严格督导检查。党工委会及管委会专题会议中适时听取各局室的整改落实情况，对整改不力、未能按时有效完成整改任务的及时提醒教育和严肃问责，对抓整改落实不力的局室主要负责人进行责任约谈。各局室于2020年10月15日前将整改落实情况报综合服务局汇总上报。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>293</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>关于中卫市民政局年依法治市工作总结暨年依法治市工作思路的报告</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2020-11-26</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/smzj/fdzdgknr_49389/bmwj_49422/202103/t20210330_2642708.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['关于中卫市民政局2020年依法治市工作总结暨2021年依法治市工作思路的报告_中卫市人民政府', '今年以来，我局在全面依法治市领导小组正确领导下，认真落实全面依法治市工作安排部署，进一步完善制度机制，增强决策科学化、法制化、规范化水平，全面加强依法治市工作，确保法律法规的严格实施，依法维护人民群众合法权益，法治政府建设各项工作扎实有序依法推进。现将一年来的工作报告如下：', '我局高度重视法治政府建设工作，将法治政府建设工作与业务工作同安排、同部署、同推进、同督促、同落实、同考核，局主要负责人认真履行推进法治建设第一责任人职责，班子成员各负其责、勠力同心做好分管领域法治工作，明确了任务责任，进一步压紧压实了责任人职责，为我局法治政府建设提供了组织保证，局党组全年共安排部署工作6次。', '为加强法治政府建设工作，紧扣依法治区、依法治市目标任务，扎实推进科学立法、严格执法、公正司法、全民守法，进一步提高法治政府建设标准，先后印发了《中卫市社团治理工作联席会议制度》《关于建立完善社会组织重大事项报告制度的通知》《中卫市社会组织信用分类分级监管制度》《中卫市城市社区管理和服务职责事项指导清单》、《中卫市民政局关于做好2020年全市民政重点领域专项整治工作的通知》《中卫市2020年农村低保等民生领域侵害群众利益专项治理方案》等工作制度，为各项工作规范、有序、依法开展提供了法律和制度依据。', '印发了《2020年市民政局党组理论学习中心组学习计划》，《中卫市民政局党组创建“让党中央放心 让人民群众满意”模范机关实施方案》将各项法律法规的学习作为党组中心组理论学习的常设议题，结合创建“让党中央放心 让人民群众满意”模范机关和“双学双强”活动，多次组织集体和自学了《民法典》《宪法》《中国制度面对面》等法律法规，进一步打牢了局党组班子法治理论基础，提高了领导班子及其成员依法决策、依法行政的水平，提升了法治意识和法治思维能力。截止目前，组织中心组理论学习3次，党组学习5次，干部理论学习21次，组织开展培训2次。', '1.依法全面履行职能。一是认真落实权责清单制度。以规范优化行政权力为目标,对行政职权事项进行全面梳理,并在梳理、明晰、确认部门行政职权的基础上,逐一厘清与之相对应的责任事项,明确了责任主体。坚持“法无授权不可为、法定职责必须为”的原则，严格按照“权力清单”确定的行政职权事项履行职责，积极接受监督，配合中卫市委编办、中卫市法制办积极做好权责清单调整工作，年内依照相关法律法规调整权责清单一次，新调整职责清单3项。二是深化“放管服”改革。以规范和优化行政审批程序为重点，将所有行政审批事项全部集中在市政府政务大厅人社“窗口”办理，实行“一个窗口对外受理”，建立服务质量承诺制、审批时限“倒逼”制和办结回访制，切实解决了群众和企业反映强烈的审批难、审批慢等问题。制定行政审批事项运行流程图，所有行政审批事项均由法定的20个工作日压缩到10-15个工作日办结，运用双随机一公开、通用执法系统加强对养老福利机构、社团组织的监督管理，每月定期做好执法的发布、执行、反馈工作。三是全面优化营商环境。加强行政审批制度改革要求，简化社会组织审批流程，实现“不见面、马上办”的审批制度改革目标，根据自治区民政厅《关于做好社会组织法定代表人离任审计、注销清算审计项目有关工作的通知》（宁民字〔2018〕121号）精神，结合我市实际，下发了《市民政局关于做好社会组织法定代表人离任审计、注销清算审计项目有关工作的通知》对全市各社会组织办理法定代表人变更、注销清算，不再要求申请人提供法定代表人离任审计报告、注销清算审计报告。', '2.完善依法行政制度体系。一是加强规范性文件监督管理。严格落实《规范性文件制定程序规定》，把公众参与、专家论证、风险评估、合法性审查、集体讨论决定等作为制定规范性文件的必经程序。二是坚持规范性文件公开制度。凡涉及公民、法人和其他组织权利义务的规范性文件，按照法定要求和程序予以公布，未经公布的不得作为行政管理的依据。三是落实规范性文件有效期制度。规范性文件全部标注有效期。加大备案审查力度，把所有规范性文件纳入备案审查范围，做到有件必备、有错必纠，确保规范性文件合法、统一、有效。', '3.健全重大行政决策机制。一是健全依法决策机制。严格落实《重大行政决策程序规则》、《重大行政决策听取意见制度》、《重大行政决策合法性审查制度》、《重大行政决策责任追究制度》等一系列行政决策规章制度，保证依法依规实施行政决策，规范行政决策行为。完善了对重大事项决策的听证制度和听证程序。对涉及低保、社会救助等事关经济发展和社会稳定的重大事项，通过咨询专家意见或者组织专家论证后进行集体研究。对与公民、法人利益密切相关的事项，公开征求公民、法人意见建议。二是完善法律顾问制度，加强对决策的监督。我局注重发挥纪检和监察室的监督作用，通过舆情跟踪、抽样检查、会商分析等方式，广泛收集利益相关方面和社会公众对决策实施的意见和建议，对决策实施的社会效果和经济效益等情况进行研究评价，根据评价情况适时调整和完善有关政策。', '4.坚持严格规范公正文明执法。一是加强行政执法人员管理。10月14日，根据中卫市政府办公室《关于组织行政执法证件申领换证人员进行考试的通知》的要求，组织人员参加行政执法人员申领和换发行政执法证考试，重点业务执法岗位上的1名工作人员通过执法资格考试。加强执法人员执法程序培训，使其熟悉掌握行政执法必备知识。执法人员执法检查时，坚持出示证件，统一执法文书，确保执法工作的规范性和严肃性。二是严格规范行政执法。根据法制政府建设要求，全面推行行政执法公示、执法全过程记录、重大执法界定法制审核“三项制度”，做到执法行为全过程记录，我局现有 4G执法记录仪1台、CA签章4套、CA印章1个、扫描仪1台，使执法活动全程得到记录监督。三是优化行政执法方式。推进“互联网+行政执法”，推行行政执法监督平台使用，推行联合监管、信用监管和“互联网+监管”，打造“双随机、一公开””监管。目前已运用监管APP平台，开展执法监管4次。', '5.加强行政权力运行监督和制约。一是做好政务公开工作。全面推进“阳光政务”，落实《政务公开制度》，邀请人民群众走进机关，主动接受服务对象和社会各界的监督，提高民政保障执法的公信力。坚持公开为常态、不公开为例外，重点公开行政审批、行政给付、行政确认、行政处罚等各类行政执法行为的依据、条件、程序、时限、结果，全年依托中卫市政府网、中卫市法治政府网、中卫民政官方微博工作窗口等政务公开平台。截止目前，开展政府开放日1次，新闻发布会1次，会议开放活动1次，公开文件30余份，公开救助类政策60余条。二是深化信用体系建设。制定下发了《中卫市社会组织信用分类分级监管制度（试行）》建立健全社会组织“红黑名单”和信用奖惩机制。及时维护、更新“行政审批与公共服务系统”、“双公示报送系统”中的社会组织信息，将获得各级表彰奖励、参与评估获得等级、承接各级各类购买服务项目支持、媒体正面宣传报道等社会组织信息，纳入“红名单”。', '6.深入推进扫黑除恶专项斗争。全面巩固去年殡葬领域突出问题专项整治成果，围绕今年的专项整治任务，全面深化殡葬领域专项整治工作。一是进行价格整改。对沙坡头4家经营性公墓成本实施了监审，联合市发改委下发了《中卫市发展和改革委员会 中卫市民政局关于公墓销售价格的批复》，对墓穴价格进行了规范，目前沙坡头区各公墓平均销售价格降幅15%，最大降幅41%，墓穴价格平均降价4000元，主流价格在25000元，公益性公墓价格保持800-3000元之间，各公墓运营方必须严格遵守指导价，不得私抬价格，将价格在醒目位置进行公示，接受群众监督。二是开展专项整治。持续推进扫黑除恶专项斗争在“深挖整治”和“长效常治”上见成效，制定下发了《中卫市民政局关于进一步深化殡葬领域突出问题专项整治活动的通知》，从宣传动员、自查整改、建章立制、督查验收四个步骤推进实施。深化整改工作，针对督查中发现卧龙台和鹤岗殡仪服务中心功能设施不完善的情况协同沙坡头区民社局下发了整改通知书限时整改，指导中卫市鹤岗公墓和中卫市卧龙台公墓分别改造建成了占地740平方米和582平方米的殡仪服务中心功能设施，通过整改全面提升了整体服务能力，更好地满足了群众殡仪服务需求。三是认真开展社会组织整治。严格社会组织登记，从名称、章程性质、宗旨、业务范围、经费来源、发起人和拟负责人等方面严格审核把关，坚决杜绝违规审批、人情审批、权力审批。目前全市共登记备案573个社会组织，今年新增14个。', '7、深入推进法治政府建设，维护社会和谐稳定。一是加强领导，压紧压实“七五”普法工作责任。为保证“七五”普法贯彻落实，成立了以党组书记、局长为组长、班子成员为副组长、各科（室）下属事业单位负责人为成员的法治建设工作领导小组，明确分工，压实责任，形成主要领导亲自抓、分管领导具体抓的工作局面。将普法依法治理暨“七五”普法工作纳入单位工作全局，先后6次在党组会议研究普法工作，做到与业务工作同部署、同检查、同落实、同推进。二是围绕“七五”普法工作要点，大力开展普法教育学习。每年按要求制定“七五”普法学习计划，建立完善了局党组学法制度，充分发挥领导干部学法用法带头作用。深入学习以习近平新时代中国特色社会主义思想、《中华人民共和国宪法》《中华人民共和国民法典》《中华人民共和国收养法》《行政区划管理条例》《国家安全法》《保密法》《社会福利机构管理暂行办法》及党内法规为核心的中国特色社会主义法律体系，教育引导广大党员干部职工养成自觉“尊法、学法、守法、用法”的良好氛围，先后组织干部学习40余次，撰写心得体会60余篇，开展知识测试20余次。三是组织干部职工通过学习强国APP等平台自学相关法律法规，有效强化国家安全法治意识，提高法律素养，进一步增强法治文化建设。四是开展廉政法治警示教育活动。为深入贯彻党的十九大精神，进一步加强党员领导干部纪律作风建设，强化干部廉洁教育，结合宪法学习宣传教育活动，组织全体干部职工观看廉政法治警示教育片。截至目前，共开展各类法治宣传活动19余场次，举办法治讲座4场次，发放各类宣传材料1500余份，受教育群众达1万余人。五是加强村社区普法教育，提高群众法纪意识。我局重点采取举办村（居）干部培训班和“以案说法”广播访谈的形式，向全体村（居）干部进行以《宁夏回族自治区村民委员会选举办法（修订）》《村委会组织法》《居委会组织法》《社会救助暂行办法》为主的自治组织建设方面的法律法规及全面从严治党的相关法规知识教育，不断强化村（居）干部的法律意识，促使其依法履职，提高村（居）自治服务水平。截止目前，共举办培训班30余次，培训村（居）干部2.8万余人次。2019年9月配合市委组织部、司法局等，组织开展了“以案说法基层行”宣讲活动，对全市20个重点村（社区）进行了宣讲，发放宣传材料4000余份，对提高村干部法纪意识，发挥了积极作用。六是加强社会组织管理，切实提高普法宣传教育。先后制定下发了《关于开展全市社会组织和养老机构非法集资风险专项排查活动的通知》、《关于做好2016、2017、2018、2019年度社会组织年检工作的通知》《市民政局关于2016、2017、2018、2019年度社会组织年检情况通报》等文件，组织学习《中华人民共和国慈善法》《社会团体登记条例》《社会组织普法100条》等法规条例，各社会组织充分利用电子屏、广播电视、微信、QQ等多种形式，大力宣传国家有关防范和处置非法集资活动的各项政策措施，共举办各类培训20余场次，共发放防范和处置非法集资宣传彩料2000余份，借助第10个“5.15”全国打击和防范经济犯罪宣传日，组织中卫市社会工作服务站、中卫市温馨一家托养院等7家社会组织配合市公安局开展了主题为“与民同心，为您守护”打击和防范经济犯罪宣传活动。', '三是组织干部职工通过学习强国APP等平台自学相关法律法规，有效强化国家安全法治意识，提高法律素养，进一步增强法治文化建设。四是开展廉政法治警示教育活动。', '8.推进社团治理。一是强化对社会组织监督管理。2019年度应检社会组织223家，免检的10家，年检合格的151家，不合格的45家，注销登记6家，撤销登记11家。通过检查，社会组织依法接受监督管理的意识明显提高。二是优化发展环境。落实“双随机、一公开”等政务服务事项，实行“一次性告知”，将登记注册时间压缩到5日以内，实现“不见面、马上办、最多跑一次”的审批制度改革目标。三是加大执法力度。紧紧围绕社团治理工作，结合扫黑除恶专项整治，印发了《关于深化全市社会组织扫黑除恶专项斗争的通知》《中卫市关于开展社团治理工作实施方案的通知》等文件。强化社团组织重大活动事项审核报备，社团组织成立、负责人发生变化或开展捐赠、大型成果展览、论坛、讲座、面向社会的培训等有较大影响的社会活动主动报告的意识明显增强，确保了社团组织依照核定的章程和业务范围依法开展工作。市民政局与30多家行业协会商会负责人签订了《关于不参与涉黑涉恶活动承诺书》，对20多家涉非法集资、乱收会费等违规社团组织进行取缔或劝散，有效净化了社团组织的发展空间和环境。四是推进行业协会脱钩。按照“脱钩不脱管理、脱钩不脱扶持、脱钩不脱服务”原则，推动组织、发改、市场监管等相关职能部门和行业管理部门，履行对脱钩后行业协会商会的综合监管职责，确保监督管理不失控、政策指导不落空、扶持服务不缺位，促进行业协会商会健康稳定发展。目前，我市179个社会组织已全部完成与行政机关脱钩，脱钩率100%。', '9.巩固基层组织建设，加强管理规范服务。一是高度重视，周密安排部署。调整充实社区治理领导小组，制定印发《关于健全完善社区治理体系提高治理能力的实施方案》《关于提高社区治理能力“六增六提”行动措施的实施方案》等文件，对本地本部门社区治理的长期任务及重点任务进行明确，为促进长效机制形成和按时完成重点任务提供政策保证。二是突出重点，稳步推进任务落实。认真开展社区优化摸排上报工作，按照规模适度、边界明确、便于服务的原则，将集中型社区控制在3000-5000户，分散型或老旧小区多的社区控制在2000-3000户，全市新增社区22个，已经区民政厅批复同意其中，沙坡头区14个，中宁县8个，撤销社区1个（中宁县金岸社区），优化后全市社区总数达到68个。同时，按照300-500户的规模重新划分社区网格473个，网格管理更加精细。按照社区服务人口3000户以下5人，5000户以内7人，5000户以上9人的标准，兼顾辖区无物业老旧小区管理等因素，经自治区审定拟核增社区“两委”成员173人，增核后社区“两委”成员总数达503人。增加专职网格员163人，总人数达473人，逐步加强网格员力量，实现了每个网格专人负责的目标。三是牵头修订《中卫市城市社区管理和服务职责事项指导清单》，将社区服务事项由五类69项调整为六类64项，进一步完善了社区工作清单化管理机制。在全市47个社区全部建成社区综治中心，今年已排查各类矛盾纠纷5962件，化解5776件，化解率达96.9%。整合公安、司法、信访等力量，推行“人民调解+仲裁+信访”工作机制，今年以来，参与排查化解调解矛盾纠纷3700起，调解成功3352件，成功率达90.6%，无因调解不当导致民转刑案件。开设“书记工作室”、“党民议事厅”等议事机构，解决居民实际困难300余件。组织全市72 家社区社会组织，实施公益创投项目14 个，服务群众5000余人次。三是注重发挥社区治理品牌示范引领，组织开展社区百家品牌创建工作。推荐上报沙坡头区黄河花园社区“党建1345”、中宁县社区“1+5”工作法、海原县东城社区“五抓、六法、1234”等11个社区治理品牌。在全区社区治理工作推进会上，沙坡头区做为典型作了交流发言。中宁县组织全县社区工作者赴银川、吴忠等地进行考察学习。', '牵头修订《中卫市城市社区管理和服务职责事项指导清单》，将社区服务事项由五类69项调整为六类64项，进一步完善了社区工作清单化管理机制。', '10.深入开展宣传教育。深入推进习近平总书记全面依法治国新理念新思想新战略和党的十九届四中全会精神、以宪法为核心的中国特色社会主义法律体系的宣传，进一步落实“谁执法谁普法”普法责任制，围绕中心工作，充分运用群众乐于接受、喜闻乐见的形式，开展法律进社会组织、进村宣传教育活动，营造尊法、知法、守法、懂法、用法的浓厚社会氛围。截止目前，共举办各类培训20余场次，共发放防范和处置非法集资宣传彩料2000余份，组织中卫市社会工作服务站、中卫市温馨一家托养院等7家社会组织配合市公安局开展了主题为“与民同心，为您守护”打击和防范经济犯罪宣传活动；组织开展了“以案说法基层行”宣讲活动，对全市20个重点村（社区）进行了宣讲，发放宣传材料4000余份。', '一是对社会组织综合监管不够深入，殡葬领域公墓规范化管理有待提高，婚姻殡葬移风易俗还有待加强。二是社区优化设置布局尚未完成，还没有完全按照“一室八中心”的要求进行布局，社区“万能章”治理及减负工作仍停留在制度建设层面，减负没有实际行动，具体工作成果不大。', '（一）加强法律法规的学习。进一步加强以习近平新时代中国特色社会主义思想及《宪法》为核心的法律体系的学习。加强对规范行政机关及行政执法人员行政行为的法律法规的学习宣传，充分发挥法律在推进社会管理创新中的规范、引导和保障作用。以拓展工作的广度和深度，提高干部职工执法水平和法律意识，提升行政监督的权威性，使执法工作有法可依、有法必依、违法必究，增强遵纪守法的自觉性，树立民政系统良好形象。', '（二）丰富宣传载体，提升宣传效果。以“法律进社区、社会组织”示范创建活动为契机，积极开展各类创建评选活动，广泛开展法治讲座、法律知识竞赛等活动，丰富普法宣传内容，创新“法律进社区、社会组织”载体，不断激发群众参与普法工作的热情。', '（三）加强社团治理规范化管理。坚持以社团组织联席会议制度为牵引，加强各业务主管部门协调配合，形成各负其责，齐抓共管的工作合力，积极推动社团组织完善以章程为核心的法人治理结构和治理机制，建立社团组织履行社会责任评价体系，健全完善监管等机制，使社团组织各级党组织形成责任明确、各负其责、相互配合、共同推进的工作局面。', '（四）扎实推进社保兜底工作。一是巩固社会救助保障扶贫成果工作，对脱贫建档立卡贫困户继续享受低保政策，充分发挥“渐退期”扶持作用，确保不返贫，生活有保障。二是加强基层民政部门的监督检查，加大社会救助资金监管使用力度，做好民政扶贫领域腐败和作风问题的线索排查，严厉查处低保救助优亲厚友等腐败问题和不作为、慢作为等作风问题，推进民政系统扶贫领域腐败和作风问题专项治理向纵深推进。三是拓展信息公示渠道，及时推送低保政策、公示低保信息，主动接受社会监督。', '（五）扎实推进救助规范化管理。一是提高社会救助水平，聚焦特殊困难群体，根据物价上涨指数，发放物价补贴。二是进一步加强城乡低保规范化管理，做到对象认定准确、操作程序规范、分类施保明确、动态管理有效，确保“应保尽保、应退则退”，促进“公平、公正、公开”，确保符合条件的困难对象基本生活得到有效保障。三是加大临时救助力度，充分发挥好临时救助的“托底线、救急难”作用。', '（六）健全基层治理规范化建设。一是各县（区）党委认真履行社区治理的主体责任，统筹协调，突出重点，立足实际，分步实施，主动发挥社区治理的决策指挥作用。二是结合增设社区居委会，统筹解决好新社区服务设施配置和老社区房屋面积增大工作。同时，要及早做好新设社区工作人员的招录工作，为2021年“两委”换届打好基础。三是将社区“万能章”整治及社区减负纳入部门、乡（镇）年度效能考核内容，确保社区减负有实质性的进展。四是各县（区）要注重总结提炼社区治理工作中的特色亮点，打造一批优质社区治理品牌，积极发挥先进典型的示范引领作用，促进社区治理工作水平不断优化提高。召开全市社区治理推进会议，听取县（区）和相关部门汇报，进一步明确重点任务，推动全市社区治理各项任务全面落实。五是坚持把健全完善社团治理体系提高治理能力列入各级党委、政府重要议事日程，纳入政府和社会事业发展政策扶持范围，不断创新社团组织培育发展，全面提升社团组织参与社会治理和提升公共服务能力。增强抓好社会组织党建工作的责任感、紧迫感和自觉性，使社团组织各级党组织形成责任明确、各负其责、相互配合、共同推进的工作局面。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>293</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>中卫新闻传媒集团全媒体中央信息厨房投入使用</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2017-09-05</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/bmdt/201709/t20170905_595454.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['自去年6月份提出建设全媒体“中央信息厨房”至今，中卫新闻传媒集团多次论证并派出工作人员赴外地新闻单位学习考察，“中央信息厨房”一期建设历经一年多时间，终于全面完成了招标、装修、改造等多项工作，并于今年9月正式投入使用。', '中卫新闻传媒集团全媒体“中央信息厨房”一期项目包括八个支撑模块系统，主要由全媒体中央信息厨房采编系统、飞腾创意排版软件系统、全媒体中央信息厨房指挥报道系统、数字报刊系统、网站内容管理系统、APP建设系统、全媒体绩效考核系统、飞旋标引反解系统构成，构建起新的采编流程、报道模式、管理平台，有利于充分、全面利用人力资源、设备资源，从而实现纸媒、广电、新媒体等各项业务工作的深度融合、一体发展。全媒体中央信息厨房指挥报道系统是该模块中重要的一部分，该平台可将所有新闻信息整合于一套业务系统中进行综合管控和查看，并通过PC、手机、大屏的联动方式，实时对互联网新闻、记者报题、采访任务、稿件库、发布库进行联动，供编采人员集中查看，为新闻管理和内容指挥决策提供数据的搜集、整理、挖掘、分析及应用。', '据介绍，全媒体“中央信息厨房”可打破之前电视、报纸、新媒体新闻作品生产、管理相对独立的情况，以全媒体内容生产为核心，在一套完整的支持体系内为报纸、电视、网站、掌媒等多种形式的载体提供统一的编辑流程管理、多媒体新闻内容加工、多渠道新闻发布，提高新闻工作效率，实现全媒体时代“一体策划、一次采集、多种生成、多元传播、全面覆盖”的新闻宣传格局。', '对于全媒体“中央信息厨房”将带来的便利，中卫新闻传媒集团记者何昱萱说：“有了全媒体中央信息厨房采编系统，去一线和基层采访，只要有网，就可以通过笔记本电脑或者安装在手机上的采编软件写稿并完成传送，方便了许多。”']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>293</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>李晓波主持召开市人民政府第次常务会议</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2020-05-29</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/cwhy/202005/t20200529_2105108.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['5月28日，市长李晓波主持召开第74次政府常务会，套开市应对新冠肺炎疫情工作指挥部第22次会议。会议传达学习了习近平总书记在山西省考察时的重要讲话精神，5月14日中共中央政治局常务委员会会议、5月15日中共中央政治局会议等精神，听取“健康中卫”建设工作推进情况汇报，安排部署相关工作。', '会议指出，疫情防控形势持续稳定向好，但疫情防控这根弦还不能松。各县（区）、部门（单位）要全面落实党中央、自治区关于疫情防控的各项决策部署，持续落实各项常态化防控措施，进一步优化调整指挥部组织架构，切实做好疫情防控督查各项工作，坚决巩固疫情防控成果。', '会议指出，1月至4月，经济社会正常秩序加快复苏，全市经济运行总体平稳，但疫情冲击影响仍然存在，下行压力依然很大。要坚持稳中求进工作总基调，坚定不移贯彻新发展理念，扎实做好“六稳”工作，全面落实“六保”任务；要不折不扣落实好自治区、市各项利企惠企政策，精准帮助企业解决融资、用工等困难，增强企业信心，支持企业恢复产能、加快发展、渡过难关；抓好项目建设扩大有效投资，抓好消费引导持续释放潜力，抓好民生实事兜住保障底线，以钉钉子精神抓紧抓实抓细各项工作，坚决打好疫情防控和经济社会发展“双战”，确保实现“双赢”。', '会议要求，各县（区）、各有关部门（单位）要高度重视，牢固树立全市“一盘棋”思想，树立“大健康、大卫生”理念，强化责任、上下联动，共同推动健康中卫建设；要进一步整合资源，强化措施，加大投入力度，让群众享有公平可及、系统连续的预防、治疗、康复等健康服务；要加快发展健康产业，围绕健康中卫建设“五大重点领域”，进一步优化健康服务，不断满足群众就医和健康需求；要以建设健康城市、健康乡村（社区）、健康学校等“健康细胞”为基础，以国家卫生城市创建、城乡环境卫生整治等为载体，持续推动健康产业快速发展，努力争取健康中卫2030规划目标早日实现。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>293</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>我市建设权力清单有特点</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2016-04-26</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201604/t20160426_596712.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['根据自治区统一部署，我市按照“早谋划、稳起步、高标准、严要求”的工作思路，在市直部门权力清单建设中，凸显出了“实、新、严、细”的特点。', '认真谋划准备，突出一个“实”字。全区“三个清单”动员大会后，我市结合实际研究制订了工作方案等，明确推进计划及工作要求。同时，积极组织外出考察学习，编印培训资料，为高效开展权力清单工作夯实基础。', '确定试点部门，突出一个“新”字。市公安局等部门，开展了为期2个月的试点工作。通过创新试点、探索方法步骤等，为全面开展工作积累了经验。', '统一标准尺度，突出一个“严”字。确定了“六个统一”和“五个不纳入”的工作要求。“六个统一”，即审核的体例、框架、表述、权力清单项目、内容、流程图统一；“五个不纳入”，即没有法律法规依据的权力事项、没有实际内容的宏观管理事项、政府内部管理事项、部门内部管理事项、法律法规条款内容重复的不纳入。', '规范审核流程，突出一个“细”字。在审核步骤上，采取“三报三回”的工作步骤：即部门上报、编办审核反馈；部门再报、编办二审反馈；部门三报、编办复核、征求意见。在审核内容上，做好“五项”比对：即与法律法规比对、与自治区权力清单比对、与其他市级行政权力事项比对、与近年来中央、自治区取消下放的权力事项进行比对、与《行政职权清单编制规范》比对，确保公布后的权力清单全面、合法。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>293</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>市第四次党代会举行预备会议</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2016-11-28</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201611/t20161128_597544.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['11月27日下午，中国共产党中卫市第四次代表大会预备会议在中卫红宝宾馆会议中心举行。', '会议以举手表决的方式通过了中国共产党中卫市第四次代表大会主席团、秘书长名单，通过了大会代表资格审查委员会名单，通过了大会各项议程。', '张柱指出，市第四次党代会是在全市上下深入学习贯彻党的十八届六中全会精神、习近平总书记来宁视察重要讲话精神，决战决胜全面小康目标的关键时期召开的一次十分重要的会议。召开市第四次党代会，是全市人民政治生活中的一件大事，事关全市今后五年乃至更长一个时期的发展，事关全市人民的根本利益。各位代表和与会同志一定要统一思想，充分认识这次党代会的重要意义，倍加珍惜全市党员群众的期望和重托，以高度的政治责任感和历史使命感，切实把思想和行动统一到大会安排的各项任务上来，以饱满的政治热情和良好的精神状态开好这次党代会。', '张柱要求，来自全市各条战线的党员代表要切实履行好党章赋予的神圣职责，完成好大会规定的各项任务。各位代表审议报告时，要紧紧围绕报告主题主线和中卫今后五年奋斗目标、主要任务、重大举措等，畅所欲言，把审议报告的过程变成进一步统一思想、总结经验、明确任务的过程，议出信心、议出思路、议出办法、议出干劲，努力把报告提出的鲜明主题、重大战略、奋斗目标和发展蓝图，转化为全市干部群众的思想共识和实际行动。市委领导班子是领导全市各级党组织和广大干部群众奋力建设“四个中卫”、不断开创全市经济社会各项事业又好又快发展新局面的领导核心，是顺利完成“十三五”目标任务、全面建成小康社会的坚强保证。这次市委班子和纪委班子人事安排，是自治区党委和市委结合中卫干部实际，在组织考察、民主推荐、差额考察公示、广泛听取意见的基础上，进行反复酝酿、认真研究提出的。各位代表一定要从讲政治、讲党性、讲原则、讲正气的高度出发，把行使权利同顾全大局、执行纪律、贯彻自治区党委要求结合起来，切实把自治区党委的意图领会好、贯彻好；积极参加讨论，大胆建言献策，切实把广大党员和人民群众的意愿和心声反映上来，把基层改革发展的生动实践和伟大创造反映上来，为市委科学决策、民主决策作出积极贡献。', '张柱强调，各代表团要按照大会议程，精心组织、严格要求，组织代表积极参加大会各项活动。各位代表要服从所在代表团的领导，正确认识自己的职责使命，正确行使民主权利，要时刻牢记作为一名党员的基本政治素养，在思想上政治上行动上与市委保持高度一致。要严守换届纪律，始终把规矩和纪律挺在前面，把正风肃纪植根于思想深处、落实到履行代表职责上，旗帜鲜明地反对拉票贿选等不正之风，切实营造风清气正的换届环境。要严格执行关于严肃换届纪律的各项规定，坚决落实“九个严禁、九个一律”的换届纪律要求，做到知边界、明底线、讲规矩、守纪律，以铁的纪律保证换届选举工作风清气正、有序进行，确保市第四次党代会圆满成功。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>293</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>张利调研中宁县农业生产乡村振兴工作时强调精准务实培育发展特色产业有力有效推进乡村全面振兴</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2024-07-09</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/xwzx/zwkx/zwyw/202407/t20240709_4590534.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['张利调研中宁县农业生产乡村振兴工作时强调 精准务实培育发展特色产业 有力有效推进乡村全面振兴_中卫市人民政府', '张利调研中宁县农业生产乡村振兴工作时强调 精准务实培育发展特色产业 有力有效推进乡村全面振兴', '7月8日，市委书记、市人大常委会党组书记张利深入中宁县调研农业生产、乡村振兴工作，强调要认真学习贯彻习近平总书记关于“三农”工作的重要论述和考察宁夏重要讲话精神，认真学习运用“千万工程”经验，精准务实培育发展特色产业，持续壮大村级集体经济，不断拓宽农民增收致富渠道，巩固拓展脱贫攻坚成果，有力有效推进乡村全面振兴，努力实现农业高质高效、乡村宜居宜业、农民富裕富足。', '在中宁县白马乡白路村千亩小麦标准化种植示范基地，大片的金黄在沃野间铺展，呈现出一派丰收的景象。“今年亩产能达到多少斤？”“粮食收得怎么样了？”“什么时候能全部收完？”张利走进麦田，仔细察看麦粒饱满度，与有关负责人深入交流，详细询问农业生产、夏收进度、小麦产量、农机保障等情况。张利强调，“三夏”工作事关全年粮食丰产丰收、事关广大农民切身利益，要密切关注天气变化，科学调配人力和农机具，以最快速度组织抢收抢种，确保小麦丰产丰收、颗粒归仓，坚决夯实全年粮食丰产丰收基础。要扎实做好夏粮收购工作，牢牢守住农民“种粮卖得出”的底线，严格落实国家粮食收购政策，畅通购销渠道，让农民有收益、得实惠。', '近年来，中宁县太阳梁乡坚持产业强乡、特色发展工作思路，成功打造了“三区一园两带”特色产业布局，促进农民持续增收，扎实有效巩固拓展脱贫攻坚成果。张利先后到南塘村日光温棚、新海村帮扶车间、德盛村香醋厂，实地察看设施农业、枸杞精深加工、传统手工香醋等产业助力群众增收和推动乡村振兴情况。张利指出，产业振兴是乡村振兴的重中之重，要持续走好特色化、差异化的产业发展路子，精耕细作、持续发展特色产业，健全完善联农带农机制，加快发展农业新质生产力，真正让特色产业成为农村发展的有力支撑、农民增收的源头活水。要做好“土特产”文章，围绕延伸产业链、提升价值链，大力发展农产品精深加工，把准市场需求、加强产销衔接，持续拓宽农副产品销售渠道，更好激发乡村发展内生动力。要始终坚持人民至上、生命至上，扎实做好防汛防灾各项工作，优化指挥体系，加强预报预警，严格应急值守，高效响应处置，全力以赴防风险、除隐患、保安全。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>293</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>中卫市化工冶金行业安全生产协会成立</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2015-05-22</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201505/t20150522_595943.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['5月20日，中卫市化工冶金行业安全生产协会正式成立，市长万新恒出席成立大会并讲话，副市长王伟及中卫工业园区管委会主任张隽华参加会议。', '万新恒对化工冶金行业安全生产协会的成立表示祝贺。他希望协会主动当好参谋助手，围绕市委、市政府的工作，充分发挥专家作用，加强行业管理和自律；要发挥协会桥梁纽带作用，在反映企业意见和诉愿的同时，引导企业贯彻落实政府安全生产政策和要求；企业要发挥主体作用，坚持问题导向，强化环保和安全生产工作意识，及时发现自身问题，促进企业发展；要不断加强自身建设，利用协会平台整合资源，进行技', '术、管理上的交流和借鉴，政府相关部门也要为协会健康发展创造良好环境，力争构建起政府宏观指导、企业规范经营、协会沟通协调“三位一体”的安全监管运行模式。', '万新恒强调，经过企业和政府的共同努力，我市打了一场环保攻坚战、翻身战，现已取得了阶段性成果。下一步我市将以“工业兴市、金融富市”两轮驱动发展，企业要以环保优先和安全生产为前提，确保企业长久持续发展。', '据了解，我市化工冶金行业安全生产协会是由宁夏紫光化工公司等企业共同发起成立的非营利性社会组织，协会目前拥有会员单位38家。协会成立后，将组织会员开展安全管理工作的交流与合作，提供安全生产方面的信息、培训等服务，并通过考察学习区内外有关企业安全生产管理先进经验，指导会员单位开展事故应急救援和安全生产标准化等工作，借以提升我市化工冶金企业安全生产管理水平，推进我市化工冶金行业安全健康有序发展。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>293</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>同仁交流互鉴共促工作再创新</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2019-09-06</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/ssfj/fdzdgknr_49428/bmxx_49458/201909/t20190906_1727102.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['8月28日，广东省江门市司法局副调研员林健潮、江门市司法局政府法律顾问工作科科长刘荣均一行5人，来我局实地调研中卫市法律顾问室（以下简称“顾问室”）管理工作情况。考察组对我市顾问室工作开展、运行情况进行了解，并充分肯定了我市顾问室在法律顾问制度建设和提供法律服务方面的做法和经验，并就江门市开展工作情况进行交流。', '我市顾问室自2014年8月成立运行以来，在市委、市政府领导的大力支持和关怀下，先后与市直各部门、各人民团体签订法律顾问聘用合同65份，与市属企业和市财政拨款的事业单位签订法律顾问聘用合同119份，基本实现了政府法律顾问的全覆盖。多年来，顾问室充分发挥政府法律参谋的作用，在全市经济、社会各项事业的发展中，提供了大量的富有建设性的法律指导意见，取得可喜的成就，得到各级领导和社会各界的普遍认同。先后由多批次全国各地同行前来学习交流。', '截至目前，顾问室共办理各类涉法性事务共计4323余件。其中，审查合同、规范性文件934件，为市领导专题协调会、批示件等提供法律意见建议267余件，承办各部门应诉案件286件，审查招标文件328件，召开专题研讨会12次，出具书面法律意见27份，办理其他涉法性事务2481余件。此外，顾问室按照各部门需求为其提供了相应的法律服务，在“请求指派”与“协助办理”过程中，不但激发了各部门对涉法性事务办理的主动性、积极性，不断提高其参与涉法性事务实际办理的法治化水平，有力的促进了法治政府建设。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>293</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>关于开展责任落实年活动的实施方案</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2017-04-21</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/szrzyj/fdzdgknr_49539/bmwj_49578/201804/t20180411_735050.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['为贯彻落实自治区国土资源厅党组《关于印发开展“责任落实年”活动实施方案的通知》（宁国土资党发〔2017〕15号）精神，切实履行好政治责任、岗位责任和改革责任，结合实际，现就我局开展“责任落实年”活动制定如下实施方案：', '开展“责任落实年”活动是在“能力建设年”活动取得积极成果基础上，是“两学一做”学习教育常态化、制度化，巩固深化“能力建设年”活动成果的重要抓手，要把“责任落实年”活动与市委开展的“制度落实监督年”和“忠诚干净 担当干事”作风建设专项活动深度融合，以落实管党治党政治责任、国土资源工作岗位责任和国土资源重点领域改革责任为重点，着力打造一支信念坚定、素质过硬、敢于担当、严而有为、清正廉洁、群众满意的干部队伍，推动全市国土资源管理服务水平不断提高，为建设“四个中卫”做出新的更大贡献。', '（一）严格落实政治责任，推进全面从严治党向纵深发展。要牢固树立抓好党建是最大政绩的意识，认真落实党建工作责任制，坚持党建工作与业务工作同部署、同推进、同考核。认真落实党建工作责任清单制度，压实党组、党总支、支部三级主体责任，强化党内监督，努力形成聚精会神抓党建的整体合力。局党组要统筹领导和推进落实全面从严治党工作，重点履行对全面从严治党的领导、用人、保障、管理和监督责任。党组书记是“第一责任人”，要带头履行管党治党责任，带队督促督办责任落实。党组其他班子成员要履行“一岗双责”，落实双重组织生活制度，在分管领域落实党建目标、任务、要求。局党总支要按照上级党组织和同级党组的部署和要求，重点履行协助、推进、教育、监督和引领责任，实行党建工作“一月一清单、一月一通报”制度，推进全面从严治党各项工作落实。各党支部具体落实全面从严治党各项要求，重点履行落实、统筹、教育、监督和管理责任，以创建星级服务型党支部为引领，以实施支部特色工作为抓手，落实支部工作纪实要求，规范党内政治生活，从严教育管理党员。', '要牢固树立抓好党建是最大政绩的意识，认真落实党建工作责任制，坚持党建工作与业务工作同部署、同推进、同考核。认真落实党建工作责任清单制度，压实党组、党总支、支部三级主体责任，强化党内监督，努力形成聚精会神抓党建的整体合力。局党组要统筹领导和推进落实全面从严治党工作，重点履行对全面从严治党的领导、用人、保障、管理和监督责任。党组书记是“第一责任人”，要带头履行管党治党责任，带队督促督办责任落实。党组其他班子成员要履行“一岗双责”，落实双重组织生活制度，在分管领域落实党建目标、任务、要求。局党总支要按照上级党组织和同级党组的部署和要求，重点履行协助、推进、教育、监督和引领责任，实行党建工作“一月一清单、一月一通报”制度，推进全面从严治党各项工作落实。各党支部具体落实全面从严治党各项要求，重点履行落实、统筹、教育、监督和管理责任，以创建星级服务型党支部为引领，以实施支部特色工作为抓手，落实支部工作纪实要求，规范党内政治生活，从严教育管理党员。', '（二）层层落实岗位责任，确保国土资源工作任务全面完成。要按照区厅、市委、市政府的决策部署，依据“三定”方案，明晰单位职责、内部科室职责、个人岗位职责；要将年度党建工作、业务工作、改革工作等各项任务，层层分解落实到领导班子成员、各个科室和工作岗位，全员落实岗位责任。要按照量化可考的原则，建立工作台账，明确工作职责、主要任务、完成时限和责任人，形成责任清单，将责任和任务层层分解，落实到岗、责任到人。领导干部和每名干部职工都要明确个人职责，主动认领责任，以“工匠精神”做好本职工作，做到知责尽责、立足岗位、建功立业。', '要按照区厅、市委、市政府的决策部署，依据“三定”方案，明晰单位职责、内部科室职责、个人岗位职责；要将年度党建工作、业务工作、改革工作等各项任务，层层分解落实到领导班子成员、各个科室和工作岗位，全员落实岗位责任。要按照量化可考的原则，建立工作台账，明确工作职责、主要任务、完成时限和责任人，形成责任清单，将责任和任务层层分解，落实到岗、责任到人。领导干部和每名干部职工都要明确个人职责，主动认领责任，以“工匠精神”做好本职工作，做到知责尽责、立足岗位、建功立业。', '（三）全面落实改革责任，确保国土资源重点领域改革取得预期成效。要将区厅、市委、市政府关于国土资源改革的各项任务逐项分解，落实到人。局党组全面统筹，定期研究解决改革推进中的重大问题，对改革工作作出阶段性部署，确保各项改革取得预期成效。', '要将区厅、市委、市政府关于国土资源改革的各项任务逐项分解，落实到人。局党组全面统筹，定期研究解决改革推进中的重大问题，对改革工作作出阶段性部署，确保各项改革取得预期成效。', '（一）动员部署阶段（4月上旬）。召开动员部署工作会议，层层传达学习国土资源部党组《关于开展“责任落实年”活动的指导意见》和区厅《关于开展“责任落实年”活动的实施方案》，研究制定市国土资源局“责任落实年”活动实施方案，明确重要意义、目标任务、责任分工、推进步骤和完成时限，提出贯彻落实意见。', '召开动员部署工作会议，层层传达学习国土资源部党组《关于开展“责任落实年”活动的指导意见》和区厅《关于开展“责任落实年”活动的实施方案》，研究制定市国土资源局“责任落实年”活动实施方案，明确重要意义、目标任务、责任分工、推进步骤和完成时限，提出贯彻落实意见。', '（二）组织实施阶段（4月中旬至12月中下旬）。围绕落实“严格落实政治责任，推进全面从严治党向纵深发展；层层落实岗位责任，确保国土资源工作任务全面完成；落实改革责任，确保国土资源重点领域改革取得预期成效”三项责任，结合实际，进一步分解任务，细化措施，制定清单，建立台账，组织实施，推进落实。', '围绕落实“严格落实政治责任，推进全面从严治党向纵深发展；层层落实岗位责任，确保国土资源工作任务全面完成；落实改革责任，确保国土资源重点领域改革取得预期成效”三项责任，结合实际，进一步分解任务，细化措施，制定清单，建立台账，组织实施，推进落实。', '（三）总结考评阶段（12月底前）。依据《实施方案》，认真对照“三项责任”清单，逐个科室、逐项任务、逐条内容进行考评验收，并综合运用考评结果，将其纳入党建考核和绩效考核。', '依据《实施方案》，认真对照“三项责任”清单，逐个科室、逐项任务、逐条内容进行考评验收，并综合运用考评结果，将其纳入党建考核和绩效考核。', '（一）高度重视，加强组织领导。为切实加强对“责任落实年”活动的组织领导，以局成立由党组书记任组长、班子成员任副组长、各科室负责人为成员的“责任落实年”活动领导小组，切实加强对活动的组织领导。领导干部要以身作则，落实责任主体，理清责任链条，明确责任环节，拧紧责任螺丝，强化责任传导，既要按照各自分工抓好责任落实，又要加强协调配合，构建以上率下、全员参与、协调联动、层层落实的工作格局。', '为切实加强对“责任落实年”活动的组织领导，以局成立由党组书记任组长、班子成员任副组长、各科室负责人为成员的“责任落实年”活动领导小组，切实加强对活动的组织领导。领导干部要以身作则，落实责任主体，理清责任链条，明确责任环节，拧紧责任螺丝，强化责任传导，既要按照各自分工抓好责任落实，又要加强协调配合，构建以上率下、全员参与、协调联动、层层落实的工作格局。', '（二）重在日常，强化督促检查。要认真落实“两个责任”，建立责任落实“负面清单”和责任追究倒查机制。局监察科要建立工作台账，实行销号制度，定期督查通报。对工作落实不力、影响整体进程的，严肃追究责任。', '要认真落实“两个责任”，建立责任落实“负面清单”和责任追究倒查机制。局监察科要建立工作台账，实行销号制度，定期督查通报。对工作落实不力、影响整体进程的，严肃追究责任。', '（三）大力宣传，营造良好氛围。要把“责任落实年”活动纳入党建考核和绩效考核，坚持正面激励，树立正确导向，注重发现、培养和考察干部，真正让想干事、能干事、干实事的干部有地位、有作为。要为敢于担当的干部担当，为敢于负责的干部负责，给干事者鼓劲，为担当者撑腰。要充分利用传统媒体和新媒体，大力宣传报道“责任落实年”活动开展动态和取得成效，营造良好氛围。', '要把“责任落实年”活动纳入党建考核和绩效考核，坚持正面激励，树立正确导向，注重发现、培养和考察干部，真正让想干事、能干事、干实事的干部有地位、有作为。要为敢于担当的干部担当，为敢于负责的干部负责，给干事者鼓劲，为担当者撑腰。要充分利用传统媒体和新媒体，大力宣传报道“责任落实年”活动开展动态和取得成效，营造良好氛围。', '（四）注重结合，坚持统筹推进。结合“责任落实年”活动与“制度落实监督年”和“忠诚干净 担当干事”作风建设专项活动，统筹推进党建工作和业务工作，坚持同部署、同推进、同考核，以开展活动为抓手推动各项业务工作落实，对活动中发现的问题立行立改、建章立制，促进业务工作能力水平提升，促使各项工作机制运行更加顺畅。', '结合“责任落实年”活动与“制度落实监督年”和“忠诚干净 担当干事”作风建设专项活动，统筹推进党建工作和业务工作，坚持同部署、同推进、同考核，以开展活动为抓手推动各项业务工作落实，对活动中发现的问题立行立改、建章立制，促进业务工作能力水平提升，促使各项工作机制运行更加顺畅。', '切实担负起全面从严治党主体责任，全面落实《中卫市国土资源局党组班子成员党风廉政建设“两个责任”清单》，坚持把党建与国土资源业务工作同谋划、同部署、同检查、同考核、同落实；制定2017年党风廉政建设和党建工作要点，签订年度党建和党风廉政建设目标责任书。', '持续推进“两学一做”学习教育常态化、制度化，抓好“制度落实监督年”和“忠诚干净 担当干事”作风建设专项活动的落实；坚持党组中心组学习制度，每月学习不少于1次，健全完善党组中心组学习档案，拓宽学习渠道，增强学习效果，充分发挥党组中心组学习示范带头作用。', '认真落实以“三会一课”为主要内容的组织生活制度，严格党内政治生活，严明党的纪律。认真贯彻民主集中制，落实党员领导干部参加双重组织生活会制度，大力倡导勇于批评与自我批评的优良作风，坚持高质量地召开民主生活会和专题组织生活会，不断提高党内政治生活的原则性和战斗性。', '严格执行《关于新形势下党风政治生活的若干准则》《中国共产党党内监督条例》，把运用监督执纪“四种形态”，尤其是要做实做细第一种形态“五谈二会一报告”机制，加强干部日常监督管理，切实用纪律管住 “大多数”。对党员干部身上各种苗头性、倾向性问题早发现、早提醒、早处置，及时约谈、诫勉谈话，切实把纪律挺在前面。深入开展党务公开和政务公开工作，促进权力公开透明运行。', '重点抓好工程项目、业务协作、各类津补贴、公共采购、“三公经费”支出及财务报销违规问题专项整治工作的自查自纠、整改落实工作。加强对扶贫领域涉农资金使用管理，对突出问题开展集中整治，管好用好涉农资金。强化对重点部位廉政风险点的防控，加强对权力运行的制约和监督，坚决纠正损害群众利益不正之风。', '进一步完善和落实党员“评星定格”党性定期分析制度、党员积分制管理、“三建四关心”党内关怀机制，严格党员教育、管理和监督，坚持开展党员思想分析和民主评议党员工作。立足党员的岗位特点，突出实践特色，丰富活动载体，积极开展机关党员“亮身份、作表率”活动，在机关服务窗口推行“一站式”服务和设立“党员先锋岗”、“党员责任区”，充分发挥广大党员的榜样带动和示范辐射作用；使党员真正做到“党徽戴起来、责任扛起来、形象树起来”，不断提升党员的工作效率和服务水平。', '着力加强土地利用总体规划实施管理，配合做好空间规划编制实施工作，全力保障重点项目用地。加强土地利用计划管理，及时制定和公布供地计划，严格执行国有建设用地招拍挂出让制度。', '着力推进土地供应供给侧结构性改革，完成土地级别与基准地价更新工作，启动城市地价调查与监测，促进土地节约集约和高效利用。推进“十三五”单位国内生产总值建设用地下降目标实现，及时做好建设项目用地预审、闲置土地调查认定及批而未供土地处置工作。', '重强化市、县、镇乡三级政府耕地保护的第一责任和主体责任，全面落实永久基本农田“建表册、入图库、落地块、明责任、设标识”各项任务要求，按照永久基本农田保护区划定成果，加大耕地保护力度。', '积极申报、立项实施耕地占补平衡土地开发项目，确保占补项目库耕地后备资源的储备。加快实施土地整治项目，确保年底通过自治区竣工验收。', '继续坚持矿权出让招拍挂制度和有偿延续制度，加强矿政管理和矿山安全生产工作，强化地质灾害防治和矿山环境治理。', '加强土地调查成果应用，全面完成房屋土地等不动产数据整合。科学制定土地征收计划，依法实施土地征收补偿，完成被征地农民养老保险资格审查核定工作，确保被征地农民应保尽保。', '积极做好“三项制度”（行政执法公示制度、建立全过程记录制度、重大执法决定法制审核制度）工作，着力解决行政执法中存在的不作为、乱罚款、乱检查、不透明、不文明等问题。强化国土资源执法监察工作，严厉打击乱占、滥建违法及非法开采行为。', '以“七五”普法为抓手，深入开展法制宣传教育，提升整体素质；认真开展普法宣传，提高法治意识，从而激发广大干部职工学法、用法、守法的自觉性，提升干部依法行政能力。', '制定工作方案，选择试点实施，争取年内完成2个村的登记任务，3年内完成沙坡头区约8万户农村宅基地和房屋“两证合一”不动产登记。', '大力推进国有建设用地履约保证金制度试点工作，全面总结试点工作中存在的问题和经验，充分吸纳用地企业和规划、住建等部门的意见，对《实施方案》进行深度细化和修正，提高《实施方案》的可操作性和实用性。力争为试点工作在全区范围内的推广实施提供成熟意见。', '借鉴平罗县试点成功经验，探索建立农民自愿永久退出土地承包经营权、宅基地使用权和房屋所有权的补偿机制。', '完成易地移民增减挂钩项目的方案编制和实施工作，将滨河镇大板村列入增减挂钩项目实施计划，委托专业公司编制项目实施方案。']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>293</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>中卫市科技局组织召开全市科技创新重点工作推进会</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2020-07-14</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/skxjsj/fdzdgknr_49279/bmxx_49310/202007/t20200715_2163962.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['7月13日，市科技局召开全市科技创新重点工作推进会，传达学习习近平总书记考察宁夏重要讲话精神和《习近平关于科技创新论述摘编》等有关内容，总结半年以来我市科技工作进展情况，分析存在的问题和不足，谋划研究下半年工作。', '会上，各县（区）科技局分别汇报了今年以来的工作情况，市科技局通报了各县（区）科技局上半年工作重点目标任务完成情况，市科技局分管领导、业务科室负责人进行了点评，主要负责人为确保全年目标任务落实完成提出了明确要求。会议指出，半年来，全市科技系统统筹抓好疫情防控和科技创新工作，取得了一些成绩，但还存在各县（区）目标任务完成不平衡等突出问题和薄弱环节，严重影响了全市科技创新重点工作的推进。会议强调，近年来，中央和区、市、县党委、政府对科技创新工作高度重视，各级政府推动科技创新发展的措施更加有力、氛围更加浓厚，各县（区）科技部门务必坚持目标导向、问题导向、结果导向，绷紧弦、鼓足劲，切实转变作风，以有为争有位，展现科技部门新作为、新形象。', '会议要求，下半年，各县（区）科技局要认真贯彻落实习近平总书记来宁视察重要讲话精神，提高认识抓落实、盯紧任务抓落实、补齐短板抓落实、转变作风抓落实，聚焦科技创新重点工作任务及高质量发展考核指标，对在上半年目标任务完成中存在的问题进行逐项分析研判，找准问题所在，提出改进措施，确保完成高质量年度绩效指标。要摒弃传统工作思路和方法，提高服务意识和水平，大力培育科技型企业，加大创新平台建设力度，加快科技成果转移转化，认真做好技术合同认定登记、技术需求征集等工作，为坚决守好“三条生命线，努力走出一条转型追赶、高质量发展的新路子”提供科技支撑。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>293</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>万新恒调研我市互联网企业发展时指出</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2015-07-14</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201507/t20150714_596104.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['7月10日，市长万新恒调研我市互联网企业发展情况时指出，我市互联网企业正处于初创时期和培育阶段，企业要借助各种优势资源，加大与外界的沟通，政府会进一步重视互联网企业的发展，加大支持力度，重视科技人才的培养，更好地为企业服务。自治区信息化建设办公室主任张立，市委常委、宣传部部长陶雨芳出席座谈会，市委常委、副市长刘向兵陪同调研。', '万新恒一行先后到宁夏赢目信息技术有限公司、宁夏天天互联网络科技有限公司、中卫市大麦地农村电商平台及宁夏宁商民间金融借贷信息服务公司实地考察，了解我市互联网企业的发展现状、人员规模、运营模式、企业定位和发展方向。在随后召开的座谈会上，这几家互联网公司负责人分别介绍了公司的技术服务和业务范围。', '万新恒说，中卫的互联网企业从零做起，现已达到30多家，目前都处于初创时期和培育阶段，政府要大力扶持。企业自身要找准方向，谋求发展，为市民提供精准服务。同时，企业要重视人才培养，以中卫与亚马逊AWS的合作为契机，多关注云计算的发展，多学习，多沟通，为企业加快发展而努力。万新恒希望，中卫互联网企业能抓住中卫大力发展云计算产业，打造“云端中卫”的机遇，把企业做大做强，实现自身价值，为更多的群众提供便利。', '万新恒表示，今后，政府将加强和中关村的互动，为企业提供更多的平台和机会，加大对企业的培训，更好地为企业服务。', '张立说，信息化发展目前已进入了高速发展时期，也具备了发展信息产业的大环境。中卫是宁夏信息产业建设的最大主体，有着大力发展云计算的前景和优势。他希望政府能为企业提供更多的支持和服务。企业要采用“国际化视野、专业化团队、市场化运作”的发展理念，推动中卫信息化产业发展。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>293</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>关于印发市人防办创建第七届全国文明城市实施方案年的通知</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2021-04-25</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/srmfkbgs/fdzdgknr_50238/bmwj_50268/202105/t20210520_2849360.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['关于印发《市人防办创建第七届全国文明城市实施方案（2021-2023年）》的通知_中卫市人民政府', '现将《市人防办创建第七届全国文明城市实施方案（2021-2023年）》印发给你们，请结合工作实际，认真抓好贯彻落实。', '为进一步深化文明城市创建，全面提升城市品质和社会文明程度，努力建设崇德向善、文化厚重、和谐宜居、人民满意的文明城市，根据《中共中卫市委员会办公室 中卫市人民政府办公室关于印发&lt;中卫市创建第七届全国文明城市实施方案（2021-2023年）&gt;的通知》（卫党办[2021]1号）要求，结合人防工作实际，制定如下实施方案。', '以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的十九届五中全会精神和习近平总书记关于社会主义精神文明建设的重要论述,以及市委四届十次、十一次、十二次全会精神, 自觉站位新发展阶段、坚定贯彻新发展理念、主动融入新发展格局,聚焦聚力建设崇德向善、文化厚重、和谐宜居、人民满意文明城市目标,着力提升干部职工文明素质,为建设黄河流域生态保护和高质量发展先行市积蓄新动能、打造优生态。', '严格按照《中卫市创建第七届全国文明城市网格化管理清单》管理范围，对我办管理的东花园社区金河三期B东1区和文昌镇北街小巷高庙平房拆迁点进行全面巡查，集中整治车辆乱停乱放，垃圾随意倾倒等问题，特别要针对薄弱环节开展整改落实攻坚行动，做到目标、措施、进度、责任“四到位”，全力以赴，全面达标。依据《全国文明城市(地级以上)测评体系》标准, 2021年在对标补差、夯实基础上下功夫,力争年度测评成绩达标进入全市市直部门前40名; 2022年在重点突破、全面巩固上下功夫,力争年度测评成绩进入全市市直部门前35名; 2023年在全面提标、冲刺摘牌上下功夫,力争年度测评成绩进入全市市直部门前30名。通过三年扎实创建,促进人防事业高质量发展,管理片区治理体系更加完善、治理能力明显提升,干部群众文明素质、文明程度、生活质量同步跃升。', '1.组织召开市人防办创建全国文明城市动员部署会议,研究《市人防办创建第七届全国文明城市实施方案(2021-2023年》《市人防办创建第七届全国文明城市2021年工作要点》,安排部署下步创建工作。', '2.聚焦群众反映强烈的热点问题和制约文明城市创建的难点问题,组织实施文明城市创建“七大工程”,即文明素质提升工程、文化服务供给工程、基础设施建设工程、精细管理服务工程、环境卫生清洁工程、荣誉城市争创工程、制度机制完善工程,夯实创建全国文明城市工作基础。', '3.对照《全国文明城市(地级以上)测评体系》《全国未成年人思想道德建设工作测评体系》测评要求,查漏补缺，及时改进提升,为迎接年度测评打好基础。', '1.组织召开市人防办创建全国文明城市推进工作会议,总结2021年度全国文明城市创建工作,总结分析上年创建得失,研究部署下步创建工作。', '2.对照国家测评体系A级标准项目,进行全面自查,提升整治标准,补短板强弱项;对在2021年全国文明城市测评中存在的问题和不达标项目,集中实施整改，年内全面达标。', '3.从为民办实事抓起,从市民日常行为抓起,从行业突出问题抓起,全面梳理人防工作推进领域的短板弱项,在接续实施“七大工程”基础上，全力打好文明城市创建“九大攻坚战”,即政务环境建设攻坚战、法治环境建设攻坚战、市场环境建设攻坚战、人文环境建设攻坚战、社会文化环境建设攻坚战、生活环境建设攻坚战、社会环境建设攻坚战、生态环境建设攻坚战、思想道德建设攻坚战,突破难点问题,巩固工作成果,提升创建质量。', '1.组织召开市人防办创建全国文明城市攻坚会议,总结分析前两年创建工作,对决战决胜全国文明城市进行再动员、再部署。', '2.对标公民道德、公共环境、公共秩序、公共服务、公共文化、公益活动六大要素,大力实施文明城市创建“六大提升行动”,即公民道德提升行动、公共环境提升行动、公共秩序提升行动、公共服务提升行动、公共文化提升行动、公益活动提升行动,全面优化城市软、硬件环境。', '3.依据《全国文明城市(地级以上)测评体系》标准,再次查漏补缺,全面摸清底数,列出问题清单和目标要求,实施专项整治,补齐缺项、做强弱项。', '4.建章立制。严格对照测评标准各项要求,攻坚克难，整理汇总全国文明城市创建各类档案资料，以高标准迎接全国文明城市验收。', '紧扣“崇德向善、文化厚重、和谐宜居、人民满意”文明城市创建目标,紧抓“实地暗访考察、入户问卷调查、网上材料审核”三个环节，紧盯东花园社区公共设施、小区环境、市民素质、文昌镇背街小巷等方面的问题不足,在城市精细管理服务上用心用情,在加分城市创建上发力用力，在常态长效推进上从严从实，补齐短板弱项,提升颜值气质,激发群众对城市的认同感归属感自豪感,增强市民的获得感幸福感安全感。', '（一）思想道德筑底行动。一是坚持用党的创新理论武装头脑。及时跟进学习习近平总书记最新重要讲话、文章和指示批示精神，理解其核心要义和实践要求，自觉做习近平新时代中国特色社会主义思想的坚定信仰者和忠实实践者，切实用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作。充分发挥党组理论学习中心组的示范带头作用，制订学习计划并落实好各专题学习任务，每月至少集中学习1次，全年学习不少于12次，每季度突出一个主题，组织集中研讨；充分发挥党支部“三会一课”、主题党日活动的基础作用，每位党员每年至少选择一个主题开展学习交流，力求做到理论水平有提升、思想境界有提高、业务工作有创新。二是不断深化社会主义核心价值观培育践行活动。深化爱国主义、集体主义、社会主义和习近平新时代中国特色社会主义思想、中国梦学习宣传教育，加强革命传统教育引导，传承红色基因，推进核心价值观教育。开展以感恩共产党、感恩伟大祖国、感恩社会主义为主要内容，激发人们知恩报恩社会的热情。开展“幸福都是奋斗出来的”宣传教育，增强全办干部职工全面建成小康社会的信心和决心。加强国防教育和形势政策教育，广泛开展形式多样的国防教育实践活动。三是深化理想信念教育。引导党员干部守初心、担使命，筑牢信仰之基，补足精神之钙。依托红色教育、爱国主义教育基地和党校资源，每年分层次组织党员干部、党务干部参加市委专题轮训。党支部结合学习计划、支部活动，持续开展“双学双强”活动，经常性开展党史、新中国史、改革开放史、社会主义发展史、人民防空发展史的宣传教育，厚植党员干部爱国家、爱人防的情怀。四是做好公益广告宣传。充分利用自治区人防办网站、微信公众号等新媒体及市办“人防信息”广泛开展喜迎国庆、人防知识公益广告，营造浓厚氛围；围绕“5.12”防灾减灾日、“9.15”宁夏人民防空日等活动，广泛开展建党100周年庆祝活动及人民防空知识宣传等活动。五是开展主题实践活动。围绕庆祝建党100周年，深入贯彻《新时代爱国主义教育实施纲要》，广泛开展知识测试，利用主题党日开展朗诵革命诗词等活动，激发党员干部爱党爱国的情怀；加强党史、国史、改革开放发展史宣传教育。六是开展党员志愿服务活动。成立办党员志愿服务队，办党员志愿者注册率达到100%，党员领导干部带头参与志愿服务活动，发挥示范表率作用。办党支部每季度至少组织1次集中志愿服务活动。落实党员志愿者到所在社区报到制度。', '（二）政务服务提升行动。一是加强工作实践锻炼。进一步研究便民利民措施，深化“放管服”改革，提升政务服务水平。积极推动人防改革发展工作，激励党员干部带头“啃硬骨头”，攻坚突破改革发展“中梗阻”，进一步夯实“护民之盾”质量安全监管基础。在应对急难险重、救灾抢险等任务中，动员党员干部冲锋在前、勇挑大梁。二是坚决做到“两个维护”。认真贯彻落实新时代党的组织路线，不断强化党组织的政治属性和政治功能，提高党员干部政治素质和政治能力，锤炼对党忠诚的政治品格，增强明辨是非的政治觉悟，保持强有力的政治执行力，坚决贯彻党中央和自治区、市委决策部署，不断提高保持政治定力、驾驶政治局面、防范政治风险的能力，增强“四个意识”、坚定“四个自信”， 做到“两个维护”。三是严明党的政治纪律和政治规矩。组织开展“接力诵读党章，轮流领学党规”学习活动等，引导党员认真学习、模范遵守党章党规。加强对政治建设情况的监督检查，将政治纪律执行情况作为党性分析、民主生活会和组织生活会对照检查的重要内容，确保党员干部切实做到“五个必须”，坚决防止“七个有之”。四是严肃党内政治生活。严格执行党章和新形势下党内政治生活的若干准则，贯彻执行民主集中制，带头严肃党内政治生活，严格执行党员领导干部双重组织生活会制度，认真落实“三会一课”、主题党日、民主生活会、织生活会、领导干部双重组织生活等制度规定。落实党员领导干部每年至少讲1次党课制度,完善重温入党誓词、入党志愿书以及党员过“政治生日”等政治仪式,着力提高党内政治生活的政治性、时代性、原则性、战斗性。努力建设忠诚模范、担当作为、团结奋进、廉洁高效、优质服务的政治机关，涵养风清气正的政治生态。', '（三）法治环境优化行动。一是模范遵守党纪国法。坚持把党章党规党纪学习作为党组理论学习、党支部学习和党员干部培训的重要内容，教育党员干部用党纪国法规范言行。加强经常性纪律规矩和宪法法律教育，开展典型案例警示教育，教育引导党员干部敬畏法纪。严格贯彻落实《中国共产党党内监督条例》，强化日常监督，督促党员干部做到言出法随、令行禁止。二是规范权力运行。认真履行全面从严治党主体责任和“一岗双责”，健全完善廉政风险防控机制，加强对权力、资金、行政审批等重点环节和关键岗位权力运行的制约监督。开展廉政教育。党组领导班子成员和党支部书记要认真落实廉政教育和谈话制度，对新发展党员和重要岗位干部开展纪律和廉政教育，对新任职党员领导干部进行廉政谈话，针对性提出廉洁自律要求。党员领导干部要带头守纪律、讲规矩，从严约束自己的社交圈、生活圈、朋友圈，管好家属子女和身边工作人员，做到廉洁自律、廉洁用权、廉洁齐家。教育引导党员干部自觉加强党性修养、职业道德修养、个人品德修养，树立正确的权力观，自觉按法定职责、权限、规则和程序办事。三是强化执纪问责。强化运用监督执纪“四种形态”，最大限度保护好党员干部。加大谈话提醒和函询力度，对违纪问题和不正之风早发现、早报告、早处置。坚决查处不收敛、不收手的顶风违纪问题。健全完善党员领导干部廉政档案，为强化监督制约夯实基础。认真开展作风纪律督查。成立作风纪律督查小组，按照“在岗、在位、在状态”的要求，定期不定期对干部规范执法、遵纪守法、廉洁自律等情况进行检查，及时纠正各种不良行为。完善违纪问题发现机制，发动群众监督举报，提高违纪行为发现率。', '（四）生活环境提质行动。一是提高生活环境质量。围绕弘扬中华传统美德,立足回应社会关切,在市人防办集中开展倡导绿色生活、反对铺张浪费,实施垃圾分类、促进资源回收的宣传教育,引导干部职工崇尚自然简约的生活序式,增强生态道德意识,培养积极向上向善的良好风气。充分利用单位宣传栏和微信平台进行宣传,不拘形式地开展垃圾分类宣传工作，普及垃圾分类知识。使垃圾分类工作深入到广大职工心中。源头抓起、建章立制,建立健全生活垃圾分类处置的常态化、长效化机制,从自己做起、从身边做起、从点滴做起,减少一次性用品的使用,从源头实现生活垃圾,养成主动分类、自觉投放的行为习惯,在全办形成垃圾分类人人有责、人人尽力、人人作为的良好氛围。在公共区域和办公区域配置分类垃圾收集容器。按照规定分类投放生活垃圾，不得随意抛洒、倾倒或者堆放。二是持续整治环境卫生。对照创城目标任务的要求，对责任区的环境卫生、小广告、乱摆卖、乱停放等进行日常巡查和综合整治。取缔责任区内流动摊担、乱摆乱设，做好清扫保洁工作，垃圾堆物定点清运，牛皮癣、吊挂物及时清理，确保整洁常态化。开展入户宣传。入户宣传绿色生活和工作新观念，倡导市民参与创城工作，保持市容环境整洁有序，营造健康的生活环境。', '（五）弘扬时代新风行动。一是推动移风易俗与脱贫攻坚工作深入发展。发挥“关键少数”作用，在市人防办党员干部中和贫困村、移民村开展移风易俗“八带头八禁止”活动。开展脱贫攻坚政策宣传，引导群众破除陈规陋习，倡导喜事新办、丧事简办等文明新风，大力弘扬新风正气。二是深化文明交通行动。广泛开展友善教育，在文昌镇东花园社区创城活动中开展文明交通执勤和宣传活动，并引导干部群众在公共交通工具上为老、弱、病、残、孕及怀抱婴儿者主动让座。三是深入开展网络文明建设。以“网络文明传播”为抓手，加大正面宣传，以不传谣、不炒作、不说脏话为基本要求，在全办实施网德工程，营造清朗的网络空间。', '（六）群众性精神文明创建行动。一是突出传统节日文化内涵。深入开展“我们的节日”主题活动，以春节、元宵、清明、端午、中秋、七夕、重阳等传统节日为契机，丰富传统节日的思想文化内涵，融入勤劳节俭、孝者爱亲、和谐友善等传统美德，用传统节日文化带动基层文化，推动社会主义核心价值观成为全办党员干部的群体意识和共同行动。二是开展广场文化演出。结合自治区人防办在各市县开展的“人民防空为人民，共筑伟大中国梦”全区文艺巡回演出和中卫市人防专场演出，积极营造全市干部群众建设美丽新宁夏，共圆伟大中国梦的良好氛围，唱响礼赞新中国，奋进新时代的昂扬旋律，以优异成绩庆祝建党100周年。', '（一）保障落实，成立领导小组。强化组织领导，层层压实责任。为认真抓好创城工作，办党组成立创建全国文明城市工作领导小组，组长由办党组书记、主任赵吉文同志担任，副组长由办党组成员、二级调研员杨永庆同志担任，段宏安、张秀燕、黄学惠同志为成员。创城工作领导小组下设办公室，办公室设在指挥通信科，负责创城具体工作。', '(二)提高认识，增强责任意识。各科要充分认识创城工作的重大意义，切实围绕创建指标开展工作。把工作任务细分到人，确保工作落实到位。对管理的东花园社区金河三期B东1区和文昌镇北街小巷高庙平房拆迁点，采取分片包干的方式，每周五定期开展巡查和环境卫生整治，按照社区和乡镇要求，认真抓好各项工作，应对突击检查，确保责任区环境卫生、入户宣传达标。', '（三）团结协作，各科联动落实。创城工作涉及环境卫生、入户宣传、文明新风教育等等方方面面，需要各科围绕指标，通力合作。各科按创城标准做好相关业务工作，并提供好相关资料归档。各科要按照指标任务逐项抓好抓实，为群众办好事、办实事，确保达到文明创建目标。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>293</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>闽宁协作助推多领域纵深发展</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/ztzl/xczx/gzdt/202302/t20230207_3946754.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['2022年，中卫市深入贯彻落实中央和自治区关于东西部协作的重要指示精神和闽宁对口协作第26次联席会议精神，聚焦巩固拓展脱贫攻坚成果，严格落实“四个不摘”要求，积极应对疫情影响，与漳州市、漳浦县紧密对接、有力协作，全面落实闽宁对口协作“22106”发展规划，持续推进项目帮扶、劳务协作、产业合作、人才交流、消费帮扶等重点工作。', '一是周密部署统筹推进。市委和市政府主要领导高度重视闽宁协作工作，9月14日召开五届市委2022年第45次常委会（扩大）会议，传达学习了福建党政代表团赴宁夏考察并召开闽宁协作第26次联席会议精神，听取了我市闽宁协作工作情况汇报，就下一步中卫-漳州协作重点工作做了安排部署，提出了目标要求。海原县委常委会、政府常务会议、县委农村工作领导小组会先后多次专题研究闽宁协作工作，制定出台《海原县2022年闽宁协作工作方案》，制定明确标准，提出严格要求。二是强化多领域交流互访。中卫市、海原县与漳州市、漳浦县交流互访7批次74人次，海原、漳浦两县互派2名党政领导挂职交流，共召开联席会、座谈会4次，深化合作、共谋发展思路进一步明晰。漳浦县17个乡镇34个村与海原县17个乡镇34个村结对帮扶，漳浦县3家企业、2家社会组织分别与海原县5个村结对帮扶。漳州通过发动社会企业，筹集社会帮扶资金1500万元，重点推动海原县产业培育、济困救助、公益事业等方面。三是加强人才交流互促。深入开展支医支教培训等活动，推动我市医疗和教育领域在组织管理、知识更新、人才培养等方面向更高水平发展。福建组织19名研究生支教队员赴海原县开展支教活动，中卫漳州两地选派112名专业技术人员开展交流学习，重点围绕基层党建、乡村振兴、产业培育、劳务协作、爱心帮扶等方面开展“组团式”帮扶。“9.20”疫情以来，漳浦县积极筹集资金12万元，带动多家闽籍企业为海原县捐赠抗疫物资，为海原县开展疫情防控提供了及时有力的支持。四是全面拓展产业协作。争取闽宁协作资金7100万元，实施闽宁项目5类26个。中卫市组织“8+4”专题招商小组赴福建省开展小分队招商13次，考察企业38家，实施福建籍企业投资项目10个，实际到位资金1.44亿元。7月10日至12日，自治区党政代表团在厦门市召开了福建·宁夏经贸合作暨企业家恳谈会，会上签约了合作项目8个，签约金额114.62亿元。7月13日，“山海情深·共享共赢”沙坡头区招商引资推介会在厦门市顺利举行，共签约合作项目4个，签约金额55.33亿元。海原县动员组织近百家企业积极申报纳入国家扶贫企业和产品目录，动员东部企业与海原企业（合作社）合作开办农产品展销馆，目前共销售海原县农特产品2.02亿元，形成了“产地直销”“西货东卖”消费帮扶新模式。五是大力促进劳务协作。建立海原驻福建漳浦劳务服务中心，建立就业创业服务体系，培育劳务经纪人796名、劳务中介组织19家。推动宁夏鼎泰合人力资源有限公司与厦门天马微电子有限公司签订《闽宁协作劳务人员推荐服务协议》，计划至2025年为厦门天马微电子有限公司提供宁夏籍务工人员2000名，预计收入1.2亿元，目前已输送务工人员500人，创收3000万元。通过包车、乘机等“点对点”向福建输送务工人员572人。在福建漳州科技学院开展基层劳务工作人员巩固拓展脱贫攻坚成果同乡村振兴有效衔接素质提升培训班2期72人。六是推动文化旅游互融。持续落实《中卫市 漳州市文化旅游合作框架协议》，在中卫电视台《文旅中卫》栏目投放漳州文旅宣传片，通过资源互换、互推互送等形式强化两地文化和旅游协作。深化打造“夏游中卫·冬游漳州”旅游品牌，中卫市各景区对漳州游客实行免门票政策，对福建游客实行门票半价优惠政策，继续实施《中卫市旅行社送团奖励办法》，对来卫旅游包机、切位包机、旅游专列给予政策奖励。组织全市各景区前往厦门市开展文旅资源推介活动，并针对福建省游客发放了500万元文旅惠民消费券，7月20日至7月底，思明、湖里两区联手策划了2022“百团万人游宁夏”首发系列团活动，输送游客100余人。邀请福建漳州文化旅游主管部门领导和相关旅行社负责人参加了2022中国宁夏（沙坡头）·第十二届丝绸之路大漠黄河国际文化旅游节开幕式，以“闽宁情深”“沙坡奇缘”为主题制作闽宁宣传片2部。以“闽宁协作漳海情 不忘初心再扬帆”为主题的漳浦·海原文化艺术交流活动于5月、7月先后在漳浦、海原举行，展示了漳浦、海原两地闽宁文化协作取得的成果。', '年闽宁协作工作方案》，制定明确标准，提出严格要求。二是强化多领域交流互访。中卫市、海原县与漳州市、漳浦县交流互访7批次74人次，海原、漳浦两县互派2名党政领导挂职交流，共召开联席会、座谈会4次，深化合作、共谋发展思路进一步明晰。漳浦县17个乡镇34个村与海原县17个乡镇34个村结对帮扶，漳浦县3家企业、2家社会组织分别与海原县5个村结对帮扶。漳州通过发动社会企业，筹集社会帮扶资金1500万元，重点推动海原县产业培育、济困救助、公益事业等方面。三是加强人才交流互促。深入开展支医支教培训等活动，推动我市医疗和教育领域在组织管理、知识更新、人才培养等方面向更高水平发展。福建组织19名研究生支教队员赴海原县开展支教活动，中卫漳州两地选派112名专业技术人员开展交流学习，重点围绕基层党建、乡村振兴、产业培育、劳务协作、爱心帮扶等方面开展“组团式”帮扶。“9.20”疫情以来，漳浦县积极筹集资金12万元，带动多家闽籍企业为海原县捐赠抗疫物资，为海原县开展疫情防控提供了及时有力的支持。四是全面拓展产业协作。争取闽宁协作资金7100万元，实施闽宁项目5类26个。中卫市组织“8+4”专题招商小组赴福建省开展小分队招商13次，考察企业38家，实施福建籍企业投资项目10个，实际到位资金1.44亿元。7月10日至12日，自治区党政代表团在厦门市召开了福建·宁夏经贸合作暨企业家恳谈会，会上签约了合作项目8个，签约金额114.62亿元。7月13日，“山海情深·共享共赢”沙坡头区招商引资推介会在厦门市顺利举行，共签约合作项目4个，签约金额55.33亿元。海原县动员组织近百家企业积极申报纳入国家扶贫企业和产品目录，动员东部企业与海原企业（合作社）合作开办农产品展销馆，目前共销售海原县农特产品2.02亿元，形成了“产地直销”“西货东卖”消费帮扶新模式。五是大力促进劳务协作。建立海原驻福建漳浦劳务服务中心，建立就业创业服务体系，培育劳务经纪人796名、劳务中介组织19家。推动宁夏鼎泰合人力资源有限公司与厦门天马微电子有限公司签订《闽宁协作劳务人员推荐服务协议》，计划至2025年为厦门天马微电子有限公司提供宁夏籍务工人员2000名，预计收入1.2亿元，目前已输送务工人员500人，创收3000万元。通过包车、乘机等“点对点”向福建输送务工人员572人。在福建漳州科技学院开展基层劳务工作人员巩固拓展脱贫攻坚成果同乡村振兴有效衔接素质提升培训班2期72人。六是推动文化旅游互融。持续落实《中卫市 漳州市文化旅游合作框架协议》，在中卫电视台《文旅中卫》栏目投放漳州文旅宣传片，通过资源互换、互推互送等形式强化两地文化和旅游协作。深化打造“夏游中卫·冬游漳州”旅游品牌，中卫市各景区对漳州游客实行免门票政策，对福建游客实行门票半价优惠政策，继续实施《中卫市旅行社送团奖励办法》，对来卫旅游包机、切位包机、旅游专列给予政策奖励。组织全市各景区前往厦门市开展文旅资源推介活动，并针对福建省游客发放了500万元文旅惠民消费券，7月20日至7月底，思明、湖里两区联手策划了2022“百团万人游宁夏”首发系列团活动，输送游客100余人。邀请福建漳州文化旅游主管部门领导和相关旅行社负责人参加了2022中国宁夏（沙坡头）·第十二届丝绸之路大漠黄河国际文化旅游节开幕式，以“闽宁情深”“沙坡奇缘”为主题制作闽宁宣传片2部。以“闽宁协作漳海情 不忘初心再扬帆”为主题的漳浦·海原文化艺术交流活动于5月、7月先后在漳浦、海原举行，展示了漳浦、海原两地闽宁文化协作取得的成果。', '2023年，中卫市将坚持认真学习贯彻党的二十大精神和习近平总书记关于东西部协作的重要论述，深入贯彻落实闽宁协作第26次联席会议精神，紧扣《&lt;闽宁协作第二十六次联席会议纪要&gt;任务分工方案》，聚焦巩固拓展脱贫攻坚成果同乡村振兴有效衔接，树牢以协作促发展的鲜明导向，持续加强产业合作、资源互补、劳务对接、人才交流，推进中卫-漳州、海原-漳浦两地协作再上新台阶，共同谱写新时代对口协作新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>293</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>开启新征程实现新跨越</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2017-03-01</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201703/t20170301_598033.html</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['回顾过去的一年，我市组织工作可圈可点，从开展“两学一做”学习教育、筑牢党员思想理论根基，到精心组织领导班子换届、打造忠诚担当的干部队伍；从严管干部队伍、抓党建促脱贫攻坚，到全面推进基层党建；从激发干部活力、推进领导干部能上能下，到完善党内政治生活、持续深化党的建设制度改革，一个个措施的落地，一项项工作的推进，构成了2016年组织工作的美丽画卷。', '“两学一做”学习教育启动以来，我市对全市2162个基层党组织、44935名党员的基本情况进行调查摸底，并召开全市学习教育工作座谈会，对此项工作进行全面部署，要求各级党组织把解决问题贯穿始终，坚持做到“六个结合”，切实把学习教育抓紧抓实；各级党组织书记率先垂范，坚持做到“六个带头”，充分发挥带学、促学作用，共带头讲党课2642场次、参加学习研讨8260场次，有效发挥示范带动作用。中宁县余丁乡永兴村将“两学一做”学习教育与发展村集体经济、帮助群众脱贫致富结合起来，村党支部每月组织党员到菊花基地参加劳动实践锻炼。2016年，胎菊种植项目增加集体经济收入10万元，附近群众在菊花基地务工收入共30万元。“两学一做”学习教育开展以来，处处可以感受到学习教育带来的新气象。', '市委组织部坚持精准施策，不断加强基层组织建设。扎实开展星级基层服务型党组织创建工作，共评定三星级以上党组织389个，二星级党组织661个，一星级党组织985个。及时部署党建工作“3+7”重点任务，共找回失联党员1393名，处置违纪违法党员207名，排查出的99个软弱涣散基层党组织全部转化升级。推行“四化一满意”服务群众工作机制，投入1500多万元，建成乡镇民生服务中心工作平台39个、村级便民服务站工作平台325个，形成了贯通市县乡村四级的全域化服务群众网络。加强党员队伍建设，党员“政治生日”主题活动、党员积分制管理等创新做法取得较好成效。建立机关党支部结对帮扶贫困村、机关干部包扶贫困户制度，9298名机关干部结对帮扶152个贫困村31297户贫困户，选派202名优秀机关干部到贫困村担任驻村“第一书记”或工作队队长，组织开展党员“四在先”活动，为700户党员提供“双带”发展资金共300万元。', '高素质的干部队伍是党的事业取得胜利的保证。市委组织部选准用好干部，严把干部选拔任用程序关口，提拔处级干部71名、科级干部162名，调整交流处级干部86名、科级干部144名；向自治区党委推荐优秀年轻县处级后备干部25名。将市属国有企业领导班子成员纳入市委管理干部范围，选拔任用领导干部5名。着力提升干部队伍素质，紧盯脱贫攻坚、全域旅游、云计算等重点任务，举办全市各级各类领导干部培训班25期，培训领导干部2500余人次；选派10余名优秀干部到经济发达省区、上级机关挂职锻炼；对294名领导干部个人有关事项进行了核查，对不如实报告的9名干部进行了诫勉谈话，并责令作出书面检查；坚持“凡提四必”要求，对有信访反映核查属实的1名拟提拔考察对象取消了提拔任用资格。', '不拒众流，方为江海。创新是转型发展的新引擎，改革就是点燃引擎的点火器。“要着力破除体制机制障碍，向用人主体放权，为人才松绑，让人才创新创造活力充分迸发，使各方面人才各得其所、尽展其长。”习近平总书记的重要指示击中人才领域改革要害。市委组织部改进人才服务方式，最大限度地释放体制机制活力，以深入推进宁夏非公企业人才发展服务试验区建设为抓手，积极搭建人才干事创业平台，建立了宁夏枸杞保鲜与加工职业技能实训中心、中国人民大学西部培训基地、兰州大学中卫高新技术研究院、宁夏大学亚马逊云计算学院等平台；围绕产业转型升级需要，深入实施领军人才培养、专业技术人才素质提升、中小微企业人才培训等工程，以“人才+项目”模式培训各类人才3万余人次；在宁夏率先设立非公经济人才服务中心，完善“一站式+个性化”人才服务体系，建立非公企业专业技术人才职称评审预备案制度，对157名专业技术人员开展职称申报指导；建立领导干部联系优秀人才制度，走访慰问优秀人才30名；组织开展“中卫英才”“享受市政府特殊津贴人员”评选活动，推荐中卫英才人选13名、“享受市政府特殊津贴人员”人选31名。', '春华初展，秋实可期。空间规划改革成效初显、为民服务理念深入人心、脱贫攻坚正在进行、一大批民生工程积极推进……新的一年，站在新的起点，组织工作将汇聚全市所有干部群众的强大正能量阔步前进。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>293</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>自治区党委政府召开新冠肺炎疫情防控工作视频会议贯彻落实习近平总书记重要讲话精神通报当前疫情形势部署疫情防控工作</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2020-02-14</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202002/t20200214_1953967.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['自治区党委政府召开新冠肺炎疫情防控工作视频会议 贯彻落实习近平总书记重要讲话精神 通报当前疫情形势部署疫情防控工作_中卫市人民政府', '自治区党委政府召开新冠肺炎疫情防控工作视频会议 贯彻落实习近平总书记重要讲话精神 通报当前疫情形势部署疫情防控工作', '2月13日，自治区党委政府召开新冠肺炎疫情防控工作视频会议，学习贯彻习近平总书记在中央政治局常委会会议上的重要讲话精神，通报当前全区疫情形势，部署下一步疫情防控工作。自治区党委书记、自治区党委应对新冠肺炎疫情工作领导小组组长陈润儿出席会议并讲话，强调要坚决贯彻习近平总书记重要讲话精神，清醒认识当前疫情的严峻复杂形势，严格落实早发现、早报告、早隔离、早治疗措施，全面强化疫情防控统一领导，确保打赢疫情防控阻击战。', '国务院应对疫情联防联控工作机制第29工作指导组组长衣梅出席。自治区主席、自治区应对新冠肺炎疫情工作领导小组第一副组长咸辉主持并讲话，自治区领导张超超、赵永清、张韵声、杨培君、杨东、马秀珍出席。', '陈润儿指出，习近平总书记对新冠肺炎疫情形势极为关注，对防控工作极为重视，对人民群众极为牵挂。在疫情防控工作最吃劲的关键阶段，习近平总书记2月12日主持召开中央政治局常委会会议并发表重要讲话，充分肯定了全党全国上下开展疫情防控工作取得的积极成效，深刻分析了疫情防控面临的严峻形势，客观指出了疫情防控工作存在的突出问题，明确提出了做好下一步工作的重点任务和具体要求，充分彰显了以习近平同志为核心的党中央坚决打赢疫情防控的人民战争、总体战、阻击战的顽强意志和坚定决心，为我们做好疫情防控工作注入了强大动力、提供了科学方法、提出了严格要求。我们一定要认真学习、深刻领会、坚决贯彻落实，切实把思想和行动统一到习近平总书记重要讲话精神和党中央决策部署上来，既要有责任担当之勇、又要有科学防控之智，既要有统筹兼顾之谋、又要有组织实施之能，切实抓好工作落实，在大战中践行初心使命，在大考中交出合格答卷。', '陈润儿通报了全区疫情防控工作情况。他指出，疫情发生以来，自治区党委政府和各地各部门坚决贯彻落实习近平总书记的重要指示和党中央的决策部署，全面部署早行动，压实责任早隔离，精准施策早治疗，全区疫情总体可控。全区上下齐动手、干部群众齐上阵，广大基层工作者吃盒饭、睡帐篷，冲锋在战斗一线，坚守在战“疫”关口，广大医护人员挺身而出、舍生忘死，守护了敬佑生命、救死扶伤的神圣职责。陈润儿代表自治区党委政府，向奋战在基层一线的工作人员和广大医护人员表示衷心感谢和崇高敬意。', '陈润儿指出，现在疫情防控正处于胶着对垒状态，各地各部门既要看到当前疫情的严峻复杂形势，也要看到战胜疫情的有利条件，坚定必胜信心，广泛动员群众，坚持同舟共济，注重统筹谋划，抓住有利时机，严格压实责任，积极主动作为，落实科学防控，做到精准施策，确保不发生社区疫情传播、不发生医护人员感染、不发生死亡病例。', '陈润儿指出，要持续严格压实疫情防控责任，切实抓好“三早”。要全面防、早发现。要控制面，重点是控制好社区、厂区、校区、园区，农贸市场、大型商场、文化广场、宗教活动场所一律暂停交易和活动，引导群众减少朋友聚会、家庭聚会、人员聚集。要管好人，重点是管理好“三大人群”，即管好重点人群，对来自疫情较重地区的人员和返乡人员、与确诊病例和疑似病例的密切接触者、来自其他地区有不适症状的“三种人”要集中隔离医学观察，对来自疫情较重地区以外人员无不适症状的、与确诊病例和疑似病例一般接触的“两种人”要居家隔离医学观察；管好“三返”人群，对返程、返工、返校的人员要严格管理；管好商务人群，对因企业开工复工、经济活动增多进出宁夏的人员要逢车必检、逢人必查，检必严、查必细。要早筛查，重点是对“三种人”及早筛查、及时找出疑似病例，减少感染传播的风险。要找出点，重点是运用好大摸排、大起底、大筛查成果，建立台账、实时监测、动态管理，精准找出感染源、感染点。要严格控、早隔离。严格落实隔离措施，有效防范交叉感染，及时切断传播渠道，特别是要解决好隔离场所、隔离经费、隔离保障、隔离防护问题。要科学治、早治疗。坚持分类施治、对症下药，发热门诊要24小时轮班值守、及时提供诊疗服务，重症病人、危重病人要一人一策、精准治疗，做到应检必检、应管必管、应收必收、应治必治。', '陈润儿强调，各级领导干部在疫情防控工作中要切实扛起责任，经受疫情考验。要坚持靠前指挥，保持斗志，一级带一级、一级抓一级、一级盯一级，坚定有力、毫不懈怠地把疫情防控工作抓得紧而又紧、实而又实、细而又细。要坚持在疫情防控一线考察识别干部，把疫情防控工作作为对各级领导班子和领导干部政治担当、领导能力、工作作风的一次特别考察。要严格依法防控，充分运用法律武器做好疫情防控工作，对经过教育劝导拒不履行法律责任甚至危害公共安全的行为，要依法严肃处理，特别是对明知自己感染、仍然参加聚会的，要依法追究法律责任。要加强物资保障，全力保障医用防护物资、公共服务产品、居民生活必需。要维护大局稳定，做好群众心理疏导、舆论引导等工作，及时防范化解各类风险。', '咸辉指出，各地各部门要切实把思想和行动统一到习近平总书记的重要讲话精神上来，统一到党中央、国务院的决策部署上来，统一到自治区党委政府的工作要求上来，认清形势、保持定力，精准聚焦重点地区、重点人群、重点环节，果断迅速落细落实各项防控措施，坚决遏制疫情蔓延。各级领导干部要全面落实责任，靠前指挥、依法防控、强化保障、维护稳定，以实际行动守护好人民群众的生命安全和身体健康。']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>293</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>中卫市教育局年政府开放日活动公告</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sjyj/fdzdgknr_49236/zfkfr_49262/hdgg/202309/t20230915_4267517.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['为全面贯彻落实党的二十大精神，深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，切实推进阳光、透明、开放、服务型机关建设，增进政府部门与群众之间的沟通联系，保障人民群众的知情权、表达权、参与权和监督权，展示教育工作成效，根据《市人民政府办公室关于认真做好2023年“政府开放日”活动的通知》要求，我局将于2023年9月21日举办“政府开放日”活动。现诚邀关心关注我市教育事业发展的市民朋友参与活动，推动教育工作持续向好，促进教育高质量发展。具体事项如下:', '市教育局领导班子成员、机关各科室（中心）负责人；邀请教职工、离退休干部以及服务对象，主要包括校（园）长、教师、退休干部、家长代表和市直有关部门（单位）代表、新闻记者等，共计45人左右。', '（一）把人民群众请进机关。邀请代表走进机关科室、工作现场、列席会议，通过座谈问答、线上线下问卷调查、体验办公流程、亲历操作过程等环节，了解市教育局办事服务流程。', '进科室,参观机关运转情况，查看办公场所、会议组织等具体事宜。进现场,了解助学贷款办理、困难学生资助、学籍管理等具体事宜。进会议,列席党组会、局务会等，增强行政决策透明度，增进人民群众对教育工作的认同和支持。', '（二）把人民群众请进校园。邀请代表走进校园、走进课堂，通过观摩、听课、座谈交流等形式，介绍和展示学校的教育教学和创新成果等情况，让家长深入了解学校的教育教学管理和学生在校的学习生活，进一步加强家校之间合作交流。', '定于2023年9月21日（星期四）14：30开展活动，时间为半天。围绕落实市委、市政府中心工作和重要决策部署，结合教育工作重点、规范办学行为、落实惠民政策，向与会同志介绍教育工作情况。', '3.听取社会各界代表对教育工作的意见建议，班子成员及各科室（中心）负责人就与会人员提出的相关问题进行现场解答。', '请报名人员保持电话畅通，便于联系。如遇重大事项冲突等因素无法如期进行，将另行通知。']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>293</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>宁夏云计算大数据综合试验区专家论证会在卫举行</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2016-06-29</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201606/t20160629_596927.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['6月27日，宁夏云计算大数据综合试验区专家论证会在我市举行。中科院计算所研究员、中国工程院院士倪光南等国内知名专家参加论证会，并对宁夏建设国家云计算大数据综合试验区总体方案进行论证。市领导张柱、万新恒、陶雨芳以及区、市相关部门负责人、云计算企业代表等参加了论证会。', '论证会上，专家组听取了我市云计算大数据产业发展总体情况。专家们从逻辑结构、方向定位、发展规划、总体布局、信息安全、云计算立法等方面给予了专业意见建议，希望进一步突出宁夏特色和中卫特点，准确定位，修改完善方案内容。', '市委书记张柱对专家组一行来卫为宁夏建设国家云计算大数据综合试验区进行指导表示感谢。张柱说，宁夏建设国家云计算大数据综合试验区是时代的需要，是经济社会发展的需要，中卫正好处在承东启西的重要位置上，需要一个平台支撑中卫云计算大数据产业发展，宁夏建设国家云计算大数据综合试验区对中卫来说意义重大。', '倪光南说，中卫成功引进世界龙头企业亚马逊，建成新一代云数据中心，并完成骨干网络建设升级，中卫云计算发展之快让人震撼。倪光南表示，中卫具有与美国硅谷相似的地理环境、气候资源，新一代云数据中心采取3点之间以光纤直连，具有分散存储、互为备份和并行计算等特点，区别于传统的数据中心，在气象、卫星等方面发展云应用都有了一定进展。中卫有自己独特的优势，着力建设网上丝绸之路数据枢纽港的方向是正确的，有希望发展成为中国的“凤凰城”。', '倪光南建议，中卫云计算发展要坚持走可持续发展之路，要吸引和培养大量人才，为云计算发展做好支撑；要掌握好生态环境、资源和人才的关系，学习借鉴先进技术，不断创新发展，鼓励、培养企业；要发挥中卫优势，在现有基础上，提升中卫云计算大数据发展竞争力，重视数据安全，将中卫打造成网上丝绸之路数据枢纽港、中国的沙漠硅谷。', '论证会前，与会专家实地参观考察了我市沙漠光伏产业园、亚马逊AWS数据中心、云创数据中心、宁夏中关村科技产业园中卫云中心，详细了解了我市云计算产业及军民融合产业发展情况。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>293</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>习近平在北京大学考察时强调抓住培养社会主义建设者和接班人根本任务努力建设中国特色世界一流大学</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2018-05-03</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201805/t20180503_747213.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['习近平在北京大学考察时强调 抓住培养社会主义建设者和接班人根本任务 努力建设中国特色世界一流大学_中卫市人民政府', '习近平在北京大学考察时强调 抓住培养社会主义建设者和接班人根本任务 努力建设中国特色世界一流大学', '5月2日，中共中央总书记、国家主席、中央军委主席习近平来到北京大学考察。这是习近平在北京大学马克思主义学院，与正在就“解读新时代”进行座谈交流的中外学生亲切交谈。 新华社记者 李涛 摄', '5月2日，中共中央总书记、国家主席、中央军委主席习近平来到北京大学考察。这是习近平在北京大学金光生命科学大楼一层大厅认真听取关于学校学科建设、人才队伍建设、科研创新能力提升等情况介绍。 新华社记者 姚大伟 摄', '新华社北京5月2日电 在五四青年节和北京大学建校120周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到北京大学考察。习近平代表党中央，向北京大学全体师生员工和海内外校友、向全国各族青年、向全国青年工作者致以节日的问候。他强调，坚持好、发展好中国特色社会主义，把我国建设成为社会主义现代化强国，是一项长期任务，需要一代又一代人接续奋斗。广大青年要成为实现中华民族伟大复兴的生力军，肩负起国家和民族的希望。高校要牢牢抓住培养社会主义建设者和接班人这个根本任务，坚持办学正确政治方向，建设高素质教师队伍，形成高水平人才培养体系，努力建设中国特色世界一流大学。', '季春时节，北大校园鲜花盛开，草木葱茏，生机盎然。上午9时许，习近平在中共中央政治局常委、中央书记处书记王沪宁，北京大学党委书记郝平、校长林建华陪同下，首先来到临湖轩，参观“新时代——北京大学近五年成就展”。古色古香的临湖轩里，一块块展板图文并茂，一组组数据清晰直观。习近平认真听取情况介绍，仔细察看北大在文理科学科成就、人才培养、队伍建设、国际交流、社会服务等方面重要成果展示，对北大取得的成绩给予充分肯定。他表示，党的十八大以来，北大继承光荣传统，坚持社会主义办学方向，立德树人成果丰硕，双一流建设成效显著，服务经济社会发展成绩突出，学校发展思路清晰，办学实力和影响力显著增强，看了令人欣慰。他强调，国家发展同大学发展相辅相成。我们要在国家发展进程中办好高等教育，办出世界一流大学，首先要在体现中国特色上下功夫。', '临湖轩北侧的小庭院，紧邻未名湖，景色宜人。习近平来到庭院，看望部分资深教授和中青年教师代表，并同他们亲切交谈。他们当中既有邓小南、王缉思、林毅夫、钱乘旦、申丹、杜维明、安乐哲等资深老教授，也有彭锋、渠敬东、余淼杰、蒋朗朗等优秀中青年教师。习近平对他们说，看到各位老教授身体健康、精神矍铄，非常高兴，你们几十年如一日笔耕不辍、悉心育人，为培养党和人民需要的优秀人才作出了积极贡献，我向你们表示敬意。美国籍的汉学大师安乐哲先生，翻译过《论语》、《孙子兵法》等中国传统经典，2013年荣获第六届世界儒学大会颁发的“孔子文化奖”。习近平亲切问他来自哪所大学、来中国多长时间、是否适应这里的生活，并希望他更多向国外介绍中国优秀传统文化。总书记还勉励中青年教师向老一辈专家学者学习，继续在教学和科研上用心耕耘。', '近年来，北京大学培养和汇聚了一批具有世界领先水平的科学家、科技领军人才和创新团队，科研综合实力、原始创新能力显著增强。在金光生命科学大楼一层大厅，展示了近年来北京大学在理科、工科、医科等领域的科研成果。习近平认真听取关于学校学科建设、人才队伍建设、科研创新能力提升等情况介绍，并仔细察看新一代干细胞技术、碳芯片技术、微型双光子显微成像系统等科研装置和实物模型。习近平对大家说，看了你们的成果展示，我为你们感到骄傲。创新是引领发展的第一动力，是国家综合国力和核心竞争力的最关键因素。重大科技创新成果是国之重器、国之利器，必须牢牢掌握在自己手上，必须依靠自力更生、自主创新。在这个问题上，我们一定要保持清醒。要继续深化科技体制改革，把人、财、物更多向科技创新一线倾斜，努力在关键共性技术、前沿引领技术、现代工程技术、颠覆性技术创新上取得更大突破，抢占科技创新制高点。高校是科技创新体系的重要组成部分，高校科研人员是我国科技创新的重要队伍。要加强学科之间的协同创新，加强对交叉学科群和科技攻关团队的支持，培养造就更多具有国际水平的科技人才和创新团队。', '北京大学是马克思主义在中国传播的发源地，近年来成立了全国第一家马克思主义学院，并于今年1月成立了习近平新时代中国特色社会主义思想研究院。习近平来到这里参观“北京大学与马克思主义主题展览”。习近平认真观看展览，深入了解学校开展马克思主义和习近平新时代中国特色社会主义思想教学、研究情况。他强调，高校马克思主义学院就是要坚持“马院姓马，在马言马”的鲜明导向和办学原则，为巩固马克思主义在意识形态领域的指导地位，推动马克思主义进校园、进课堂、进学生头脑，发挥应有作用。', '随后，习近平走进国际马克思主义文献中心，察看馆藏马克思主义典籍，询问“马藏工程”进展情况，称赞他们的工作非常有意义。阅览室里，一些中外学生正在就“解读新时代”进行座谈交流。习近平走到他们中间，认真倾听讨论，并同大家互动交流。总书记问大家为什么选择马克思主义专业、学习这个专业有什么体会，同学们兴奋地一一回答。同学们问总书记“您是一个坚定的马克思主义者，您学习马克思主义有什么好的方法”，总书记热情同大家分享了自己的学习经验。他对在场的外国留学生说，要了解中国，就要了解中国的历史、文化、人文思想和发展阶段，特别是要了解当代中国的马克思主义。习近平强调，北京大学是中国最早传播和研究马克思主义的地方，为马克思主义在中国的传播和中国共产党的成立作出了重要贡献。今年是马克思诞辰200周年，也是《共产党宣言》诞生170周年。我们对马克思和《共产党宣言》的最好纪念，就是把党的十九大精神和习近平新时代中国特色社会主义思想这一当代中国马克思主义研究好、宣传好、贯彻好。他勉励大家紧密联系世情国情党情的变化，认真开展习近平新时代中国特色社会主义思想研究，拿出更多有分量有说服力的研究成果。', '11时许，习近平来到北京大学英杰交流中心，参加师生座谈会。北京大学党委书记郝平、哲学系教授王博、心理与认知科学学院本科四年级学生宋玺分别发言。习近平认真听取他们的发言，不时插话，现场气氛热烈。', '最后，习近平发表了重要讲话。他指出，实现中华民族伟大复兴的中国梦，广大青年生逢其时，也重任在肩。广大青年既是追梦者，也是圆梦人。追梦需要激情和理想，圆梦需要奋斗和奉献。广大青年应该在奋斗中释放青春激情、追逐青春理想，以青春之我、奋斗之我，为民族复兴铺路架桥，为祖国建设添砖加瓦。', '习近平强调，坚持好、发展好中国特色社会主义，把我国建设成为社会主义现代化强国，是一项长期任务，需要一代又一代人接续奋斗。教育兴则国家兴，教育强则国家强。今天，党和国家事业发展对高等教育的需要，对科学知识和优秀人才的需要，比以往任何时候都更为迫切。培养社会主义建设者和接班人，是我们党的教育方针，是我国各级各类学校的共同使命。高校只有抓住培养社会主义建设者和接班人这个根本任务才能办好，才能办出中国特色世界一流大学。', '习近平提出，办出中国特色世界一流大学、培养社会主义合格建设者和接班人，要抓好三项基础性工作。', '第一，坚持办学正确政治方向。我国社会主义教育就是要培养社会主义建设者和接班人。马克思主义是我们立党立国的根本指导思想，也是我国大学最鲜亮的底色。要抓好马克思主义理论教育，深化学生对马克思主义历史必然性和科学真理性、理论意义和现实意义的认识，教育他们学会运用马克思主义立场观点方法观察世界、分析世界，真正搞懂面临的时代课题，深刻把握世界发展走向，认清中国和世界发展大势，让学生深刻感悟马克思主义真理力量，为学生成长成才打下科学思想基础。要坚持不懈培育和弘扬社会主义核心价值观，引导广大师生做社会主义核心价值观的坚定信仰者、积极传播者、模范践行者。要把中国特色社会主义道路自信、理论自信、制度自信、文化自信转化为办好中国特色世界一流大学的自信。', '第二，建设高素质教师队伍。建设政治素质过硬、业务能力精湛、育人水平高超的高素质教师队伍是大学建设的基础性工作。要从培养社会主义建设者和接班人的高度，考虑大学师资队伍的素质要求、人员构成、培训体系等。要坚持教育者先受教育，让教师更好担当起学生健康成长指导者和引路人的责任。要抓好师德师风建设，引导教师把教书育人和自我修养结合起来，做到以德立身、以德立学、以德施教。', '第三，形成高水平人才培养体系。人才培养体系涉及学科体系、教学体系、教材体系、管理体系等，而贯通其中的是思想政治工作体系。加强党的领导和党的建设，加强思想政治工作体系建设，是形成高水平人才培养体系的重要内容。要坚持党对高校的领导，坚持社会主义办学方向，把我们的特色和优势有效转化为培养社会主义建设者和接班人的能力。要下大气力组建交叉学科群和强有力的科技攻关团队，加强学科之间协同创新，加强对原创性、系统性、引领性研究的支持。要培养造就一大批具有国际水平的战略科技人才、科技领军人才、青年科技人才和高水平创新团队，力争实现前瞻性基础研究、引领性原创成果的重大突破。', '习近平强调，当代青年是同新时代共同前进的一代。广大青年既拥有广阔发展空间，也承载着伟大时代使命。每一个青年都应该成为社会主义建设者和接班人，不辱时代使命，不负人民期望。广大青年要忠于祖国、忠于人民，了解中华民族历史，秉承中华文化基因，有民族自豪感和文化自信心，把自己的理想同祖国的前途、把自己的人生同民族的命运紧密联系在一起，扎根人民，奉献国家。要立鸿鹄志、做奋斗者，培养奋斗精神，做到理想坚定，信念执着，不怕困难，勇于开拓，顽强拼搏，永不气馁。要求真学问、练真本领，通过学习知识，掌握事物发展规律，通晓天下道理，丰富学识，增长见识，更好为国争光、为民造福。要知行合一、做实干家，面向实际、深入实践，严谨务实、苦干实干，在新时代干出一番事业。要以社会主义建设者和接班人的使命担当，为全面建成小康社会、全面建设社会主义现代化强国而努力奋斗，让中华民族伟大复兴在我们的奋斗中梦想成真。', '习近平离开学校时，道路两旁挤满了师生，大家纷纷向总书记问好，争相同总书记握手，齐声高喊“团结起来、振兴中华”，齐声高唱《歌唱祖国》，习近平满怀深情同大家挥手告别，掌声、问候声和歌声、口号声在校园里久久回荡。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>293</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>海原县实施四项行动广揽人才</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2022-02-23</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/qxdt/202202/t20220223_3332705.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['为全面深入贯彻落实中央及自治区党委人才工作会议精神，海原县迅速行动、全面部署，围绕“五个强起来”、建好“四支人才队伍”、抓好“四大人才工程”，通过实施“四项行动”推动人才工作纵深开展。', '为发挥人才“集聚效应”，海原县结合实际需求，实施“内培外引”行动，紧盯建立的领军人才、拔尖人才、后备人才“3个名单”和紧缺专业、紧缺人才“2个目录”，修订完善关键岗位专业人才继任、高潜质人才培养、高层次人才引进“3个计划”，招揽一批急需紧缺人才，成立“1+N”乡村振兴人才服务团，开展技能培训等服务。依托肉牛产业“七大体系”平台，计划安排3至5名业务骨干脱产学习肉牛品种改良、母畜扩繁、饲草加工调制、疫病防控、肉牛加工营销等方面的理论知识。', '为发挥产业“虹吸效应”，海原县大力实施“项目聚才”行动，研究制订《人才助推乡村振兴实施方案》，坚持“人才引领产业、产业集聚人才”思路，紧盯肉牛等“人才+重点产业”行动计划，系统谋划布局一批产业和行业人才项目，精准对接特色产业人才需求，以“师带徒”结对子等方式，围绕“产业链”打造“人才链”，形成“项目孵化人才，人才带动企业，企业带动产业”的新局面。建立西北农林科技大学实训基地，对农业技术人员、新型经营主体带头人等进行“订单式”和中长期培训。', '同时，海原县因势利导，为切实发挥创业“带动效应”，实施“人才回归”行动，深入实施“情系中卫人才回归行动计划”，研究制订《海原籍优秀人才回乡就业创业行动计划》，利用在外优秀人才库，打好政策、亲情、服务、项目“四张牌”，吸引大量海原籍外出优秀人才返乡创业就业，助力乡村振兴。坚持校企联动、生企联动，建立微信群，推送就业信息及人才政策，吸引鼓励海原籍大学生回乡就业创业。', '另外，海原县为确保发挥人才“头雁效应”，创新实施“优秀人才走访”行动，强化对人才的政治引领和吸纳，完善领导干部联系优秀人才机制，实行干部分层联系优秀人才制度，营造尊重人才的良好氛围。鼓励退休干部返乡服务乡村振兴，引导退休干部发挥余热。持续做好高层次人才教育培训、国情研修、区情考察等活动，推动“弘扬爱国奋斗精神、建功立业新时代”活动常态化，鼓励人才面对新时代新使命主动担当作为。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>293</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>中卫市接待办公室公务员职业道德建设工程实施方案</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2018-09-06</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sjgswfwzx/fdzdgknr_50486/bmxx_50516/201811/t20181122_1177541.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['公务员职业道德是公务员职业活动的行为准则和规范，是公务员政治信仰、工作宗旨、职业理念和道德品质的具体表现，对引导和规范其正确履职尽责具有重要作用。推动公务员职业道德建设，要高举中国特色社会主义伟大旗帜，以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观、习近平新时代中国特色社会主义思想为指导，深入贯彻落实学习党的十九大精神，', '公务员职业道德是公务员职业活动的行为准则和规范，是公务员政治信仰、工作宗旨、职业理念和道德品质的具体表现，对引导和规范其正确履职尽责具有重要作用。推动公务员职业道德建设，要高举中国特色社会主义伟大旗帜，以马克思列宁主义、毛泽东思想、邓小平理论、', '培训入手，以忠于国家、服务人民、恪尽职守、清正廉洁为主要内容，以规范公务员行为为重点，以思想教育、完善', '坚持把职业道德培养贯穿公务员队伍建设全过程，把知与行、自律与他律、示范与引领有机结合起来，全面提升公务员职业道德水平。', '领导班子成员要带头参与，带头学习，以身作则，率先垂范；干部职工要人人参与活动，人人受到教育，人人得到提高。', '结合公务员职业道德活动主题，每名干部职工要精读一本马克思主义经典著作，一本和自己本职工作相关的业务书籍，在此基础上，结合自身工作实际写一篇较高质量的读书笔记（心得体会），优秀读书笔记（心得体会）将以简报形式报送市政府办信息科。', '选择合适的时间，到有纪念意义的场所开展公务员宣誓活动。由主要领导领誓，全体干部职工参加。宣誓活动要形成图文结合的活动资料，', '举办一次勤政廉政教育专题会，或到反腐倡廉警示教育基地接受警示教育，建立健全预防在先，教育、制度、监督并重的惩治和预防腐败体系，使公务员时刻警惕“精神懈怠的危险、能力不足的危险、脱离群众的危险、消极腐败的危险”。', '举办一次勤政廉政教育专题会，或到反腐倡廉警示教育基地接受警示教育，建立健全预防在先，教育、制度、监督并重的惩治和预防腐败体系，使公务员时刻警惕', '坚持把职业道德建设贯穿于公务员培养的全过程，通过持续努力，建立健全公务员职业道德相关制度，', '要把健全公务员管理制度和机关后勤内部管理机制紧密结合起来，制定后勤队伍职业道德规范，不断夯实干部职工职业道德建设的制度基础。', '的进展情况，在公务员个人考核，年度考核，任职考察中适当参考，并积极反馈活动开展情况和效果。', '办（局）成立活动领导小组，由单位主要负责领导任组长，切实加强对这项主题活动的指导，领导小组下设办公室，具体负责公务员职业道德建设主题活动的具体实施和推进工作。全体干部职工要充分认识开展公务员职业道德建设主题活动的重要性、必要性和紧迫性，统一思想认识，确保活动高效有序的开展。', '最关心的热点问题抓起，以提升后勤工作管理、服务、保障三大职能的水平为出发点和落脚点，进一步创新活动形式和内容，以']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>293</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>第三届全区退役军人创业创新大赛中卫市选拔赛成功举办</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2024-07-02</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/bmxxgkml/styjrswj/fdzdgknr_49902/bmxx_49932/202407/t20240702_4583920.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['日，中卫市退役军人事务局成功举办了以“立创业创新潮头 展退役军人风采”为主题的“第三届全区退役军人创业创新大赛中卫市选拔赛”。通过举办该赛事活动，进一步展示了我市退役军人创业创新风采，营造了全市社会各界“创业崇军”的良好氛围。', '自赛事正式启动以来，市退役军人事务局切实加强组织领导和统筹协调，及时制定本级赛事活动配套方案，多次与有关部门对接，并通过微信公众号广泛宣传。各县（区）退役军人事务局抽调专人多次深入退役军人创办企业、乡镇摸排调研，主动邀约有意愿退役军人踊跃参加。', '赛前，邀请创业导师深入县（区）与参赛选手面对面交流，初评参赛项目，帮助指导制定项目计划书。通过赛前初评，最终从参赛报名的', '16个项目中初选11个项目参加市级选拔赛，分别涉及环保工程、研学旅游、电商平台、乡村振兴等领域。并邀请了', '个项目参加市级选拔赛，分别涉及环保工程、研学旅游、电商平台、乡村振兴等领域。并邀请了', '实施方案进行解析、并对参赛PPT制作、路演技巧、项目逻辑、参赛素材等内容进行交流分享，邀请人力资源高级礼仪培训师李扬对参赛选手着装仪容、语言表达、肢体动作、沟通技巧等进行了培训，帮助参赛选手完善项目内容，提高路演技巧，提升赛事水平。', '项目路演环节中，分别邀请了宁夏医科大学招生就业处处长、创新创业学院院长、全国就业指导师刘东，宁夏职业技术学院创新创业学院发展部主任刘智伟，人社部SIYB、网络创业培训讲师秦阳担任本次赛事的评委。', '项目路演环节中，分别邀请了宁夏医科大学招生就业处处长、创新创业学院院长、全国就业指导师刘东，宁夏职业技术学院创新创业学院发展部主任刘智伟，人社部', '赛选手通过项目路演、PPT展示等方式，向赛事评委及观赛退役军人代表等分别展示了各自项目的基本情况、团队建设、发展现状、愿景展望等内容。评委老师分别就项目的实用性、操作性等方面进行了严格审核，并提出意见建议。通过激烈的竞争，最终“中卫优品电商平台”等4个项目分获四个赛道一等奖，“旋流雾化、再现蓝天”等4个项目分获二等奖，并推荐代表我市参加自治区退役军人创业创新大赛复赛环节。', '下一步，市退役军人事务局认真学习贯彻落实习近平总书记考察宁夏重要讲话精神，将积极整合政策、项目、资金、金融等资源，不断加强与工行中卫分行、农行中卫分行、建行中卫分行、邮储银行中卫分行、中卫农商行等金融机构合作，深入开展“金融崇军”系列活动，不断丰富“崇军贷”产品，大力扶持退役军人创业创新发展。同时以此次大赛为契机，积极推动、竭力支持我市退役军人创办企业发展，为促进退役军人稳定就业和高质量就业创造有利条件，以更加有力和务实的举措鼓励更多退役军人想创业、敢创业、创成业。强化政策落地落实，大力', '下一步，市退役军人事务局认真学习贯彻落实习近平总书记考察宁夏重要讲话精神，将积极整合政策、项目、资金、金融等资源，不断加强与工行中卫分行、农行中卫分行、建行中卫分行、邮储银行中卫分行、中卫农商行等金融机构合作，深入开展', '培育壮大退役军人经营主体，带动更多退役军人就业，积极营造关心支持退役军人创业就业发展浓厚氛围，不断推动我市退役军人就业创业工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>293</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>中卫市科学技术局关于印发年全市科技创新工作安排意见的通知</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2021-03-23</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/skxjsj/fdzdgknr_49279/bmwj_49309/202104/t20210426_2799740.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['中卫市科学技术局关于印发《2021年全市科技创新工作安排意见》的通知_中卫市人民政府', '沙坡头区、中宁县、海原县科技局，中卫高新技术产业开发区，中宁工业园区，局属科（室）、中心：', '2021年是全面开启建设社会主义现代化国家新征程开局之年，也是“十四五”科技创新规划开局之年。全市科技创新工作要按照市委、市政府工作部署，在自治区科技厅的指导下，立足新发展阶段、贯彻新发展理念、融入新发展格局，谋大事、攻难事、出亮点，奋力开创新局面。', '以习近平新时代中国特色社会主义思想为指导，深入贯彻党的十九届五中全会和习近平总书记视察宁夏重要讲话精神，认真落实全国、全区科技工作会议精神和市委四届十次全会以及市“两会”安排部署，全面贯彻新发展理念，以科技支撑引领高质量发展为目标，围绕六大重点特色产业、生态保护、民生发展需求，深入实施创新驱动发展战略，全力打造创新平台、壮大创新主体、培育激励创新人才，加强自主创新、技术攻关和成果转化，为建设黄河流域生态保护和高质量发展先行市提供强有力的科技支撑，以优异成绩庆祝建党100周年。', '制定出台并认真落实《中卫市“十四五”科技创新发展规划》，组织申报实施自治区级各类科技计划项目30项；全市全社会研究与试验发展（R&amp;D）经费投入达到6.44亿元，R&amp;D投入强度达到1.44%；新认定国家高新技术企业7家，新认定自治区科技小巨人企业和自治区农业高新技术企业8家，新备案认定国家和自治区级科技型中小企业30家，全市规模以上工业企业有研发活动企业占比达到33.37%以上；新建各类自治区级以上科技创新平台6个，技术合同成交额占GDP比重达到0.22%。', '2.加强产业关键技术攻关。围绕云计算和大数据、新材料和新能源、冶金制造和精细化工、功能农业等重点产业，聚焦我市科技创新的瓶颈和短板，结合国家科技重大专项、自治区重点研发项目等创新布局，组织宁夏隆基硅材料有限公司等企业申报、实施“高品质硅芯制备技术研究”等一批重点科技项目，争取突破一批与我市主导产业密切相关的关键共性技术。各县（区）科技局要建立科技项目库，实行常态化项目储备机制。引导种业相关企业加强自主创新，提高农业特色优势产业核心竞争力。围绕生态产业、人口健康、公共安全等，争取和实施一批科技项目。全市争取上级科技项目资金8000万元以上，其中市本级4000万元以上。', '3.加速科技成果转移转化应用。认真落实自治区促进科技成果转移转化的法规政策，加大对科技成果转化人员和机构的激励力度，大幅提高科技成果转化成效。打造县域科技成果转化示范样板1个，培育一批科技成果转移转化示范机构、示范企业、中试熟化平台和科技中介服务机构，培养技术经纪人20名。认真做好技术合同交易登记工作，年度技术合同交易额达到1亿元，登记科技成果22个。', '4.持续强化企业主体地位。采取线上线下、区内区外、培训考察相结合等多种形式，帮助企业家分析创新形势，解读科技政策，教授创新方法，年内联合科技厅举办3期企业家创新精神培训班，引导企业家解放思想，开阔视野。完善科技型企业信息数据库，加强统计监测、跟踪评估、动态管理服务、考核评价和政策激励，促进科技型企业持续健康发展、茁壮成长。重点做好高新技术企业储备工作，制订《中卫市高新技术企业培育方案》，根据企业申请条件的成熟程度，有选择性地进行定向服务、重点培育，组织申报一批、培育发展一批、选择储备一批，形成梯度培育、稳步发展的良性机制，争取培育认定宁夏创新型示范企业2个。', '5.加强科技金融工作。坚持把科技金融作为加大科技创新投入、支持企业科技创新的重要方式，落实好“宁科贷”、科技金融专项等惠企利企政策。积极争取扩大风险补偿资金池规模，鼓励金融机构加大科技金融投入力度。两县一区科技部门在做好风险防控的同时逐步扩大贷款规模。年内全市“宁科贷”放贷额度达4000万元以上。继续在全市范围内开展科技型中小微企业科技金融专项工作，进一步促进科技与金融结合。开展科技融资需求征集、筛选、上报工作，完成融资需求入库项目28个，争取贷款贴息300万元。积极推动科技创新券工作。', '6.深入推进东西部科技合作。加强对外交流合作，立足我市主导产业，努力在更广范围、更宽领域、更深层次上推进东西部科技合作。健全上下联动、信息互通、常来常往的技术供需、成果转化对接机制，组织我市企业与北京大学、西北农林科技大学、南京中医药大学、南方科技大学、深圳鹏城实验室等区内外高等院校、科研院所开展联合攻关、共建合作载体，承接高校院所科技成果溢出和转化。支持企业在东中部地区建设“飞地”研发中心、科技成果育成平台和离岸孵化器，创新科研代工、委托研发等合作模式，打造协同创新共同体。加强市、县（区）科技部门与东部市县科技部门合作，拓宽合作渠道，深化合作领域，促进我市产业发展。年内争取实施对外科技合作项目2个以上。', '7.抓好创新载体建设。抢抓“双循环”发展带来的新机遇，紧扣六大重点特色产业需求，鼓励宸宇环保、润夏能源化工等企业建设自治区工程技术研究中心，引导誉成云创、万汇云合等企业建设自治区技术创新中心等创新平台。突出主导产业，注重结构优化，高水平建设中卫高新技术产业开发区和中宁高新技术产业开发区，推动产业链纵向延伸、产业间横向耦合、园区间协调联动，打造主导产业集群。扎实推进中卫国家农业科技园区枸杞、肉牛、苹果三大特色产业全产业链建设，推广新品种、新技术、新设施12个，开发新产品10个，科技成果转化14个，完成园区年度计划任务。中宁县完成自治区农业高新技术产业示范区规划编制工作，争取创建自治区农业高新技术产业示范区。依托高新技术产业开发区、农业科技园区、科研院所、龙头企业建立众创空间和科技企业孵化器。', '8.深化科技体制机制改革。深入开展以需求为导向的科技项目形成机制改革，促进企业需求与区内外先进适用成果精准对接，全力突破技术难题，提升我市产业科技水平。探索“揭榜挂帅”等制度，严格落实“两头严、中间松”的项目管理机制，进一步简化各类项目申报材料，加强业务网上办理。加强对科研项目实施及资金监督，强化科研诚信建设，不定期召开科研项目廉政谈话会，确保科研资金安全规范使用。', '9.加快县域创新发展。制定《中卫市提升县域科技创新能力推进乡村振兴实施方案（2021-2025年）》并组织实施。指导两县一区围绕枸杞、肉牛、苹果、蔬菜、马铃薯、小杂粮等优势特色产业，加速先进适用技术转化应用，带动技术、人才、信息等创新要素向县域流动，加快形成具有特色的县域创新驱动发展模式，支撑引领乡村振兴。两县一区要按照创新投入、创新主体、创新条件、创新产出、创新管理的县域科技创新监测评价体系，积极争先创优，力争跃升到A类县区1个，同类别内排名B类、C类县各提高1个位次。深入推行科技特派员制度，全市科技特派员人数稳定在450名左右。', '10.加强科技人才引育。坚持引培并举，加强科技人才队伍建设，围绕产业链、创新链布局人才链。做好科技创新人才统计摸底工作，完善科技创新人才库，制定科技创新人才发展规划。坚持企业主体，发挥东西部科技合作优势，注重柔性引才、精准引才。挖掘企业科技型人才需求，积极组织企业申报人才项目，落实各类人才奖补政策。通过人才项目培养引进国内外科技领军人才2名以上、科技创新团队5个以上、高层次科技人才和高技能人才20名以上。', '11.加强科学技术普及工作。加大科普投入力度，努力挖掘科普资源，争取在科普基地建设上有新的突破。实施“人工智能科普实验室”等一批科普项目，深入开展特色科普活动。创新科普宣传手段，充分利用《中卫日报》、“中卫发布”等主流媒体，广泛宣传科普知识与创新政策，提升公民科学素质。扎实开展“科技活动周”“科技三下乡”等活动，营造全社会讲科学、爱科学、学科学、用科学氛围。', '（一）强化组织领导。各县（区）科技局要主动作为，强化组织领导，细化任务措施，精心组织实施，统筹协调解决工作中遇到的问题。要压实责任，把工作任务分解到岗位，量化到个人，增强工作主动性，提升工作执行力，确保高质量完成各项任务。', '（二）加强作风建设。要开展好党史学习教育，把学习成效转化为工作动力和成效。巩固提升“不忘初心、牢记使命”主题教育成果，全力创建模范机关。加强党风廉政建设，继续开展“党政机关作风建设年、干部队伍素质提升年”活动，增强服务意识，锻造“忠诚、担当、专业、务实、守正”的科技管理干部队伍。', '（三）加强宣传引导。积极整合宣传资源、丰富宣传载体、拓展宣传范围，充分利用“两微一端”等平台和新闻媒体尤其是新媒体，广泛宣传科技工作成效、举措，切实讲好“科技创新故事”，增强科技工作显示度和影响力，营造更加良好的科技创新氛围。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>293</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>宁夏中卫工业园区管委会公开招聘安全监管人员公告</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2022-10-02</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tzgg/202210/t20221004_3801075.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['根据中共中央办公厅、国务院办公厅印发的《关于全面加强危险化学品安全生产工作的意见《全国安全生产专项整治三年行动》《全国危险化学品安全风险集中治理方案》和《化工园区建设标准和认定管理办法(试行)》，以及《自治区安委会办公室关于进一步加强化工园区（集中区）专业安全监管力量的督办函》(宁安办函〔2022〕174号)相关要求，经研究决定，公开招聘宁夏中卫工业园区安全监管人员。招聘公告发布如下：', '2022年宁夏中卫工业园区招聘安全监管人员招聘工作由2022年宁夏中卫工业园区安全监管人员招聘工作领导小组负责，按照发布招聘公告、公开报名、资格审查、笔试、面试、体检、考察、公示等程序进行，择优选聘。', '1.能够认真贯彻落实习近平新时代中国特色社会主义思想，拥护中国共产党领导和社会主义制度，坚持党的路线方针政策，拥护中华人民共和国宪法;', '4.具有履行职责的身体条件和工作能力;政治素质好，品德端正，积极上进;热爱所学专业，志愿投身园区建设，吃苦耐劳;具有较强的学习能力，能够刻苦钻研安全生产领域的专业知识，不断提升个人工作能力;', '6.报考人员应具有：化学类或者化工与制药类本科及以上学历,或者化工行业领域中级以上专业技术职称、二级(技师)以上职业资格，或者注册安全工程师职业资格;', '2.报名方式：疫情防控期间，不受理现场报名，请报考人员以电子邮件形式将《宁夏中卫工业园区管委会公开招聘安全监管人员岗位报名表》和身份证、学历学位证书电子图（照）片、职（执）业资格证书、专业技术资格证、1寸免冠证件彩照等报名资料，压缩成一个文件包，并标注“姓名+应聘资料”字样，发送至邮箱：29561469@qq.com。', '1.应聘人员对报名提交材料的真实性、准确性负责。宁夏中卫工业园区管委会安监局在报名结束后汇总报名人员信息，对应聘人员资格条件进行审查，如发现弄虚作假、不符合报考条件者，随时取消资格。资格审查合格人员名单由“中卫就业”公示，公示时间1日。对资格初审结果有异议的，须在公告发布之日起1日内提出复核申请。', '2.通过资格初审的考生，电话通知领取准考证，因考生未领取准考证而错过笔试的按放弃处理。', '4.考生资格审查贯穿招聘工作的全过程，凡发现报考人员不符合招聘职位资格条件或提供虚假信息者，一经查实，立即取消考试、录用资格或解除劳动合同。', '3.按照常态化疫情防控要求，领取准考证时应如实填写《考生健康申明卡及安全考试承诺书》（以下简称《承诺书》）。考试当天必须凭准考证、身份证、健康码、《承诺书》纸质原件、参加考试当天48小时内核酸检测阴性证明并佩戴口罩进入考点。', '1.从笔试成绩达到合格线的考生中按职位拟聘人数与资格复审人数1:3的比例，从高分至低分确定资格复审人选。', '4.入围资格复审人员根据通知携带相关材料到宁夏中卫工业园区管委会进行资格复审。资格复审工作由宁夏中卫工业园区管委会安监局负责，资格复审时间、地点另行通知。', '3.进入面试的考生因故自行放弃面试的，应在面试前3天17:00之前及时向招聘单位提出。对考生自动放弃或审核未通过需要递补的，可在报考该岗位且成绩达到笔试合格线的报考者中，由高到低依次递补资格复审。', '总成绩=笔试成绩*50%+面试成绩50%；笔试成绩、面试成绩、总成绩均采用四舍五入方式取小数点后2位。', '1.从总成绩达到合格线的考生中按高分到低分，以职位拟招聘人数1：1比例确定体检对象。如遇总成绩相同时，以面试成绩高者确定体检对象。', '2.体检标准参照公务员录用体检标准执行，费用由应聘者自行承担。考生对体检结果有异议的，必须在1个工作日内提出复检申请，并以复检结果为最终体检结论。', '3.体检不合格的和体检之前或体检合格后放弃的考生，可在成绩合格者中从高到低依次递补。', '2.对在规定时间内无法提供相关材料或考察不通过的考生，将取消其考察及录用资格，可在成绩合格者中从高到低依次递补。', '1.体检、政审合格后，确定拟聘人员名单并按规定进行公示，公示时间为3个工作日。公示结束后无异议的按有关规定和程序办理录用手续。', '本次招聘安全监管人员实行合同聘用制，依法享有国家规定的权力。薪酬待遇为每月5500-6500元（含五险一金），薪酬待遇随政策调整而作相应调整。', '中共宁夏中卫工业园区工作委员会全程监督招聘工作各个环节，并接受社会监督，确保招聘工作公平、公正、公开。', '2. 本招聘方案的解释、规定仅适用于本次招聘工作。其他未尽事宜由宁夏中卫工业园区管委会负责解释。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>293</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>习近平在京津冀三省市考察并主持召开京津冀协同发展座谈会时强调稳扎稳打勇于担当敢于创新善作善成推动京津冀协同发展取得新的更大进展</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2019-01-19</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201901/t20190119_1256888.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['习近平在京津冀三省市考察并主持召开京津冀协同发展座谈会时强调 稳扎稳打勇于担当敢于创新善作善成 推动京津冀协同发展取得新的更大进展_中卫市人民政府', '习近平在京津冀三省市考察并主持召开京津冀协同发展座谈会时强调 稳扎稳打勇于担当敢于创新善作善成 推动京津冀协同发展取得新的更大进展', '新华社北京1月18日电 中共中央总书记、国家主席、中央军委主席习近平近日在京津冀考察，主持召开京津冀协同发展座谈会并发表重要讲话。他强调，要从全局的高度和更长远的考虑来认识和做好京津冀协同发展工作，增强协同发展的自觉性、主动性、创造性，保持历史耐心和战略定力，稳扎稳打，勇于担当，敢于创新，善作善成，下更大气力推动京津冀协同发展取得新的更大进展。', '隆冬时节的华北大地，寒气袭人，滴水成冰。1月16日至18日，习近平分别在河北省委书记王东峰和省长许勤，中共中央政治局委员、天津市委书记李鸿忠和市长张国清，中共中央政治局委员、北京市委书记蔡奇和市长陈吉宁陪同下，深入河北雄安新区、天津、北京，实地了解京津冀协同发展情况。', '16日上午，习近平首先来到河北雄安新区规划展示中心，仔细听取新区总体规划、政策体系及建设情况介绍，察看启动区城市设计征集成果模型和即将启动的重大工程、重点项目展示。他强调，建设雄安新区是千年大计。新区首先就要新在规划、建设的理念上，要体现出前瞻性、引领性。要全面贯彻新发展理念，坚持高质量发展要求，努力创造新时代高质量发展的标杆。习近平通过大屏幕连线京雄城际铁路雄安站建设工地现场，向施工人员挥手致意，称赞他们是雄安新区建设的开路先锋，嘱咐他们科学施工、注意安全、确保质量，按期完成任务，并向他们及全国奋战在一线的劳动者们致以亲切问候和良好祝愿。', '习近平随后步行来到政务服务中心，察看服务窗口，了解雄安新区深化治理体制机制改革、打造服务型政府工作情况。习近平充分肯定雄安新区政务服务中心推行“一枚印章管到底”全贯通服务的做法。他指出，要运用现代信息技术，推进政务信息联通共用，提高政务服务信息化、智能化、精准化、便利化水平，让群众少跑腿。在政务服务中心大厅，部分进驻企业代表围拢上来，习近平同他们亲切交谈。他强调，建设雄安新区，需要大批企业共同参与。无论是国有企业还是民营企业，无论是本地企业还是北京企业，无论是中国企业还是外资企业，只要符合新区产业发展规划，我们都欢迎。希望广大企业抓住这个千载难逢的历史机遇，创造新的辉煌业绩。', '雄安新区坚持生态优先、绿色发展，率先启动生态基础设施建设和环境整治。16日下午，习近平来到“千年秀林”大清河片林一区造林区域，乘车穿行林区察看林木长势，并在秀林驿站结合展板听取雄安新区生态建设总体情况和“千年秀林”区域植树造林情况介绍，登上二层平台远眺林区全貌，对他们运用科学方法植树造林、运用信息化手段管林护林的做法表示赞赏。他强调，先植绿、后建城，是雄安新区建设的一个新理念。良好生态环境是雄安新区的重要价值体现。“千年大计”，就要从“千年秀林”开始，努力接续展开蓝绿交织、人与自然和谐相处的优美画卷。他仔细询问参与造林护林的村民工作和收入情况，叮嘱要吸引当地农民积极参与，让农民从造林护林中长久受益。', '17日上午，习近平来到天津南开大学考察调研。南开大学成立于1919年，是一所具有光荣爱国传统的名校。习近平参观了校史展览，详细了解南开大学历史沿革、学科建设、人才队伍、科研创新等情况。习近平指出，学校是立德树人的地方。爱国主义是中华民族的民族心、民族魂，培养社会主义建设者和接班人，首先要培养学生的爱国情怀。高校党组织要把抓好学校党建工作和思想政治工作作为办学治校的基本功。习近平同在现场的部分院士、专家及中青年教师代表进行了交流。他指出，专家型教师队伍是大学的核心竞争力。要把建设政治素质过硬、业务能力精湛、育人水平高超的高素质教师队伍作为大学建设的基础性工作，始终抓紧抓好。在元素有机化学国家重点实验室，他强调，要加快一流大学和一流学科建设，加强基础研究，力争在原始创新和自主创新上出更多成果，勇攀世界科技高峰。他勉励师生们把学习奋斗的具体目标同民族复兴的伟大目标结合起来，把小我融入大我，立志作出我们这一代人的历史贡献。走出实验室，广场上挤满了学生，大家高呼“总书记好”、“总书记辛苦”，齐声高喊“爱我中华、振兴中华”，还唱起《我和我的祖国》。习近平同近处的同学亲切握手，向远处的同学们招手致意。掌声、歌声、欢呼声在校园里久久回荡。', '随后，习近平来到天津和平区新兴街朝阳里社区，走进党群服务中心综合办事大厅，了解社区网格化管理、基层党建、便民服务等情况。习近平指出，社区工作是具体的，要坚持以人民为中心，摸准居民群众各种需求，及时为社区居民提供精准化精细化服务。习近平十分关心退役军人服务保障工作。他走进社区退役军人服务管理站，详细询问社区在服务退役军人方面的具体做法。他强调，成立退役军人事务机构，就是要加强退役军人管理保障工作，让军人成为全社会尊崇的职业。各级党委和政府要高度重视，切实把广大退役军人合法权益维护好，把他们的工作和生活保障好。朝阳里社区是全国首个社区志愿者组织的发祥地。在社区志愿服务展馆，习近平同志愿者们亲切交流。他强调，志愿服务是社会文明进步的重要标志，是广大志愿者奉献爱心的重要渠道。要为志愿服务搭建更多平台，更好发挥志愿服务在社会治理中的积极作用。', '天津保留了大量别具风格的近代建筑群落和历史文化街区。习近平来到位于河北区民族路的梁启超旧居，结合展板听取天津市历史文化街区保护情况介绍。他指出，要爱惜城市历史文化遗产，在保护中发展，在发展中保护。', '天津港同世界上180多个国家和地区的500多个港口有贸易往来。17日下午，习近平来到天津港码头，同现场作业的工人亲切握手，了解港口码头作业和自动化设备运行情况。他走进调度指挥中心，通过大屏幕察看港口全貌，结合实时数据展示听取天津港服务京津冀协同发展等情况介绍。习近平强调，经济要发展，国家要强大，交通特别是海运首先要强起来。要志在万里，努力打造世界一流的智慧港口、绿色港口，更好服务京津冀协同发展和共建“一带一路”。习近平指出，实体经济是大国的根基，经济不能脱实向虚。要扭住实体经济不放，继续不懈奋斗，扎扎实实攀登世界高峰。', '离开天津港，习近平来到天津滨海——中关村科技园。在协同创新展示中心，习近平仔细观看“天河”系列超级计算机、飞腾芯片、麒麟操作系统、人工智能配电网带电作业机器人、无人机集群智能控制系统等产品展示。习近平强调，自主创新是推动高质量发展、动能转换的迫切要求和重要支撑，必须创造条件、营造氛围，调动各方面创新积极性，让每一个有创新梦想的人都能专注创新，让每一份创新活力都能充分迸发。要深化科技园区体制机制创新，优化营商环境，吸引更多在京科技服务资源到园区投资或业务延伸，促进京津两市真正实现优势互补、强强联合。', '18日上午，习近平乘车前往北京城市副中心，并沿途察看“城市绿心”植树造林地块。在市委办公楼主楼，习近平通过设计模型和展板，详细了解副中心重大工程项目规划建设情况。习近平强调，建设北京城市副中心要坚持规划先行、质量第一。要把公共建筑与山水自然融为一体，科学布局生产、生活、生态空间，使工作、居住、休闲、交通、教育、医疗等有机衔接、便利快捷。要把规划执行好、落实好，把蓝图变为实景，使北京城市副中心成为这座千年古都又一张靓丽的城市名片。', '在北京市委办公楼主楼会议室，习近平主持召开京津冀协同发展座谈会。国家发展改革委主任何立峰、北京市委书记蔡奇、天津市委书记李鸿忠、河北省委书记王东峰先后发言，就京津冀协同发展介绍工作情况、提出意见建议。', '听取大家发言后，习近平发表了重要讲话。他充分肯定京津冀协同发展战略实施以来取得的显著成效。他强调，京津冀协同发展是一个系统工程，不可能一蹴而就，要做好长期作战的思想准备。过去的5年，京津冀协同发展总体上处于谋思路、打基础、寻突破的阶段，当前和今后一个时期进入到滚石上山、爬坡过坎、攻坚克难的关键阶段，需要下更大气力推进工作。', '习近平对推动京津冀协同发展提出了6个方面的要求。第一，紧紧抓住“牛鼻子”不放松，积极稳妥有序疏解北京非首都功能。要更加讲究方式方法，坚持严控增量和疏解存量相结合，内部功能重组和向外疏解转移双向发力，稳妥有序推进实施。要发挥市场机制作用，采取市场化、法治化手段，制定有针对性的引导政策，同雄安新区、北京城市副中心形成合力。要立足北京“四个中心”功能定位，不断优化提升首都核心功能。第二，保持历史耐心和战略定力，高质量高标准推动雄安新区规划建设。要把设计成果充分吸收体现到控制性详细规划中，保持规划的严肃性和约束性，用法律法规确保一张蓝图干到底。要打造一批承接北京非首都功能疏解的标志性工程项目，新开工建设一批交通、水利、公共服务等重大基础配套设施，让社会各界和新区百姓看到变化。要建设一支政治过硬、专业过硬、能吃苦、富有开拓创新精神的干部队伍，加强党风廉政建设，营造风清气正的良好环境。第三，以北京市级机关搬迁为契机，高质量推动北京城市副中心规划建设。要充分考虑搬迁过程中可能遇到的各种情况，研究出台具有针对性和可操作性的政策举措，解决干部职工的后顾之忧。要加快重大基础设施建设，配置教育、医疗、文化等公共服务功能，提高副中心的承载力和吸引力。要推进北京中心城区“老城重组”，优化北京空间布局和经济结构，提升北京市行政管理效率和为中央政务服务的职能。第四，向改革创新要动力，发挥引领高质量发展的重要动力源作用。要集聚和利用高端创新资源，积极开展重大科技项目研发合作，打造我国自主创新的重要源头和原始创新的主要策源地。要立足于推进人流、物流、信息流等要素市场一体化，推动交通一体化。要破除制约协同发展的行政壁垒和体制机制障碍，构建促进协同发展、高质量发展的制度保障。第五，坚持绿水青山就是金山银山的理念，强化生态环境联建联防联治。要增加清洁能源供应，调整能源消费结构，持之以恒推进京津冀地区生态建设，加快形成节约资源和保护环境的空间格局、产业结构、生产方式、生活方式。第六，坚持以人民为中心，促进基本公共服务共建共享。要着力解决百姓关心、涉及切身利益的热点难点问题，优化教育医疗资源布局。要加大力度推进河北省贫困地区脱贫攻坚工作，发挥好京津对口帮扶机制的作用，确保2020年京津冀地区贫困县全部摘帽。要坚持就业优先，做好当地百姓就业这篇文章。', '韩正表示，要深入学习领会习近平总书记关于京津冀协同发展的重要战略思想，牢牢扭住疏解北京非首都功能这个“牛鼻子”，推动京津冀协同发展取得新突破新成效。要完善政策、健全机制，增强疏解北京非首都功能的内生动力。要坚持高质量高标准，规划建设好北京新的“两翼”。要抓好跨区域重大轨道交通等基础设施建设，为疏解北京非首都功能创造便利条件。要坚持以人民为中心的发展思想，推进基本公共服务均等化，不断增强人民群众获得感。', '会议结束后，习近平乘电梯来到一楼大厅，北京市委和市政府的工作人员对总书记报以热烈掌声。习近平向大家频频挥手，动情地说，你们以实际行动贯彻落实党中央重大决策，为疏解北京非首都功能、推动京津冀协同发展作出了贡献。建设北京城市副中心，是北京建城立都以来具有里程碑意义的一件大事，对新时代北京的发展是一个重大机遇。让我们共同努力把这件大事办好。希望大家以新办公区的新气象，在各项工作中实现新的更大作为！离开时，习近平同大家一一握手，掌声经久不息。', '丁薛祥、刘鹤、王勇、何立峰和徐匡迪等分别陪同考察或出席座谈会，中央和国家机关有关部门负责同志、有关省市负责同志参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>293</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>市人民政府办公室关于印发中卫市深入推进中小学教师县管校聘管理体制改革实施意见的通知</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/zfxxgkml/szfbwj/202404/t20240401_4502025.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['市人民政府办公室关于印发《中卫市深入推进中小学教师 “县管校聘”管理体制改革实施 意见》的通知_中卫市人民政府', '市人民政府办公室关于印发《中卫市深入推进中小学教师 “县管校聘”管理体制改革实施 意见》的通知', '《中卫市深入推进中小学教师“县管校聘”管理体制改革实施意见》已经市人民政府研究同意，现予印发，请抓好贯彻落实。', '为深入学习贯彻落实党的二十大精神和习近平总书记关于教育工作的重要论述和指示批示精神，进一步深化中小学教师管理体制机制改革，加快推进新时代教师队伍建设，根据自治区教育厅、自治区党委机构编制委员会办公室、自治区财政厅、自治区人力资源和社会保障厅《关于实施中小学教师“县管校聘”改革的指导意见》（宁教人〔2021〕15号）和市委办、政府办《关于印发&lt;中卫市教育高质量发展三年行动计划（2022—2025年）&gt;的通知》（卫党办综〔2022〕63号）等精神，结合我市实际，制定本意见。', '以习近平新时代中国特色社会主义思想为指导，深化教育体制机制改革，坚持中小学教师“以县为主”管理体制，按照“总量控制、统筹调配、竞聘上岗、合同管理”工作要求，切实加强县（区）域内公办中小学在编在岗教师的统筹管理，让广大教师更加忠诚和热爱教育事业，实现教师由“学校人”向“系统人”转变，着力提升教育治理体系和治理能力现代化水平。', '聚焦优化教师资源配置、激活教师队伍活力这一核心，全面实施中小学校教师“县管校聘”人事制度改革，推动县管人员编制、人员结构、岗位设置、交流轮岗，校管岗位聘用、绩效工资分配、考核奖惩等教师管理机制更加完善，县（区）域内各学校师资配置更加均衡、结构更加合理。', '（一）创新体制，明确责任。由县（区）党委和政府统筹推进实施，依法依规理顺县（区）机构编制、教育、人力资源和社会保障、财政等部门有关教师管理职责，构建职责明确、权责分明、协同推进的工作机制。', '（二）统筹规划，协同实施。把教师“县管校聘”改革与义务教育优质均衡发展、校长教师交流轮岗、提高义务教育质量、完善学校治理结构等协同配套、联动实施，推进教育领域综合改革。', '（三）以人为本，激发活力。突出教师主体地位，结合教师职业特点，坚持原则性和适应性相结合，充分调动广大校长和教师工作积极性，激发教师队伍活力。', '（四）公正公平，稳中求进。依法依规做好“县管校聘”改革信息公开工作，切实维护教师合法权益，处理好改革与稳定的关系。', '1.完善教师编制管理机制。县（区）机构编制部门会同教育部门按照城乡统一的中小学教职工编制标准，在自治区核定的编制总量内，依据学校布局调整、生源变化等情况，适当向人数在200人以下的村小学、教学点和乡镇寄宿制学校倾斜，每年对各中小学教职工编制动态调整一次。', '2.完善教师岗位设置办法。县（区）人力资源和社会保障部门会同教育部门，根据学校岗位设置结构比例和本地学校编制总量，对所属学校专业技术高级、中级、初级岗位，分别核定岗位设置总量，实行总量控制。教育部门在本系统内统筹使用岗位设置总量，按照中小学教职工编制、人员结构、教育教学改革需要以及教师交流轮岗等情况分配到各学校，按管理权限报人力资源和社会保障部门备案。健全完善岗位设置动态调整机制，及时调整教师岗位数量。', '3.完善教师职称申报评审管理机制。县（区）教育部门结合实际，统一制定教师职称考核办法，指导学校修改完善职称评审考核细则，做好职称评审工作。初级专业技术职称评审，由教育部门负责组织实施，报人力资源和社会保障部门备案；中级及以上专业技术职称申报总量，由人力资源和社会保障部门核准，教育部门统筹使用，向农村学校教师、一线教师倾斜。', '4.完善教师补充长效机制。坚持空编即补的原则，教育部门会同机构编制、人力资源和社会保障部门依据岗位需求，定期申报招聘计划，同一招聘岗位，招聘人数在2名以上的，可以按照男女性别比例1:1设置招聘资格条件。严禁在有合格教师来源的情况下“有编不补”、长期使用临聘代课人员；严禁教育行政部门与中小学校混编混岗占用教职工编制；严禁任何部门和单位以任何理由、任何形式占用或变相占用中小学教职工编制。', '5.完善教师流动长效机制。根据本地实际，进一步完善县域内学校校长、教师交流轮岗长效机制。采取学区一体化管理、集团化办学、学校联盟、对口支援等多种途径和方式，积极推进校长、教师交流轮岗常态化。鼓励跨市域、县域组团式帮扶交流。支持教师跨校兼课、跨学段任教，促进学校间学科教师余缺互补。义务教育阶段教师交流轮岗原则上不少于一个教学周期，交流轮岗比例不低于符合交流条件教师总数的10%，其中骨干教师不低于交流总数的20%。', '6.完善学校用人自主权。学校统筹使用教育部门下达的人员编制、岗位和绩效工资总量，按照“按需设岗、按岗聘用、竞聘上岗、合同管理”原则，做好教师考核评价、评先奖励、职称评聘、绩效工资分配等管理工作。', '7.完善教师全员竞聘制度。坚持“有岗必竞”原则，采取校内直聘、校内竞聘、跨校竞聘、组织调剂等方式有序组织好竞聘上岗工作。', '（1）校内直聘。在岗位聘用年度内，距法定退休年龄不足3年的教师、处于孕期和哺乳期的教师以及身患重大疾病等原因不宜交流的教师，经学校公示，报本级教育部门备案，学校直接聘用。', '（2）校内竞聘。直聘以外的教师均要申请参加校内竞聘。学校制定竞聘方案和程序规则，公布所需岗位名称、数量、条件和岗位职责，教师竞聘上岗。学校首次聘用本校原有教师比例一般不超过聘用岗位的95%。', '（3）跨校竞聘。未聘用人员参加本级教育部门统一组织的跨校竞聘，择优聘用。跨校竞聘结束后，各学校将已聘、落聘人员信息及本学校空岗情况上报本级教育部门。', '（4）组织调剂。教育主管部门根据各学校教育教学工作需求及空岗情况，对落聘教师进行统筹调剂。', '8.完善教师聘后管理制度。竞聘结果报“县管校聘”改革工作领导小组审定后，机构编制、财政、人力资源和社会保障等部门要为相关人员办理编制、人事和工资等相关手续。实施聘用合同管理，通过竞聘上岗的教职工与学校签订事业单位聘用合同，聘用学校按照有关规定做好教师履职情况考核，考核结果作为岗位竞聘调整、绩效工资发放、评优评先等工作的主要依据。岗位竞聘和绩效工资要向教学一线、班主任和骨干教师倾斜。对不能完成工作任务的人员要进行转岗或低聘，建立能上能下、能进能出的用人机制。', '9.建立以竞聘上岗为核心的教师退出机制。对不服从组织调剂的教师，由各县（区）教育部门组织待岗培训，待岗培训期不超过6个月，其间，只发放基本工资，不享受奖励性绩效工资、基础绩效奖金、年度考核奖、乡村教师生活补助、乡镇工作人员补贴等津补贴。待岗培训考核合格的，调剂分配到空岗学校任教，考核期满不合格的，按程序解除聘用合同。', '10.建立科学合理的解聘机制。各县（区）按照人力资源和社会保障部门相关文件规定，对连续旷工、累计旷工超过规定时间的教师，可依据具体情况与其解除聘用合同。对年度考核不合格且不同意调整工作岗位的，或者连续两年年度考核不合格的教师，学校提前30日书面通知，可以与其解除聘用合同。对提前30日书面通知学校自愿解聘的教师，学校可以与其解除聘用合同（双方对解除聘用合同另有约定的除外）。对受到开除处分的教师，学校与其解除聘用合同。对有违反师德行为，情节严重、影响恶劣的教师，由学校、教育部门按规定给予严肃处理直至撤销教师资格。', '11.学校制定的岗位设置方案、教师竞聘方案、绩效工资分配方案、职称评审考核办法等，须经教师代表大会或教代会审议通过，校内公示无异议后方可实施。对聘用和考核结果，须公示5个工作日以上，充分保障教师的知情权、参与权、表达权、监督权。人力资源和社会保障、教育部门要完善人事争议仲裁制度和教师维权服务机制，让教师有充分、畅通的诉求渠道。对违背政策和程序的聘用行为，坚决予以查处，同时对捏造事实诬陷他人的坚决严肃处理，不断提高教师的社会地位。', '12.核增校长津贴、班主任津贴和寄宿制学校绩效工资，统筹考虑当地公务员实际收入水平，确保中小学教师平均工资收入水平不低于或者高于当地公务员平均工资收入水平。县（区）教育部门根据中小学校岗位聘用结果，及时兑现各中小学校绩效工资总量。学校要完善绩效工资考核分配办法，坚持“多劳多得、优绩优酬”，重点向一线教师、骨干教师和作出突出贡献的其他工作人员倾斜。在乡镇工作补贴、乡村教师生活补助、奖励性绩效工资分配方面向乡村、边远学校倾斜。', '通过赴外实地考察学习，深入试点县（区）、学校调查研究，学习了解“县管校聘”改革工作的实施经验和具体做法，开阔眼界，拓宽思路。', '成立中卫市“县管校聘”改革工作领导小组，组长由市委教育工作领导小组组长担任，副组长由市委教育工作领导小组副组长担任，成员由县（区）政府主要领导及市委编办、市教育局、财政局、人力资源和社会保障局主要领导组成，领导小组办公室设在市教育局。', '各县（区）、市直属各学校深入调查研究，对教师基本情况进行摸底统计，修改完善学校绩效考核办法。', '在自治区核定的编制总量内科学定编，统筹设置各学校岗位数，向市（县、区）委编办、市（县、区）人力资源社会保障部门报备。', '各县（区）、市直各学校参照本《意见》，结合本单位实际，修改完善区域内教师“县管校聘”岗位设置方案、岗位聘用工作方案，学校研究决定后报请本级“县管校聘”改革工作领导小组，审议通过后在校内公示。各学校制定岗位说明书，明确具体岗位名称、职责任务、工作标准和任职条件，在校内公示。各学校组织在编在岗教职工提交书面申请，对申请人员进行资格审核，对申请人员竞聘意向、资格条件等汇总。', '各学校在教育部门指导下，按照“竞聘上岗、择优聘用、能进能出”的原则，开展竞聘工作，对落聘人员进行组织调剂，做好缓聘、转岗、待聘教职工的工作安排。根据有关规定，学校与教职工签订岗位聘用合同。', '市教育局组织相关部门开展验收工作，总结改革经验，梳理典型案例，向“县管校聘”改革工作领导小组报送改革材料。', '（一）提高认识，加强领导。“县管校聘”改革工作是教育人事制度改革的一项重要内容，涉及广大教师的切身利益，牵一发而动全身。各县（区）要加强党对教师队伍建设的领导，深入推进党组织领导的校长负责制，充分发挥党组织把方向、管大局、作决策、抓班子、带队伍、保落实的领导职责，坚持主要领导亲自挂帅，靠前指挥，分管领导具体抓、抓具体，及时解决推进中存在的矛盾和问题，积极稳步推进改革。机构编制、教育、财政、人力资源和社会保障等部门要强化协调联动，确保“县管校聘”顺利实施。', '（二）有序开展，加强督导。市人民政府教育督导委员会办公室将中小学教师“县管校聘”管理体制改革落实情况纳入对各县（区）政府教育工作督导评估体系，推动改革稳妥有序实施。各县（区）机构编制、教育、财政、人力资源和社会保障等部门要紧密配合，预判可能存在的风险因素，做好应急预案，对工作推进情况跟踪评估，及时处理实施过程中出现的各类问题。', '（三）强化宣传，营造氛围。各县（区）要做好政策宣传和思想教育工作，形成正确舆论导向和良好工作氛围，争取学校、教师、家长和社会各界的理解、支持，引导广大教师提高认识，积极参与，支持改革。要及时总结、宣传先进典型和成功经验，进一步激发校长、教师积极性和主动性。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>293</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>习近平在清华大学考察时强调</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2021-04-20</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202104/t20210420_2792288.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平离开学校时，同师生们挥手致意。 新华社记者 鞠鹏 摄', '4月19日，在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。这是习近平在清华大学成像与智能技术实验室同师生们亲切交谈。 新华社记者 黄敬文 摄', '在清华大学建校110周年校庆日即将来临之际，中共中央总书记、国家主席、中央军委主席习近平来到清华大学考察。习近平代表党中央，向清华大学全体师生员工和海内外校友致以节日的祝贺，向全国广大青年学生致以诚挚的问候。', '习近平强调，百年大计，教育为本。今年是中国共产党成立100周年，我国开启了全面建设社会主义现代化国家新征程。党和国家事业发展对高等教育的需要，对科学知识和优秀人才的需要，比以往任何时候都更为迫切。我们要建设的世界一流大学是中国特色社会主义的一流大学，我国社会主义教育就是要培养德智体美劳全面发展的社会主义建设者和接班人。我国高等教育要立足中华民族伟大复兴战略全局和世界百年未有之大变局，心怀“国之大者”，把握大势，敢于担当，善于作为，为服务国家富强、民族复兴、人民幸福贡献力量。广大青年要肩负历史使命，坚定前进信心，立大志、明大德、成大才、担大任，努力成为堪当民族复兴重任的时代新人，让青春在为祖国、为民族、为人民、为人类的不懈奋斗中绽放绚丽之花。', '上午9时30分许，习近平在中共中央政治局常委、中央书记处书记王沪宁，清华大学党委书记陈旭、校长邱勇陪同下，首先来到美术学院，参观美术学院校庆特别展。美术展馆内，一块块展板图文并茂，一件件展品各具特色。习近平详细了解重大主题和国家形象设计作品创作、展示等情况介绍，仔细观看展品。习近平指出，美术、艺术、科学、技术相辅相成、相互促进、相得益彰。要发挥美术在服务经济社会发展中的重要作用，把更多美术元素、艺术元素应用到城乡规划建设中，增强城乡审美韵味、文化品位，把美术成果更好服务于人民群众的高品质生活需求。要增强文化自信，以美为媒，加强国际文化交流。', '清华大学成像与智能技术实验室成立于2001年，主要开展计算摄像、脑科学与人工智能国际前沿交叉科学等基础理论与关键技术的研究。习近平来到这里，结合展板、电子屏幕察看实验室开展计算光学、脑科学与人工智能交叉科学实验研究和开发新科技应用场景情况，听取实验室理论研究、技术攻关、成果转化应用等情况介绍。习近平指出，中国教育是能够培养出大师来的。我们要有这个自信，开拓视野、兼收并蓄，扎扎实实把中国教育办好。重大原始创新成果往往萌发于深厚的基础研究，产生于学科交叉领域，大学在这两方面具有天然优势。要保持对基础研究的持续投入，鼓励自由探索，敢于质疑现有理论，勇于开拓新的方向。', '清华大学主楼二层，展示了学校近年来重点教学科研成果。习近平听取了关于增强自主创新能力、助力世界主要科学中心和创新高地建设、提高人文社会学科教育研究水平等情况介绍，对清华大学取得的成绩给予充分肯定。习近平指出，要坚持中国特色社会主义教育发展道路，充分发挥科研优势，增强学科设置的针对性，加强基础研究，加大自主创新力度，并从我国改革发展实践中提出新观点、构建新理论，努力构建中国特色、中国风格、中国气派的学科体系、学术体系、话语体系。', '在主楼二层大厅，习近平看望部分老教授、中青年骨干教师代表并同他们亲切交谈。习近平感谢在教学科研岗位上默默耕耘、辛勤奉献、作出突出贡献的老师们，向老教授们表示敬意，勉励中青年教师继续在教书育人和科研创新上不断有新进步。他强调，清华大学秉持自强不息、厚德载物的校训，深化改革、加快创新，各项事业欣欣向荣，科研创新成果与国家发展需要丝丝相扣，展现了清华人的勇毅和担当。面向未来，清华大学要坚持把立德树人作为根本任务，把服务国家作为最高追求，把学科建设作为发展根基，把深化改革作为强大动力，把加强党的建设作为坚强保证，不忘初心、牢记使命，为党育人、为国育才，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦、推动人类文明进步作出新的更大的贡献。', '位于校园西北部的西体育馆，是清华早期四大建筑之一。在馆内篮球场，校篮球运动员正在进行训练。习近平走进体育馆，同他们亲切交谈，并在体育荣誉室察看历史照片、实物展览，了解体育馆保护利用、学校继承发扬优良传统、开展体育教育等情况。习近平表示，重视体育是清华大学的光荣传统，希望同学们发扬好清华大学的优良学风和体育传统，坚持德智体美劳全面发展，努力成为祖国建设的栋梁之才。', '11时20分许，习近平来到清华大学西体育馆后馆，出席师生代表座谈会。清华大学党委书记陈旭、校长邱勇、土木系教师聂建国、公管学院教师梅赐琪、工物系应届博士毕业生孙启明、人文学院二年级本科生李润凤分别发言。习近平认真听取他们的发言，现场气氛轻松、热烈。', '最后，习近平发表了重要讲话。他指出，清华大学诞生于国家和民族危难之际，成长于国家和民族奋进之中，发展于国家和民族振兴之时。110年来，清华大学深深扎根中国大地，培育了爱国奉献、追求卓越的光荣传统，形成了又红又专、全面发展的教书育人特色，为国家、为民族、为人民培养了大批可堪大任的杰出英才。这是一代代清华人拼搏奋斗、勇攀高峰、争创一流的结果。', '习近平强调，清华大学的发展历程，是我国高等教育发展的一个生动缩影。新中国成立以来，我国高等教育走过了从小到大、从弱到强的极不平凡历程，办学规模、培养质量、服务能力实现历史性跃升。特别是党的十八大以来，我国高等教育与祖国共进、与时代同行，创造了举世瞩目的发展成就。', '习近平指出，一个国家的高等教育体系需要有一流大学群体的有力支撑，一流大学群体的水平和质量决定了高等教育体系的水平和质量。一流大学建设要坚持党的领导，坚持马克思主义指导地位，全面贯彻党的教育方针，坚持社会主义办学方向，抓住历史机遇，紧扣时代脉搏，立足新发展阶段、贯彻新发展理念、服务构建新发展格局，把发展科技第一生产力、培养人才第一资源、增强创新第一动力更好结合起来，更好为改革开放和社会主义现代化建设服务。', '习近平强调，追求一流是一个永无止境、不断超越的过程，要明确方向、突出重点。要培养一流人才方阵。建设一流大学，关键是要不断提高人才培养质量。要想国家之所想、急国家之所急、应国家之所需，抓住全面提高人才培养能力这个重点，坚持把立德树人作为根本任务，着力培养担当民族复兴大任的时代新人。要构建一流大学体系。高等教育体系是一个有机整体，其内部各部分具有内在的相互依存关系。要用好学科交叉融合的“催化剂”，加强基础学科培养能力，打破学科专业壁垒，对现有学科专业体系进行调整升级，瞄准科技前沿和关键领域，推进新工科、新医科、新农科、新文科建设，加快培养紧缺人才。要提升原始创新能力。一流大学是基础研究的主力军和重大科技突破的策源地，要完善以健康学术生态为基础、以有效学术治理为保障、以产生一流学术成果和培养一流人才为目标的大学创新体系，勇于攻克“卡脖子”的关键核心技术，加强产学研深度融合，促进科技成果转化。要坚持开放合作。加强国际交流合作，主动搭建中外教育文化友好交往的合作平台，共同应对全球性挑战，促进人类共同福祉。', '习近平指出，当代中国青年是与新时代同向同行、共同前进的一代，生逢盛世，肩负重任。广大青年要爱国爱民，从党史学习中激发信仰、获得启发、汲取力量，不断坚定“四个自信”，不断增强做中国人的志气、骨气、底气，树立为祖国为人民永久奋斗、赤诚奉献的坚定理想。要锤炼品德，自觉树立和践行社会主义核心价值观，自觉用中华优秀传统文化、革命文化、社会主义先进文化培根铸魂、启智润心，加强道德修养，明辨是非曲直，增强自我定力，矢志追求更有高度、更有境界、更有品位的人生。要勇于创新，深刻理解把握时代潮流和国家需要，敢为人先、敢于突破，以聪明才智贡献国家，以开拓进取服务社会。要实学实干，脚踏实地、埋头苦干，孜孜不倦、如饥似渴，在攀登知识高峰中追求卓越，在肩负时代重任时行胜于言，在真刀真枪的实干中成就一番事业。', '习近平强调，教师是教育工作的中坚力量，没有高水平的师资队伍，就很难培养出高水平的创新人才，也很难产生高水平的创新成果。大学教师对学生承担着传授知识、培养能力、塑造正确人生观的职责。教师要成为大先生，做学生为学、为事、为人的示范，促进学生成长为全面发展的人。要研究真问题，着眼世界学术前沿和国家重大需求，致力于解决实际问题，善于学习新知识、新技术、新理论。要坚定信念，始终同党和人民站在一起，自觉做中国特色社会主义的坚定信仰者和忠实实践者。', '习近平离开学校时，操场上、道路旁站满了师生，大家纷纷向总书记问好，齐声高喊“总书记好”、“学长好”，高呼“祖国万岁”、“清华加油”，习近平满怀深情地同大家挥手致意，掌声、问候声在校园里久久回荡。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>293</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>陈润儿在中卫市调研时强调深入学习贯彻习近平总书记七一重要讲话精神学史力行开新局扎实推动重点产业高质量发展</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2021-07-30</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/202107/t20210730_2947781.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['陈润儿在中卫市调研时强调 深入学习贯彻习近平总书记“七一”重要讲话精神 学史力行开新局扎实推动重点产业高质量发展_中卫市人民政府', '陈润儿在中卫市调研时强调 深入学习贯彻习近平总书记“七一”重要讲话精神 学史力行开新局扎实推动重点产业高质量发展', '7月29日，自治区党委书记、人大常委会主任陈润儿深入中卫市中宁县，调研肉牛、枸杞、新材料等产业发展情况，强调要深入学习贯彻习近平总书记“七一”重要讲话精神，学史力行开新局、真抓实干求突破，扎实推动重点产业高质量发展。', '位于中宁县太阳梁乡的宁特集团肉牛养殖场，创新实施“联合党支部+国有企业+村集体经济合作社+合作银行+农户”模式，组织引导周边农户开展托管养殖，按标准兑付养殖“红利”。陈润儿走进养殖场，了解经营模式、市场销售、农户分红情况，“外出务工返乡参与养殖的农户有多少？”“每头牛的利润是多少？成本包括哪些？”得知移民群众通过肉牛托管代养，人均年收益1769元时，陈润儿说，有产业才会有就业，有就业才会有收入，宁夏肉牛养殖有基础、有优势，形成了一定产业规模，带动了当地农户就业增收。要通过公司建基地、公司带农户的形式，吸纳更多劳动力在家门口就业，确保移民群众稳定致富。要充分发挥保险的经济补偿、资金融通作用，分散企业与农户的经营风险，最大限度降低因市场波动带来的损失。', '来到宁夏华宝枸杞产业公司，陈润儿走进枸杞展馆，了解中宁枸杞发展历史，参观榨汁车间、智能车间生产流程，向企业负责人了解产品功效、新品研发、市场营销情况。在企业展销中心，游客熙熙攘攘，枸杞原浆、枸杞饮料、文创产品深受游客喜爱。陈润儿对企业致力于枸杞精深加工的做法给予肯定，“你们通过努力，做出了产品、做出了文化、做出了影响力。”陈润儿鼓励企业，要进一步做好深加工文章，在种植、生产、加工各环节建立健全质量标准体系，确保产品质量，捍卫道地品牌、打造“枸杞之乡”。要拓展营销方式，综合运用电商、直播带货等形式，加大宣传推介，加强与医疗机构的协作对接，不断扩大消费者认可度，让宁夏枸杞走向更广阔的市场。', '在中宁隆基硅公司，陈润儿走进生产车间，了解产品技术研发、生产工艺和市场销售情况，查看生产流程、产品展示，询问自动化生产、用工来源、人员培训、生产成本情况。陈润儿希望企业发挥自身优势，拉长产业链条，积极向下游发展光伏组件和装备制造，降低综合成本，形成一体化产业体系。在宁夏伟力得电池储能装备制造项目现场，陈润儿说，要加快项目规划、建设、投资，在市场竞争中抢占先机，助力绿色低碳发展。', '调研期间，陈润儿主持召开县区换届工作座谈会，听取中卫市及所辖县区换届工作情况汇报。陈润儿指出，中卫市县乡领导班子换届工作，领导重视、组织有力、导向鲜明、风清气正，总体情况是好的。陈润儿强调，要坚决贯彻落实习近平总书记的重要指示，认真贯彻落实党中央的具体部署，确保换届工作高标准推进、高质量完成。要强化政治考察，大力选拔忠诚、干净、担当的优秀干部，确保选出的干部信得过、靠得住、能放心。要增强整体功能，着眼事业发展需要，突出关键配备、坚持梯次配备、注重统筹配备，确保配出的班子结构优、功能强、面貌新。要严明换届纪律，全面落实“十个严禁”要求，树立新风正气，狠刹歪风邪气，确保换出正能量、换出新干劲、换出好气象。要担当政治责任，加强党的领导，压实主体责任，做好思想工作，坚持统筹推进，确保圆满完成换届任务。要以换届为动力，扎实做好经济社会发展各项工作，确保今年各项目标圆满实现。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>293</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>中国共产党党内监督条例</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2016-11-03</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201611/t20161103_597468.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['第一条 为坚持党的领导，加强党的建设，全面从严治党，强化党内监督，保持党的先进性和纯洁性，根据《中国共产党章程》，制定本条例。', '第二条 党内监督以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观为指导，深入贯彻习近平总书记系列重要讲话精神，围绕统筹推进“五位一体”总体布局和协调推进“四个全面”战略布局，尊崇党章，依规治党，坚持党内监督和人民群众监督相结合，增强党在长期执政条件下自我净化、自我完善、自我革新、自我提高能力，确保党始终成为中国特色社会主义事业的坚强领导核心。', '第三条 党内监督没有禁区、没有例外。信任不能代替监督。各级党组织应当把信任激励同严格监督结合起来，促使党的领导干部做到有权必有责、有责要担当，用权受监督、失责必追究。', '第四条 党内监督必须贯彻民主集中制，依规依纪进行，强化自上而下的组织监督，改进自下而上的民主监督，发挥同级相互监督作用。坚持惩前毖后、治病救人，抓早抓小、防微杜渐。', '第五条 党内监督的任务是确保党章党规党纪在全党有效执行，维护党的团结统一，重点解决党的领导弱化、党的建设缺失、全面从严治党不力，党的观念淡漠、组织涣散、纪律松弛，管党治党宽松软问题，保证党的组织充分履行职能、发挥核心作用，保证全体党员发挥先锋模范作用，保证党的领导干部忠诚干净担当。', '（二）维护党中央集中统一领导，牢固树立政治意识、大局意识、核心意识、看齐意识，贯彻落实党的理论和路线方针政策，确保全党令行禁止情况；', '（三）坚持民主集中制，严肃党内政治生活，贯彻党员个人服从党的组织，少数服从多数，下级组织服从上级组织，全党各个组织和全体党员服从党的全国代表大会和中央委员会原则情况；', '（四）落实全面从严治党责任，严明党的纪律特别是政治纪律和政治规矩，推进党风廉政建设和反腐败工作情况；', '第七条 党内监督必须把纪律挺在前面，运用监督执纪“四种形态”，经常开展批评和自我批评、约谈函询，让“红红脸、出出汗”成为常态；党纪轻处分、组织调整成为违纪处理的大多数；党纪重处分、重大职务调整的成为少数；严重违纪涉嫌违法立案审查的成为极少数。', '第八条 党的领导干部应当强化自我约束，经常对照党章检查自己的言行，自觉遵守党内政治生活准则、廉洁自律准则，加强党性修养，陶冶道德情操，永葆共产党人政治本色。', '第九条 建立健全党中央统一领导，党委（党组）全面监督，纪律检查机关专责监督，党的工作部门职能监督，党的基层组织日常监督，党员民主监督的党内监督体系。', '第十条 党的中央委员会、中央政治局、中央政治局常务委员会全面领导党内监督工作。中央委员会全体会议每年听取中央政治局工作报告，监督中央政治局工作，部署加强党内监督的重大任务。', '第十一条 中央政治局、中央政治局常务委员会定期研究部署在全党开展学习教育，以整风精神查找问题、纠正偏差；听取和审议全党落实中央八项规定精神情况汇报，加强作风建设情况监督检查；听取中央纪律检查委员会常务委员会工作汇报；听取中央巡视情况汇报，在一届任期内实现中央巡视全覆盖。中央政治局每年召开民主生活会，进行对照检查和党性分析，研究加强自身建设措施。', '第十二条 中央委员会成员必须严格遵守党的政治纪律和政治规矩，发现其他成员有违反党章、破坏党的纪律、危害党的团结统一的行为应当坚决抵制，并及时向党中央报告。对中央政治局委员的意见，署真实姓名以书面形式或者其他形式向中央政治局常务委员会或者中央纪律检查委员会常务委员会反映。', '第十三条 中央政治局委员应当加强对直接分管部门、地方、领域党组织和领导班子成员的监督，定期同有关地方和部门主要负责人就其履行全面从严治党责任、廉洁自律等情况进行谈话。', '第十四条 中央政治局委员应当严格执行中央八项规定，自觉参加双重组织生活，如实向党中央报告个人重要事项。带头树立良好家风，加强对亲属和身边工作人员的教育和约束，严格要求配偶、子女及其配偶不得违规经商办企业，不得违规任职、兼职取酬。', '第十五条 党委（党组）在党内监督中负主体责任，书记是第一责任人，党委常委会委员（党组成员）和党委委员在职责范围内履行监督职责。党委（党组）履行以下监督职责：', '（三）对党委常委会委员（党组成员）、党委委员，同级纪委、党的工作部门和直接领导的党组织领导班子及其成员进行监督；', '第十六条 党的工作部门应当严格执行各项监督制度，加强职责范围内党内监督工作，既加强对本部门本单位的内部监督，又强化对本系统的日常监督。', '第十七条 党内监督必须加强对党组织主要负责人和关键岗位领导干部的监督，重点监督其政治立场、加强党的建设、从严治党，执行党的决议，公道正派选人用人，责任担当、廉洁自律，落实意识形态工作责任制情况。', '上级党组织特别是其主要负责人，对下级党组织主要负责人应当平时多过问、多提醒，发现问题及时纠正。领导班子成员发现班子主要负责人存在问题，应当及时向其提出，必要时可以直接向上级党组织报告。', '第十八条 党委（党组）应当加强对领导干部的日常管理监督，掌握其思想、工作、作风、生活状况。党的领导干部应当经常开展批评和自我批评，敢于正视、深刻剖析、主动改正自己的缺点错误；对同志的缺点错误应当敢于指出，帮助改进。', '第十九条 巡视是党内监督的重要方式。中央和省、自治区、直辖市党委一届任期内，对所管理的地方、部门、企事业单位党组织全面巡视。巡视党的组织和党的领导干部尊崇党章、党的领导、党的建设和党的路线方针政策落实情况，履行全面从严治党责任、执行党的纪律、落实中央八项规定精神、党风廉政建设和反腐败工作以及选人用人情况。发现问题、形成震慑，推动改革、促进发展，发挥从严治党利剑作用。', '中央巡视工作领导小组应当加强对省、自治区、直辖市党委，中央有关部委，中央国家机关部门党组（党委）巡视工作的领导。省、自治区、直辖市党委应当推动党的市（地、州、盟）和县（市、区、旗）委员会建立巡察制度，使从严治党向基层延伸。', '第二十条 严格党的组织生活制度，民主生活会应当经常化，遇到重要或者普遍性问题应当及时召开。民主生活会重在解决突出问题，领导干部应当在会上把群众反映、巡视反馈、组织约谈函询的问题说清楚、谈透彻，开展批评和自我批评，提出整改措施，接受组织监督。上级党组织应当加强对下级领导班子民主生活会的指导和监督，提高民主生活会质量。', '第二十一条 坚持党内谈话制度，认真开展提醒谈话、诫勉谈话。发现领导干部有思想、作风、纪律等方面苗头性、倾向性问题的，有关党组织负责人应当及时对其提醒谈话；发现轻微违纪问题的，上级党组织负责人应当对其诫勉谈话，并由本人作出说明或者检讨，经所在党组织主要负责人签字后报上级纪委和组织部门。', '第二十二条 严格执行干部考察考核制度，全面考察德、能、勤、绩、廉表现，既重政绩又重政德，重点考察贯彻执行党中央和上级党组织决策部署的表现，履行管党治党责任，在重大原则问题上的立场，对待人民群众的态度，完成急难险重任务的情况。考察考核中党组织主要负责人应当对班子成员实事求是作出评价。考核评语在同本人见面后载入干部档案。落实党组织主要负责人在干部选任、考察、决策等各个环节的责任，对失察失责的应当严肃追究责任。', '第二十三条 党的领导干部应当每年在党委常委会（或党组）扩大会议上述责述廉，接受评议。述责述廉重点是执行政治纪律和政治规矩、履行管党治党责任、推进党风廉政建设和反腐败工作以及执行廉洁纪律情况。述责述廉报告应当载入廉洁档案，并在一定范围内公开。', '第二十四条 坚持和完善领导干部个人有关事项报告制度，领导干部应当按规定如实报告个人有关事项，及时报告个人及家庭重大情况，事先请示报告离开岗位或者工作所在地等。有关部门应当加强抽查核实。对故意虚报瞒报个人重大事项、篡改伪造个人档案资料的，一律严肃查处。', '第二十五条 建立健全党的领导干部插手干预重大事项记录制度，发现利用职务便利违规干预干部选拔任用、工程建设、执纪执法、司法活动等问题，应当及时向上级党组织报告。', '第二十六条 党的各级纪律检查委员会是党内监督的专责机关，履行监督执纪问责职责，加强对所辖范围内党组织和领导干部遵守党章党规党纪、贯彻执行党的路线方针政策情况的监督检查，承担下列具体任务：', '（一）加强对同级党委特别是常委会委员、党的工作部门和直接领导的党组织、党的领导干部履行职责、行使权力情况的监督；', '（二）落实纪律检查工作双重领导体制，执纪审查工作以上级纪委领导为主，线索处置和执纪审查情况在向同级党委报告的同时向上级纪委报告，各级纪委书记、副书记的提名和考察以上级纪委会同组织部门为主；', '第二十七条 纪律检查机关必须把维护党的政治纪律和政治规矩放在首位，坚决纠正和查处上有政策、下有对策，有令不行、有禁不止，口是心非、阳奉阴违，搞团团伙伙、拉帮结派，欺骗组织、对抗组织等行为。', '第二十八条 纪委派驻纪检组对派出机关负责，加强对被监督单位领导班子及其成员、其他领导干部的监督，发现问题应当及时向派出机关和被监督单位党组织报告，认真负责调查处置，对需要问责的提出建议。', '派出机关应当加强对派驻纪检组工作的领导，定期约谈被监督单位党组织主要负责人、派驻纪检组组长，督促其落实管党治党责任。', '派驻纪检组应当带着实际情况和具体问题，定期向派出机关汇报工作，至少每半年会同被监督单位党组织专题研究1次党风廉政建设和反腐败工作。对能发现的问题没有发现是失职，发现问题不报告、不处置是渎职，都必须严肃问责。', '第二十九条 认真处理信访举报，做好问题线索分类处置，早发现早报告，对社会反映突出、群众评价较差的领导干部情况及时报告，对重要检举事项应当集体研究。定期分析研判信访举报情况，对信访反映的典型性、普遍性问题提出有针对性的处置意见，督促信访举报比较集中的地方和部门查找分析原因并认真整改。', '第三十条 严把干部选拔任用“党风廉洁意见回复”关，综合日常工作中掌握的情况，加强分析研判，实事求是评价干部廉洁情况，防止“带病提拔”“带病上岗”。', '第三十一条 接到对干部一般性违纪问题的反映，应当及时找本人核实，谈话提醒、约谈函询，让干部把问题讲清楚。约谈被反映人，可以与其所在党组织主要负责人一同进行；被反映人对函询问题的说明，应当由其所在党组织主要负责人签字后报上级纪委。谈话记录和函询回复应当认真核实，存档备查。没有发现问题的应当了结澄清，对不如实说明情况的给予严肃处理。', '第三十二条 依规依纪进行执纪审查，重点审查不收敛不收手，问题线索反映集中、群众反映强烈，现在重要岗位且可能还要提拔使用的领导干部，三类情况同时具备的是重中之重。执纪审查应当查清违纪事实，让审查对象从学习党章入手，从理想信念宗旨、党性原则、作风纪律等方面检查剖析自己，审理报告应当事实清楚、定性准确，反映审查对象思想认识情况。', '第三十三条 对违反中央八项规定精神的，严重违纪被立案审查开除党籍的，严重失职失责被问责的，以及发生在群众身边、影响恶劣的不正之风和腐败问题，应当点名道姓通报曝光。', '第三十四条 加强对纪律检查机关的监督。发现纪律检查机关及其工作人员有违反纪律问题的，必须严肃处理。各级纪律检查机关必须加强自身建设，健全内控机制，自觉接受党内监督、社会监督、群众监督，确保权力受到严格约束。', '（一）严格党的组织生活，开展批评和自我批评，监督党员切实履行义务，保障党员权利不受侵犯；', '（二）了解党员、群众对党的工作和党的领导干部的批评和意见，定期向上级党组织反映情况，提出意见和建议；', '（三）维护和执行党的纪律，发现党员、干部违反纪律问题及时教育或者处理，问题严重的应当向上级党组织报告。', '第三十六条 党员应当本着对党和人民事业高度负责的态度，积极行使党员权利，履行下列监督义务：', '（二）在党的会议上有根据地批评党的任何组织和任何党员，揭露和纠正工作中存在的缺点和问题；', '（三）参加党组织开展的评议领导干部活动，勇于触及矛盾问题、指出缺点错误，对错误言行敢于较真、敢于斗争；', '（四）向党负责地揭发、检举党的任何组织和任何党员违纪违法的事实，坚决反对一切派别活动和小集团活动，同腐败现象作坚决斗争。', '第三十七条 各级党委应当支持和保证同级人大、政府、监察机关、司法机关等对国家机关及公职人员依法进行监督，人民政协依章程进行民主监督，审计机关依法进行审计监督。有关国家机关发现党的领导干部违反党规党纪、需要党组织处理的，应当及时向有关党组织报告。审计机关发现党的领导干部涉嫌违纪的问题线索，应当向同级党组织报告，必要时向上级党组织报告，并按照规定将问题线索移送相关纪律检查机关处理。', '在纪律审查中发现党的领导干部严重违纪涉嫌违法犯罪的，应当先作出党纪处分决定，再移送行政机关、司法机关处理。执法机关和司法机关依法立案查处涉及党的领导干部案件，应当向同级党委、纪委通报；该干部所在党组织应当根据有关规定，中止其相关党员权利；依法受到刑事责任追究，或者虽不构成犯罪但涉嫌违纪的，应当移送纪委依纪处理。', '第三十八条 中国共产党同各民主党派长期共存、互相监督、肝胆相照、荣辱与共。各级党组织应当支持民主党派履行监督职能，重视民主党派和无党派人士提出的意见、批评、建议，完善知情、沟通、反馈、落实等机制。', '第三十九条 各级党组织和党的领导干部应当认真对待、自觉接受社会监督，利用互联网技术和信息化手段，推动党务公开、拓宽监督渠道，虚心接受群众批评。新闻媒体应当坚持党性和人民性相统一，坚持正确导向，加强舆论监督，对典型案例进行剖析，发挥警示作用。', '第四十条 党组织应当如实记录、集中管理党内监督中发现的问题和线索，及时了解核实，作出相应处理；不属于本级办理范围的应当移送有权限的党组织处理。', '第四十一条 党组织对监督中发现的问题应当做到条条要整改、件件有着落。整改结果应当及时报告上级党组织，必要时可以向下级党组织和党员通报，并向社会公开。', '对于上级党组织交办以及巡视等移交的违纪问题线索，应当及时处理，并在3个月内反馈办理情况。', '第四十二条 党委（党组）、纪委（纪检组）应当加强对履行党内监督责任和问题整改落实情况的监督检查，对不履行或者不正确履行党内监督职责，以及纠错、整改不力的，依照《中国共产党纪律处分条例》、《中国共产党问责条例》等规定处理。', '第四十三条 党组织应当保障党员知情权和监督权，鼓励和支持党员在党内监督中发挥积极作用。提倡署真实姓名反映违纪事实，党组织应当为检举控告者严格保密，并以适当方式向其反馈办理情况。对干扰妨碍监督、打击报复监督者的，依纪严肃处理。', '第四十四条 党组织应当保障监督对象的申辩权、申诉权等相关权利。经调查，监督对象没有不当行为的，应当予以澄清和正名。对以监督为名侮辱、诽谤、诬陷他人的，依纪严肃处理；涉嫌犯罪的移送司法机关处理。监督对象对处理决定不服的，可以依照党章规定提出申诉。有关党组织应当认真复议复查，并作出结论。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>293</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>市卫生健康委员会关于开展政府单位开放日活动的通知</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2020-08-27</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/bmxxgkml/swsjkwyh/fdzdgknr_49861/zfkfr_49885/hdfa_49886/202009/t20200930_2248884.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['为深入贯彻习近平新时代中国特色社会主义思想，以服务大局、服务群众为目标，切实推进阳光、透明、开放、服务型机关（单位）建设，增强群众对政府工作的认同感、获得感，提升政府公信力、执行力。经研究，决定从即日起，继续在卫生健康系统中广泛开展“政府（单位）开放日”活动。现将有关事宜通知如下：', '政府（单位）开放日活动自即日起到10月底结束。市卫生健康委政府开放日活动拟定于9月份举行。市属各医疗卫生单位在规定时限内自行决定开放时间。', '在中卫工作、生活、学习，关心中卫经济社会发展且年满18周岁具有完全民事行为能力的公民，主要包括人大代表、政协委员、普通群众、专家学者、职工代表、社区工作者、媒体记者等。根据各责任部门（单位）活动实际情况，每次受邀代表人数控制在30人以内，其中市民代表比例不低于三分之一。', '开展政府（单位）开放日活动要紧紧围绕落实市委、市政府中心工作和重要决策部署，结合本单位重点任务、重大活动和阶段性工作安排，以深化“放管服”、复工复产、脱贫攻坚、社会治理、“六稳”、“六保”等为重点，全方位介绍和展现委机关（单位）工作职能、制度规范、重点建设项目、服务举措和创新成果等。', '（一）参观政府（单位）办公场所：邀请开放对象观摩政府（单位）办公运行情况，由专人介绍部门整体架构、机构设置、主要职能、办事程序等，有条件的单位可根据实际提前组织受邀代表现场体验工作。', '（二）现场参观考察：由各单位组织开放对象参观服务窗口、文化设施、服务流程、便民服务、亮点工作、基础设施工程进展情况等。', '（三）政民座谈交流：各单位负责人主动与开放对象面对面沟通交流，介绍本单位重点工作、特色亮点工作开展情况，公众普遍关注的热点问题以及与民生密切相关的工作事项办理情况，并收集开放对象提出的意见、建议。', '（四）意见反馈：在活动过程中，各单位要积极收集开放对象的意见建议，并进行整理、交办，及时反馈办理进展及结果信息。', '(一)加强组织领导。各单位党组织负责人要充分认识到开展此项活动的重要意义，明确责任领导，明确责任机构，确定专人负责，为活动开展提供组织保障。各单位开展活动情况将纳入2020年度行业作风建设活动考核和党建考核之中。', '（二）周密安排部署。各单位要认真研究制定具体活动方案，明确活动时间、邀请人员、主要内容和有关要求等，细化各环节设计，搞好现场组织。邀请参加活动的人员既要体现广泛代表性，又要体现行业特点，本机关（单位）干部原则上不在邀请范围。', '(三)务求取得实效。政府（单位）开放日活动要严格落实中央八项规定和区、市党委有关实施办法要求，坚持热情、简朴、务实、安全原则，不搞领导讲话等形式；活动内容要实事求是、丰富实在，政府（单位）干部要与参加活动的群众互动，让各界群众深入了解政府（单位）干部职工的工作情况，提出意见建议。活动结束后，各单位要对参加活动的群众和“两代表一委员”提出的问题认真分析研究，制定整改落实清单。各单位要把解决实际问题的效果作为衡量活动实效的重要标志。', '（四）加大宣传力度。各单位要充分运用中卫日报、中卫电视台等多种形式对活动情况进行宣传报道。要安排专人采写开放日活动情况及近年来服务群众、改革创新、先进典型等情况，放大开放日效果，营造良好的氛围。有条件的单位要制作宣传展板或电视片，在政府开放日当天向参加活动的群众代表和“两代表一委员”进行展示，并通过单位微信、微博公众号、简报及时宣传活动开展情况。', '(五)形成长效机制。各单位要相互观摩学习借鉴，积极开展符合卫生健康行业及本单位特点的政府（单位）开放日活动，逐步完善政府（单位）开放日活动的内容，积极探索针对性、实效性和可操作性强的开放模式，使政府（单位）开放日活动成为“接地气、连民心”、不断深化联系基层和服务群众的长效机制。各单位在活动结束后一周内将活动方案、征求意见情况、照片视频资料以及工作小结报市卫生健康委409办公室。']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>293</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>守护平安中卫公安三个关爱强力凝聚疫线警心汇聚公安力量</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2022-12-03</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sgaj/fdzdgknr_49353/bmxx_49384/202212/t20221212_3884594.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['今年以来，面对新冠肺炎疫情的反复袭扰，中卫公安深入学习宣传贯彻党的二十大精神和自治区第十三次党代会精神，扎实落实习近平总书记重要指示精神和市委、市政府、自治区公安厅党委部署要求，全力以赴、全警动员、全员参战，抗击疫情。市公安局党委从最需要、最紧要处着手，强化关心关爱、全力服务一线，持续鼓舞士气、振奋警心，为全市公安队伍以饱满的精气神和昂扬的战斗力，扎实做好战疫情、防风险、保安全、护稳定各项工作任务凝聚强大合力，提供坚强思想政治保障。', '坚持政治引领、多措并举增强广大民辅警担当自觉。领导担当上一线。市公安局党委高度重视一线民辅警关怀保障措施落实，“班长”张虎身先士卒，辗转35个防疫卡口、隔离点及监管场所，与广大民辅警并肩战斗在防疫一线，并将局党委的关心和慰问传递到基层最前沿。其他党委班子各司其职、合力攻坚，深入一线了解最真实的情况，解决最实际的问题，开展最有力的激励，推动各项工作措施做精做准、落实落细。', '党员冲锋上一线。印发《全市公安机关抗击突发疫情倡议书》和《进一步激励广大党员、干部、人才在疫情防控一线担当作为的通知》，号召全市各级公安机关党组织、党员民辅警在“疫”线履职尽责、展现公安担当。疫情防控检查站点、隔离点等35个临时党支部高举党旗，460余名民辅警亮明党员身份，党组织战斗堡垒作用和党员先锋模范作用充分发挥。各实战单位在及时传达最新要求的同时，坚持将理论学习搬上一线，组织大家深入学习党的二十大精神，引领全体党员民辅警坚定必胜信心，带头担当作为。市公安局1名党员、4名预备党员、2名入党积极分子先后受到市委通报表彰。', '干部带头上一线。注重在疫情防控斗争中考察识别干部，激励引导广大干部在危难时刻挺身而出、英勇奋斗。特别是在“8.04”“9.20”疫情防控工作中，市公安局党委在全警作战的基础上，先后抽调200余名科级以上干部下沉社区，充分发挥示范引领作用，带领全体工作人员不折不扣落实各项防控措施。', '疫情防控工作中，市公安局党委先后4次动员全市各级公安机关1100余名青年民辅警积极投身疫情防控第一线，激发实干担当意识，助推青年成长成才。', '全市公安机关坚持“战场在哪里，激励关爱就跟进到哪里”，持续提振精气神。激励在一线加大，中卫市公安局启动一线表彰机制，进一步凝聚警心、激励士气。对“8.04”“9.20”疫情防控工作中表现特别优秀、成绩特别突出的67名个人及时肯定、给予激励。市公安局党委班子被市委评为“干事创业好班子”，李向海同志被评为“担当作为好干部”。46个集体和72名个人获得公安厅记功嘉奖。', '典型在一线培树。坚持把笔触和镜头延伸到疫情防控一线，及时发现、挖掘忠诚担当、忘我奉献、服务群众的先进典型事迹，撰写发布《中卫公安“特”有力量》《怀春霞许虎，用双倍坚守书写双警风采》《后方的“保障线”就是他们的战场》等一大批典型稿件，生动展示全市公安机关在疫情防控第一线的奋战风采，凝聚共克时艰的强大正能量。', '宣传在一线聚焦。在全市公安新媒体矩阵开设“战疫情”“疫线故事”等专题，策划制作一批主题明确、贴近一线的新媒体作品，特别是“8.04”“9.20”疫情防控工作中，集中发布图文精品35篇，策划拍摄展现中卫公安积极战“疫”视频12个，累计播放量190万次以上，其中《这一抹藏蓝守护的是平安》等10余篇精品稿件和《向所有逆行者致敬》等6部精品视频，全面展示中卫公安与民同心、共克疫情的良好形象，广大民辅警的辛勤付出赢得了社会各界和人民群众的广泛认可。', '结合疫情防控实际，有针对性的推进爱警暖警工作，想方设法帮助一线民辅警解决实际困难，传递组织的关怀和温暖。家庭服务保障在点子上落实。严格落实“有困难找组织”，针对性的开展家访慰问、结对帮扶等工作，摸清一线民辅警家庭生活情况，解决实际困难186件，落实爱警慰问185人次，走访慰问152个基层单位及个人。常态化运行紧急救治医疗“绿色通道”，有效解决民辅警后顾之忧。', '防疫服务保障在核心处抓牢。组建防疫保障专班，调配保障专车，为一线发放防护口罩3.45万余个、防护手套2万余双、防护面罩7500个、防护服9260套，发放一次性防护帽、防护鞋套和酒精消毒液、消毒凝胶7600余件。同时，配套驻点帐篷、被褥等防寒防暑生活物资1650件，保障方便面、矿泉水及日常餐饮47900余份，确保各项工作高效有序运转。', '心理服务保障在关键处着力。依托党组织及时开展谈心谈话，动态掌握民辅警心理变化，及时消解负面情绪。结合疫情防控需求和特点，灵活开展疫情防控实战培训，进一步提升民辅警防疫实战水平和自我防护能力。同时公布24小时免费心理援助热线，帮助缓解心理压力和焦虑，确保广大民辅警以更加旺盛的斗志投身到抗疫一线。', '凝聚疫线警心，汇聚公安力量。中卫公安将始终紧绷疫情防控这根弦，紧贴战“疫”形势和全警需求，全面打好激励凝聚组合拳，为全力抓好战疫情、防风险、保安全、护稳定各项工作提供坚强的队伍保障。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>293</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>多党合作要有新气象思想共识要有新提高履职尽责要有新作为参政党要有新面貌</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2018-02-07</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201802/t20180207_687036.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['多党合作要有新气象 思想共识要有新提高 履职尽责要有新作为 参政党要有新面貌_中卫市人民政府', '新华社北京2月6日电 新春佳节来临之际，中共中央总书记、国家主席、中央军委主席习近平6日下午在人民大会堂同各民主党派中央、全国工商联负责人和无党派人士代表座谈并共迎新春。习近平代表中共中央，向各民主党派中央、全国工商联新当选的领导班子成员表示热烈祝贺，向各民主党派、工商联和无党派人士，向统一战线广大成员致以诚挚问候和新春祝福。他强调，中国特色社会主义进入新时代，多党合作要有新气象，思想共识要有新提高，履职尽责要有新作为，参政党要有新面貌，引导广大成员增进对中国共产党和中国特色社会主义的政治认同，使新时代多党合作展现出勃勃生机。', '民革中央主席万鄂湘、民盟中央主席丁仲礼、民建中央主席郝明金、民进中央主席蔡达峰、农工党中央主席陈竺、致公党中央主席万钢、九三学社中央主席武维华、台盟中央主席苏辉、全国工商联主席高云龙先后发言，分别介绍了各民主党派、工商联在中共中央亲切关怀和大力支持下，顺利召开全国代表大会、圆满完成换届工作情况以及下一步工作打算。无党派人士代表郭雷也作了发言。他们表示，将深入学习贯彻中共十九大精神，以习近平新时代中国特色社会主义思想为指导，深化政治交接，加强自身建设，围绕中共十九大确定的目标任务，发挥特色优势，积极履职尽责，为决胜全面建成小康社会、夺取新时代中国特色社会主义伟大胜利作出新的更大贡献。', '在认真听取大家的发言后，习近平作了重要讲话。他表示，再过几天，就是中华民族的传统节日春节了。我们在这里同各位新老朋友欢聚一堂，畅叙友情，共迎新春，感到十分高兴。', '习近平强调，2017年是党和国家发展进程中具有里程碑意义的一年，也是多党合作事业取得重大成就的一年。各民主党派、工商联和无党派人士维护中共中央权威和集中统一领导，在凝心聚力、服务大局上取得了重大成就。大家围绕“深入推进‘一带一路’建设”和“大力振兴和提升实体经济”等关系国计民生的重大问题，深入考察调研，踊跃建言献策，提出意见和建议150多件，为中共中央科学决策和有效施策提供了重要参考。同志们深入开展脱贫攻坚民主监督，为打赢脱贫攻坚战作出了积极贡献。各民主党派、工商联成功召开全国代表大会，选举产生了新一届领导班子和领导机构，为多党合作事业长远发展注入了新的活力。', '习近平指出，2018年是全面贯彻中共十九大精神的开局之年，是决胜全面建成小康社会、实施“十三五”规划承上启下的关键之年。我们要坚持稳中求进工作总基调，统筹推进“五位一体”总体布局，协调推进“四个全面”战略布局，一步一个脚印，踏踏实实干好工作。我们要以全面深化改革的实际行动庆祝改革开放40周年，继续沿着改革开放的康庄大道奋勇前进。', '习近平强调，学习贯彻中共十九大精神是全党全国各族人民的首要政治任务，也是各民主党派、工商联和无党派人士的首要政治任务。希望大家认真学习贯彻中共十九大精神，学懂弄通做实，自觉把思想和行动统一到中共十九大作出的重大决策部署上来，牢固树立“四个意识”，坚定“四个自信”。要认真开展“不忘合作初心，继续携手前进”主题教育活动，组织中共中央发布“五一口号”70周年系列纪念活动，重温多党合作历史，弘扬优良传统。', '习近平指出，新时代中国特色社会主义为多党合作更好发挥作用提供了广阔舞台。希望大家把履职思路和重点统一到新时代中国特色社会主义战略部署上来，在服务大局中找准履职尽责的切入点，围绕打好防范化解重大风险、精准脱贫、污染防治的攻坚战，深入一线开展调查研究，提出真知灼见，为中共中央决策提出参考。要按照精准扶贫、精准脱贫的要求，扎实推进脱贫攻坚民主监督，为打赢脱贫攻坚战作出贡献。要引导广大成员正确认识改革发展中遇到的各种困难和问题，协助做好矛盾化解工作，为决胜全面建成小康社会营造良好社会环境。', '习近平强调，领导13亿多人的社会主义大国，中国共产党既要政治过硬，也要本领高强。执政本领建设是中国共产党自身建设的重要方面。同志们要把参政工作做好，也要不断提高本领。要加强民主党派思想、组织、制度特别是领导班子建设，建立健全民主集中制、民主生活会制度以及各项议事决策制度，增进班子成员团结，提高各级领导班子成员的政治把握能力、参政议政能力、组织领导能力、合作共事能力、解决自身问题能力，把中国特色社会主义参政党建设提高到新水平。习近平希望工商联加强自身建设，做好代表人士教育培养，更好发挥桥梁纽带和助手作用。', '座谈会后，习近平等党和国家领导人同各民主党派中央、全国工商联新老负责人和无党派人士代表等合影留念。应邀出席的还有全国政协副主席董建华、何厚铧、梁振英。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>293</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/xwzx/zwkx/zwyw/202404/t20240430_4526618.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['一以贯之抓好大保护大开放高质量发展 努力在新时代西部大开发伟大征程中谱写中卫高质量发展新篇章', '4月29日，市委常委会召开会议，传达学习习近平总书记在主持召开新时代推动西部大开发座谈会、重庆考察、视察陆军军医大学时的重要讲话精神，向中国人民解放军信息支援部队致训词和近期重要回信精神，听取2024年国家自然资源督察西安局反馈中卫市疑似问题图斑举证整改情况汇报，安排部署“五一”劳动节期间安全生产、文化旅游市场、社会稳定、值班值守等工作。市委书记张利主持会议并讲话。', '会议指出，习近平总书记在重庆主持召开新时代推动西部大开发座谈会上的重要讲话，为进一步形成大保护、大开放、高质量发展新格局指明了前进方向、提供了根本遵循。要深刻领会、准确把握习近平总书记重要讲话的精神实质、丰富内涵、核心要义，全面落实“六个坚持”重大要求，自觉将中卫工作置于全国、全区发展大局中谋划和推进，一以贯之抓好大保护、大开放、高质量发展，努力在新时代西部大开发的伟大征程中，谱写中卫高质量发展新篇章。要聚焦自治区“六新六特六优+N”产业，做大做强“四新”产业，因地制宜发展新质生产力，加快构建有特色、有效益、有竞争力的现代化产业体系。要大力实施生态立市战略，扎实开展生态建设行动，打好全域“四水四定”主动战、蓝天碧水净土保卫战、黄河“几字弯”攻坚战，以生态环境高水平保护支撑经济社会高质量发展。要积极融入共建“一带一路”，主动服务西部陆海新通道，常态化开行国际国内班列，稳定运行中卫至重点地区航线，加快提升对外开放水平。要坚持统筹发展和安全，全力抓好政治、意识形态、经济、金融、能源资源等领域安全，大力开展安全生产治本攻坚三年行动，坚决守住不发生系统性风险的底线。要坚持推进新型城镇化和乡村全面振兴有机结合，纵深推进“六大提升行动”，千方百计增加城乡居民收入。要坚持把铸牢中华民族共同体意识贯彻到发展的全过程和各方面，加快推进铸牢中华民族共同体意识示范市建设，进一步巩固发展民族和睦、宗教和顺、社会和谐的大好局面。', '会议强调，要切实增强等不起、慢不得、坐不住的责任感和紧迫感，举一反三、标本兼治，以零容忍的态度、“长牙齿”的硬措施，即知即改、立行立改，高标准高质量高效率推进问题整改，守住守好耕地保护红线和粮食安全底线。', '会议强调，要以“时时放心不下”的责任感，坚决守牢安全底线，持续提升旅游市场服务品质，全力激发假日消费活力，严格执行24小时值班值守和领导带班制度，做细做实各项服务保障工作，确保社会大局稳定、群众欢乐过节。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>293</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>习近平春节前夕赴云南看望慰问各族干部群众向全国各族人民致以美好的新春祝福祝各族人民生活越来越好祝祖国欣欣向荣</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2020-01-22</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202001/t20200122_1929942.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['习近平春节前夕赴云南看望慰问各族干部群众 向全国各族人民致以美好的新春祝福 祝各族人民生活越来越好祝祖国欣欣向荣_中卫市人民政府', '习近平春节前夕赴云南看望慰问各族干部群众 向全国各族人民致以美好的新春祝福 祝各族人民生活越来越好祝祖国欣欣向荣', '中华民族传统节日农历春节即将到来之际，中共中央总书记、国家主席、中央军委主席习近平来到云南，看望慰问各族干部群众，向全国人民致以新春祝福。', '云南大地，蓝天白云，繁花似锦，生机勃勃。1月19日至21日，习近平在云南省委书记陈豪、省长阮成发陪同下，来到腾冲、昆明等地，深入农村、古镇、生态湿地、年货市场、爱国主义教育基地考察调研，给各族干部群众送去党中央的关怀和慰问。', '保山市所辖腾冲市清水乡三家村曾是建档立卡贫困村，2017年全村已实现脱贫。19日下午，习近平来到三家村，了解脱贫攻坚情况。当地干部告诉总书记，近年来，三家村积极发展乡村旅游、种养殖业、劳务输出，完善基础设施、改善人居环境，贫困发生率从2014年的21%降至目前的0.45%。习近平对此表示肯定。他强调，全面建成小康社会，一个民族都不能少。要加快少数民族和民族地区发展，让改革发展成果更多更公平惠及各族人民。', '习近平走进三家村中寨司莫拉佤族村，了解乡村振兴和建设少数民族特色村寨情况。“司莫拉”在佤语中意为幸福的地方。该村有500多年历史，是中国传统村落、少数民族特色村寨，佤、汉、白、傣等多个民族和谐共处。', '习近平来到村民李发顺家，一一察看客厅、卧室、厨房、卫生间、猪舍等，了解居住环境。随后，习近平在院子里同李发顺一家制作当地节日传统食品大米粑粑，并聊起家常，详细询问李发顺一家脱贫情况。李发顺告诉总书记，以前因为缺少劳动力，加上两个孩子要上学，生活一度十分困难。这几年通过养猪、碾米、外出打工等，收入提高了不少，2017年已经脱贫，一家人都参加了城乡居民基本医疗保险，孩子有学上，房子干净结实，生活越过越红火。习近平听了十分高兴。他指出，乡亲们脱贫只是迈向幸福生活的第一步，是新生活、新奋斗的起点。要在全面建成小康社会基础上，大力推进乡村振兴，让幸福的佤族村更加幸福。', '温暖的阳光铺洒在广场上，村民们跳起了欢快的佤族舞蹈。按照当地风俗，习近平敲响三声佤族木鼓，祝福来年风调雨顺、国泰民安。村民们热烈鼓掌，纷纷向总书记问好。习近平给大家拜年，祝乡亲们生活越来越幸福。乡亲们唱着《阿佤人民唱新歌》，簇拥着总书记走出村口，歌声笑声在村寨久久回荡。', '随后，习近平来到和顺古镇考察调研。和顺是古代川、滇、缅、印南方陆上“丝绸之路”的必经之地，保存了比较完整的明清古建筑群。和顺自古就有崇文尚教、重视家风家训的传统，和顺图书馆是一个乡村图书馆，建馆已有90多年。习近平走进图书馆，了解古镇历史文化传承和振兴文化教育情况。他沿着和顺小巷，察看古镇风貌，了解西南丝绸古道形成发展、和顺古镇历史文化传承等情况。沿途游客和村民纷纷向总书记问好，习近平频频挥手致意，给大家拜年。', '和顺是我国著名哲学家艾思奇的故乡。习近平来到古镇深处的艾思奇纪念馆，了解艾思奇毕生致力于马克思主义哲学研究和宣传、推动马克思主义哲学大众化中国化的事迹。习近平指出，艾思奇同志是党的优秀理论家和杰出理论工作者，他倡导的思想与时代相结合、理论与实际相结合、哲学与人民相结合的精神，要继续发扬光大。新时代坚持和发展中国特色社会主义，需要大批能把马克思主义中国化讲好的人才，讲人民群众听得懂、听得进的话语，让党的创新理论“飞入寻常百姓家”。', '20日，习近平前往昆明考察调研。当天下午，他首先来到滇池星海半岛生态湿地，听取云南省和昆明市加强生态环境保护、筑牢西南生态安全屏障总体情况汇报，察看滇池、抚仙湖、洱海水样和滇池生物多样性展示。滇池生态环境一度遭到破坏，成为我国污染最严重的湖泊之一，经过多年不懈治理，生态环境大为改善。习近平详细询问滇池保护治理和水质改善情况。他强调，党的十八大以来，我们提出的生态文明理念深入人心。这个理念符合人类社会发展规律，顺应人民群众对美好生活的期盼。推动经济高质量发展，决不能再走先污染后治理的老路。只要坚持生态优先、绿色发展，锲而不舍，久久为功，就一定能把绿水青山变成金山银山。习近平指出，云南生态地位重要，有自己的优势，关键是要履行好保护的职责。滇池是镶嵌在昆明的一颗宝石，要拿出咬定青山不放松的劲头，按照山水林田湖草是一个生命共同体的理念，加强综合治理、系统治理、源头治理，再接再厉，把滇池治理工作做得更好。', '昆明国际会展中心正在举办第十四届昆明新春购物博览会。习近平来到这里，视察博览会年货街。货架上，农副产品一应俱全，节日民俗用品年味十足，少数民族和周边国家特色产品琳琅满目……习近平走到摊位前，商家、顾客围拢上来，争相向总书记问好。', '习近平仔细询问春节前市场供应情况。他表示，从过去物资稀缺到今天物产丰富，我们国家发生了翻天覆地的变化，人民生活连年改善。“菜篮子”、“米袋子”、“果盘子”，都是事关民生的大事。有关部门要做好工作，确保节日期间市场供应充裕，质量安全可靠，让群众过一个安定祥和的春节。', '展厅外广场上挤满了前来置办年货的群众。看到总书记来了，大家围拢上来，齐声欢呼“习主席好”。习近平同大家亲切握手，向云南群众、向全国各族人民、向港澳台同胞和海外侨胞致以新春祝福，祝福大家新的一年里身体健康、阖家幸福、和气致祥、事业进步，祝愿各族人民安心、顺心、开心，生活越来越好，祝愿伟大祖国欣欣向荣。', '离开会展中心，习近平乘车前往位于云南师范大学校园内的国立西南联合大学旧址考察调研。1937年全面抗战爆发后，北大、清华、南开三校被迫南迁，几经辗转安顿在昆明。在昆8年，西南联大广大师生遵循刚毅坚卓的校训，满怀科学救国的理想，同舟共济、同仇敌忾，抗战中大批学生投笔从戎、效命疆场，抗战胜利后联大师生积极参加反内战民主运动，谱写了可歌可泣的爱国主义篇章。', '习近平沿途察看“一二·一”运动纪念广场、西南联大原教室、革命烈士纪念碑、西南联大纪念碑等标志性建筑。他走进西南联大博物馆参观，详细了解西南联大在抗战艰苦条件下赓续中华民族文化血脉、为国家培养人才的历史。他强调，教育同国家前途命运紧密相连。我们教育的目的就是培养社会主义建设者和接班人。要坚持正确办学方向，落实党的教育方针，加强高素质教师队伍建设，培养有历史感责任感、志存高远的时代新人，为实现中华民族伟大复兴提供有力人才支撑。在博物馆门前，习近平同云南师范大学教职员工、寒假留校实践的大学生志愿者代表、博物馆工作人员一一握手，并向师生员工们致以新春的问候。', '21日上午，习近平听取了云南省委和省政府工作汇报，对云南各项工作取得的成绩给予肯定，希望云南正确认识和把握在全国发展大局中的地位和作用，坚决贯彻党中央重大决策部署，统筹推进稳增长、促改革、调结构、惠民生、防风险、保稳定工作，努力在建设我国民族团结进步示范区、生态文明建设排头兵、面向南亚东南亚辐射中心上不断取得新进展，谱写好中国梦的云南篇章。', '习近平指出，新时代抓发展，必须坚定不移贯彻创新、协调、绿色、开放、共享的新发展理念，推动经济高质量发展。要树立正确政绩观，处理好稳和进、立和破、虚和实、标和本、近和远的关系，坚持底线思维，强化风险意识，自觉把新发展理念贯穿到经济社会发展全过程。要加快建设现代化经济体系，把握供给侧结构性改革这条主线，健全推动发展先进制造业、振兴实体经济的体制机制，推动传统制造业优化升级，加快发展新兴产业，推进基础设施建设，抓好农业生产，着力巩固脱贫攻坚成果，深入做好易地搬迁工作，推动形成主体功能明显、优势互补、高质量发展的区域经济布局。要巩固依法整治旅游市场乱象的成果，推动旅游产业持续健康发展。要树牢绿水青山就是金山银山的理念，驰而不息打好蓝天、碧水、净土三大保卫战。要主动服务和融入国家重大发展战略，以大开放促进大发展，加快同周边国家互联互通国际大通道建设步伐。要加强同周边国家文化交流工作，促进民心相通。', '习近平强调，要认真贯彻落实党的十九届四中全会精神，确保支撑中国特色社会主义制度的根本制度、基本制度、重要制度在云南得到坚决贯彻落实，不断增强边疆民族地区治理能力。要始终坚持党的领导，完善党的领导制度，纵向要到底，横向要到边。要坚持走中国特色解决民族问题的正确道路，全面深入持久开展民族团结进步创建，打牢中华民族共同体思想基础。要深入贯彻党的宗教工作基本方针，坚持我国宗教的中国化方向。要实施好促进民族地区和人口较少民族发展、兴边富民行动等规划，不断提高各族群众生活水平。要坚持和发展“枫桥经验”，深入开展扫黑除恶行动，加大对涉毒、涉恐、走私、诈骗、偷越边境、越境赌博等跨境违法犯罪的打击力度，坚决打掉背后的黑势力和“保护伞”。要健全强边固防工作机制，切实维护边疆稳固。', '习近平指出，要坚持以人民为中心的发展思想，全面落实党中央各项惠民政策，抓住人民群众最关心最直接最现实的利益问题，全力做好普惠性、基础性、兜底性民生建设，让各族群众有更多获得感、幸福感、安全感。要决战脱贫攻坚，聚焦深度贫困地区，聚焦工作难度大的县乡村，按照“五个一批”的办法，强化分类施策、挂牌督战，着力攻克最后的堡垒，牢牢把握“两不愁三保障”基本标准，严格验收。要防止因后续政策支持不足返贫或因病因伤返贫。要坚持“富脑袋”和“富口袋”并重，加强扶贫同扶志扶智相结合，加强开发式扶贫同保障性扶贫相衔接。', '习近平强调，主题教育有期限，践行初心无穷期。要推动广大党员、干部继续努力，真正使“不忘初心、牢记使命”成为加强党的建设永恒课题和全体党员、干部终身课题，激发奋进新时代的力量。要学习党史、新中国史，懂得党的初心和使命之可贵，理解坚守党的初心和使命之重要。云南有光荣的革命传统，有很多感人肺腑的动人故事。要把这些故事作为“不忘初心、牢记使命”教育的生动教材，引导广大党员、干部不断检视初心、滋养初心，不断锤炼忠诚干净担当的政治品格。要解放思想、与时俱进，用新发展理念破除老观念，用高质量发展开创新局面。要培育积极健康的党内政治文化，涵养风清气正的政治生态。要深入开展反腐倡廉警示教育，举一反三，防微杜渐，避免重蹈覆辙。要强化权力制约监督，加强各方面监督。领导干部要加强自我约束，坚决反对特权思想，教育管理好配偶和亲属。要坚持好干部标准，树立鲜明用人导向。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>293</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>沙漠水城共话全域旅游</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2016-09-18</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201609/t20160918_597290.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['9月10日上午，第二届全国全域旅游推进会在我市隆重召开，来自全国31个省、市、自治区及新疆生产建设兵团的近350名代表，来到美丽的沙漠水城中卫，对中卫旅游的创新发展、全域发展给予支持和关心。代表们先后考察了沙坡头旅游新镇、沙坡头旅游景区、宁夏中关村科技产业园·云天产业园等地，对我市全域旅游工作推进情况进行观摩。', '中卫位于宁夏回族自治区中西部，旅游资源得天独厚，共有景区22个。近年来，我市提出旅游优先发展战略，深度挖掘旅游资源，引入中国旅游集团进行战略合作，推动了沙漠、黄河、湿地、草原、山地和城市休闲六大旅游板块协同发展，形成了禀赋独特、要素齐全的旅游资源体系。中卫作为首批国家和自治区全域旅游示范单位，早在今年年初，便将打造“全域旅游”写进了十三五规划。按照自治区的战略部署，我市率先启动全域旅游创建工作，并编制完成了《中卫市全域旅游发展三年行动规划》，确立了“一个目标、一个空间布局、两个战略转变和实施八大工程”的总体工作思路，力争到2018年，全市接待游客800万人次，旅游收入占GDP10%以上。', '沙坡头旅游新镇是此次观摩中的一个亮点，它是沙坡头景区提质扩容、中卫实施“旅游优先发展”战略和实现“随意开发向规划引导转变、资源战略向品牌战略转变、景区时代向目的地时代转变、特色产业向支柱产业转变”的标志性工程。旅游新镇是沙坡头景区的东大门，是游客的集散地，也是来宁游客西进东出的重要门户，对于推动中卫旅游产业转型升级具有重要意义，必将成为中卫全域旅游放大放射的圆点和旅游产业发展的新引擎。', '参观过程中，与会代表与工作人员进行了交流，详细询问了相关情况。代表们对中卫全域旅游的做法赞不绝口。他们认为，中卫市委、市政府高度重视创建全域旅游示范市工作，思路清晰、定位准确、理念超前，开启“全域旅游”，打造“全景中卫”，把旅游业发展成中卫的支柱产业、富民产业和幸福产业的做法值得赞许和借鉴。', '参观完沙坡头旅游新镇，与会代表乘坐大巴，沿沙坡头大道，前往沙坡头旅游景区。沿途的美景令人陶醉，浩瀚无垠的腾格里大沙漠、蕴灵孕秀的黄河、横亘南岸的香山在这里交融，沙为河谷，河为沙魂，既具西北风光之雄奇，又兼江南景色之秀美。黄河与沙漠、沙漠与绿洲、人与自然亘古千年和谐相处的绝版美景，令前来观摩的代表们为之震惊，由衷感慨中卫独特的旅游资源。', '代表黄山对此次观摩感触很深。他说：“中卫的旅游格局做得很好，能从全域旅游的战略高度出发，总体规划非常不错。中卫全域旅游的框架已经布局好了，如果将框架内的设施进一步景观化、艺术化，再结合中卫的本土特色，赋予更多的文化内涵，就能够区别于其他地方的旅游景点，在全国全域旅游大格局中站稳脚跟。”', '在宁夏中关村科技产业园·云天产业园，代表们详细了解我市依靠云计算推动智慧旅游建设的情况，大家一直认为，中卫虽然年轻，但发展思路十分清晰，充满生机与活力。尤其在创建全域旅游城市、打造国际云端城市方面，中卫结合自身独特的区位优势，抢抓国家发展先机，高起点运作，思维超前，值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>293</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>亲历其中见证变迁</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2016-08-24</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201608/t20160824_597217.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['随着一块块绿色防护网的陆续拆除，市区高庙鼓楼四周建筑物揭开了神秘面纱，灰墙灰瓦、飞檐挑角、额枋红柱，古建风格浓郁，别有一番韵味。', '历时4个多月，中卫高庙历史文化街区改造项目取得了阶段性成果，塞上古城风貌尽显，繁华街区焕然一新的靓丽容颜得到了市民的广泛赞誉。这其中，凝聚了太多人的艰辛努力和付出。', '王再龙是市规划管理局的一名普通工作人员，他在改造项目中担任协调小组负责人，他的工作就是和小组成员及时排除解决施工过程中出现的各种矛盾和问题。每天早晨7时40分，王再龙准时到达项目指挥部，等其他人到齐后，就开始到施工现场巡查。王再龙告诉记者，他们每天至少在各标段工地巡查6个小时，有时甚至要走一整天，晚上加班也是家常便饭。', '8月17日上午，记者随王再龙一行到现场巡查。“老王，这个地方不能堆放这些，赶紧找人清理掉。”“好的，马上清，您下午再来检查，保证清理掉。”刚走出不远，看到一个施工点建筑垃圾乱堆，王再龙立即要求道。“每天都有新问题出现，比如设计图纸和现场实际不符，施工方和商户无法达成一致，安全施工和环境卫生等。”一路走一路看，发现问题，随时解决。', '王再龙回忆说：“让大家感到最困难的时候是项目全面开工初期那段时间。“事情很多，特别是前期协调工作很难开展，很多单位、商户都不配合、不支持，甚至阻挠工程。我们组织了4次大范围的动员宣传，各小组成员拿着效果图一趟又一趟地上门做思想工作，直到取得对方的理解和配合。还有就是前期动工时，地下管线相互盘绕，牵扯到电力、天然气、供排水、电信、移动等9家单位。怎么办呢？每一个标段开工前，我们就集中这9家管线单位负责人到现场勘查并标明每条线路的接点位置，指明管线的关键部位。”王再龙说：“市上盯得紧，压力很大。那段时间，大家的心都是悬着的，每天24小时随时待命，哪里出现问题，必须立即赶往现场解决，工期赶得很紧。”', '现在对王再龙来说，困难时期已经过去了，目前工程已经完成大半，他也从一个对仿古建筑啥也不懂的“门外汉”，通过外出考察、上网学习，加上边干边研究琢磨，到如今已基本掌握相关专业知识，很多事情处理起来得心应手。王再龙说：“随着施工推进，会不断地发现设计上的不足，施工图纸也跟着不停调整，大大小小的修改足有几百次吧。”', '目前几个标段都陆续进入后期彩绘阶段，王再龙和工人们结合中卫自然、历史、人文、旅游等地方特色，光一个额枋就设计了20余种花样。“现在不少建筑单体整体效果已经出来了，市民都挺满意，也得到了相关领导的肯定，这就是我们工作的最大动力。”王再龙笑着说，有了大家的认可，他们所经历的困难，都值了。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>293</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>瞭望周刊年度重点选题研讨会在卫召开</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2015-05-26</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201505/t20150526_595950.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['5月23日，新华社《瞭望》周刊2015年度重点选题研讨会在我市召开，来自新华社全国31个分社的采编骨干齐聚一堂，共同研讨今年的重点选题。市委书记张柱在致词中用“四张名片”介绍中卫，并希望《瞭望》周刊给予中卫更多关注。市委常委、宣传部部长陶雨芳出席会议。', '《瞭望》周刊是邓小平同志亲自批准的新中国最早的大型时事政经新闻周刊，由新华通讯社主办。', '为发展献策方面所产生的巨大作用。他用“四张名片”向与会来宾介绍中卫，中卫是一个年轻的地级市，是一座文化旅游名城，是一座交通枢纽重城，是一座生态宜居靓城，是一座特色产业新城，但也正因为年轻而充满活力与后劲，也因为年轻而需要更多的关心和支持，特别是需要像《瞭望》周刊这样的权威媒体给予我们更多的关注。真诚希望各位新华人能够在学习研讨之余，深入考察了解中卫经济社会、地域资源、人文风貌等各方面的情况，指导帮助中卫进一步开阔眼界、拓展思路、找准方向，提升知名度和影响力，不断推动中卫经济社会各项事业发展上台阶。', '研讨会上，新华社各分社及《瞭望》周刊相关负责人分别结合各省、市、自治区的发展实际，提出各自的年度重点报道选题，并对《瞭望》周刊今后如何进一步强化调研报道，提升报道品质和影响力积极献言献策。', '市生态文明建设、城市管理、文化产业发展及新能源产业发展等进行了调研。市委常委、宣传部部长陶雨芳陪同调研。', '调研组一行先后到沙坡头旅游景区、龙湖生态移民区鸣沙村、沙漠光伏产业园、市区五馆一中心等地实地调研。在龙湖生态移民区鸣沙村，调研组人员走进移民家中了解移民的生产生活情况；在市区五馆一中心东侧入口处，调研组现场观摩了环卫工人演示“以克论净”深度清洁模式，详细了解其运行情况和取得的效果。大家纷纷表示，此次调研给他们带来了不一样的感受，中卫城市不但美丽，而且极具发展潜力，相信中卫在其独特魅力下一定会发展得更好。', '新华社《瞭望》周刊执行总编辑胡俊凯说：“这次来中卫开会，大家普遍都有一种感受，就是原来都觉得中卫是一个西北城市，靠近大沙漠，非常干旱。来了之后发现完全不是我们想象的那样，中卫非常漂亮，是一个沙漠水城，这里的文化底蕴非常深厚，是黄河文化、沙漠文', '化、长城文化、边塞文化交会的地方。我们参观很多景观的时候，都能够感受到这些文化所展现出来的魅力。”']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>293</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>西部十二省区市召开陆海新通道共建工作推进会共谋差异化发展合作之路</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2019-08-05</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/skahtzcjbgs/fdzdgknr_50380/bmxx_50410/201908/t20190805_1646792.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['西部十二省区市召开“陆海新通道”共建工作推进会共谋差异化发展合作之路_中卫市人民政府', '7月12日，“陆海新通道” 西部省区市共建工作推进会在钦州市召开，广西、重庆、贵州等西部12省区市齐聚钦州，共谋通道发展大计。商务部亚洲司商务参赞刘军，钦州市委书记、市人大常委会主任王革冰出席会议并讲话。本次会议由重庆市政府口岸和物流办、广西壮族自治区商务厅共同主办，重庆、广西、贵州、甘肃、青海、四川、西藏、内蒙古、新疆、云南、宁夏、陕西共12个省区市的陆海新通道牵头部门负责人及运营企业代表出席了会议，宁夏商务厅口岸管理处、银川公路铁路运输物流服务中心、市口岸和投资促进办公室相关负责人应邀参加了此次会议。', '会上，各与会省区市相互通报了陆海新通道建设及下一步工作重点，广西北港物流公司、中新物流行通道（重交）物流公司、渝新欧物流公司等十余家企业代表做了物流发言，共同研究讨论了2019-2020年陆海新通道重点工作任务计划及有关政策事项。今年以来，陆海新通道铁海联运主干线继续实现高速增长，增幅在我国沿海主要港口中继续排名前列。', '商务部亚洲司商务参赞刘军希望西部各省区市统一思想，提高认识，积极参与通道建设，做到总体推进、协同联动、共建共享，以此次会议为契机，全面梳理出项目后续推进的政策需求清单，在政策的创新、复制、推广上下功夫，拓展合作领域，加大推介力度，全力促进通道发展壮大。', '宁夏商务厅口岸管理处处长陈崇军代表宁夏回族自治区做了交流发言。表示召开此次会议意义重大，不但为大家提供了交流、学习、借鉴的平台，也为宁夏充分发挥丝绸之路经济带战略支点作用，参与陆海新通道建设，提高外向型经济发展水平提供了重要机遇。他指出：近年来，宁夏回族自治区抢抓国家深入实施“一带一路”倡议和西部大开发的历史性机遇，充分发挥地处雅布赖国际航路和陇海线以北、京包—临（河）哈（密）线以南的西向低成本通道优势，先后开通了宁夏至中亚、银川至德黑兰、宁夏—蒙古—俄罗斯国际货运班列，正在布局完善至天津、青岛等沿海港口的铁海联运通道，为宁夏利用陆海贸易新通道，进一步扩大与东盟各国的合作奠定了重要基础，提供了广阔空间。', '我办主任李崇新在会上代表地级市政府口岸物流部门做了发言，对中卫的区位优势、产业优势、开行班列情况做了介绍，重点介绍了天元锰业、宁钢集团进出口外贸情况及与各大港口合作的情况，表达了中卫市与钦州港、重庆口岸办及各物流公司坚强交流合作的愿望，希望共同合作发展“飞地物流”、错位发展，实现共建共赢共享。积极融入“陆海新通道”，加强定期交流合作，同时希望钦州港能大力支持中卫市企业，在申报、查验、装卸、运费等方面给与支持，真正实现降低物流成本，加强两地外向型经济合作发展，为陆海新通道贡献力量。', '会议期间，西部各省区市参会代表还考察了钦州保税港区、钦州保税港集装箱码头、钦州铁路集装箱中心站、中马钦州产业园。', '同时，提出了建议：一是建立“陆海新通道”12省区市共建常态化联席会议机制，以解决沟通不畅，分工协作不够等问题；二是强化交流培训、分期分批组织政府部门、企业、园区工作人员开展集中培训、解读政策、学习政策、交流经验，以解决政策了解不够、吃得不透，用的不熟等问题；三是建立区域建协同机制。协调区域口岸办、铁流公司、物流公司（园区）、班列公司、外贸公司合作共建，实现资源、信息共享，错位发展。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>293</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>梁言顺在黄河黑山峡河段调研时强调抓住历史机遇实施好基础设施重大项目加快黄河流域生态保护和高质量发展先行区建设</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/202205/t20220530_3526564.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['梁言顺在黄河黑山峡河段调研时强调 抓住历史机遇实施好基础设施重大项目 加快黄河流域生态保护和高质量发展先行区建设_中卫市人民政府', '梁言顺在黄河黑山峡河段调研时强调 抓住历史机遇实施好基础设施重大项目 加快黄河流域生态保护和高质量发展先行区建设', '5月27日至28日，自治区党委书记、人大常委会主任梁言顺到中卫市调研黄河流域生态保护和高质量发展先行区建设情况，强调要深入学习贯彻习近平总书记关于黄河流域生态保护和高质量发展的重要指示精神，抢抓难得历史机遇，加快先行区建设，谋划实施一批重大水利、产业升级等基础设施项目，共同保护黄河安澜健康，让黄河成为造福人民的幸福河。自治区领导崔波、雷东生、王道席参加调研。', '黄河黑山峡河段是黄河上游治水调沙的重要节点，以习近平同志为核心的党中央高度重视该河段的保护治理和开发。梁言顺从沙坡头区迎水桥镇北长滩村乘船，沿着黑山峡河段考察黄河水情、河道治理、生态保护等情况，对着地图，一边看、一边听水利部门负责同志详细介绍黑山峡河段开发研究论证、前期工作进展。他说，习近平总书记对黄河保护治理看得很重，将黄河流域生态保护和高质量发展上升为国家战略来抓，赋予我们宁夏建设先行区的使命任务。黄河黑山峡河段水利资源太宝贵了，这是大自然对沿岸人民的恩赐，实施好重大基础设施建设，对协调黄河水沙关系、提高宁蒙河段防洪防凌能力、优化流域水资源配置、改善区域生态环境、助力实施“双碳”战略等，功在当代、利在千秋。我们宁夏要有大局观念和政治担当，坚决贯彻落实党中央的决策部署，抓住难得的历史机遇，在已有良好的工作基础上，全力争取各方支持，加快推动重大基础设施建设，共同做好河道治理、生态保护，精心呵护黄河安澜健康，让黄河更好地惠及沿岸百姓。', '地处腾格里沙漠南缘的中卫市沙漠光伏产业园，连绵起伏的黄色沙丘被一片片光伏板覆盖，变成了蓝色的“海洋”。梁言顺对中卫市抢抓国家政策机遇、加快新能源产业发展的做法给予肯定。他说，利用沙漠荒地开发光伏产业，既治理了沙漠，又保护了生态，还能创造经济效益，是一举多得的好事，要充分利用沙漠光热资源优势，加快实施新能源产业项目，带动能源替代升级，推动绿色低碳发展，实现生态效益、经济效益和社会效益最大化。', '防沙治沙是全球性难题，中卫人民在实践中创造了“麦草方格”治沙法，把沙海变成了绿洲。梁言顺来到沙坡头防沙治沙区，了解沙漠治理新模式新成效，和工作人员一起扎麦草方格。得知中卫治沙成果被联合国环境规划署授予“全球环境保护500佳”称号、“麦草方格”治沙法荣获国家科技进步特等奖，梁言顺竖起大拇指，他说，这两个奖项是一代代治沙人智慧和勤劳的集中体现，非常了不起，向你们致敬。梁言顺还到中卫腾格里金沙岛旅游度假区，实地了解生态环境保护整改情况，看到整改后的金沙岛草木葱郁、群鸟翔集，他叮嘱相关负责人，要进一步落实好生态保护修复责任，再不能做破坏生态换取发展的事，切实巩固好来之不易的绿水青山。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>293</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>中卫市教育局年政府开放日活动实施方案</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sjyj/fdzdgknr_49236/zfkfr_49262/hdfa_49263/202309/t20230903_4247644.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['为全面贯彻落实党的二十大精神，深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，切实推进阳光、透明、开放、服务型机关建设，增进政府部门与群众之间的沟通联系，保障人民群众的知情权、表达权、参与权和监督权，展示教育政务服务工作成效，根据《市人民政府办公室关于认真做好2023年“政府开放日”活动的通知》要求，结合教育实际，特制定本方案。', '坚持提高政务公开质量，聚焦公众需求，围绕市委、市政府中心工作，通过开展“政府开放日”活动，拉近与群众间的距离，搭建沟通桥梁，以互动的形式，广泛听取公众意见，接受公众监督，展示亲民、为民、务实、高效的机关形象，打通机关联系服务群众的“最后一公里”。', '市教育局领导班子成员、机关各科室（中心）负责人；邀请教职工、离退休干部以及服务对象，主要包括校（园）长、教师、退休干部、家长代表和市直有关部门（单位）代表、新闻记者等，共计45人左右。', '（一）把人民群众请进机关。邀请代表走进机关科室、工作现场、列席会议，通过座谈问答、线上线下问卷调查、体验办公流程、亲历操作过程等环节，了解市教育局办事服务流程。', '进科室。参观机关运转情况，查看办会场所、会议组织等具体事宜。进现场。了解助学贷款办理、困难学生资助、学籍管理等具体事宜。进会议。列席党组会、局务会等，增强行政决策透明度，增进人民群众对教育工作的认同和支持。', '（二）把人民群众请进校园。邀请代表走进校园、走进课堂，通过观摩、听课、座谈交流等形式，介绍和展示学校的教育教学和创新成果等情况，让家长深入了解学校的教育教学管理和学生在校的学习生活，进一步加强家校之间合作交流。', '拟定于2023年9月21日（星期四）14：30开展活动，时间为半天。围绕落实市委、市政府中心工作和重要决策部署，结合教育工作重点、规范办学行为、落实惠民政策，向与会同志介绍教育工作情况。', '3.听取社会各界代表对教育工作的意见建议，班子成员及各科室（中心）负责人就与会人员提出的相关问题进行现场解答。', '（一）高度重视，加强领导。“政府开放日”活动对促进政民互动、推进行政权力公开透明运行、提高群众对教育工作的满意度具有重要意义。各学校（幼儿园）要高度重视，根据学校实际情况制定切实可行的实施方案，明确时间安排、参加人员、活动方式等内容。', '（二）及时反馈，务求实效。根据相关要求，及时做好群众、家长代表意见、建议的办理反馈工作。活动结束后2天内，要根据代表所提意见、建议，专题研究解决问题的意见和措施，制定问题整改清单，切实加以整改。', '（三）精心组织，广泛宣传。开放日活动前7天，充分利用网站、公众号等媒体，通过发布公告及告家长书等形式邀请群众、家长代表参与“政府开放日”活动。', '（四）认真总结，形成机制。各学校（幼儿园）、各科室（中心）要及时总结活动过程中的好经验、好做法，分析存在的不足和原因，将活动开展有关资料和代表意见建议办理反馈情况于9月30日前报送市教育局308室。']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>293</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>李邑飞调研黄河流域生态保护和高质量发展先行区建设</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2024-07-05</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/xwzx/zwkx/zwyw/202407/t20240705_4587207.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['7月2日至3日，自治区党委书记李邑飞深入中卫市、吴忠市、银川市，沿黄河而下实地察看，专题调研黄河流域生态保护和高质量发展先行区建设推进情况，强调要深入学习贯彻习近平生态文明思想和总书记考察宁夏重要讲话精神，以总书记深厚大江大河情怀为鞭策，统筹推进高质量发展和高水平保护，找准牵一发而动全身的主要矛盾和关键问题，精准发力、精耕细作，动员各方力量保护黄河母亲河，打赢打好黄河“几字弯”宁夏攻坚战，推进先行区建设取得新突破、再上新台阶。', '李邑飞从沙坡头区迎水桥镇北长滩村乘船，沿黑山峡河段察看黄河水情和水利枢纽工程规划情况，到清水河入黄口调研入黄水质监测及综合防治工作，前往宁夏水利博览馆、青铜峡市黄河大峡谷、黄河古城湾砌护段和仁存渡段、银川黄河湿地公园，了解宁夏引黄灌溉史、牛首山抽水蓄能电站建设及黄河堤防建设、河道治理、湿地保护等情况，督办黄河流域生态环境警示片披露问题整改。他说，保护和治理黄河功在当代、利在千秋。要全力争取国家层面支持，充分调动各方面力量，加强研究论证、方案比选，抓紧推进重大水利枢纽工程等基础设施建设。要严格落实黄河保护治理刚性要求，查漏补缺、精准施策，协调水沙关系，加强水土保持，一体推进黄河水质及入河泥沙监测、岸线堤坝防护、河道治理疏浚、干支流污染源管控等工作，加快重点项目工程建设，坚决抓好黄河警示片披露问题整改整治，守好用好有限的水资源，确保黄河安澜健康。', '在腾格里沙漠锁边固沙示范点、中卫光伏大基地、灵武市白芨滩防沙林场马鞍山造林基地，李邑飞察看荒漠化治理、沙漠资源利用和光伏产业发展等情况，与治沙英雄王有德、治沙团队、企业负责人深入交流，感谢他们为宁夏防沙治沙事业作出的特殊贡献，勉励大家接续奋斗，共同建设绿色家园。他指出，要既防沙之害、又用沙之利，推广草方格固沙等成功经验，探索林光互补一体化等模式，统筹推进森林、草原、湿地、荒漠保护修复和盐碱地综合治理，打赢打好黄河“几字弯”宁夏攻坚战。要算好资源账、产能账、成本账、收益账，用好荒漠稀缺资源，优化配置风光电、大数据等宝贵资源，鼓励支持区属国有企业积极参与新能源产业开发利用，与央企、民企在走出去和请进来中深化技术、资金、人才合作，带动特色优势产业发展壮大、国有经济做优做强做大，更好支撑全区高质量发展。', '调研中，李邑飞一路走一路看，与相关部门、市县、企业负责人一起“精打细算”，在基层一线发现问题，共同研究推动黄河保护治理的有效途径和办法。他强调，总书记对大江大河保护治理牵挂在心、深谋远虑，把黄河流域生态保护和高质量发展上升为国家战略，赋予宁夏建设先行区的使命任务。要牢记总书记殷切嘱托，树立大局观念、强化政治担当，坚持全流域一盘棋，统筹推进高质量发展和高水平保护，咬定目标、脚踏实地，埋头苦干、久久为功，推动先行区建设取得新突破。要坚持问题导向、系统观念，对环境容量、资源家底、产业现状心中有数，顺藤摸瓜找准牵一发而动全身的痛点和根子问题，理清思路、对症下药，在解决现有问题基础上，着眼长远科学规划，谋深谋准谋实推进先行区建设的有效举措。要因地因情分类施策，走特色化、差异化的产业发展路子，发挥国资国企在全区经济社会发展中的重要作用，积极探索各类市场主体互利合作共赢新模式，让有限资源发挥最大效益。要坚持守正创新、笃行实干，保护好、调动好、激发好各级干部的积极性，鼓足精气神、展现新作为，一件接着一件抓、上下同心一起干，共同把美丽新宁夏的宏伟蓝图变成美好实景。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>293</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>习近平在陕西考察时强调扎实做好六稳工作落实六保任务奋力谱写陕西新时代追赶超越新篇章</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2020-04-24</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202004/t20200424_2045672.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['习近平在陕西考察时强调 扎实做好“六稳”工作落实“六保”任务 奋力谱写陕西新时代追赶超越新篇章_中卫市人民政府', '习近平在陕西考察时强调 扎实做好“六稳”工作落实“六保”任务 奋力谱写陕西新时代追赶超越新篇章', '中共中央总书记、国家主席、中央军委主席习近平近日在陕西考察时强调，要全面落实党中央决策部署，坚持稳中求进工作总基调，坚持新发展理念，扎实做好稳就业、稳金融、稳外贸、稳外资、稳投资、稳预期工作，全面落实保居民就业、保基本民生、保市场主体、保粮食能源安全、保产业链供应链稳定、保基层运转任务，努力克服新冠肺炎疫情带来的不利影响，确保完成决战决胜脱贫攻坚目标任务，全面建成小康社会，奋力谱写陕西新时代追赶超越新篇章。', '四月的三秦大地，到处春意盎然。4月20日至23日，习近平在陕西省委书记胡和平和省长刘国中陪同下，先后来到商洛、安康、西安等地，深入自然保护区、贫困山区、社区、学校、企业等，了解秦岭生态环境保护、脱贫攻坚、复工复产等情况，就统筹推进新冠肺炎疫情防控和经济社会发展工作、打赢脱贫攻坚战进行调研，看望慰问干部群众。', '秦岭山脉是我国重要的生态安全屏障。党的十八大以来，习近平总书记多次就查处秦岭北麓西安境内违建别墅问题、加强秦岭生态保护作出重要指示批示。20日下午，习近平抵达商洛市柞水县，首先来到位于秦岭山脉东段的牛背梁国家级自然保护区，步行进入羚牛谷察看自然生态，称赞这里是“养在深闺人未识的天然氧吧”。', '随后，习近平乘车来到海拔1700米的月亮垭，远眺秦岭牛背梁主峰，听取陕西省吸取秦岭北麓违建别墅问题教训、抓好生态保护等工作汇报。习近平强调，秦岭和合南北、泽被天下，是我国的中央水塔，是中华民族的祖脉和中华文化的重要象征。保护好秦岭生态环境，对确保中华民族长盛不衰、实现“两个一百年”奋斗目标、实现可持续发展具有十分重大而深远的意义。陕西要深刻吸取秦岭违建别墅问题的教训，痛定思痛，警钟长鸣，以对党、对历史、对人民高度负责的精神，以功成不必在我的胸怀，把秦岭生态环境保护和修复工作摆上重要位置，履行好职责，当好秦岭生态卫士，决不能重蹈覆辙，决不能在历史上留下骂名。要自觉讲政治，对国之大者要心中有数，关注党中央在关心什么、强调什么，深刻领会什么是党和国家最重要的利益、什么是最需要坚定维护的立场，切实把增强“四个意识”、坚定“四个自信”、做到“两个维护”落到行动上，不能只停留在口号上。', '离开保护区，沿着陡峭的山路，习近平乘车前往柞水县小岭镇金米村考察脱贫攻坚情况。金米村位于秦岭深处，曾经是极度贫困村，近年来通过发展木耳、中药材、旅游等产业实现了整村脱贫。习近平步行察看村容村貌，走进村培训中心、智能联栋木耳大棚，了解木耳品种和种植流程，询问木耳价格、销路和村民收入等，夸奖他们把小木耳办成了大产业。习近平指出，发展扶贫产业，重在群众受益，难在持续稳定。要延伸产业链条，提高抗风险能力，建立更加稳定的利益联结机制，确保贫困群众持续稳定增收。脱贫摘帽不是终点，而是新生活、新奋斗的起点。接下来要做好乡村振兴这篇大文章，推动乡村产业、人才、文化、生态、组织等全面振兴。', '安康市地处秦巴山区集中连片特困地区的核心区。21日上午，习近平来到安康市平利县老县镇锦屏社区。锦屏社区累计安置搬迁贫困群众1346户4173人。习近平实地察看了社区电子加工厂、毛绒玩具厂、服饰公司产品展示厅，对当地“山上兴产业，山下建社区，社区办工厂”的发展思路给予肯定，勉励企业努力克服疫情带来的不利影响，积极拓展国内市场。习近平强调，今年是脱贫攻坚决战决胜之年，解决好贫困群众就业问题非常重要。各级党委和政府要加大扶持力度，通过各种方法保障贫困群众就业。镇上的群众听说总书记来了，纷纷来到街上，高声向总书记问好。习近平祝乡亲们幸福安康！', '在搬迁户汪显平家，习近平同一家老少围坐在一起拉家常。汪显平告诉总书记，以前在山里，住的是土房，走的是山路，干啥都不方便，搬到社区后，一家人住进了三室两厅的楼房，夫妻两人就近务工，还能照顾老人，过上了过去做梦都想不到的好日子。习近平听了十分高兴。他强调，易地搬迁是解决一方水土养不好一方人、实现贫困群众跨越式发展的根本途径，也是打赢脱贫攻坚战的重要途径。搬得出的问题基本解决后，后续扶持最关键的是就业。乐业才能安居。解决好就业问题，才能确保搬迁群众稳得住、逐步能致富，防止返贫。易地搬迁群众来自四面八方，加强社区建设很重要。基层党组织要发挥领导核心作用，把社区管理和服务工作抓好，求真务实，让人民群众获得实实在在的好处。', '随后，习近平来到老县镇卫生院，了解基层卫生防疫、医疗保障工作，并向坚守在基层防疫抗疫一线广大医务人员表示亲切慰问。习近平指出，要加快补齐公共卫生服务短板，加强农村、社区等基层疫情防控能力建设，把各项防控措施常态化。', '镇中心小学四至六年级学生已于4月20日开学。习近平走进教室，孩子们齐声向习爷爷问好。习近平询问孩子们学习和生活情况。他强调，要推进城乡义务教育一体化发展，缩小城乡教育资源差距，促进教育公平，切断贫困代际传递。习近平接着来到学校食堂，了解学生伙食和复学后疫情防控情况，叮嘱他们加强学校重点场所消毒，为复学复课提供安全的环境。', '位于老县镇蒋家坪村的女娲凤凰茶业现代示范园区，属于苏陕扶贫协作项目，通过“党支部+龙头企业+贫困户”的模式，带动100多户贫困户年人均增收千元以上。深山之中，春雨淅沥，云雾缭绕。习近平拾级而上，步入茶园，沿途察看春茶长势，同茶农们亲切交谈，仔细询问茶叶收成、价格和村民土地流转、参加分红、务工收入等情况。他指出，人不负青山，青山定不负人。绿水青山既是自然财富，又是经济财富。希望乡亲们坚定不移走生态优先、绿色发展之路，因茶致富、因茶兴业，脱贫奔小康。', '22日，习近平在西安考察复工复产和经济社会恢复运行等情况。陕西汽车控股集团有限公司是西北地区有影响力的制造企业。习近平详细了解产品研发、生产、销售和复工复产情况，对他们克服疫情影响创产销历史新高表示赞赏。总装车间内一片繁忙景象。习近平察看内饰生产线、总装配生产线，饶有兴致登上装配完成的民用重型卡车驾驶室，向技术人员询问产品性能和操作流程。习近平强调，制造业是国家经济命脉所系。国有大型企业要发挥主力军作用，在抓好常态化疫情防控的前提下，带动上下游产业和中小企业全面复工复产。习近平指出，新时代陕西要有勇立潮头、争当时代弄潮儿的志向和气魄，既要抓住西部大开发、共建“一带一路”等重大机遇，又要善于从眼前的危机和挑战中抢抓和创造机遇，不断发展新模式、新业态、新技术、新产品，创造新的更大业绩，迈上新的台阶。', '交大西迁博物馆坐落于西安交通大学兴庆校区。上世纪50年代，一批交大人响应党的号召，“打起背包就出发”，从上海迁至西安。博物馆二层和三层展厅，分别呈现了交大西迁的创业历程和辉煌成就。习近平仔细端详一张张照片、一件件实物。在一层大厅，习近平亲切会见14位西迁老教授，祝愿他们身体安康、家庭幸福。习近平指出，“西迁精神”的核心是爱国主义，精髓是听党指挥跟党走，与党和国家、与民族和人民同呼吸、共命运，具有深刻现实意义和历史意义。要坚持党对高校工作的全面领导，坚持立德树人，建设高素质教师队伍，努力培养更多一流人才。习近平勉励广大师生大力弘扬“西迁精神”，抓住新时代新机遇，到祖国最需要的地方建功立业，在新征程上创造属于我们这代人的历史功绩。', '傍晚时分，习近平乘车来到毗邻大雁塔的大唐不夜城步行街。疫情发生以来，昔日熙熙攘攘的步行街一度空荡无人，现在又开始热闹起来。习近平走进步行街，了解步行街恢复经营状况。沿途游客看见总书记，惊喜地欢呼起来，习近平频频挥手致意。他走进老字号西安饭庄，同店员和正在就餐的顾客热情交谈。习近平强调，要在科学防控疫情的前提下，有序推动各类商场、市场复商复市，努力恢复正常生活秩序。', '23日上午，习近平听取了陕西省委和省政府工作汇报，对陕西各项工作予以肯定。习近平指出，今年是全面建成小康社会和“十三五”规划收官之年，也是脱贫攻坚决战决胜之年，突如其来的新冠肺炎疫情给我们完成既定目标任务带来挑战。希望陕西广大干部群众只争朝夕、真抓实干，在新时代各项工作中取得新气象新作为，为实现“两个一百年”奋斗目标、实现中华民族伟大复兴的中国梦贡献力量。', '习近平强调，我国经济稳中向好、长期向好的基本趋势没有改变。要坚定信心、保持定力，加快转变经济发展方式，把实体经济特别是制造业做实做强做优，推进5G、物联网、人工智能、工业互联网等新型基建投资，加大交通、水利、能源等领域投资力度，补齐农村基础设施和公共服务短板，着力解决发展不平衡不充分问题。要围绕产业链部署创新链、围绕创新链布局产业链，推动经济高质量发展迈出更大步伐。', '习近平指出，要围绕推进国家治理体系和治理能力现代化，突出基础性、根本性、全局性的重大改革举措，打造内陆改革开放高地。要深度融入共建“一带一路”大格局，加快形成面向中亚南亚西亚国家的通道、商贸物流枢纽、重要产业和人文交流基地，构筑内陆地区效率高、成本低、服务优的国际贸易通道。', '习近平强调，陕西生态环境保护，不仅关系自身发展质量和可持续发展，而且关系全国生态环境大局。要牢固树立绿水青山就是金山银山的理念，统筹山水林田湖草系统治理，优化国土空间开发格局，调整区域产业布局，发展清洁生产，推进绿色发展，打好蓝天、碧水、净土保卫战。要坚持不懈开展退耕还林还草，推进荒漠化、水土流失综合治理，推动黄河流域从过度干预、过度利用向自然修复、休养生息转变，改善流域生态环境质量。', '习近平指出，民生是人民幸福之基、社会和谐之本。要坚持以人民为中心的发展思想，扎实办好民生实事。要瞄准突出问题精准施策，做好剩余贫困人口脱贫工作，因地制宜发展区域特色产业，加快建立防止返贫监测和帮扶机制，加强易地扶贫搬迁后续扶持，多措并举巩固脱贫成果。要做好高校毕业生、农民工、退役军人等重点群体就业工作，多渠道促进就业创业。要加强和创新社会治理，坚持和完善新时代“枫桥经验”，深化扫黑除恶专项斗争。', '习近平强调，这次抗击疫情斗争是一次大考，充分彰显了各级党组织的强大战斗力，彰显了广大党员、干部的先锋模范作用，同时也暴露出一些党组织组织领导力不强，一些党员干部能力不足、作风不实等问题。各级党委（党组）要切实落实全面从严治党主体责任，把全面从严治党的要求落实到党的建设全过程。', '习近平指出，延安精神培育了一代代中国共产党人，是我们党的宝贵精神财富。要坚持不懈用延安精神教育广大党员、干部，用以滋养初心、淬炼灵魂，从中汲取信仰的力量、查找党性的差距、校准前进的方向。要把政治建设摆在首位，严肃党内政治生活，严格落实中央八项规定及其实施细则精神，坚决破除形式主义、官僚主义，构建一体推进不敢腐、不能腐、不想腐体制机制，为各项事业发展提供坚强保障。', '习近平强调，陕西是中华民族和华夏文明重要发祥地之一。要加大文物保护力度，弘扬中华优秀传统文化、革命文化、社会主义先进文化，培育社会主义核心价值观，加强公共文化产品和服务供给，更好满足人民群众精神文化生活需要。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>293</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>坚持政治过硬本领过硬作风过硬在新时代的三农工作中展现新作为</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/snyncj/fdzdgknr_49750/bmxx_49782/202204/t20220420_3460495.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['坚持政治过硬 本领过硬 作风过硬 在新时代的“三农”工作中展现新作为_中卫市人民政府', '4月18日，市委副书记、市长马洪海到市农业农村局、市乡村振兴局调研全市“三农”发展情况和乡村振兴工作情况，并召开座谈会，强调要认真学习贯彻习近平总书记关于“三农”工作重要论述，铸造一支“政治过硬、本领过硬、作风过硬”的乡村振兴干部队伍，在做好新时代“三农”工作中展现新作为。马洪海同志首先来到市农产品质量安全检验检测中心。在考察了农产品质量安全检验检测实验室后强调，要以质量兴农为重要抓手，在保障农产品质量安全的基础上，将“安全+”“实干+”“创新+”“智慧+”等“亮点”经验融会贯通，提升农产品检验检测频次和能力，助推全市农产品质量安全工作迈上新台阶，助力乡村振兴。', '随后，马洪海同志先后实地调研市农业农村局、乡村振兴局相关科室、单位，与工作人员亲切交流，叮嘱要以更有力的举措落实市委、市政府决策部署，持续优化一县一业、一村一品等乡村产业的扶持政策，汇聚做好新时代“三农”工作的磅礴力量。', '座谈会上，马洪海听取了今年全市农业农村重点工作和巩固拓展脱贫攻坚成果同乡村振兴有效衔接工作进展情况的汇报，与大家共商加快农业农村发展、全面推进乡村振兴的思路和举措。', '马洪海指出，新时代“三农”工作就是乡村振兴，乡村振兴的基础是巩固脱贫攻坚成果，全市“三农”干部要深刻领会做好新时代“三农”工作的基本要求，牢牢抓住实现中华民族伟大复兴这个根本目标，把农业农村优先发展，确保粮食安全作为根本，把构建农业的产业体系、生产体系、经营体系作为支撑，把巩固拓展脱贫攻坚成果与乡村振兴有效衔接作为阶段性目标，全方位多层次推进。强调切实把思想和行动统一到党中央决策部署和自治区党委、政府及市委、市政府的具体要求上来，始终绷紧粮食安全这根弦，采取长牙齿的“硬措施”，落实最严格的耕地保护制度，确保耕地数量，不断提升耕地质量，真正做到农田就是农田，而且必须是良田。要优化布局，把“藏粮于地、藏粮于技”和“藏粮于民”真正落实到位，严格落实粮食安全省长负责制和菜篮子市长负责制，加大粮食和重要农产品的安全供给，确保粮食作物种植面积稳定在210万亩，粮食年产量保持在70万吨以上。', '马洪海强调，要聚焦工作重点，不断巩固拓展脱贫攻坚成果与乡村振兴的有效衔接。在严格落实“四个不摘”、“四查四补”和“四类帮扶”、扎实抓好防贫监测帮扶工作的基础上，开展好防返贫专项行动，抓实产业、就业和社会融入，在保障机制、引导提升农民创新创业和自主发展能力，加强农村精神文明建设上下功夫，坚决防止因病致贫返贫、防止因突发事件返贫致贫。要突出乡村发展、乡村建设、乡村治理三项重点，优化提升设施农业、禽蛋、生猪、马铃薯等县域特色产业，促进农村一二三产业融合发展；要以中心村为重点，以美丽乡村建设为目标，全面开展农村人居环境整治提升行动，把乡村建设的重点项目、有效政策和建设管护机制向中心村集聚，健全考评督查机制，抓重点、抓短板、抓示范。坚持“以人为中心”“以人的幸福为中心”的原则，指导服务县（区）做好壮大村集体经济、基本公共服务、基础设施配套和基层党组织建设、农村精神文明建设等工作，提升乡村治理体系和治理能力。', '马洪海要求，要全面加强党对“三农”工作的领导，深入贯彻落实《中国共产党农村工作条例》《乡村振兴促进法》，强化五级书记抓乡村振兴责任要求和工作机制，充分发挥党委农村工作领导小组牵头抓总、统筹协调作用，将脱贫攻坚工作中形成的有效做法运用到推进乡村振兴上，提升基层党组织的政治功能和组织力，加强平安农村的建设，建立健全上下贯通、一抓到底的乡村振兴工作体系。农业农村部门和乡村振兴部门干部要不断提高政治判断力、政治领悟力、政治执行力，真正铸造一支“政治过硬、本领过硬、作风过硬”的乡村振兴干部队伍，在全面推进乡村振兴中展现新作为。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>293</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>中央第四生态环境保护督察组督察宁夏回族自治区动员会在银川召开</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2021-12-03</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/ztzl/hjbhdc/202112/t20211203_3195710.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['为深入贯彻落实习近平生态文明思想，经党中央、国务院批准，根据中央生态环境保护督察工作领导小组第四次会议精神，中央第四生态环境保护督察组近日进驻宁夏回族自治区开展生态环境保护督察。12月3日，督察进驻动员会在银川召开，督察组组长宋秀岩、副组长张雪樵就做好督察工作分别作了讲话，宁夏回族自治区党委书记陈润儿进行了进驻动员。宁夏回族自治区党委副书记、自治区主席咸辉主持动员会。', '宋秀岩指出，党的十八大以来，以习近平同志为核心的党中央高度重视生态文明建设和生态环境保护，将生态文明建设纳入中国特色社会主义事业“五位一体”总体布局和“四个全面”战略布局。习近平总书记亲自谋划部署、亲自指导推动，提出一系列新理念新战略新举措，形成习近平生态文明思想，成为全党全国推进生态文明建设和生态环境保护、建设美丽中国的根本遵循，推动我国生态环境保护发生历史性、转折性、全局性变化。', '习近平总书记始终心系生态文明建设和生态环境保护。今年以来，在出席多次中央和国际重要会议，以及每到一地考察调研时，都把生态文明建设作为一项重要内容，围绕生态文明建设和生态环境保护发表一系列重要讲话，作出重要指示批示，反复强调牢固树立绿水青山就是金山银山的理念，坚持生态优先、绿色发展。这充分体现了党中央坚持新发展理念的战略定力和推进生态文明建设的坚定决心。', '习近平总书记高度重视中央生态环境保护督察，亲自谋划、亲自部署、亲自推动这一重大改革举措，在每个关键环节、每个关键时刻，都作出重要指示批示，强调要保持严的基调，该查处的查处，该曝光的曝光，该整改的整改，该问责的问责，并强调狠抓中央生态环境保护督察发现问题整改。要进一步提高政治站位，深入贯彻落实习近平生态文明思想和习近平总书记重要指示批示精神，认真学习贯彻党的十九届六中全会精神，坚决扛起生态文明建设和生态环境保护的政治责任，把思想和行动统一到党中央的决策部署上来。要充分认识生态文明建设和生态环境保护是党和国家事业的重要组成部分，充分发挥生态环境保护的引导和倒逼作用，促进经济社会发展全面绿色转型，更加自觉地推进绿色低碳循环发展，坚持走生产发展、生活富裕、生态良好的文明发展道路。', '宋秀岩强调，中央生态环境保护督察是贯彻落实习近平生态文明思想的关键举措，要立足服务党和国家发展大局，坚持系统观念，坚持严的基调，坚持问题导向，坚持精准、科学、依法，统筹把握好督察方向和重点。督察将重点关注习近平总书记有关生态环境保护重要指示批示办理情况；宁夏回族自治区推动高质量发展情况，特别是严格控制“两高”项目盲目上马，以及去产能“回头看”落实情况；重大国家战略实施中生态环境保护要求落实情况；重大生态破坏、环境污染、生态环境风险及处理情况；上一轮督察发现问题整改落实情况；人民群众反映突出的生态环境问题立行立改情况；生态环境保护思想认识、责任落实，党政同责、一岗双责落实情况等。', '陈润儿表示，开展第二轮中央生态环境保护督察，是对宁夏贯彻落实习近平生态文明思想的政治督导、对宁夏加强生态建设和环境保护工作的全面督导、对宁夏建设黄河流域生态保护和高质量发展先行区的重点督导。', '陈润儿要求，全区上下要提高政治站位，以践行“两个维护”的自觉，深入学习习近平生态文明思想，自觉接受督察，积极配合督察。要强化政治担当，以严肃认真负责的态度，全力做好情况汇报、资料提供、协调保障、信息公开等工作。要履行政治责任，以坚定果敢彻底的决心，对督察发现问题依法依规坚决整改、全面整改。要扛起政治使命，以中央生态环境保护督察为契机，借势发力、举一反三，推动美丽新宁夏建设再上新台阶。', '会上，张雪樵就做好督察配合，边督边改，信息公开，民生保障，疫情防控，精准、科学、依法督察等工作提出了要求，并就督察组全体成员严格执行《中央生态环境保护督察纪律规定》，接受被督察地方和社会监督作了表态。中央生态环境保护督察组全体成员、中央生态环境保护督察办公室有关人员，宁夏回族自治区有关领导同志等参加会议。各地市党政领导同志通过视频会议的形式列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>293</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>习近平在上海考察时强调坚定改革开放再出发信心和决心加快提升城市能级和核心竞争力</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2018-11-08</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201811/t20181108_1155635.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['习近平在上海考察时强调 坚定改革开放再出发信心和决心 加快提升城市能级和核心竞争力_中卫市人民政府', '习近平在上海考察时强调 坚定改革开放再出发信心和决心 加快提升城市能级和核心竞争力', '新华社上海11月7日电 中共中央总书记、国家主席、中央军委主席习近平近日在上海考察时强调，坚持以新时代中国特色社会主义思想为指导，坚决贯彻落实党中央决策部署，坚定改革开放再出发的信心和决心，坚持稳中求进工作总基调，全面贯彻新发展理念，坚持以供给侧结构性改革为主线，加快建设现代化经济体系，打好三大攻坚战，加快提升城市能级和核心竞争力，更好为全国改革发展大局服务。', '11月6日至7日，习近平在出席首届中国国际进口博览会开幕式和相关活动后，在中共中央政治局委员、上海市委书记李强和市长应勇陪同下，深入上海的企业、社区、城市运行综合管理中心、高新科技园区，就贯彻落实党的十九大精神和当前经济形势、推进科技创新、加强城市管理和社区治理进行调研。', '位于陆家嘴的上海中心大厦建筑总高度632米，是已建成的中国第一、世界第二高楼，是上海的一座标志性建筑。2007年，习近平在上海工作期间，十分重视上海中心大厦建设，多次到陆家嘴地区实地调研，亲自研究陆家嘴地区规划，亲自审定上海中心大厦设计方案，推动相关工作，要求把上海中心大厦建设成为绿色、智慧、人文的国际一流精品工程。大厦22层的陆家嘴金融城党建服务中心，是陆家嘴金融贸易区综合党委建立的楼宇党建阵地。6日上午，习近平来到这里，详细了解中心开展党建工作等情况。在党建服务中心的空中花园研讨交流区，3家企业党支部正在联合开展“我与金融城共成长”主题党日活动，习近平来到他们中间，同他们亲切交谈。习近平充分肯定上海从陆家嘴金融城产业集聚、企业汇聚、人才广聚的实际出发，创新党建工作思路和模式，为楼宇内各种所有制企业的基层党组织和党员提供学习指导、管理服务、活动平台的做法。习近平指出，党建工作的难点在基层，亮点也在基层。随着经济成分和就业方式越来越多样化，在新经济组织、新社会组织就业的党员越来越多，要做好其中的党员教育管理工作，引导他们积极发挥作用。基层党建既要发扬优良传统，又要与时俱进，不断适应新形势，拓宽基层党建的领域，做到党员工作生活在哪里、党组织就覆盖到哪里，让党员无论在哪里都能找到组织找到家。希望上海在加强基层党建工作上继续探索、走在前头。我们在有党员的各类企业里建立党组织，目的是为企业的党员提供管理和服务，团结凝聚员工遵纪守法，遵守企业规章制度，发挥党员先锋模范作用。这也有利于企业加强管理，有利于推动企业健康发展。', '随后，习近平来到119层观光厅，俯瞰上海城市风貌。东方明珠、环球金融中心、金茂大厦、杨浦大桥、世博园区……一处处经典建筑铺展成一幅壮美长卷。大厅内，一幅幅照片今昔对比，生动展示上海百年沧桑巨变。习近平不时驻足观看，同大家交流，回顾上海城市发展历程。他表示，改革开放以来，中国发生了翻天覆地的变化，上海就是一个生动例证。上海是我国最大的经济中心城市和长三角地区合作交流的龙头，要不断提高城市核心竞争力和国际竞争力。要发扬“海纳百川、追求卓越、开明睿智、大气谦和”的上海城市精神，立足上海实际，借鉴世界大城市发展经验，着力打造社会主义现代化国际大都市。', '上海虹口区人口密度大。为满足居民社区生活各方面需求，虹口区设置了35个市民驿站，努力打造“15分钟社区生活服务圈”。习近平走进虹口区市民驿站嘉兴路街道第一分站，逐一察看综合服务窗口、托老所、党建工作站等。托老所内，几位老年居民正在制作手工艺品，总书记亲切向他们问好，老人们激动地握着总书记的手，向总书记讲述自己的幸福晚年。习近平指出，我国已经进入老龄社会，让老年人老有所养、生活幸福、健康长寿是我们的共同愿望。党中央高度重视养老服务工作，要把政策落实到位，惠及更多老年人。市民驿站里，来自居委会、企业的几位年轻人正在交流社区推广垃圾分类的做法。习近平十分感兴趣，仔细询问有关情况。一位年轻人介绍说公益活动已经成为新时尚。习近平强调，垃圾分类工作就是新时尚！垃圾综合处理需要全民参与，上海要把这项工作抓紧抓实办好。习近平叮嘱他们，城市治理的“最后一公里”就在社区。社区是党委和政府联系群众、服务群众的神经末梢，要及时感知社区居民的操心事、烦心事、揪心事，一件一件加以解决。老百姓心里有杆秤。我们把老百姓放在心中，老百姓才会把我们放在心中。加强社区治理，既要发挥基层党组织的领导作用，也要发挥居民自治功能，把社区居民积极性、主动性调动起来，做到人人参与、人人负责、人人奉献、人人共享。临别时，闻讯赶来的居民簇拥在总书记身边，争相同总书记握手。', '6日下午，习近平来到浦东新区城市运行综合管理中心，通过大屏幕了解上海城市精细化管理和国际贸易单一窗口运营情况。习近平强调，城市治理是国家治理体系和治理能力现代化的重要内容。一流城市要有一流治理，要注重在科学化、精细化、智能化上下功夫。既要善于运用现代科技手段实现智能化，又要通过绣花般的细心、耐心、巧心提高精细化水平，绣出城市的品质品牌。上海要继续探索，走出一条中国特色超大城市管理新路子，不断提高城市管理水平。', '习近平一直关心洋山港建设和发展，在这里还视频连线洋山港四期自动化码头，听取码头建设和运营情况介绍。他指出，经济强国必定是海洋强国、航运强国。洋山港建成和运营，为上海加快国际航运中心和自由贸易试验区建设、扩大对外开放创造了更好条件。要有勇创世界一流的志气和勇气，要做就做最好的，努力创造更多世界第一。他希望上海把洋山港建设好、管理好、发展好，加强软环境建设，不断提高港口运营管理能力、综合服务能力，在我国全面扩大开放、共建“一带一路”中发挥更大作用。', '张江科学城作为上海科创中心核心区和国家级科技高地，集聚了一批大科学设施、科学平台和一流创新型院所。在展示厅，习近平听取科学城发展历程及规划建设情况介绍，参观了大科学设施、集成电路、航空航天、生物医药等展区。习近平同在场的科技工作者亲切交谈，他强调，科学技术从来没有像今天这样深刻影响着国家前途命运，从来没有像今天这样深刻影响着人民生活福祉。在实现中华民族伟大复兴的关键时刻，要增强科技创新的紧迫感和使命感，把科技创新摆到更加重要位置，踢好“临门一脚”，让科技创新在实施创新驱动发展战略、加快新旧动能转换中发挥重大作用。要认真落实党中央关于科技创新的战略部署和政策措施，加强基础研究和应用基础研究，提升原始创新能力，注重发挥企业主体作用，加强知识产权保护，尊重创新人才，释放创新活力，培育壮大新兴产业和创新型企业，加快科技成果转化，提升创新体系整体效能。要以全球视野、国际标准推进张江综合性国家科学中心建设，集聚建设国际先进水平的实验室、科研院所、研发机构、研究型大学，加快建立世界一流的重大科技基础设施集群。', '7日下午，习近平听取了上海市委和市政府工作汇报，对上海各方面工作给予肯定。他希望上海继续当好全国改革开放排头兵、创新发展先行者，勇于挑最重的担子、啃最难啃的骨头，发挥开路先锋、示范引领、突破攻坚的作用，为全国改革发展作出更大贡献。', '习近平强调，中华民族伟大复兴绝不是轻轻松松、敲锣打鼓就能实现的，必须进行具有许多新的历史特点的伟大斗争。我们仍然处在大有可为的历史机遇期，前景十分光明，挑战也十分严峻。现在，我国发展外部环境发生明显变化，我国经济已由高速增长阶段转向高质量发展阶段，发展不平衡不充分问题和各种周期性、结构性、体制性因素交织叠加在一起，加大了工作难度。但是，只要我们保持战略定力，集中精力办好自己的事情，我们认准的目标就一定能实现。', '习近平强调，上海在党和国家工作全局中具有十分重要的地位，做好上海工作要有大局意识、全局观念，在服务全国中发展上海。习近平对上海提出了5个方面的工作要求。', '一是更好为全国改革发展大局服务。要把增设上海自由贸易试验区新片区、在上海证券交易所设立科创板并试点注册制、实施长江三角洲区域一体化发展国家战略这3项新的重大任务完成好，坚持推动高质量发展的要求，构筑新时代上海发展的战略优势。要按照国家统一规划、统一部署，全力服务“一带一路”建设、长江经济带发展等国家战略。要在推动长三角更高质量一体化发展中进一步发挥龙头带动作用，把长三角一体化发展的文章做好，使之成为我国发展强劲活跃的增长极。', '二是推动经济高质量发展。要主动推动质量变革、效率变革、动力变革，在提高城市经济密度、提高投入产出效率上下功夫，在提升配置全球资源能力上下功夫，在增强创新策源能力上下功夫，加快建设现代化经济体系。要瞄准世界科技前沿，加强科技创新前瞻布局，聚焦关键领域，集合精锐力量，尽早取得重大突破，使创新成为高质量发展的强大动能。要把高质量发展着力点放在实体经济上，加快建设实体经济、科技创新、现代金融、人力资源协同发展的产业体系，全面提升上海在全球城市体系中的影响力和竞争力。', '三是推动改革开放向纵深发展。要进一步解放思想，准确识变、科学应变、主动求变，坚决破除条条框框、思维定势的束缚，深入推进重要领域和关键环节改革，加强系统集成，继续抓好国资国企、民营经济、商事制度、社会信用、人才发展、城市管理、民生保障等改革举措的完善和落实，放大改革综合效应。要深化资本市场改革，吸引培育本土更多科创企业发展壮大。要瞄准最高标准、最高水平，优化政务服务，打造国际一流营商环境。要在更深层次、更宽领域、以更大力度推进全方位高水平开放，为长远发展夯实基础。要带头贯彻鼓励、支持、引导民营企业发展的政策举措，为民营企业发展创造良好制度环境。', '四是深化社会治理创新。要提高社会治理社会化、法治化、智能化、专业化水平，更加注重在细微处下功夫、见成效。要坚持以人民为中心的发展思想，坚持共建共治共享，坚持重心下移、力量下沉，着力解决好人民群众关心的就业、教育、医疗、养老等突出问题，不断提高基本公共服务水平和质量，让群众有更多获得感、幸福感、安全感。', '五是提高党的建设质量和水平。要认真贯彻新时代党的建设总要求，坚持党要管党、全面从严治党，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设。要坚持严字当头、全面从严、一严到底，严格落实管党治党责任。要贯彻新时代党的组织路线，坚持把政治标准作为第一标准，建设忠诚干净担当的高素质干部队伍，确保干部队伍政治上信得过、靠得住、能放心。要加强对习近平新时代中国特色社会主义思想的学习，不断提高思想觉悟和理论水平，坚定理想信念，不断增强“四个意识”、坚定“四个自信”，补足精神之钙，把稳思想之舵。要加快培养各领域各方面的专业人才，引导干部自觉更新知识、提高本领，经风雨、见世面、壮筋骨、长才干。要广开进贤之路，广泛集聚各方面优秀人才。要加强党的基层组织建设，把资源、服务、管理下沉基层、做实基层，把每个基层党组织建设成为坚强战斗堡垒。要高度重视意识形态工作，弘扬社会主义核心价值观，弘扬正能量。', '考察期间，习近平在上海亲切接见驻沪部队副师职以上领导干部和团级单位主官，代表党中央和中央军委向驻沪部队全体官兵致以诚挚问候。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>293</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>关于印发中卫市法治政府建设年工作要点的通知</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2024-04-09</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/bmxxgkml/ssfj/fdzdgknr_49428/bmwj_49457/202404/t20240409_4508043.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的二十大精神和习近平法治思想，全面贯彻落实自治区党委十三届六次全会和市委五届九次全会精神，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，把法治政府建设放在全市工作大局中统筹谋划，全面建设职能科学、权责法定、执法严明、公开公正、智能高效、廉洁诚信、人民满意的法治政府，为谱写全面建设社会主义现代化美丽新宁夏中卫篇章提供坚实法治保障。', '坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的二十大精神和习近平法治思想，全面贯彻落实自治区党委十三届六次全会和市委五届九次全会精神，深刻领悟', '，把法治政府建设放在全市工作大局中统筹谋划，全面建设职能科学、权责法定、执法严明、公开公正、智能高效、廉洁诚信、人民满意的法治政府，为谱写全面建设社会主义现代化美丽新宁夏中卫篇章提供坚实法治保障。', '持续深入学习贯彻习近平法治思想，坚持把习近平法治思想作为政府常务会议、各级党委（党组）理论学习中心组学习的重要内容，常态化开展学习。扎实开展培训轮训，完整准确把握习近平法治思想的核心要义和精神实质，政府组成部门主要负责人带头专题讲法不少于1次。深入推动习近平法治思想进教材、进课堂、进头脑。（牵头单位：市委依法治市办、市政府办公室；责任单位：市直各部门〔单位〕，各县〔区〕）', '持续深入学习贯彻习近平法治思想，坚持把习近平法治思想作为政府常务会议、各级党委（党组）理论学习中心组学习的重要内容，常态化开展学习。扎实开展培训轮训，完整准确把握习近平法治思想的核心要义和精神实质，政府组成部门主要负责人带头专题讲法不少于', '次。深入推动习近平法治思想进教材、进课堂、进头脑。（牵头单位：市委依法治市办、市政府办公室；责任单位：市直各部门〔单位〕，各县〔区〕）', '加强和改进对法治政府建设的领导，各级政府部门主要负责人对法治政府建设重要工作亲自部署、重大问题亲自过问、重点环节亲自协调、重要任务亲自督办，定期听取有关工作汇报，及时研究解决问题。将法治政府建设纳入全市发展总体规划和年度工作计划。', '月1日前，市、县（区）两级政府向同级党委、人大常委会和上一级政府报告上一年度法治政府建设情况，市、县（区）两级政府部门向本级党委和政府、上一级政府有关部门报告上一年度法治政府建设情况，并在', '巩固全区第三批法治政府建设示范项目创建成果。认真落实《宁夏回族自治区法治政府建设指标体系》，全面推进法治政府建设。（牵头单位：市委依法治市办；责任单位：市直各部门〔单位〕，各县〔区〕）', '（牵头单位：市纪委监委、市委依法治市办、市委巡察办；责任单位：市直各部门〔单位〕，各县〔区〕）', '把能不能有效运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定、应对风险作为考察识别干部的重要条件，在相同条件下优先提拔使用法治素养好、依法履职能力强的干部。对特权思想严重、法治观念淡薄的干部，及时发现并进行批评教育、督促整改，对问题严重或者违法违纪的干部，依法依纪严肃处理。', '健全完善领导干部学法用法清单制度，建立领导干部应知应会法律法规清单，把法治教育纳入各级政府工作人员初任培训、任职培训的必训内容，做好国家工作人员网上学法考法工作。县级以上政府及部门', '次法治专题脱产培训，行政执法人员接受不少于60学时的业务知识和法律知识培训，组织开展一次学法用法考试。', '审核人员配备，鼓励符合条件的行政执法部门在编人员积极参加国家统一法律职业资格考试，', '坚持优化政府组织结构与促进政府职能转变、理顺部门职责关系统筹结合，持续优化政府部门内设机构设置、职能配置，推动机构设置更加科学、职能更加优化、权责更加协同。全面清理乡镇议事协调机构，综合设置党政机构和事业单位。适应基层工作特点，统筹乡镇人员编制分类管理和使用，推动人员编制、资源管理服务向基层一线下沉，提升基层治理能力。', '根据法律法规规章“立改废释”和国家部委及自治区相关厅局权责清单变化情况，动态调整部门权责清单', '动态调整乡镇属地管理事项清单，进一步理顺基层与上级政府部门的权责关系。及时做好行政审批中介服务事项清单、证明事项清单、', '坚持“一单尽列、单外无单”，不得自行发布市场准入性质的负面清单；严格落实“非禁即入”要求，对清单之外的行业、领域、业务等各类市场主体皆可依法平等进入，不得违规另设市场准入行政审批和变相设定准入障碍；持续开展违背市场准入负面清单自查自纠、典型案例归集等，提升市场准入效能。推动各类经营主体依法平等进入清单之外的行业、领域、业务。', '要求，对清单之外的行业、领域、业务等各类市场主体皆可依法平等进入，不得违规另设市场准入行政审批和变相设定准入障碍；持续开展违背市场准入负面清单自查自纠、典型案例归集等，提升市场准入效能。推动各类经营主体依法平等进入清单之外的行业、领域、业务。', '充分发挥“互联网+政务服务”优势，全面提升政务服务“一网通办”水平，开设“卫警官”服务专线，', '营商环境创新改革举措，着力改善投资环境和市场预期。全面落实减税降费政策，切实降低企业生产经营成本。深化产权司法保护，依法审理涉产权案件，依法保护各种所有制企业产权和自主经营权。强化破产审判府院联动工作机制，依法妥善办理破产案件。加强政企沟通，在制定修改地方性法规、政府规章、行政规范性文件过程中充分听取企业和行业协会商会意见，保障企业和行业协会商会在制度建设中的知情权、参与权、表达权和监督权。落实公平竞争审查制度，及时清理废除妨碍统一市场和公平竞争的各种规定和做法。深入推进取消和调整罚款事项工作，及时完成有关规章修改和行政规范性文件修改、废止工作。建立涉企轻罚免罚清单，着力为市场主体营造宽松和谐的法治化营商环境。', '（牵头单位：市委政法委、市政府办公室、市中级人民法院、市检察院、市发展改革委、市市场监管局', '制定、修改政府规章过程中，涉及重大事项的，应当及时向党委请示报告，切实将党的领导贯穿到依法行政制度建设的全过程。', '推进科学立法、民主立法、依法立法，坚持统筹立改废释并举，完善立法协商制度，建立健全立法风险防范机制。发挥政府立法基层联系点作用，广泛吸纳社会各界和基层群众意见建议，使制定的每一部', '加强行政规范性文件合法性审核和备案审查，依法撤销和纠正违法的行政规范性文件，严格违法制发行政规范性文件责任追究。', '落实《重大行政决策程序暂行条例》等规定，重大行政决策严格履行决策启动、公众参与、专家论证、风险评估、合法性审查、集体讨论决定等程序，切实强化依法决策意识，遵循依法决策程序，确保决策不越权、程序不缺失、内容不违法，坚决杜绝随意决策、盲目决策、经验决策。', '进一步完善重大行政决策目录公开、动态管理和分类管理制度，合理确定重大行政决策事项年度目录，市政府及政府组成部门第一季度前要公开本地区、本部门重大行政决策事项目录。', '完善部门或者委托第三方评估、专家咨询论证、公众参与相结合的风险评估工作机制，提高专家论证和风险评估质量。加强重大行政决策后评估工作，跟踪决策执行情况和实施效果。', '对决策严重失误或者依法应当及时作出决策而久拖不决，造成重大损失、恶劣影响的，倒查责任，实行终身责任追究。将政府各部门党委（党组）落实重大行政决策程序制度纳入巡察内容。应当纳入重大行政决策目录而未纳入，未按要求履行重大行政决策有关程序的，按照《重大行政决策程序暂行条例》和有关规定追究责任。', '（牵头单位：市纪委监委、市委巡察办、市政府办公室、市司法局；责任单位：市直各部门〔单位〕，各县〔区〕）', '坚持政治标准、专业标准和敏锐性原则，完善法律顾问遴选、使用、管理机制。组织开展优秀政府法律顾问宣传活动，开展优秀案例推选工作，宣传推广政府法律顾问工作经验。健全法律顾问工作机制，巩固法律顾问全覆盖成效，充分发挥法律顾问作用，加快发展公职律师队伍，更好服务法治政府建设。', '深入推进市场监管、生态环境保护、城市管理、文化市场、交通运输、农业、应急等领域综合执法体制改革。推动乡镇赋权事项实施情况专项评估，健全完善赋权事项动态调整机制。继续推进跨领域跨部门联合执法和协作。各级行政执法部门制定', '开展行政执法领域突出问题专项整治，聚焦人民群众反映强烈的执法突出问题，深入查纠整改，实现常治长效。强化重点领域监管，加大食品药品、公共卫生、生态环境、安全生产、劳动保障、网络传播等关系群众切身利益的重点领域执法力度，及时公布典型案例。依法', '，重点防控危及社会公共安全和扰乱市场秩序的违法犯罪。坚决遏制重大恶性刑事案件，持续提高人民群众安全感、满意度。', '市人力资源和社会保障局、市生态环境局、市交通运输局、市农业农村局、市旅游和文体广电局、市应急局、市市场监管局；责任单位：市直各行政执法部门〔单位〕，各县〔区〕）', '全面实行行政执法人员持证上岗和资格管理制度，推广基层运用好《宁夏回族自治区基层综合行政执法文书参考样式（试行）》，规范涉企行政检查，有效防范行政执法风险，促进基层综合执法规范化水平整体提升。', '持续推进柔性执法、精准执法，对新技术新产业新业态新模式等实施包容审慎监管。全面落实行政处罚“首违不罚”规定和“两轻一免”清单制度。完善行政处罚裁量权基准，落实行政裁量权基准制度。深入推进“互联网+监管”提升监管效能，积极推进“双随机、一公开”监管全覆盖、常态化。', '持续推进柔性执法、精准执法，对新技术新产业新业态新模式等实施包容审慎监管。全面落实行政处罚', '认真贯彻落实《中央办公厅 国务院办公厅 关于加强行政执法协调监督工作体系建设的意见》，扎实做好国务院办公厅和自治区人民政府对提升行政执法质量三年行动的安排部署。切实履行行政执法协调监督职能，持续加强对重点领域行政执法监督，发挥日常监督作用，适时开展专项监督，全面落实行政执法过错责任追究和行政执法责任制及评议考核制度。推进“行政执法监督+行政复议”，优化行政执法监督案件办理流程，定期公布行政执法监督投诉举报电话，深入开展行政执法案卷评查。适时组织行政执法人员能力提升培训，不断提升一线执法人员运用法治思维和法治方式开展执法、维护稳定、化解矛盾的能力，全面推进严格规范公正文明执法。', '关于加强行政执法协调监督工作体系建设的意见》，扎实做好国务院办公厅和自治区人民政府对提升行政执法质量三年行动的安排部署。切实履行行政执法协调监督职能，持续加强对重点领域行政执法监督，发挥日常监督作用，适时开展专项监督，全面落实行政执法过错责任追究和行政执法责任制及评议考核制度。推进', '，优化行政执法监督案件办理流程，定期公布行政执法监督投诉举报电话，深入开展行政执法案卷评查。适时组织行政执法人员能力提升培训，不断提升一线执法人员运用法治思维和法治方式开展执法、维护稳定、化解矛盾的能力，全面推进严格规范公正文明执法。', '改善执法条件，合理安排执法装备配备、科技建设等方面的投入。严格执行罚缴分离和收支两条线管理制度，严禁下达或者变相下达罚没指标，严禁将行政事业性收费、罚没收入同部门利益直接或者变相挂钩。', '坚持分级负责、属地为主，压实防范化解本地区本领域重大风险责任。推进安全生产风险目录，落实安全生产责任。组织开展安全生产专项整治、生态环境安全隐患排查整治等专项行动。加强政府合同合法性审查，有效防控政府合同法律风险，排查化解政府性债务风险。', '（牵头单位：市司法局、市财政局、市生态环境局、市应急局；责任单位：市直各部门〔单位〕，各县〔区〕）', '优化完善应急指挥通信网络，全面提升应急监督管理、指挥救援、物资保障、社会动员水平。完善各类突发事件应急响应处置程序和协调联动机制，加强物资储备调度，做好防灾减灾救灾和疫情防控准备工作。加强突发公共卫生事件应对法治保障，提升灾害综合防治能力。防范和化解危险化学品、烟花爆', '完善各类应急预案，建立健全突发事件应急处置公共法律服务机制，增强应急处置的针对性实效性。加强突发事件信息公开，健全完善公共舆情应对和危机沟通机制，依法及时公开发布相关信息，维护政府公信力。', '进一步健全社会矛盾纠纷预防调处化解工作机制，加强消费者权益保护、交通损害赔偿、治安管理、环境污染、医疗纠纷、社会保障、劳资债务、房屋土地征收、知识产权等方面的行政调解，及时妥善化解矛盾纠纷。', '贯彻落实《关于充分发挥人民调解基础性作用推进诉源治理的意见》，深入推进诉源治理，充分发挥人民调解在矛盾纠纷预防化解中的基础性作用，', '针对金融、保险等商事纠纷多发现状，借鉴学习开展商事调解工作，弥补人民调解专业性低、经费不足的困难。', '推广应用“云公共法律服务平台”，推进新业态、新就业群体公共法律服务工作，不断延伸法律服务触角。依法为符合条件的困难群众提供法律援助服务，健全完善工作机制，持续推进公证、司法鉴定、仲裁等品牌化、专业化发展。', '，推进新业态、新就业群体公共法律服务工作，不断延伸法律服务触角。依法为符合条件的困难群众提供法律援助服务，健全完善工作机制，持续推进公证、司法鉴定、仲裁等品牌化、专业化发展。', '强化普法责任制落实，严格落实“谁执法谁普法”普法责任制。以服务经济社会高质量发展为主线，开展专题普法活动。以黄河法治文化和红色法治文化建设为着力点，打造中卫特色的法治文化。精准培养“法律明白人”骨干。', '普法责任制。以服务经济社会高质量发展为主线，开展专题普法活动。以黄河法治文化和红色法治文化建设为着力点，打造中卫特色的法治文化。精准培养', '完善政府内部层级监督制度，强化上级行政机关对下级行政机关的监督。加强对财政资金分配使用、国有资产监管、政府投资、公共资源交易、公共工程建设等部门和', '建设。健全政府购买服务支出数据采集机制，做好绩效评价工作，严格规范政府购买服务管理。聚焦财政财务收支合法效益，加强政府投资、财政预算执行、政策落实跟踪、领导干部经济责任、民生领域等审计', '认真执行向本级人大及其常委会报告工作制度、接受询问和质询制度、报备政府规章制度。完善知情明政机制，政府有关部门按规定定期向政协通报有关情况。依法执行人民法院生效裁判，落实行政机关出庭应诉制度。', '贯彻落实国务院《政府督查工作条例》，强化督查计划管理和科学统筹，切实提升督查实效。充分发挥政府督查深入基层实际、反映群众心声、积极辅政建言的作用，注意收集并真实准确反映基层对优化政策、改进工作的意见建议。', '按照政务公开工作要求，全面推进政务公开标准化规范化，做到政府信息应公开尽公开。加强政府信息资源的规范化、标准化、信息化管理，推进政府信息公开平台与政务服务平台融合发展。依法办理政府信息公开申请。', '各县（区）、市直各部门（单位）要认真对照《中卫市法治政府建设2024年工作要点》明确的重点任务分工，结合自身职能职责，进一步压实责任，细化措施，狠抓落实，确保各项任务落到实处、见到实效。市委依法治市办将不定期对各单位法治政府建设开展情况进行督察，并及时向', '年工作要点》明确的重点任务分工，结合自身职能职责，进一步压实责任，细化措施，狠抓落实，确保各项任务落到实处、见到实效。市委依法治市办将不定期对各单位法治政府建设开展情况进行督察，并及时向']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>293</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>中卫市教育局开展政府开放日活动暨新闻吹风会实施方案</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2021-10-13</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sjyj/fdzdgknr_49236/zfkfr_49262/hdfa_49263/202110/t20211013_3086393.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['为深入贯彻落实习近平新时代中国特色社会主义思想，以服务大局、服务群众为目标，切实推进阳光、透明、开放、服务型机关建设，强化机关服务意识，提高教育教学水平，根据《自治区人民政府政务公开办公室关于印发&lt;全区“政府开放日”工作方案&gt;的通知》（宁政公开办发〔2021〕28号）和《中卫市人民政府办公室关于组织开展“政府开放日”活动的通知》要求，结合教育实际，特制定本方案。', '坚持提升政务公开质量，聚焦公众需求，认真落实中央、区、市关于政务公开工作的决策部署，围绕市委、市政府中心工作，通过开展“政府开放日”暨新闻吹风会，拉近与群众间的距离，搭建沟通平台，以互动的形式，广泛听取公众意见，接受公众监督，展示惠民、为民、务实、高效的机关形象。', '市教育局领导班子成员、机关科室（中心）负责人；邀请教职工、离退休干部以及服务对象，主要包括校长代表、教师代表、退休干部代表，家长代表、新闻记者。', '邀请代表有序走进机关科室、现场、会议，通过座谈问答、线上线下问卷调查、体验办公流程、亲历操作过程、感受岗位经历（公文盖章、信访接待）等环节，深入了解局机关办事服务流程。', '进科室。参观机关运转情况，查看办文流程、办会场所、办事流程和会议组织等具体事宜。进现场。了解项目评估、项目招投标、工程建设、阅卷考评、困难学生资助、职称评审、学籍管理等具体事宜。进会议。列席党组会、局务会、中心组学习会，提高行政决策透明度，增强行政决策可行性，增进人民群众对政府工作的认同和支持。', '邀请代表走进校园、走进课堂，通过观摩、听课、座谈交流、征求意见等形式，介绍和展示本学校的教育教学主要业绩和创新成果等情况，让家长深入了解学校的教育教学管理和学生在校的学习生活，进一步加强家校之间合作交流。', '围绕落实市委、市政府中心工作和重要决策部署，结合教育工作重点、规范办学行为、落实惠民政策，向与会同志介绍教育工作情况。', '3.听取社会各界代表对教育工作的意见建议，班子成员及各科室负责人就与会人员提出的相关问题进行现场解答。', '（三）民主测评。从履职能力、服务态度、工作效率、公开公正、群众满意等方面对市教育局进行测评。', '（一）高度重视，加强领导。政府开放日活动是各级政府组织开展的一项重要民生活动，对促进政民互动、推进行政权力公开透明运行、提高群众对教育工作的满意度具有重要意义。为确保“政府开放日”活动开展组织有序、成效突出，各学校（幼儿园）要高度重视，制定切实可行的实施方案，明确时间安排、参加人员、活动方式等内容。“政府开放日”为专有名词，要统一命名为：中卫市××学校“政府开放日”，不得冠以“校园开放日”“家长开放日”等名称。', '（二）及时反馈，务求实效。根据相关要求，及时做好群众、家长代表意见、建议的办理反馈工作。活动结束后2天内，要根据代表所提意见、建议，专题研究解决问题的意见和措施，制定问题整改清单，要将活动开展情况、代表意见建议办理反馈情况及时报送市教育局。', '（三）精心组织，广泛宣传。开放日活动前7天充分利用网站、公众号等媒体，通过新闻发布会、发布公告及告家长书等形式邀请群众、家长代表参与“政府开放日”活动。', '（四）做好疫情防控。“政府开放日”活动当天,要做好人员管控、体温测量等措施,确保受邀群众代表、家长代表当日无发热、咳嗽咽痛、胸闷、呼吸困难、恶心呕吐、腹泻、头疼等症状,且14天内无进出中高风险地区,无接触疑似、确诊患者史。活动期间必须全程佩戴医用口罩。', '（五）认真总结，形成机制。各学校（幼儿园）要按照要求制定“政府开放日”活动方案，及时总结活动过程中的好经验、好做法，分析存在的不足和原因，将活动开展情况、取得成效（参与人数、图文资料）和代表意见建议办理反馈情况于10月14日（星期四）下午下班前报送市教育局310室。', '15:05 观摩市第三幼儿园（时间20分钟，李翠华同志提前等候并汇报市第三幼儿园办园情况）', '15:35 观摩中卫六小（时间20分钟，张莉娟同志提前等候并汇报中卫六小办学情况）']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>293</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>习近平同党外人士共迎新春</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2020-01-15</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202001/t20200115_1922576.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['在中华民族传统节日庚子鼠年春节即将到来之际，中共中央总书记、国家主席、中央军委主席习近平14日下午在人民大会堂同各民主党派中央、全国工商联负责人和无党派人士代表欢聚一堂，共迎佳节。习近平代表中共中央，向各民主党派、工商联和无党派人士，向统一战线广大成员，致以诚挚的问候和新春的祝福。', '民革中央主席万鄂湘、民盟中央常务副主席陈晓光、民建中央主席郝明金、民进中央常务副主席刘新成、农工党中央主席陈竺、致公党中央主席万钢、九三学社中央主席武维华、台盟中央主席苏辉、全国工商联主席高云龙和无党派人士代表吕建、刘恒等应邀出席。应邀出席的还有全国政协副主席董建华、何厚铧、梁振英，已退出领导岗位的各民主党派中央、全国工商联原主席、第一副主席和常务副主席。', '吕建代表各民主党派中央、全国工商联和无党派人士致辞。他表示，2019年，以习近平同志为核心的中共中央以不畏浮云遮望眼的胸怀掌舵领航，以咬定青山不放松的定力稳健前行，带领国家创造了举世瞩目的伟大成就。2020年，统一战线广大成员将更加紧密地团结在以习近平同志为核心的中共中央周围，深入学习贯彻习近平新时代中国特色社会主义思想，全面贯彻落实中共十九大和十九届二中、三中、四中全会精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，为中国复兴号巨轮扬帆远航加油助力。', '在听取吕建致辞后，习近平发表了重要讲话。他强调，2019年是党和国家发展进程中极不平凡的一年。面对复杂多变的国际形势，面对艰巨繁重的国内改革发展稳定任务，我们大家一起团结奋斗、一起攻坚克难，有付出也有收获，有艰辛也有快乐。一年来，中共中央团结带领全国各族人民，沉着应对国内外风险挑战明显增多的复杂局面，坚定不移贯彻新发展理念，着力打好三大攻坚战，推动经济建设、政治建设、文化建设、社会建设、生态文明建设取得新的重大进展，为全面建成小康社会打下了更为坚实的基础。', '习近平指出，2019年也是中国共产党领导的多党合作和政治协商制度确立70周年。一年来，各民主党派中央、全国工商联和无党派人士自觉维护中共中央权威和集中统一领导，团结一心、锐意进取，在凝心聚力、服务大局上展现了新的作为。各民主党派和无党派人士扎实开展“不忘合作初心，继续携手前进”主题教育，回顾多党合作初心，弘扬优良传统；围绕贯彻新发展理念、推动高质量发展等重大问题深入考察调研，提出意见和建议，为中共中央科学决策和有效施策提供了重要参考。各民主党派中央深入开展脱贫攻坚民主监督，加大定点监测、驻村调研力度，为打赢脱贫攻坚战发挥了重要作用。各级工商联持续开展“光彩行”活动，踊跃投身“万企帮万村”精准扶贫行动。无党派人士积极为国家经济社会发展建言献策。习近平代表中共中央，对大家的辛勤工作表示诚挚的感谢。', '习近平强调，2020年是决胜全面建成小康社会、决战脱贫攻坚之年，也是“十三五”规划收官之年。希望大家全面贯彻中共十九大和十九届二中、三中、四中全会精神，紧扣全面建成小康社会目标任务，坚持稳中求进工作总基调，全面贯彻新发展理念，全面做好稳增长、促改革、调结构、惠民生、防风险、保稳定工作，为决胜全面建成小康社会、决战脱贫攻坚作出新的贡献。', '习近平指出，中国共产党领导的多党合作和政治协商制度是从中国土壤中生长出来的新型政党制度，在凝聚共识、优化决策、协调关系、维护稳定等方面发挥了独特作用。希望大家认真学习贯彻中共十九届四中全会精神，坚定信心和决心，引导广大成员和各自所联系群众，增强坚持中国共产党领导、坚持中国特色社会主义制度的思想自觉、政治自觉、行动自觉。', '习近平指出，决胜全面建成小康社会、决战脱贫攻坚，需要凝聚起包括各民主党派、工商联和无党派人士在内的全体中国人民的智慧和力量。希望大家围绕中共中央决策部署，立足我国经济社会发展的新形势，紧扣全面建成小康社会目标任务，调查研究察实情，实事求是建诤言，做中国共产党的好参谋、好帮手、好同事。', '习近平强调，中国共产党要持之以恒加强自身建设，民主党派也要持续加强自身建设。希望各民主党派努力成为政治坚定、组织坚实、履职有力、作风优良、制度健全的中国特色社会主义参政党，为推进国家治理体系和治理能力现代化作出新的贡献。', '习近平指出，全国工商联要加快推进工商联各项改革，更好促进非公有制经济健康发展和非公有制经济人士健康成长。要加强无党派代表人士队伍建设，做好思想引导和政治引领工作，为他们发挥作用搭建舞台、提供条件。', '丁薛祥、尤权，各民主党派中央、全国工商联有关负责人，中央有关部门负责同志参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>293</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>市人民政府办公室关于印发中卫市年富硒产业发展实施方案的通知</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2019-02-28</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/zfxxgkml/szfbwj/201903/t20190313_1310163.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['市人民政府办公室 关于印发中卫市2019年富硒产业发展实施方案的通知_中卫市人民政府', '《中卫市2019年富硒产业发展实施方案》已经市人民政府同意，现印发给你们，请认真组织实施。', '为深入实施乡村振兴战略，促进农业农村现代化发展，加快推进“中国塞上硒谷”建设，构建富硒农产品规范化、规模化、集约化、企业化、品牌化开发利用体系，提高农产品市场竞争力和品牌影响力，按照“一带两廊”建设规划和《中共中卫市委员会 中卫市人民政府关于印发〈中卫市打赢脱贫攻坚战三年行动实施方案〉的通知》（卫党发〔2018〕26号）要求，特制定本方案。', '（一）指导思想。深入学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神，坚持创新、协调、绿色、开放、共享的发展理念，全面落实自治区党委和市委、市政府关于推进富硒功能农产品开发工作的有关要求，围绕全市富硒产业“一中心、三基地”建设任务，打造“中国塞上硒谷”，以“一带两廊”建设为契机，以培植壮大特色优势富硒功能农业为重点，鼓励和引导企业、合作组织等社会力量参与；定位高端市场，采取政府引导、政策扶持、龙头带动、标准化生产、私人定制、定向配送的品牌营销措施，实现优质优价收购，推动富硒各产业间的科技、政策、资金和信息有效流动和资源共享，逐步建立富硒产业体系、生产体系和经营体系，使富硒功能农业成为中卫市“一带两廊”发展的样板区。', '（二）主要目标。在富硒、足硒土壤上建设富硒农产品高标准示范基地12万亩（硒砂瓜6万亩、枸杞4万亩、苹果2万亩），富硒农产品高标准产业示范园16个（硒砂瓜6个、枸杞3个、苹果2个，蔬菜、马铃薯、大米、小杂粮、食用菌各1个）。建设富硒特色小镇1个，建设硒产业乡村旅游示范点3个，培育扶持主要从事富硒农产品开发的市级以上农业产业化龙头企业10个，打造具有较强竞争力的富硒农产品品牌3—5个，建成富硒产业研发中心和富硒农产品加工基地。富硒枸杞、硒砂瓜、苹果收购价增加100%，实现亩均销售收入翻一番。2019年底，力争全市富硒产业综合产值达100亿以上，主产区农民群众来自富硒产业人均收入达到2万元以上。', '（一）以富硒基地建设为重点，推进产业规模化发展。依据全市土壤富硒资源普查结果和分布，以沙坡头区环香山和中宁县鸣沙、海原县关桥等富硒区域为重点，选择集中连片、交通便利、土壤条件好、种植水平高、农民组织化程度高的产区，建设富硒农产品高标准种植基地12万亩。以富硒农产品种植基地为基础，按照“龙头企业+合作社+基地+农户”的管理运行机制，建设富硒产业示范园16个，建立富硒种植基地、示范园布局图和标志牌。由县（区）推荐有实力、讲诚信、有销售渠道、年销售量达到一定规模、组织带动农户能力强、有一定经济实力和影响力的龙头企业、合作社，作为富硒农产品高标准种植基地及产业示范园的建设主体，实行“龙头企业+合作社+农户+基地”的产业化联结模式，组织农户高标准种植富硒农产品，并签订生产订单，确保种出高质量富硒农产品。（责任单位：各县〈区〉人民政府；配合单位：市农业农村局、市自然资源局）', '（二）以产品质量安全为核心，全面推进富硒标准化生产。龙头企业（合作社）按照富硒农产品标准化生产技术标准、产品质量标准，与农户签订优质优价种植、收购协议，组织种植户培训，掌握技术要领并按照质量要求高标准生产。属地县（区）、乡镇、村要加强监管，严格管控品种、密度、水肥等关键种植环节，按照品种、技术、管理、服务、销售“五统一”要求，确保生产出符合质量要求的富硒农产品。制定富硒农产品认证管理办法，明确抽检样品代表的富硒面积和富硒农产品要求的硒含量、含糖量等富硒产品指标。硒含量、含糖量等指标由第三方检测机构检测，并出具报告，作为优质优价收购的依据。（责任单位：各县〈区〉人民政府；配合单位：市农业农村局、市自然资源局）', '（三）以富硒小镇建设为依托，完善集散流通体系。结合“一带两廊”和特色小镇建设，将沙坡头区永康镇建成集富硒农产品宣传展示、鲜果直销、富硒文化、特色乡村旅游与一体的富硒小镇。组织富硒产业龙头企业、合作组织和电商经营主体在富硒小镇集中开设富硒农产品直销店和宣传营销窗口。在富硒小镇分别规划建设富硒枸杞、硒砂瓜专业化流通市场和集散园区。（责任单位：沙坡头区、中宁县人民政府；配合单位：市商务局、市交通运输局、市农业农村局、市自然资源局）', '（责任单位：沙坡头区、中宁县人民政府；配合单位：市商务局、市交通运输局、市农业农村局、市自然资源局）', '（四）以农业招商引资为契机，强化富硒农产品宣传推介。引进全国知名农产品品牌策划营销专业机构进行合作，针对富硒枸杞、硒砂瓜、苹果产品特质及优势，结合当前国内外农产品市场营销现状，专门制定中卫富硒农产品品牌营销方案。积极筹办第六届国际硒产业大会中卫分会，邀请国际硒学会专家到中卫调研考察培训，发布中卫富硒农产品产品标准，利用国内知名度高的报刊、网络平台、新媒体和机场、高铁、动车、电梯广告以及国家、省部级各类节会展会，多渠道宣传推介中卫富硒农产品。（责任单位：市农业农村局、市自然资源局；配合单位：各县〈区〉人民政府）', '（五）以富硒品牌创建为突破口，拓展市场销售空间。借力全国知名农产品品牌策划营销专业机构，组织龙头企业（合作社）对接高端销售窗口建立产销合作关系，在全国选设15个目标城市实行区域授牌总经销模式，采取专供专销、私人订制、电商配送等方式，打造富硒农产品高端品牌3—5个，逐步引领富硒农产品巩固品质、提升品牌，力争成为全国富硒农产品销售市场的品牌冠军。注册富硒农产品商标，借智全国知名农产品品牌策划营销专业机构，统一设计印制包装箱，统一管理、统一发放使用。硒产业协会要发挥行业监管作用，发布富硒农产品销售指导价格信息，建立规范的价格体系。（责任单位：市农业农村局、市自然资源局；配合单位：各县〈区〉人民政府）', '（六）以产学研结合为抓手，强化技术交流合作。依托宁夏硒产业发展有限责任公司和硒产业协会积极争取项目资金支持，配套相关设施设备，组建技术团队，建设硒产业研发中心，加强与国际硒研究会、苏州硒谷公司、宁夏大学、宁夏农科院等国内外功能农业科研团队合作，重点围绕富硒农产品硒营养强化和产品认证，以及枸杞、硒砂瓜、苹果等富硒农产品深加工工艺，探索开展富硒高端产品、技术研发推广。（责任单位：各县〈区〉人民政府、市农业农村局；配合单位：市自然资源局、市科技局）', '2018年12月—2019年1月：确定12万亩富硒农产品种植基地和富硒产业示范园，绘制基地及示范园布局图，建立富硒种植基地、示范园档案，组织基施有机肥。遴选富硒农产品种植基地及示范园建设主体。注册富硒农产品商标。', '2019年1—3月：制定富硒农产品认定管理办法，发布富硒农产品标准化生产技术标准、产品质量标准。签订富硒农产品种植收购协议，组织种植户培训。', '2019年4—6月：龙头企业（合作社）组织农户按照种植收购协议技术要求进行标准化生产，严格管控品种、密度、水肥等关键种植环节，生产出高标准、高质量富硒农产品。按照富硒农产品认定管理办法，抽检硒含量、含糖量等指标，优质优价收购富硒农产品。组织龙头企业（合作社）对接高端销售窗口建立产销合作关系，在全国选设15个目标城市实行区域授牌总经销，并组织开展富硒农产品预售活动。统一设计印制、管理、使用包装箱，发布富硒农产品销售价格信息。', '2019年6—8月：筹办第六届国际硒产业大会中卫分会。利用报刊、网络平台、新媒体和机场、高铁、动车、电梯广告以及国家、省部级各类节会展会，宣传推介中卫富硒农产品。组织龙头企业（合作社）对接高端经销商销售富硒农产品，通过互联网举办中卫富硒农产品电商预订会，开展硒砂瓜7月采摘周文娱休闲观光活动。', '举办第二届“中国农民丰收节”系列活动，为市级硒产业乡村旅游示范点授牌，召开富硒产业发展总结交流会，查找问题，总结经验，完善机制，创新方法，对表现突出的企业（合作社）和经销商进行奖励，加快推进“中国塞上硒谷”建设。', '（一）加强组织领导。市富硒产业发展领导小组办公室加强对富硒产业发展工作的统筹协调、指导服务等工作。各县（区）成立相应的组织机构，制定富硒产业发展工作方案，明确任务，落实责任，集中人力、物力和财力，全力以赴抓好富硒产业各项推进措施。', '（二）加大政策扶持。各级政府要加大财政投入力度，市农业农村局、自然资源局要积极争取上级部门项目资金。市财政将配套资金800万元，用于示范基地建设、标准化生产、品牌宣传营销策划、渠道建设、外销窗口设置、防伪商标及包装箱等环节。县（区）财政要在轮作歇茬、宣传、培训、市场营销等方面加大扶持力度，为推动富硒产业健康发展奠定良好基础。', '（三）强化考评考核。建立考核指标体系，将富硒产业发展的目标任务作为各县（区）、各部门年度效能目标考核指标，确保各项重点任务和政策措施落到实处。市农业农村局要切实加强对富硒产业工作的考核监督，及时通报评促，确保各项工作扎实推进。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>293</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>浓墨重彩绘蓝图聚沙成塔谱华章中宁县舟塔乡经济社会各项事业及党的建设发展综述</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2018-11-13</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/tpxw/201811/t20181113_1163500.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['浓墨重彩绘蓝图 聚沙成塔谱华章——中宁县舟塔乡经济社会各项事业及党的建设发展综述_中卫市人民政府', '近年来，在县委、县政府的正确领导和县直各部门的大力支持下，中宁县舟塔乡党委、政府以习近平新时代中国特色社会主义思想和党的十九大精神为指导，认真贯彻落实习近平总书记系列重要讲话精神及自治区、市、县党委、政府各项工作部署，按照“五位一体”总体布局和“四个全面”战略布局要求，紧紧围绕“产业增效、农民增收、乡村增色”工作思路，攻坚克难、锐意进取，形成了全乡经济平稳增长、社会事业全面发展、人民生活水平稳步提高的良好局面。', '舟塔乡位于中宁县城西郊，东邻宁安镇，南接清水河，西靠泉眼山，北依黄河，总面积46.5平方公里，耕地面积3.2万亩。全乡辖10个行政村100个村民小组，9333户30276人。舟塔乡以枸杞、红枣、畜牧为支柱产业，重点发展枸杞传统优势特色产业。2017年年底，全乡社会总产值达8.59亿元，其中农业总产值达4.81亿元；农民人均可支配收入达12031元。乡党委下设16个基层党支部，有党员837名。舟塔乡先后荣获宁夏回族自治区民族团结进步创建活动示范乡、2016年度农村全面小康建设工作先进集体二等奖、2016年度全县安全生产工作先进集体、2017年度三星级基层服务型党组织、2017年度五四红旗团委等多项荣誉。', '枸杞产业发展方面：一是社会化服务体系作用显现。继续发挥杞惠农枸杞专业合作社牵头作用，对外提供枸杞病虫害统防统治技术培训、修剪整形等社会化服务。上半年，共培训人员1600余人，枸杞修剪1200余亩,统防统治3000余亩，逐步建立了现代化农业发展的“舟塔模式”。二是村集体合作社枸杞加工生产设备有所改善。积极争取移民项目资金632万元，在潘营村建设高标准拣选、色选及包装车间一座，形成了村集体合作社从枸杞种植、加工、包装流水作业线，为舟塔乡枸杞从散货销售到成品销售奠定了基础。三是村集体合作社枸杞销售渠道进一步拓宽，科学化管理水平提高。积极与百瑞源、宁夏红等大型企业对接，加大枸杞销售力度；主动到上海、苏州等地考察枸杞市场，为枸杞销售打通渠道；主动搭乘顺丰快递直通车，将鲜枸杞以每公斤40元的价格销售到全国各地。', '重点项目建设方面：一是美丽小城镇建设项目进展顺利。舟塔乡美丽小城镇建设项目总投资2903万元，涉及舟塔村、靳崖村和上桥村，全长1.7千米，重点以宁舟路两侧进行巷道硬化、污水管网铺设、住房外立面改造、绿化美化为主要内容的环境综合整治。目前已完成工程量的80%。二是实施上桥村美丽村庄建设项目。上桥村美丽村庄建设主要包括改水改厕、铺设污水管网、设置污水处理终端，配置垃圾箱、垃圾转运车等，已完成工程量40%。三是低洼盐碱地改造项目已立项。申请移民项目资金近1000万元对大、小南河子两侧及硝池片沟渠路进行全面清理和砌护，工程建设已接近尾声。', '社会民生事业方面：一是实施了千亿斤粮食、移民后期、“一事一议”项目。积极争取农业千亿斤粮食田间示范项目、移民后期扶持项目、“一事一议”财政奖补项目，共砌护渠道49条长33.7千米，道路硬化2100米，有效解决了群众淌水难、出行难的问题。二是“两改一处理”项目落实到位。积极引进“两改一处理”项目补助资金，对上桥村360户农户进行了改厨、改厕及污水处理。三是完成了县人大意见建议办理工作。上桥村1组路面硬化，田滩村5组主干道路、桥面翻建现已办理完毕。完成了困难人员、残疾军人、退役士兵帮扶补助，以及留守老人儿童关爱服务站建设和“阳光沐浴”工程的太阳能安装工作。以综治中心建设为抓手，整合综治、信访、禁毒、安全生产人员力量，建设完善信访案件分流、舆情分析研判、矛盾纠纷调处奖补、综治网格化管理、综治信访考核等制度机制，妥善化解康永生、宋金柱两个遗留案件。上半年共调处上级交办案件59件，调处成功56件，没有到京赴银上访案件，全乡社会和谐稳定。持续推进村务公开和民主管理，加强保险征缴工作。发放临时救助资金7.926万元，救灾资金20.597万元。全乡60岁以上奖励扶助30人，享受独生子女保健费44户，完成孕前优生健康检查215例，人口与计划生育工作有效落实。加强安全生产工作，高度重视重大节假日安全生产工作，开展了微小企业农用车辆安全、枸杞采摘等领域安全专项整治行动，确保了全乡安全生产形势持续稳定。', '以“两学一做”学习教育常态化制度化为抓手，紧紧围绕服务型党组织建设要求，推动全面从严治党工作再上新台阶。严格落实“三会一课”、组织生活会、民主评议党员和支部主题党日等党建制度开展各类活动。扎实推进“三大三强”行动和“两个带头人”工程。新建村级活动场所1个，改扩建村级活动场所3个，积极争取县委组织部支持，给9个村配备了15万元的办公设施、有效改善了村级办公环境，培养后备干部52人、村级致富带头人55人。加大对村“两委”成员的培训力度，先后有4名村党支部书记到外省区培训学习，乡党委聘请党校老师、组织部领导对村“两委”成员进行了两期培训，对考核不合格者进行专题培训补考，保证培训取得了实效。加大村党支部班子建设调整力度。乡党委对舟塔村、靳崖村、潘营村和黄桥村4个村党支部成员进行了调整，同时及时配备驻村第一书记并调整包村领导，指导协助开展工作。认真开展了软弱涣散党组织整顿整治工作，10个村党支部积极开展自查，找问题、列清单、寻对策，按照整顿日程安排已经完成了专题学习、专题讨论和党员谈心谈话等，整顿效果明显。认真贯彻党员发展方针，今年上半年共吸收预备党员3名，按期转正4名。乡机关党支部按照“三强九严”工程要求，党委书记和党支部书记履行了抓机关党建的工作责任、落实了各项党建工作制度并完成党支部换届选举。及时调整意识形态工作领导小组成员，全乡开展党委理论中心组学习6次，完成上桥村社会主义核心价值观文化长廊建设，向群众普及移风易俗、扫黑除恶、扫黄打非等相关规定，张贴、发放宣传资料10000余份，LED宣传30次，活动受教人数达6000余人。同时扎实推进“平安舟塔”建设，抓好阵地管理，积极开展各类主题活动，为构建和谐稳定社会营造了良好的氛围。', '以落实党风廉政建设责任制为抓手，以开展“两学一做”学习教育常态化制度化为契机，深入推进“两个责任”，以行动聚焦主业、落实监督责任，深入推进党风廉政建设和反腐败各项工作，党委主体责任和纪委监督责任得到有效落实。加强学习教育，营造廉政氛围。通过召开中心组学习会议、党委政府班子会议、乡村干部大会和每日学习晨会，组织班子成员、乡村干部学习党纪党规、党的十九大精神、全国两会精神、自治区两会精神和中央、自治区、市、县纪委全会精神，组织乡村两级干部观看《打铁还需自身硬》《权力之殇—宁夏落马县（区）委书记警示录》《贪欲之祸》等警示教育片，提高各级党员干部政廉洁自律意识，从思想源头上筑牢不敢腐、不能腐、不想腐的思想防线。深入开展违反中央八项规定精神突出问题专项治理“回头看”活动，重点对十八大以来的公务接待、出差补助凭证，对公务接待、违规公款吃喝、违规配备使用办公用房、违规收送红包礼金、违规公务用车、差旅费报销、大额资金支出、发放津补贴等方面进行了全面清查。对自查中发现的问题进行了整改，共清退资金134517元，并上交县纪委“廉政专户”，进一步严肃了财经纪律，规范基础管理，强化经费监督，从严贯彻落实八项规定。密切注意“四风”问题新动向新表现，对八个问题、三种行为和10种表现进行认真自查，并对查找出的问题认真进行整改。加大对全乡党员干部作风纪律及各项制度规定执行情况的监督检查力度，加强食堂管理，严格公务接待、公车管理、禁止大操大办、厉行节约反对铺张浪费等制度的落实，巩固“四风”成果，推动干部作风持续好转。坚决查处违法违纪案件，对违法现象和违纪行为发现一起就坚决查处一起，给予4人党纪处分。舟塔乡党委将继续认真落实“两个责任”，以踏石留印、抓铁有痕的劲头，继续深化“三转”、聚焦主业，加强自身建设，扎扎实实把党风廉政建设和反腐败斗争推向深入，进一步提高全乡群众对反腐倡廉建设工作的满意度，努力实现干部清正、政府清廉、政治清明，为舟塔乡经济社会各项事业持续健康、稳步发展提供坚强的纪律保障。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>293</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>中共中卫市委员会印发通知坚决贯彻落实习近平总书记重要指示精神加强党的领导发挥党组织和党员干部作用为打赢疫情防控阻击战提供坚强政治保证</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2020-02-01</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202002/t20200201_1937368.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['中共中卫市委员会印发《通知》 坚决贯彻落实习近平总书记重要指示精神 加强党的领导 发挥党组织和党员干部作用 为打赢疫情防控阻击战提供坚强政治保证_中卫市人民政府', '中共中卫市委员会印发《通知》 坚决贯彻落实习近平总书记重要指示精神 加强党的领导 发挥党组织和党员干部作用 为打赢疫情防控阻击战提供坚强政治保证', '为深入学习贯彻习近平总书记关于做好新型冠状病毒感染的肺炎疫情防控工作的重要指示精神，充分发挥各级党委（党组）总揽全局、协调各方作用和基层党组织战斗堡垒作用、共产党员先锋模范作用，团结带领和紧紧依靠广大人民群众坚决打赢疫情防控阻击战，根据中共中央《关于加强党的领导、为打赢疫情防控阻击战提供坚强政治保证的通知》（中发电〔2020〕3号）、中央纪委国家监委《关于贯彻党中央部署要求、做好新型冠状病毒感染肺炎疫情防控监督工作的通知》（中纪办发〔2020〕1号）、中共中央组织部《关于坚决贯彻落实习近平总书记重要指示精神在打赢疫情防控阻击战中积极主动履职有效发挥作用的通知》（组电明字〔2020〕3号），以及自治区党委《关于坚决贯彻落实习近平总书记重要指示精神加强党的领导为打赢疫情防控阻击战提供坚强政治保证的通知》（宁党发〔2020〕5号）精神，结合我市疫情防控工作实际，现就有关事项通知如下。', '新型冠状病毒感染的肺炎疫情发生以来，以习近平同志为核心的党中央高度重视，习近平总书记多次作出重要指示，多次主持召开会议，对疫情防控工作进行研究部署，提出明确要求，彰显了真切为民的深厚情怀，强化了疫情防控的工作部署，为我们打赢疫情防控阻击战指明了方向、提供了遵循、坚定了信心。1月27日，习近平总书记再次作出重要指示，要求各级党委（党组）、各级领导班子和领导干部、基层党组织和广大党员要不忘初心、牢记使命，挺身而出、英勇奋斗、扎实工作，团结带领广大人民群众坚定不移把党中央决策部署落到实处，坚决打赢疫情防控阻击战。自治区党委多次召开会议，对坚决贯彻中央要求和习近平总书记重要指示精神进行了动员部署，进一步明确工作责任，强化工作措施。全市各级党委（党组）要切实增强“四个意识”、坚定“四个自信”、做到“两个维护”，把思想和行动统一到习近平总书记重要指示精神和区、市党委的决策部署上来，按照党中央提出的“坚定信心、同舟共济、科学防治、精准施策”和自治区党委“要把打赢疫情防控阻击战作为当前最重要的任务来完成、最紧迫的工作来抓紧、最实际的考验来接受”的要求，想人民群众之所想，急人民群众之所急，把人民群众的生命安全和身体健康放在第一位，把疫情防控作为首要政治任务，科学判断形势、精准把握疫情，统一领导、统一指挥、统一行动，坚定不移把党中央和区、市党委各项决策部署落到实处。要抓住春节前人口流动减少的有利时机，紧盯节后流动人员返程、务工人员返流、广大学生返校“三返”人口流动高峰的时间节点，全面动员、全面部署、全面加强工作，采取切实有效措施，集中力量控制疫情。要组织动员各级党组织和广大党员干部，把投身防控疫情第一线作为践行初心使命、体现责任担当的试金石和磨刀石，把党的政治优势、组织优势、密切联系群众优势转化为疫情防控的强大政治优势，让党旗在防控疫情斗争第一线高高飘扬。', '二、认真履职尽责，激励引导广大党员干部在打赢疫情防控阻击战中挺身而出、英勇斗争、扎实工作', '疫情就是命令，防控就是责任。当前，新型冠状病毒感染的肺炎疫情正在蔓延，范围正在扩大，形势十分严峻，任务非常艰巨。全市各级领导干部特别是党政主要负责同志要切实履行第一责任人职责，进一步增强战时意识，进入战时状态，率先垂范、以身作则，严格遵守不外出休假、守好自己的门，不擅离职守、尽好自己的责，不敷衍失责、办好自己的事“三不三好”的要求，勇于到疫情防控第一线、最前沿发现问题、解决问题、检查督导、推动工作，切实做到守土有责、守土担责、守土尽责，以自身示范作用带领广大党员干部群众积极投身疫情防控阻击战。分管同志要切实履行直接责任，科学研判疫情形势，从严从实抓好中央和区、市党委确定的政策措施落地落实，深入一线组织和督促分管部门（单位）加强疫情防控，真正做到科学防治、精准施策，构筑起牢不可破的严密防线。全市机关党员干部要提前结束休假，立即进入工作状态，在本职岗位上戴党徽、亮身份，充分发挥先锋模范作用，通过设立党员责任区、组建党员突击队，引导党员危机关头、危险时刻冲锋在第一线、战斗在最前沿；要认真做好群众思想政治工作，及时解疑释惑，把疫情特点讲清楚，把防控措施要求讲清楚，把防控救治政策讲清楚，教育引导群众减少走亲访友，不去人员聚集场所，减少与疫情城市返回人员的接触，降低感染传播疫情的风险，不信谣、不传谣，切实当好群众的贴心人和主心骨。各级组织部门要在疫情防控一线考察识别、评价使用干部，把领导班子和领导干部在疫情防控斗争中的实际表现作为考察其政治素质、宗旨意识、全局观念、驾驭能力、担当精神的重要内容，对表现突出、堪当重任的优秀干部，要表扬表彰、大胆使用；对不胜任现职、难以有效履行职责的，要及时调整。各级纪检监察部门要坚持失责必问、问责必严，对贯彻落实疫情防控决策部署行动迟缓、作风飘浮、落实不力，甚至弄虚作假、失职渎职的，要从严查处、严肃问责。纪检、组织部门要尽快组织专项督查组，深入各地各重点部位了解干部的实际表现。', '党的力量来自组织。全市各级党委（党组）要按照不忘初心、牢记使命的要求，把基层党组织和广大党员全面动员起来，发扬不畏艰险、无私奉献的精神，坚定站在疫情防控第一线，认真落实严防严控、联防联控、群防群控等措施，做到哪里任务险重哪里就有党组织坚强有力的工作、哪里就有党员当先锋作表率。乡镇党委要全力落实疫情防控属地责任，认真执行包村（社区）责任制，严格按照全面摸清底数、全面建立台账、全面进行隔离“三个全面”的要求，积极动员群众、组织群众、凝聚群众，做好疫情监测、排查、预警、防控等工作。村（社区）党组织要紧紧依靠人民群众，用好区域化党建联建平台，组织党员包片包户包人、全覆盖地毯式登记排查，严密排查重点人员、严格控制聚会聚集、严厉实施疑似人员密切接触者隔离观察，内防扩散、外防输出，把各项防控措施覆盖到户、落实到人。机关、事业单位党组织要加强与属地党组织协同配合，结合市、县（区）领导网格化包抓城乡社区防控工作，组织党员干部深入“责任区”疫情防控第一线，积极协助村（社区）党组织做好外来车辆人员登记、疫情防控宣传、重点人员监测管控等工作；要教育引导干部职工落实防护措施，做好疫情防控工作，同时在维护稳定、保障运行、调配资源、筹措资金等方面发挥作用。特别是宣传、公安、市场监管、商务等部门（单位）党组织要加强市场监管，严厉打击囤积居奇、哄抬物价等行为，保障商品物资稳定供应，鼓励餐饮企业开展送餐服务；强化舆情监测和舆论引导，严厉打击编造传播发布谣言行为；加强疫情防控知识宣传普及，及时澄清不实传言，准确发布疫情及防控情况，坚定社会各方面战胜疫情的决心和信心。非公经济组织和社会组织党组织要积极履行社会责任，认真做好本单位的疫情防控工作，全力维护好因疫情而受到影响的职工权益。要积极引领群团组织、社会力量参与疫情防控，凝聚社会各界共同抗击疫情的强大合力，构筑群防群治抵御疫情的严密防线。要注重在疫情防控一线发现、考验入党积极分子，表现突出、符合条件的，及时发展入党。对不服从组织安排、影响疫情防控措施落实、畏惧退缩的党员，要严肃处理。', '广大医务人员和防控人员舍生忘死、主动请战、冲锋在前，表现了崇高的敬业精神。各级党委（党组）及卫生健康部门要动员、选派专家和医务人员中的党员、干部，发扬救死扶伤的光荣传统，勇挑重担、迎难而上，临危不惧、恪尽职守，在医疗救护、基础预防等岗位发挥作用。要从政治上、生活上关心支持奋战在疫情防控阻击战一线的专家、医务人员和防控人员，实行最周密的安全防护措施，做到防护设备配置、防护措施落实、人员待遇保障“三到位”。要深入宣传医务人员和防控人员克服困难全力投入防控、守护人民健康的感人事迹，营造全社会关心关爱医务人员和防控人员的良好氛围。要关心关注机关党员、干部、新闻工作者等工作在疫情防控一线人员的身心健康，多与他们谈心沟通，切实解决他们在轮换休息、家庭照护等方面的实际困难和后顾之忧。', '全市各级党委（党组）要切实加强组织领导，把打赢疫情防控阻击战作为政治担当不担当、群众感情真挚不真挚、看齐意识过硬不过硬的重大考验，思想认识再提高、防控措施再强化、工作责任再压实。市委和市政府督查室要加强督导检查，突出应对疫情防控的政治督查、履责督查、落实力和执行力督查、重点督查，坚决防止形式主义、官僚主义，确保疫情防控工作各项措施落实落地。', '全市各级党委（党组）动员党组织和广大党员、干部在防控疫情阻击战中发挥作用的情况，要及时报告市委。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>293</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>中卫市法治政府建设年工作要点</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2023-03-02</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/ssfj/fdzdgknr_49428/bmwj_49457/202303/t20230321_4003747.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['《中卫市法治政府建设2023年工作要点》已经市委全面依法治市委员会第九次会议审议通过，现印发给你们，请认真贯彻落实。', '为全面深入推进依法行政，加快法治政府建设，持续推进治理体系和治理能力现代化，立足实现经济社会高质量发展、满足人民群众新期待，全面推进各方面工作法治化，结合我市实际，制定中卫市法治政府建设2023年工作要点。', '为全面深入推进依法行政，加快法治政府建设，持续推进治理体系和治理能力现代化，立足实现经济社会高质量发展、满足人民群众新期待，全面推进各方面工作法治化，结合我市实际，制定中卫市法治政府建设', '以习近平新时代中国特色社会主义思想为指导，全面贯彻党的二十大精神，深入学习贯彻习近平法治思想，对标对表《法治中卫建设实施方案（2021-2025年）》《中卫市法治政府建设实施方案（2022-2025年）》确定的各项任务，以建设职能科学、权责法定、执法严明、公开公正、智能高效、廉洁诚信、人民满意的法治政府为目标，以解决当前法治政府建设的短板弱项为重点，全面促进我市法治政府建设提质增效，为到2035年法治中卫、法治政府、法治社会基本建成奠定坚实基础。', '会主义思想为指导，全面贯彻党的二十大精神，深入学习贯彻习近平法治思想，对标对表《法治中卫建设实施方案（2021-2025年）》《中卫市法治政府建设实施方案（2022-2025年）》确定的各项任务，以建设职能科学、权责法定、执法严明、公开公正、智能高效、廉洁诚信、人民满意的法治政府为目标，以解决当前法治政府建设的短板弱项为重点，全面促进我市法治政府建设提质增效，为到2035年法治中卫、法治政府、法治社会基本建成奠定坚实基础。', '会主义思想为指导，全面贯彻党的二十大精神，深入学习贯彻习近平法治思想，对标对表《法治中卫建设实施方案（', '年）》确定的各项任务，以建设职能科学、权责法定、执法严明、公开公正、智能高效、廉洁诚信、人民满意的法治政府为目标，以解决当前法治政府建设的短板弱项为重点，全面促进我市法治政府建设提质增效，为到', '办”，行政审批事项在法定期限内完成并不断压缩办理时限。依法实施行政许可，非行政许可审批事项全部取消', '，行政审批事项在法定期限内完成并不断压缩办理时限。依法实施行政许可，非行政许可审批事项全部取消', '无法定依据的行政审批中介服务项目以及收费一律取消。对保留的行政审批中介服务事项实行清单管理，明确办理时限、工作流程、申报条件、收费标准并向社会公开。行政审批中介服务机构的人、财、物与政府脱钩。全面推行“证照分离”“多证合一”，将更多涉企经营许可事项纳入改革。大力推进“照后减证”，积极推进“一业一证”改革，探索实现“一证准营”、跨地互认通用。', '无法定依据的行政审批中介服务项目以及收费一律取消。对保留的行政审批中介服务事项实行清单管理，明确办理时限、工作流程、申报条件、收费标准并向社会公开。行政审批中介服务机构的人、财、物与政府脱钩。全面推行', '个工作日，市场监管、税务、社保等流程逐步实现“一窗受理，并行办理”。逐步推进电子营业执照、企业电子印章应用，实现工程建设项目全流程在线审批。', '落实证明事项告知承诺制，加强核查监管，新设证明事项必须有法律法规或者国务院决定依据。对各类证明事项，凡没有法律法规', '积极推行证明事项和涉企经营许可事项告知承诺制。适时对证明事项告知承诺制工作开展情况进行督导检查。', '全面实施行政事业性收费和政府性基金清单制度，清单之外的一律取消。建立健全全面清理整顿部门下属事业单位、行业协会商会收费', '深入贯彻落实国务院《优化营商环境条例》《宁夏回族自治区优化营商环境条例》，认真开展公平竞争审查，全面清理废除地方保护、指定交易、市场壁垒等妨碍统一市场公平竞争的各种规定和做法，特别是对非公有制经济各种形式的不合理规定。对涉嫌违法的企业和人员、财产，依法审慎决定是否采取相关行政强制措施。全面推进政务诚信建设，严格兑现向行政相对人依法作出的政策承诺。认真履行在招商引资、政府与社会资本合作等活动中与投资主体签订的各类合同约定义务。全面清理涉企收费、摊派事项和各类评比达标活动。依法保障企业自主加入和退出行业协会商会的权利。', '充分发挥营商环境18个工作专班作用，加大督查考核力度，修订完善2023年营商环境考核细则。', '全面梳理现有涉企现场检查事项，通过取消、整合、转为非现场检查等方式，压减重复或不必要检查事项，', '涉企现场检查事项多、频次高、随意检查等问题。加强信用监管，推进涉企信息归集共享，严格依法科学界定守信和失信行为，', '政务服务重点领域和高频事项基本实现“一网、一门、一次”。全面提升政务服务水平，制定', '等制度。大力推进政务服务跨省通办，深化“全程网办”、拓展“异地代收代办”、优化“多地联办”，加快推进全市一体化热线平台应用，构建完善“四级联动”的热线工作机制。全面开展政务服务“好差评”，公开政务服务评价信息，强化服务差评整改', '对涉及本级政府及部门的政务咨询投诉举报及时处置、限时办结。认真落实《关于深入学习贯彻自治区第十三次党代会精神加快推进公共法律服务体系建设的实施方案（2022-2026年）》，深入推进“乡村振兴 法治同行”活动，均衡配置城乡法律服务资源，加快建设覆盖城乡的现代化公共法律服务体系，努力让全体人民共享法治成果。', '对涉及本级政府及部门的政务咨询投诉举报及时处置、限时办结。认真落实《关于深入学习贯彻自治区第十三次党代会精神加快推进公共法律服务体系建设的实施方案（', '活动，均衡配置城乡法律服务资源，加快建设覆盖城乡的现代化公共法律服务体系，努力让全体人民共享法治成果。', '严格落实《宁夏回族自治区重大行政决策规定》《中卫市重大行政决策社会稳定风险评估暂行办法》，规范重大行政决策流程，明确重大行政决策的决策主体、事项范围、程序要求。第一季度前制定年度重大行政决策事项目录，向社会公开，并根据实际情况调整。重大行政决策情况依法自觉接受本级人大及其常委会的监督，根据法律法规规定属于本级人大及其常委会讨论决定的重大事项范围或者应当在出台前向本级人大及其常委会报告的，严格按照有关规定办理。', '实行重大行政决策公开制度，除依法应当保密的外，决策事项、依据和结果全部公开，并为公众查阅提供服务。对社会关注度高的决策事项，认真进行解释说明。除依法不予公开的外，重大行政决策事项充分听取社会公众意见。明确专家参与论证重大行政决策的程序规则，专业性、技术性较强的决策事项，组织专家、专业机构论证其必要性、可行性、科学性等。对涉及经济社会发展和人民群众切身利益的重大政策、重大项目等决策事项，进行社会稳定、公共安全等方面的风险评估，形成相关风险评估报告。重大行政决策未经合法性审查或经合法性审查不合法的，不得提交决策机关讨论，不得以征求意见等方式代替合法性审查。全面推行法律顾问、公职律师制度，充分发挥法律顾问、', '建立重大行政决策全过程记录、材料归档和档案管理制度，实现重大行政决策年度目录事项全部立卷归档。建立决策机关跟踪重大行政决策执行情况和实施效果制度，对重大行政决策实施后明显未达到预期效果，公民、法人或者其他组织提出较多意见的重大行政决策进行决策后评估。重大行政决策一经', '出，未经法定程序不得随意变更或者停止执行。严格落实重大行政决策终身责任追究制度和责任倒查机制。', '行政规范性文件制定工作的领导，制定、修改过程中遇有重大问题及时向同级党委请示报告，确保重要立法活动都在党的领导下进行。紧密结合', '发展需要和实际，增强政府立法与人大立法的协同性，不断提高地方制度建设的质量和效率。', '根据政府规章立法计划，做好《中卫市餐厨垃圾管理办法》或《中卫市生活垃圾管理办法》立法工作，', '持续改进立法调研，积极推进立法协商，完善公众意见反馈、论证咨询等机制，有序扩大各方参与，提高立法质效。加强立法风险评估，坚决杜绝因立法引发的舆情炒作。主动接受人大常委会、人民政协、媒体对政府立法工作的监督。', '除依法需要保密的外，地方政府规章草案一律向社会公开征求意见，期限一般不少于30日。对公民、法人和其他组织权利义务有重大影响、涉及人民群众切身利益的行政规范性文件，向社会公开征求意见，期限一般不少于7个工作日（与市场主体生产经营活动密切相关的行政规范性文件，期限一般不少于30日）。涉及企业和特定群体、行业利益的，积极运用新媒体新技术，充分听取企业、人民团体、行业协会商会的意见。加强基层立法联系点工作，更好发挥基层立法联系点“民意直通车”作用', '日。对公民、法人和其他组织权利义务有重大影响、涉及人民群众切身利益的行政规范性文件，向社会公开征求意见，期限一般不少于', '日）。涉及企业和特定群体、行业利益的，积极运用新媒体新技术，充分听取企业、人民团体、行业协会商会的意见。加强基层立法联系点工作，更好发挥基层立法联系点', '制定行政规范性文件应当经过调研起草、征求意见、协调分歧、法制审核、审议决定、签署、编号、公布等程序，属于重大行政决策的行政规范性文件，还应当进行风险评估', '制定机关负责合法性审核的部门对文件的制定主体、程序和有关内容等是否符合法律法规规章和国家政策的规定，及时进行合法性审核。', '坚持将行政权力制约和监督体系纳入党委和政府监督体系全局统筹规划，突出党内监督主导地位。自觉接受、配合监察机关开展的监督工作。认真研究办理人大及其常委会组成人员对政府工作提出的有关审议意见、人大代表和政协委员提出的意见和建议。支持人民法院依法受理和审理行政案件，行政机关负责人按规定出庭应诉，被诉行政机关负责人出庭率达100%。', '坚持将行政权力制约和监督体系纳入党委和政府监督体系全局统筹规划，突出党内监督主导地位。自觉接受、配合监察机关开展的监督工作。认真研究办理人大及其常委会组成人员对政府工作提出的有关审议意见、人大代表和政协委员提出的意见和建议。支持人民法院依法受理和审理行政案件，行政机关负责人按规定出庭应诉，被诉行政机关负责人出庭率达', '对新闻媒体曝光的违法行政问题及时进行调查核实，解释说明，依法作出处理并进行反馈。坚持严管和厚爱结合、激励和约束并重，做到依规依纪依法严肃问责、规范问责、精准问责、慎重问责，既避免问责不力，也避免问责泛化、简单化。', '建成市县乡全覆盖的比较完善的行政执法协调监督工作体系。形成政府内部权力制约体系，有效发挥审计监督、统计监督、财会监督、执法监督、行政复议等监督机制作用。对财政资金分配使用、国有资产监管、政府投资、政府采购、公共资源转让、公共工程建设等权力集中的部门和岗位实行分事行权、分岗设权、分级授权，定期轮岗。', '完善守信联合激励和失信惩戒机制，强化和规范信用约束，防止滥用信用惩戒。对社会关注度高、人民群众反映强烈的政务失信易发多发领域进行重点治理。加强信用监管，推进涉企信息归集共享，严格依法科学界定守信和失信行为，', '进一步完善失信惩戒退出机制及信用修复制度、信用修复流程，建立线上信用修复专栏和线下信用修复专窗，引导企业自主纠正失信行为。', '建立政务失信记录制度，健全政府守信践诺机制，大力推进招商引资、政府债务、政府和社会资本合作等重点领域的政务诚信建设。加强社会各方对政务诚信的评价监督，形成多方监督的信用约束体系。', '实行政务公开清单管理制度，并动态更新。大力推进决策、执行、管理、服务和结果公开，加强政务公开制度化、标准化、信息化建设，编制政务公开事项标准目录，提高政务公开能力和水平。推动民生保障、公共服务和市场监管等领域政府数据向社会有序开放，全面提升政府信息公开申请办理工作质量，依法保障人民群众合理信息需求。对符合法定条件要求的依申请公开政府信息的答复率达100%', '实行政务公开清单管理制度，并动态更新。大力推进决策、执行、管理、服务和结果公开，加强政务公开制度化、标准化、信息化建设，编制政务公开事项标准目录，提高政务公开能力和水平。推动民生保障、公共服务和市场监管等领域政府数据向社会有序开放，全面提升政府信息公开申请办理工作质量，依法保障人民群众合理信息需求。对符合法定条件要求的依申请公开政府信息的答复率达', '不履行或者不正确履行政府信息公开法定职责，在行政复议或者行政诉讼中被撤销、确认违法或者责令履行等', '有效运行信访、调解、仲裁、行政裁决、行政复议、诉讼等矛盾纠纷多元预防调处化解综合机制，绝大多数矛盾纠纷能够通过法定渠道得到解决。实现乡镇、村（居）人民调解委员会全覆盖，配备专职人民调解员，人民调解工作经费财政保障落实到位。深化多调联动，推动行政调解与人民调解、行业性专业性调解、仲裁调解、司法调解有效衔接，构建优势互补、协调联动的大调解工作格局，持续深入推行“人民调解', '有效运行信访、调解、仲裁、行政裁决、行政复议、诉讼等矛盾纠纷多元预防调处化解综合机制，绝大多数矛盾纠纷能够通过法定渠道得到解决。实现乡镇、村（居）人民调解委员会全覆盖，配备专职人民调解员，人民调解工作经费财政保障落实到位。深化多调联动，推动行政调解与人民调解、行业性专业性调解、仲裁调解、司法调解有效衔接，构建优势互补、协调联动的大调解工作格局，持续深入推行', '”矛盾纠纷治理模式。严格落实“谁执法谁普法”普法责任制，实施以案释法制度，在执法实践中深入开展以案释法和警示教育。', '行政复议机构设置、人员配备与工作任务相适应，行政复议登记受理以及办案场所、工作经费、办案设备等保障到位。行政复议案件办理符合法定程序和时限，审查行政复议案件由', '在政府网站和行政复议接待场所公开受理复议案件的范围、条件、程序等事项，提供行政复议申请书格式样本', '严格贯彻落实《中华人民共和国行政处罚法》，根据本级政府事权和职能，深入推进综合行政执法体制改革。健全业务主管部门与综合行政执法部门、乡镇与县（区）级相关部门行政执法协调协同机制。跨领域跨部门联合执法、协作执法组织有力、运转顺畅。加强食品药品、公共卫生、自然资源、生态环境、安全生产、劳动保障、城市管理、交通运输、金融服务、教育培训等关系群众切身利益的重点领域执法监督，违法行为要及时查处，确保无逾期未查未决案件。', '贯彻落实《中卫市推行行政柔性执法工作方案》，不断创新柔性执法方式，积极推广轻微违法行为依法免罚清单、免责清单制度，综合运用行政指导、行政告诫、行政建议、行政奖励等非强制手段，教育引导行政相对人自觉守法、自我纠错，切实解决重罚轻管、以罚代管、机械执法、“一罚了之”等问题，让执法既有力度又有温度。及时总结梳理并积极推广行政柔性执法的典型案例。探索跨部门大数据办案平台建设，', '贯彻落实《中卫市推行行政柔性执法工作方案》，不断创新柔性执法方式，积极推广轻微违法行为依法免罚清单、免责清单制度，综合运用行政指导、行政告诫、行政建议、行政奖励等非强制手段，教育引导行政相对人自觉守法、自我纠错，切实解决重罚轻管、以罚代管、机械执法、', '等问题，让执法既有力度又有温度。及时总结梳理并积极推广行政柔性执法的典型案例。探索跨部门大数据办案平台建设，', '建立健全行政执法和刑事司法衔接机制，行政执法机关、检察机关、审判机关信息共享、案情通报、案件移送制度建立并全面执行，杜绝有案不移、有案难移、以罚代刑现象。', '按照“谁执法、谁公示”“谁执法、谁录入、谁负责”的原则，全面准确及时依法向社会主动公开行政执法信息，做到应公开尽公开，主动接受社会监督', '的原则，全面准确及时依法向社会主动公开行政执法信息，做到应公开尽公开，主动接受社会监督', '各级行政执法机关要明确具体负责本单位重大执法决定法制审核的工作机构，将政治素养高、业务能力强、具有法律专业背景的人员充实到法制审核岗位。重大执法决定作出前均严格进行法制审核，原则上负责法制审核的人员不少于本单位执法人员总数的5%', '各级行政执法机关要明确具体负责本单位重大执法决定法制审核的工作机构，将政治素养高、业务能力强、具有法律专业背景的人员充实到法制审核岗位。重大执法决定作出前均严格进行法制审核，原则上负责法制审核的人员不少于本单位执法人员总数的', '建立行政执法日常检查监督机制，至少组织1次行政执法案卷评查、抽查或者其他形式的检查工作。全面、严格落实告知制度，依法保障行政相对人陈述、申辩、提出听证申请等权利。健全完善行政执法投诉举报、情况通报等制度，及时查处群众举报的违法行为。全面实行行政执法机关内部人员干预、插手案件办理的记录、通报和责任追究制度。健全执法过错纠正和责任追究程序，实行错案责任倒查问责制。加快对接自治区司法厅完善行政执法监督平台，实现执法数据、执法程序流转，执法信息公开等一体推进。', '次行政执法案卷评查、抽查或者其他形式的检查工作。全面、严格落实告知制度，依法保障行政相对人陈述、申辩、提出听证申请等权利。健全完善行政执法投诉举报、情况通报等制度，及时查处群众举报的违法行为。全面实行行政执法机关内部人员干预、插手案件办理的记录、通报和责任追究制度。健全执法过错纠正和责任追究程序，实行错案责任倒查问责制。加快对接自治区司法厅完善行政执法监督平台，实现执法数据、执法程序流转，执法信息公开等一体推进。', '严格落实《宁夏回族自治区行政执法证件管理办法》，全面落实行政执法人员持证上岗和资格管理制度，全年开展行政执法人员公共法律知识、专门法律知识、新法律法规等专题培训不少于40学时。规范执法人员管理，明确执法人员适用岗位、身份性质、职责权限、权利义务、聘用条件和程序。行政执法经费统一纳入同级财政预算予以保障，罚缴分离和收支两条线管理制度得到有效贯彻。罚没收入同作出行政处罚的行政执法机关的经费完全脱钩，同作出行政处罚的行政执法人员的考核、考评完全脱钩。', '严格落实《宁夏回族自治区行政执法证件管理办法》，全面落实行政执法人员持证上岗和资格管理制度，全年开展行政执法人员公共法律知识、专门法律知识、新法律法规等专题培训不少于', '学时。规范执法人员管理，明确执法人员适用岗位、身份性质、职责权限、权利义务、聘用条件和程序。行政执法经费统一纳入同级财政预算予以保障，罚缴分离和收支两条线管理制度得到有效贯彻。罚没收入同作出行政处罚的行政执法机关的经费完全脱钩，同作出行政处罚的行政执法人员的考核、考评完全脱钩。', '在突发事件处置中需要采取必要智能化管理和服务措施的，在应急预案中应考虑不同人群特别是老年人的需要，提供线上线下相结合的应急救援和保障服务。', '对容易引发自然灾害、事故灾害和公共卫生事件的危险源、危险区域进行调查、登记、风险评估，定期进行检查、监控，并按照国家规定向社会公布。增强风险防范意识，定期开展应急演练，注重提升依法预防突发事件、先期处置和快速反应能力。健全完善突发事件应对培训制度，对本级政府及其部门负有处置突发事件职责的工作人员定期进行培训。加强突发事件信息公开和危机沟通。对涉及特别重大、重大突发事件的政务舆情，最迟在事件发生后5小时内发布权威信息。', '对容易引发自然灾害、事故灾害和公共卫生事件的危险源、危险区域进行调查、登记、风险评估，定期进行检查、监控，并按照国家规定向社会公布。增强风险防范意识，定期开展应急演练，注重提升依法预防突发事件、先期处置和快速反应能力。健全完善突发事件应对培训制度，对本级政府及其部门负有处置突发事件职责的工作人员定期进行培训。加强突发事件信息公开和危机沟通。对涉及特别重大、重大突发事件的政务舆情，最迟在事件发生后', '把能不能有效运用法治思维和法治方式深化改革、推动发展、化解矛盾、维护稳定、应对风险作为考察识别干部的重要条件，在相同条件下优先提拔使用法治素养好、依法履职能力强的干部。对特权思想严重、法治观念淡薄的干部，及时发现并进行批评教育、督促整改，对问题严重或者违法违纪的干部，依法依纪严肃处理。', '（牵头单位：市纪委监委、市委组织部、市委依法治市办；责任单位：市直各部门〔单位〕，各县〔区〕）', '深入学习贯彻习近平法治思想，把习近平法治思想、宪法、民法典列入政府常务会议学习内容，列入本级党校（行政学院）必修课。政府领导班子全年应当举办2期以上法治专题讲座，至少组织开展1次政府及其部门领导班子成员旁听人民法院庭审活动。在政府工作人员中普遍开展宪法法律教育，严格落实国家工作人员宪法宣誓制度。将法律知识培训作为公务员初任培训、任职培训的重要内容，将宪法以及与工作密切相关的法律法规纳入培训考试考核内容，将通过法律知识考试作为通过初任培训、任职培训的标准之一。市、县（区）两级政府承担行政执法职能的部门负责人任期内至少接受一次法治专题脱产培训。', '深入学习贯彻习近平法治思想，把习近平法治思想、宪法、民法典列入政府常务会议学习内容，列入本级党校（行政学院）必修课。政府领导班子全年应当举办', '次政府及其部门领导班子成员旁听人民法院庭审活动。在政府工作人员中普遍开展宪法法律教育，严格落实国家工作人员宪法宣誓制度。将法律知识培训作为公务员初任培训、任职培训的重要内容，将宪法以及与工作密切相关的法律法规纳入培训考试考核内容，将通过法律知识考试作为通过初任培训、任职培训的标准之一。市、县（区）两级政府承担行政执法职能的部门负责人任期内至少接受一次法治专题脱产培训。', '（牵头单位：市委组织部、市委党校、市政府办公室、市司法局；责任单位：市直有关部门〔单位〕，各县〔区〕）', '将法治政府建设纳入全市发展总体规划和年度工作计划。3月1日前，市、县（区）两级政府向同级党委、人大常委会和上一级政府报告上一年度法治政府建设情况，市、县（区）两级政府部门向本级党委和政府、上一级政府有关部门报告上一年度法治政府建设情况，并在', '日前，市、县（区）两级政府向同级党委、人大常委会和上一级政府报告上一年度法治政府建设情况，市、县（区）两级政府部门向本级党委和政府、上一级政府有关部门报告上一年度法治政府建设情况，并在', '市委依法治市办要将述法工作作为推动法治中卫建设的有力抓手，认真贯彻落实《党政主要负责人履行推进法治建设第一责任人职责规定》，细化完善述法工作制度机制，深入推进党政主要负责人年终述法，全覆盖推进领导干部年终述法，将党政主要负责人履行推进法治建设第一责任人职责情况纳入党委巡察内容，全面提升法治中卫建设水平。', '（牵头单位：市委依法治市办、市委巡察办；责任单位：市直各部门〔单位〕，各县〔区〕）', '各县（区）、市直各部门（单位）要进一步加强组织领导，将法治政府建设列入重要议事日程，结合工作实际，制定工作方案，明确完成时限、责任部门和责任人，确保工作任务不折不扣落实。市委依法治市办将不定期对各单位法治政府建设开展情况进行督查，并及时向市委全面依法治市委员会汇总报告有关情况。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>293</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>习近平在吉林考察时强调</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2020-07-25</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202007/t20200725_2172329.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['中共中央总书记、国家主席、中央军委主席习近平近日在吉林考察时强调，要切实落实党中央决策部署，坚持稳中求进工作总基调，坚持新发展理念，坚决打好三大攻坚战，扎实做好“六稳”工作，全面落实“六保”任务，深入实施东北振兴战略，决胜全面建成小康社会、决战脱贫攻坚，在服务党和国家工作全局中体现新担当，在走出一条质量更高、效益更好、结构更优、优势充分释放的发展新路上实现新突破，在加快推动新时代吉林全面振兴、全方位振兴的征程上展现新作为。', '习近平指出，明年我国将开始实施“十四五”规划。“十四五”时期是我国开启全面建设社会主义现代化国家新征程的第一个五年，谋划好“十四五”时期发展十分重要。当今世界正经历百年未有之大变局，我国发展的内部条件和外部环境正在发生深刻复杂变化。我们要保持经济社会持续健康发展，必须深入研判、深入调查、科学决策。党中央正在组织制定“十四五”时期经济社会发展规划建议。习近平希望各地深入调研，聚焦面临的老难题和新挑战，认真谋划“十四五”时期发展的目标、思路、举措。', '7月22日至24日，习近平在吉林省委书记巴音朝鲁、省长景俊海陪同下，先后来到四平、长春等地，深入农村、社区、科技园区、企业，就统筹推进常态化疫情防控和经济社会发展工作、推进东北振兴、谋划“十四五”时期经济社会发展进行调研。', '吉林松辽平原素有“黄金玉米带”和“大豆之乡”的美誉，是国家粮食主产区之一。22日下午，习近平首先来到地处松辽平原腹地的梨树县，在国家百万亩绿色食品原料（玉米）标准化生产基地核心示范区地块，听取吉林省和梨树县农业发展和机械化、规模化种植情况汇报。骄阳似火，沃野千里，绿浪滚滚，无人机正在进行喷洒作业。习近平指出，我十分关心粮食生产和安全。今年夏粮丰收大局已定，秋粮要争取有好的收成。吉林要把保障粮食安全放在突出位置，毫不放松抓好粮食生产，加快转变农业发展方式，在探索现代农业发展道路上创造更多经验。', '习近平走进玉米地，察看黑土地实验样品和玉米优良品种展示，了解农业科技研发利用、黑土地保护情况。习近平强调，农业现代化，关键是农业科技现代化。要加强农业与科技融合，加强农业科技创新，科研人员要把论文写在大地上，让农民用最好的技术种出最好的粮食。要认真总结和推广梨树模式，采取有效措施切实把黑土地这个“耕地中的大熊猫”保护好、利用好，使之永远造福人民。', '接着，习近平来到卢伟农机农民专业合作社，听取合作社生产经营情况介绍。社员们说，入社农户每公顷土地年纯收入可达到万元以上，习近平听了十分高兴。他强调，农民专业合作社是市场经济条件下发展适度规模经营、发展现代农业的有效组织形式，有利于提高农业科技水平、提高农民科技文化素质、提高农业综合经营效益。要积极扶持家庭农场、农民合作社等新型农业经营主体，鼓励各地因地制宜探索不同的专业合作社模式。希望乡亲们再接再厉，把合作社办得更加红火。', '随后，习近平参观了四平战役纪念馆。解放战争时期，中国共产党领导的东北民主联军四战四平，近2万名将士壮烈牺牲，为辽沈战役胜利创造了必要条件，为解放战争积累了宝贵的城市攻坚战作战经验。习近平认真观看，不时询问，了解那段气壮山河的战斗历程。他强调，我们一定要牢记革命先辈为中国革命事业付出的鲜血和生命，牢记新中国来之不易。创业难，守业更难。广大党员、干部和人民群众要很好学习了解党史、新中国史，守住党领导人民创立的社会主义伟大事业，世世代代传承下去。', '长春市宽城区团山街道长山花园社区曾经困难重重，环境脏乱差，经过多年改造和治理，如今成为居民安居乐业的社区。23日下午，习近平来到社区，了解社区党建、基层治理、为民服务工作情况，对他们创建的“四级”社区党建网络工作体系和“三长”社区管理体系表示肯定。依托长山花园社区创建的吉林长春社区干部学院，成立一年来承办了全国、省市培训班30期，培训社区工作者4400多人。习近平走进学院，了解学院建设和培训情况。他强调，推进国家治理体系和治理能力现代化，社区治理只能加强、不能削弱。要加强党的领导，推动党组织向最基层延伸，健全基层党组织工作体系，为城乡社区治理提供坚强保证。要总结推广实践中形成的好经验好做法，不断提高教育培训的先进性和系统性。', '随后，习近平步行察看长山花园社区环境，并走进居民赵兴福家，同他们唠家常。赵兴福告诉总书记，这些年社区环境一年一个样，大家生活越来越方便，邻里关系融洽。习近平听了十分欣慰。', '社区广场上，闻讯赶来的社区居民高兴地向总书记问好。习近平向大家挥手致意，希望大家发挥主人翁精神，人人参与、形成合力，搞好为民服务各项工作，共同把家园建设得更加幸福美好。', '长春新区设立5年来，初步建立起以先进制造、生物医药、航空航天等战略性新兴产业为支撑的现代产业体系。习近平走进新区规划展览馆，察看产品展示，了解新区规划建设情况。习近平强调，高新科技园区要围绕国家战略需要，坚持高水平规划、高标准建设，走集约化、内涵式发展道路，要重视基础设施规划建设，更要打通产业链、供应链，在区域经济发展中发挥带动和辐射作用。', '一汽集团是新中国汽车工业的摇篮，60多年来铸就了“红旗”、“解放”等知名自主品牌，形成了系列合资合作品牌。在一汽集团研发总院大厅，总书记听取了整体情况介绍。习近平走进整车硬件测试实验室，了解新技术研发情况。现场有几位刚毕业的大学生，总书记同他们亲切交流，询问今年高校毕业生就业情况。习近平强调，各级党委和政府要高度重视高校毕业生就业问题，高校毕业生要转变择业就业观念，只要有志向就会有事业，只要有本事就会有舞台。希望大家找准定位，踏踏实实实现人生理想。', '企业展厅里，习近平察看了最新款式的整车产品，了解集团创新驱动、体制机制创新、产业结构优化升级情况，并同职工代表简短交流。他强调，推动我国汽车制造业高质量发展，必须加强关键核心技术和关键零部件的自主研发，实现技术自立自强，做强做大民族品牌。当今世界制造业竞争激烈，要抢抓机遇，大力发展战略性新兴产业，实现弯道超车。希望大家发愤图强、不负韶华，在推动东北振兴中奉献聪明才智，在实现中华民族伟大复兴中国梦的进程中书写壮丽的青春华章。', '24日上午，习近平听取了吉林省委和省政府工作汇报，对吉林各项工作取得的成绩给予肯定，希望全省广大干部群众深入贯彻党中央决策部署，不断开创吉林各项事业发展新局面，在新时代吉林振兴中实现新突破、创造新业绩。', '习近平强调，推动经济高质量发展，要着力推动经济发展质量变革、效率变革、动力变革，增强经济竞争力、创新力、抗风险能力。要把实体经济特别是制造业做实做优做强，把提升全产业链水平作为主攻方向，加强新型基础设施建设，加快建设产学研一体化创新平台。要加快转变政府职能，培育市场化法治化国际化营商环境。要深化国有企业改革，支持民营企业发展，发扬企业家精神，激发各类市场主体活力。要积极参与共建“一带一路”，打造好我国向北开放的重要窗口和东北亚地区合作中心枢纽，推进与京津冀协同发展等重大区域发展战略对接合作。', '习近平指出，要抓住实施乡村振兴战略的重大机遇，坚持农业农村优先发展，夯实农业基础地位，深化农村改革。要加快高标准农田建设，强化农业科技和装备支撑，深化农业供给侧结构性改革，加快发展绿色农业，推进农村三产融合。要坚持农业现代化和农村现代化一体设计、一体推进，推进公共服务向乡村延伸。要突出抓好家庭农场和农民合作社两类农业经营主体发展，推进适度规模经营，深化农村集体产权制度改革，发展壮大新型集体经济。要巩固脱贫攻坚成果，防止返贫和产生新的贫困。要牢固树立绿水青山就是金山银山的理念，实施好重大生态工程。', '习近平强调，要始终把人民安居乐业、安危冷暖放在心上，千方百计稳定现有就业，积极增加新的就业，促进失业人员再就业，突出做好高校毕业生、退役军人、农民工和城镇困难人员等重点群体就业工作。要全面贯彻党的教育方针，落实立德树人根本任务，深化教育改革，推动城乡义务教育一体化均衡发展，维护教育公平。要完善重大疫情防控救治体制机制，加大公共卫生基础设施投入，加强公共卫生队伍建设，推动公共卫生服务和医疗服务高效协同。要完善社会治安防控体系，高度重视生产安全。当前，全国防汛进入“七下八上”阶段，必须统筹抓好南北方江河安全度汛，切实做好防汛救灾工作。', '习近平指出，要贯彻落实好新时代党的组织路线，坚持组织建党和思想建党有机结合，把党的组织优势巩固好、发展好、发挥好。要把红色资源作为坚定理想信念、加强党性修养的生动教材，教育引导广大党员、干部永葆初心、永担使命。要严格把好选人用人政治关、廉洁关、能力关，加强对敢担当、善作为干部的激励保护，教育引导各级领导干部树立正确的权力观、政绩观、事业观，力戒形式主义、官僚主义。要全面加强党的基层组织建设，健全基层减负常态化机制。要创新人才工作政策、体制机制、方式方法，积极营造拴心留才的良好环境。要深入推进党风廉政建设和反腐败斗争，落实全面从严治党主体责任，把政治生态建设作为基础性、经常性工作，实现正气充盈、政治清明。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>293</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>市人民政府办公室关于印发中卫市改革完善全科医生培养与使用激励机制实施方案的通知</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2018-12-10</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/zfxxgkml/szfbwj/201812/t20181218_1216530.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['市人民政府办公室关于印发中卫市改革完善全科医生培养与使用激励机制实施方案的通知_中卫市人民政府', '《中卫市改革完善全科医生培养与使用激励机制实施方案》已经市人民政府第32次常务会议研究同意，现印发给你们，请认真抓好贯彻落实。', '为加快构建和完善符合中卫市特点的全科医生培养与使用激励机制，增强全科医生职业吸引力和荣誉感，筑牢基层医疗服务网底，提高基层医疗卫生机构服务能力，根据《自治区人民政府办公厅印发关于改革完善全科医生培养与使用激励机制的实施方案的通知》（宁政办发〔2018〕65号）文件精神，结合我市实际，特制定本方案。', '以习近平新时代中国特色社会主义思想为指导，深入贯彻落实党的十九大精神、自治区第十二次党代会精神及习近平总书记系列重要讲话精神，根据市委四届四次全会关于健康中卫建设各项决策部署，以服务人民健康需求为出发点和落脚点，遵循医疗卫生服务和临床医学人才成长规律，按照政府主导、部门协同工作原则，充分发挥市场机制作用，完善全科医生培养制度，创新全科医生使用激励机制，提升基层医疗卫生服务能力，为建设健康中卫提供全科医学人才支撑。', '到2020年，基本建立适应行业特点的全科医生培养制度及符合中卫实际的全科医生使用激励机制，全科医生培养质量明显提高，服务能力大幅提升，职业吸引力显著增强，城乡每万名居民拥有2—3名合格的全科医生。到2030年，适应行业特点的全科医生培养制度更加健全，使用激励机制更加完善，全市城乡每万名居民拥有不少于5名合格的全科医生，全科医生队伍基本满足健康中卫建设需求。', '（一）强化全科医学学科建设，加强住院医师规范化培训基地建设。在市人民医院、市中医医院建立全科医学实践教学基地，承担全市全科医学实践教学任务。鼓励中宁、海原县人民医院申报助理全科医生培训基地，完善教育教学设施设备和学员住宿条件。严格培训基地动态管理，将全科专业基地建设和作用发挥情况作为培训基地考核评估的核心指标。到2020年，基本建立满足全市助理全科医生培训需求质量较高的培训基地。（市卫生和计划生育局牵头，市发展和改革委员会、市财政局按职责分工负责）', '（二）提升实践教学基地全科师资队伍能力。市人民医院、市中医医院承担中卫市全科医学实践教学，加强临床医学学生毕业后的全科医学师资培训，提高师资教学意识和带教能力，并将教学业绩纳入绩效考核，带教经历和教学质量作为职称晋升的重要因素。在实践教学基地内部分配中，合理确定全科医学科医务人员绩效工资水平，适当加大倾斜力度，提高奖励性绩效工资分配比例，吸引和稳定优秀专业人员。（市卫生和计划生育局牵头，市人力资源和社会保障局、市财政局按职责分工负责）', '（三）巩固完善全科医学继续教育。在宁夏医科大学的指导下，积极运用市、县医学教学资源，创新全科医学继续教育模式，实现规范化、科学化管理。充分利用自治区远程继续医学教育平台，鼓励全科医学专业人员进行在线培训、线下点播等远程医学继续教育，普及全科适宜技术，实现全科医生继续医学教育全覆盖。按照自治区医学继续教育基地认定和退出工作机制，加快建设市县级医学继续教育基地。充分发挥医学继续教育基地的作用，不断提高全科医生常见病诊治、慢性病管理、预防保健、健康教育、心理康复、全周期健康管理等服务水平，满足分级诊疗、签约服务和医养结合等医改服务需求。加强全科医生中医药和康复医学知识与技能培训，鼓励提供中医诊疗、养生保健康复、健康养老等服务。建立市、县级全科医生继续教育专家库，鼓励支持优秀专家承担全科医学继续教育教学工作，加强全科医学师资和教学骨干培养，不断提高全市全科医学继续教育质量。（市人力资源和社会保障局、市卫生和计划生育局按职责分工负责）', '1.改革完善全科医生薪酬制度。推进医疗服务价格改革，合理调整提升体现全科医生在内的医务人员技术劳务价值的医疗服务价格，逐步理顺医疗服务比价关系。按照“允许医疗卫生机构突破现行事业单位工资调控水平，允许医疗服务收入扣除成本并按规定提取各项基金后主要用于人员奖励”的要求，合理核定政府办基层医疗卫生机构绩效工资总量，经市、县（区）级财政部门审核资金来源合法性后，人力资源社会保障部门可核批调控线外奖励性绩效工资，使其工资水平与市、县（区）级综合医院同等条件临床医师工资水平衔接。鼓励基层医疗卫生机构聘用经住院医师规范化培训合格的全科医生，市、县（区）在核定绩效工资总量时按照实际配备全科医生数量进一步给予倾斜。建立与基层医疗卫生机构绩效考核结果相挂钩的工资水平正常增长机制。完善绩效工资分配，调动基层医疗卫生机构医务人员工作积极性，内部绩效工资分配可设立全科医生津贴，按照不高于基本工资10%的标准纳入绩效工资分配。', '推进家庭医生签约服务，签约服务费作为家庭医生团队所在基层医疗卫生机构收入组成部分，用于人员薪酬分配。基层卫生医疗机构要建立家庭医生签约服务费专账，通过绩效考核，按照实际签约人数将签约服务费按季度支付给家庭医生服务团队。同时，将服务对象数量、服务质量、居民满意度等纳入考核指标，加强签约服务质量考核，考核结果与家庭医生团队的签约服务收入挂钩。（市人力资源和社会保障局牵头，市财政局、市卫生和计划生育局、市发展和改革委员会按职责分工负责）', '2.完善全科医生聘用管理办法。公办基层医疗卫生机构在核定的编制内要保证全科医生的配备，对招聘本科及以上学历医学毕业生或经住院医师规范化培训合格的全科医生，简化招聘程序，可采取面试、组织考察等方式公开招聘。对经过住院医师规范化培训合格到农村基层执业的全科医生，可实行“县管乡用”（市、县级医疗卫生机构聘用管理、乡镇卫生院使用）。对经助理全科医生培训合格到村卫生室工作的助理全科医生，可实行“乡管村用”（乡镇卫生院聘用管理、村卫生室使用）。按照“县管乡用”和“乡管村用”管理的人员，执行管理单位工资水平不变，同时享受使用单位奖励性绩效工资分配。结合县、乡、村一体化改革，全科医生可在医共体内部合理调配及流动。（市人力资源和社会保障局牵头，市委编办、市卫生和计划生育局按职责分工负责）', '3.提高全科医生职业吸引力。基层医疗卫生机构在临床医师队伍建设中，对经住院医师规范化培训合格的本科学历全科医生，在人员招聘、职称晋升、岗位聘用等方面，与临床医学、中医硕士专业学位研究生同等对待，落实工资等相关待遇。落实自治区关于调整乡镇卫生院专业技术岗位结构比例的有关政策，岗位聘任重点向经全科专业住院医师规范化培训和全科专业专科医师规范化培训合格的全科医生倾斜。特设岗位全科医生不受县级公立医疗机构岗位总量、最高等级和结构比例限制。', '本科及以上学历毕业、经全科专业住院医师规范化培训合格并到基层医疗卫生机构工作的，可直接参加中级职称考试，考试通过的直接聘任中级职称。基层全科医生参加中级职称考试或申报基层高级职称时，外语成绩不作为申报条件，对论文、科研不作硬性规定，侧重评价临床工作能力，将签约居民数量、接诊量、服务质量、群众满意度等作为职称评审的重要依据。申报高级职称实行单独分组、单独评审。在高层次卫生人才工程建设中，注重选拔培养全科医生骨干人才，同等条件下适当向全科医生倾斜。', '落实《宁夏回族自治区基层卫生计生专业技术人员高级专业技术资格评审条件（试行）》（宁人社函〔2017〕56号）,对长期扎根农村基层工作的全科医生，可突破学历等限制，破格晋升职称。全科专业住院医师规范化培训合格、取得中级职称后在农村基层连续工作10年以上，可经职称评审委员会考核认定，直接取得基层副高级职称，取得的副高级职称限定在基层医疗卫生机构聘任，由基层医疗卫生机构向上级医疗卫生机构流动时，应取得全区统一的高级职称。（市人力资源和社会保障局、市卫生和计划生育局按职责分工负责）', '4.增强全科医生职业荣誉感。坚持精神奖励与物质奖励相结合，实行以政府奖励为导向、单位奖励为主体、社会奖励为补充的全科医生奖励办法，提升全科医生职业荣誉感和社会地位。对长期扎根基层、作出突出贡献的全科医生，按照党和国家有关规定给予表彰奖励。在享受各级政府特殊津贴人员推选和各级各类优秀人才、先进工作者、五一劳动奖章、优秀共产党员等评选工作中，同等条件下适当向基层全科医生倾斜。全市每年评选表彰10名优秀基层全科医生，鼓励县、区按照有关规定开展全科医生表彰奖励工作，组织开展全科医师业务技能竞赛等活动，对优秀全科医生给予适当奖励。（市人力资源和社会保障局、市卫生和计划生育局按职责分工负责）', '5.鼓励社会力量举办全科诊所。落实《自治区人民政府办公厅关于支持社会力量提供多层次多样化医疗服务的实施意见》（宁政办发〔2017〕206号）政策措施，医疗机构相关规划布局不对全科诊所设置作出限制，实行市场调节。支持符合条件的全科医生个体或群体在城乡开办全科诊所，为居民就近提供医疗保健服务。鼓励二、三级综合医院与辖区内全科诊所建立双向转诊机制，畅通转诊渠道。加强政府监管、行业自律与社会监督，促进全科诊所规范发展。', '对提供基本医疗卫生服务的非营利性全科诊所，在人才培养等方面执行与公办基层医疗卫生机构同等补助政策，政府通过购买服务的方式，引导其参与当地基本医疗和基本公共卫生服务及承接政府下达的相关任务，并逐步扩大购买范围；对符合条件的，按规定纳入医保定点范围；对具备条件的，可认定为全科医生基层实践基地，承担全科医生培养任务。对全科诊所基本建设和设备购置等发展建设支出，有条件的地方可通过财政补助等方式给予适当支持。（市卫生和计划生育局牵头，市发展和改革委员会、市人力资源和社会保障局、市财政局按职责分工负责）', '1.加大全科医生培训力度。根据基层医疗卫生机构设置和卫生服务需求，将经培训合格的助理全科医生重点补充到贫困地区乡镇卫生院和村卫生室。扩大全科医生转岗培训实施范围，要求县级及以上医疗机构有关专科医师参加全科医生转岗培训，对培训合格的，在原注册执业范围的基础上增加全科医学专业执业范围，允许其根据多点执业管理办法相关规定，在全市各类医疗机构特别是基层医疗卫生机构执业。要求具有执业（助理）医师资格的乡村医生参加全科医生转岗培训。实行乡村医生全员全科基本知识技能培训，有计划安排乡村医生到乡镇卫生院、县级人民医院进修学习。按照《宁夏回族自治区卫生计生委关于做好基层医疗卫生机构全科医师执业注册工作的通知》（宁卫计办发〔2016〕85号），加快对具备全科医师和助理全科医师资格人员的注册工作。（市卫生和计划生育局牵头，市财政局、市人力资源和社会保障局、市委编办按职责分工负责）', '2.优化全科医生队伍结构。积极推进全科专业住院医师规范化培训和临床医学、中医学硕士专业学位研究生衔接，助理全科医生培训与临床医学、中医学专升本学历教育衔接，到2020年本科以上全科医生达到20%，到2030年达到30%。注重引进高职称的全科医学人才和学科带头人，允许正在从事全科专业的其他专科高级职称人才执业范围加注全科，不断提高业务水平，逐步建立职称结构合理的全科医生队伍。加强对中青年全科医生培养，定期有计划地输送优秀人才参加区内外培训和交流，积极选拔中青年全科医生骨干人才。加强全科医学学科建设，培养高水平的全科师资队伍，保证全科专业住院医师规范化培训、全科医生转岗培训和继续医学教育质量。（市卫生和计划生育局、市人力资源和社会保障局按职责分工负责）', '3.提升全科医生职业素质。加强全科医生的职业素质教育，树立救死扶伤、服务人民、爱岗敬业的高尚医德医风，转变服务理念，更新服务模式，满足人民群众不断增长的健康需求。充分发挥区域医疗联合体作用，建立与基层医疗机构人才对口支援和双向交流机制，通过定期服务、集中培训和进修学习等方式，规范临床诊断和治疗水平，带动基层服务能力提升。（市卫生和计划生育局负责）', '4.扩大全科医生特岗计划实施范围。加大全科医生特岗计划试点工作实施力度，到2020年，试点范围覆盖到所有贫困县乡镇卫生院，所需资金由中央和地方财政共同承担并适当提高补助标准，引导和激励优秀人才到基层工作。（市卫生和计划生育局牵头，市财政局、市人力资源和社会保障局、市委编办按职责分工负责）', '（一）切实加强组织领导。各县（区）要充分认识改革完善全科医生培养与使用激励机制的重要意义，将其作为深化医药卫生体制改革、建设健康中卫的关键环节和重要任务，加强组织领导，强化部门协同。市直各有关部门要明确任务分工，落实牵头部门、分工部门职责，按照进度安排，制定推进时间表和路线图，确保各项改革举措落实到位。', '（二）深化医保支付制度改革。依托基层医疗卫生机构推行门诊统筹按人头包干预付制，探索将签约居民的门诊基金按人头支付给基层医疗卫生机构或家庭医生团队，对于经基层向上级医院转诊的患者，由基层医疗卫生机构或家庭医生团队支付一定的转诊费用。积极探索以纵向合作医联体为重点开展医保总额付费等改革。合理引导双向转诊，充分发挥全科医生和家庭医生团队在医保控费方面的“守门人”作用，推动基层医疗卫生服务由以治病为中心向以健康为中心转变。', '（三）加大经费保障力度。市、县（区）人民政府要落实投入责任，通过政府投入、单位和基地自筹、社会支持等多渠道筹资，进一步加大对全科医生培养与使用激励的支持力度，各项补助经费要专款专用，不得截留、挪用、挤占。', '（四）强化督导检查评估。市卫生和计划生育局要会同有关部门加强政策培训，强化督导检查和第三方评估，认真总结经验，推广好的做法，推出一批典型示范地区和单位。各县（区）要将全科医生培养与使用激励等政策措施落实情况纳入医改目标责任考核，建立定期调研督导机制，及时研究解决实施过程中出现的问题和困难。', '（五）加强政策宣传引导。通过多种形式宣传解读全科医生培养与使用工作的重大意义和政策措施，广泛宣传全科医生成长成才典型事例和在基本医疗卫生服务中发挥的重要作用，增进医学生、医务人员、医学教育工作者和社会公众对全科医生的了解，为加快培养大批合格全科医生营造良好的舆论环境。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>293</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>关于印发中卫市矿山安全培训专项检查分工方案的通知</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2022-11-07</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/syjglj/fdzdgknr_49937/bmwj_49968/202212/t20221205_3875779.html</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['专项检查坚持以查促训、以考促学，通过考试考核和严格执法，严厉打击不培训、假培训、考试舞弊等违法违规行为；全面清理安全生产知识欠缺、不具备安全生产管理能力的“五职矿长”（矿长、安全矿长、生产矿长、技术矿长和机电矿长，下同）、专业技术人员（采矿、掘进、机电运输、通风、地质测量等，下同）和安全管理人员（含科、区、队正副职、班组长，下同），有效解决“草台班子”管矿山等突出问题；彻底整顿不具备条件、管理混乱、只管收费不管教学的培训机构；坚决淘汰不符合基本要求、存在严重违规行为的考试点，推动矿山企业、培训机构和考试点不断规范教培考工作，提升培训考试质量。', '1.督促全市矿山企业对照重点检查内容，制定自查方案，开展自查并形成报告；矿山企业要制定自考方案，对本单位主要负责人、安全管理人员、特种作业人员和其他从业人员进行培训考试，形成自考报告。加强对矿山企业自查自考工作的督促指导和自查自考报送材料的审核把关，对自查自考“走过场”的单位，责成“返工”并列为执法必查对象。县（区）应急管理局于2022年11月29日前将辖区矿山自查自考报告、问题整改清单、矿山企业“五类人员”（主要负责人、“五职矿长、专业技术人员、安全管理人员、特种作业人员，下同）统计表核实汇总后报市应急管理局安全生产基础科。', '2.督促全市安全培训机构、考试机构和考试点对照重点检查内容，制定自查方案，开展自查并形成报告；安全培训机构对本单位专兼职教师（涉及矿山领域，下同）组织自考，形成自考报告。针对自查自考发现的问题，主要负责人要专门组织研究，列出问题清单，制定整改措施，认真抓好整改。加强对培训机构和考试点自查自考工作的督促指导和自查自考报送材料的审核把关，对自查自考“走过场”的单位，责成“返工”并列为执法必查对象，对无自查方案、无自查报告的，要停止培训考试工作。各培训机构于2022年11月29日前将专兼职教师统计表核实汇总后报市应急管理局办公室。', '1.配合自治区应急管理厅、国家矿山安全监察局宁夏局，采取分片集中书面考试的方式，对矿山企业主要负责人、“五职矿长”、专业技术人员进行全覆盖考试。对考试不合格的主要负责人、“五职矿长”、专业技术人员，配合自治区应急管理厅考核工作组，通过查看工作经历、业绩等资料及询问、座谈交流、面试等方式，进行业务素质和管理能力考核，对不符合岗位要求的建议调整工作岗位。会同国家矿山安全监察局宁夏局，采取分片集中或者到矿山现场考试的方式，按照矿山安全生产管理人员100%、特种作业人员及其他从业人员不低于20%的比例进行书面考试。对考试不合格的安全生产管理人员，采取与自治区应急管理厅同样方式进行考核，对不符合岗位要求的建议调整工作岗位。对考试不合格的特种作业人员和其他从业人员，由其所在矿山企业组织专门培训，经考试合格后方可上岗作业，考试由县（区）应急管理局派员监考、组织判卷。对各矿山企业未被抽中参加考试人员，结合2023年日常监管执法，通过“逢查必考”“回头看”等形式实现考试全覆盖。', '2.配合自治区应急管理厅、国家矿山安全监察局宁夏局，采取分片集中书面考试的方式，对培训机构专兼职教师进行全覆盖考试。对考试不合格的培训机构专兼职教师，由培训机构组织专门培训，经考试合格后方可上岗。', '3.采取周统计、月调度等方式，办公室要及时汇总全市培训机构、考试点工作进展情况；县（区）应急管理局要及时报送辖区内矿山工作进展情况至安全生产基础科，以便向国家矿山安全监察局宁夏局汇总报送有关数据材料。', '1.按照分级属地原则开展执法检查，重点打击虚假培训的矿山安全培训机构和考试舞弊的考点。对矿山安全培训机构、考试点做到执法检查全覆盖。对2020年以来“三项岗位”人员（主要负责人、安全管理人员、特种作业人员，下同）考试通过率超过90%的考试点，倒查影像资料等考试档案，发现弄虚作假、考场作弊的要严肃查处，取消考点资格和考试成绩，追究考点负责人责任。对照检查内容严格执法，落实“一机构一表单”要求。', '2.按照分级属地原则开展执法检查，对非煤地下矿山及灾害严重、考试合格率低于70%的煤矿做到执法检查全覆盖，对其他矿山执法检查比例不低于20%。对其他从业人员考试通过率低于70%的倒查矿山主要负责人、分管负责人责任。对照检查内容严格执法，落实“一机构一表单”要求。', '（四）督导检查（2022年12月-2023年3月）。配合自治区应急管理厅对有关单位自查自考、考试考核、专项检查发现问题的整改和落实等情况进行督导检查和重点督导。同时，认真做好国家矿山安全监察局组织的省际互检、督导检查等相关配合工作。', '（五）总结提升（2023年3月底前）。认真总结本地区专项检查工作，系统梳理矿山企业、安全培训机构、考试机构和考试点存在的问题，剖析案例、分析原因，研究制定标本兼治举措，形成专项检查总结材料。', '1.安全培训工作是否纳入本单位工作计划并保证所需资金；教育培训经费提取和使用是否符合国家规定和要求。', '2.主要负责人组织制定并实施本单位安全生产教育和培训计划的情况；安全培训计划是否涵盖所有从业人员。', '3.安全培训内容是否符合相关规定；采用新工艺、新技术、新材料或者使用新设备时，是否对有关从业人员重新进行有针对性的安全培训。', '4.安全培训管理制度是否建立健全并严格执行；是否明确负责安全培训工作的机构并配备专（兼）职安全培训管理人员；企业安全培训档案、从业人员安全培训档案是否建立健全，是否真实有效。', '5.主要负责人、安全生产管理人员专业、学历及从业经历是否符合相关规定；主要负责人、安全生产管理人员是否按照国家规定经主管部门对其安全生产知识和管理能力考核合格。', '6.从业人员初次安全培训和每年再培训是否符合规定学时，是否脱产培训，生产经营单位是否支付工资并承担培训费用；特种作业人员文化程度是否符合相关要求，是否按规定持证上岗作业，是否存在伪造、涂改、转借、转让、冒用特种作业操作证等情况。', '1.是否存在安全培训管理制度不健全、专（兼）职师资力量不足或者实践经验不够、固定培训场地及教学设施不满足要求等不具备安全培训工作基本条件情况。', '2.是否存在未按培训大纲规定组织教学培训，擅自改变教学内容、压缩培训学时、实操实训流于形式等情况；是否存在培训内容针对性不强、更新不及时，甚至与现行法规标准规定相抵触等情况。', '4.是否存在与考试机构或者考试点勾结，举办“包过班”、参与考生作弊、倒卖安全生产资格（合格）证书、收取高价培训费用等情况；是否存在只收费不培训、假培训的情况。', '（一）加强组织领导。成立由主要领导任组长，分管矿山和安全生产培训工作领导任副组长，县（区）应急管理局、市应急局办公室、安全生产基础科负责人为成员的专项检查领导小组，负责统筹推进工作开展，统筹工作由办公室总牵头。县（区）、办公室、安全生产基础科要提高思想认识，明确任务分工，强化责任落实。要紧盯考试考核和执法检查两个重要环节，层层压实责任，落实工作举措，确保工作取得明显成效。', '（二）严格执法检查。县（区）应急管理局、市应急局办公室、安全生产基础科要加大执法检查力度，对自查自考不认真、提供虚假自查自考报告，以及自查自改后仍存在突出问题的，要依法从严执法、从重处罚。对培训走过场，甚至假培训、只收费不培训的培训机构要立案处罚、通报曝光，对考试纪律松散、考风差、监考和实操考评“放水”、甚至组织考生作弊的考试点要整顿、清理。对发现不属于应急管理部门监管执法权限的违法违规行为要及时移交有关部门依法查处。', '（三）健全完善机制。县（区）应急管理局、市应急局办公室、安全生产基础科要以本次专项检查为契机，进一步健全完善安全培训考试制度等长效机制，促进矿山安全培训考试工作高质量发展；要推动矿山企业、培训机构、考试机构和考试点，完善规章制度、建立培训质量考核机制，提高安全培训规范化水平。要坚持“逢查必考”，常态化开展抽考和“介入式”检查（预审培训方案、培训课件，视频观看或者蹲点考察培训现场等），提高矿山企业自主培训、员工自主学习的积极性。', '（四）强化组织调度。县（区）应急管理局、市应急局办公室、安全生产基础科要按照“每周一调度、每月一总结”要求，建立相关工作台账，办公室负责汇总全市培训机构、考试点相关统计报表、月度报告、典型案例和经验做法、阶段工作小结等调度材料，安全生产基础科负责汇总全市矿山相关统计报表、月度报告、典型案例和经验做法、阶段工作小结等调度材料。市应急管理局将定期通报表扬先进，约谈、曝光工作开展不力的县（区）、企业和培训机构、考试点，促进问题整改。考试考核、执法检查结束5个工作日内，要报送建议调整主要负责人、“五职矿长”、专业技术人员、安全生产管理人员名单和考试不合格特种作业人员、其他从业人员、整治培训机构、淘汰考试点名单。', '2023年3月20日前要报送总结报告（含矿山安全培训典型做法）、专项检查情况统计表、调整岗位人员和再培训人员统计表（见附件）。以上报送材料均含纸质版和电子版。']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>293</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>中卫市农牧局年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2017-02-17</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/snyncj/zfxxgknb_49749/201702/t20170217_601711.html</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['市牧局政府信息公开工作按照依法公开、有利监督、真实公正的原则，不断拓展公开内容，创新公开形式，完善公开机制，落实工作责任，强化公开监督，有力保障了广大党员群众的知情权、参与权、监督权。', '农牧局党委高度重视政府信息公开工作，将政府信息公开工作作为廉政建设、效能建设的重要内容进行部署，并纳入年度目标任务和考核范围。印发了《中卫市农牧局2016年度政府信息公开工作实施方案》，对公开原则、实施对象、公开内容、公开形式和公开程序等作了具体要求。根据人事变动情况，及时调整充实政府信息公开工作领导小组和监督小组，抽调1名工作人员，明确专人专岗负责，真正做到主要领导高度重视亲自抓，分管领导加强协调具体抓，科室、单位明确专人负责抓，纪检组全程参与督促抓。', '一是健全完善制度。修订完善了《中卫市农牧局政务信息公开制度》、《中卫市农牧局公示公告制度》和《中卫市农牧局政务公开责任追究制》等多项制度，对中卫市农业信息网、政务微博、公众微信平台的信息管理、信息发布和信息审批更新等方面进行规范。进一步细化了信息公开工作流程、审批程序、保密管理、责任追究等，提高了信息公开工作的制度化、规范化和科学化管理水平。二是公开时间及时。针对公开事项的不同情况，确定公开时间，做到常规性工作定期公开，临时性工作随时公开，固定性工作长期公开。三是突出公开重点。坚持把群众最关心、最需要了解的“权、钱、人、事”等事项公开作为政府信息公开的重点，定期公开。四是规范公开程序。主动公开严格按照制定工作计划、提议、审定、公开和建档五个步骤进行。申请公开按照申请、受理、公开、建档等程序进行。', '（一）公开财务工作。我局在中卫市农业信息网站上公开我局2016年度财务决算（包括收入支出决算总表、项目收入支出决算表、公共预算财政拨款收入支出决算表和“三公”经费公共预算财政拨款支出情况表）和2016年部门预算信息（包括收支预算总表01、收入预算总表02、支出预算分类汇总表、支出预算明细表、财政拨款支出预算总表、纳入预算管理的非税收入支出预算表、纳入财政专户管理的非税收入支出预算表、政府性基金支出预算表和非税收入征收计划表）。', '我局在中卫市农业信息网站上公开我局2016年度财务决算（包括收入支出决算总表、项目收入支出决算表、公共预算财政拨款收入支出决算表和“三公”经费公共预算财政拨款支出情况表）和2016年部门预算信息（包括收支预算总表01、收入预算总表02、支出预算分类汇总表、支出预算明细表、财政拨款支出预算总表、纳入预算管理的非税收入支出预算表、纳入财政专户管理的非税收入支出预算表、政府性基金支出预算表和非税收入征收计划表）。', '我局依托中卫市农业信息网站，专题设置了农业新闻、政策法规、为农服务、农产品价格等专栏，定期发布三农信息。截至2016年底，共发布各类农业信息327期，发布农业政策等9篇，提供农产品市场服务等信息226条。', '在坚持和完善文件公开、会议公开和利用政务公开栏公开等普通公开形式的基础上，按照便利、实用、有效的原则，创新政务公开的新载体、新形式，使政务公开的形式呈现灵活多样。一是依托宁夏中卫农业信息网，将农民群众所需的涉农政策、农业科技、市场行情、农资供求信息等致富信息送到农民手中。二是邀请新闻媒体记者考察、制作专题片、画册宣传推介沙坡头蔬菜等知名品牌，扩大品牌效应。三是充分利用政务服务大厅农牧局窗口，将12项涉及农、牧、渔业等与群众生活密切相关的业务集中到便民服务中心统一办理，将服务事项的名称、依据、条件、程序、期限、材料目录、收费标准和办理申请书示范文本等全部公开，所有办理事项所需文件资料，均实行统一格式，各类档案表册实行微机化操作管理，链接到电子显示屏和触摸查询机，随时接受群众的查询。四是结合“两学一做”学习教育、精准扶贫工作和“机关开放日”活动，通过召开座谈会，发放调查问卷表，发放宣传资料等形式让“两代表一委员”、服务对象等社会各界了解农牧局政务信息。五是利用政风行风热线专栏，局主要领导走进直播厅，公开了农牧局工作职责和履行职责情况，做出了服务承诺，并就农民群众提出的有关问题做出了解答。六是利用农民培训时机，在抓好农民技术培训的同时，大力宣传中央、自治区和市委、市政府的各项强农惠农政策。', '一是公开内容有待进一步深化。部分公开内容仍有缺项。二是长效工作机制尚未全面建立，落实力度不够。', '一是继续加强制度建设。以社会公众、企业、农民群众关注度高的政务信息作为突破口，全面系统地做好政务公开事项。二是努力规范工作流程。进一步梳理机关及下属单位信息，确保政务信息公开工作能按照既定的工作流程有效运作。三是认真梳理，拓宽公开渠道和公开内容。对原有的政务信息公开目录进行补充完善，保证公开信息的完整性和准确性。四是加强宣传和普及力度。提高公众尤其是基层群众、农产品经销商、经纪人、农民对政务信息公开的认知度。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>293</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>关于新形势下党内政治生活的若干准则</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2016-11-03</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201611/t20161103_597467.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['办好中国的事情，关键在党，关键在党要管党、从严治党。党要管党必须从党内政治生活管起，从严治党必须从党内政治生活严起。', '开展严肃认真的党内政治生活，是我们党的优良传统和政治优势。在长期实践中，我们党坚持把开展严肃认真的党内政治生活作为党的建设重要任务来抓，形成了以实事求是、理论联系实际、密切联系群众、批评和自我批评、民主集中制、严明党的纪律等为主要内容的党内政治生活基本规范，为巩固党的团结和集中统一、保持党的先进性和纯洁性、增强党的生机活力积累了丰富经验，为保证完成党在各个历史时期中心任务发挥了重要作用。', '一九八○年，党的十一届五中全会深刻总结历史经验特别是“文化大革命”的教训，制定了《关于党内政治生活的若干准则》，为拨乱反正、恢复和健全党内政治生活、推进党的建设发挥了重要作用，其主要原则和规定今天依然适用，要继续坚持。', '新形势下，党内政治生活状况总体是好的。同时，一个时期以来，党内政治生活中也出现了一些突出问题，主要是：在一些党员、干部包括高级干部中，理想信念不坚定、对党不忠诚、纪律松弛、脱离群众、独断专行、弄虚作假、庸懒无为，个人主义、分散主义、自由主义、好人主义、宗派主义、山头主义、拜金主义不同程度存在，形式主义、官僚主义、享乐主义和奢靡之风问题突出，任人唯亲、跑官要官、买官卖官、拉票贿选现象屡禁不止，滥用权力、贪污受贿、腐化堕落、违法乱纪等现象滋生蔓延。特别是高级干部中极少数人政治野心膨胀、权欲熏心，搞阳奉阴违、结党营私、团团伙伙、拉帮结派、谋取权位等政治阴谋活动。这些问题，严重侵蚀党的思想道德基础，严重破坏党的团结和集中统一，严重损害党内政治生态和党的形象，严重影响党和人民事业发展。这就要求我们必须继续以改革创新精神加强党的建设，加强和规范党内政治生活，全面提高党的建设科学化水平。', '党的十八大以来，以习近平同志为核心的党中央身体力行、率先垂范，坚定推进全面从严治党，坚持思想建党和制度治党紧密结合，集中整饬党风，严厉惩治腐败，净化党内政治生态，党内政治生活展现新气象，赢得了党心民心，为开创党和国家事业新局面提供了重要保证。', '历史经验表明，我们党作为马克思主义政党，必须旗帜鲜明讲政治，严肃认真开展党内政治生活。为更好进行具有许多新的历史特点的伟大斗争、推进党的建设新的伟大工程、推进中国特色社会主义伟大事业，经受“四大考验”、克服“四种危险”，有必要制定一部新形势下党内政治生活的准则。', '新形势下加强和规范党内政治生活，必须以党章为根本遵循，坚持党的政治路线、思想路线、组织路线、群众路线，着力增强党内政治生活的政治性、时代性、原则性、战斗性，着力增强党自我净化、自我完善、自我革新、自我提高能力，着力提高党的领导水平和执政水平、增强拒腐防变和抵御风险能力，着力维护党中央权威、保证党的团结统一、保持党的先进性和纯洁性，努力在全党形成又有集中又有民主、又有纪律又有自由、又有统一意志又有个人心情舒畅生动活泼的政治局面。', '新形势下加强和规范党内政治生活，重点是各级领导机关和领导干部，关键是高级干部特别是中央委员会、中央政治局、中央政治局常务委员会的组成人员。高级干部特别是中央领导层组成人员必须以身作则，模范遵守党章党规，严守党的政治纪律和政治规矩，坚持不忘初心、继续前进，坚持率先垂范、以上率下，为全党全社会作出示范。', '共产主义远大理想和中国特色社会主义共同理想，是中国共产党人的精神支柱和政治灵魂，也是保持党的团结统一的思想基础。必须高度重视思想政治建设，把坚定理想信念作为开展党内政治生活的首要任务。', '理想信念动摇是最危险的动摇，理想信念滑坡是最危险的滑坡。全党同志必须把对马克思主义的信仰、对社会主义和共产主义的信念作为毕生追求，在改造客观世界的同时不断改造主观世界，解决好世界观、人生观、价值观这个“总开关”问题，不断增强政治定力，自觉成为共产主义远大理想和中国特色社会主义共同理想的坚定信仰者和忠实实践者；必须坚定对中国特色社会主义的道路自信、理论自信、制度自信、文化自信。领导干部特别是高级干部要以实际行动让党员和群众感受到理想信念的强大力量。', '全体党员必须永远保持建党时中国共产党人的奋斗精神，把理想信念的坚定性体现在做好本职工作的过程中，自觉为推进中国特色社会主义事业而苦干实干，在胜利时和顺境中不骄傲不自满，在困难时和逆境中不消沉不动摇，经受住各种赞誉和诱惑考验，经受住各种风险和挑战考验，永葆共产党人政治本色。', '坚定理想信念，必须加强学习。思想理论上的坚定清醒是政治上坚定的前提。全党必须毫不动摇坚持马克思主义指导思想，党的各级组织必须坚持不懈抓好理论武装，广大党员、干部特别是高级干部必须自觉抓好学习、增强党性修养。把马克思主义理论作为必修课，认真学习马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观，认真学习习近平总书记系列重要讲话精神，认真学习党章党规，不断提高马克思主义思想觉悟和理论水平。系统掌握马克思主义基本原理，学会用马克思主义立场、观点、方法观察问题、分析问题、解决问题，特别是要聚焦现实问题，不断深化对共产党执政规律、社会主义建设规律、人类社会发展规律的认识。适应时代进步和事业发展要求，广泛学习经济、政治、文化、社会、生态文明以及哲学、历史、法律、科技、国防、国际等各方面知识，提高战略思维、创新思维、辩证思维、法治思维、底线思维能力，提高领导能力专业化水平。', '坚持和创新党内学习制度。以党委（党组）中心组学习等制度为主要抓手，各级党组织要定期开展集体学习。党员、干部每年要完成规定的学习任务，领导干部要定期参加党校学习。坚持开展党内集中学习教育。各级党组织要加强督促检查，把学习情况作为领导班子和领导干部考核的重要内容。坚持中央领导同志作专题报告制度。健全党内重大思想理论问题分析研究和情况通报制度，强化互联网思想理论引导，把深层次思想理论问题讲清楚，帮助党员、干部站稳政治立场，分清是非界限，坚决抵制错误思想侵蚀。', '党在社会主义初级阶段的基本路线是党和国家的生命线、人民的幸福线，也是党内政治生活正常开展的根本保证。必须全面贯彻执行党的基本路线，把以经济建设为中心同坚持四项基本原则、坚持改革开放这两个基本点统一于中国特色社会主义伟大实践，任何时候都不能有丝毫偏离和动摇。', '全党必须毫不动摇坚持以经济建设为中心，聚精会神抓好发展这个党执政兴国的第一要务，坚持以人民为中心的发展思想，统筹推进“五位一体”总体布局和协调推进“四个全面”战略布局，坚持创新、协调、绿色、开放、共享的发展理念，努力提高发展质量和效益，不断提高人民生活水平，为实现“两个一百年”奋斗目标、实现中华民族伟大复兴的中国梦打下坚实物质基础。', '全党必须毫不动摇坚持四项基本原则，根本是坚持党的领导，坚持中国特色社会主义道路、中国特色社会主义理论体系、中国特色社会主义制度、中国特色社会主义文化，做到头脑清醒、立场坚定，矢志不移坚持和发展中国特色社会主义。', '全党必须毫不动摇坚持改革开放，发挥群众首创精神，勇于自我革命，勇于推进理论创新、实践创新、制度创新、文化创新以及其他各方面创新，坚定不移实施对外开放基本国策，决不能安于现状、墨守成规。新形势下，党领导人民全面深化改革，是为了推动中国特色社会主义制度自我完善和发展，推进国家治理体系和治理能力现代化，既不走封闭僵化的老路、也不走改旗易帜的邪路。', '全党必须把坚持党的思想路线贯穿于执行党的基本路线全过程，坚持解放思想、实事求是、与时俱进、求真务实，坚持理论联系实际，一切从实际出发，在实践中检验真理和发展真理，既反对各种否定马克思主义的错误倾向，又破除对马克思主义的教条式理解。坚持从我国仍处于并将长期处于社会主义初级阶段这个基本国情出发，不断研究新情况、总结新经验、解决新问题，不断推进马克思主义中国化。', '全党必须坚决捍卫党的基本路线，对否定党的领导、否定我国社会主义制度、否定改革开放的言行，对歪曲、丑化、否定中国特色社会主义的言行，对歪曲、丑化、否定党的历史、中华人民共和国历史、人民军队历史的言行，对歪曲、丑化、否定党的领袖和英雄模范的言行，对一切违背、歪曲、否定党的基本路线的言行，必须旗帜鲜明反对和抵制。', '考察识别干部特别是高级干部必须首先看是否坚定不移贯彻党的基本路线。党员、干部特别是高级干部在大是大非面前不能态度暧昧，不能动摇基本政治立场，不能被错误言论所左右。当人民利益受到损害、党和国家形象受到破坏、党的执政地位受到威胁时，要挺身而出、亮明态度，主动坚决开展斗争。对在大是大非问题上没有立场、没有态度、无动于衷、置身事外，在错误言行面前不抵制、不斗争，明哲保身、当老好人等政治不合格的坚决不用，已在领导岗位的要坚决调整，情节严重的要严肃处理。', '坚决维护党中央权威、保证全党令行禁止，是党和国家前途命运所系，是全国各族人民根本利益所在，也是加强和规范党内政治生活的重要目的。必须坚持党员个人服从党的组织，少数服从多数，下级组织服从上级组织，全党各个组织和全体党员服从党的全国代表大会和中央委员会，核心是全党各个组织和全体党员服从党的全国代表大会和中央委员会。', '坚持党的领导，首先是坚持党中央的集中统一领导。一个国家、一个政党，领导核心至关重要。全党必须牢固树立政治意识、大局意识、核心意识、看齐意识，自觉在思想上政治上行动上同党中央保持高度一致。党的各级组织、全体党员特别是高级干部都要向党中央看齐，向党的理论和路线方针政策看齐，向党中央决策部署看齐，做到党中央提倡的坚决响应、党中央决定的坚决执行、党中央禁止的坚决不做。', '涉及全党全国性的重大方针政策问题，只有党中央有权作出决定和解释。各部门各地方党组织和党员领导干部可以向党中央提出建议，但不得擅自作出决定和对外发表主张。对党中央作出的决议和制定的政策如有不同意见，在坚决执行的前提下，可以向党组织提出保留意见，也可以按组织程序把自己的意见向党的上级组织直至党中央提出。', '全党必须自觉服从党中央领导。全国人大、国务院、全国政协，中央纪律检查委员会，最高人民法院、最高人民检察院，中央和国家机关各部门，人民军队，各人民团体，各地方，各企事业单位、社会组织，其党组织都要不折不扣执行党中央决策部署。', '全党必须严格执行重大问题请示报告制度。全国人大常委会、国务院、全国政协，中央纪律检查委员会，最高人民法院、最高人民检察院，中央和国家机关各部门，各人民团体，各省、自治区、直辖市，其党组织要定期向党中央报告工作。研究涉及全局的重大事项或作出重大决定要及时向党中央请示报告，执行党中央重要决定的情况要专题报告。遇有突发性重大问题和工作中重大问题要及时向党中央请示报告，情况紧急必须临机处置的，要尽职尽力做好工作，并迅速报告。', '省、自治区、直辖市党委在党中央领导下开展工作，同级各个组织中的党组织和领导干部要自觉接受同级党委领导、向同级党委负责，重大事项和重要情况及时向同级党委请示报告。', '全党必须自觉防止和反对个人主义、分散主义、自由主义、本位主义。对党中央决策部署，任何党组织和任何党员都不准合意的执行、不合意的不执行，不准先斩后奏，更不准口是心非、阳奉阴违。属于部门和地方职权范围内的工作部署，要以贯彻党中央决策部署为前提，发挥积极性、主动性、创造性，但决不允许自行其是、各自为政，决不允许有令不行、有禁不止，决不允许搞上有政策、下有对策。', '纪律严明是全党统一意志、统一行动、步调一致前进的重要保障，是党内政治生活的重要内容。必须严明党的纪律，把纪律挺在前面，用铁的纪律从严治党。', '坚持纪律面前一律平等，遵守纪律没有特权，执行纪律没有例外，党内决不允许存在不受纪律约束的特殊组织和特殊党员。每一个党员对党的纪律都要心存敬畏、严格遵守，任何时候任何情况下都不能违反党的纪律。党的各级组织和全体党员要坚决同一切违反党的纪律的行为作斗争。', '政治纪律是党最根本、最重要的纪律，遵守党的政治纪律是遵守党的全部纪律的基础。全党特别是高级干部必须严格遵守党的政治纪律和政治规矩。党员不准散布违背党的理论和路线方针政策的言论，不准公开发表违背党中央决定的言论，不准泄露党和国家秘密，不准参与非法组织和非法活动，不准制造、传播政治谣言及丑化党和国家形象的言论。党员不准搞封建迷信，不准信仰宗教，不准参与邪教，不准纵容和支持宗教极端势力、民族分裂势力、暴力恐怖势力及其活动。', '党员、干部特别是高级干部不准在党内搞小山头、小圈子、小团伙，严禁在党内拉私人关系、培植个人势力、结成利益集团。对那些投机取巧、拉帮结派、搞团团伙伙的人，要严格防范，依纪依规处理。坚决防止野心家、阴谋家窃取党和国家权力。', '党的各级组织和全体党员必须对党忠诚老实、光明磊落，说老实话、办老实事、做老实人，如实向党反映和报告情况，反对搞两面派、做“两面人”，反对弄虚作假、虚报浮夸，反对隐瞒实情、报喜不报忧。领导机关和领导干部不准以任何理由和名义纵容、唆使、暗示或强迫下级说假话。凡因弄虚作假、隐瞒实情给党和人民事业造成重大损失的，凡因弄虚作假、隐瞒实情骗取荣誉、地位、奖励或其他利益的，凡因纵容、唆使、暗示或强迫下级弄虚作假、隐瞒实情的，都要依纪依规严肃问责追责。对坚持原则、敢于说真话的同志，要给予支持、保护、鼓励。', '党内不准搞拉拉扯扯、吹吹拍拍、阿谀奉承。对领导人的宣传要实事求是，禁止吹捧，禁止给领导人祝寿、送礼、发致敬函电，禁止在领导干部国内考察工作时组织迎送、张贴标语、敲锣打鼓、铺红地毯、举行宴会等。', '党的各级组织必须担负起执行和维护政治纪律和政治规矩的责任，对违反政治纪律的行为要坚决批评制止，不能听之任之。党的各级组织和纪律检查机关要加强纪律执行情况的监督和检查，坚决防止和纠正执行纪律宽松软的问题。', '人民立场是党的根本政治立场，人民群众是党的力量源泉。我们党来自人民，失去人民拥护和支持，党就会失去根基。必须把坚持全心全意为人民服务的根本宗旨、保持党同人民群众的血肉联系作为加强和规范党内政治生活的根本要求。', '全党必须牢固树立人民群众是历史创造者的历史唯物主义观点，站稳群众立场，增进群众感情。党的各级组织、全体党员特别是各级领导机关和领导干部要贯彻党的群众路线，做到一切为了群众，一切依靠群众，从群众中来，到群众中去，为群众办实事、解难事，当好人民公仆。坚持问政于民、问需于民、问计于民，决不允许在群众面前自以为是、盛气凌人，决不允许当官做老爷、漠视群众疾苦，更不允许欺压群众、损害和侵占群众利益。改进和创新联系群众方法，建立和完善民意调查等制度，利用传统媒体和互联网等各种渠道了解社情民意，倾听群众呼声，密切党群干群关系，把对上负责和对下负责一致起来，着力实现好、维护好、发展好最广大人民根本利益。', '全党必须坚决反对形式主义、官僚主义、享乐主义和奢靡之风，领导干部特别是高级干部要以身作则。反对形式主义，重在解决作风飘浮、工作不实，文山会海、表面文章，贪图虚名、弄虚作假等问题。反对官僚主义，重在解决脱离实际、脱离群众，消极应付、推诿扯皮，作风霸道、迷恋特权等问题。反对享乐主义，重在解决追名逐利、贪图享受，讲究排场、玩物丧志等问题。反对奢靡之风，重在解决铺张浪费、挥霍无度，骄奢淫逸、腐化堕落等问题。坚持抓常、抓细、抓长，特别是要防范和查处各种隐性、变异的“四风”问题，把落实中央八项规定精神常态化、长效化。', '党的各级组织、全体党员特别是领导干部必须提高做群众工作能力，既服务群众又带领群众坚定不移贯彻落实党的理论和路线方针政策，把党的主张变为群众的自觉行动，引领群众听党话、跟党走。坚决反对命令主义，坚决反对“尾巴主义”，不允许为了个人政绩、选票和形象脱离实际随意决策、随便许愿。', '坚持领导干部调查研究、定期接待群众来访、同干部群众谈心、群众满意度测评等制度。各级领导干部必须深入实际、深入基层、深入群众，多到条件艰苦、情况复杂、矛盾突出的地方解决问题，千方百计为群众排忧解难。领导干部下基层要接地气，轻车简从，了解实情，督查落实，解决问题，坚决反对作秀、哗众取宠。对一切搞劳民伤财的“形象工程”和“政绩工程”的行为，要严肃问责追责，依纪依法处理。在应对重大安全事件、重大突发事件、重大自然灾害事件等事件中，领导干部必须深入一线、靠前指挥，及时协调解决突出问题，及时回应社会关切。', '党员、干部必须顾全大局，自觉维护社会和谐稳定，遇到涉及自身利益和局部利益的问题应该通过正常渠道向上级反映，积极主动做好化解社会矛盾、防控社会风险工作，不准组织、参与、纵容扰乱社会秩序的非法活动。', '民主集中制是党的根本组织原则，是党内政治生活正常开展的重要制度保障。坚持集体领导制度，实行集体领导和个人分工负责相结合，是民主集中制的重要组成部分，必须始终坚持，任何组织和个人在任何情况下都不允许以任何理由违反这项制度。', '各级党委（党组）必须坚持集体领导制度。凡属重大问题，要按照集体领导、民主集中、个别酝酿、会议决定的原则，由集体讨论、按少数服从多数作出决定，不允许用其他形式取代党委及其常委会（或党组）的领导。落实党委常委会（或党组）议事规则和决策程序，健全常委会向全委会定期报告工作并接受监督制度，坚决反对和防止独断专行或各自为政，坚决反对和防止议而不决、决而不行、行而不实，坚决反对和防止以党委集体决策名义集体违规。各级党委（党组）要善于观大势、抓大事、管全局，及时发现和解决矛盾和难题，不上推下卸，不留后遗症。建立上级组织在作出同下级组织有关重要决策前征求下级组织意见的制度。', '领导班子成员必须增强全局观念和责任意识，在研究工作时充分发表意见，决策形成后一抓到底，不得违背集体决定自作主张、自行其是。坚决反对和纠正当面不说、背后乱说，会上不说、会后乱说，当面一套、背后一套等错误言行。坚持讲原则、讲规矩，共同维护坚持党性原则基础上的团结。', '党委（党组）主要负责同志必须发扬民主、善于集中、敢于担责。在研究讨论问题时要把自己当成班子中平等的一员，充分发扬民主，严格按程序决策、按规矩办事，注意听取不同意见，正确对待少数人意见，不能搞一言堂甚至家长制。支持班子成员在职责范围内独立负责开展工作，坚决防止和克服名为集体领导、实际上个人或少数人说了算，坚决防止和克服名为集体负责、实际上无人负责。', '领导班子成员必须坚决执行党组织决定，如有不同意见，可以保留或向上一级党组织提出，但在上级或本级党组织改变决定以前，除执行决定会立即引起严重后果等紧急情况外，必须无条件执行已作出的决定。', '领导班子成员分工按规定向上级党委报备，无正当理由、未向上级党委报备不得调整。领导干部要自觉服从组织分工安排，任何人都不能向组织讨价还价、不服从组织安排。领导干部不准把分管工作、分管领域和地方当作“私人领地”，不准搞独断专行。', '在党的工作和活动中，该以组织名义出面不能以个人名义出面，该由集体研究不能个人擅自表态，不允许用个人主张代替党组织的主张、用个人决定代替党组织的决定。', '党内民主是党的生命，是党内政治生活积极健康的重要基础。要坚持和完善党内民主各项制度，提高党内民主质量，党内决策、执行、监督等工作必须执行党章党规确定的民主原则和程序，任何党组织和个人都不得压制党内民主、破坏党内民主。', '中央委员会、中央政治局、中央政治局常务委员会和党的各级委员会作出重大决策部署，必须深入开展调查研究，广泛听取各方面意见和建议，凝聚智慧和力量，做到科学决策、民主决策、依法决策。', '必须尊重党员主体地位、保障党员民主权利，落实党员知情权、参与权、选举权、监督权，保障全体党员平等享有党章规定的党员权利、履行党章规定的党员义务，坚持党内民主平等的同志关系，党内一律称同志。任何党组织和党员不得侵害党员民主权利。', '畅通党员参与讨论党内事务的途径，拓宽党员表达意见渠道，营造党内民主讨论的政治氛围。健全党内重大决策论证评估和征求意见等制度。党的各级组织对重大决策和重大问题应该采取多种方式征求党员意见，党员有权在党的会议上发表不同意见，对党的决议和政策如有不同意见，在坚决执行的前提下，可以声明保留，并且可以把自己的意见向党的上级组织直至党中央提出。推进党务公开，发展和用好党务公开新形式，使党员更好了解和参与党内事务。', '党内选举必须体现选举人意志，规范和完善选举制度规则。党的任何组织和个人不得以任何方式妨碍选举人依照规定自主行使选举权，坚决反对和防止侵犯党员选举权和被选举权的现象，坚决防止和查处拉票贿选等行为。', '坚持党的代表大会制度。未经批准不得提前或延期召开党的代表大会。落实党代表大会代表任期制，实行代表提案制，健全代表参与重大决策、参加重要干部推荐和民主评议、列席党委有关会议、联系党员群众等制度。更好发挥党的地方各级委员会及委员作用。健全党内情况通报制度、情况反映制度，畅通党员表达意见、要求撤换不称职基层党组织领导班子成员的渠道。按期进行党的基层委员会、总支部和支部委员会换届。', '党员有权向党负责地揭发、检举党的任何组织和任何党员违纪违法的事实，提倡实名举报。党员有权在党的会议上有根据地批评党的任何组织和任何党员。党组织既要严肃处理对举报者的歧视、刁难、压制行为特别是打击报复行为，又要严肃追查处理诬告陷害行为。对受到诽谤、诬告、严重失实举报的党员，党组织要及时为其澄清和正名。要保障党员申辩、申诉等权利。对执纪中的过错或违纪行为，要依规及时纠正、消除影响并追究有关组织和人员的责任。', '坚持正确选人用人导向，是严肃党内政治生活的组织保证。必须严格标准、健全制度、完善政策、规范程序，使选出来的干部组织放心、群众满意、干部服气。', '选拔任用干部必须坚持党章规定的干部条件，坚持德才兼备、以德为先，坚持五湖四海、任人唯贤，坚持信念坚定、为民服务、勤政务实、敢于担当、清正廉洁的好干部标准。把公道正派作为干部工作核心理念贯穿选人用人全过程，做到公道对待干部、公平评价干部、公正使用干部。', '选人用人必须强化党组织的领导和把关作用，落实干部选拔任用工作纪实制度，确保每个环节都规范操作。组织部门要严格按政策、原则、制度办事，实事求是考察评价干部，敢于为干部说公道话，敢于抵制选人用人中的违规行为，形成能者上、庸者下、劣者汰的选人用人导向。加强选人用人监督问责，对用人失察失误的严肃追究责任。', '党的各级组织必须自觉防范和纠正用人上的不正之风和种种偏向。坚决禁止跑官要官、买官卖官、拉票贿选等行为，坚决禁止向党伸手要职务、要名誉、要待遇行为，坚决禁止向党组织讨价还价、不服从组织决定的行为。坚决纠正唯票、唯分、唯生产总值、唯年龄等取人偏向，坚决克服由少数人在少数人中选人的倾向。领导干部要带头执行党的干部政策，不准任人唯亲、搞亲亲疏疏，不准封官许愿、跑风漏气、收买人心，不准个人为干部提拔任用打招呼、递条子。领导干部不得干预曾经工作生活过的地方、曾经工作过的单位和不属于自己分管领域的干部选拔任用工作，有关地方和单位党组织要抵制这种违反党的组织原则的行为。', '任何人都不准把党的干部当作私有财产，党内不准搞人身依附关系。领导干部特别是高级干部不能搞家长制，要求别人唯命是从，特别是不能要求下级办违反党纪国法的事情；下级应该抵制上级领导干部的这种要求并向更上级党组织直至党中央报告，不应该对上级领导干部无原则服从。规范和纯洁党内同志交往，领导干部对党员不能颐指气使，党员对领导干部不能阿谀奉承。', '干部是党的宝贵财富，必须既严格教育、严格管理、严格监督，又在政治上、思想上、工作上、生活上真诚关爱，鼓励干部干事创业、大胆作为。', '建立容错纠错机制，宽容干部在工作中特别是改革创新中的失误。坚持惩前毖后、治病救人，正确对待犯错误的干部，帮助其认识和改正错误。不得混淆干部所犯错误性质或夸大错误程度对干部作出不适当的处理，不得利用干部所犯错误泄私愤、打击报复。', '党的各级组织和领导干部必须牢记空谈误国、实干兴邦，践行正确政绩观，发扬钉钉子精神，力戒空谈，察实情、出实招、办实事、求实效，做到守土尽责。各级领导干部要无私无畏，做到面对矛盾敢于迎难而上，面对危险敢于挺身而出，面对失误敢于承担责任。党的各级组织要旗帜鲜明为敢于担当的干部担当，为敢于负责的干部负责。对不担当、不作为、敷衍塞责的干部要严肃批评，必要时给予组织处理或党纪处分；对失职渎职的要严肃问责，造成严重后果的要严肃追责，依纪依法处理。', '党的组织生活是党内政治生活的重要内容和载体，是党组织对党员进行教育管理监督的重要形式。必须坚持党的组织生活各项制度，创新方式方法，增强党的组织生活活力。', '全体党员、干部特别是高级干部必须增强党的意识，时刻牢记自己第一身份是党员。任何党员都不能游离于党的组织之外，更不能凌驾于党的组织之上。每个党员无论职务高低，都要参加党的组织生活。党组织要严格执行组织生活制度，确保党的组织生活经常、认真、严肃。', '坚持“三会一课”制度。党员必须参加党员大会、党小组会和上党课，党支部要定期召开支部委员会会议。“三会一课”要突出政治学习和教育，突出党性锻炼，坚决防止表面化、形式化、娱乐化、庸俗化。领导干部要以普通党员身份参加所在党支部或党小组的组织生活，坚持党员领导干部讲党课制度。每个党员都要按规定自觉交纳党费，党费使用和管理要公开透明。', '坚持民主生活会和组织生活会制度。会前要广泛听取意见、深入谈心交心，会上要认真查摆问题、深刻剖析根源、明确整改方向，会后要逐一整改落实。上级党组织领导班子成员定期、随机参加下级党组织领导班子民主生活会和组织生活会，发现问题及时纠正。中央政治局带头开好民主生活会。', '坚持谈心谈话制度。党组织领导班子成员之间、班子成员和党员之间、党员和党员之间要开展经常性的谈心谈话，坦诚相见，交流思想，交换意见。领导干部要带头谈，也要接受党员、干部约谈。', '坚持对党员进行民主评议。督促党员对照党章规定的党员标准、对照入党誓词、联系个人实际进行党性分析，强化党员意识、增强党的观念、提高党性修养。对党性不强的党员，及时进行批评教育，限期改正；经教育仍无转变的，应劝其退党或除名。', '领导干部必须强化组织观念，工作中重大问题和个人有关事项必须按规定按程序向组织请示报告，离开岗位或工作所在地要事先向组织请示报告。对无正当理由不按时报告、不如实报告或隐瞒不报的，要严肃处理。', '批评和自我批评是我们党强身治病、保持肌体健康的锐利武器，也是加强和规范党内政治生活的重要手段。必须坚持不懈把批评和自我批评这个武器用好。', '批评和自我批评必须坚持实事求是，讲党性不讲私情、讲真理不讲面子，坚持“团结———批评———团结”，按照“照镜子、正衣冠、洗洗澡、治治病”的要求，严肃认真提意见，满腔热情帮同志，决不能把自我批评变成自我表扬、把相互批评变成相互吹捧。', '党员、干部必须严于自我解剖，对发现的问题要深入剖析原因，认真整改。对待批评要有则改之、无则加勉，不能搞无原则的纷争。', '批评必须出于公心，不主观武断，不发泄私愤。坚决反对事不关己、高高挂起，明知不对、少说为佳的庸俗哲学和好人主义，坚决克服文过饰非、知错不改等错误倾向。', '党的领导机关和领导干部对各种不同意见都必须听取，鼓励下级反映真实情况。党内工作会议的报告、讲话以及各类工作总结，上级机关和领导干部检查指导工作，既要讲成绩和经验，又要讲问题和不足；既要注重解决问题，又要从问题中反思自身工作和领导责任。', '领导干部特别是高级干部必须带头从谏如流、敢于直言，以批评和自我批评的示范行动引导党员、干部打消自我批评怕丢面子、批评上级怕穿小鞋、批评同级怕伤和气、批评下级怕丢选票等思想顾虑。把发现和解决自身问题的能力作为考核评价领导班子的重要依据。', '监督是权力正确运行的根本保证，是加强和规范党内政治生活的重要举措。必须加强对领导干部的监督，党内不允许有不受制约的权力，也不允许有不受监督的特殊党员。', '完善权力运行制约和监督机制，形成有权必有责、用权必担责、滥权必追责的制度安排。实行权力清单制度，公开权力运行过程和结果，健全不当用权问责机制，把权力关进制度笼子，让权力在阳光下运行。', '党的各级组织和领导干部必须在宪法法律范围内活动，增强法治意识、弘扬法治精神，自觉按法定权限、规则、程序办事，决不能以言代法、以权压法、徇私枉法，决不能违规干预司法。', '营造党内民主监督环境，畅通党内民主监督渠道。党的各级组织和全体党员要增强监督意识，既履行监督责任，又接受各方面监督。', '党内监督必须突出党的领导机关和领导干部特别是主要领导干部。领导干部要正确对待监督，主动接受监督，习惯在监督下开展工作，决不能拒绝监督、逃避监督。', '领导干部特别是高级干部必须加强自律、慎独慎微，自觉检查和及时纠正在行使权力、廉政勤政方面存在的问题，做到可以行使的权力按规则正确行使，该由上级组织行使的权力下级组织不能行使，该由领导班子集体行使的权力班子成员个人不能擅自行使，不该由自己行使的权力决不能行使。', '对涉及违纪违法行为的举报，对党员反映的问题，任何党组织和领导干部都不准隐瞒不报、拖延不办。涉及所反映问题的领导干部应该回避，不准干预或插手组织调查。', '党员、干部反映他人的问题，应该出于党性，通过党内正常渠道实名进行，不准散布小道消息，不准散发匿名信，不准诬告陷害等。对通过正常渠道反映问题的党员，任何组织和个人都不准打击报复，不准擅自进行追查，不准采取调离工作岗位、降格使用等惩罚措施。', '坚持授权者要负责监督，发现问题要及时处置。强化上级组织对下级组织特别是主要领导干部行使权力的监督，防止权力失控和滥用。', '对党组织和党员、干部行使权力进行监督，必须依纪依法进行。纪检监察、司法机关严格依纪依法按程序对涉嫌严重违纪违法行为进行调查。任何组织和个人不得自行决定或受指使对党员、干部采取非法调查手段。对违反规定的，要严肃追究纪律和法律责任。', '建设廉洁政治，坚决反对腐败，是加强和规范党内政治生活的重要任务。必须筑牢拒腐防变的思想防线和制度防线，着力构建不敢腐、不能腐、不想腐的体制机制，保持党的肌体健康和队伍纯洁。', '各级领导干部必须严以修身、严以用权、严以律己，谋事要实、创业要实、做人要实，经得起权力、金钱、美色考验，用党和人民赋予的权力为人民服务。', '领导干部特别是高级干部必须带头践行社会主义核心价值观，继承和发扬党的优良传统和作风，弘扬中华民族传统美德，讲修养、讲道德、讲诚信、讲廉耻，养成共产党人的高风亮节，自觉远离低级趣味。', '各级领导干部是人民公仆，没有搞特殊化的权利。中央政治局要带头执行中央八项规定。各级领导干部特别是高级干部要坚持立党为公、执政为民，坚持公私分明、先公后私、克己奉公，带头保持谦虚、谨慎、不骄、不躁的作风，保持艰苦奋斗的作风，带头执行廉洁自律准则，自觉同特权思想和特权现象作斗争，不准利用权力为自己和他人谋取私利，禁止违反财经制度批钱批物批项目，禁止用各种借口或巧立名目侵占、挥霍国家和集体财物，禁止违反规定提高干部待遇标准。', '领导干部特别是高级干部必须注重家庭、家教、家风，教育管理好亲属和身边工作人员。严格执行领导干部个人有关事项报告制度，进一步规范领导干部配偶子女从业行为。禁止利用职权或影响力为家属亲友谋求特殊照顾，禁止领导干部家属亲友插手领导干部职权范围内的工作、插手人事安排。各级领导班子和领导干部对来自领导干部家属亲友的违规干预行为要坚决抵制，并将有关情况报告党组织。', '全体党员、干部特别是高级干部必须拒腐蚀、永不沾，坚决同消极腐败现象作斗争，坚决抵制潜规则，自觉净化社交圈、生活圈、朋友圈，决不能把商品交换那一套搬到党内政治生活和工作中来。党的各级组织要担负起反腐倡廉政治责任，坚持有腐必反、有贪必肃，坚持“老虎”、“苍蝇”一起打，坚持无禁区、全覆盖、零容忍，党内决不允许有腐败分子藏身之地。', '加强和规范党内政治生活是全党的共同任务，必须全党一起动手。各级党委（党组）要全面履行加强和规范党内政治生活的领导责任，着力解决突出问题，建立健全党内政治生活制度体系，把加强和规范党内政治生活各项任务落到实处。深入开展党内政治生活准则宣传教育，把党内政治生活准则列为党员、干部教育培训的必修内容。', '落实党委主体责任和纪委监督责任，强化责任追究。党委（党组）主要负责人要认真履行第一责任人责任。党的各级组织要强化对党内政治生活准则落实情况的督促检查，建立健全问责机制，上级党组织要加强对下级党组织的指导监督检查，各级组织部门和机关党组织要加强日常管理，各级纪律检查机关要严肃查处违反党内政治生活准则的各种行为。', '加强和规范党内政治生活，要从中央委员会、中央政治局、中央政治局常务委员会做起。高级干部要清醒认识自己岗位对党和国家的特殊重要性，职位越高越要自觉按照党提出的标准严格要求自己，越要做到党性坚强、党纪严明，做到对党始终忠诚、永不叛党。制定高级干部贯彻落实本准则的实施意见，指导和督促高级干部在遵守和执行党内政治生活准则上作全党表率。', '全面从严治党永远在路上。全党要坚持不懈努力，共同营造风清气正的政治生态，确保党始终成为中国特色社会主义事业的坚强领导核心。（新华社北京11月2日电）']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>293</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>传薪播火风雨兼程喜继往开来代有精英登虎榜</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2015-06-30</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201506/t20150630_596032.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['中卫教育源远流长，如果从明正统四年（公元1439年）“建庙立学”算起，已有577年的历史了。在漫长、艰难、曲折的发展历程中，中卫教育这棵参天大树历经沧桑，依然根深叶茂。', '1939年因日本侵略军轰炸银川，宁夏师范迁往中卫，与中卫简师合并。合并为宁夏联合中学。', '事业初奠，志存高远。岁月的流逝，即如流星的回眸；短暂的过度，或许会带来永久的震撼……', '怡人环境，润物无声。春来鲜花竞开，夏至垂柳婆娑，秋临红叶翻飞，冬到苍松傲雪。中外文化名人雕塑，以无声的智慧与你进行心灵的对话；随处可见的誓言警句，让你在仰观俯察间呼吸文化的精髓；丰富多彩的文学社、书画社、田径队、学生会社团活动，让你如鱼得水，如虎添翼；各具特色的班级文化氛围更让你置身文化氧吧，神清气爽，斗志昂扬。', '硬件设施，堪称一流。学校按照国家一类重点中学标准配备了标准化实验室、多媒体教室、网络资源、监控系统、广播系统、国家级标准化考点和其它全新教育教学设施设备，为学生学习、生活创造最好的条件。', '老校长李天柱重视教师发展，关心学生身心健康，重视研究教学，提高教育质量，提出了“从严从细，求活求新”的校训，学校教育质量有显著提高，在当时具有极大的影响力。', '王自强、杨胜年校长注重教师思想工作，提出了“德育为首、智育为主、科研先导、质量立校”的办学理念，教育教学质量稳步上升，逐步丰富素质教育内涵。', '前任校长李春锁，是“建国六十周年感动宁夏英雄模范人物”。他提出“两条腿走路”的思路，以务实态度引领高度，靠严格管理赢得赞誉，在他的带领下，中卫中学教育教学质量突飞猛进。', '现任校长王建国是宁夏首届塞上名师，他审时度势，推进学校发展改革三部曲，优化学校管理，大力推进课堂教学改革，使学校发展进入快车道。', '21世纪需要什么样的人才？联合国教科文组织说：“21世纪的教育是首次为一个未知的未来培养人才。”合作、竞争、创新将成为这个时代的热门词汇。', '东风劲吹不我待，作为自治区首批重点中学和自治区一级示范高中，必须通过深化教改，坚定地走课改之路，才能突破发展瓶颈，实现崛起，永葆青春。', '在现任校长王建国的带领下，学校依托塞上名师工作室，通过学习全国课改名校———河南西峡一高的课改经验，制订了本校的课改方案，在教学中更多地关注学生主体性的发展，为学生提供一个自主学习，灵性发展的平台，让学生在激励、鼓舞、唤醒中自主学习、探索学习、创造学习，从而达到打造高效课堂的目的。', '刘志军老师举一反三的数学课，张贵萍老师激趣探疑的语文课，龚天宝老师入情入境的英语课，马建红老师合作探究的物理课，孟学香老师生动活泼的化学课，张桂英老师翻转了的生物课，陈立老师宏大辩论的历史课……都将给卫中的学生留下一生的美好回忆。', '这是中卫中学发展史上崭新的记忆，这是中卫中学又一个里程碑式课堂教学的辉煌，在课改的道路上，中卫中学正大步向前，越走越豪迈！', '中卫中学拥有研究生学历教师98名，位居全市第一。拥有一个强大的名师团队，全国英语园丁奖获得者2名，全国英语教学能手2名，自治区塞上名师2名，自治区“313人才”2名，自治区优秀教师16名，自治区9·10奖状获得者1名，区、市级学科带头人和骨干教师达到110余名，位居全市第一。', '近年来，中卫中学中青年教师在国家、省、市级教学比武中取得了突出成绩，获奖达20人次，其中有10名教师总分排名全区第一，15位教师获全区一等奖，10位教师代表宁夏参加全国比赛取得了7个一等奖和3个二等奖的好成绩，展示了一流的教学技艺，为实现学校更快更高发展奠定了坚实的基础。', '83年传承，卫中人始终不忘“科研兴校”。近年来，学校国家级、自治区级课题立项达21个，已经结题17个。教师撰写并获奖和发表的论文达200多篇。编写校本教材8类19种。创刊于1998年的校刊《鸣钟文学》曾荣获“全国校园文学百面旗”、全区“优秀刊物”等称号，为此获准参加2012年由北大、清华等全国顶尖的28所大学联合发起的“全国第七届创意作文大赛”，这在宁夏绝无仅有。伴随着课改的春风，由校长王建国牵头，学校又创办了校刊《中卫中学教研》，迄今已发行7期，发表180篇教学研究文章，共计约40万字，是中卫地区唯一一本教学研究杂志。刊物自发行以来，得到了市教育局领导、同行的高度赞扬！', '信息科技独领风骚。中卫中学连续6年代表中卫市参加全国青少年科技创新大赛的决赛，并多次代表中卫市参加接旗仪式，受到自治区、科协领导的高度评价，并被宁夏电视台等媒体采访报道，有12项科技发明获全国一、二等奖，72人在创新大赛上荣获区级一、二等奖。', '在全国信息技术奥林匹克竞赛中，中卫中学连续6年囊括全区前三名。连续4年由中卫中学学生组队代表宁夏参加全国中学生信息技术奥林匹克团体赛，获得全国一等奖。', '学科竞赛展实力。近三年来，中卫中学数理化生奥林匹克竞赛，成绩斐然，位居全区第三。一等奖获奖人数达37名，二等奖获奖人数达163名。其中白国风同学荣获奥林匹克中学生物理联赛全区第一名，并代表宁夏参加全国比赛，获得铜牌，位居宁夏赛区选手第一名；韩飞宇、万中尚同学荣获奥林匹克中学生生物联赛全区第一名，并代表宁夏参加全国比赛，获得铜牌，位居宁夏赛区选手第一名；吴雪同学在2015年奥林匹克中学生生物联赛中获得一等奖，并将代表宁夏参加全国比赛。', '状元摇篮出俊彦。自恢复高考以来，中卫城区共有84名状元，中卫中学培养出71名，占85%。中卫城区共培养出了60名清华、北大优秀学子，中卫中学培养出53名，占89%。', '高考成绩筑辉煌。2013年高考，张永洋同学勇夺中卫市文科状元，被中国人民大学录取；马鹏程、李文通、杨曦、袁超越，分别被浙江大学、中国科技大学、北京航空航天大学、辽宁大学提前录取；多个单科荣获中卫市前三名。实现了“低进高出、高进优出”的培养目标。', '2014年高考，中卫中学高考一次性本科上线率位居中卫市第一，增长率位居中卫市第一；韩飞宇同学勇夺沙坡头区理科状元；理科包揽总分前三名，文科前三名中占两名；21名同学总分突破600分。再次取得历史性突破。', '2015年高考，中卫中学再创历史新高：高考一次性上线率居中卫市第一，重点上线率居中卫市第一，增长率位居中卫市第一；600分以上人数居中卫市第一，顶级名校录取人数居中卫市第一。高三（16）班关欣荣同学，以总分657分全区排名第四的优异成绩勇夺中卫市文科状元,并被北京大学经济学院录取。高三（16）班黄子高同学以总分647分全区排名第七的优异成绩，勇夺中卫市文科第二名，并被北京大学法学院录取。徐艺绮被香港中文大学录取。', '2015年高考，中卫中学包揽中卫市文科前三名，文科前10名中卫中学占8名！中卫中学赵甲恺同学勇夺中卫市理科第二名！理科前10名中卫中学占5名！', '共青团班创奇迹。2010年，自治区团委、宁夏青基会、团市委，为拓宽希望工程服务渠道，帮助家庭困难学生成才，通过多次调研考察，经过多方对比，最终选定了历史悠久、底蕴深厚、学风浓郁、师资雄厚的吴忠中学、中卫中学、固原二中作为全区3所共青团班落户学校。中卫中学凭借自身优势成为自治区拥有共青团班的重点高中之一。2010年学校开始招收第一届共青团班，选拔100名胸怀大志、品学兼优的学生就读共青团班，配备名师团队任课，给予最优质的教育资源，创造最优质的教育环境。共青团班学生免除所有费用，并且在三年中每生每月给予100元助学金。', '经过五年的努力，已经毕业的五届共青团班各100名学生考分全部超过一本线，其中2013届张永洋同学摘得中卫市文科桂冠，2014届韩飞宇同学摘得中卫市理科桂冠。2015年关欣荣、黄子高同学分别以文科成绩全区排名第四、第七的成绩被北京大学经济学院、法学院录取，徐艺绮同学被香港中文大学录取，赵甲恺同学被北京大学航空航天大学录取。', '共青团班以高效的管理，一流的质量完成了高中三年的教学任务，圆了众多学子的求学梦、名校梦！', '强壮体魄养正气。好的身体是一切的基础，因此学校坚持让师生每天晨跑。伴着初升的太阳，吮吸着清新的空气，师生准时出发，三年如一日，风雨无阻。矫健的身影、统一的校服、整齐的步伐、响亮的口号，无不展示着卫中人的风貌，成为中卫市一道亮丽的风景线。', '外教加盟添活力。学校被中国教育学会外语专业研究会授予“全国外语教研工作示范学校”，成为与银川一中、固原一中并驾齐驱的区内英语教学名校。学校通过创设英语学习环境，开展丰富多彩、富有特色的英语教学活动，为学生提供了展示英语才华的大舞台，英语竞赛、高考成绩市内领先。为了提高学生的口语水平，提升英语教学品位，学校在今年聘请了外教，给学校英语教学带来了新的活力。', '艺体教育结硕果。中卫中学成立了乐队、舞蹈队、合唱队、田径、篮球、书法、绘画等各类兴趣小组，专业教师常年指导，每年都会开展丰富多彩的活动。学校还成立特长班，配备优秀教师专业辅导，每年有许多音体美特长生被高等院校录取，为众多热爱艺术的同学开启了另一条通往梦想的道路。在各级声乐、器乐、美术、体育技能大赛中，多次获全区、中卫市一等奖，并受到区内外专家的好评与赞誉。连续五年高考音体美专业课考试有百余名同学超过录取线。', '翰墨书香有内涵。学校始终把传承文明、明德博学、和谐发展作为教育主题，倡导"上善若水、德行天下"的校园文化精神。致力于培养人格健全、学力厚实，具有中国灵魂、世界眼光的当代人才。学校每年都组织多种形式的读书、演讲、朗诵、辩论等校园文化活动，丰富了同学们的校园文化生活，增加了学生内涵和学校文化底蕴。', '心理教育健身心。中学生处于青春发育期，是人生的第二次成长高峰，激烈地竞争、家长殷切地希望使高中生心理负担日益加重、精神极度疲劳，如果不及时、科学地疏导，极容易造成学生不健康心理。为此学校配备了两名专业心理学老师，用课堂主渠道，开展一系列心理健康知识的专题讲座；定期、不定期地举行以集体或个体为对象的心理咨询活动，营造浓郁的心理健康教育氛围。', '德育春风化甘霖。当家长把孩子送到学校，就是把一颗心托付给了老师。中卫中学用最优质的服务，搭建最好的成长平台，让学生满意，让家长放心。以“家校合作，全员育人”为德育特色核心，通过开展各种德育活动，培养学生良好的心理品质和行为习惯。', '闲暇时最怀念的还是那段备战高考的时光，将疲惫感暂且搁置，每一天都充满能量。很感激老师们的每一分付出，是他们的坚守支撑我们不断前行。即将告别母校，开始新的征程，未来有无限多可能待我们去闯。没有哪滴汗水毫无意义，多努力一分，未来便会多一分光芒。难忘师恩，难舍深情，也坚信母校的明天光芒万丈。', '回首来路，不禁唏嘘感慨。昔日懵懂幼稚的孩童转眼间已长成知事向上的少年。不知不觉间，我已成长很多。卫中三年，明我心志。身心投入的学习生活，单纯真挚的情谊，使我养就纯粹的心意，教会我淡然从容的生活。卫中三年，锐我意志。我须真心感谢这三年，让我经历坎坷起伏，忍受挫折，反倒令我不轻言放弃，百炼成钢。', '踏着时代的脚步，迎接未来挑战，抓住发展机遇，实现学校愿景，是历史赋予卫中人的神圣使命。底蕴深厚、自强不息、开拓进取、永争一流的卫中人坚持以“改革为动力，以特色求发展，以品牌树风范，以实力赢尊严，以质量求生存”为信念，正在向"全市领先，全区一流', '，全国知名"的目标奋进。中卫中学的明天就是在香山脚下、应理湖畔，矗立起一个办学特色鲜明的开放式、研究型、信息化、高质量的国家级示范性高中。']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>293</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>中卫市科学技术局年工作总结和十三五及年工作思路</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2016-01-15</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/skxjsj/fdzdgknr_49279/bmwj_49309/201801/t20180124_678031.html</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['中卫市科学技术局2015年工作总结和“十三五”及2016年工作思路_中卫市人民政府', '2015年，在市委、市政府的正确领导和自治区科技厅的精心指导下，市科学技术局坚持以“1846”工作计划为统领，以加快科技成果转化和产业发展升级为目标，坚持把科技创新作为推动全市经济社会发展的第一动力，积极构建服务于大众创业、万众创新的“大科技”格局，着力在深化科技体制改革、实施重大科技专项、加快科技成果转化等方面打响改革创新攻坚战，实现“十二五”顺利收官，为“十三五”发展奠定坚实基础。', '一是国家级农业科技示范园区实现突破。经国家农业科技园区协同创新战略联盟研究认定，中卫国家科技农业园区为第七批国家农业科技园区，填补了我市无国家级农业科技园区的空白。', '二是兰州大学中卫高新技术研究院创建实现突破。兰州大学中卫高新技术研究院已完成注册、人事任命，落实了办公场所和实验场地，为研究机构落户我市闯出了一条新路子、探索出了一条新模式。', '三是宁夏中关村科技产业园·中卫云中心建设实现突破。中关村科技产业园·中卫云中心建成启用，亚马逊AWS、宁夏云创数据投资有限公司、飞利信等27家企业入驻区。这是继西部云基地之后，中卫市委、市政府着力打造宁夏中关村科技产业园的又一实体。', '四是争取科技项目资金实现突破。围绕我市“四主一化”转型升级发展，争取项目76个，共争取资金10821.22万元（其中国家第三批专项建设基金7500万）。', '五是国家级知识产权优势企业实现突破。宁夏天瑞产业集团现代农业有限公司、中冶美利纸业股份有限公司被确定为国家级知识产权优势企业，实现了历史性突破。', '六是科普教育基地创建实现突破。宁夏中卫黄河博物馆、中卫市电信“智慧中卫”科技馆、中卫市沙漠博物馆获批自治区科普教育基地，是历年来获批数量最多的一年。', '一是争取项目引资金。2015年，为推动“四主一化”产业转型升级行动发展，全市积极申报国家级、自治区级科技计划项目206项，最终获批项目76个(市本级43个，中宁27个，海原6个），争取资金10821.22万元（市本级9157.22万元，中宁954万元，海原350万元）。项目主要涉及我市工业、农业、社会发展领域以及重点产学研合作、装备制造业、新能源、新材料、生物医药、信息化专项等方面，为进一步解决我市经济社会发展中的关键共性技术、加快科技成果转化提供有力的科技支撑。', '二是实施项目促产业。建立科技项目资源库，制定并认真落实《关于进一步加强科技项目申报和管理》制度，提高科技项目成果产出率。正在实施的国家科技惠民计划项目“宁夏中卫绿洲边缘植被恢复与生态资源开发技术集成示范”、 国家农业科技成果转化资金项目“沙漠光伏电站温室高效利用及产业化示范”、联合国开发计划署项目“宁夏沙漠化防治和民生改善”进展顺利，并已取得成效。中宁县实施的国家科技富民强县专项“中宁枸杞现代生产技术与推广”，带动了枸杞产业的发展；海原县实施的国家科技富民强县“中部干旱带旱作节水配套技术集成与推广”等项目，提高了马铃薯产业的科技支撑能力和应用水平。', '一是围绕创新要素聚集发力。积极开展自治区科技型中小企业申报认定工作，宁夏万齐米业有限公司、宁夏正旺农牧科技有限公司等11家企业被认定为自治区级科技型中小企业。目前，全市自治区级科技型中小企业已达25家。宁夏大米加工（中卫）技术创新中心被认定为自治区级技术创新中心，全市自治区级技术创新中心增至9家。建立中卫市钙果产业研究所，使我市市级研究院所增至6家。截止目前，全市自治区级工程技术研究中心2家、企业技术中心6家，院士工作站1家，博士后工作站1家，企事业知识产权试点单位7家，自治区级农业科技示范园区2家，自治区科普教育基地10家。这些创新平台已成为我市科研项目和人才集聚高地、科技资源共享高地、科技成果向生产力转化高地。', '二是围绕产学研协同创新发力。加快宁夏枸杞产业发展联盟建设，助推宁夏枸杞产业走上创新、突破、崛起的转型升级之路。协助天元锰业和国内多家著名科研院校结成“产学研用”联盟进行科技攻关，自主研发出国内领先的还原焙烧工艺，解决了国外二氧化锰矿除铁技术瓶颈。根据全市企业发展方向，我市制定企业科技人才需求目录，建立了科技专家库。今年全市企业共引进化工、机械制造、新能源等各类科技人才119名，有4家企业通过了自治区第五批科技创新团队初评。', '三是围绕科技与金融结合发力。开展科技型中小微企业风险补偿专项资金试点工作，分两批向自治区科技厅推荐9家企业申报科技型中小微风险补助专项资金项目，其中6家企业获得风险补偿专项贷款资金1162万元。积极组织企业申报科技型中小企业融资需求库，共征集到“受阻酚类抗氧剂330的制备方法应用”、“ 优质农产品质量溯源系统建设”等19个科技金融专项项目并进行了论证评审。全年共争取自治区科技金融专项项目12个（市本级9个，中宁县3个），争取资金141万元（市本级87万元，中宁县54万元）。积极争取国家科技部科技型中小企业技术创新基金项目4个，争取资金69万元。', '一是提升农业科技创新水平。坚持“一特三高”发展方向，以园区基地建设为载体，大力实施农业科技创新能力提升、农业科技成果转化应用、农业科技推广服务三大工程。围绕“一园四区”规划布局、申报的中卫市国家农业科技园区已获批准，将为我市农业现代化发展起到重要的引领示范作用。中宁县建立全国第一个GAP认证（中药材生产质量管理规范）枸杞生产基地，海原县在西安镇建成1万亩中药材种植基地。沙漠光伏生态旅游科技示范园现已形成了产、学、研、观一体化发展新模式，为“产业治沙”和“生态旅游”探索了新路径。', '二是提升科技特派员服务能力。通过优化科技特派员队伍，推进科技特派员创业行动，进一步提升我市科技特派员创新创业服务能力。目前，全市科技特派员人数共计438名，创办各类企业112家，领办各类合作组织和专业协会81家，引进农业种养新品种87个，示范推广新技术51项，建立农业科技信息化示范站点50个。科技部党组书记、副部长王志刚，党组成员、副部长张来武，自治区副主席姚爱兴一行到大学生科技特派员创业基地---宁夏万齐农业发展集团进行了调研，并给予高度评价。科技特派员万立军的创业事迹在中央电视台《新闻联播》进行了报道。', '三是提升科技扶贫“造血”功能。以项目为支撑，培育地区懂技术、善经营、会管理的科技致富带头人、企业家。狠抓兴仁镇川裕村等4个生态移民科技工作站建设，下派8名科技特派员进驻移民新村，解决农业生产中出现的各种疑难问题。中宁县、海原县共派驻14名科技扶贫指导员，深入乡镇和贫困村，组织开展农民科技培训，实施科技扶贫项目。全市共争取区级科技扶贫指导员专项资金122万元。', '一是做实中卫云中心建设。创新集约管理模式，高标准高起点规划建设宁夏中关村科技产业园·中卫云中心。在不断强化园区硬件设施、提升软件服务水平的同时，制订优惠政策，吸引企业入驻。目前，A座装修设计招标已结束，军民融合产业园（B座）已进行前期的设计招标，有76家企业前来考察洽谈，有47家企业申请入驻企业，亚马逊AWS、宁夏云创数据投资有限公司、飞利信、宁夏中云科技股份有限公司、大河云联科技公司、兰州大学中卫高新技术研究院等27家企业已入驻园区，开展创新、研发和产业孵化。', '二是提升云计算产业聚集力。以科技为支撑，加快推进我市环保云、交通云、卫生云、旅游云、媒体云等云应用项目建设。积极引进国内外云计算企业及设备制造厂商，重点培育具有较强创新能力的公共云计算企业，切实提升云计算产业聚集力和吸引力。目前，全市云计算及相关配套产业企业共106家。其中，云创公司数据中心一期完成主体及室外装修工程，亚马逊AWS三个数据中心项目完成主体工程，奇虎360公司E3机房进入模块调测阶段。数据中心部分配套项目进展顺利。', '三是助力新型工业发展。支持大河精工依托大河机床公司技术和科研优势，积极开发高档数控珩磨机等新产品，提高市场竞争力和覆盖率，促进数控产品科技成果转化。以电解金属锰为代表的冶金产业、以蛋氨酸为代表的精细化工业、以N型单晶硅为代表的新材料产业、以枸杞产品系列开发为代表的农产品加工业、以光伏风电为代表的新能源产业在科技创新的带动下稳步发展，全市新能源装机容量达3014兆瓦，占全区的37.7%。', '一是突出知识产权培育。今年，全市专利申请量大幅增长，企业科技创新能力明显提升。全市专利申请量为166件，比2014年增长22%，其中发明专利109件，比2014年增长20%；实用新型75件，外观设计21件；专利授权量为103件，其中发明专利23件，实用新型70件，外观设计10件。专利申请10件以上的企业达3家。茂烨冶金公司从零专利状态到目前已申请专利20件。中冶美利、天瑞集团被确定为国家知识产权优势企业。中卫市知识产权局被评为2015年全国知识产权系统人才工作先进集体，1人被评为全国知识产权系统人才工作先进个人。', '二是突出专利技术转化。组织宁夏天瑞产业集团现代农业有限公司、宁夏万齐米业有限公司、宁夏乙征生物工程有限公司等企业积极申报自治区级专利运用项目3项，争取资金15万元。督促知识产权试点示范企业做好专利申请、能力提升、专利转化运用等工作，争取试点企业专项工作经费70万元，科技创新平台专利补助经费5.5万元。', '三是突出国际交流平台创建。认真落实市人民政府与中国技术交易所签订的知识产权框架协议，组织北京众元弘策知识产权代理事务所专利代理人深入12家企业进行具体对接洽谈，目前，已与中卫市茂烨冶金有限公司、中卫市江沅水务科技有限责任公司、宁夏瑞翼天成自动化科技有限公司签订了专利代理委托协议，协助申请专利22件，其中5件已获得授权。', '一是落实国家科技创新优惠政策。严格落实企业研究开发费用所得税税前加计扣除、技术转让所得税减免、高新技术企业税收优惠、科研设备加速折旧、科技企业孵化器税收优惠等各项优惠政策。现已分别鉴定落实利安隆（中卫）新材料有限公司和宁夏乙征生物工程有限公司5个研发项目，涉及研发费用470万元。', '二是制定出台科技创新优惠政策。出台并落实《中卫市科技创新后补助项目管理暂行办法》、《中卫市专利资助管理办法》，按照公开、公平、公正的原则，经联席会议成员单位评审，确定市级科技创新后补助项目20个，下达后补助资金407.12万元，对162件专利进行资助（发明专利119件，实用新型专利43件），资助资金53.5万元。', '三是做好引智借智工作。制定出台《中卫市引进急需紧缺高层次人才暂行办法》。中国人民大学西部人才培训基地、宁夏大学中卫校区云计算学院先后挂牌成立。积极与中国科学院西安分院共建中宁枸杞研发中心。与北京中关村建设的中关村科技产业园西部云基地顺利推进。与宁夏大学共建创新创业人才培养基地。全市共有580家企业与中国科学院、清华大学等国内外大院大所等科研机构签订技术合作协议910份。邀请国家高科技人才来卫为我市经济发展把脉会诊，先后由国家科技部、中国科学院院士等49批440人次来我市考察调研，指导工作。', '一是强化机关效能。认真开展“守纪律、讲规矩”、“二次创业”大讨论和“三严三实”主题教育活动，并取得明显效果。干部“下基层”活动和党支部活动“手拉手”扶贫帮困工作取得成效。组织全体干部职工到自治区廉政警示教育中心、司法局法制教育基地等参观学习，按要求参加“媒体问政”、“群众评议机关和干部作风”、“政风行风热线”等活动。单位无违纪违法现象发生。', '二是强化服务理念。积极跳出科技抓创新、深入企业促创新，主动做好企业服务工作。先后深入重庆紫光、万齐集团等100余家企业，积极开展科技服务活动，主动做企业创新的服务员、科技政策的宣传员、项目申报的辅导员、科技合作的联络员。', '三是强化科技培训。依托现有培训平台，积极开展面向企业的人才培训工作，共举办和参加各类创新基金、科技创新后补助资金、税前加计扣除研究开发项目、专利保护等方面的培训班14期1090人次，面向云计算产业相关联企业及科技型中小微企业举办了《创业公开课—office应该这样玩》等培训14期。', '（一）全市R＆D投入强度仍处在较低水平。全市研究与试验发展（R＆D）经费投入、占地区生产总值（GDP）比重远低于全区平均水平，难于保障科技服务经济社会发展的需要。个别县区没有将企业科技创新后补助资金列入年度专项预算安排。同时，企业自主创新经费投入不够，企业的科技研发经费大部分都不足销售收入的2%，远低于全国、全区的平均水平。', '（二）企业自主创新活动的领军人才紧缺。目前，我市企业从事R&amp;D活动人员仅有865人（管理和服务人员67人，参加项目人员798人），不仅总量太少，而且具有研究能力的硕士博士等高学历、高技术职称的人才比重明显偏低。一些企业对人才的留用、使用、重用上缺乏内部激励机制，存在人才引不进、用不活、留不住的问题。', '（三）自主创新能力地区差异明显，差距较大。中卫规模以上工业企业自主创新研发活动相对集中在工业基础较好、交通便利、资金有优势的县（区）。企业创新投入向优势行业、优势地区和优势企业集聚的态势正逐步形成，地区间分布有明显的集中度差异，沙坡头区、中宁县、海原县和海兴开发区的企业创新能力发展不平衡，以致于地区间的科技实力更加悬殊，这将严重阻碍全市总体创新能力的提升。', '（四）企业自主创新意识有待进一步提高。在“科技强市”政策和市场机制的激励下，我市企业自主创新意识不断增强，开展技术创新活动的步伐不断加快，但总体来说自主创新意识还有待进一步提高。产业发展中重规模、轻科技的现象仍然存在，自主创新活动尚未成为企业的普遍行为，创新主体数量少直接影响着全市科技创新活动的全面开展，严重制约企业竞争力的提升。', '——国家认定的高新技术企业达 10 家以上，国家级企业技术中心达 5 家以上，国家级工程技术研发中心 2 个，培育 10 个科技创新团队。', '1、着力构建创新服务体系建设。一是重点组建中卫市科技创新战略联盟，搭建资源优势向经济优势转化的研发平台和科技人才需求服务平台，促进我市科技创新和优化经济结构、产业转型发展提供承载平台。二是开展科技金融合作试点，争取金融机构在我市设立1家科技支行，面向科技型中小微企业开展金融服务，重点对科技型企业开展知识产权质押贷款和信用贷款等信贷支持。三是大力发展创新型企业。开展中小微科技型企业认定并建立企业数据库。申报认定一批高新技术企业和创新型企业。四是支持企业建立研发机构。积极搭建产学研对外科技合作平台，帮助企业“走出去、引进来”，与科研院所、大专院校开展产学研对接。', '2、着力提升我市科技创新能力。一是组织实施一批重大科技专项，突破技术瓶颈，掌握一些关键技术，形成技术规范，推广应用，促进全市产业转型。二是组织建设一批市以上工程技术研究中心、企业技术中心、培育一批高新技术企业和创新型企业。三是重点打造一批科技创新团队，提升企业的技术创新能力和产业的市场竞争力，培育创新型领军企业。四是培育自主知识产权和自主品牌，带动企业产品结构调整和产业优化升级，打造一批具有国内竞争力、引领特色产业发展的创新型领军企业，不断壮大产业集群。', '3、着力完善科技创新驱动发展机制。一是认真落实国家鼓励企业创新的各类优惠政策，全面建立企业研发投入资助制度，引导企业加大研发投入。设立并用足用好自主创新专项资金，为科技进步与创新提供资金保障。二是引导企业将技术创新与管理创新紧密结合，建立适应现代企业制度和创新要求的管理体制机制。三是在重点行业和企业建立知识产权数据库，建设覆盖全市的知识产权信息网络。充分发挥市级专利奖、专利产业化专项资金的导向作用，加强知识产权保护体系建设。', '一是提升关键指标。研究与试验发展（R＆D）经费投入占地区生产总值（GDP）比重达1%； R＆D人员增加至1000人；R＆D人员全时当量达480人/年；每万人口发明专利拥有量达0.55件。二是提高创新创业平台质量。建设宁夏中关村科技产业园中卫云中心和国家农业科技园区，启动西部云基地申报自治区高新技术产业开发区工作；全市组建实验室等创新联盟5个、博士后工作站2家，建立产学研创用合作联盟20家。三是加强知识产权专利申报。全年完成专利申请数180件，其中发明专利申请65件，专利授权数达100件。培育知识产权咨询服务公司1家。四是突出创新主体培育。申报国家高新技术企业1个，自治区级科技型中小企业10个，自治区级技术创新中心2个，自治区科普教育基地3家，国家级农业科技园区1个，培育科技特派员创业实体10家。', '1、加大项目争取力度。严格按照“五个必须”的要求，围绕工业强基、旅游升级、信息壮大、农业提质“四大工程”争取国家项目 3-5项，实施自治区级科技计划项目30个，同时抓好国家科技惠民计划“宁夏中卫绿洲边缘植被恢复与生态资源开发技术集成示范”项目和国家农业科技成果转化资金项目“沙漠光伏电站温室高效利用及产业化示范”等重大项目的实施，实现生态环境改善和经济效益双赢目标。', '2、全力抓好宁夏中关村科技产业园·中卫云中心及军民融合产业园建设。加快建设进度，努力构建云设施、云应用、云服务核心产业链。抓好各招商企业的入园工作，确保8月底前投入使用。积极引进国内外云计算及军民融合一流企业入驻园区，开展创新、研发和产业孵化，推动全市科技创新、促进科技成果转化，推动全市产业转型升级。重点抓好商业航天发射服务产业、飞艇产业、军民融合产业示范区3个军民融合产业项目的建设。', '3、启动建设中卫国家农业科技园区。实行政府宏观指导、企业化运行机制，围绕“一园四区”规划布局和功能定位，修改完善园区规划，做好园区实施方案的编制和论证，提前部署基础设施建设，重点抓好重大项目实施，积极培育优质枸杞、特色瓜菜、生态草畜、精品苹果四大主导产业，引进示范一批新品种、新技术、新装备和新模式，培育大地生态、万齐集团、香岩集团、南山阳光果业等一批科技型龙头企业，打造“中宁枸杞”、“香山硒砂”、“穆和春”等特色知名品牌，将中卫国家农业科技园区建成全区标准最高的国家农业科技园区。', '4、大力培育企业创新能力。建立中卫云中心、沙坡头水镇2个众创空间。力争新培育3-—5家自治区级工程技术研究中心。力争银阳公司、紫光公司列入高新技术企业。加强企业研发投入的行政引导，完善以企业研发创新投入补助为前提的科技项目立项和经费支持的管理体制，加大R&amp;D投入经费加计扣除等政策支持，加强对企业R&amp;D经费投入的归集培训，开展全市研究开发费用税前加计扣除工作。建设市级以上企业工程技术研究中心和企业研究院。组织符合条件的企业申报高新技术企业和科技型中小企业，开展创新型企业试点工作，支持企业走产学研相结合的自主创新道路，2016年申报高新技术企业1家，自治区级科技型中小企业10家。', '5、提升科技特派员创新创业质量。积极选派一批优秀科技特派员在优势特色产业领域和科技示范园区开展创新创业，加强观摩交流和技术培训，发挥科技特派员示范引领作用，使我市科技特派员的整体素质和创新创业服务质量有一个大的提升。全市科技特派员队伍稳定在400人左右，培育科技特派员创业实体10家。', '6、加强知识产权服务工作。组织符合条件的企业积极申报自治区级以上专利运用项目，对产业化或即将产业化的优秀自主专利项目，加大扶持力度，变技术优势为市场优势。加强对企业专利工作的调研，帮助企业建立知识产权制度，实施知识产权战略。举办1-2期针对企业的专利知识讲座，培养一批知识产权明白人，提升企业知识产权的管理、运用、保护水平。培育专利大户企业5家，知识产权服务企业1家。', '7、严格落实创新优惠政策。贯彻执行研发开发费用加计扣除的申报与管理，落实高新技术企业税收优惠政策。继续做好市级科技后补助项目的实施工作，提升中卫市企业的科技实力。充分发挥兰州大学中卫高新技术研究院的带动作用，推动兰州大学科技成果在中卫转化、服务中小企业。深入推进企业创新团队、院士工作站、自治区级产业联盟等建设，开展“科技人才中卫行”等活动。充分利用“中国技术交易所”进驻中卫的机遇，提升全市知识产权交易和保护能力。', '8、抓好科技精准扶贫工作。深入推进科技扶贫工作和生态移民“四个全覆盖”工程，积极争取自治区科技厅项目支持，引进示范推广新品种、新技术，加快海原县中药材、马铃薯产业发展，促进贫困村脱贫致富。协助北方民族大学在海原推广生态村植被恢复技术研究、农作物滴灌精准灌溉远程控制、马铃薯种薯窖藏环境智能远程监控（包括手机终端远程控制技术）、温棚室内环境智能监控系统等技术应用。', '9、创建国家创新型试点城市。建立财政科技投入稳步增长机制，确保科技投入增幅高于财政经常性收入增幅，2016年市、县区财政科技支出占本级财政一般预算支出的比例力争达3%。建立知识产权代理服务机构工作。开展技术转让、技术开发、技术咨询和技术服务等技术交易工作。设立国家创新型试点城市创建科技专项资金。加大对全社会优秀创新创业项目的表彰激励，举办中卫市科技创新创业竞赛、优秀发明专利评选等活动。设立国家创新型试点城市建设推进奖。加大科技对中卫智慧城市建设和全域旅游的支持力度。', '建立财政科技投入稳步增长机制，确保科技投入增幅高于财政经常性收入增幅，2016年市、县区财政科技支出占本级财政一般预算支出的比例力争达3%。建立知识产权代理服务机构工作。开展技术转让、技术开发、技术咨询和技术服务等技术交易工作。设立国家创新型试点城市创建科技专项资金。加大对全社会优秀创新创业项目的表彰激励，举办中卫市科技创新创业竞赛、优秀发明专利评选等活动。设立国家创新型试点城市建设推进奖。加大科技对中卫智慧城市建设和全域旅游的支持力度。', '政经常性收入增幅，2016年市、县区财政科技支出占本级财政一般预算支出的比例力争达3%。建立知识产权代理服务机构工作。开展技术转让、技术开发、技术咨询和技术服务等技术交易工作。设立国家创新型试点城市创建科技专项资金。加大对全社会优秀创新创业项目的表彰激励，举办中卫市科技创新创业竞赛、优秀发明专利评选等活动。设立国家创新型试点城市建设推进']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>293</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>宁夏中卫市组织工作综述</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2017-06-07</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/zwkx/zwyw/201706/t20170607_598189.html</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['五年来，全市组织工作紧紧围绕“四个全面”战略布局，坚决把全面从严治党贯穿始终，严格按照中央的统一部署和区、市党委的总体要求，在服务大局中凝神聚力，在聚焦主业中实干担当，思想政治建设明显加强、基层党建基础全面夯实、干部监督管理不断规范、人才支撑作用显著提升，为全市经济社会发展提供了坚强的组织保障。', '心正则身正，心明则行笃。五年来，市委坚持把思想政治摆在首位，理论武装持续深化，党员干部“四个自信”更加坚定，“四个意识”不断增强。', '——聚焦党性引领，增强行动自觉。以“四学六查三改两立”为载体，认真抓好党的群众路线教育实践活动，扎实组织开展“三严三实”专题教育，大力整治“四风”，为全市改革发展稳定提供了思想和作风保证。精心组织开展“两学一做”学习教育，创新开展“四查四树”“六查六看”，坚持做到“六个结合”，切实把学习教育抓紧抓实。市直机关专题组织生活会“五到位”做法得到中组部肯定。扎实推进“两学一做”学习教育常态化制度化，着力在打牢“真学”基础、推进“实做”关键、坚持“立改”根本、重点建强“支部”、做好“结合”文章、落实“从严”要求“六个方面”下功夫。市级领导以讲党课、参加支部组织生活等方式带头参加学习教育，以上率下，树标立规。各级党组织书记率先垂范，坚持做到“六个带头”，层层示范，逐级推动。', '——注重学用结合，提升干部素质。认真实施“干部能力提升行动”，紧盯脱贫攻坚、供给侧改革、创新驱动发展等中心工作，举办各类主题班、专题研讨班共166期，培训干部3.2万多人次，选派2600多名领导干部参加上级调训。建立全市大党校办学体制和管理模式，全面提升阵地服务能力。制定《干部教育培训工作规范化建设意见》、《领导干部上讲台制度》等制度，进一步提高教育培训工作规范化、制度化水平。开设20多门特色课程，依托监管场所、宁夏西部云计算基地，开展具有中卫特色的现场教学，增强干部教育培训实效。健全完善干部实践锻炼机制，先后选派80多名优秀年轻干部到经济发达省区、上级机关以及贫困乡镇挂职锻炼，帮助他们学习经验、更新观念、拓宽视野、提升能力。', '治国安邦，重在基础。五年来，市委认真贯彻党要管党、从严治党要求，把基层组织建设摆在党的建设工作重要位置，不断夯实基层基础，形成了基层组织工作责任落实、协调有力、保障到位、成效明显的良好局面。', '——突出全面从严，落实党建责任。坚持党建工作与中心工作同谋划、同部署、同推进、同考核，制定下发《关于深入推进全面从严治党若干问题的实施意见》《关于进一步加强农村基层党建工作的实施意见》等重要文件，为加强和改进基层组织建设明确了思路方向。市委常委会定期听取党建工作汇报，专题研究解决基层党建重大问题，分解落实党建任务，常过问、常提醒、常督促。建立市级党员领导干部党建工作联系点、基层党建工作例会、基层党建工作定期督查通报等制度，健全“季度分析、半年督查、年终考核”动态管理机制，推动党建责任抓在日常、严在经常。健全落实抓党建“四个一”工作机制，建立成绩、问题、任务、责任“四个清单”，确保基层党建责任落实到位。', '——突出问题导向，夯实基层基础。采取领导干部联村抓、挂职干部驻村抓、乡镇干部包村抓等措施，加大软弱涣散基层党组织整顿力度，2014年以来，共整顿转化基层党组织316个。积极探索“八种模式”大力发展村集体经济，全力消除“空壳村”，全市集体经济收入10万元以上的村达到77个。2014年以来，市县两级先后投入7400多万元，新建、维修村级组织活动场所363个，为村党组织服务党员群众提供有力保证；分两批选派408名优秀机关干部到贫困村担任“第一书记”或工作队长，安排9300名机关干部下沉到152个贫困村，与3万余户贫困户结成帮扶对子。海原县被自治区党委评为“全区基层党建先进县”。建立村（社区）干部报酬正常增长、养老保险、健康体检、离任补助、定向招录“五位一体”保障机制，将村干部工资提高到所在县（区）上年度农民人均纯收入3倍。建立重点部门联系非公企业和社会组织制度，着力抓好党的组织和工作“两个覆盖”， 全区规模以上非公企业发展党员和党员管理试点工作总结交流会及全区第二届非公企业党组织书记论坛在我市举办。', '——突出改革创新，强化服务功能。以星级基层服务型党组织创建为引领，采取“一部门一特色、一村一品、一居一策”的方式，分类推进各行业各领域基层党组织晋位升级、创先争优。截止2016年，全市共评定3星级以上党组织587个，占14.3%。市人民检察院党总支先后被评为全国、全区“先进基层党组织”。创新推行以信息化服务平台为基础、全域化服务体系为支撑、网格化服务管理为手段、常态化服务机制为保障、群众满意为目标的“四化一满意”服务群众工作机制，市县两级先后投入1500多万元，搭建标准统一的“四化一满意”服务群众工作平台，建立乡镇民生服务中心工作平台39个，村级便民服务站工作平台325个，全面推行民生事项网上申报受理，为群众办理各类事项3万余件，变“群众跑腿”为“数据跑路”。创新做好“有土”“离土”两篇文章，打造了“整村推进”“机关干部联系帮扶贫困户”等一批党建扶贫新模式。推行基层党建工作项目化管理，推动党建工作创新发展。创新开展党员“政治生日”主题活动，切实增强党员意识。深化党员“评星定格”活动，探索设置“十项否决”内容，对党员长期不参加组织生活、受到党政纪处分、工作出现重大失误等10种情形，在评星定格中实行一票否决，进一步完善了党员党性定期分析制度。组织开展党员“亮牌上岗”、农村党员“四在先”、非公企业党员“三亮三争”等活动，引导党员立足岗位发挥先锋模范作用。', '事业兴衰，关键在党，关键在领导班子和干部队伍。五年来，市委始终把从严培养选拔、从严管理监督干部作为关系事业发展的关键性、根本性问题来抓，努力打造铁一般过硬的干部队伍。', '——树立正确导向，选准用顺干部。严格落实“好干部”标准，坚持看重忠诚、看重实干、看重担当、看重干净、看重基层用人导向，突出向基层倾斜、向急险重的岗位倾斜，先后从基层一线选拔处级干部61名，其中乡镇党委书记17名。强化正向激励，在全区率先建立容错免责机制，坚持“三个区分开来”，对因工作中无意过失受到党政纪处分，但平时勤恳敬业、敢作敢为、工作成绩突出的5名干部予以提拔使用。出台《中卫市推进领导干部能上能下实施办法（试行）》，先后对91名不适宜担任现职、因身体健康原因等无法正常履职的领导干部予以免职或调整。坚持精准识别身份、精准考察工作业绩和精准研判政治表现“三精准”原则，严把人选质量关，圆满完成了2016年市县乡领导班子换届工作。', '——创新选任机制，盘活干部资源。探索实行了“两公开、四提名、四差额”干部选任机制，有效破解干部选拔任用提名难、公开难、择优难等问题。积极开展领导班子综合研判工作，研判结果作为配班子选干部的重要依据。打通县（区）之间、市直部门与县（区）之间、党政机关与企事业单位之间三个板块，从更大范围、更广领域选择干部，近年来共调整交流干部308名。实施“年轻干部成长工程”，统筹做好少数民族干部、女干部、党外干部的培养使用，合理使用各年龄段干部，先后提拔女干部36名，少数民族干部33名，党外干部9名，42岁以下干部45名，新招录公务员、选调生718名，进一步优化了队伍结构。', '——坚持从严从实，强化监督管理。严格执行领导干部经济责任审计、信访查核、提醒谈话、函询诫勉等制度，强化干部日常监督。加强干部任前监督，坚持“凡提四必”，落实党委（党组）书记和纪委书记（纪检组长）双签字制度，实行领导干部实绩公示制，对有硬伤的干部一律排除在外。建立干部监督信息库，有针对性的进行重点监督。突出抓好领导干部报告个人有关事项抽查核实工作，对填报存在问题或不如实报告的152名领导干部分别进行了批评教育和诫勉谈话，取消了1名干部拟提拔资格。认真做好职数配备干部、党政领导干部在企业兼（任）职、干部人事档案审核等专项治理工作，消化超职数配备的处科级干部213名，清理党政领导干部在企业兼（任）职68人次，完善规范1995份干部档案信息。严肃换届纪律，全市换届工作“零违纪、零举报”。', '政以才治，业以才兴。五年来，全市牢固树立人才优先发展理念，大力实施人才强市战略，不断创新政策、搭建平台、优化服务，统筹推进各类人才队伍建设，为壮大优势产业、服务中卫经济社会发展提供智力保障。', '——坚持人才优先，强化政策支持。先后制定出台《关于深化人才发展体制机制改革促进人才与经济社会协调发展的若干意见》《“中卫英才”奖评选奖励办法（试行）》等一系列人才政策，积极探索高层次急需紧缺人才职称直聘办法，建立职称“地方粮票”聘用机制，解决了教育、卫计、农牧等系统专业技术人才职称评聘难问题；研究出台“特殊政策”，根据实际技能水平和社会影响力，评定本地涌现出来的“能工巧匠”“土专家”等各类实用人才，不断深化人才发展体制机制改革，充分激发各类人才创新创造创业活力。', '——突出平台搭建，积极筑巢引凤。积极搭建“三大平台”，促进产业与人才、科技与人才、企业转型发展与人才优先发展“三个融合”。搭建人才引育平台。围绕全域旅游、云计算等主导产业发展，建立7个人才培养基地、16实训基地。大力实施急需紧缺人才引进、经营管理人才培训等重大人才项目，“走出去、请进来”，以“人才+项目”捆绑式引才育才，先后引进中科院院士俞大鹏、中国旅游研究院院长戴斌、宽带产业基金董事长田溯宁等专家及行业领军人才20余人，聘任中卫市特聘专家49名，培训各类人才8万余人次。搭建科技创新平台。深化与高校、科研院所的产学研创合作，先后筹建了兰州大学中卫高新技术研究院、宁夏枸杞保鲜与加工职业技能实训中心及院士工作站、企业技术中心等科技创新平台。全市已有580家企业通过平台签订技术合作协议900余份。搭建人才创业平台。深入推进各工业园区、中关村中卫园、电子商务孵化中心及创业大学等创新创业平台建设，加强对众创空间基础设施建设和项目的资助，吸引集聚各类优秀人才来卫创新创业。已有亚马逊AWS、云创数据投资公司、澄美呼叫中心、美团网等160余家企业入驻各产业园区，科技特派员创办企业112家。', '——优化服务环境，努力栓心留人。以建设宁夏非公企业人才发展服务试验区为契机，加大人才开发投入力度，将市级人才经费由原来的每年200万增加至1500万；在全区率先设立非公经济人才服务中心，完善“一站式+个性化”人才服务体系；依托中卫云计算产业发展优势，建立中小微企业人才服务平台、就业创业E平台等网上人才服务平台；建立非公企业专业技术人才职称评审预备案制度，对有职称申报需求的160余名非公企业专业技术人员进行职称申报指导；组织开展“中卫英才”“享受市政府特贴人员”评选表彰活动，对13名“中卫英才”、31名“享受市政府特殊津贴人员”，每人分别一次性给予10万元和1万元奖励；建立领导干部联系优秀人才制度，走访慰问优秀人才50余名；为各类优秀人才在配偶安置、子女入学、医疗、住房保障等方面积极创造条件，用真挚的感情留人，用适当的待遇留人，用发展的事业留人，营造了鼓励人才干事业，支持人才干成事业，帮助人才干好事业的良好社会环境。', '百尺竿头思更进，策马扬鞭再奋蹄。全市组织工作将紧紧围绕中央、区、市党委的决策部署，以踏石留印、抓铁有痕的韧劲，开拓创新、昂扬向上的锐气，奋力开创组织工作新局面，为实现全市经济繁荣、民族团结、环境优美、人民富裕，确保与全区全国同步建成全面小康社会提供坚强组织保证，以优异成绩迎接党的十九大和自治区第十二次党代会胜利召开！']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>293</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>高举新时代改革开放旗帜以习近平同志为核心的党中央引领改革开放纪实</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2018-12-18</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201812/t20181218_1215529.html</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['高举新时代改革开放旗帜——以习近平同志为核心的党中央引领改革开放纪实_中卫市人民政府', '当改变中国历史和亿万人民命运的改革开放走到新的关键节点，以习近平同志为核心的党中央高举新时代改革开放旗帜，再启催人奋进、勇往直前的壮阔征程。', '面对这片打响改革开放“开山炮”的热土，习近平总书记作出“我国改革已经进入攻坚期和深水区”的判断，强调“改革不停顿、开放不止步”。', '时隔6年，习近平总书记再赴广东考察，庄严宣告：“中国改革开放永不停步！下一个40年的中国，定当有让世界刮目相看的新成就！”', '经过几十年快速发展，中国又走到了一个新的关口。改革开放的复杂程度、艰巨程度、敏感程度，丝毫不亚于当年。', '向内看，经济长期高速增长过程中积累的一系列深层次矛盾不断积聚，经济发展进入新常态，结构调整、动能转换势在必行；发展不平衡、不充分问题日益突出，人民群众对美好生活的向往愈发迫切。', '向外看，国际金融危机阴霾未散，地区冲突频发，极端主义威胁蔓延；新科技革命和产业变革浪潮下的国际竞争形势逼人，逆全球化、贸易保护主义沉渣泛起，捧杀唱衰中国的论调此起彼伏。', '在创造了“中国崛起”的世界奇迹后，不合时宜的思想观念和体制机制弊端正在成为阻碍改革开放步伐的“绊脚石”，利益固化藩篱更是频频触动社会稳定发展的“警报器”。', '“必须以更大的政治勇气和智慧，不失时机深化重要领域改革”——创造历史自当弘毅，习近平总书记向海内外释放出改革再出发的强烈信号。', '人们纷纷认为，这既是对波澜壮阔改革史的回顾致意，更是对新形势下继续高举新时代改革开放旗帜的坚定宣示。', '“我们党靠什么来振奋民心、统一思想、凝聚力量？靠什么来激发全体人民的创造精神和创造活力？靠什么来实现我国经济社会快速发展、在与资本主义竞争中赢得比较优势？靠的就是改革开放。”2013年11月，习近平总书记在党的十八届三中全会上作关于《中共中央关于全面深化改革若干重大问题的决定》的说明时这样表示。', '国企国资、户籍制度、财税金融、农村土地、公立医院……参加文件起草和政策论证的很多党政要员、专家学者回忆说，习近平总书记亲自研究拍板，很多议论多年、裹足不前的深层次改革破冰启动。', '2013年12月30日，中国共产党历史上第一次在党中央层面设置专司改革工作的领导机构——中央全面深化改革领导小组，习近平总书记担任组长，加强党中央对全面深化改革的集中统一领导。', '“中国改革经过30多年，已进入深水区，可以说，容易的、皆大欢喜的改革已经完成了，好吃的肉都吃掉了，剩下的都是难啃的硬骨头。”2014年2月，在接受俄罗斯电视台采访时，习近平总书记如是坦言：“改革再难也要向前推进，敢于担当，敢于啃硬骨头，敢于涉险滩。”', '明确当前改革是“在中国特色社会主义道路上不断前进的改革”“既不走封闭僵化的老路，也不走改旗易帜的邪路”“坚持和加强党对全面深化改革的集中统一领导”……在涉及道路、理论、制度等根本性问题上，习近平总书记立场坚定、思路清晰，不讲模棱两可的话，不做遮遮掩掩的事。', '历史思维、辩证思维、法治思维、系统思维、底线思维、创新思维、开放思维……从经验教训着眼，习近平总书记谋全局、图善治，推动改革发展稳定、内政外交国防、治党治国治军各方面工作迈上新台阶。', '从提出“完善和发展中国特色社会主义制度，推进国家治理体系和治理能力现代化”的改革总目标，到明确“五位一体”加党建的体制改革分目标，从改革的四梁八柱构建完善到任务书、时间表、责任制逐项明确……', '不提抽象空洞的概念，不讲大而化之的道理，习近平总书记提出一系列新理念新思想新战略，形成一个内涵丰富、思想深邃、系统完整的科学理论体系，成为新时代推动全面深化改革的行动指南。', '以“得罪千百人、不负十三亿”的勇气，全面从严治党，深化党的纪律检查和国家监察体制改革，为全面深化改革营造良好的政治生态；', '以“腾笼换鸟、凤凰涅槃”的思路，转变发展方式，贯彻新发展理念，深化供给侧结构性改革，推动经济向着高质量发展迈进；', '以“为千秋万代计”的视野，深化生态文明领域改革，改革干部考核制度、开展中央环保督察，让绿水青山就是金山银山的理念深入人心；', '2017年10月18日，人民大会堂。党的十九大举世瞩目。依据中国特色社会主义进入新时代、社会主要矛盾转化等重大判断，习近平总书记作出新阶段全面深化改革开放的战略部署。', '党的十九大之后，中央全面深化改革领导小组改为中央全面深化改革委员会，这个职能更加全面、机构更加规范、运行更加稳定、组织更加健全的专门机构，熔铸统揽改革开放的坚强中枢，凝聚最为广泛的改革力量。', '放眼今日中国，全面深化改革各主要领域具有四梁八柱性质的主体框架基本确立，打破思维定式、冲出观念束缚的坚强意志无比坚定，一系列历史性成就和历史性变革见证全面深化改革开放渐入佳境。', '俄罗斯的“中国通”波列瓦诺夫院士说，今日中国已经进入了新的历史发展时期，中国领导人坚持把改革进行到底，保持中国改革开放方针政策延续不断，让世界看到了一个更加强大、更有活力，志向更加高远的中国。', '在“一国两制”框架下，一个连接两个特别行政区、三个关税区的大桥，不仅要完成桥体跨度上的极限挑战，更要解决口岸设置、投融资安排、通航与锚地、中华白海豚保护等一系列全新课题。', '“逢山开路，遇水架桥”，这项创造多项世界第一的超级工程，正是新时代全面深化改革开放的写照。', '2012年12月31日，十八届中央政治局第二次集体学习，习近平总书记指出：“改革开放是前无古人的崭新事业，必须坚持正确的方法论，在不断实践探索中推进。”', '7个月后，荆楚盛夏，习近平总书记在湖北武汉考察，作出更为深思熟虑的论断：“处理好解放思想和实事求是的关系、整体推进和重点突破的关系、顶层设计和摸着石头过河的关系、胆子要大和步子要稳的关系、改革发展稳定的关系”。', '认识，是行动的先导。6年来，全面深化改革之所以能闯关夺隘、纵深推进，取得一系列历史性成就和历史性变革，坚持科学的方法论正是关键一环。', '投石问路、逆水行舟。习近平总书记强调，改革是由问题倒逼而产生，又在不断解决问题中而深化，要始终树立强烈的问题意识，哪里矛盾和问题最突出，就重点抓哪项改革。', '纵观全球，世界经济仍在动荡调整；审视国内，“三期叠加”加剧下行压力。是延缓改革步伐还是推迟转型升级目标？', '当年5月，习近平总书记来到河南考察，从“我国发展仍处于重要战略机遇期”的判断出发，首次提出“新常态”的重大论断。', '自此，认识、适应、引领新常态成为我国经济改革发展的大逻辑，以供给侧结构性改革为主线，深入推进“三去一降一补”，加快新旧动能转换、结构调整，实现了经济从高速增长向高质量发展的历史性转变。', '2015年9月，中国人民抗日战争暨世界反法西斯战争胜利70周年。透过血与火映照的历史镜像，习近平总书记在思考，在党和人民需要的时候，我们这支军队离能打仗、打胜仗的核心要求有多远？', '历时近两年，习近平总书记上海岛、踏边关、走戈壁、看哨所、进战车、登战机，走访690多个军地单位，召开800多个座谈会、论证会，修改完善改革强军方案150多次……改革“如旱天惊雷”，人民军队面貌焕然一新，实现政治生态重塑、组织形态重塑、力量体系重塑、作风形象重塑。', '党的十八大以来，深度警觉党内思想滑坡、信仰缺失、腐败频发等现象，深刻分析党的领导弱化、党的建设缺失、全面从严治党不力等问题，习近平总书记上任伊始就向全党发出“腐败问题越演越烈，最终必然会亡党亡国”警告。', '总书记将全面从严治党摆进“四个全面”战略布局，以刀刃向内的自我革命勇气，带领全党开启了一场浴火重生的革命性锻造。', '深化党的纪律检查和国家监察体制改革，落实全面从严治党双重责任制、加强巡视监督和派驻监督、加大追逃追赃工作统筹协调力度……一批“老虎”“苍蝇”一起打的硬招实招使反腐败斗争形成压倒性态势，党心民心空前提振。', '做好改革的辩证法，习近平总书记强调，全面深化改革是一个复杂的系统工程，单靠某一个或某几个部门往往力不从心，这就需要建立更高层面的领导机制。', '党的十八大以来，习近平总书记亲自主持召开40多次中央深改组、中央深改委会议，审议通过400多个重要改革文件，确定300多个重点改革任务，出台1600多项改革举措。', '“九龙治水、各管一头”的顽疾必须治，“头痛医头、脚痛医脚”的老路不能走。从每次中央深改组、中央深改委会议的新闻发布中，人们往往能读出习近平总书记的改革方法论。', '既审议具体的改革方案，又对当前改革最紧迫任务、面临最突出矛盾和最需要把握的问题提出要求，既聚焦改革内容，又强调改革方法，体现了战略和战术的高度统一。', '承东启西、接南济北、通江达海，这条流经11省市的中华母亲河曾因乱砍滥伐、无序排污伤痕累累，更因拦水筑坝、截江断流的水权之争欲哭无泪。', '“共抓大保护、不搞大开发。”2016年1月、2018年4月，习近平总书记先后在长江上游的重庆和中游的武汉召开两次推动长江经济带发展座谈会，从抓思想观念转变、抓体制机制变革入手，为当前和今后长江经济带发展如何正确把握生态环境保护和经济发展的关系指明了方向。', '应时而变，因势利导。既鼓励创新，又宽容失败；既从机制上激励，又从考核上约束；既与法治相向而行，又与发展相辅相成……全面深化改革正是在广泛调研中科学研判，在深入思考中谋篇布局。', '在北京、山西、浙江三省市先行开展国家监察体制改革试点；在全国33个县（市、区）开展农村“三块地”改革试点；开展三江源、祁连山、大熊猫、东北虎豹等国家公园体制改革试点；在部分地区和部分在京中央机关开展公务员职务职级并行制度改革试点……一块块全面深化改革的试验田，灌注党中央谋划长远的智慧之泉。', '浙江“最多跑一次”经验、海南和宁夏“多规合一”实践、福建三明“三医”联动改革、浙江杭州互联网法院探索……一个个不断涌现的基层创新，激荡新时代最活跃的改革因子。', '抓准改革的突破口，习近平总书记强调，改革需要整体推进，但不能是平均用力、齐头并进，而是要注重抓主要矛盾和矛盾的主要方面，注重抓重要领域和关键环节。', '2015年伊始，日本外交学者网站抛出这样的问题：中国领导人早就想进行的国有企业改革在2015年能取得突破性进展吗？', '当年8月，《关于深化国有企业改革的指导意见》摆放在了习近平总书记和其他中央政治局常委的案头。', '国企改革是全面深化改革的重头戏，也是硬骨头。习近平总书记亲自开篇破题、亮明立场、划出底线。', '既保增长、又促活力，党中央牢牢把握改革方向、力度、节奏，制定“1+N”的政策体系，现代企业制度加快建设，公司治理结构不断完善，资本运营效率显著提升。', '国产大飞机C919、北斗卫星系统、“复兴号”动车组……在“中国制造”向“中国智造”转变的征途上，国资国企扛起排头兵大旗。', '既强力推动企业转型升级，又积极部署职工下岗转业安置工作；既维护公立医院的公益性，又调动医务人员的积极性；既面向“新市民”构建购租并举的住房制度改革，又推出乡村振兴战略吸引更多人回乡创业……改革、发展、稳定三者的“平衡木”之间，愈加凸显改革者的技巧与水平。', '2016年12月，在中央环保督察组强势推动下，东部某市一小区污染了10多年的无证餐饮被连夜拆除。', '雷霆万钧，群众集体致信称赞：“奔走呼号了十多年的苦难事，向督察组报告不到三天就解决了，大快人心！”', '听取落实情况报告、召开专题会议、开展进展评估、严肃督查问责……在习近平总书记的率先垂范和严格要求下，各级党政主要负责同志亲自抓、带头干，构建起上下贯通、层层负责的工作网络。', '在以习近平同志为核心的党中央正确引领下，全面深化改革在挑战中应变求新、在实践中发展丰富，呈现大开大合、破浪前行的壮阔景象。', '河南省，桐柏县付楼村。甩着右侧空空的袖管，村党支部书记李健在刺骨寒风中忙碌地筹划建设村养殖基地。', '“我们要勇于创造奇迹！”这个在事故中失去右臂的汉子，脊背挺直，誓要带领乡亲们找到脱贫致富的新出路。', '李健也曾绝望过——一家6口中有4个残疾人，大葱滞销又导致债台高筑，“靠领低保过日子”的想法不止一次出现在他的脑海中。', '扶贫先扶志、拒绝等靠要；巧用扶贫款，大家来入股……在扶贫干部的精准帮扶下，李健不仅顺利摘掉贫困户的帽子，还高票当选村党支部书记。', '个体的命运转折，见证改革的历史飞跃。当人民群众被发展的机遇催动了脚步，通向全面小康的天堑就会变为通途，全面深化改革的道路就会越走越宽！', '“一切向前走，都不能忘记走过的路；走得再远、走到再光辉的未来，也不能忘记走过的过去，不能忘记为什么出发。”', '从为梁家河百姓亮起陕北高原第一盏沼气灯的大队党支部书记，到为中国人民谋幸福、为中华民族谋复兴的世界第一大党的总书记……', '“要坚持以人民为中心，把为人民谋幸福作为检验改革成效的标准，让改革开放成果更好惠及广大人民群众。”', '从黄土高坡到雪域高原，从革命老区到民族地区，从地震灾区到祖国边陲，习近平总书记风雨兼程、走村入户，把真金白银的改革方案送到人民身边，把过上好日子的人民期盼转化为方针政策。', '不改，城乡二元体制下的公民待遇天壤之别，人民群众的获得感、幸福感、安全感如何满足？', '只有从根本上弥合户籍“鸿沟”，才能打破户籍城乡二元化壁垒，让更多百姓共享社会发展成果。', '“农业”和“非农业”户口的差别，从此成为历史。拿着一张张簇新的居住证，每年超过千万的农村人口落户城镇，异乡奋斗的人们找到温暖归属。', '当“落后”的社会生产逐渐退场，“丰富”的百姓生活逐渐登场。人民的诉求从“有没有”转向“好不好”——社会公平正义要更大彰显、环境污染要更有效治理、人的自身发展要更加全面……', '从完善短缺药品供应保障机制到发展学前教育，从异地办理身份证到简政放权“最多跑一次”，从世界最大养老保障计划覆盖更广到公民网络信息安全保护不断升级……民生领域的改革从问题出发，从小事着力，从实处落地。', '为让人民共享发展成果，脱贫攻坚把“大水漫灌”变为“精准滴灌”，用“责任状”绑定“乌纱帽”，中国已有超过6800万农村贫困人口摆脱贫困；', '为让人民拥有丰富的精神食粮，把社会效益放在首位、社会效益和经济效益相统一的文化体制机制日臻完善，现代公共文化服务体系加快构建，文化惠民工程深入实施；', '为让生态自然造福子孙后代，生态文明体制改革紧锣密鼓，森林覆盖率持续提高，沙化土地面积大幅缩减；', '从生存到发展，从物质到精神，从福利到权利，人民自身的进步与价值正在全面深化改革中绽放异彩。', '2018年3月21日，《深化党和国家机构改革方案》全文对外公布，新一轮机构改革的大幕全面开启。', '积极回应人民期待，广泛征求各方意见，借鉴吸纳基层有益探索……机构改革方案着眼于满足人民群众对高质量公共服务的新需要，在教育文化、卫生健康等领域加大机构调整和优化力度；着眼于从群众最不满意的地方改起，针对执法不规范、不严格、不作为、乱作为等突出问题，在市场监管、生态环保等领域整合组建执法队伍……', '“在全面深化改革进程中，遇到关系复杂、难以权衡的利益问题，要认真想一想群众实际情况究竟怎样？群众到底在期待什么？群众利益如何保障？群众对我们的改革是否满意？”在习近平总书记的改革发展观中，改革开放的初始动力是人民，改革开放再出发的动力也一定是人民。', '当人民对美好生活的向往成为共同的奋斗目标，当“人人参与、人人尽力、人人共享”成为社会的最大公约数，改革正汇聚起深沉而磅礴的力量，续写新时代的壮丽篇章。', '2017年4月1日，一则消息犹如平地春雷，响彻大江南北——中共中央、国务院决定设立河北雄安新区。', '首都功能拓展区、创新发展示范区、推进京津冀协同发展的历史性工程……这座未来之城，甫一问世，就注定使命不凡。', '户籍改革、医疗改革、公共服务改革，深化行政管理体制改革，实行大部门制和负面清单管理，探索投融资体制改革，加强对外合作促进贸易便利化……一系列改革创新举措在这里先行先试，让人们对这个“社会主义现代化强国的样板间”憧憬无限。', '“建设雄安新区是一项历史性工程，一定要保持历史耐心，有‘功成不必在我’的精神境界，稳扎稳打，一茬儿接着一茬儿干。”实地考察雄安新区建设规划时，习近平总书记殷殷嘱托。', '中国经济步入深水区，如何实现从高速增长向高质量发展的跃迁？如何推进国家治理体系和治理能力现代化，充分发挥社会主义制度优越性？在这场古往今来最为独特的社会变革与实践创新中，如何保持定力，稳立滔滔奔涌的世界潮头？', '当中国特色社会主义事业凭借改革开放的风帆驶入更加辽阔的海域，领导世界第一大党、领航13亿多人口发展中大国的习近平总书记放眼更壮美的风景，规划更长远的航线：', '——从“一带一路”建设、京津冀协同发展、长江经济带发展，到粤港澳大湾区建设，再到长江三角洲区域一体化发展，五大战略跨越行政区划，不断延展新时代改革开放的时空布局；', '——从沿海到内陆，从上海“一枝独秀”到东西南北中雁阵分布，12个国家级“试验田”大胆试、大胆闯、自主改，打造自由贸易试验区中国特色的创新样本；', '——到2020年进入创新型国家行列，到2035年进入创新型国家前列，到新中国成立100年时成为世界科技强国；', '——确保到2035年，生态环境质量实现根本好转，美丽中国目标基本实现。到本世纪中叶，人与自然和谐共生，建成美丽中国；', '——到2020年全面建成小康社会，到2035年基本实现社会主义现代化，到本世纪中叶全面建成富强民主文明和谐美丽的社会主义现代化强国；', '放眼世界，没有哪个政党能像中国共产党这样作出如此长远的规划，没有哪个国家能像中国这样一步一个脚印，持之以恒地朝向既定改革目标迈进，更没有哪个民族能够一次次推开机遇的大门，把改革的经验不断变成发展的现实。', '世界第二大经济体、第一大工业国、第一大货物贸易国、第一大外汇储备国，对全球经济增长贡献率超过30%，实现联合国标准下7亿多人口稳定脱贫……', '犹如一座灯塔，中国坚定选择并成功实践改革开放的经验昭告世人，只要守正创新、驰而不息，通向现代化的道路不止一条。', '“世界好，中国才能好；中国好，世界才更好。”平实的话语，概括出新时代中国与世界关系的大逻辑。', '“欢迎各国人民搭乘中国发展的‘快车’、‘便车’。”热忱的邀请，道出了中国追求世界大同的真心意。', '短短几年，中国已同140多个国家和国际组织签署共建“一带一路”合作协议，在“一带一路”沿线国家建设境外经贸合作区达80多个。', '昔日的开放末梢成为如今的新前沿，穿梭于大漠荒原的“钢铁驼队”成为中外货物贸易的新纽带，一座座“中国建造”成为造福沿线各国人民的新地标……', '6年来，习近平总书记足迹遍及五大洲60多个国家以及主要国际和区域组织，以实际行动推动构建新型国际关系，构建人类命运共同体；', '6年来，中国在全球积极新建或提升不同形式的伙伴关系，形成立足周边、辐射“一带一路”、面向全球的自贸区网络；', '6年来，中国成功举办亚太经合组织领导人北京会议、二十国集团领导人杭州峰会、“一带一路”国际合作高峰论坛、中非合作论坛北京峰会等一系列重大主场外交活动，以更加自信从容的步伐走近世界舞台中央。', '“中国将始终是全球共同开放的重要推动者，中国将始终是世界经济增长的稳定动力源，中国将始终是各国拓展商机的活力大市场，中国将始终是全球治理改革的积极贡献者！”习近平总书记的话语斩钉截铁。', '发起成立亚洲基础设施投资银行、金砖国家新开发银行，促成国际货币基金组织完成份额改革和治理机制改革，推动达成气候变化《巴黎协定》……加强全球治理，中国重视程度从未如此之高，参与程度从未如此之深，发言权从未如此之大。', '言出必行，彰显担当。法国前总理拉法兰认为，在我们这个如此危险、有可能“跑偏”的世界上，战争威胁着梦想。“中国作出的郑重承诺，对于我们来说就意味着和平。”', '6年前，《复兴之路》大型展览，习近平总书记曾以“正道论”，阐释民族复兴的历史必然——', '“中华民族的昨天，可以说是‘雄关漫道真如铁’。”“中华民族的今天，正可谓‘人间正道是沧桑’。”“中华民族的明天，可以说是‘长风破浪会有时’。”', '6年后，首届中国国际进口博览会开幕式上，习近平总书记又以“大海论”，道出中华民族的无限豪情——', '“中国经济是一片大海”“经历了无数次狂风骤雨，大海依旧在那儿！经历了5000多年的艰难困苦，中国依旧在这儿！面向未来，中国将永远在这儿！”', '从赶上时代到引领时代，改革开放40年不过是历史长河中的短暂一瞬，却写就了近代中国170年来的最辉煌篇章。', '“中国进行改革开放，顺应了中国人民要发展、要创新、要美好生活的历史要求，契合了世界各国人民要发展、要合作、要和平生活的时代潮流。中国改革开放必然成功，也一定能够成功！”', '历史的契机，正等待坚定者、奋进者、搏击者。行进在中华民族伟大复兴之路“关键一程”的中国，正在习近平新时代中国特色社会主义思想指引下，迈向未来、春暖花开！']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>293</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>关于印发中卫市属国有企业外部董事选聘管理办法的通知</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2021-11-22</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>https://www.nxzw.gov.cn/zwgk/bmxxgkml/sczj/fdzdgknr_49463/gfxwj_49471/202111/t20211129_3170524.html</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['《中卫市属国有企业外部董事选聘管理办法》已经市人民政府2021年11月19日第110号专题会议研究同意，现予印发。', '第一条为加强市属国有企业外部董事选聘管理工作，引进高端紧缺人才，完善公司法人治理结构，推进中国特色现代企业制度建设，根据《中华人民共和国公司法》、《关于进一步完善国有企业法人治理结构实施意见》（宁政办发〔2019〕51号）、《中卫市属国有企业领导人员管理办法（试行）》（卫党办发〔2020〕13号）等法律法规和政策规定，结合实际，制定本办法。', '第二条 本办法适用于中卫市人民政府授权市国资委履行出资人职责的市属国有企业（以下统称市属企业）的外部董事。', '第三条 本办法所称外部董事，是指在市属企业担任董事职务的非本企业人员，包括专职外部董事和兼职外部董事。专职外部董事是指由市国资委委派，参照现职市属企业领导人员进行管理，专门在市属企业担任外部董事的人员。兼职外部董事是指由市国资委聘任，除受聘担任市属企业外部董事以外，同时在其他单位任职（不含党政机关干部）或者已退休人员（党政机关退休领导干部严格按照《关于进一步规范党政领导干部在企业兼职（任职）问题的意见》（中组发〔2013〕18号）执行）。', '专职外部董事从市直部门、事业单位在职人员或市属企业领导人员中转任，兼职外部董事主要从区、市国资委建立的外部董事人才库中选聘。', '（一）具有较高的政治素质，自觉以习近平新时代中国特色社会主义思想武装头脑，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚决执行党和国家的方针政策，严守党的政治纪律和政治规矩。', '（二）具有强烈的事业心和责任感，职业操守和个人品行良好，坚持原则、担当尽责、诚实守信、廉洁自律。', '（三）熟悉宏观经济政策和行业发展要求，具备较强的决策判断能力，具有战略规划、资本运营、财务会计、风险管控、法律等某一方面的专长。', '（四）具有相当规模企业的领导经验；或者党政机关经济部门和国有企业懂经济、善管理、德才兼备的现职人员；或者累计10年以上企业经营管理或者相关工作经历，履职业绩突出；或者在相关专业领域享有较高知名度和良好职业声誉。', '（七）专职外部董事首次聘任时，年龄一般不得超过57周岁，由市属企业领导人员转任专职外部董事的，年龄可以适当放宽。兼职外部董事首次聘任时，年龄一般不得超过63周岁。', '第六条在职人员兼职外部董事的，应当按照人员管理权限，事先征求其主管部门（单位）意见，由本人工作单位出具同意其兼任外部董事的意见。', '第七条因违规违纪违法或者受到责任追究被免职或者解聘的国有企业董事、监事和高级管理人员，按照有关法律、职位禁入和失信联合惩戒等规定不得担任国有企业董事、监事和高级管理人员的，不得担任外部董事。', '第八条外部董事由市国资委选聘。专职外部董事由市委组织部商市国资委推荐，从市直部门、事业单位在职人员或市属企业领导人员中转任。兼职外部董事由市国资委从区、市外部董事人才库中确定，涉及相关事业单位在职人员和公职退休人员兼职外部董事的应征求组织部门意见。', '第九条市国资委可建立市级外部董事人才库。由市国资委面向社会公开遴选兼职外部董事人选，采取委托推荐或个人自荐等方式推荐人选，主要从履职经历、专业素养、工作业绩等方面综合分析人选的胜任力，对符合条件的人选纳入外部董事人才库，实行动态管理。', '专职外部董事的选任，参照《中卫市属国有企业领导人员管理办法（试行）》（卫党办发〔2020〕13号）执行，不纳入市属企业外部董事人才库。', '第十条市国资委按照董事会应保持专业经验的多元化和能力结构的互补性原则，合理搭配熟悉任职企业主业和财务、法律等方面的专业人才要求，根据企业实际，选择符合任职企业的行业特征和专业要求的外部董事，优化董事会成员结构，提升董事会决策水平。', '（一）综合分析董事会功能、结构，听取企业意见，按照人事相宜、人岗相配原则，提出外部董事初步人选。', '（二）按照管理权限和有关规定，征求初步人选任职和廉洁从业意见；不具备征求意见条件的，采取适当方式进行背景调查。', '聘任的外部董事，应当向市国资委作出书面履职承诺，并与市国资委、履职企业签订履职合同。任职企业应当按照有关规定，与外部董事签订保密协议。', '（一）本人曾在拟任职企业担任领导职务，或者近2年内曾在拟任职企业或者所属二级单位担任中层以上职务的。', '（二）直系亲属、主要社会关系近2年内在拟任职企业或者所属二级单位担任中层以上职务的。', '（四）本人、直系亲属或者其他特定关系人所办企业近2年内与拟任职企业或者所属单位有业务往来的。', '（五）本人或者直系亲属直接或者间接持有拟任职企业所属非上市公司股权，直接或者间接持有所属上市公司1%以上股份，或者是上市公司前十名股东中的自然人股东的。', '（六）本人在财务审计、资产评估、法律服务等中介机构从业且三年内与拟任职企业有商业往来的。', '第十三条 外部董事每个聘期一般不得超过3年，聘期届满考核合格可以续聘，需重新履行聘任手续。外部董事在同一企业连续任职一般不得超过6年。', '第十四条 专职外部董事同时任职的企业一般不得超过2户，兼职外部董事任职企业一般为1户。', '第十五条专职外部董事人事关系、档案和个人事项报告由市委组织部管理。专、兼职外部董事考核评价、工作报酬、日常管理由市国资委负责。', '专职外部董事劳动关系、薪酬发放、福利待遇等由市国资委委托1户市属企业管理，办公用房、党组织关系管理等由市国资委指定1户任职企业负责。', '（一）贯彻执行党和国家方针政策、战略部署，落实市委、市政府关于国资国企改革发展的相关决策部署，忠实维护出资人和任职企业的合法权益。', '（二）认真参加董事会会议，深入研究会议议案和相关材料，对所议事项客观、充分地发表明确意见，并对董事会的决议承担责任。', '1.除不可抗力等特殊情况以外，每年度出席董事会会议的次数不得少于会议总数的3/4，因故不能出席会议的，应当事先认真审阅会议材料，形成明确意见，书面委托其他外部董事代为表决。', '3.认为董事会违规违法决策，或者董事会决议明显损害出资人利益、公司利益、职工合法权益的，应当明确提出反对意见，如董事会未采纳的，应当及时向市国资委报告。', '（三）投入足够的时间和精力履行职责。专职外部董事、兼职外部董事每年在同一企业履职的时间分别不得少于90个工作日和30个工作日。', '1.通过调研、查阅企业财务报告和相关资料、参加企业有关会议、听取经理层和企业相关部门汇报、与有关方面沟通等方式，了解掌握企业改革发展、经营管理、董事会决议落实等情况。', '2.加强对企业发展战略的研究，围绕业务发展、管理变革以及加强和改进董事会运行等，并定期向市国资委汇报履职情况，提供有价值的意见建议。', '3.对于所发现的重大决策风险和生产经营重大问题，特别是可能发生的重大损失、重大经营危机等，及时向董事会提出书面警示并向市国资委报告，必要时提交专项分析报告。', '（四）遵守法律法规、公司章程和任职企业有关规章制度，保守国家秘密和企业商业秘密、技术秘密，自觉接受监督。', '第十七条建立外部董事工作报告制度。外部董事应当及时向市国资委报告参加董事会本人对各项议案的表决意见及董事会决议情况，并按照规定向市国资委书面报告本人履行职责情况，报告主要分为年度和任期工作报告以及重大事项报告。年度和任期工作报告，主要内容包括：履行职责情况、对任职企业公司法人治理结构建设的意见建议、对任职企业改革发展和重大经营管理事项等方面的意见建议等。重大事项报告按照《市属企业外部董事报告企业重大事项及办理规定》（详见附件）办理。专职外部董事每年还应向市国资委书面报告任职企业经营综合分析情况，对企业发展战略提出意见建议。', '第十八条每户市属企业由外部董事推选产生确定1名外部董事召集人。外部董事召集人除履行第十六条规定的职责外，还应当承担下列工作任务：', '（一）根据工作需要，代表外部董事就有关事项与市国资委以及任职企业董事长、经理层沟通。', '（二）每年至少组织召开1次任职企业全体外部董事务虚会，重点围绕宏观经济形势、行业发展动态、企业战略发展等重大问题进行研讨。', '（三）提出外部董事调研计划。涉及重大问题的调研，应当组织撰写书面报告，提交董事会并报市国资委。', '（一）党中央、国务院、国家有关部门和市委、市政府及市国资委、有关部门印发的涉及国资国企改革发展监管的文件，应', '（二）董事会定期会议通知、议案及相关材料，应当在会议召开10日前送达外部董事；除特别紧急的情况以外，临时会议通知、议案及相关材料，应当至少在会议召开5日前送达外部董事。', '（四）除自治区和市委、市政府有特殊规定外，应当向外部董事开放电子办公、数据报告等信息系统，及时提供相关政策性文件、行业发展信息、企业经营管理资料和财务数据等。', '第二十条市属企业应当建立外部董事履职台账，详实记录外部董事参加会议、发表意见、表决结果、开展调研、参加培训、与有关方面沟通、提出指导和咨询意见等方面情况。', '（一）每半年至少组织召开1次外部董事座谈会，学习传达贯彻党中央、国务院、自治区决策部署和市委、市政府工作要求，听取外部董事履职情况汇报；根据工作需要，安排外部董事参加或者列席相关会议。', '第二十二条市国资委通过谈心谈话、考察考核、列席会议、调研督导以及提醒、函询、诫勉等方式，严格外部董事日常管理和监督。', '第二十三条市国资委负责对外部董事进行考核评价。考核评价分为年度考核评价与任期考核评价。年度考核评价以外部董事1个年度任期为考核评价期，任期考核评价以该外部董事每届任期为考核评价期。考核评价以市国资委评价为主，以岗位职责为基础，综合采取日常评价、个人述职、多维度测评、个别谈话、查阅分析履职台账、企业考勤和会议记录等方式进行。', '专职外部董事年度考核表由市国资委负责组织填写后，交由中卫市委组织部归入干部人事档案。', '第二十四条 区别外部董事专职、兼职以及履职评价结果等不同情形，合理确定外部董事工作报酬。', '外部董事工作报酬为税前收入，其个人所得税由受托企业代缴。工作报酬、履职待遇等从中卫市本级国有资本经营预算中安排，国资委依据外部董事考核评价等次发放。', '第二十五条市属企业专职外部董事工作报酬由基本年薪、评价年薪和任期激励构成，分别以市国资委监管企业主要负责人基本年薪、绩效年薪和任期激励收入的平均值为基数，按照0.8倍计算。', '基本年薪按月发放，每年核定一次；评价年薪参照企业负责人薪酬发放办法，以不超过基本年薪标准按月预发，考核评价结束后进行清算，多退少补；任期激励在任期结束后，根据任期考核评价结果，首年支付50%，次年支付50%。', '第二十六条兼职外部董事年度工作报酬由基本年薪、评价薪酬两部分组成。基本年薪为6万元，按月发放；评价薪酬根据年度考核评价结果按照相应标准（0—4万元不等）一次性发放。', '第二十七条专职外部董事履职待遇和业务支出中的车贴、通讯费和福利待遇等按照国资委监管企业领导班子副职标准执行，从市本级国有资本经营预算经费列支；专兼职外部董事在履行职务时办公用房、差旅费等，由任职企业承担。', '第二十八条市属企业外部董事除按照市国资委的规定领取工作报酬、享受履职待遇和业务支出、福利待遇以外，不得在任职企业获得任何形式的其他收入或者福利。', '第二十九条 畅通市属企业专职外部董事职业发展通道。根据工作需要，履职优秀的专职外部董事可以推荐交流担任市属企业领导职务。', '第三十条 专职外部董事年满60周岁，应当按照有关规定办理免职和退休手续。确因工作需要且履职优秀并具有党政机关和企业正职任职经历的，坚持从严掌握原则，可延迟免职，最高任职年龄不得超过63周岁。', '（一）专职外部董事达到退休年龄界限，兼职外部董事年满66周岁的，或因健康等原因不适合继续担任外部董事的；', '（四）除不可抗力等特殊情况以外，在同一企业履职的时间或者出席董事会会议次数未达到第十六条规定的；', '（七）年度评价结果为不称职的、连续两个年度评价结果为基本称职的，或者任期评价为不称职的；', '第三十二条 外部董事聘期届满，接替人选到任前应当继续履职；接替人选到任后未续聘的，职务自然解除。外部董事自愿辞职的，应当提出书面申请，未经批准，应当继续履职。擅自离职的，视情节给予相应处理。', '第三十三条 外部董事解聘或者不再续聘后，继续对所知悉的国家秘密和原任职企业的商业秘密、技术秘密负有保密责任和义务，保密期限按照国家和任职企业的规定执行。', '（一）董事会及其授权的专门委员会决议违反法律法规、国有资产监管制度、公司章程和企业内部管理规定，出现重大决策失误，造成国有资产损失或者其他严重不良后果，本人表决时投赞成票或者未表明异议投弃权票的；', '（二）在董事会及其授权的专门委员会决策中不担当、不作为，消极行使表决权，无充分理由投反对票或者弃权票的；', '（三）利用职务便利接受或者谋取不正当利益，泄露国家秘密和企业商业秘密、技术秘密，损害国家、出资人或者企业利益的；', '（四）违反竞业禁止义务，自营或者为他人经营与任职企业相同或者类似业务，给企业造成损失的；', '第三十六条 本办法自印发之日30日后施行，有效期为5年。各县（区）国资监管机构可参照执行。']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>293</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>沙坡头的前世今生</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2018-05-31</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201805/t20180531_773380.html</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['听驼铃声响，乘黄河飞索，赏长河落日，寻大漠孤烟……在这里，你会被大自然的鬼斧神工所震撼，你会好奇沙坡头的“前世今生”。', '“宁夏归来不看沙”，这句话是国内外游客对宁夏沙漠旅游最好的评价。来到宁夏，沙坡头旅游景区是游客必去的景点之一。', '如今，一望无际的黄沙被人们“驯化”，世界各地的游客也因此能有机会骑着骆驼畅游沙海，或者到高度超一百米的鸣沙山体验激情滑沙。然而，大约60年前，这里却是另一番景象。', '“20世纪50年代，为了开发建设大西北，国家决定修建包兰铁路，并于1958年正式通车。沙坡头属草原化荒漠地带，沙尘暴频发，铁路常常被风沙掩盖。包兰铁路沙坡头段是整条线路的命脉，为保证这条“大动脉”的畅通无阻，国家把防沙护路的重任交给了当时的中卫县固沙林场。”在沙坡头工作了近30年的原沙坡头旅游有限公司董事长王开选介绍说，经过多年的艰苦奋斗，科技工作者、治沙工作者与中卫人民一道创造出了以麦草方格为核心的“五带一体”治沙模式，成功缚住了滚滚流动的沙龙。70年代末，各国治沙科技研究人员络绎不绝地到沙坡头学习治沙成果，发现沙坡头风光秀美无比，通过大家的口口相传，各国游客频频光顾沙坡头。在这样的背景下，1982年，随着宁夏的对外开放，中卫作为对外开放县市之一，沙坡头成为了中卫对外开放的一个标志形象。', '王开选说：“让沙坡头崭露头角的是其卓越的治沙成果。中卫的旅游起步于沙坡头，沙坡头是中卫旅游的发源地”。', '当时的沙坡头尚未开发，旅游项目几乎空白，游客只能欣赏绝美的自然风光，顺着陡立百米的大沙坡滑下，聆听“嗡嗡”作响的鸣沙声。', '当时正值全国旅游业起步阶段，各地纷纷成立旅游管理机构。1986年，“中卫县外事旅游局”正式挂牌成立，同年，“沙坡头旅游区管理所”成立。', '随着“外事旅游局”的成立，中卫旅游业正式起步，开始大力开发沙坡头。当时政府以“沙坡鸣钟”大沙坡为核心，东以科研单位“中国科学院兰州冰川冻土研究所沙坡头试验站”为界，西以“阎王砭”为界，南以黄河为界，北以包兰铁路为界，初步划定了沙坡头旅游景区的核心区域，在包兰铁路南、大沙坡顶端砌了两个混凝土砖柱，安了两扇钢架花栏式大门，作为沙坡头旅游景区的主大门。', '这时，“藏在深闺人未识”的绝世奇观才被掀起了蒙盖千年的面纱，露出了迷人的芳容。中卫旅游从她展露容颜那一刻起，就以上乘的禀赋吸引了世界的目光，亦从无到有开创起中卫旅游大业。', '“中卫旅游业走过了一个从无到有、从小到大、从弱到强、从单一到多元的发展历程，沙坡头旅游景区的发展是中卫旅游业发展的重要组成部分，与中卫旅游业发展的步伐一致，经过了起步、发展、壮大、转型四个阶段。”市旅游发展委员会主任范家宏说。', '“1987年，沙坡头旅游景区正式售票经营，成人一张门票六角钱，学生和小孩每张门票三角钱。旅游项目只有乘坐羊皮筏子和骆驼，乘坐羊皮筏子从景区至美利渠，每人一元钱；从沙坡下骑骆驼至沙坡顶，每人五角钱。”张开选回忆说，当时外事旅游局只有14人，为了景区的发展，大家干劲十足。哪里需要人，大家就奔向哪里，正是因为当时旅游从业者的这种精神，沙坡头旅游景区才慢慢发展起来。', '1997年年底，原中卫县委调整了原中卫外事旅游局领导班子，将当时的沙坡头旅游区管理所改为企业性质的沙坡头旅游有限公司，由原先的零散管理变为集中管理，统一售票，统一着装，并下设办公室、接待部、经营部、营销部、物业工程部等管理机构，实行按劳取酬制度。', '2001年，沙坡头旅游景区成为国家首批4A级旅游景区。景区管理公司坚持“年年有亮点，年年换新颜”的发展理念，围绕沙漠和黄河大做文章，让沙坡头旅游景区一年一个样，年年有变化。在羊皮筏子漂流项目上，根据不同的消费群体设计了常规、中长线、探险等各种线路，满足不同游客的需求。在沙漠探险游项目上，设计了常规、半日、一日、多日探险等线路，给游客提供了选择空间。还开设了黄河飞索、黄河冲浪等特色项目，变观光旅游为体验式旅游，增强了游客的参与性和新鲜感。', '令人耳目一新的自然风光，深遂厚重的文化内涵，领先世界的治沙成果，新颖刺激的旅游项目使沙坡头的知名度、美誉度与日俱增。中外游客发出了“游遍中国万里路，长忆宁夏沙坡头”“黄山游罢不望岳，宁夏游完不望沙”的由衷感慨。沙坡头先后荣获“中国全民健身二十大景观”“中国最值得外国人去的50个地方”“中国最美的五大沙漠”等殊荣。', '“2004年至2015年是沙坡头旅游景区发展的第三阶段，是全面发展壮大的阶段。在这期间有两个关键时间点，2007年，沙坡头旅游景区成功跻身中国首批5A级旅游区；2015年，景区游客人数首次突破了100万，这标志着沙坡头旅游景区正迈向稳步发展阶段。”范家宏说。', '2004年，中卫撤县设市，沙坡头旅游景区提质扩容，逐步加大基础设施建设和文旅产品研发，并逐步提升服务质量和标准，主导起草了《羊皮筏子漂流旅游项目管理与规范》《滑沙旅游项目管理与规范》等5个推荐性地方标准，吸引甘肃、陕西、河南等地的32家单位到沙坡头旅游景区考察。相继获得“全国旅游标准化示范单位”“全国旅游服务质量标杆单位”“国家服务业标准化示范项目单位”等多项殊荣。', '2016年2月，原国家旅游局将中卫市列为首批全域旅游示范市创建单位。同年7月，习近平总书记来宁夏视察时指出，发展全域旅游，路子是对的，要坚持走下去。从此沙坡头旅游景区跟随全域旅游发展步伐，走上转型发展之路。', '“沙坡头旅游景区正按照绿色发展、生态发展的思路，做大做强新北区，将在新北区开发一系列的休闲度假产品，如太阳酒店、星星酒店等，进一步挖掘中卫地域文化，打造具有沙坡头特色的文化旅游产品。目前，沙坡头盛典节目即将推向社会，进行商演，同时还引进一些高新特娱乐节目，努力为中卫打造‘西部旅游目的地城市’作出贡献。”范家宏说。', '如今，沙坡头旅游景区已持续举办了大漠黄河国际旅游节、沙漠音乐节等系列活动；加强与《爸爸去哪儿》《极客出发》《七十二层奇楼》等品牌真人秀节目的合作，通过开展线上线下营销，进一步提升品牌影响力。', '“九曲黄河万里沙，浪淘风簸自天涯。”沙坡头，是一片钟灵毓秀的宝地；是一片永远在创造着奇迹的沃土，是一部与日俱新、永远也没有结尾且充满深邃韵味的旅游宝典。在全域旅游大潮的带动下，沙坡头旅游景区必将乘势而上，不断提升旅游产品核心竞争力，为我市全域旅游的持续发展提供不竭动力。']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>293</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>习近平在十九届中央纪委五次全会上发表重要讲话强调</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2021-01-25</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202101/t20210125_2578547.html</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['中共中央总书记、国家主席、中央军委主席习近平22日上午在中国共产党第十九届中央纪律检查委员会第五次全体会议上发表重要讲话。他强调，今年是实施“十四五”规划、开启全面建设社会主义现代化国家新征程的第一年，所有工作都要围绕开好局、起好步来展开。要深入贯彻全面从严治党方针，充分发挥全面从严治党引领保障作用，坚定政治方向，保持政治定力，做到态度不能变、决心不能减、尺度不能松，确保“十四五”时期我国发展的目标任务落到实处。', '中共中央政治局常委李克强、栗战书、汪洋、王沪宁、韩正出席会议。中共中央政治局常委、中央纪律检查委员会书记赵乐际主持会议。', '习近平指出，2020年是新中国历史上极不平凡的一年。面对错综复杂的国际形势、艰巨繁重的改革发展稳定任务特别是突如其来的新冠肺炎疫情，党中央统筹中华民族伟大复兴战略全局和世界百年未有之大变局，坚持以党的自我革命引领伟大社会革命，坚定不移全面从严治党，坚定不移推进党风廉政建设和反腐败斗争，坚定不移把党建设得更加坚强有力。一是让党旗在防控疫情斗争、决胜全面建成小康社会、决战脱贫攻坚中高高飘扬，广大人民群众深切感受到，风雨袭来时，党的坚强领导、党中央的权威是最坚实的靠山。二是紧紧围绕“两个维护”强化政治监督，完善全面从严治党制度，加强党的领导和监督，深化政治巡视，完善党和国家监督体系，全面加强党的纪律建设，深化运用“四种形态”，围绕统筹疫情防控和经济社会发展、打好三大攻坚战、做好“六稳”工作、落实“六保”任务等重大决策部署加强监督检查。三是坚决破除形式主义、官僚主义，以作风攻坚促进脱贫攻坚，严肃查处验收达标中弄虚作假的问题，深化拓展基层减负工作，继续整治享乐主义、奢靡之风，坚决纠治餐饮浪费行为。四是深刻把握反腐败斗争新态势，一体推进不敢腐、不能腐、不想腐，坚决查处不收敛不收手的腐败分子，聚焦政治问题和经济问题交织的腐败案件，严肃查处对党不忠诚、阳奉阴违的两面人，对政法系统腐败严惩不贷，对扶贫、民生领域腐败和涉黑涉恶“保护伞”一查到底。五是增强党组织政治功能和组织功能，完善管思想、管工作、管作风、管纪律的从严管理制度，在斗争一线考察识别干部，在火线发展优秀分子入党。党中央对党风廉政建设和反腐败斗争取得的成绩是满意的。', '习近平强调，全面从严治党首先要从政治上看，不断提高政治判断力、政治领悟力、政治执行力。党的十八大以来，尽管党风廉政建设和反腐败斗争取得了历史性成就，但形势依然严峻复杂。必须清醒看到，腐败这个党执政的最大风险仍然存在，存量还未清底，增量仍有发生。政治问题和经济问题交织，威胁党和国家政治安全。传统腐败和新型腐败交织，贪腐行为更加隐蔽复杂。腐败问题和不正之风交织，“四风”成为腐败滋长的温床。腐蚀和反腐蚀斗争长期存在，稍有松懈就可能前功尽弃，反腐败没有选择，必须知难而进。', '习近平指出，党风廉政建设永远在路上，反腐败斗争永远在路上。我们党作为百年大党，要永葆先进性和纯洁性、永葆生机活力，必须一刻不停推进党风廉政建设和反腐败斗争。各级领导干部特别是主要负责同志必须切实担负起管党治党政治责任，始终保持“赶考”的清醒，保持对“腐蚀”、“围猎”的警觉，把严的主基调长期坚持下去，以系统施治、标本兼治的理念正风肃纪反腐，不断增强党自我净化、自我完善、自我革新、自我提高能力，跳出治乱兴衰的历史周期率，引领和保障中国特色社会主义巍巍巨轮行稳致远。', '习近平强调，要以强有力的政治监督，确保党中央重大决策部署贯彻落实到位。要坚持学懂弄通做实党的创新理论，以庆祝建党100周年为契机，引导党员、干部加强党性锻炼、党性修养，坚定理想信念，百折不挠把自己的事办好。要健全贯彻党中央重大决策部署督查问责机制，加强对贯彻新发展理念、构建新发展格局、推动高质量发展等决策部署落实情况的监督检查。党员、干部要筑牢思想防线，时刻自重自省自警自励，慎独慎微慎始慎终，做政治信念坚定、遵规守纪的明白人。', '习近平指出，要坚定不移推进反腐败斗争，不断实现不敢腐、不能腐、不想腐一体推进战略目标。要将正风肃纪反腐与深化改革、完善制度、促进治理贯通起来，用好“四种形态”，综合发挥惩治震慑、惩戒挽救、教育警醒的功效。要持续压实金融管理部门、监管机构和地方党委、政府主体责任，做好金融反腐和处置金融风险统筹衔接，强化金融领域监管和内部治理。要将防腐措施与改革举措同谋划、同部署、同落实，推进重点领域监督机制改革，有针对性地补齐制度短板。各级领导干部要带头遵守党纪国法，自觉反对特权思想、特权现象，带头廉洁治家，从严管好家属子女和身边工作人员。各级党委要加强领导干部个人事项报告情况核查。', '习近平强调，要毫不松懈纠治“四风”，坚决防止形式主义、官僚主义滋生蔓延。要深入开展党的优良传统和作风教育，完善作风建设长效机制，把好传统带进新征程，将好作风弘扬在新时代。要坚持全面从严、一严到底，对群众反映强烈的公款吃喝、餐饮浪费等歪风陋习露头就打、反复敲打。对形式主义、官僚主义要毫不妥协，全面检视、靶向纠治，持续为基层松绑减负，树立重实干、重实绩的用人导向，督促全党担当尽责、干事创业。', '习近平指出，要持续整治群众身边腐败和作风问题，让群众在反腐“拍蝇”中增强获得感。要坚决整治政法战线违纪违法问题，努力让人民群众在每一件司法案件中感受到公平正义。要推动扫黑除恶常态化，坚决打击黑恶势力及“保护伞”，决不让其再祸害百姓。要紧盯党中央惠民富民、促进共同富裕政策落实，持续纠治教育医疗、养老社保、扶贫环保等领域腐败和不正之风，解决好群众的“急难愁盼”问题，让人民群众感受到公平正义。', '习近平强调，要完善党和国家监督体系，使监督融入“十四五”建设之中。要把监督贯穿于党领导经济社会发展全过程，把完善权力运行和监督制约机制作为实施规划的基础性建设，构建全覆盖的责任制度和监督制度。党委（党组）要履行主体责任，书记作为第一责任人要敢抓真管，纪检监察机关要盯住重点人重点事。要健全党和国家监督体系，以党内监督为主导，不断完善权力监督制度和执纪执法体系，各种监督协调贯通，形成常态长效的监督合力。要充分发挥监督在基层治理中的作用，推动监督落地，让群众参与到监督中来。', '习近平指出，纪检监察机关要带头加强党的政治建设，坚定维护党中央权威和党的团结统一，围绕现代化建设大局发挥监督保障执行、促进完善发展作用，知责于心、担责于身、履责于行。各级党委要加强对纪检监察工作的领导，担负起统筹纪检监察干部培养、选拔、任用的责任，选优配强纪检监察干部队伍。纪检监察机关要接受最严格的约束和监督，加大严管严治、自我净化力度，针对自身权力运行机制和管理监督体系的薄弱环节，扎紧织密制度笼子，坚决防止“灯下黑”，努力建设一支政治素质高、忠诚干净担当、专业化能力强、敢于善于斗争的纪检监察铁军，以优异成绩庆祝建党100周年。', '赵乐际在主持会议时指出，习近平总书记的重要讲话，充分肯定过去一年全面从严治党取得新的重大成果，深刻阐述全面从严治党新形势新任务，强调全面从严治党首先要从政治上看，不断提高政治判断力、政治领悟力、政治执行力，一刻不停推进党风廉政建设和反腐败斗争，以强有力的政治监督，确保“十四五”时期目标任务落到实处。讲话高屋建瓴、思想深邃、内涵丰富，是推进全面从严治党向纵深发展的重要遵循。各级党组织和广大党员干部要深入学习贯彻习近平总书记重要讲话精神，增强“四个意识”、坚定“四个自信”、做到“两个维护”，认真落实全会部署，把严的主基调长期坚持下去，不断实现不敢腐、不能腐、不想腐一体推进战略目标。', '中共中央政治局委员、中央书记处书记，全国人大常委会有关领导同志，国务委员，最高人民法院院长，最高人民检察院检察长，全国政协有关领导同志以及中央军委委员出席会议。', '中央纪律检查委员会委员，中央和国家机关各部门、各人民团体主要负责同志，军队有关单位主要负责同志等参加会议。会议以电视电话会议形式举行，各省、自治区、直辖市和新疆生产建设兵团以及军队有关单位设分会场。', '中国共产党第十九届中央纪律检查委员会第五次全体会议于1月22日在北京开幕。中央纪律检查委员会常务委员会主持会议。22日下午赵乐际代表中央纪律检查委员会常务委员会作题为《推动新时代纪检监察工作高质量发展，以优异成绩庆祝中国共产党成立100周年》的工作报告。']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>293</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>中卫市水务局年政府信息公开工作年度报告</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2019-03-23</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/zwgk/bmxxgkml/sswj/zfxxgknb_49710/201903/t20190323_1336165.html</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国政府信息公开条例》《宁夏回族自治区实施&lt;中华人民共和国政府信息公开条例&gt;办法》', '）查阅或下载。如有疑问或意见建议，请直接与中卫市水务局办公室联系。（地址：中卫市沙坡头区文萃南路；邮编：', '，市水务局政务公开工作在市政府的坚强领导下，深入贯彻落实《中华人民共和国政府信息公开条例》、《市人民政府办公室关于印发全面推进政务公开若干重点工作实施方案的通知》（卫政办发[113]号）、', '，市水务局政务公开工作在市政府的坚强领导下，深入贯彻落实《中华人民共和国政府信息公开条例》、《市人民政府办公室关于印发全面推进政务公开若干重点工作实施方案的通知》（卫政办发', '执政和为民服务的能力为目的，全面推行政务公开，进一步提高行政行为的透明度和办事效率，切实保障人民群众的知情权、参与权和监督权', '副局长为副组长，局属各单位、科室负责人为成员的政务公开工作领导小组。领导小组下设办公室，负责政务公开工作日常事务和各项具体工作的安排和落实，', '坚持把加强政策解读作为取得社会理解支持、促进政策落地生效、推动政府有效施政的重要手段，不断完善解读工作机制，努力提高政策解读水平。', '。对涉及面广、社会关注度高的重要政策措施，通过参加新闻发布会、发表文章等方式带头宣讲政策、解疑答惑，传递权威信息。', '认真贯彻落实市人民政府有关舆情回应的相关要求，及时了解掌握重要涉水涉政社会舆情，快速分析研判，及时上报通报', '年度预算公开方案。在局内政务公开栏内按季度公开公示“三公”经费、公务接待、公务用车等管理费用开支情况。', '、及时对外公开行政审批设定依据、申请材料、基本流程、审批时限、收费依据及标准、审批决定证件、年检要求、注意事项等内容。及时公开水资源', '做好工程建设立项、招投标、施工管理、企业信用、工程质量、项目验收、审批、核准、备案、工程进展情况等信息公开', '及时公开全面推行“河长制”实施方案、河湖水库分级名录和河长名单，适时公开“河长制”重要工作推进落实情况，加大河湖管理保护目标及管理保护情况等信息公开力度。', '工作推进落实情况、加大河湖管理保护目标及管理保护情况等信息在自治区信息综合管理平台公开。', '黄河网、宁夏水利网、宁夏回族自治区人民政府网、中卫市人民政府网、中卫纪委监察局网、中卫新闻网等网站发布信息共计', '公开每月干部职工考勤统计、绩效考核结果、工资调资发放情况、干部考察公示、党员干部职工评先评优、职称评定、干部任用、制发规范性文件等内容。', '年度，我局没有收到依申请公开的政务信息申请，同时也没有公开任何不应向社会公开的政务信息。', '依托新媒体平台的优势，及时、准确发布各类政府信息，对公众关注的社会热点信息，加强解疑释惑，积极予以回应。', '进一步规范工作流程，不断细化申请的受理、审查、答复等各个环节的具体要求，满足社会公众对政府信息的需求。', '以建立一支专业、高效的政府信息公开队伍为目标，积极开展交流培训活动，不断提高政务公开工作人员的业务素质和能力水平。']</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>293</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>习近平在重庆考察并主持召开解决两不愁三保障突出问题座谈会时强调统一思想一鼓作气顽强作战越战越勇着力解决两不愁三保障突出问题</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2019-04-18</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/201904/t20190418_1409299.html</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['习近平在重庆考察并主持召开解决“两不愁三保障”突出问题座谈会时强调 统一思想一鼓作气顽强作战越战越勇 着力解决“两不愁三保障”突出问题_中卫市人民政府', '习近平在重庆考察并主持召开解决“两不愁三保障”突出问题座谈会时强调 统一思想一鼓作气顽强作战越战越勇 着力解决“两不愁三保障”突出问题', '新华社重庆4月17日电 中共中央总书记、国家主席、中央军委主席习近平4月15日至17日在重庆考察，主持召开解决“两不愁三保障”突出问题座谈会并发表重要讲话。他强调，脱贫攻坚战进入决胜的关键阶段，各地区各部门务必高度重视，统一思想，抓好落实，一鼓作气，顽强作战，越战越勇，着力解决“两不愁三保障”突出问题，扎实做好今明两年脱贫攻坚工作，为如期全面打赢脱贫攻坚战、如期全面建成小康社会作出新的更大贡献。', '山城四月，春风和煦，山水透绿，一派生机勃勃。4月15日，习近平在中共中央政治局委员、重庆市委书记陈敏尔和市长唐良智陪同下，深入石柱土家族自治县的学校、农村，实地了解脱贫攻坚工作情况。', '石柱土家族自治县地处武陵山集中连片特困地区，是国家扶贫开发工作重点县。15日中午，习近平一下飞机，就转乘火车、汽车前往石柱县，山路蜿蜒，坡急沟深，辗转3个多小时抵达大山深处的石柱县中益乡华溪村。', '习近平首先来到中益乡小学。学校操场上，小学生们正在开展课外文体活动。看到总书记来了，学生们围拢过来，纷纷问习爷爷好，总书记高兴地同大家交谈，询问他们学习和生活情况。中益乡地处大山深山之中，群众居住比较分散，孩子上学是个难题。习近平指出，“两不愁三保障”，很重要的一条就是义务教育要有保障。再苦不能苦孩子，再穷不能穷教育。要保证贫困山区的孩子上学受教育，有一个幸福快乐的童年。习近平走进师生食堂，仔细察看餐厅、后厨，了解贫困学生餐费补贴和食品安全卫生情况。习近平嘱咐学校和老师既要当好老师，又要当好临时家长，把学生教好、管好。要把安全放在第一位，确保学生在学校学、住、吃都安全，让家长们放心。他希望老师们扎根山区，献身乡村教育事业，为群众脱贫贡献一份力量。', '华溪村人多地少，土地贫瘠，全村有建档立卡贫困户85户、302人，其中8户、19人还没有脱贫。习近平踏着湿滑的石阶登上陡坡，来到贫困户谭登周家，从屋外看到屋内，详细询问老两口生活和身体状况。谭登周夫妇告诉总书记，由于伤病原因暂时丧失了劳动力，生活还比较困难，但土地流转有分红、医疗有救助、低保有兜底，3间住房加固后都很结实，特别是医药费大部分报销，自己只负担一部分，基本生活还是有保障的。习近平指出，基本医保、大病保险、医疗救助是防止老百姓因病返贫的重要保障。这个兜底作用很关键。脱贫攻坚明年就要收官，要把工作往深里做、往实里做，重点做好那些尚未脱贫或因病因伤返贫群众的工作，加快完善低保、医保、医疗救助等相关扶持和保障措施，用制度体系保障贫困群众真脱贫、稳脱贫。', '随后，习近平前往老党员、已脱贫户马培清家，沿着乡间小路步行察看自然环境、村容村貌，了解该村通过种植中药材黄精等特色经济作物带动村民脱贫的情况。在马培清家中，看到谷仓里装满粮食，厨房里挂着不少腊肉，温饱不愁，了解到他们家通过参加黄精中药材产业发展和土地入股分红、管护药材基地等方式，实现了稳定脱贫，习近平表示欣慰。', '在马培清家院子，习近平同村民代表、基层干部、扶贫干部、乡村医生等围坐在一起，摆政策，聊变化，谋发展。大家你一言我一语，争相发言，气氛热烈。习近平对乡亲们说，脱贫攻坚是我心里最牵挂的一件大事。这次我专程来看望乡亲们，就是想实地了解“两不愁三保障”是不是真落地，还有哪些问题。小康不小康，关键看老乡，关键看脱贫攻坚工作做得怎么样。全面小康路上一个也不能少。发展才是社会主义，发展必须致力于共同富裕。国家越发展，越要把贫困群众基本生活保障好。各级党委和政府要把“两不愁三保障”各项措施落实到村、到户、到人。要加强乡村两级基层党组织建设，更好发挥在脱贫攻坚中的战斗堡垒作用，提高党在基层的治理能力和服务群众能力。党员干部要到脱贫攻坚的一线、到带领群众脱贫致富的火热实践中历练，经受考验，磨练党性，增进群众感情，增强做好工作的本领。习近平强调，幸福是奋斗出来的。党的政策对老百姓好，才是真正的好。党的各项惠民政策要落实好，乡亲们要一起奋斗，努力向前奔跑，争取早日脱贫致富奔小康。', '离开村子时，村民们聚集在村头，高声向总书记问好。习近平同大家亲切握手，祝乡亲们生活越来越幸福。', '16日下午，习近平在重庆主持召开解决“两不愁三保障”突出问题座谈会。座谈会上，广西、重庆、四川、贵州、云南、陕西、甘肃、新疆等地党委书记作书面汇报，重庆市石柱土家族自治县县委书记蹇泽西，奉节县平安乡党委书记邹远珍，城口县周溪乡凉风村党支部书记伍东，教育部、住房和城乡建设部、水利部、国家卫生健康委、国家医疗保障局等部门主要负责同志，中共中央政治局委员、国务院副总理胡春华先后发言。', '听取大家发言后，习近平发表了重要讲话。他强调，到2020年稳定实现农村贫困人口不愁吃、不愁穿，义务教育、基本医疗、住房安全有保障，是贫困人口脱贫的基本要求和核心指标，直接关系攻坚战质量。总的看，“两不愁”基本解决了，“三保障”还存在不少薄弱环节。各地区各部门要高度重视，统一思想，抓好落实。要摸清底数，聚焦突出问题，明确时间表、路线图，加大工作力度，拿出过硬举措和办法，确保如期完成任务。', '习近平强调，脱贫攻坚战进入决胜的关键阶段，务必一鼓作气、顽强作战，不获全胜决不收兵。各省区市党政主要负责同志要增强“四个意识”、坚定“四个自信”、做到“两个维护”，强化政治责任，亲力亲为抓好脱贫攻坚。省级分管扶贫的负责同志要抓好工作落实。各行业部门要围绕脱贫攻坚目标任务，按照尽锐出战要求，切实履职尽责、合力攻坚，对责任不落实、政策不落实、工作不落实影响任务完成的要进行问责。党中央制定了支持深度贫困地区脱贫攻坚的实施意见，各方面都加大了力度，但不能放松。要逐一研究细化实化攻坚举措，攻城拔寨，确保完成脱贫任务。这次脱贫攻坚专项巡视和成效考核发现了不少突出问题和共性问题。各地区各部门要全面排查梳理，确保各类问题整改到位，为明年工作打下良好基础。', '习近平指出，脱贫既要看数量，更要看质量。要严把贫困退出关，严格执行退出的标准和程序，确保脱真贫、真脱贫。要把防止返贫摆在重要位置，适时组织对脱贫人口开展“回头看”。要探索建立稳定脱贫长效机制，强化产业扶贫，组织消费扶贫，加大培训力度，促进转移就业，让贫困群众有稳定的工作岗位。要做好易地扶贫搬迁后续帮扶。要加强扶贫同扶志扶智相结合，让脱贫具有可持续的内生动力。', '习近平强调，贫困县摘帽后，要继续完成剩余贫困人口脱贫任务，实现已脱贫人口的稳定脱贫。贫困县党政正职要保持稳定，做到摘帽不摘责任。脱贫攻坚主要政策要继续执行，做到摘帽不摘政策。扶贫工作队不能撤，做到摘帽不摘帮扶。要把防止返贫放在重要位置，做到摘帽不摘监管。要保持政策稳定性、连续性。', '习近平指出，要把全面从严治党要求贯穿脱贫攻坚全过程，强化作风建设，完善和落实抓党建促脱贫的体制机制，发挥基层党组织带领群众脱贫致富的战斗堡垒作用，深化扶贫领域腐败和作风问题专项治理，把基层减负各项决策落到实处。对奋战在脱贫攻坚一线的同志要关心他们的生活、健康、安全，对牺牲干部的家属要及时给予抚恤、长期帮扶慰问。对在基层一线干出成绩、群众欢迎的干部，要注意培养使用。对那些畏苦畏难、敷衍了事、弄虚作假的扶贫干部，要加强教育管理，该撤换的要及时撤换，该问责的要坚决问责。', '17日上午，习近平听取了重庆市委和市政府工作汇报，对重庆各项工作取得的成绩给予肯定，希望重庆全面落实党中央决策部署，牢牢把握稳中求进工作总基调，坚持新发展理念，统筹做好稳增长、促改革、调结构、惠民生、防风险、保稳定工作，持续营造风清气正的政治生态，更加注重从全局谋划一域、以一域服务全局，努力在推进新时代西部大开发中发挥支撑作用、在推进共建“一带一路”中发挥带动作用、在推进长江经济带绿色发展中发挥示范作用。', '习近平强调，党中央通过了《关于新时代推进西部大开发形成新格局的指导意见》。这是党中央从全局出发作出的重大决策部署，对决胜全面建成小康社会、开启全面建设社会主义现代化国家新征程具有重大而深远的意义。重庆要抓好贯彻落实，在推进西部大开发形成新格局中展现新作为、实现新突破。要坚定不移推动高质量发展，扭住深化供给侧结构性改革这条主线，把制造业高质量发展放到更加突出的位置，加快构建市场竞争力强、可持续的现代产业体系。要加大创新支持力度，坚定不移推进改革开放，努力在西部地区带头开放、带动开放。要加快推动城乡融合发展，建立健全城乡一体融合发展的体制机制和政策体系，推动区域协调发展。要深入抓好生态文明建设，坚持上中下游协同，加强生态保护与修复，筑牢长江上游重要生态屏障。', '习近平指出，要按照党中央总体部署，结合自身实际，精心组织实施庆祝新中国成立70周年各项工作。要围绕中国共产党为什么“能”、马克思主义为什么“行”、中国特色社会主义为什么“好”等重大问题，广泛开展宣传教育，加强思想舆论引导，坚定广大干部群众对中国特色社会主义的道路自信、理论自信、制度自信、文化自信，进一步激发全体人民爱党、爱国、爱社会主义的巨大热情。', '习近平强调，要从最困难的群体入手，从最突出的问题着眼，从最具体的工作抓起，通堵点、疏痛点、消盲点，全面解决好同老百姓生活息息相关的教育、就业、社保、医疗、住房、环保、社会治安等问题，集中全力做好普惠性、基础性、兜底性民生建设。要着力抓好安全生产、食品药品安全、防范重特大自然灾害、维护社会稳定工作，不断增强人民群众获得感、幸福感、安全感。', '习近平指出，要贯彻党中央部署，切实加强党的政治建设，培养一支忠诚干净担当的高素质干部队伍，积极营造建功新时代、创造新业绩的浓厚氛围和良好环境，用正确思想、优良作风、良好导向、正面典型持续激荡清风正气。要加强党的基层组织建设，推动基层党组织全面进步、全面过硬。要坚决整治形式主义、官僚主义，让基层干部从繁文缛节、文山会海、迎来送往中解脱出来。要保持惩治腐败高压态势，巩固反腐败斗争压倒性胜利。']</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>宁夏省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>293</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>宁夏省</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>中卫市</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>习近平在统筹推进新冠肺炎疫情防控和经济社会发展工作部署会议上强调毫不放松抓紧抓实抓细防控工作统筹做好经济社会发展各项工作</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2020-02-24</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>http://www.nxzw.gov.cn/xwzx/jrtt/202002/t20200224_1966740.html</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>['习近平在统筹推进新冠肺炎疫情防控和经济社会发展工作部署会议上强调 毫不放松抓紧抓实抓细防控工作 统筹做好经济社会发展各项工作_中卫市人民政府', '习近平在统筹推进新冠肺炎疫情防控和经济社会发展工作部署会议上强调 毫不放松抓紧抓实抓细防控工作 统筹做好经济社会发展各项工作', '2月23日，统筹推进新冠肺炎疫情防控和经济社会发展工作部署会议在北京召开。中共中央总书记、国家主席、中央军委主席习近平出席会议并发表重要讲话。 新华社记者 鞠鹏 摄', '■ 这次新冠肺炎疫情，是新中国成立以来在我国发生的传播速度最快、感染范围最广、防控难度最大的一次重大突发公共卫生事件。对我们来说，这是一次危机，也是一次大考。经过艰苦努力，目前疫情防控形势积极向好的态势正在拓展。实践证明，党中央对疫情形势的判断是准确的，各项工作部署是及时的，采取的举措是有力有效的。防控工作取得的成效，再次彰显了中国共产党领导和中国特色社会主义制度的显著优势。', '■ 各级党委和政府必须高度警惕麻痹思想、厌战情绪、侥幸心理、松劲心态，继续毫不放松抓紧抓实抓细各项防控工作，不获全胜决不轻言成功。', '■ 新冠肺炎疫情不可避免会对经济社会造成较大冲击。越是在这个时候，越要用全面、辩证、长远的眼光看待我国发展，越要增强信心、坚定信心。综合起来看，我国经济长期向好的基本面没有改变，疫情的冲击是短期的、总体上是可控的。', '■ 打好、打赢这场疫情防控的人民战争、总体战、阻击战，必须加强党对统筹推进疫情防控和经济社会发展工作的领导。各级党组织要认真履行领导责任，特别是抓落实的职责，把党中央各项决策部署抓实抓细抓落地。各级干部特别是领导干部要增强必胜之心、责任之心、仁爱之心、谨慎之心，勇当先锋，敢打头阵，主动担当、积极作为。', '新华社北京2月23日电 统筹推进新冠肺炎疫情防控和经济社会发展工作部署会议23日在北京召开。中共中央总书记、国家主席、中央军委主席习近平出席会议并发表重要讲话。他强调，中华民族历史上经历过很多磨难，但从来没有被压垮过，而是愈挫愈勇，不断在磨难中成长、从磨难中奋起。当前疫情形势依然严峻复杂，防控正处在最吃劲的关键阶段，各级党委和政府要坚定必胜信念，咬紧牙关，继续毫不放松抓紧抓实抓细各项防控工作。要变压力为动力、善于化危为机，有序恢复生产生活秩序，强化“六稳”举措，加大政策调节力度，把我国发展的巨大潜力和强大动能充分释放出来，努力实现今年经济社会发展目标任务。', '习近平代表党中央，向全国广大党员、干部、群众特别是湖北和武汉广大党员、干部、群众致以诚挚的问候，向奋战在疫情防控第一线的广大医务工作者、人民解放军指战员、各条战线的同志们表示崇高的敬意，向港澳台同胞、海外侨胞表示衷心的感谢，向为我国疫情防控工作提供各种支持的国家、国际组织、友好人士表示诚挚的谢意，向在抗击疫情中不幸罹难的同胞、牺牲的医务人员表示深切的悼念，向正在同病魔作斗争的患者及其家属、因公殉职人员家属、病亡者家属表示诚挚的慰问。', '习近平强调，新冠肺炎疫情发生后，党中央高度重视，迅速作出部署，全面加强对疫情防控的集中统一领导，要求各级党委和政府及有关部门把人民群众生命安全和身体健康放在第一位，采取切实有效措施，坚决遏制疫情蔓延势头。党中央审时度势、综合研判，及时提出坚定信心、同舟共济、科学防治、精准施策的总要求，及时制定疫情防控战略策略，把提高收治率和治愈率、降低感染率和病亡率作为突出任务来抓，把武汉和湖北作为全国主战场，加强对武汉和湖北防疫的统一指挥，统筹抓好其他地区防控工作，加强医用物资和生活必需品应急保供，切实维护社会稳定，加强宣传教育和舆论引导，积极争取国际社会支持。', '习近平指出，在这场严峻斗争中，各级党组织和广大党员、干部冲锋在前、顽强拼搏，广大医务工作者义无反顾、日夜奋战，人民解放军指战员闻令而动、敢打硬仗，广大人民群众众志成城、守望相助，广大公安民警、疾控工作人员、社区工作人员等坚守岗位、日夜值守，广大新闻工作者不畏艰险、深入一线，广大志愿者等真诚奉献、不辞辛劳，党和国家有关部门和人大、政协以及各人民团体等主动担责，社会各界和港澳台同胞、海外侨胞纷纷捐款捐物，为疫情防控作出了重大贡献。', '习近平强调，这次新冠肺炎疫情，是新中国成立以来在我国发生的传播速度最快、感染范围最广、防控难度最大的一次重大突发公共卫生事件。对我们来说，这是一次危机，也是一次大考。经过艰苦努力，目前疫情防控形势积极向好的态势正在拓展。实践证明，党中央对疫情形势的判断是准确的，各项工作部署是及时的，采取的举措是有力有效的。防控工作取得的成效，再次彰显了中国共产党领导和中国特色社会主义制度的显著优势。', '习近平强调，在充分肯定成绩的同时，各级党委和政府必须高度警惕麻痹思想、厌战情绪、侥幸心理、松劲心态，继续毫不放松抓紧抓实抓细各项防控工作，不获全胜决不轻言成功。习近平提出7点要求。第一，坚决打好湖北保卫战、武汉保卫战。要紧紧扭住城乡社区防控和患者救治两个关键，坚决遏制疫情扩散输出，加强力量薄弱地区防控，切实提高收治率和治愈率、降低感染率和病亡率。第二，全力做好北京疫情防控工作。要坚决抓好外防输入、内防扩散两大环节，加强京津冀地区联防联控，尽最大可能切断传染源。第三，科学调配医疗力量和重要物资。要关心关爱一线医务人员，落实防护物资、生活物资保障和防护措施，切实加强防止医院感染工作，做好医务人员科学防护和培训。要密切监测市场供需动态，积极组织蔬菜和畜禽等生产，畅通运输通道和物流配送。第四，加快科技研发攻关。要综合多学科力量开展科研攻关，加大药品和疫苗研发力度，及时总结推广有效诊疗方案。第五，扩大国际和地区合作。要继续同世卫组织保持良好沟通，同有关国家分享防疫经验，加强抗病毒药物及疫苗研发国际合作。第六，提高新闻舆论工作有效性。要继续做好党中央重大决策部署的宣传解读，深入报道各地统筹推进疫情防控的好经验好做法，完善疫情信息发布，广泛宣传抗疫一线的感人事迹，主动回应社会关切。第七，切实维护社会稳定。要及时化解疫情防控中出现的苗头性、趋势性问题，依法严惩扰乱医疗秩序、防疫秩序、市场秩序、社会秩序等违法犯罪行为。', '习近平指出，新冠肺炎疫情不可避免会对经济社会造成较大冲击。越是在这个时候，越要用全面、辩证、长远的眼光看待我国发展，越要增强信心、坚定信心。综合起来看，我国经济长期向好的基本面没有改变，疫情的冲击是短期的、总体上是可控的。习近平就有序复工复产提出8点要求。第一，落实分区分级精准复工复产。低风险地区要尽快将防控策略调整到外防输入上来，全面恢复生产生活秩序，中风险地区要依据防控形势有序复工复产，高风险地区要继续集中精力抓好疫情防控工作。第二，加大宏观政策调节力度。积极的财政政策要更加积极有为，继续研究出台阶段性、有针对性的减税降费政策，帮助中小微企业渡过难关。稳健的货币政策要更加注重灵活适度，用好已有金融支持政策，适时出台新的政策措施。第三，全面强化稳就业举措。要减负、稳岗、扩就业并举，针对部分企业缺工严重、稳岗压力大和重点群体就业难等突出矛盾，支持多渠道灵活就业，做好高校毕业生就业工作。第四，坚决完成脱贫攻坚任务。要努力克服疫情影响，狠抓攻坚工作落实，帮助贫困劳动力有序返岗，支持扶贫龙头企业、扶贫车间尽快复工，加快建立健全防止返贫机制。第五，推动企业复工复产。要落实分区分级精准防控策略，打通人流、物流堵点，放开货运物流限制，推动产业链各环节协同复工复产。要积极扩大国内有效需求，加快在建和新开工项目建设进度，加强用工、用地、资金等要素保障。第六，不失时机抓好春季农业生产。要抓紧解决影响春耕备耕的突出问题，组织好农资生产、流通、供应，确保农业生产不误农时。第七，切实保障基本民生。要保障主副食品供应，强化对困难群众的兜底保障，对患者特别是有亲人罹难的家庭要重点照顾。要统筹做好其他疾病患者医疗救治工作。第八，稳住外贸外资基本盘。要用足用好出口退税、出口信用保险等合规的外贸政策工具，保障外贸产业链、供应链畅通运转，抓好重大外资项目落地，扩大金融等服务业对外开放，继续优化营商环境，增强外商长期投资经营的信心。', '习近平指出，打好、打赢这场疫情防控的人民战争、总体战、阻击战，必须加强党对统筹推进疫情防控和经济社会发展工作的领导。各级党组织要认真履行领导责任，特别是抓落实的职责，把党中央各项决策部署抓实抓细抓落地。各级干部特别是领导干部要增强必胜之心、责任之心、仁爱之心、谨慎之心，勇当先锋，敢打头阵，主动担当、积极作为。要在斗争一线考察识别干部，对表现突出的干部要大力褒奖、大胆使用，对不担当不作为、失职渎职的要严肃问责，对在斗争一线表现突出的先进集体和个人，要根据情况分层分级予以表彰和嘉奖。要关心关爱广大基层干部和深入基层的各级干部特别是湖北、武汉等疫情严重地区的干部群众，及时帮助他们解决遇到的实际困难和问题，坚决纠正形式主义、官僚主义做法。要推动防控资源和力量下沉，充分调动社会力量共同参与疫情防控。要针对这次应对疫情中暴露出的明显短板，总结经验、吸取教训，提高应对突发重大公共卫生事件的能力和水平。', '李克强在主持会议时表示，习近平总书记的重要讲话全面总结了新冠肺炎疫情防控工作，深刻分析了当前疫情形势和对经济社会发展影响，提出了加强党的领导、统筹推进疫情防控和经济社会发展工作的重点任务和重大举措，具有很强的思想性、指导性、针对性。各地区各部门要认真学习领会，深入贯彻落实，更加紧密团结在以习近平同志为核心的党中央周围，落实坚定信心、同舟共济、科学防治、精准施策的总要求，把党中央各项决策部署抓实抓细，迎难而上，奋力拼搏，统筹做好疫情防控和经济社会发展工作，全面打赢疫情防控人民战争、总体战、阻击战，努力实现全年经济社会发展目标任务，确保全面建成小康社会和完成“十三五”规划，向党和人民交出合格答卷。', '中央应对新冠肺炎疫情工作领导小组成员，中央赴湖北指导组有关同志，国务院应对新冠肺炎疫情联防联控机制各成员单位主要负责同志参加会议。会议以电视电话会议形式召开，各省区市和新疆生产建设兵团以及各市（地、州、盟）、县（市、区、旗），中央和国家机关各部门、各人民团体，解放军和武警部队团级以上单位设分会场。']</t>
         </is>
